--- a/Fixtures/Fixtures_2021_2022.xlsx
+++ b/Fixtures/Fixtures_2021_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabzu\Documents\All EPL Project Files\Fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B38D342-17CB-4B3C-BD46-B44702DA8455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5A6140-4D23-4257-871C-17107DA8B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CC4F3B36-7531-43AE-9A50-CC7491D1709F}"/>
   </bookViews>
@@ -38,14 +38,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{7528BA0C-6A8A-44EF-8A35-157111DD23BC}" name="Connection" type="4" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{7528BA0C-6A8A-44EF-8A35-157111DD23BC}" name="Connection" type="4" refreshedVersion="7" background="1" refreshOnLoad="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://fbref.com/en/comps/9/schedule/Premier-League-Scores-and-Fixtures" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="80">
   <si>
     <r>
       <t xml:space="preserve">Scores &amp; Fixtures </t>
@@ -251,6 +251,63 @@
   <si>
     <t>Wed</t>
   </si>
+  <si>
+    <t>2–0</t>
+  </si>
+  <si>
+    <t>Michael Oliver</t>
+  </si>
+  <si>
+    <t>5–1</t>
+  </si>
+  <si>
+    <t>Paul Tierney</t>
+  </si>
+  <si>
+    <t>1–0</t>
+  </si>
+  <si>
+    <t>Craig Pawson</t>
+  </si>
+  <si>
+    <t>1–2</t>
+  </si>
+  <si>
+    <t>David Coote</t>
+  </si>
+  <si>
+    <t>3–2</t>
+  </si>
+  <si>
+    <t>Mike Dean</t>
+  </si>
+  <si>
+    <t>3–0</t>
+  </si>
+  <si>
+    <t>Jonathan Moss</t>
+  </si>
+  <si>
+    <t>3–1</t>
+  </si>
+  <si>
+    <t>Andy Madley</t>
+  </si>
+  <si>
+    <t>0–3</t>
+  </si>
+  <si>
+    <t>Andre Marriner</t>
+  </si>
+  <si>
+    <t>2–4</t>
+  </si>
+  <si>
+    <t>Martin Atkinson</t>
+  </si>
+  <si>
+    <t>Anthony Taylor</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -360,6 +417,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -385,7 +445,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Premier-League-Scores-and-Fixtures" preserveFormatting="0" connectionId="1" xr16:uid="{5E96ADE0-DE66-472F-A2A6-509048C012A6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Premier-League-Scores-and-Fixtures" refreshOnLoad="1" preserveFormatting="0" connectionId="1" xr16:uid="{5E96ADE0-DE66-472F-A2A6-509048C012A6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,7 +748,7 @@
   <dimension ref="A1:N419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,34 +758,34 @@
     <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -787,19 +847,29 @@
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.5</v>
+      </c>
       <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="8">
+        <v>16479</v>
+      </c>
       <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M3" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N3" s="2"/>
     </row>
@@ -819,19 +889,29 @@
       <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.6</v>
+      </c>
       <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="8">
+        <v>72732</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="M4" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -851,19 +931,29 @@
       <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="8">
+        <v>31983</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="M5" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -883,9 +973,15 @@
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.2</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
@@ -893,9 +989,11 @@
       <c r="K6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M6" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -915,19 +1013,29 @@
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="8">
+        <v>20051</v>
+      </c>
       <c r="K7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="M7" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -947,19 +1055,29 @@
       <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="8">
+        <v>38965</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="M8" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -979,9 +1097,15 @@
       <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.7</v>
+      </c>
       <c r="I9" s="5" t="s">
         <v>36</v>
       </c>
@@ -989,9 +1113,11 @@
       <c r="K9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="M9" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N9" s="2"/>
     </row>
@@ -1011,19 +1137,29 @@
       <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
       <c r="I10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="8">
+        <v>27023</v>
+      </c>
       <c r="K10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="M10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1043,19 +1179,29 @@
       <c r="E11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="I11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="8">
+        <v>50673</v>
+      </c>
       <c r="K11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="M11" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -1075,19 +1221,29 @@
       <c r="E12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.9</v>
+      </c>
       <c r="I12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="8">
+        <v>58262</v>
+      </c>
       <c r="K12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="M12" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N12" s="2"/>
     </row>
@@ -3169,17 +3325,17 @@
         <v>0.625</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="5" t="s">
@@ -3201,17 +3357,17 @@
         <v>0.625</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="5" t="s">
@@ -4209,17 +4365,17 @@
         <v>0.625</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="5" t="s">
@@ -4241,17 +4397,17 @@
         <v>0.625</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="5" t="s">
@@ -4273,17 +4429,17 @@
         <v>0.625</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="5" t="s">
@@ -4305,17 +4461,17 @@
         <v>0.625</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="5" t="s">
@@ -4337,17 +4493,17 @@
         <v>0.625</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="5" t="s">
@@ -4369,17 +4525,17 @@
         <v>0.625</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="5" t="s">
@@ -4481,17 +4637,17 @@
         <v>0.625</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="5" t="s">
@@ -4513,17 +4669,17 @@
         <v>0.625</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="5" t="s">
@@ -4545,17 +4701,17 @@
         <v>0.625</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="5" t="s">
@@ -4737,17 +4893,17 @@
         <v>0.625</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J132" s="2"/>
       <c r="K132" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="5" t="s">
@@ -4769,17 +4925,17 @@
         <v>0.625</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J133" s="2"/>
       <c r="K133" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="5" t="s">
@@ -4881,17 +5037,17 @@
         <v>0.625</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="5" t="s">
@@ -4913,17 +5069,17 @@
         <v>0.625</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="5" t="s">
@@ -5073,17 +5229,17 @@
         <v>0.625</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="5" t="s">
@@ -5105,17 +5261,17 @@
         <v>0.625</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="5" t="s">
@@ -5713,17 +5869,17 @@
         <v>0.625</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="5" t="s">
@@ -5745,17 +5901,17 @@
         <v>0.625</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="5" t="s">
@@ -6049,17 +6205,17 @@
         <v>0.625</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L175" s="2"/>
       <c r="M175" s="5" t="s">
@@ -6081,17 +6237,17 @@
         <v>0.625</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="5" t="s">
@@ -6113,17 +6269,17 @@
         <v>0.625</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="5" t="s">
@@ -6289,17 +6445,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="5" t="s">
@@ -6321,17 +6477,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J184" s="2"/>
       <c r="K184" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L184" s="2"/>
       <c r="M184" s="5" t="s">
@@ -6865,17 +7021,17 @@
         <v>0.625</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J202" s="2"/>
       <c r="K202" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L202" s="2"/>
       <c r="M202" s="5" t="s">
@@ -6897,17 +7053,17 @@
         <v>0.625</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J203" s="2"/>
       <c r="K203" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L203" s="2"/>
       <c r="M203" s="5" t="s">
@@ -6929,17 +7085,17 @@
         <v>0.625</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L204" s="2"/>
       <c r="M204" s="5" t="s">
@@ -7025,17 +7181,17 @@
         <v>0.625</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L207" s="2"/>
       <c r="M207" s="5" t="s">
@@ -7057,17 +7213,17 @@
         <v>0.625</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J208" s="2"/>
       <c r="K208" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L208" s="2"/>
       <c r="M208" s="5" t="s">
@@ -7297,17 +7453,17 @@
         <v>0.625</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J216" s="2"/>
       <c r="K216" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L216" s="2"/>
       <c r="M216" s="5" t="s">
@@ -7329,17 +7485,17 @@
         <v>0.625</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J217" s="2"/>
       <c r="K217" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="L217" s="2"/>
       <c r="M217" s="5" t="s">
@@ -7393,17 +7549,17 @@
         <v>0.625</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J219" s="2"/>
       <c r="K219" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="L219" s="2"/>
       <c r="M219" s="5" t="s">
@@ -7425,17 +7581,17 @@
         <v>0.625</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J220" s="2"/>
       <c r="K220" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L220" s="2"/>
       <c r="M220" s="5" t="s">
@@ -8577,17 +8733,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J258" s="2"/>
       <c r="K258" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L258" s="2"/>
       <c r="M258" s="5" t="s">
@@ -8609,17 +8765,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J259" s="2"/>
       <c r="K259" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L259" s="2"/>
       <c r="M259" s="5" t="s">
@@ -9217,17 +9373,17 @@
         <v>0.625</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L279" s="2"/>
       <c r="M279" s="5" t="s">
@@ -9281,17 +9437,17 @@
         <v>0.625</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L281" s="2"/>
       <c r="M281" s="5" t="s">
@@ -9313,17 +9469,17 @@
         <v>0.625</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L282" s="2"/>
       <c r="M282" s="5" t="s">
@@ -10017,17 +10173,17 @@
         <v>0.625</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="I305" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L305" s="2"/>
       <c r="M305" s="5" t="s">
@@ -10049,17 +10205,17 @@
         <v>0.625</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="I306" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L306" s="2"/>
       <c r="M306" s="5" t="s">
@@ -10721,17 +10877,17 @@
         <v>0.625</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="I328" s="5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L328" s="2"/>
       <c r="M328" s="5" t="s">
@@ -10753,17 +10909,17 @@
         <v>0.625</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="I329" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L329" s="2"/>
       <c r="M329" s="5" t="s">
@@ -10785,17 +10941,17 @@
         <v>0.625</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="I330" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L330" s="2"/>
       <c r="M330" s="5" t="s">
@@ -10929,17 +11085,17 @@
         <v>0.625</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="I335" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L335" s="2"/>
       <c r="M335" s="5" t="s">
@@ -10961,17 +11117,17 @@
         <v>0.625</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="I336" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L336" s="2"/>
       <c r="M336" s="5" t="s">
@@ -11393,17 +11549,17 @@
         <v>0.625</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="I350" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="L350" s="2"/>
       <c r="M350" s="5" t="s">
@@ -11425,17 +11581,17 @@
         <v>0.625</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="I351" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L351" s="2"/>
       <c r="M351" s="5" t="s">
@@ -11537,17 +11693,17 @@
         <v>0.625</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="I355" s="5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="L355" s="2"/>
       <c r="M355" s="5" t="s">
@@ -11569,17 +11725,17 @@
         <v>0.625</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="I356" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="L356" s="2"/>
       <c r="M356" s="5" t="s">
@@ -11873,17 +12029,17 @@
         <v>0.625</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="I366" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L366" s="2"/>
       <c r="M366" s="5" t="s">
@@ -11905,17 +12061,17 @@
         <v>0.625</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="I367" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="L367" s="2"/>
       <c r="M367" s="5" t="s">
@@ -11937,17 +12093,17 @@
         <v>0.625</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L368" s="2"/>
       <c r="M368" s="5" t="s">
@@ -12001,17 +12157,17 @@
         <v>0.625</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="I370" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="5" t="s">
@@ -12033,17 +12189,17 @@
         <v>0.625</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="I371" s="5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L371" s="2"/>
       <c r="M371" s="5" t="s">
@@ -12065,17 +12221,17 @@
         <v>0.625</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="I372" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="L372" s="2"/>
       <c r="M372" s="5" t="s">
@@ -12273,17 +12429,17 @@
         <v>0.625</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="I379" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="L379" s="2"/>
       <c r="M379" s="5" t="s">
@@ -12305,17 +12461,17 @@
         <v>0.625</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="I380" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L380" s="2"/>
       <c r="M380" s="5" t="s">
@@ -12337,17 +12493,17 @@
         <v>0.625</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="I381" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L381" s="2"/>
       <c r="M381" s="5" t="s">
@@ -12401,17 +12557,17 @@
         <v>0.625</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="I383" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L383" s="2"/>
       <c r="M383" s="5" t="s">
@@ -12609,17 +12765,17 @@
         <v>0.625</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L390" s="2"/>
       <c r="M390" s="5" t="s">
@@ -12641,17 +12797,17 @@
         <v>0.625</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="I391" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L391" s="2"/>
       <c r="M391" s="5" t="s">
@@ -12673,17 +12829,17 @@
         <v>0.625</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="I392" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L392" s="2"/>
       <c r="M392" s="5" t="s">
@@ -12705,17 +12861,17 @@
         <v>0.625</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="I393" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L393" s="2"/>
       <c r="M393" s="5" t="s">
@@ -12737,17 +12893,17 @@
         <v>0.625</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="I394" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L394" s="2"/>
       <c r="M394" s="5" t="s">
@@ -12769,17 +12925,17 @@
         <v>0.625</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="I395" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="L395" s="2"/>
       <c r="M395" s="5" t="s">
@@ -13281,17 +13437,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L412" s="2"/>
       <c r="M412" s="5" t="s">
@@ -13313,17 +13469,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="I413" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L413" s="2"/>
       <c r="M413" s="5" t="s">
@@ -13409,17 +13565,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="L416" s="2"/>
       <c r="M416" s="5" t="s">
@@ -13441,17 +13597,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="I417" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="L417" s="2"/>
       <c r="M417" s="5" t="s">
@@ -13528,1528 +13684,1538 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://fbref.com/en/matches/2021-08-13" xr:uid="{3330C9D1-F89B-4D34-BF75-5FD1B7575CAF}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7BB7DA05-0C63-40EB-BC21-03DB8AF3D8F0}"/>
-    <hyperlink ref="I3" r:id="rId3" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{60F6B882-0FC9-496B-9835-2DA9CFECB669}"/>
-    <hyperlink ref="M3" r:id="rId4" display="https://fbref.com/en/stathead/matchup/squads/cd051869/18bb7c10/Brentford-vs-Arsenal-History" xr:uid="{98F5720E-B0AA-42D7-B52C-12EB234289CF}"/>
-    <hyperlink ref="C4" r:id="rId5" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{2BEF36F3-C19C-4168-8BB9-1CC52D68EDC1}"/>
-    <hyperlink ref="E4" r:id="rId6" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{0425C6C8-3DAC-452B-AEE6-6178CB5746AB}"/>
-    <hyperlink ref="I4" r:id="rId7" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{6C1D7048-9807-45E8-8AA7-33934C0C44A3}"/>
-    <hyperlink ref="M4" r:id="rId8" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/19538871/Leeds-United-vs-Manchester-United-History" xr:uid="{DFE30565-963C-41D3-875A-D6EEE334275E}"/>
-    <hyperlink ref="C5" r:id="rId9" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{45005A66-D9CB-4DEA-AB5A-3CA683CEFF8E}"/>
-    <hyperlink ref="E5" r:id="rId10" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{358400F9-BF69-405E-96F1-B28D412BC93E}"/>
-    <hyperlink ref="I5" r:id="rId11" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{985213CE-B41A-4AEC-A7FD-C8EBE9E72F5E}"/>
-    <hyperlink ref="M5" r:id="rId12" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8cec06e1/Leicester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{D48D95E7-9D14-47E6-8300-FF09D471F6D3}"/>
-    <hyperlink ref="C6" r:id="rId13" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{B9B754DD-D124-4529-972F-BC929C985591}"/>
-    <hyperlink ref="E6" r:id="rId14" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F7362993-A2B5-4F0C-9ACF-3DCE9DD41B97}"/>
-    <hyperlink ref="I6" r:id="rId15" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{2E989A3C-4A03-4EFD-8BDB-BADAA652C488}"/>
-    <hyperlink ref="M6" r:id="rId16" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/943e8050/Brighton-and-Hove-Albion-vs-Burnley-History" xr:uid="{6357CB64-F826-4309-AA5B-68E3E60FF456}"/>
-    <hyperlink ref="C7" r:id="rId17" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{19658347-2A16-436F-A435-2D3330859F7B}"/>
-    <hyperlink ref="E7" r:id="rId18" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{696FE10E-7C23-4DEF-A2E2-0A38B6E78DAB}"/>
-    <hyperlink ref="I7" r:id="rId19" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{556E607F-AB93-41A8-9DE4-8B5354B57897}"/>
-    <hyperlink ref="M7" r:id="rId20" display="https://fbref.com/en/stathead/matchup/squads/8602292d/2abfe087/Aston-Villa-vs-Watford-History" xr:uid="{4C29D8B5-55BE-4C69-B672-E7C8FF2E646F}"/>
-    <hyperlink ref="C8" r:id="rId21" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{4AE8125A-6A68-42AC-9A7D-9B39934041AA}"/>
-    <hyperlink ref="E8" r:id="rId22" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F7104F11-8CCA-4E07-ADF2-20241AC22AFA}"/>
-    <hyperlink ref="I8" r:id="rId23" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{9CB42C4B-A637-445F-9B39-0EB752BCD483}"/>
-    <hyperlink ref="M8" r:id="rId24" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/47c64c55/Chelsea-vs-Crystal-Palace-History" xr:uid="{821BFD1C-72D4-43D4-A529-870614087C39}"/>
-    <hyperlink ref="C9" r:id="rId25" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{F445683F-EDCE-4095-933B-5A626318C751}"/>
-    <hyperlink ref="E9" r:id="rId26" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5EE76E9B-EF28-4972-B56F-7045CB572F9D}"/>
-    <hyperlink ref="I9" r:id="rId27" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1662277B-93B4-473A-BCA9-B9FB450E8CD9}"/>
-    <hyperlink ref="M9" r:id="rId28" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/33c895d4/Everton-vs-Southampton-History" xr:uid="{E3B78146-F83F-4835-8573-BB8D3F61F69A}"/>
-    <hyperlink ref="C10" r:id="rId29" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{2AD63A6D-7DB3-48C7-80F2-372305B71C6D}"/>
-    <hyperlink ref="E10" r:id="rId30" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2959B397-7EB8-4DBB-8299-504E39EB37E7}"/>
-    <hyperlink ref="I10" r:id="rId31" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{03DFEF00-7D06-48FB-8673-683412134339}"/>
-    <hyperlink ref="M10" r:id="rId32" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/1c781004/Liverpool-vs-Norwich-City-History" xr:uid="{BDED71BF-E0F9-45BF-A0CF-354042F44289}"/>
-    <hyperlink ref="C11" r:id="rId33" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{ED3C09E3-F915-4A8D-97E4-6179364CD118}"/>
-    <hyperlink ref="E11" r:id="rId34" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{22A80BA1-2B8B-4C2A-B15F-7C327E5D24D4}"/>
-    <hyperlink ref="I11" r:id="rId35" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{FA2BB1C9-C9C5-4D34-A589-34D3BF0B37D0}"/>
-    <hyperlink ref="M11" r:id="rId36" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/7c21e445/Newcastle-United-vs-West-Ham-United-History" xr:uid="{1E94685C-C651-43B7-8059-D7C2C44CD5CB}"/>
-    <hyperlink ref="C12" r:id="rId37" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{4967024A-159A-4E84-88EA-57632EE9E856}"/>
-    <hyperlink ref="E12" r:id="rId38" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1263CB9F-4898-4AD0-90DA-4926AE2CB750}"/>
-    <hyperlink ref="I12" r:id="rId39" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{02764D0F-12AD-4B91-B2D9-05334374ADBA}"/>
-    <hyperlink ref="M12" r:id="rId40" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/361ca564/Manchester-City-vs-Tottenham-Hotspur-History" xr:uid="{CD48992F-FE5E-4D5E-BBAD-754E96552A48}"/>
-    <hyperlink ref="C14" r:id="rId41" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{00B66503-1656-44C8-B14B-50D23A67765E}"/>
-    <hyperlink ref="E14" r:id="rId42" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{53D6B121-7C0D-46C6-B857-9719C08D12BC}"/>
-    <hyperlink ref="I14" r:id="rId43" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B218B828-1777-4EB2-80C9-43D7DB330FA8}"/>
-    <hyperlink ref="M14" r:id="rId44" display="https://fbref.com/en/stathead/matchup/squads/943e8050/822bd0ba/Burnley-vs-Liverpool-History" xr:uid="{691D274E-0146-4B2F-8C36-E7D9B22B3FD0}"/>
-    <hyperlink ref="C15" r:id="rId45" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{9E28A704-9B93-42FC-AEC3-C8E1F7175E03}"/>
-    <hyperlink ref="E15" r:id="rId46" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{62DD8FA5-C958-4C2A-B6E5-113E7A2A25E2}"/>
-    <hyperlink ref="I15" r:id="rId47" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{3A2FCEF4-0DC6-402C-A765-77C76E932AEC}"/>
-    <hyperlink ref="M15" r:id="rId48" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8602292d/Newcastle-United-vs-Aston-Villa-History" xr:uid="{4ECC77A2-D278-494A-96C2-617B23A3D935}"/>
-    <hyperlink ref="C16" r:id="rId49" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{C3DDDE10-BAE3-4540-952C-CB7302C84314}"/>
-    <hyperlink ref="E16" r:id="rId50" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{47F9E0A3-33E9-4D0A-A07F-7CD36786F894}"/>
-    <hyperlink ref="I16" r:id="rId51" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{FD783996-8A91-4B14-B449-092553EA43B0}"/>
-    <hyperlink ref="M16" r:id="rId52" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/1c781004/Manchester-City-vs-Norwich-City-History" xr:uid="{70B366D5-E7CC-4CA1-9447-AB5775349443}"/>
-    <hyperlink ref="C17" r:id="rId53" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{84B30AD0-7114-4B07-B744-C323EBD41548}"/>
-    <hyperlink ref="E17" r:id="rId54" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{047D06D1-BD57-4F88-8AC5-253B4E72C585}"/>
-    <hyperlink ref="I17" r:id="rId55" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{82ADB9F9-4EF8-458A-ACA1-4AB9DA5D6E69}"/>
-    <hyperlink ref="M17" r:id="rId56" display="https://fbref.com/en/stathead/matchup/squads/cd051869/47c64c55/Brentford-vs-Crystal-Palace-History" xr:uid="{BBAEFA0B-BADA-4DDE-A1D1-4D7E1C790600}"/>
-    <hyperlink ref="C18" r:id="rId57" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{B3265FA5-2D0F-4350-A4C2-B475DB309A9D}"/>
-    <hyperlink ref="E18" r:id="rId58" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C7EE1DE6-4353-4A9F-B6E5-71F6643EC5A7}"/>
-    <hyperlink ref="I18" r:id="rId59" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{36788B26-6893-471C-BCEE-900CD654FD6F}"/>
-    <hyperlink ref="M18" r:id="rId60" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/5bfb9659/Everton-vs-Leeds-United-History" xr:uid="{87CF89BD-D4EC-451E-BF12-6345415A9A97}"/>
-    <hyperlink ref="C19" r:id="rId61" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{BFD733C8-3E97-41D2-91A3-B53988A576DD}"/>
-    <hyperlink ref="E19" r:id="rId62" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4AF5B1B7-5BD0-4112-B2E1-CEBAA71AF37F}"/>
-    <hyperlink ref="I19" r:id="rId63" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E2359D68-D6D9-4730-9DC2-866C698CFE3E}"/>
-    <hyperlink ref="M19" r:id="rId64" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/2abfe087/Brighton-and-Hove-Albion-vs-Watford-History" xr:uid="{62D1BDF0-311A-4E7D-9A79-864377870E1B}"/>
-    <hyperlink ref="C20" r:id="rId65" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{1E04B190-0BC8-44C7-BC35-4F1F40D35DD9}"/>
-    <hyperlink ref="E20" r:id="rId66" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{75FD5113-DFDE-4860-B7EB-51D37D500161}"/>
-    <hyperlink ref="I20" r:id="rId67" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{E4801EEE-1804-4328-9317-C667BA5484FC}"/>
-    <hyperlink ref="M20" r:id="rId68" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{786F1640-F069-4BD0-A34A-D49F12CD36B5}"/>
-    <hyperlink ref="C21" r:id="rId69" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{2326B1BC-3FD4-4C60-9EB7-27DEB96FAF85}"/>
-    <hyperlink ref="E21" r:id="rId70" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{48858811-837F-48DB-A862-14628DA16E9D}"/>
-    <hyperlink ref="I21" r:id="rId71" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{AC65BC22-DDCE-478D-BE8E-8891F1256482}"/>
-    <hyperlink ref="M21" r:id="rId72" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{507DBF6D-27D2-4F6A-AC4F-8CD15ABCB28F}"/>
-    <hyperlink ref="C22" r:id="rId73" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{F381C4F4-D25A-4FDF-8CD3-3FAF6983CB7A}"/>
-    <hyperlink ref="E22" r:id="rId74" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{E5CBA785-1A6D-4620-8885-70CC8E5395B9}"/>
-    <hyperlink ref="I22" r:id="rId75" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{79818309-56CD-4860-8B1F-7B0DEAE73109}"/>
-    <hyperlink ref="M22" r:id="rId76" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{0B478C13-7FEC-4935-8BE7-650BC84F07FB}"/>
-    <hyperlink ref="C23" r:id="rId77" display="https://fbref.com/en/matches/2021-08-23" xr:uid="{1E836108-4ABC-4F03-946F-744556B2CA05}"/>
-    <hyperlink ref="E23" r:id="rId78" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{44AC550D-081C-4D10-8FC2-28AA98056CEB}"/>
-    <hyperlink ref="I23" r:id="rId79" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{437DB6D8-8319-4702-A31F-ABFA458E6E36}"/>
-    <hyperlink ref="M23" r:id="rId80" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{F088833F-31B9-46C1-B27E-417F3A05CEC2}"/>
-    <hyperlink ref="C25" r:id="rId81" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{43EC5951-04AF-4C7F-8824-9E2D804F4430}"/>
-    <hyperlink ref="E25" r:id="rId82" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{B38186EC-70F1-4B3E-B1FE-B208028CB9F6}"/>
-    <hyperlink ref="I25" r:id="rId83" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{61D9CC8B-B98D-4E4C-845A-6546327F5350}"/>
-    <hyperlink ref="M25" r:id="rId84" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{2763629B-7227-4AA3-950A-CAA2C0376B64}"/>
-    <hyperlink ref="C26" r:id="rId85" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{C889C14C-95B2-4B61-90E9-2A3ADEFB886F}"/>
-    <hyperlink ref="E26" r:id="rId86" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{3D64241C-582E-4C79-B53F-E97DCF21D361}"/>
-    <hyperlink ref="I26" r:id="rId87" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{31E2FEFB-2148-4380-9465-A97A54199984}"/>
-    <hyperlink ref="M26" r:id="rId88" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{A20248F0-5976-406D-BE99-FD76C521B834}"/>
-    <hyperlink ref="C27" r:id="rId89" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{51D37CB0-971E-4723-A282-B167B975C4CA}"/>
-    <hyperlink ref="E27" r:id="rId90" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{1355F8C9-E069-4383-B4CD-C0267362883A}"/>
-    <hyperlink ref="I27" r:id="rId91" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{EE438C5D-CEFC-4371-896F-793F2FB18D2B}"/>
-    <hyperlink ref="M27" r:id="rId92" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{5F579F81-C77F-4F61-A83A-FB58EA13ED07}"/>
-    <hyperlink ref="C28" r:id="rId93" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{95C7ED48-8AB9-4FA5-8586-BD063A985C5A}"/>
-    <hyperlink ref="E28" r:id="rId94" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{3FAAA0C1-56A2-45A4-8EBA-D5D021C73AEE}"/>
-    <hyperlink ref="I28" r:id="rId95" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{FFC8C2F4-C4BB-4C1D-86F4-3D81DADB1680}"/>
-    <hyperlink ref="M28" r:id="rId96" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{A6060656-F791-4DD9-83C3-3BC5922ADF88}"/>
-    <hyperlink ref="C29" r:id="rId97" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{EAC24685-D01C-40F7-8A09-E0585C113514}"/>
-    <hyperlink ref="E29" r:id="rId98" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A4C116B4-DD0F-439D-9208-B3CCB821340E}"/>
-    <hyperlink ref="I29" r:id="rId99" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{EB9FCF89-68C2-44A4-B61C-82756DE49B6F}"/>
-    <hyperlink ref="M29" r:id="rId100" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{89B8C53F-173D-444F-96F5-6813AFB4A10C}"/>
-    <hyperlink ref="C30" r:id="rId101" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{CA43D138-5BAA-4F1B-ACF8-49F0124536B8}"/>
-    <hyperlink ref="E30" r:id="rId102" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4E62E01D-E21A-47A5-BFC1-161D6EC66DB4}"/>
-    <hyperlink ref="I30" r:id="rId103" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{EFB06721-2445-4A66-8442-BE03EAB9657C}"/>
-    <hyperlink ref="M30" r:id="rId104" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{C8D32A5B-6F03-43A0-BCA0-FC9C84444220}"/>
-    <hyperlink ref="C31" r:id="rId105" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{2B533ECB-2DB7-4850-8C2A-854C6B45AD9B}"/>
-    <hyperlink ref="E31" r:id="rId106" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{B3D3155B-1C32-42E5-A045-726850FA8CE7}"/>
-    <hyperlink ref="I31" r:id="rId107" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B00ED985-48A0-4FF4-8449-263D258FA2C3}"/>
-    <hyperlink ref="M31" r:id="rId108" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{4DEF41E4-282E-4EC5-A69B-B1DAD1C2D582}"/>
-    <hyperlink ref="C32" r:id="rId109" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{BC13228F-B51D-4617-91B0-481926C89BD4}"/>
-    <hyperlink ref="E32" r:id="rId110" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B3A95857-685A-45C1-8A83-0CCD64AF72DB}"/>
-    <hyperlink ref="I32" r:id="rId111" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{AE6E38D5-F974-4CA6-9376-45906DF5CD38}"/>
-    <hyperlink ref="M32" r:id="rId112" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{CD3F83F6-BD6C-46FC-9096-125B5090B8C6}"/>
-    <hyperlink ref="C33" r:id="rId113" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{FB36A569-0DA3-4825-BDD2-2D4C0F7D855A}"/>
-    <hyperlink ref="E33" r:id="rId114" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B675DE5A-CF5F-4A89-BAAA-360708992BAB}"/>
-    <hyperlink ref="I33" r:id="rId115" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{539A3B56-AD22-40D9-ACED-70C54DD23191}"/>
-    <hyperlink ref="M33" r:id="rId116" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{BEADB2AD-1B92-471E-9CA1-7F0B9AFA8122}"/>
-    <hyperlink ref="C34" r:id="rId117" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{2F34AF45-1896-48D9-AA1A-2C971012A519}"/>
-    <hyperlink ref="E34" r:id="rId118" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D4B5306F-B663-4B85-A451-6551ABAF6985}"/>
-    <hyperlink ref="I34" r:id="rId119" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{18737070-C2B2-4A2F-922E-4608B9E713B5}"/>
-    <hyperlink ref="M34" r:id="rId120" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{A5331926-2C84-4C6F-82B1-7D3D79215310}"/>
-    <hyperlink ref="C36" r:id="rId121" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{3C37A7FE-92CD-471D-92BC-F170418D502F}"/>
-    <hyperlink ref="E36" r:id="rId122" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{9D62D1C2-21ED-448E-81FC-FB33FFAC98E3}"/>
-    <hyperlink ref="I36" r:id="rId123" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{5D011D41-F253-4902-9197-D696CC88CF93}"/>
-    <hyperlink ref="M36" r:id="rId124" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{B72B2FD9-CEB2-47FE-908D-416B5A51B005}"/>
-    <hyperlink ref="C37" r:id="rId125" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{67E30F51-F694-44DF-AC92-8556DF84DF80}"/>
-    <hyperlink ref="E37" r:id="rId126" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{0454C067-EBB6-4E3B-983E-F32C3E014E14}"/>
-    <hyperlink ref="I37" r:id="rId127" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{12866E75-A101-424B-A070-E9B69E0A5E15}"/>
-    <hyperlink ref="M37" r:id="rId128" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{0B4DBEE5-C545-4F79-8AC3-58B9ACA13D30}"/>
-    <hyperlink ref="C38" r:id="rId129" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{4B08868F-232A-4872-8695-63629A582A84}"/>
-    <hyperlink ref="E38" r:id="rId130" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{3EAAA792-1B2A-44F9-845E-F5E9A8FE82C9}"/>
-    <hyperlink ref="I38" r:id="rId131" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{59C14F48-B728-4DD1-97DD-DE855D331723}"/>
-    <hyperlink ref="M38" r:id="rId132" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{1DED1508-ED63-414A-83DB-986F7E91A090}"/>
-    <hyperlink ref="C39" r:id="rId133" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{797F765E-AC2E-44F8-BD55-F79FCDEC2051}"/>
-    <hyperlink ref="E39" r:id="rId134" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B5DAF91C-5853-4E36-8612-36C9DF9BB61D}"/>
-    <hyperlink ref="I39" r:id="rId135" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{75F8E2D1-7F3C-4B0A-97FA-1360B0F4F9AC}"/>
-    <hyperlink ref="M39" r:id="rId136" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{2EAE95AF-C708-46CA-B9D9-A2ACEE1169FF}"/>
-    <hyperlink ref="C40" r:id="rId137" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{7C860B6E-754B-4EE6-8846-6078981603D3}"/>
-    <hyperlink ref="E40" r:id="rId138" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{14F57A32-CE24-4E1F-87F6-EA11A8E04DDE}"/>
-    <hyperlink ref="I40" r:id="rId139" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C6C54A08-5513-4370-A73D-9A949201D5ED}"/>
-    <hyperlink ref="M40" r:id="rId140" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{35D25971-0CA6-4AED-A0DD-F523E523595D}"/>
-    <hyperlink ref="C41" r:id="rId141" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{8DB2111E-62B6-498C-BD38-4EDFD4ADE393}"/>
-    <hyperlink ref="E41" r:id="rId142" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{CE5FDB97-FCA9-4282-B3EA-DE4FACD775DA}"/>
-    <hyperlink ref="I41" r:id="rId143" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{F18B5EDE-3D3E-4A04-B015-A907106095AA}"/>
-    <hyperlink ref="M41" r:id="rId144" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{179E1424-08FB-4DF7-B506-181711472A1F}"/>
-    <hyperlink ref="C42" r:id="rId145" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{B248FE45-A3FE-4FFA-97A7-33A661E0F9AB}"/>
-    <hyperlink ref="E42" r:id="rId146" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A1C54999-48C3-4980-B0F0-A8821ABC2184}"/>
-    <hyperlink ref="I42" r:id="rId147" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{8915B40B-C049-4611-BEB1-014F9C45D41A}"/>
-    <hyperlink ref="M42" r:id="rId148" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{FFBBA7EA-0768-4B5F-B673-7BC50CFFEDBF}"/>
-    <hyperlink ref="C43" r:id="rId149" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{73C2CD90-EE54-4917-827E-141924E79F30}"/>
-    <hyperlink ref="E43" r:id="rId150" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{8EAE2855-0A87-4326-BB11-8FCC6AB138C2}"/>
-    <hyperlink ref="I43" r:id="rId151" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{928A3C1B-0715-4E28-AE9B-363824318B03}"/>
-    <hyperlink ref="M43" r:id="rId152" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{A6F416EF-4C72-4981-9C11-E05A05BB50E2}"/>
-    <hyperlink ref="C44" r:id="rId153" display="https://fbref.com/en/matches/2021-09-12" xr:uid="{FC58EB6C-816B-4725-9EE9-7D4D18219F60}"/>
-    <hyperlink ref="E44" r:id="rId154" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{CD4BD1FC-EEE1-4229-9C64-D6F38FC73EAD}"/>
-    <hyperlink ref="I44" r:id="rId155" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{8D8155B4-9BD4-40A8-A8AE-FAF8454D5C94}"/>
-    <hyperlink ref="M44" r:id="rId156" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{63E1D6CB-B09E-49E7-BF7C-09D76F7A6400}"/>
-    <hyperlink ref="C45" r:id="rId157" display="https://fbref.com/en/matches/2021-09-13" xr:uid="{29003A33-D473-4787-A3F8-477089A2A688}"/>
-    <hyperlink ref="E45" r:id="rId158" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{491819C3-FB99-4FC8-8C17-FAFB71726AEE}"/>
-    <hyperlink ref="I45" r:id="rId159" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2CCD6B7D-D353-4393-86E9-DC39112A02E9}"/>
-    <hyperlink ref="M45" r:id="rId160" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{82213F65-D44E-4D74-822B-8038B94DCE30}"/>
-    <hyperlink ref="C47" r:id="rId161" display="https://fbref.com/en/matches/2021-09-17" xr:uid="{57BCBBB0-681A-4734-9C68-ACAF49CE2E14}"/>
-    <hyperlink ref="E47" r:id="rId162" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{DB740B93-6DE1-4181-8D0F-2170E69FD341}"/>
-    <hyperlink ref="I47" r:id="rId163" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{5AA52698-3266-469F-B2F5-348806CB9C78}"/>
-    <hyperlink ref="M47" r:id="rId164" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{E2F09F77-53C4-4C40-AA26-7CC4FC90B4C7}"/>
-    <hyperlink ref="C48" r:id="rId165" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{EBEEEE9C-0644-4574-AC78-4C9261F42321}"/>
-    <hyperlink ref="E48" r:id="rId166" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{7AE4AB52-DC61-41B9-A62F-5A38E74AAAB0}"/>
-    <hyperlink ref="I48" r:id="rId167" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{8B098517-317A-401D-BD2E-656785358444}"/>
-    <hyperlink ref="M48" r:id="rId168" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{6BAA7D20-097E-4181-B3C1-E7A2E3D7F90E}"/>
-    <hyperlink ref="C49" r:id="rId169" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{C3DC7852-99A1-4F9B-B704-2963A290AC0C}"/>
-    <hyperlink ref="E49" r:id="rId170" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9ACA4787-E772-4BE9-A3D5-AFB264A1D2FC}"/>
-    <hyperlink ref="I49" r:id="rId171" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{70C46349-D3AE-4EA0-9BF3-994165EC5483}"/>
-    <hyperlink ref="M49" r:id="rId172" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{9114CEFE-E0C9-49D2-BF26-D2CA66BAE10C}"/>
-    <hyperlink ref="C50" r:id="rId173" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{EC811272-B1A1-4EA5-A043-5EF47D6E3EF9}"/>
-    <hyperlink ref="E50" r:id="rId174" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{81D54D9B-682E-40A2-998C-6C2798356BF2}"/>
-    <hyperlink ref="I50" r:id="rId175" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{61CDE191-E4C6-4EBD-80D2-1C51D3EADEBF}"/>
-    <hyperlink ref="M50" r:id="rId176" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{B07CF514-F585-4DB4-B804-DF5DC1ABE784}"/>
-    <hyperlink ref="C51" r:id="rId177" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{95525238-C89B-4D29-9750-BBC9F7707F44}"/>
-    <hyperlink ref="E51" r:id="rId178" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{B554103D-10A5-4B23-9A46-9D30DA63BDCE}"/>
-    <hyperlink ref="I51" r:id="rId179" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{6BF654A4-F330-4B36-A9BC-4E93F20C3CE3}"/>
-    <hyperlink ref="M51" r:id="rId180" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{D6F0325E-5E8B-489A-8A3D-4A4A4D76A896}"/>
-    <hyperlink ref="C52" r:id="rId181" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{0F8268F2-B68C-4D5C-9131-3B003239B269}"/>
-    <hyperlink ref="E52" r:id="rId182" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{0CC38325-1CE0-460D-B9FA-1D74E55B2861}"/>
-    <hyperlink ref="I52" r:id="rId183" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{FF0861FB-38F5-4B45-999F-BC7979D06B8A}"/>
-    <hyperlink ref="M52" r:id="rId184" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{1F7D69E2-A055-4AC4-BA54-00389A384A19}"/>
-    <hyperlink ref="C53" r:id="rId185" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{1C542274-22B4-433D-9B9A-9BC487CB4E94}"/>
-    <hyperlink ref="E53" r:id="rId186" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F8C6036A-979A-4AFE-9BF1-55CF0C62EFD1}"/>
-    <hyperlink ref="I53" r:id="rId187" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{CFDD1C99-3623-4442-8280-85B4AD03B11A}"/>
-    <hyperlink ref="M53" r:id="rId188" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{5FE0820F-F5DE-40B2-ACEE-E50F09BED0DE}"/>
-    <hyperlink ref="C54" r:id="rId189" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{774FA03E-B242-4C2D-B5B4-3F7EC202A3CF}"/>
-    <hyperlink ref="E54" r:id="rId190" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{06E1BF98-29C2-49ED-9490-831F96C808C5}"/>
-    <hyperlink ref="I54" r:id="rId191" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CECC0F46-A445-4D00-9B2A-0F4D3CEC95A3}"/>
-    <hyperlink ref="M54" r:id="rId192" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{1C99BA8E-E6F0-44AF-A873-C3EB8C21A5CB}"/>
-    <hyperlink ref="C55" r:id="rId193" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{D37B46A6-702E-4207-A9D4-6BA0EE6A22E0}"/>
-    <hyperlink ref="E55" r:id="rId194" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{2B02EF34-66CA-4FEC-8A27-9B79365C446F}"/>
-    <hyperlink ref="I55" r:id="rId195" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{7178FB9D-4FA5-457C-9BEF-D6CBDA88BF2D}"/>
-    <hyperlink ref="M55" r:id="rId196" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{819AD3CD-03D3-4C06-AF9E-E9D213E280E2}"/>
-    <hyperlink ref="C56" r:id="rId197" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{98504C4D-66AF-4D1A-8936-8F36027FDA5E}"/>
-    <hyperlink ref="E56" r:id="rId198" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{CFCC47FE-24BB-4E20-A314-4C64D3DCA16B}"/>
-    <hyperlink ref="I56" r:id="rId199" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2ACCE764-EC71-4EF0-A8ED-42CD80D95BDC}"/>
-    <hyperlink ref="M56" r:id="rId200" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{9A6774B3-D97B-4490-A254-A7936F5C3591}"/>
-    <hyperlink ref="C58" r:id="rId201" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{D19CC4D6-7B35-4F88-ABDE-F4E98A6AB5B9}"/>
-    <hyperlink ref="E58" r:id="rId202" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{0B6DB5FB-928D-4797-9DA0-366EA44FF881}"/>
-    <hyperlink ref="I58" r:id="rId203" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3555899F-53F5-4CD0-91E1-A626158C2B70}"/>
-    <hyperlink ref="M58" r:id="rId204" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{79A6C373-080E-49D1-97E8-B6CD42BFCF8D}"/>
-    <hyperlink ref="C59" r:id="rId205" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{08E75D44-05C1-4C89-B622-8F62C4C0FA5F}"/>
-    <hyperlink ref="E59" r:id="rId206" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C2F01B9A-AEE3-4CCB-93BB-D3C3A0671F1E}"/>
-    <hyperlink ref="I59" r:id="rId207" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{911D812F-774B-423B-A4F2-E9611E56C725}"/>
-    <hyperlink ref="M59" r:id="rId208" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{E15B61D8-9388-40C0-A30A-D4E4721DEFE2}"/>
-    <hyperlink ref="C60" r:id="rId209" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{9E33F9B6-519F-4CF8-B2EF-03EA2A3D9900}"/>
-    <hyperlink ref="E60" r:id="rId210" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{9E0EC2F3-5BC3-4063-8105-B65DDD331CF6}"/>
-    <hyperlink ref="I60" r:id="rId211" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{7AD28089-13A4-4F48-82E9-4AE2C4804127}"/>
-    <hyperlink ref="M60" r:id="rId212" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{961532B5-9BCA-453D-952E-52CA741C6904}"/>
-    <hyperlink ref="C61" r:id="rId213" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{B34AA34A-88FB-4094-A4B1-2238C9ED3EB9}"/>
-    <hyperlink ref="E61" r:id="rId214" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{9908E6CA-A42A-458B-85AB-745273F6357C}"/>
-    <hyperlink ref="I61" r:id="rId215" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2C3E3178-20FD-4F7C-BF99-48236DC79D74}"/>
-    <hyperlink ref="M61" r:id="rId216" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{F4EEA90C-8E4E-4A87-9563-4BDFDD1C2384}"/>
-    <hyperlink ref="C62" r:id="rId217" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{64B588B5-0988-4C55-9449-7B72C2821D10}"/>
-    <hyperlink ref="E62" r:id="rId218" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{1862BD9B-14B0-44AD-88FB-254563AE1711}"/>
-    <hyperlink ref="I62" r:id="rId219" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{7D003C0A-2FD1-466B-B781-B51ABC3920EC}"/>
-    <hyperlink ref="M62" r:id="rId220" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{0AA5BC10-0E58-477F-9D68-E0CD5BD68061}"/>
-    <hyperlink ref="C63" r:id="rId221" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{E09F6DA1-4954-4E1A-9AA9-C7E1C0E01EFB}"/>
-    <hyperlink ref="E63" r:id="rId222" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B5AE7381-7BD6-474A-B6C4-E27029B46045}"/>
-    <hyperlink ref="I63" r:id="rId223" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EF8ED469-353F-493F-A12A-515A592688CB}"/>
-    <hyperlink ref="M63" r:id="rId224" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{055EFD5C-2F99-4166-823A-D9B54C3A2DAA}"/>
-    <hyperlink ref="C64" r:id="rId225" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{63F44AA4-CE6C-41A2-AF3D-1D3B259455B4}"/>
-    <hyperlink ref="E64" r:id="rId226" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{62144A09-40A6-49CB-BB3F-F509F2F65218}"/>
-    <hyperlink ref="I64" r:id="rId227" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{8E37398E-8805-4B01-B850-DC42CF9CB53E}"/>
-    <hyperlink ref="M64" r:id="rId228" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{6A344DDC-E021-46FB-8D7B-C15F52F5AF41}"/>
-    <hyperlink ref="C65" r:id="rId229" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{1D29386E-FDED-4913-AFCF-93AF6D2DD9D9}"/>
-    <hyperlink ref="E65" r:id="rId230" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{19DA5774-1B56-4CD7-8D39-3AAEE2F359AD}"/>
-    <hyperlink ref="I65" r:id="rId231" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{02425A85-8345-4C2B-B2DC-913E4D65CDCF}"/>
-    <hyperlink ref="M65" r:id="rId232" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{A2C266EC-DDFB-46C1-8AEA-14AADADC1B37}"/>
-    <hyperlink ref="C66" r:id="rId233" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{029A828A-F84A-4357-991E-C487FC694426}"/>
-    <hyperlink ref="E66" r:id="rId234" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{5F501F28-02E8-4071-82CF-4A650D409BC2}"/>
-    <hyperlink ref="I66" r:id="rId235" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{6C930375-92D7-4CA9-B96B-F7B4C6C18CD8}"/>
-    <hyperlink ref="M66" r:id="rId236" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{B28F46A4-7B12-4D99-8685-8BD3B7082044}"/>
-    <hyperlink ref="C67" r:id="rId237" display="https://fbref.com/en/matches/2021-09-27" xr:uid="{0D9F4C96-94DD-4071-B917-300F5878737A}"/>
-    <hyperlink ref="E67" r:id="rId238" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{FE621884-B52C-4675-8BCB-04EF8A54167A}"/>
-    <hyperlink ref="I67" r:id="rId239" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{9CA63593-8118-4E3F-BAF0-40D79B5FA15E}"/>
-    <hyperlink ref="M67" r:id="rId240" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{B277D220-92DA-4DE8-901A-C86066AD5301}"/>
-    <hyperlink ref="C69" r:id="rId241" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{D2E14878-DF30-4F4E-9250-4B994D52F315}"/>
-    <hyperlink ref="E69" r:id="rId242" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{7C145A13-5E04-40F3-B217-701D69FFAEF3}"/>
-    <hyperlink ref="I69" r:id="rId243" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{2F6C83E7-D5D9-4FA1-AEE7-D59044D34825}"/>
-    <hyperlink ref="M69" r:id="rId244" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{D05181A6-0ECE-4E65-998E-1B658EEB234B}"/>
-    <hyperlink ref="C70" r:id="rId245" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{6D6169DE-ED0E-42CC-AA27-AA30E3B47914}"/>
-    <hyperlink ref="E70" r:id="rId246" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5B88F419-4572-453F-A5B5-AC05ABB4A2BF}"/>
-    <hyperlink ref="I70" r:id="rId247" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{232DF286-3105-4609-8A46-F2864C81E2B9}"/>
-    <hyperlink ref="M70" r:id="rId248" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{B98427B0-C651-4A99-B347-D6BBD9AFDDC1}"/>
-    <hyperlink ref="C71" r:id="rId249" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{6711E760-0B25-4E4F-B3DA-67E07158E2D4}"/>
-    <hyperlink ref="E71" r:id="rId250" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{B558A273-8809-42FC-A7D2-F442B94F6F79}"/>
-    <hyperlink ref="I71" r:id="rId251" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DFB1E615-8158-4EE7-81AA-913758CDDD03}"/>
-    <hyperlink ref="M71" r:id="rId252" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{32588C6E-2301-4E77-A8DB-C810AC8AA588}"/>
-    <hyperlink ref="C72" r:id="rId253" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{9EF74673-A2DD-494D-97A8-7D3359F9B2C0}"/>
-    <hyperlink ref="E72" r:id="rId254" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{21593307-34BA-4EA5-B747-20F7435C5BC5}"/>
-    <hyperlink ref="I72" r:id="rId255" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D0449C53-DFC3-4B25-A879-67294CCCBC0A}"/>
-    <hyperlink ref="M72" r:id="rId256" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{B9579F38-CBB1-4DB2-A637-30C4FAE180EA}"/>
-    <hyperlink ref="C73" r:id="rId257" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{83F2FDA4-AA7F-4214-ABCE-4EA5480AD46B}"/>
-    <hyperlink ref="E73" r:id="rId258" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{5423ACB2-9F9A-45BC-A6C8-F08215188CDD}"/>
-    <hyperlink ref="I73" r:id="rId259" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{8C42CCF9-321E-4A6E-B489-683B3B674278}"/>
-    <hyperlink ref="M73" r:id="rId260" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{431071C7-69EA-4B50-813F-049CE40D0166}"/>
-    <hyperlink ref="C74" r:id="rId261" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{FD4A9F89-41B0-4D70-ADC9-A3E7B9875BBE}"/>
-    <hyperlink ref="E74" r:id="rId262" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B44D6475-9882-4044-A0E1-4A11ACADF706}"/>
-    <hyperlink ref="I74" r:id="rId263" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{D03CF865-F6E4-4D4A-AF7D-7069F01B3511}"/>
-    <hyperlink ref="M74" r:id="rId264" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{C73D1332-DC3B-48E5-B942-9B3DFC922CBE}"/>
-    <hyperlink ref="C75" r:id="rId265" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{3A808E8A-B5D3-4021-8500-1DFD6A77D998}"/>
-    <hyperlink ref="E75" r:id="rId266" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5C857173-1951-4C47-878F-90B393AC21EF}"/>
-    <hyperlink ref="I75" r:id="rId267" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{4369BED9-0C30-480F-886F-17190BD95275}"/>
-    <hyperlink ref="M75" r:id="rId268" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{EC36DF0F-E02C-4A47-A807-4F3F57A27AF8}"/>
-    <hyperlink ref="C76" r:id="rId269" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{D7266FC2-732B-43E9-B3BA-C8C2AE2D1166}"/>
-    <hyperlink ref="E76" r:id="rId270" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{C8292F8E-AD1B-48AC-84D0-F6C8A7C337F4}"/>
-    <hyperlink ref="I76" r:id="rId271" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{25225B1F-6278-4D17-B3E9-BAA3F618815E}"/>
-    <hyperlink ref="M76" r:id="rId272" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{9285A47B-8DB1-4F78-8BD0-E7AB379CA99C}"/>
-    <hyperlink ref="C77" r:id="rId273" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{9291AF88-6795-42E7-95CF-F686B0C70D1E}"/>
-    <hyperlink ref="E77" r:id="rId274" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{0F9FDD2B-4FAA-4FD0-8387-38E6B0FE585B}"/>
-    <hyperlink ref="I77" r:id="rId275" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A96BA02F-EC73-451C-8801-32828F57CDFC}"/>
-    <hyperlink ref="M77" r:id="rId276" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{4B01EF09-BEB8-4ECE-B98F-C65C1AB7D18B}"/>
-    <hyperlink ref="C78" r:id="rId277" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{125330B0-A086-4C52-A636-F1729E7DB17F}"/>
-    <hyperlink ref="E78" r:id="rId278" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{EDA94434-5FF3-4259-8F0B-822824C7BBF4}"/>
-    <hyperlink ref="I78" r:id="rId279" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5180F438-B52D-4103-B601-FDCA37A9B1F2}"/>
-    <hyperlink ref="M78" r:id="rId280" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{FB8E65B0-5605-4C60-B83C-57C4B716F7D0}"/>
-    <hyperlink ref="C80" r:id="rId281" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{6AB0AF9D-1539-4677-95C2-0CEBCF21C02B}"/>
-    <hyperlink ref="E80" r:id="rId282" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{BA373792-E2E6-4C77-B223-4D0879F169EA}"/>
-    <hyperlink ref="I80" r:id="rId283" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{206A3A15-CC00-4194-83ED-7C56473CCF32}"/>
-    <hyperlink ref="M80" r:id="rId284" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{733FA6D4-26E4-41B6-9074-CA9F19F3DED5}"/>
-    <hyperlink ref="C81" r:id="rId285" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{38B4C15F-4D76-4579-A5E1-93D872FD970C}"/>
-    <hyperlink ref="E81" r:id="rId286" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{84D3B48A-14C6-412F-8C41-E3C9C157C69C}"/>
-    <hyperlink ref="I81" r:id="rId287" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E0FA2907-59AB-4C23-89BD-24525A99BF4B}"/>
-    <hyperlink ref="M81" r:id="rId288" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{6E171A72-8EE0-4820-B359-908FD3171465}"/>
-    <hyperlink ref="C82" r:id="rId289" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{20A26D15-4C4C-434D-BEFF-F2550ACCDA68}"/>
-    <hyperlink ref="E82" r:id="rId290" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{42CF62EB-5740-46CE-9980-64F93F9BE167}"/>
-    <hyperlink ref="I82" r:id="rId291" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{687286F0-85BB-4720-8A12-71A583A9C9C4}"/>
-    <hyperlink ref="M82" r:id="rId292" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{ACCEF479-7D79-4F21-BBFB-99E2ACBDB821}"/>
-    <hyperlink ref="C83" r:id="rId293" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{83600317-D0D7-4A55-8E50-D505A164DDCA}"/>
-    <hyperlink ref="E83" r:id="rId294" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D38830BC-0F67-4931-9505-274E4D038B3F}"/>
-    <hyperlink ref="I83" r:id="rId295" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{1F4C6ACE-C11E-4722-8EFD-D60261D76FBA}"/>
-    <hyperlink ref="M83" r:id="rId296" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{9A624C8C-2C95-460E-A16E-5D8E7A543CC4}"/>
-    <hyperlink ref="C84" r:id="rId297" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{8FB10F40-0131-49AA-84E5-3101734F143B}"/>
-    <hyperlink ref="E84" r:id="rId298" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{62A470BF-F96D-44C8-8FF5-F10C221E570E}"/>
-    <hyperlink ref="I84" r:id="rId299" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{452EE3B9-C574-4584-8D11-A684F7DD71BA}"/>
-    <hyperlink ref="M84" r:id="rId300" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{E1A6C8C2-296E-4EEC-A27A-1A2A2A307E0D}"/>
-    <hyperlink ref="C85" r:id="rId301" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{51FB4433-AD6B-4E12-867A-44B25A461155}"/>
-    <hyperlink ref="E85" r:id="rId302" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{720DE437-343D-4BF0-B74E-75CA1EE707DD}"/>
-    <hyperlink ref="I85" r:id="rId303" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{8AB71695-BF5D-49DE-B145-D2AE963BF4DE}"/>
-    <hyperlink ref="M85" r:id="rId304" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{3768426C-FC5A-406D-B170-7D201D4BA2DF}"/>
-    <hyperlink ref="C86" r:id="rId305" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{130CB645-DB78-4CF2-B318-3C27861A6A24}"/>
-    <hyperlink ref="E86" r:id="rId306" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{4AF0403B-6523-46CF-9015-EBC68065AF69}"/>
-    <hyperlink ref="I86" r:id="rId307" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{9E6E55CB-45BE-45D6-9219-BC06C2BAF05C}"/>
-    <hyperlink ref="M86" r:id="rId308" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{ACC5EFD3-9471-4BB5-B506-55B20E7F2F31}"/>
-    <hyperlink ref="C87" r:id="rId309" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{720E9DEE-FADC-4A0A-96F6-83793FA20641}"/>
-    <hyperlink ref="E87" r:id="rId310" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8C07816C-A494-4C9E-BD97-7A25AD3C45D1}"/>
-    <hyperlink ref="I87" r:id="rId311" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{2EDE0B32-78F8-4D28-AF2B-8900D2AADBFE}"/>
-    <hyperlink ref="M87" r:id="rId312" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{6179D1B3-72CE-436C-AE52-60886B79AE71}"/>
-    <hyperlink ref="C88" r:id="rId313" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{00313D07-8065-4A58-AD2D-06FFBBB30705}"/>
-    <hyperlink ref="E88" r:id="rId314" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{36FB640A-C711-4054-950E-2B6FF24746A7}"/>
-    <hyperlink ref="I88" r:id="rId315" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{484B1EC0-FBBF-4AB4-94C0-C348D856A4A8}"/>
-    <hyperlink ref="M88" r:id="rId316" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{9C741662-8F35-4B9F-8E7B-B5B99601FFCA}"/>
-    <hyperlink ref="C89" r:id="rId317" display="https://fbref.com/en/matches/2021-10-18" xr:uid="{B1847F5F-ACF0-4315-8344-8A90B39D0832}"/>
-    <hyperlink ref="E89" r:id="rId318" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8F42FA56-8008-4490-AF2E-F9ACB90FFA9B}"/>
-    <hyperlink ref="I89" r:id="rId319" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{0A0E3CCB-45F8-4FB8-B7A3-EBC3E2286EC1}"/>
-    <hyperlink ref="M89" r:id="rId320" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{7DE2B2BF-38F3-46DA-8FBE-8545F8BD5DAC}"/>
-    <hyperlink ref="C91" r:id="rId321" display="https://fbref.com/en/matches/2021-10-22" xr:uid="{023CBD2B-3A0E-4BD7-B085-534C76D27CA6}"/>
-    <hyperlink ref="E91" r:id="rId322" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{A4EB1BD6-9EA8-4C31-89CB-E27E22A1D754}"/>
-    <hyperlink ref="I91" r:id="rId323" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{D4274412-1BF9-403D-8350-EB74B47E08B8}"/>
-    <hyperlink ref="M91" r:id="rId324" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{AD18CBB4-EDBD-4C54-8851-9C99904D2E4B}"/>
-    <hyperlink ref="C92" r:id="rId325" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{02914E53-7D7D-40FF-B906-7A6126E0008C}"/>
-    <hyperlink ref="E92" r:id="rId326" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B210A310-B874-47B8-84FD-1D1BB6F8B109}"/>
-    <hyperlink ref="I92" r:id="rId327" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2AF2F768-BC7E-4105-8D70-AA69600E63F0}"/>
-    <hyperlink ref="M92" r:id="rId328" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{E52BD3EC-12ED-46E2-AC4E-1A191CB70FF7}"/>
-    <hyperlink ref="C93" r:id="rId329" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{9B8167CA-2B68-4AAF-B012-CCB9A6AF5266}"/>
-    <hyperlink ref="E93" r:id="rId330" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7D9E8F45-0B5C-4806-B8FF-89B0197779E4}"/>
-    <hyperlink ref="I93" r:id="rId331" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{90CDA4DD-F2A8-41FE-A39B-744425CA89DC}"/>
-    <hyperlink ref="M93" r:id="rId332" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{8BEEAC61-2E12-4AEE-9B01-86FDC3E8B516}"/>
-    <hyperlink ref="C94" r:id="rId333" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{6A609AE7-81BB-4D49-97E1-76169B4AB761}"/>
-    <hyperlink ref="E94" r:id="rId334" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{90CD33B1-F3BA-4130-B47C-43B3E7755D74}"/>
-    <hyperlink ref="I94" r:id="rId335" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EE54C8A3-4A06-4CAB-821F-4387D096CE08}"/>
-    <hyperlink ref="M94" r:id="rId336" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{10A9CD97-34BF-4F61-9892-4C379445B823}"/>
-    <hyperlink ref="C95" r:id="rId337" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{942A622F-ED83-4AA7-B386-F465A795DAD5}"/>
-    <hyperlink ref="E95" r:id="rId338" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{D5916084-3A01-4743-84D3-C769A19B14E1}"/>
-    <hyperlink ref="I95" r:id="rId339" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E1B91F01-77CA-4731-97A7-F06B9B68EE39}"/>
-    <hyperlink ref="M95" r:id="rId340" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{DEE003D3-89DC-457F-9C0C-1B4E66E02DC1}"/>
-    <hyperlink ref="C96" r:id="rId341" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{FADD686F-2291-4E52-8D65-77563E4F7BE2}"/>
-    <hyperlink ref="E96" r:id="rId342" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{EC947973-4E8F-4962-A592-83675ADF1838}"/>
-    <hyperlink ref="I96" r:id="rId343" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{188B99AC-33E0-4E0F-9B7A-AB12A484CB20}"/>
-    <hyperlink ref="M96" r:id="rId344" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{BEDEAE90-0A2F-49C8-8CE2-6632ADB124F7}"/>
-    <hyperlink ref="C97" r:id="rId345" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{D5FDE99B-28D7-493D-9CA1-F678407C56C9}"/>
-    <hyperlink ref="E97" r:id="rId346" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{97CE39EB-896E-4133-A85B-8C72EE0CD1D7}"/>
-    <hyperlink ref="I97" r:id="rId347" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{64816C9B-C668-4C21-A456-75CA70B5DF2F}"/>
-    <hyperlink ref="M97" r:id="rId348" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{5F28B089-126E-4659-AFEC-27E2ADD3A0F3}"/>
-    <hyperlink ref="C98" r:id="rId349" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{EE464579-73B8-450E-99F8-45403E1B7FF4}"/>
-    <hyperlink ref="E98" r:id="rId350" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{38B18D2C-C0D1-4A36-9B9D-A1B745C71141}"/>
-    <hyperlink ref="I98" r:id="rId351" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{870FC8BF-2276-4360-8124-7BC3A746047A}"/>
-    <hyperlink ref="M98" r:id="rId352" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{E3D8CD36-708A-4AD1-9C29-982DD15A0C3E}"/>
-    <hyperlink ref="C99" r:id="rId353" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{B3E1D653-0F19-46ED-9F16-BD04B599ECD5}"/>
-    <hyperlink ref="E99" r:id="rId354" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C3AB6EE4-FAB9-4658-95C1-9BE6130B99FD}"/>
-    <hyperlink ref="I99" r:id="rId355" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D3889670-4F6C-4635-ABD5-3CA4AA4A021B}"/>
-    <hyperlink ref="M99" r:id="rId356" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{1551203E-9C09-4CC1-8DC8-5E549CEB8CA6}"/>
-    <hyperlink ref="C100" r:id="rId357" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{32E2246E-CDA9-4BDA-88A0-19A7B4A8B63A}"/>
-    <hyperlink ref="E100" r:id="rId358" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{E78B72E4-E1FB-4503-B1D7-E80D9C1B2293}"/>
-    <hyperlink ref="I100" r:id="rId359" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{EE9C7AA3-75A4-49F1-99F3-B2BDCBFA722D}"/>
-    <hyperlink ref="M100" r:id="rId360" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{4FE852E8-726D-48AB-81FD-6FEEFB0BFA9D}"/>
-    <hyperlink ref="C102" r:id="rId361" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{B68335AD-D1CA-43B8-8A4C-B9130ECB0F55}"/>
-    <hyperlink ref="E102" r:id="rId362" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{31F6507B-BB9F-493B-983E-126477F7DA1C}"/>
-    <hyperlink ref="I102" r:id="rId363" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{571EF950-A4C2-4AF4-8CFE-75FA88426A57}"/>
-    <hyperlink ref="M102" r:id="rId364" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{66E9402C-C601-4BBE-ADDC-DC428A9D9144}"/>
-    <hyperlink ref="C103" r:id="rId365" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{BEEC3F13-1AC2-416A-98D0-C6679D5A2405}"/>
-    <hyperlink ref="E103" r:id="rId366" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{814B00F9-EB6B-4ACA-821F-61432533E5BC}"/>
-    <hyperlink ref="I103" r:id="rId367" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{76A74625-B8CA-41FE-AC98-27753C5F9F80}"/>
-    <hyperlink ref="M103" r:id="rId368" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{BFC83C2F-A5A4-4F65-ACBA-75462A75CC88}"/>
-    <hyperlink ref="C104" r:id="rId369" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{18FA0C94-704D-41A4-A97D-AD35559492FE}"/>
-    <hyperlink ref="E104" r:id="rId370" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F0E34A12-5796-4890-90C6-6C6436D8FD50}"/>
-    <hyperlink ref="I104" r:id="rId371" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{BD0785B2-62AC-4DC0-922A-32836B88ED19}"/>
-    <hyperlink ref="M104" r:id="rId372" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{0AD18CA2-57C8-43DA-8B9E-ED0A02471716}"/>
-    <hyperlink ref="C105" r:id="rId373" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{0BBC95D6-7102-4E1D-A965-212BA821BC06}"/>
-    <hyperlink ref="E105" r:id="rId374" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{98B8260C-2B2E-4CC6-B790-73AD5D4EA9F4}"/>
-    <hyperlink ref="I105" r:id="rId375" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{61555A81-4D01-4798-BB12-0EF5AFD3729B}"/>
-    <hyperlink ref="M105" r:id="rId376" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{E75F3EEA-47F1-4852-8ED8-879AF173A8A9}"/>
-    <hyperlink ref="C106" r:id="rId377" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{B34EE515-6EFC-4B6A-9655-DCF0D1A15F48}"/>
-    <hyperlink ref="E106" r:id="rId378" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{49F43E6D-04A3-4A8B-A0EA-F038C705B6A0}"/>
-    <hyperlink ref="I106" r:id="rId379" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{FF35C42D-B546-483F-9838-175C2EF50E0C}"/>
-    <hyperlink ref="M106" r:id="rId380" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{FD7F8B63-07F2-4A14-A9FE-00C984646F25}"/>
-    <hyperlink ref="C107" r:id="rId381" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{E451D837-6C65-407B-B917-E80D7B027DF5}"/>
-    <hyperlink ref="E107" r:id="rId382" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{E7C03F00-7A20-4C70-874B-C6AC655DFB9E}"/>
-    <hyperlink ref="I107" r:id="rId383" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C4150CED-62A9-4493-9AE6-F59431588DFC}"/>
-    <hyperlink ref="M107" r:id="rId384" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{CC34F8A1-5D80-44B9-B670-3FF1E8BE1DB9}"/>
-    <hyperlink ref="C108" r:id="rId385" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{DEAF652E-28B8-4D30-B104-A950B3B1DA7B}"/>
-    <hyperlink ref="E108" r:id="rId386" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{2828249E-3035-4C83-B172-2A4CFAB0E654}"/>
-    <hyperlink ref="I108" r:id="rId387" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{BF56CFB1-6CD8-4013-95A6-4281856BCE72}"/>
-    <hyperlink ref="M108" r:id="rId388" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{FB637B17-6A46-433A-BC3D-CFE20BC7CF0C}"/>
-    <hyperlink ref="C109" r:id="rId389" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{67C15837-6CAB-4689-810B-18E4129F198E}"/>
-    <hyperlink ref="E109" r:id="rId390" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{3C07D4B4-6DA0-4D17-98BD-F07914AB1753}"/>
-    <hyperlink ref="I109" r:id="rId391" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{69A65CD6-B969-4B79-81E3-9447D629A159}"/>
-    <hyperlink ref="M109" r:id="rId392" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{A4DE84B2-45B8-4789-9185-276FE62D60C4}"/>
-    <hyperlink ref="C110" r:id="rId393" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{6E957D60-2737-4372-AA04-8E57CD6D841C}"/>
-    <hyperlink ref="E110" r:id="rId394" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F8D68889-B26C-4747-B6C1-97B63913F4EA}"/>
-    <hyperlink ref="I110" r:id="rId395" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F59B8A6E-6195-49E4-BDB8-89D787560717}"/>
-    <hyperlink ref="M110" r:id="rId396" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{3CB9FCD8-D589-4EC9-ABE6-9877CFE9E708}"/>
-    <hyperlink ref="C111" r:id="rId397" display="https://fbref.com/en/matches/2021-11-01" xr:uid="{D7C07E99-E085-4743-9C6C-FEABF4439A57}"/>
-    <hyperlink ref="E111" r:id="rId398" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6451AB1B-D8E0-4247-9BCA-E995C54E94F1}"/>
-    <hyperlink ref="I111" r:id="rId399" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0B2C7E47-8A57-4792-95F2-96040C577CBF}"/>
-    <hyperlink ref="M111" r:id="rId400" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{B926C737-C051-4251-82B2-592E6D99155A}"/>
-    <hyperlink ref="C113" r:id="rId401" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{220BBB76-327A-469F-9BEA-4EFAD8F07F65}"/>
-    <hyperlink ref="E113" r:id="rId402" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{5748DF65-FCCE-4086-BCE7-85E5C2C8F9BE}"/>
-    <hyperlink ref="I113" r:id="rId403" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{B970DA43-7EED-44B3-9A81-D4A1BE88F64A}"/>
-    <hyperlink ref="M113" r:id="rId404" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{2518C7D6-9262-4FED-8A2D-4C74321ECD3E}"/>
-    <hyperlink ref="C114" r:id="rId405" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{B63F7711-C17C-486E-8F40-CF7D63374C3E}"/>
-    <hyperlink ref="E114" r:id="rId406" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{AA662A6F-884B-4B77-879E-1086D4E79D88}"/>
-    <hyperlink ref="I114" r:id="rId407" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{146F3FE1-F631-43A3-836C-3A2943B6FF08}"/>
-    <hyperlink ref="M114" r:id="rId408" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{01A61F88-96B6-45ED-8119-73E17C0EBA69}"/>
-    <hyperlink ref="C115" r:id="rId409" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{5E8FDB92-DC57-409A-8FDE-3ABCFE2E219B}"/>
-    <hyperlink ref="E115" r:id="rId410" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{80E4D9C5-79CA-40E2-95D0-D5BFDD8A00CA}"/>
-    <hyperlink ref="I115" r:id="rId411" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{B4A8D2D0-9C4A-4314-8C44-61567492DD44}"/>
-    <hyperlink ref="M115" r:id="rId412" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{156F6F16-F7D3-4F75-888B-84BB3C2F66C8}"/>
-    <hyperlink ref="C116" r:id="rId413" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{87F8A2EE-3569-4172-8227-75E584A73163}"/>
-    <hyperlink ref="E116" r:id="rId414" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B01528D9-1B08-4E57-AE94-CDBF16E4F1C3}"/>
-    <hyperlink ref="I116" r:id="rId415" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3263664F-1970-43C4-81EF-D5D5631C2E69}"/>
-    <hyperlink ref="M116" r:id="rId416" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{80E52B48-6DFA-46D4-A797-1556205E56E6}"/>
-    <hyperlink ref="C117" r:id="rId417" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{3ECB9B16-8D6B-481E-A7F7-4F32EE825C8F}"/>
-    <hyperlink ref="E117" r:id="rId418" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{043AA6BA-9FFA-4968-BBCE-3672AEB8EE12}"/>
-    <hyperlink ref="I117" r:id="rId419" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{7ACF07B7-55F0-4E74-8097-FB54C3CBBC52}"/>
-    <hyperlink ref="M117" r:id="rId420" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{CC0CAE14-53FC-45FC-B918-0E9A67BFD1E9}"/>
-    <hyperlink ref="C118" r:id="rId421" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{48B9C66E-E133-40E3-9594-619354E002B0}"/>
-    <hyperlink ref="E118" r:id="rId422" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{22F48FB5-7DFB-44DF-BA37-3B27FAFFCCB4}"/>
-    <hyperlink ref="I118" r:id="rId423" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{8936A833-BC19-45F8-A052-7765BF179A02}"/>
-    <hyperlink ref="M118" r:id="rId424" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{47EABA72-C68A-46B0-8DD8-DCB9320183B5}"/>
-    <hyperlink ref="C119" r:id="rId425" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{A8C7EDDE-9E5B-41C1-9D5C-570FA0DE7287}"/>
-    <hyperlink ref="E119" r:id="rId426" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{49CBA43E-67C4-4D57-A481-32FE746E7CC5}"/>
-    <hyperlink ref="I119" r:id="rId427" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{AC059930-0663-442C-AA2E-E7AD8CD825DF}"/>
-    <hyperlink ref="M119" r:id="rId428" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{5D27FD53-65BB-4FD5-9A5E-F93D2CCBBCA9}"/>
-    <hyperlink ref="C120" r:id="rId429" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{E12DDE01-C0A7-40E3-8579-653DC9D82C02}"/>
-    <hyperlink ref="E120" r:id="rId430" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{45EDED32-4A75-433F-808E-D3AF0C0CCEC3}"/>
-    <hyperlink ref="I120" r:id="rId431" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{627867E3-940A-436B-B5E5-FD4591005C09}"/>
-    <hyperlink ref="M120" r:id="rId432" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{AB3002FA-0B1B-4279-9C39-723396DB6413}"/>
-    <hyperlink ref="C121" r:id="rId433" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{85154F13-3427-4A44-A908-093ED99168DB}"/>
-    <hyperlink ref="E121" r:id="rId434" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{F9D89C9D-5102-4F46-A77C-B31A97884353}"/>
-    <hyperlink ref="I121" r:id="rId435" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{06F2F462-E19E-4B52-8501-00DCA36A1BCE}"/>
-    <hyperlink ref="M121" r:id="rId436" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{890DC51F-97B1-48FE-B302-91536FE78F49}"/>
-    <hyperlink ref="C122" r:id="rId437" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{AF3EFEC6-906E-48D6-A4D3-98F41A01703C}"/>
-    <hyperlink ref="E122" r:id="rId438" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{BAE367B6-3FFB-4382-8B48-A9B3E157E0FE}"/>
-    <hyperlink ref="I122" r:id="rId439" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{CEB99382-564A-47DE-A8F8-87A858338302}"/>
-    <hyperlink ref="M122" r:id="rId440" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{81911F2D-0430-4AA8-9D6E-5787E0DB58D8}"/>
-    <hyperlink ref="C124" r:id="rId441" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{EDA2ADCC-BCDD-49E9-BA97-CF481C186D1A}"/>
-    <hyperlink ref="E124" r:id="rId442" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{2ED0519D-55DF-4A11-9DCC-B1F5B844923D}"/>
-    <hyperlink ref="I124" r:id="rId443" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{422BACE8-4D1A-4E7C-BCA2-4BFDF51B507E}"/>
-    <hyperlink ref="M124" r:id="rId444" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{89924671-BAFC-4AA7-8C79-7F4D5B17C5C4}"/>
-    <hyperlink ref="C125" r:id="rId445" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{161337B1-0749-4CDA-9984-187ADB3955D6}"/>
-    <hyperlink ref="E125" r:id="rId446" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{0A5FA3E5-3BD4-41C7-B362-1D36BEF97F49}"/>
-    <hyperlink ref="I125" r:id="rId447" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{60583794-7778-489A-BD5A-85DB059D6224}"/>
-    <hyperlink ref="M125" r:id="rId448" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{B20A4925-8F19-497D-AB67-FCFFDF7269AC}"/>
-    <hyperlink ref="C126" r:id="rId449" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{61D5C871-BC7C-47E9-AC20-8AFE07887A8F}"/>
-    <hyperlink ref="E126" r:id="rId450" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{09621577-E645-462B-A428-0E7B804353E4}"/>
-    <hyperlink ref="I126" r:id="rId451" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{637ECED9-2310-4D3D-8B56-5CD7CB5ED450}"/>
-    <hyperlink ref="M126" r:id="rId452" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{F8956072-BA57-4019-BE43-2BFD191AEC46}"/>
-    <hyperlink ref="C127" r:id="rId453" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{8BD6D5BD-2DE5-4FAF-BED4-2EB02CD29657}"/>
-    <hyperlink ref="E127" r:id="rId454" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{8869E68A-ACF7-4AC4-985D-465E7A254A12}"/>
-    <hyperlink ref="I127" r:id="rId455" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BA642AFA-EEDD-4B90-A64D-F44C2B1DEF06}"/>
-    <hyperlink ref="M127" r:id="rId456" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{886F6F0F-BD5F-4B6E-AC8F-497F33441D82}"/>
-    <hyperlink ref="C128" r:id="rId457" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{8673912C-1726-4AB2-A747-0055C51A9AB7}"/>
-    <hyperlink ref="E128" r:id="rId458" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{11419E14-81A0-4281-8444-6697F459FC5A}"/>
-    <hyperlink ref="I128" r:id="rId459" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{CCC90D1E-7606-44AD-8CBA-21717229E480}"/>
-    <hyperlink ref="M128" r:id="rId460" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{F4876523-45A9-490C-82F8-E992E53EC053}"/>
-    <hyperlink ref="C129" r:id="rId461" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{BDA313C4-55F0-43C5-8FFC-82C6C50F29A5}"/>
-    <hyperlink ref="E129" r:id="rId462" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C1501888-DA22-4979-BC20-C84D5F26A9E4}"/>
-    <hyperlink ref="I129" r:id="rId463" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{191BACFF-DA6F-44C8-A3A8-C58C0F259499}"/>
-    <hyperlink ref="M129" r:id="rId464" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{CA860DC1-EE7C-437A-B496-13B6DAABC338}"/>
-    <hyperlink ref="C130" r:id="rId465" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{F06FF9EF-BA2E-4961-AC92-00A1E598549C}"/>
-    <hyperlink ref="E130" r:id="rId466" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{4C835BDF-4959-4A01-8311-95068BC5CEA0}"/>
-    <hyperlink ref="I130" r:id="rId467" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{82453D03-8689-4CB2-B2D3-0EE76F95B6DF}"/>
-    <hyperlink ref="M130" r:id="rId468" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{8587A890-7DFC-42FB-9DB3-9B565DE35A77}"/>
-    <hyperlink ref="C131" r:id="rId469" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{B15C8361-3A9D-4838-9715-305186375FD6}"/>
-    <hyperlink ref="E131" r:id="rId470" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{29525BA6-5D20-4309-AE58-B9B0E75C232E}"/>
-    <hyperlink ref="I131" r:id="rId471" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{981AF0C5-CF10-4D07-898E-057AE917C9E3}"/>
-    <hyperlink ref="M131" r:id="rId472" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{1411EA37-6C42-4BDB-B70C-0289686CD19F}"/>
-    <hyperlink ref="C132" r:id="rId473" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{46674FC6-D856-4AE5-ADB6-F4E34A208AD1}"/>
-    <hyperlink ref="E132" r:id="rId474" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{19CA876A-F317-40DB-868E-2040F353A21F}"/>
-    <hyperlink ref="I132" r:id="rId475" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C741981D-9ECD-4150-8E1E-94295322F980}"/>
-    <hyperlink ref="M132" r:id="rId476" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{12EDA1F4-F652-4331-8296-8911F1E56320}"/>
-    <hyperlink ref="C133" r:id="rId477" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{4AA8C56F-CD95-4C4F-8825-E150B01AEE7F}"/>
-    <hyperlink ref="E133" r:id="rId478" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{EE5A639A-FE79-46DA-8A56-5D2D3319CA0C}"/>
-    <hyperlink ref="I133" r:id="rId479" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{33C72F69-AD21-4567-89E1-BCDF438AA220}"/>
-    <hyperlink ref="M133" r:id="rId480" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{6992727C-455E-4673-B3DB-26AA512DCE19}"/>
-    <hyperlink ref="C135" r:id="rId481" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{48D50375-5CBF-4A41-B65C-FFF37E80EB94}"/>
-    <hyperlink ref="E135" r:id="rId482" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{BAFABA93-BF2B-41D4-886F-C00741879D35}"/>
-    <hyperlink ref="I135" r:id="rId483" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{93F487BC-359E-42ED-95A2-FD7A20674AE0}"/>
-    <hyperlink ref="M135" r:id="rId484" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{3C933567-632C-4CB1-9984-A30B8B09792B}"/>
-    <hyperlink ref="C136" r:id="rId485" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{D3771BBA-042A-4F2A-8597-D1967900D6F2}"/>
-    <hyperlink ref="E136" r:id="rId486" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2EE7C43E-E1A3-4875-AA78-C2AAF1AA8FD4}"/>
-    <hyperlink ref="I136" r:id="rId487" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{53FE4773-8CD3-4922-98A5-6BACFF1A43C3}"/>
-    <hyperlink ref="M136" r:id="rId488" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{42166AF6-0BE1-4BA1-9CE6-A5655DBABAF3}"/>
-    <hyperlink ref="C137" r:id="rId489" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{21CB5C06-F823-489D-BBA6-A552A8E6235B}"/>
-    <hyperlink ref="E137" r:id="rId490" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{BFDF0282-A397-48C1-B0EC-D0EFEDD14A95}"/>
-    <hyperlink ref="I137" r:id="rId491" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{B5739E23-A9A1-4A47-9641-1E24B2CEB518}"/>
-    <hyperlink ref="M137" r:id="rId492" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{17A7A485-F9C7-4A3E-A0AD-8F9EB47EED85}"/>
-    <hyperlink ref="C138" r:id="rId493" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{21637248-1207-44AF-945A-E2B8F25CFA84}"/>
-    <hyperlink ref="E138" r:id="rId494" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{99C56153-F303-49C2-9812-5D8F87886BAB}"/>
-    <hyperlink ref="I138" r:id="rId495" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{74883852-7A4E-4F2D-9BB0-C8E5F7159CE8}"/>
-    <hyperlink ref="M138" r:id="rId496" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{9C3817C4-FAB2-40E7-9CD9-0D812AE218DE}"/>
-    <hyperlink ref="C139" r:id="rId497" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{38EFA472-7C21-45B7-B261-6EE01C712F1F}"/>
-    <hyperlink ref="E139" r:id="rId498" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E5AB695C-25E9-4747-BEB8-053D4A32A2AC}"/>
-    <hyperlink ref="I139" r:id="rId499" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{1EF957E4-2D5C-4DD5-AF0D-3AD1B529087D}"/>
-    <hyperlink ref="M139" r:id="rId500" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{92865C8E-2FF5-4021-B250-468CE3155306}"/>
-    <hyperlink ref="C140" r:id="rId501" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{AB600ED0-A232-4C4F-B83B-1468A6623CFC}"/>
-    <hyperlink ref="E140" r:id="rId502" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{A6D3B0F1-17E5-4EA6-A674-334A2CA86CE2}"/>
-    <hyperlink ref="I140" r:id="rId503" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{15D0468A-814D-4E4F-A7F1-DEC7E7E26C06}"/>
-    <hyperlink ref="M140" r:id="rId504" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{C3AF4917-2CA5-4D9E-9CC1-B9A8E94145A0}"/>
-    <hyperlink ref="C141" r:id="rId505" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{A97CD414-A7D3-4268-9C3A-98C64A122DE3}"/>
-    <hyperlink ref="E141" r:id="rId506" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B1D6D72D-4E26-48E2-8055-18D82850283E}"/>
-    <hyperlink ref="I141" r:id="rId507" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{778A65D5-94D0-447E-A043-1D4B9B39C438}"/>
-    <hyperlink ref="M141" r:id="rId508" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{21EED974-5253-47DC-AA2F-1FD3529D8872}"/>
-    <hyperlink ref="C142" r:id="rId509" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{5C513463-D11D-4D5D-A09F-414E776B96BD}"/>
-    <hyperlink ref="E142" r:id="rId510" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{1909DFCD-FA33-446B-9CBB-5C4EF925A1FB}"/>
-    <hyperlink ref="I142" r:id="rId511" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{9A8DAF19-7256-4A3D-BDA3-D4400540E3EF}"/>
-    <hyperlink ref="M142" r:id="rId512" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{3FFEC4D1-483E-4CAA-BD8C-E7075FB81E60}"/>
-    <hyperlink ref="C143" r:id="rId513" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{EFFA6E50-5108-4249-848D-914A7D67D765}"/>
-    <hyperlink ref="E143" r:id="rId514" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{623AA844-BA8E-43C1-AEF9-3C755386F332}"/>
-    <hyperlink ref="I143" r:id="rId515" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{FFFEECEF-B359-423F-998E-F96DEBE5F62B}"/>
-    <hyperlink ref="M143" r:id="rId516" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{9B4E653A-FEEE-49DF-8338-6BB5004419BA}"/>
-    <hyperlink ref="C144" r:id="rId517" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{950DC5C9-47D3-4FEF-B22E-D8652BFD78CB}"/>
-    <hyperlink ref="E144" r:id="rId518" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1F210531-1D40-4AA1-809E-AD5F4A1F6E54}"/>
-    <hyperlink ref="I144" r:id="rId519" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{5D0312F3-DAF2-4449-AF0B-999423FB1B0F}"/>
-    <hyperlink ref="M144" r:id="rId520" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{107E1A03-14D4-44B3-84BA-C9F8A9603750}"/>
-    <hyperlink ref="C146" r:id="rId521" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{1F55CC39-3A7D-4966-B747-40FCAA454CF4}"/>
-    <hyperlink ref="E146" r:id="rId522" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B1EFE4BB-13C7-425D-A82B-698AF2C5E145}"/>
-    <hyperlink ref="I146" r:id="rId523" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E552023B-8872-449C-84EA-B34272AF6929}"/>
-    <hyperlink ref="M146" r:id="rId524" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{40120945-AB47-4028-849A-E85411F01DB6}"/>
-    <hyperlink ref="C147" r:id="rId525" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{994D514E-AB5B-4499-86C2-1558382AF490}"/>
-    <hyperlink ref="E147" r:id="rId526" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{597D50BC-4AB6-4144-9A89-BF795995F78D}"/>
-    <hyperlink ref="I147" r:id="rId527" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{15082F67-85A1-4CA4-96BC-CA6CFDCA80C3}"/>
-    <hyperlink ref="M147" r:id="rId528" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{B4E5FBF3-0BB5-40A8-B204-6972328B961B}"/>
-    <hyperlink ref="C148" r:id="rId529" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{C21F19FC-677D-4D58-82AC-16781A8D66CA}"/>
-    <hyperlink ref="E148" r:id="rId530" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EFDB424C-A161-465D-A63E-353A989B38C5}"/>
-    <hyperlink ref="I148" r:id="rId531" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B8B6F3EA-53B2-4D71-A22B-A772903FD414}"/>
-    <hyperlink ref="M148" r:id="rId532" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{E46389F7-2DF7-4B43-9421-7843B8A2A7FE}"/>
-    <hyperlink ref="C149" r:id="rId533" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{03D04C1D-1424-4956-BFFF-6CBE6D7A1C85}"/>
-    <hyperlink ref="E149" r:id="rId534" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{9D05299A-05F8-422C-B5B3-0CAE7D797C7D}"/>
-    <hyperlink ref="I149" r:id="rId535" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{8B289FE5-CC85-49FA-9211-DDBF8A65C33E}"/>
-    <hyperlink ref="M149" r:id="rId536" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{7C2A7A71-6DDC-45BB-91EE-1DF5F05008F8}"/>
-    <hyperlink ref="C150" r:id="rId537" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{DB37CDDD-6ECB-42CE-955A-8646025D6AD0}"/>
-    <hyperlink ref="E150" r:id="rId538" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{8A2AC951-6107-4349-ACDA-689ADD28C7EE}"/>
-    <hyperlink ref="I150" r:id="rId539" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5BE4EFAB-9590-4FC8-8F64-023C0964FE58}"/>
-    <hyperlink ref="M150" r:id="rId540" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{C967AC8F-1003-4BAE-B180-F508B8AF3518}"/>
-    <hyperlink ref="C151" r:id="rId541" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{A0D3CA3A-3C3F-46B0-BFC2-B0F3F96E09BD}"/>
-    <hyperlink ref="E151" r:id="rId542" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{CA6A5B51-C15D-4190-8577-73712D241B33}"/>
-    <hyperlink ref="I151" r:id="rId543" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{6A8805F3-03D2-496C-A9B3-833CC60B87EA}"/>
-    <hyperlink ref="M151" r:id="rId544" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{1315E637-14D7-48C0-BDA6-1EF7CB390076}"/>
-    <hyperlink ref="C152" r:id="rId545" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{44496A62-3F49-4AC3-9948-1190962B3E96}"/>
-    <hyperlink ref="E152" r:id="rId546" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5DF9CBD8-F894-43DC-B233-C8404FD43B88}"/>
-    <hyperlink ref="I152" r:id="rId547" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{B93B9ACE-3C76-458D-850F-E403832635AB}"/>
-    <hyperlink ref="M152" r:id="rId548" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{868D6A4E-BD52-482C-8845-1F917432BCE0}"/>
-    <hyperlink ref="C153" r:id="rId549" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{2F0DD121-AF4A-4B68-ABC4-0BC921E06AD2}"/>
-    <hyperlink ref="E153" r:id="rId550" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{1C061E1F-8275-47F8-A766-8887D34D5DD7}"/>
-    <hyperlink ref="I153" r:id="rId551" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{ADA0BB4C-502B-49B2-A955-8B2802DB3217}"/>
-    <hyperlink ref="M153" r:id="rId552" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{C5047291-E764-4963-9ADF-41D6C58AF504}"/>
-    <hyperlink ref="C154" r:id="rId553" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{8DC05A3F-F22E-4326-BC66-63816667E6BC}"/>
-    <hyperlink ref="E154" r:id="rId554" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B48737FF-EE6D-489E-B915-4DD4E9BF5FC4}"/>
-    <hyperlink ref="I154" r:id="rId555" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F82760C6-B7ED-4385-85D3-348ADF9D953D}"/>
-    <hyperlink ref="M154" r:id="rId556" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{F7B30095-75A5-426B-A672-8CDBAC80F525}"/>
-    <hyperlink ref="C155" r:id="rId557" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{4D3833D3-14A8-41B4-B924-9C2C23291DCF}"/>
-    <hyperlink ref="E155" r:id="rId558" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{58306269-BDFA-4C81-820C-6461C697B3AD}"/>
-    <hyperlink ref="I155" r:id="rId559" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{62F50418-8655-4B1F-BF77-CEF7C4387AF6}"/>
-    <hyperlink ref="M155" r:id="rId560" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{9A130F17-1756-4D73-B302-5067E31B7305}"/>
-    <hyperlink ref="C157" r:id="rId561" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{81292507-6CF9-42CD-977D-BE252E344E80}"/>
-    <hyperlink ref="E157" r:id="rId562" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FC1CFDDB-332A-4C20-817A-901444D20C27}"/>
-    <hyperlink ref="I157" r:id="rId563" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{1296DBE6-E972-4D3F-A762-033276B457D3}"/>
-    <hyperlink ref="M157" r:id="rId564" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{DAEFB57E-93F1-4242-BDC9-93F06E239D8A}"/>
-    <hyperlink ref="C158" r:id="rId565" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{91C84727-29D6-4FEC-AF5E-8858B49CB9BF}"/>
-    <hyperlink ref="E158" r:id="rId566" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8EFF2CDE-A55C-491C-874B-98B9957C0B0C}"/>
-    <hyperlink ref="I158" r:id="rId567" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{02ADCABF-40CB-469B-9ACE-B9DB02A6E9BD}"/>
-    <hyperlink ref="M158" r:id="rId568" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{7BFE076E-15E4-443F-946C-06734324FB9D}"/>
-    <hyperlink ref="C159" r:id="rId569" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{D29ADE28-DDC9-421B-AE19-A0C738A8EF7D}"/>
-    <hyperlink ref="E159" r:id="rId570" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{758ABBB3-212A-41D1-8CB8-C0B4F558C354}"/>
-    <hyperlink ref="I159" r:id="rId571" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B5D5CAAE-385B-42E9-AB9A-233746A88898}"/>
-    <hyperlink ref="M159" r:id="rId572" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{B57C2328-C30D-448E-BDBD-BACF50DBA858}"/>
-    <hyperlink ref="C160" r:id="rId573" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{FE173A2A-93A4-4E66-BA84-FF379238F46A}"/>
-    <hyperlink ref="E160" r:id="rId574" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{44FB03C9-0AD5-4EE6-A74B-12D95A2C813B}"/>
-    <hyperlink ref="I160" r:id="rId575" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{98EFF66F-536B-4741-BEDA-FAE4A2658B12}"/>
-    <hyperlink ref="M160" r:id="rId576" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{C2682BAB-DD8C-4A92-9DAD-4A87D57B5329}"/>
-    <hyperlink ref="C161" r:id="rId577" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{5C353AE6-C36D-4018-BF2D-D48ED18E9C84}"/>
-    <hyperlink ref="E161" r:id="rId578" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{61555499-785D-405D-AC91-119DE408B0AA}"/>
-    <hyperlink ref="I161" r:id="rId579" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{DCB89D56-2396-4018-91A1-5404D27152BB}"/>
-    <hyperlink ref="M161" r:id="rId580" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{702AF8CA-081E-4167-9818-E810F1361FB8}"/>
-    <hyperlink ref="C162" r:id="rId581" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{5A373028-FF15-437E-9D0B-66D1C6F97B81}"/>
-    <hyperlink ref="E162" r:id="rId582" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{10BAE22F-5368-442A-8F91-15A51B95C2D8}"/>
-    <hyperlink ref="I162" r:id="rId583" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{C9EB4A7A-839C-4E75-8489-D9AEDDF995D4}"/>
-    <hyperlink ref="M162" r:id="rId584" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{16AF5958-F385-4A6F-9CDA-A3917EA789E3}"/>
-    <hyperlink ref="C163" r:id="rId585" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{F498C949-03A2-4A6B-B3BB-94E99659151E}"/>
-    <hyperlink ref="E163" r:id="rId586" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{2332793A-70AA-4E56-9F02-AE99A4AA9045}"/>
-    <hyperlink ref="I163" r:id="rId587" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{66427E87-DAC8-480E-93A8-A373089BA84A}"/>
-    <hyperlink ref="M163" r:id="rId588" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{D4B28CD8-3089-4D67-B38A-0136E8FCF266}"/>
-    <hyperlink ref="C164" r:id="rId589" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{18A6C1EF-69FE-4432-80E2-20394B6C7994}"/>
-    <hyperlink ref="E164" r:id="rId590" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{E3C0F023-843D-4CF6-93B1-B50C841F7C11}"/>
-    <hyperlink ref="I164" r:id="rId591" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{70F47FCE-5515-4E0A-ABFA-CFE9B0E0F2B0}"/>
-    <hyperlink ref="M164" r:id="rId592" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{0AA05895-A94D-4D61-84D8-A382F31E3D6D}"/>
-    <hyperlink ref="C165" r:id="rId593" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{CDF32C54-3DDD-446B-91E3-707006BD3C42}"/>
-    <hyperlink ref="E165" r:id="rId594" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{CC8B0843-DF72-49EA-8AC3-38DAE9135043}"/>
-    <hyperlink ref="I165" r:id="rId595" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{7FF7A6A7-96F0-4867-AECA-8312730214EE}"/>
-    <hyperlink ref="M165" r:id="rId596" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{2B11536E-284A-4F47-959C-D666C7344FAA}"/>
-    <hyperlink ref="C166" r:id="rId597" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{828F97E5-9AD5-4012-9392-8C2FCA3D98F8}"/>
-    <hyperlink ref="E166" r:id="rId598" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{36D97BE7-6939-4355-A49E-67B0A769FFA0}"/>
-    <hyperlink ref="I166" r:id="rId599" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{2B9DEC95-62C2-4679-9E90-10F97817A1D7}"/>
-    <hyperlink ref="M166" r:id="rId600" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{BD758F18-E27C-4173-B0C0-68D950B7720A}"/>
-    <hyperlink ref="C168" r:id="rId601" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{89E41943-2D48-43E0-98EB-9C9F0045CB53}"/>
-    <hyperlink ref="E168" r:id="rId602" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B9015387-2641-4B81-A26A-DC873242A322}"/>
-    <hyperlink ref="I168" r:id="rId603" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4C1A3D0D-7430-4A9F-A402-A822F3D5E6FA}"/>
-    <hyperlink ref="M168" r:id="rId604" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{FD08A19B-BC61-4C75-BE1C-6A02E41EF8DA}"/>
-    <hyperlink ref="C169" r:id="rId605" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{E419A97A-0F4A-4E5B-940C-60A7D5ED2B8E}"/>
-    <hyperlink ref="E169" r:id="rId606" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{15609D28-36FD-4059-9950-38C92C0629D0}"/>
-    <hyperlink ref="I169" r:id="rId607" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{53936D27-E066-4540-B04B-3BCA15FD37B2}"/>
-    <hyperlink ref="M169" r:id="rId608" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{C60F1FF9-0F24-4400-BA4F-995779FBF7F8}"/>
-    <hyperlink ref="C170" r:id="rId609" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{9AB08906-BB7A-4716-82FF-B7E9261C03A1}"/>
-    <hyperlink ref="E170" r:id="rId610" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{06466C6A-62E4-4165-8276-7B62A4790430}"/>
-    <hyperlink ref="I170" r:id="rId611" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{40A7EB2A-C15F-4554-892A-40A14BEA60A2}"/>
-    <hyperlink ref="M170" r:id="rId612" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{EE10EDF2-0919-46C9-BDFD-99E0ED0410EF}"/>
-    <hyperlink ref="C171" r:id="rId613" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{C4856417-D3A9-4AB0-A0F7-B2A2B8F58B06}"/>
-    <hyperlink ref="E171" r:id="rId614" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{3C969FBA-3D20-431C-BA73-342903EFCC07}"/>
-    <hyperlink ref="I171" r:id="rId615" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{554A7720-60BB-46E8-935C-04786520E9FD}"/>
-    <hyperlink ref="M171" r:id="rId616" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{42F24515-9810-4428-AABB-8AC33959BA68}"/>
-    <hyperlink ref="C172" r:id="rId617" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{C4ACB927-4892-424B-A97C-DABB6E16EA5C}"/>
-    <hyperlink ref="E172" r:id="rId618" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{414FDD82-6314-4CBB-AEF1-DA8030608422}"/>
-    <hyperlink ref="I172" r:id="rId619" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{2678EE4F-9B5A-4A88-B984-FE30DEF436C9}"/>
-    <hyperlink ref="M172" r:id="rId620" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{2F6CB175-0B7E-464A-9D96-8CBF91BFF7AC}"/>
-    <hyperlink ref="C173" r:id="rId621" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{1A11FDA4-3983-40E5-A88C-D693F2B65A22}"/>
-    <hyperlink ref="E173" r:id="rId622" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{3CE7E82E-EF59-4154-96F6-A032B674BAD1}"/>
-    <hyperlink ref="I173" r:id="rId623" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{408904EB-FF7E-4063-BDD6-57250C388AA8}"/>
-    <hyperlink ref="M173" r:id="rId624" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{95D1BF86-76DA-4E18-914B-62876075A397}"/>
-    <hyperlink ref="C174" r:id="rId625" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{1DC5B105-2B03-4429-83F9-429EDE94B030}"/>
-    <hyperlink ref="E174" r:id="rId626" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{4F6209CD-DD1F-4840-8013-DF936C1C7C3A}"/>
-    <hyperlink ref="I174" r:id="rId627" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{0A7C63A3-B073-4A12-967C-ABA50A149260}"/>
-    <hyperlink ref="M174" r:id="rId628" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{E23FA530-2123-40C0-8EE0-62FF0468F3B4}"/>
-    <hyperlink ref="C175" r:id="rId629" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{AFED3B06-7B28-4AF7-B490-E69C81612682}"/>
-    <hyperlink ref="E175" r:id="rId630" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{FB6E7FD0-DA08-4D57-8310-6C11883CEF43}"/>
-    <hyperlink ref="I175" r:id="rId631" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{28C18A09-DC9E-4F19-AC73-6458C128EB00}"/>
-    <hyperlink ref="M175" r:id="rId632" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{D0BB7BED-79E5-4126-8587-ED0904568131}"/>
-    <hyperlink ref="C176" r:id="rId633" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{4722C7DA-B794-420D-9CE3-22550EEDA331}"/>
-    <hyperlink ref="E176" r:id="rId634" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9B2050F6-6900-4A8F-BC0A-8C63C0C3889F}"/>
-    <hyperlink ref="I176" r:id="rId635" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{F2DD7E8B-7B2F-4C9A-B0E1-66FFCE1E5363}"/>
-    <hyperlink ref="M176" r:id="rId636" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{A5540511-76CC-4C9B-8066-48C65F21705B}"/>
-    <hyperlink ref="C177" r:id="rId637" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{D78A20D7-6045-462C-A590-ADC2FEC02E0C}"/>
-    <hyperlink ref="E177" r:id="rId638" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{68EA1060-4DB4-455C-93B6-F3E392524049}"/>
-    <hyperlink ref="I177" r:id="rId639" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{A41646E2-42DF-454B-A28D-97723692D735}"/>
-    <hyperlink ref="M177" r:id="rId640" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{806D21E5-08FE-41F0-A12D-64993C22C761}"/>
-    <hyperlink ref="C179" r:id="rId641" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{DDC34C66-9E25-4AB2-8020-EC4B2FC1F603}"/>
-    <hyperlink ref="E179" r:id="rId642" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{48552F68-5373-4A64-ADEB-83C2D172201B}"/>
-    <hyperlink ref="I179" r:id="rId643" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{615FD2F2-312D-4D6F-A260-A5F3CC330935}"/>
-    <hyperlink ref="M179" r:id="rId644" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{10F67EE7-FC90-4FB4-9077-8237116089E5}"/>
-    <hyperlink ref="C180" r:id="rId645" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{B0FF656A-F04A-4560-BAD8-3E8356CD844F}"/>
-    <hyperlink ref="E180" r:id="rId646" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{9AAA3844-8CA3-431D-AC08-5CC1F1E436AE}"/>
-    <hyperlink ref="I180" r:id="rId647" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{9774B4FA-E845-45E0-A0B6-0ADF2528567D}"/>
-    <hyperlink ref="M180" r:id="rId648" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{EA442A70-8FC3-42AF-BAC0-27F66B3A8045}"/>
-    <hyperlink ref="C181" r:id="rId649" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{405A1851-15B4-480C-87D1-7416C73B9220}"/>
-    <hyperlink ref="E181" r:id="rId650" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{239A04A4-1637-4550-8FC0-2009C6C4DB04}"/>
-    <hyperlink ref="I181" r:id="rId651" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{F951E5F9-9C12-47B0-8B11-D09A7CE78350}"/>
-    <hyperlink ref="M181" r:id="rId652" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{345964C1-3D7B-4322-A4FC-B7B374AC2112}"/>
-    <hyperlink ref="C182" r:id="rId653" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{9EE9EDB7-1A79-4F5D-B9B8-AC5A46C20A79}"/>
-    <hyperlink ref="E182" r:id="rId654" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{853D41CC-1096-496A-8C76-6108A329E256}"/>
-    <hyperlink ref="I182" r:id="rId655" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1752B7AC-CD1C-4AB0-A0C0-F17CB770A681}"/>
-    <hyperlink ref="M182" r:id="rId656" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{77B547B0-E0E4-4D7A-ACC4-CD5E18D40940}"/>
-    <hyperlink ref="C183" r:id="rId657" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{5888EFEE-7FF9-46C2-887A-FC4711EF711B}"/>
-    <hyperlink ref="E183" r:id="rId658" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D502153C-D06E-42D9-81D3-8A100B9AA44E}"/>
-    <hyperlink ref="I183" r:id="rId659" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{CA59EA4E-AC54-40D8-A196-28AAD65D91BB}"/>
-    <hyperlink ref="M183" r:id="rId660" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{EB4ABF5E-BC32-4E38-9F81-B698EB23AF3B}"/>
-    <hyperlink ref="C184" r:id="rId661" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{6659C2A3-18B7-4EAA-9D0A-E3B8D8F8553C}"/>
-    <hyperlink ref="E184" r:id="rId662" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{BB09609A-EA6C-469B-A0D8-11AA4EAB4A8A}"/>
-    <hyperlink ref="I184" r:id="rId663" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C9228C1C-8DF1-43B0-A8BF-D45DC1062724}"/>
-    <hyperlink ref="M184" r:id="rId664" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{BF6F7CD1-34D1-4A70-BF58-CBECABAFC3BC}"/>
-    <hyperlink ref="C185" r:id="rId665" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{8D2AC750-863B-4155-BD40-3A1DDF541CAC}"/>
-    <hyperlink ref="E185" r:id="rId666" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{C7610850-B38F-4E79-AF0C-A10D49411A3E}"/>
-    <hyperlink ref="I185" r:id="rId667" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{41A3A5B7-8AAD-4D27-BCD5-A31D279A9397}"/>
-    <hyperlink ref="M185" r:id="rId668" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{4D6D9883-ECBE-400F-A3F4-A655B8AEBE20}"/>
-    <hyperlink ref="C186" r:id="rId669" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{FB86F99E-3E52-44F4-87C8-10D49C5EE687}"/>
-    <hyperlink ref="E186" r:id="rId670" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{2C85AA7C-18F8-4626-B2AE-27266758BC6D}"/>
-    <hyperlink ref="I186" r:id="rId671" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{CF31A00A-842A-4607-8381-4134FBD32A14}"/>
-    <hyperlink ref="M186" r:id="rId672" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{4BD2AD3C-B30D-44F2-8CCF-06501C7645A8}"/>
-    <hyperlink ref="C187" r:id="rId673" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{38F6D6B0-E94A-4044-9DBA-E40CE20C9C71}"/>
-    <hyperlink ref="E187" r:id="rId674" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{670649A7-CBC9-4BF0-BDF4-458387BD645D}"/>
-    <hyperlink ref="I187" r:id="rId675" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{38C14984-A662-4E01-8F2F-12B65661B0E8}"/>
-    <hyperlink ref="M187" r:id="rId676" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{85FBAA77-612B-43C9-880D-6EED4C64C3F3}"/>
-    <hyperlink ref="C188" r:id="rId677" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{7FB500D0-D45F-4A9F-A0F5-74F410AED40B}"/>
-    <hyperlink ref="E188" r:id="rId678" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{21601DF4-2CE4-4C8C-A036-34B490BF1A2C}"/>
-    <hyperlink ref="I188" r:id="rId679" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{FF5A8AB6-AA7C-41B4-9A22-1AAD6D5F6AE1}"/>
-    <hyperlink ref="M188" r:id="rId680" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{01508CD1-AC42-45F3-9F8B-A9D3D9C5036D}"/>
-    <hyperlink ref="C190" r:id="rId681" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{DEF67382-C828-4D63-B11C-2AF95BE5462B}"/>
-    <hyperlink ref="E190" r:id="rId682" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{785598C8-C930-46A0-9ABD-09833E3BDE05}"/>
-    <hyperlink ref="I190" r:id="rId683" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{61C0703C-F451-4E83-AE02-EC684661919B}"/>
-    <hyperlink ref="M190" r:id="rId684" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{A8A86A22-FD80-4D89-90FC-B3DF4624166F}"/>
-    <hyperlink ref="C191" r:id="rId685" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{268C7ADE-E2DF-4511-B8BE-9986CD676E23}"/>
-    <hyperlink ref="E191" r:id="rId686" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{EA4C79C5-CCD0-4094-BDA9-170AD640B69F}"/>
-    <hyperlink ref="I191" r:id="rId687" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{D65F17A3-77B9-435C-9CB2-1D7B026B7212}"/>
-    <hyperlink ref="M191" r:id="rId688" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{BE877364-D14E-410B-90C4-8181B3A9005B}"/>
-    <hyperlink ref="C192" r:id="rId689" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{5A16B2DB-A212-4DD2-84C1-90A53EEA00C1}"/>
-    <hyperlink ref="E192" r:id="rId690" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{425FCEDA-8E5E-4050-B5A8-86169A7ED053}"/>
-    <hyperlink ref="I192" r:id="rId691" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{27EE0096-9B55-4FE5-B1CC-44C427129861}"/>
-    <hyperlink ref="M192" r:id="rId692" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{FAD3856C-1090-4462-9299-E5BA84FD05C8}"/>
-    <hyperlink ref="C193" r:id="rId693" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{93B70516-5C40-49E2-A0DA-8116B79EC303}"/>
-    <hyperlink ref="E193" r:id="rId694" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{1C120144-A218-48F1-BC8A-9DA69539036D}"/>
-    <hyperlink ref="I193" r:id="rId695" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{508EBA6B-AC8E-4DA5-AC06-70BC603C8489}"/>
-    <hyperlink ref="M193" r:id="rId696" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{B765650A-9EFF-4E68-BD4C-CF7A0E87F5AE}"/>
-    <hyperlink ref="C194" r:id="rId697" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{3A3D9034-CA05-4F37-8B34-8961F76FA3A1}"/>
-    <hyperlink ref="E194" r:id="rId698" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{1BA40C7F-84C7-4E16-B93C-442B8CFF7A34}"/>
-    <hyperlink ref="I194" r:id="rId699" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{A16D54F6-9FE3-47CE-83AC-8A252AC2AA78}"/>
-    <hyperlink ref="M194" r:id="rId700" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{0B60DD3B-D13E-4285-B3FC-C9FB87DB2A17}"/>
-    <hyperlink ref="C195" r:id="rId701" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{A5C0F840-2D7B-4AAC-988D-454F72536021}"/>
-    <hyperlink ref="E195" r:id="rId702" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{8376EA46-BD62-4FFC-9927-F403DB98E583}"/>
-    <hyperlink ref="I195" r:id="rId703" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EC69618F-44DA-498A-A71E-2DCE55A4B696}"/>
-    <hyperlink ref="M195" r:id="rId704" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{21C855DC-2730-4D6C-BE1D-083687B657E4}"/>
-    <hyperlink ref="C196" r:id="rId705" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{A9026FA1-15AE-4B57-A5F1-376B9F12B050}"/>
-    <hyperlink ref="E196" r:id="rId706" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{AE606C53-B736-4BDB-BEC9-08BB4DF94C21}"/>
-    <hyperlink ref="I196" r:id="rId707" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{32173FE5-157E-44E4-BFB5-33AC5C8C7EA4}"/>
-    <hyperlink ref="M196" r:id="rId708" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{2A360B8E-7383-47DA-BBCB-017FA1552E4B}"/>
-    <hyperlink ref="C197" r:id="rId709" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{008D1486-5989-4146-B480-C65FDA3221E7}"/>
-    <hyperlink ref="E197" r:id="rId710" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{81D75784-AA1F-47E8-90FB-504F25984F44}"/>
-    <hyperlink ref="I197" r:id="rId711" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{AD39D0B9-1E7E-408E-8A7C-3A117A04E322}"/>
-    <hyperlink ref="M197" r:id="rId712" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{E5E171B1-AEC6-4746-9643-AC4E1D8A368E}"/>
-    <hyperlink ref="C198" r:id="rId713" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{DB6299F0-2D59-49F0-9674-9AC8B83E8758}"/>
-    <hyperlink ref="E198" r:id="rId714" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2CF4E8AB-0AC3-4E2A-B2C3-91D854AC6E16}"/>
-    <hyperlink ref="I198" r:id="rId715" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{9D666737-446A-47E1-ABE6-4C074F11131F}"/>
-    <hyperlink ref="M198" r:id="rId716" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{F87C2106-4F96-4937-83A3-8D3303B6E73D}"/>
-    <hyperlink ref="C199" r:id="rId717" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{1DD6968C-22A4-4222-8887-89879BFBC5E5}"/>
-    <hyperlink ref="E199" r:id="rId718" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{9C6B0018-7D98-4EDC-8364-E2609B3D48E3}"/>
-    <hyperlink ref="I199" r:id="rId719" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{764F628A-2B53-47F1-A337-3CB5E4DAF59E}"/>
-    <hyperlink ref="M199" r:id="rId720" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{25BCB3E8-123D-4C82-9CA2-6DC881E7E150}"/>
-    <hyperlink ref="C201" r:id="rId721" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{935845E0-CE25-4F7B-8FCA-501C66EA27B4}"/>
-    <hyperlink ref="E201" r:id="rId722" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3BBC3FF6-0187-4133-B71A-00A96C271A32}"/>
-    <hyperlink ref="I201" r:id="rId723" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{0B5014CA-EF6A-4984-B99B-5FFFE509C97D}"/>
-    <hyperlink ref="M201" r:id="rId724" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{4736E4D2-8D2D-45F6-8F1F-219755687BC7}"/>
-    <hyperlink ref="C202" r:id="rId725" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{E7283DFD-636C-4414-A23F-8291A155E6A0}"/>
-    <hyperlink ref="E202" r:id="rId726" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A49FBFF1-63AA-4A4D-9D0D-2E0AFAD8DE06}"/>
-    <hyperlink ref="I202" r:id="rId727" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{0FA6C046-77D1-4ECA-BD76-3E54319BA927}"/>
-    <hyperlink ref="M202" r:id="rId728" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{A1ECF13C-8968-4AFB-9C94-3948E6FF57BD}"/>
-    <hyperlink ref="C203" r:id="rId729" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{03B209A3-B346-4B0C-B369-4DC9C8462664}"/>
-    <hyperlink ref="E203" r:id="rId730" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{0F3BAE06-AC90-491C-A4A7-3BE10B70E93C}"/>
-    <hyperlink ref="I203" r:id="rId731" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{D72A52F4-652E-4079-ABD9-0E528E65FF86}"/>
-    <hyperlink ref="M203" r:id="rId732" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{C5268262-60BE-4F92-81D8-B043A02D5319}"/>
-    <hyperlink ref="C204" r:id="rId733" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{DDFAA9D3-5090-4F72-8A5F-0B32E7117C6E}"/>
-    <hyperlink ref="E204" r:id="rId734" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{0BD8BA09-72EE-494C-9AD3-CB9B1DCBBFD7}"/>
-    <hyperlink ref="I204" r:id="rId735" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{C168AD77-E909-47CC-9E84-ABC648448D7B}"/>
-    <hyperlink ref="M204" r:id="rId736" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{7B4EDD81-763F-4CE9-A020-C2C6A2843850}"/>
-    <hyperlink ref="C205" r:id="rId737" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{694FABD3-4325-440F-BDB4-551EF2F56541}"/>
-    <hyperlink ref="E205" r:id="rId738" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F3174ACB-FEBB-445F-B4AB-A5C24FE9F7C7}"/>
-    <hyperlink ref="I205" r:id="rId739" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{D319E54E-18F4-4B8A-A7CD-F51F6CC6E562}"/>
-    <hyperlink ref="M205" r:id="rId740" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{C4CE46F4-863D-47CA-B219-2C5E1893555C}"/>
-    <hyperlink ref="C206" r:id="rId741" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{33102210-7D52-4503-9807-A249070F4622}"/>
-    <hyperlink ref="E206" r:id="rId742" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{827E7EFF-D2B1-4F85-BFA8-DC496401B08D}"/>
-    <hyperlink ref="I206" r:id="rId743" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{E5146ED5-FD2F-445E-AC10-03442850D278}"/>
-    <hyperlink ref="M206" r:id="rId744" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{61400EAC-70A6-49A2-92BA-D01691965BD3}"/>
-    <hyperlink ref="C207" r:id="rId745" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{BC263B79-1E96-4A1A-BFCF-D1C7C11317FB}"/>
-    <hyperlink ref="E207" r:id="rId746" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{62C03EE1-0879-48B2-97BC-DE6FA2154D84}"/>
-    <hyperlink ref="I207" r:id="rId747" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{B3929799-CF13-4B7E-8BD6-788CCC98BCE6}"/>
-    <hyperlink ref="M207" r:id="rId748" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{FE60E5E4-E2EF-4D4B-BACD-ADEA28A9822A}"/>
-    <hyperlink ref="C208" r:id="rId749" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{5633D522-0BEE-4AEF-836F-13EB85C7990E}"/>
-    <hyperlink ref="E208" r:id="rId750" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{706BFD4D-D7FC-4852-92F3-756A70ADEFCB}"/>
-    <hyperlink ref="I208" r:id="rId751" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{24D112BE-E9FC-457C-990B-32638544D309}"/>
-    <hyperlink ref="M208" r:id="rId752" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{23F0A5C7-7AAC-4E9B-B53C-0132CA9C5855}"/>
-    <hyperlink ref="C209" r:id="rId753" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{DEDF5287-3F2E-421A-AD61-F95E0641D8C8}"/>
-    <hyperlink ref="E209" r:id="rId754" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B4C18827-D908-41FC-B6F3-275528474F7F}"/>
-    <hyperlink ref="I209" r:id="rId755" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{FFB5DC1D-E802-4B26-B0DE-FA7733550008}"/>
-    <hyperlink ref="M209" r:id="rId756" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{8E358A2E-6356-4AE0-BD52-F8F64B43154F}"/>
-    <hyperlink ref="C210" r:id="rId757" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{8E5F49BD-61DC-44C2-94AA-89652600BF68}"/>
-    <hyperlink ref="E210" r:id="rId758" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{74193051-180A-4B9F-86F3-4D28B03B2364}"/>
-    <hyperlink ref="I210" r:id="rId759" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{F814B2D3-2A00-443F-81A9-DB99535664C9}"/>
-    <hyperlink ref="M210" r:id="rId760" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{E1DFE283-868B-440C-8734-3307CF16CAE9}"/>
-    <hyperlink ref="C212" r:id="rId761" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{494C1F2E-AE94-4E3C-B94E-D51CA439E36F}"/>
-    <hyperlink ref="E212" r:id="rId762" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7BC76026-F308-4BEC-A230-7CE96904C3C4}"/>
-    <hyperlink ref="I212" r:id="rId763" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{0EFB954E-FE6C-4F01-95CD-3541982C275B}"/>
-    <hyperlink ref="M212" r:id="rId764" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{5311E673-0D4B-4055-952E-C3396917E8EB}"/>
-    <hyperlink ref="C213" r:id="rId765" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{77FD1BD4-2991-45DE-89A5-F97C6DB9A2BC}"/>
-    <hyperlink ref="E213" r:id="rId766" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{112984ED-310E-422D-BC2C-A87E73DCEEBD}"/>
-    <hyperlink ref="I213" r:id="rId767" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{4EB85193-9415-4825-8A3F-1F2207BBDB5C}"/>
-    <hyperlink ref="M213" r:id="rId768" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{DFE67548-2330-4E66-BFFA-68EBB3D63EF4}"/>
-    <hyperlink ref="C214" r:id="rId769" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{55CC3D42-6541-4F5A-8718-2CA75A8A6332}"/>
-    <hyperlink ref="E214" r:id="rId770" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1E5D980B-2C18-4C02-BB47-CBCF2DC2F6A8}"/>
-    <hyperlink ref="I214" r:id="rId771" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{3903D22A-EFCD-432E-B024-0D6BF2E12538}"/>
-    <hyperlink ref="M214" r:id="rId772" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{4BC93826-9548-4533-AD94-7021E2366866}"/>
-    <hyperlink ref="C215" r:id="rId773" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{9E2A9252-9CED-42AF-B6E3-FD3291D78B33}"/>
-    <hyperlink ref="E215" r:id="rId774" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{F4B5662F-AEB8-40EB-B4B7-FAFFE236FB03}"/>
-    <hyperlink ref="I215" r:id="rId775" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B6383F1B-B993-4D93-82FB-CD950B462E45}"/>
-    <hyperlink ref="M215" r:id="rId776" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{CC06D469-47DB-42ED-918F-E748FC441A5B}"/>
-    <hyperlink ref="C216" r:id="rId777" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{1B3513EC-6AE8-492F-8E78-4F19F4B298CE}"/>
-    <hyperlink ref="E216" r:id="rId778" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{7B0541BA-B5C4-4EDD-B8F4-A0A86D0E5CA9}"/>
-    <hyperlink ref="I216" r:id="rId779" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{53F95E98-7925-4774-8893-DD85BE9C5038}"/>
-    <hyperlink ref="M216" r:id="rId780" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{7FD527A6-32A6-4040-9A70-F518210F751F}"/>
-    <hyperlink ref="C217" r:id="rId781" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{88BDCFE7-A086-4EA0-8457-31FF29C03FCB}"/>
-    <hyperlink ref="E217" r:id="rId782" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{F866AFB8-EB76-47D4-9C04-8E968EA07D30}"/>
-    <hyperlink ref="I217" r:id="rId783" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{F141B4A6-575F-4F00-BDD3-8AE12EED7AB5}"/>
-    <hyperlink ref="M217" r:id="rId784" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{ED7E14D7-E671-4284-9388-CBF3B76E82CD}"/>
-    <hyperlink ref="C218" r:id="rId785" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{6327E35D-36F8-4E85-B832-ABCEC4AC8B12}"/>
-    <hyperlink ref="E218" r:id="rId786" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{D3055ECD-87C6-437C-BE9B-CE50A2B1BC05}"/>
-    <hyperlink ref="I218" r:id="rId787" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{006D5BB4-DFA6-4C1F-A0D6-756AC229E0AD}"/>
-    <hyperlink ref="M218" r:id="rId788" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{089054FC-087A-429F-ABCC-BD2765F9DD16}"/>
-    <hyperlink ref="C219" r:id="rId789" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{703BB92E-987A-40E1-BD88-28821203CF21}"/>
-    <hyperlink ref="E219" r:id="rId790" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EF2D1E1A-298B-4F0A-820B-9C7F93619654}"/>
-    <hyperlink ref="I219" r:id="rId791" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{29C61F88-289A-4BCD-BA35-7D7870844487}"/>
-    <hyperlink ref="M219" r:id="rId792" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{2CF87DE6-CD9F-45CE-84B3-A7BF76BF0CDB}"/>
-    <hyperlink ref="C220" r:id="rId793" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{5E138082-995B-45D6-9DD8-7B87196847E1}"/>
-    <hyperlink ref="E220" r:id="rId794" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{95D560A8-6040-4849-AB28-723A79B9AEB4}"/>
-    <hyperlink ref="I220" r:id="rId795" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3EB69C99-459A-43DA-8ED4-6E3319E3A8A9}"/>
-    <hyperlink ref="M220" r:id="rId796" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{DD51C91C-9F4A-4156-964E-3BB9C258BBC4}"/>
-    <hyperlink ref="C221" r:id="rId797" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{BA668F0F-60AF-4C65-A4A9-D6D69A3002F4}"/>
-    <hyperlink ref="E221" r:id="rId798" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{30B3172D-63AB-4674-BF07-78A7DBE5D579}"/>
-    <hyperlink ref="I221" r:id="rId799" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{4B8236D7-5A1A-42D2-9313-C50670763150}"/>
-    <hyperlink ref="M221" r:id="rId800" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{0AC02491-562B-4EE7-AD2C-7D2206F1BE63}"/>
-    <hyperlink ref="C223" r:id="rId801" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{A9786174-4C56-4BF3-9C76-757ED126293A}"/>
-    <hyperlink ref="E223" r:id="rId802" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{CD211205-003F-4D2F-A63F-A5521D34D008}"/>
-    <hyperlink ref="I223" r:id="rId803" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{38F06236-60DF-450D-9620-A9E7C3343168}"/>
-    <hyperlink ref="M223" r:id="rId804" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{60538B85-B85B-4B67-AE71-CB3A1CA54244}"/>
-    <hyperlink ref="C224" r:id="rId805" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{172DEF3B-2D9E-4328-B3D5-3526C396127C}"/>
-    <hyperlink ref="E224" r:id="rId806" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{490AC8E8-F6F9-4AD9-AF57-0641D14B4034}"/>
-    <hyperlink ref="I224" r:id="rId807" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2F9C3A05-A98F-4AA6-91EA-883E6CA1DE42}"/>
-    <hyperlink ref="M224" r:id="rId808" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{70711ADC-C16C-4027-ACD2-760B87DD44BA}"/>
-    <hyperlink ref="C225" r:id="rId809" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{86BBED68-6413-4724-8CB9-AD2C3866B824}"/>
-    <hyperlink ref="E225" r:id="rId810" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{6C619801-9896-4F37-A904-05F8AB728ADB}"/>
-    <hyperlink ref="I225" r:id="rId811" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{063F027F-2BCF-43F7-BBCA-1933EE50300B}"/>
-    <hyperlink ref="M225" r:id="rId812" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{730B7009-536A-444A-A43E-EF980A802BF3}"/>
-    <hyperlink ref="C226" r:id="rId813" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{219A1C65-BB38-4ADB-9E6A-6456FAE2F269}"/>
-    <hyperlink ref="E226" r:id="rId814" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{41B00708-E10C-4917-AB7F-82CC96007479}"/>
-    <hyperlink ref="I226" r:id="rId815" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4265409A-62E7-4C75-99A9-DE39B969232E}"/>
-    <hyperlink ref="M226" r:id="rId816" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{9B745F4F-6F55-4A49-9939-E05FF83BB100}"/>
-    <hyperlink ref="C227" r:id="rId817" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{3D5B395D-04F8-45BC-9F94-4063185D4F56}"/>
-    <hyperlink ref="E227" r:id="rId818" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{1714AAA5-2256-404C-98EA-E92B0362EDC6}"/>
-    <hyperlink ref="I227" r:id="rId819" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C798275D-F02C-474D-9567-3578D897C61B}"/>
-    <hyperlink ref="M227" r:id="rId820" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{5A4B2D5E-A3BF-4B02-80A6-DE40CCA55F50}"/>
-    <hyperlink ref="C228" r:id="rId821" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{21077CB0-8102-4491-8229-570AEA86369B}"/>
-    <hyperlink ref="E228" r:id="rId822" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{552B65C2-AF65-49E1-B140-B2D083B47339}"/>
-    <hyperlink ref="I228" r:id="rId823" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{47A7A664-5C44-485E-B7F9-66A79F1DF2E1}"/>
-    <hyperlink ref="M228" r:id="rId824" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{1685728A-9496-4592-9C55-5D589E84574A}"/>
-    <hyperlink ref="C229" r:id="rId825" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{F9933293-7BF4-43D1-8561-351DAFB7A5D8}"/>
-    <hyperlink ref="E229" r:id="rId826" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{464BD20B-C057-4782-BF19-7D2DAC28A544}"/>
-    <hyperlink ref="I229" r:id="rId827" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{459882EB-570E-4592-83FB-B285D11A1C3C}"/>
-    <hyperlink ref="M229" r:id="rId828" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{EA49E876-F0C5-4107-86EC-C30850426396}"/>
-    <hyperlink ref="C230" r:id="rId829" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{77793675-16F9-46C5-A02D-232B6AB42A7A}"/>
-    <hyperlink ref="E230" r:id="rId830" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1E59CBD5-D761-4E3F-B34C-BD312B5E056C}"/>
-    <hyperlink ref="I230" r:id="rId831" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{4B71369D-0086-4F87-8B2F-5B868C8BC541}"/>
-    <hyperlink ref="M230" r:id="rId832" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{F1197EF4-6277-4DA3-9F8D-677B617BC5B5}"/>
-    <hyperlink ref="C231" r:id="rId833" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{C41A4842-5DFE-4CF9-843D-367C40156E6B}"/>
-    <hyperlink ref="E231" r:id="rId834" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{FD8D9B6D-13C8-4AE3-9261-C84C05FD5321}"/>
-    <hyperlink ref="I231" r:id="rId835" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{B26C4CA6-7D56-4136-A086-6CEF7509BC94}"/>
-    <hyperlink ref="M231" r:id="rId836" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{70F153BF-FEC7-4636-94F4-AA53A0A04890}"/>
-    <hyperlink ref="C232" r:id="rId837" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{0F673609-2325-4B24-A1D7-0A083C1976C6}"/>
-    <hyperlink ref="E232" r:id="rId838" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{B3C05A27-9B6B-4F66-8138-ACABC56AEE00}"/>
-    <hyperlink ref="I232" r:id="rId839" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{315B4820-6F40-440D-B33F-81F885938793}"/>
-    <hyperlink ref="M232" r:id="rId840" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{4EF3A245-34C5-410C-B91E-01B1608A5309}"/>
-    <hyperlink ref="C234" r:id="rId841" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{1F48DD22-4AAC-476A-8572-D7C1CA92E996}"/>
-    <hyperlink ref="E234" r:id="rId842" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{6B6A274D-6339-40A6-AE0B-4E9C5AA98912}"/>
-    <hyperlink ref="I234" r:id="rId843" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{9D843BEA-EE04-49BE-B8D0-6CB9526184AF}"/>
-    <hyperlink ref="M234" r:id="rId844" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{84294572-C812-4FD7-9335-6C9A35B33027}"/>
-    <hyperlink ref="C235" r:id="rId845" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{0D0A4A8E-8FCB-4EDA-A897-651597800DE3}"/>
-    <hyperlink ref="E235" r:id="rId846" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{39C05E89-9FD7-4DAC-9CEB-590C16F5277C}"/>
-    <hyperlink ref="I235" r:id="rId847" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{49BD1D22-E10C-4555-B7B5-1797BA572CAF}"/>
-    <hyperlink ref="M235" r:id="rId848" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{056560CB-F412-4541-9C66-DFC7CA52A71B}"/>
-    <hyperlink ref="C236" r:id="rId849" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{A73516BA-D8E9-4AAF-B54F-48EA2F73BEF3}"/>
-    <hyperlink ref="E236" r:id="rId850" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{A73669EA-C96D-4B46-8D6B-221F4EF99A91}"/>
-    <hyperlink ref="I236" r:id="rId851" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{EC34DF83-AE38-41BE-857B-C0F6C7D110B1}"/>
-    <hyperlink ref="M236" r:id="rId852" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{ED8C907B-387B-4474-BC5B-5854135229AE}"/>
-    <hyperlink ref="C237" r:id="rId853" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{9510C15F-34B9-4C3D-8D27-065068AC5E0A}"/>
-    <hyperlink ref="E237" r:id="rId854" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{E82CEE08-E983-4340-8C6F-45CDF23CF7EF}"/>
-    <hyperlink ref="I237" r:id="rId855" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{61FF9149-9978-4486-BE25-4DAAA47A054A}"/>
-    <hyperlink ref="M237" r:id="rId856" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{FD509649-7C6C-4DA7-B324-EFA6F33B37A8}"/>
-    <hyperlink ref="C238" r:id="rId857" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{297BF547-92E2-4182-B3A3-77CEC8317F9C}"/>
-    <hyperlink ref="E238" r:id="rId858" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C0D4F449-C2E5-43BE-B2E6-5440CE593A8A}"/>
-    <hyperlink ref="I238" r:id="rId859" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{AF2BCAD4-849C-4860-9FFF-113BCA2FC858}"/>
-    <hyperlink ref="M238" r:id="rId860" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{A961293E-8E6D-4B51-9CFD-8A94ACF250C3}"/>
-    <hyperlink ref="C239" r:id="rId861" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{B2273880-FCAC-4A84-9748-287DA45390CD}"/>
-    <hyperlink ref="E239" r:id="rId862" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{2F3768C2-360D-4D89-BC27-A6C0ECE2765F}"/>
-    <hyperlink ref="I239" r:id="rId863" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{35B3EBAF-E6DF-4214-8395-C6B3C1AB4BC2}"/>
-    <hyperlink ref="M239" r:id="rId864" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{01D6F8E2-5B01-4A5B-82DC-E01CC8921774}"/>
-    <hyperlink ref="C240" r:id="rId865" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{18289C16-5D95-4376-8E35-EB9789647127}"/>
-    <hyperlink ref="E240" r:id="rId866" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{50D5B43D-4146-482F-9619-6F344D2975C2}"/>
-    <hyperlink ref="I240" r:id="rId867" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{188CE585-8974-4F2A-88BD-0F3861F301ED}"/>
-    <hyperlink ref="M240" r:id="rId868" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{CC1805BF-6A10-4DFF-B43C-811A80F6A2BC}"/>
-    <hyperlink ref="C241" r:id="rId869" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{CE9B18A1-CCA1-44AD-9864-2D6FC372E1CD}"/>
-    <hyperlink ref="E241" r:id="rId870" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{510A6F97-D040-428E-A05C-5FD61A9B4E46}"/>
-    <hyperlink ref="I241" r:id="rId871" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{ABCF6FC0-DB58-4FEA-9744-27ED678B1232}"/>
-    <hyperlink ref="M241" r:id="rId872" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{A7A74AA0-ED83-4210-80DB-8FE2FB72B717}"/>
-    <hyperlink ref="C242" r:id="rId873" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{31B0B49F-B26B-472F-B03E-0B634419EBE7}"/>
-    <hyperlink ref="E242" r:id="rId874" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{CD7FC471-D10B-462E-AE27-60B0F4706BB6}"/>
-    <hyperlink ref="I242" r:id="rId875" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{48322032-2D2F-437E-A21D-C425FDBFC4AC}"/>
-    <hyperlink ref="M242" r:id="rId876" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{CF7A49FA-CD69-4479-A6EF-42F0DC43404E}"/>
-    <hyperlink ref="C243" r:id="rId877" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{D10E8CD2-F36C-4ECD-AB52-5B937E5CFE4B}"/>
-    <hyperlink ref="E243" r:id="rId878" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{436D4B03-E5EC-42F4-ACB1-4EEB9B951410}"/>
-    <hyperlink ref="I243" r:id="rId879" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{581A9BBB-3D5C-4A76-B002-CEE4F0367267}"/>
-    <hyperlink ref="M243" r:id="rId880" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{E68200BA-0788-4DF4-A52E-6FAAB594B90F}"/>
-    <hyperlink ref="C245" r:id="rId881" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{08E38C29-9FD0-4A18-BF84-6A83BD8D50B1}"/>
-    <hyperlink ref="E245" r:id="rId882" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7E1E66F9-3C89-4551-A18C-A82B20612789}"/>
-    <hyperlink ref="I245" r:id="rId883" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{7A844494-F8CD-4D03-A206-D1FAAA36AE6D}"/>
-    <hyperlink ref="M245" r:id="rId884" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{F4EF45E9-DF9D-468C-A58A-DB073B61AFB2}"/>
-    <hyperlink ref="C246" r:id="rId885" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{8D7D0C82-A745-4A55-B09D-06F092B73A4A}"/>
-    <hyperlink ref="E246" r:id="rId886" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{676E6099-918F-4821-8C7F-8D897F25E618}"/>
-    <hyperlink ref="I246" r:id="rId887" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{0331BBB4-AF01-4142-9C57-18FE69F2527A}"/>
-    <hyperlink ref="M246" r:id="rId888" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{6A3EF1EC-0A35-42B2-9586-AB02F81809C8}"/>
-    <hyperlink ref="C247" r:id="rId889" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{4275AE9C-FEB4-4FF0-8213-078EAA53A479}"/>
-    <hyperlink ref="E247" r:id="rId890" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{19AEA7B8-E783-4D6F-AE77-10EB52F784F7}"/>
-    <hyperlink ref="I247" r:id="rId891" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{03D1F528-736C-43E2-9355-083F9896880C}"/>
-    <hyperlink ref="M247" r:id="rId892" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{1AB68F46-4210-4D05-8800-EA76ABE21168}"/>
-    <hyperlink ref="C248" r:id="rId893" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{1BA763C3-7453-4ADB-AA41-EC8CE208322E}"/>
-    <hyperlink ref="E248" r:id="rId894" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B9463D1A-AC26-46D1-B34A-F285548CC232}"/>
-    <hyperlink ref="I248" r:id="rId895" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{F6C9174B-AB77-4274-B05B-78F3C914ADE7}"/>
-    <hyperlink ref="M248" r:id="rId896" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{2A6B904C-057F-48F6-9EAA-2840C702E8B7}"/>
-    <hyperlink ref="C249" r:id="rId897" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{A308E11A-A0D2-4927-A588-DA7D7C9E7EAC}"/>
-    <hyperlink ref="E249" r:id="rId898" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{2D8C5DF6-1688-46BC-93C1-FC329A8A97A1}"/>
-    <hyperlink ref="I249" r:id="rId899" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{2FE46F48-1C60-4BAD-805A-0998F522B12B}"/>
-    <hyperlink ref="M249" r:id="rId900" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{4DFE07A9-CEB7-41A3-835A-0C07EFEA572A}"/>
-    <hyperlink ref="C250" r:id="rId901" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{E917039E-5637-4E74-BD71-11D060884435}"/>
-    <hyperlink ref="E250" r:id="rId902" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{3331EBD0-3560-461A-A710-732555997B10}"/>
-    <hyperlink ref="I250" r:id="rId903" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{EC23B5A1-3F49-4475-B04D-3BAF2124257F}"/>
-    <hyperlink ref="M250" r:id="rId904" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{38E1B25B-8234-41EC-8869-3B5F49BF8973}"/>
-    <hyperlink ref="C251" r:id="rId905" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{0DF8BB67-0FD2-45A6-9711-1D7AF7398E5B}"/>
-    <hyperlink ref="E251" r:id="rId906" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{D82CCC31-6C27-4A19-82D2-1CD3907E9E04}"/>
-    <hyperlink ref="I251" r:id="rId907" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B99B2D40-9326-4AAD-9F38-940732542752}"/>
-    <hyperlink ref="M251" r:id="rId908" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{86F7BBF3-666D-416C-801D-9ECA45A297E3}"/>
-    <hyperlink ref="C252" r:id="rId909" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{4968CAD3-FC7B-48EE-B530-CF1D32C5FA25}"/>
-    <hyperlink ref="E252" r:id="rId910" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7A9B035D-F399-4B35-9C60-1730F0AAAF9F}"/>
-    <hyperlink ref="I252" r:id="rId911" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{41651E56-4259-4BA0-8E41-C662046F5873}"/>
-    <hyperlink ref="M252" r:id="rId912" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{5ED8B50B-1BB3-4323-8FC1-0949F3DC8C38}"/>
-    <hyperlink ref="C253" r:id="rId913" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{A7FB61AE-7F07-4783-8911-55EE862FC831}"/>
-    <hyperlink ref="E253" r:id="rId914" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{10DF1FD5-B7F5-4E14-A243-B261F7AF34CC}"/>
-    <hyperlink ref="I253" r:id="rId915" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A7E17692-ED0E-4707-AEE6-F0C79406F746}"/>
-    <hyperlink ref="M253" r:id="rId916" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{6F038D07-679F-406C-B332-1D58E120A364}"/>
-    <hyperlink ref="C254" r:id="rId917" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{7A47FAD3-ED92-4B46-ADDE-AA1B8883C38A}"/>
-    <hyperlink ref="E254" r:id="rId918" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DD9D9FD6-053D-4C4C-85E0-F38142C87B61}"/>
-    <hyperlink ref="I254" r:id="rId919" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E4B82AFC-3F80-4103-867D-F43A5B146DB0}"/>
-    <hyperlink ref="M254" r:id="rId920" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{1886073D-FB10-48F5-949B-5A814FC82921}"/>
-    <hyperlink ref="C256" r:id="rId921" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{51766259-134C-4548-99B3-EC65529E6CAA}"/>
-    <hyperlink ref="E256" r:id="rId922" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{C79B5D75-8B26-4D50-A140-F206994BC0C5}"/>
-    <hyperlink ref="I256" r:id="rId923" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{D3E8A703-F57A-4D92-8E68-3B5D1804D7B6}"/>
-    <hyperlink ref="M256" r:id="rId924" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{14AE022A-7EFC-4C83-B06D-53096B485788}"/>
-    <hyperlink ref="C257" r:id="rId925" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{D080EBF0-55CA-4A6A-886F-BCDC13D3D805}"/>
-    <hyperlink ref="E257" r:id="rId926" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{3B5FD35A-733D-482F-8456-60727DFF2DD9}"/>
-    <hyperlink ref="I257" r:id="rId927" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{17E54009-12EB-4FF8-8EC0-7CBFEC224C14}"/>
-    <hyperlink ref="M257" r:id="rId928" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{F9089EBD-0B45-4AFD-8DF5-5340049683F1}"/>
-    <hyperlink ref="C258" r:id="rId929" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{CEB70AE7-8856-4E9B-B077-FD96A972FCF3}"/>
-    <hyperlink ref="E258" r:id="rId930" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{316AFA53-026D-4B99-9A67-C1273B96700A}"/>
-    <hyperlink ref="I258" r:id="rId931" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{19873C0B-D6D2-44C2-A156-04343155BD32}"/>
-    <hyperlink ref="M258" r:id="rId932" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{A2AFD947-09E0-4166-AECE-84B3A7BBCD8C}"/>
-    <hyperlink ref="C259" r:id="rId933" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{BC996AD8-E7E7-4240-84DC-ACCC716CB519}"/>
-    <hyperlink ref="E259" r:id="rId934" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{6F977D31-9819-4792-A88D-ABFFEE315640}"/>
-    <hyperlink ref="I259" r:id="rId935" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{681DC52F-4835-4329-9921-8D2E8CABEAC4}"/>
-    <hyperlink ref="M259" r:id="rId936" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{759EB355-D04D-4176-867A-2632A7909AAD}"/>
-    <hyperlink ref="C260" r:id="rId937" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{28DAD0C5-E997-46E7-869A-07BC817F9CB4}"/>
-    <hyperlink ref="E260" r:id="rId938" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{1CF1FC90-2A5B-4F5A-87B7-A34E753418DA}"/>
-    <hyperlink ref="I260" r:id="rId939" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{74C98B74-5E93-4D7C-BAE6-1D72068460C8}"/>
-    <hyperlink ref="M260" r:id="rId940" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{E6C193C4-B19E-4A2E-BE8C-C43B4C8F5A4F}"/>
-    <hyperlink ref="C261" r:id="rId941" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{0F279D97-9349-462B-865B-D1808A9F19FF}"/>
-    <hyperlink ref="E261" r:id="rId942" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{728FB6B5-B7ED-4A46-8E96-3225C2B963A8}"/>
-    <hyperlink ref="I261" r:id="rId943" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{710384C1-2C2E-40B2-876D-BFCCDF4EE9C8}"/>
-    <hyperlink ref="M261" r:id="rId944" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{64D3949E-3042-4594-93CF-D549E544F982}"/>
-    <hyperlink ref="C262" r:id="rId945" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{1875D826-69AA-400A-A5C2-9E3159B6C19C}"/>
-    <hyperlink ref="E262" r:id="rId946" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{32C69182-3FD5-4418-B1DE-45744FF68B19}"/>
-    <hyperlink ref="I262" r:id="rId947" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{FD59B97A-28E0-4916-B512-118BC680078B}"/>
-    <hyperlink ref="M262" r:id="rId948" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{FBEA6002-F9D0-4D25-92CF-158ED4F0F017}"/>
-    <hyperlink ref="C263" r:id="rId949" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{CC54105E-2447-436E-A594-644C5808FE24}"/>
-    <hyperlink ref="E263" r:id="rId950" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{AA11BB84-9791-4423-AC4C-FFFE72FBC30A}"/>
-    <hyperlink ref="I263" r:id="rId951" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7CE3BC7C-50A1-4E90-901E-ACD5157CF2D4}"/>
-    <hyperlink ref="M263" r:id="rId952" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{F8B5364A-A0BB-4D98-B766-A2FA1B806845}"/>
-    <hyperlink ref="C264" r:id="rId953" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{E0985CE1-F723-41C4-9506-2D83311E2CE6}"/>
-    <hyperlink ref="E264" r:id="rId954" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{F93F6978-BC55-4BC2-8DE7-EACAEBA4BA24}"/>
-    <hyperlink ref="I264" r:id="rId955" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{428FB51B-A43E-4619-9124-A8DABFFFCCA4}"/>
-    <hyperlink ref="M264" r:id="rId956" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{84CEDB66-38FA-4E57-A7C1-DD96F2CFA5E7}"/>
-    <hyperlink ref="C265" r:id="rId957" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{E42CC245-7F9B-4FBC-A05B-085B93852790}"/>
-    <hyperlink ref="E265" r:id="rId958" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{D5B368E4-0D8A-432A-BCA4-471A4AA6A29F}"/>
-    <hyperlink ref="I265" r:id="rId959" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{DB01771B-B1F4-4CA6-9F40-04BCD99A3FCE}"/>
-    <hyperlink ref="M265" r:id="rId960" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{E9FA6BFC-F232-4027-BDC3-75D7B29B4BAF}"/>
-    <hyperlink ref="C267" r:id="rId961" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{58C9B69C-6E70-430F-985F-96E136AFAC76}"/>
-    <hyperlink ref="E267" r:id="rId962" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{C0ED8693-7B79-4AAD-B3A9-1D6EB1DF4B2C}"/>
-    <hyperlink ref="I267" r:id="rId963" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B989278C-80FE-4E87-9E3F-41FDF613615B}"/>
-    <hyperlink ref="M267" r:id="rId964" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{046B4097-1D3C-4708-9F9D-235CCC2AF21A}"/>
-    <hyperlink ref="C268" r:id="rId965" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{7CDCC5D9-646D-402A-99A9-2DD1614197A3}"/>
-    <hyperlink ref="E268" r:id="rId966" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{4C00308D-4F58-4DC4-AB6D-83B5920ED5F7}"/>
-    <hyperlink ref="I268" r:id="rId967" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{AAA31036-1281-4D58-9F90-5111444EBE0A}"/>
-    <hyperlink ref="M268" r:id="rId968" display="https://fbref.com/en/stathead/matchup/squads/943e8050/822bd0ba/Burnley-vs-Liverpool-History" xr:uid="{4A4C07D0-0F0A-4378-B126-358AAF82930C}"/>
-    <hyperlink ref="C269" r:id="rId969" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{1BFE2A33-D6DF-433C-AE49-C75BAFF1359B}"/>
-    <hyperlink ref="E269" r:id="rId970" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B993F447-8810-4FD6-A8B9-95829C25666E}"/>
-    <hyperlink ref="I269" r:id="rId971" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{3F2D6132-BB16-4959-9708-8D1C08261530}"/>
-    <hyperlink ref="M269" r:id="rId972" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{972C922A-565F-4BC1-B52B-1176118FDEB7}"/>
-    <hyperlink ref="C270" r:id="rId973" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{D464A3AC-5D40-43F3-BCBB-AA99CE96A075}"/>
-    <hyperlink ref="E270" r:id="rId974" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{13EB51A2-72F3-46F7-97A2-6F55CA8E0845}"/>
-    <hyperlink ref="I270" r:id="rId975" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{F3430461-0166-4F65-B9F5-A3ACB11F6764}"/>
-    <hyperlink ref="M270" r:id="rId976" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{CF147073-7EDD-46FD-A1D4-D67A5DB706CB}"/>
-    <hyperlink ref="C271" r:id="rId977" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{C7CA002E-6149-4D2A-A74A-F85070CDECB4}"/>
-    <hyperlink ref="E271" r:id="rId978" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6C4C5AA2-5471-43CD-B774-502A36CCB47F}"/>
-    <hyperlink ref="I271" r:id="rId979" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{3D9CB858-447E-4266-B460-CA1E8FD053DF}"/>
-    <hyperlink ref="M271" r:id="rId980" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/5bfb9659/Everton-vs-Leeds-United-History" xr:uid="{606AE776-5DEB-490F-AD37-4172A0AFD89A}"/>
-    <hyperlink ref="C272" r:id="rId981" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{F038CC99-6216-4229-B92F-FCBB709AFF34}"/>
-    <hyperlink ref="E272" r:id="rId982" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{3D3A4778-8C0D-433B-8A5A-EAC7C6D526A8}"/>
-    <hyperlink ref="I272" r:id="rId983" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{8EB8CA6E-DA6E-49A3-843D-05DC1A83CABB}"/>
-    <hyperlink ref="M272" r:id="rId984" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8602292d/Newcastle-United-vs-Aston-Villa-History" xr:uid="{322F91AA-DC55-4BE7-A255-C156AA137588}"/>
-    <hyperlink ref="C273" r:id="rId985" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{905721CD-571D-41C3-B517-B2CCC58E015B}"/>
-    <hyperlink ref="E273" r:id="rId986" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A3E6DE52-09C6-4CE2-BBD1-CFC3E202CD56}"/>
-    <hyperlink ref="I273" r:id="rId987" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8E880804-501C-41F4-946A-AD09327CFB6F}"/>
-    <hyperlink ref="M273" r:id="rId988" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{FA91880E-5185-46EF-AFAB-5EE3524E7AEB}"/>
-    <hyperlink ref="C274" r:id="rId989" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{D16C7458-608D-4BB2-9555-0A033AD503A4}"/>
-    <hyperlink ref="E274" r:id="rId990" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{0111C4B2-88E5-4A42-B69F-27707AFE91A9}"/>
-    <hyperlink ref="I274" r:id="rId991" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{E7B99F23-35F8-46DC-B4E0-4A8232FB2F79}"/>
-    <hyperlink ref="M274" r:id="rId992" display="https://fbref.com/en/stathead/matchup/squads/cd051869/47c64c55/Brentford-vs-Crystal-Palace-History" xr:uid="{040EA78E-C95D-4E62-8BFD-0D7D4D5E6FED}"/>
-    <hyperlink ref="C275" r:id="rId993" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{0E2A9C75-80A4-437B-B950-D8E68A349B1D}"/>
-    <hyperlink ref="E275" r:id="rId994" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{628F1A63-B0E4-49DC-9A02-94319DA5F425}"/>
-    <hyperlink ref="I275" r:id="rId995" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5DCD9B26-A05B-4D6F-BECD-CD323CE22AD9}"/>
-    <hyperlink ref="M275" r:id="rId996" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/1c781004/Manchester-City-vs-Norwich-City-History" xr:uid="{5787A4BA-7334-4CA0-9C76-3D7F3C71F9B6}"/>
-    <hyperlink ref="C276" r:id="rId997" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{41DE470C-029B-4171-BE63-B2BEC290FCFC}"/>
-    <hyperlink ref="E276" r:id="rId998" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{F232A09B-06B8-41D9-819E-9DD386958483}"/>
-    <hyperlink ref="I276" r:id="rId999" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{2ACFC56C-F8E1-46B2-B3A2-ABF26D2FCF1E}"/>
-    <hyperlink ref="M276" r:id="rId1000" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/2abfe087/Brighton-and-Hove-Albion-vs-Watford-History" xr:uid="{EEAAA9C5-1CE3-44D9-9994-AF1B789C5312}"/>
-    <hyperlink ref="C278" r:id="rId1001" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{9A6A79ED-A9FB-4564-AFFF-E28C170D7069}"/>
-    <hyperlink ref="E278" r:id="rId1002" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4731B1F0-D913-405F-A4A6-45F0FDEA6854}"/>
-    <hyperlink ref="I278" r:id="rId1003" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F23301ED-90C5-46C4-87B7-CF4EAAC93120}"/>
-    <hyperlink ref="M278" r:id="rId1004" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/19538871/Leeds-United-vs-Manchester-United-History" xr:uid="{1E79502E-7625-4CA3-B742-56E5FA5B51FD}"/>
-    <hyperlink ref="C279" r:id="rId1005" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{D9A306C0-57E0-4B5F-B4E4-38A86394603B}"/>
-    <hyperlink ref="E279" r:id="rId1006" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{63C129C4-698E-4449-ACAD-999FF2E861B1}"/>
-    <hyperlink ref="I279" r:id="rId1007" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{EE641B72-4C2C-47F0-B747-96893BD82366}"/>
-    <hyperlink ref="M279" r:id="rId1008" display="https://fbref.com/en/stathead/matchup/squads/8602292d/2abfe087/Aston-Villa-vs-Watford-History" xr:uid="{C3F47D76-1D11-4AD5-923C-42E60039A64B}"/>
-    <hyperlink ref="C280" r:id="rId1009" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{F1CA1FEA-20F0-45D1-93E2-A0CC4C57CEB5}"/>
-    <hyperlink ref="E280" r:id="rId1010" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{14D2E4BB-3D00-49F3-9A18-C109E1177F8E}"/>
-    <hyperlink ref="I280" r:id="rId1011" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{0F7E47CA-FA1B-4CBA-B31D-267B219DE437}"/>
-    <hyperlink ref="M280" r:id="rId1012" display="https://fbref.com/en/stathead/matchup/squads/cd051869/18bb7c10/Brentford-vs-Arsenal-History" xr:uid="{9EA05B78-83FD-47E2-B809-6C7C65B67F46}"/>
-    <hyperlink ref="C281" r:id="rId1013" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{66CA562D-8F09-41AC-8194-15850E0D1D62}"/>
-    <hyperlink ref="E281" r:id="rId1014" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{A1C5ED20-17E9-48CF-8BCE-A071D95D4A8D}"/>
-    <hyperlink ref="I281" r:id="rId1015" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{99A95640-33A1-40EA-B628-2A82B95B5BBC}"/>
-    <hyperlink ref="M281" r:id="rId1016" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/361ca564/Manchester-City-vs-Tottenham-Hotspur-History" xr:uid="{87FE733B-5C4E-4F7F-9DF6-773DFFCE338D}"/>
-    <hyperlink ref="C282" r:id="rId1017" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{89D5DB60-E99D-4CC3-BC00-5585E100F6A1}"/>
-    <hyperlink ref="E282" r:id="rId1018" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{12B92D74-2D4B-4390-81E6-DDEFCDD684A7}"/>
-    <hyperlink ref="I282" r:id="rId1019" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8D815946-0C81-46DF-8F29-74027BEB2151}"/>
-    <hyperlink ref="M282" r:id="rId1020" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/33c895d4/Everton-vs-Southampton-History" xr:uid="{0891C6B5-709C-4879-A1F6-A665691A3161}"/>
-    <hyperlink ref="C283" r:id="rId1021" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{C75BA8E3-475F-4190-9BD9-7BFB3CC43E5D}"/>
-    <hyperlink ref="E283" r:id="rId1022" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{DD4C8D52-A80B-4F72-96E2-55BA28D0B008}"/>
-    <hyperlink ref="I283" r:id="rId1023" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{663F0482-CA0A-4281-84D3-5DD31A110195}"/>
-    <hyperlink ref="M283" r:id="rId1024" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/1c781004/Liverpool-vs-Norwich-City-History" xr:uid="{AB9E26A9-CA51-4257-9369-B9EB131FB278}"/>
-    <hyperlink ref="C284" r:id="rId1025" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{CB2B8F27-58AB-49CC-8A6E-057222DFEB0A}"/>
-    <hyperlink ref="E284" r:id="rId1026" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{3784ED8A-4D3A-4986-BFE4-526843B69E50}"/>
-    <hyperlink ref="I284" r:id="rId1027" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{DE2539CB-D11B-4B95-95D3-274E24B78A10}"/>
-    <hyperlink ref="M284" r:id="rId1028" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/47c64c55/Chelsea-vs-Crystal-Palace-History" xr:uid="{5AC637DB-32CD-4C6A-9DC3-30A6CC314432}"/>
-    <hyperlink ref="C285" r:id="rId1029" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{557EA3DB-1C41-4388-B37A-CC49B2A0506A}"/>
-    <hyperlink ref="E285" r:id="rId1030" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{3EFE010F-10A4-4E5E-AE25-94DA67C7A8C6}"/>
-    <hyperlink ref="I285" r:id="rId1031" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{7C60BBAF-65FC-4F50-BBD9-730D5A6ACCE4}"/>
-    <hyperlink ref="M285" r:id="rId1032" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/7c21e445/Newcastle-United-vs-West-Ham-United-History" xr:uid="{4F2EF4FD-D377-45D9-8BE2-CAA295707B06}"/>
-    <hyperlink ref="C286" r:id="rId1033" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{6536A4B7-C6BF-4675-A5E0-C0AA0056C2B6}"/>
-    <hyperlink ref="E286" r:id="rId1034" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{4FE6D6FC-5AF0-4735-9F81-268ED037FCA0}"/>
-    <hyperlink ref="I286" r:id="rId1035" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{78AEF8EE-F174-4D11-96F9-249F1569543A}"/>
-    <hyperlink ref="M286" r:id="rId1036" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8cec06e1/Leicester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{F7826A25-DE81-442B-84D6-AE3023395675}"/>
-    <hyperlink ref="C287" r:id="rId1037" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{B1B8CDAC-1E51-4D7B-9514-DA40640739B9}"/>
-    <hyperlink ref="E287" r:id="rId1038" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{56ECBDC0-39AE-4AF9-8938-84D00E4F35EC}"/>
-    <hyperlink ref="I287" r:id="rId1039" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B04B60CA-2BE0-4B53-8F29-03312A924BAB}"/>
-    <hyperlink ref="M287" r:id="rId1040" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/943e8050/Brighton-and-Hove-Albion-vs-Burnley-History" xr:uid="{2D4FCAD0-4C81-4332-80C2-099BBE3A3F38}"/>
-    <hyperlink ref="C289" r:id="rId1041" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{7F75C764-5D19-48D7-96F1-AB0696AD9163}"/>
-    <hyperlink ref="E289" r:id="rId1042" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7B176EFA-E35E-485E-A4AE-74D63CD05191}"/>
-    <hyperlink ref="I289" r:id="rId1043" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{EBB279B0-85F0-49FA-9246-62953F3F92DB}"/>
-    <hyperlink ref="M289" r:id="rId1044" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{E2EBD18C-9B51-4B59-8369-3799D329285D}"/>
-    <hyperlink ref="C290" r:id="rId1045" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{6B2ADED9-62C2-437F-AAD7-49A735FCEDAB}"/>
-    <hyperlink ref="E290" r:id="rId1046" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{12F70F2C-073A-4E9B-8A07-215E9CF32EB2}"/>
-    <hyperlink ref="I290" r:id="rId1047" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{80620B4E-0F09-4FFA-8F78-4E2644AFE7E1}"/>
-    <hyperlink ref="M290" r:id="rId1048" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{1A843A43-F069-467D-9A16-400C3CC0964B}"/>
-    <hyperlink ref="C291" r:id="rId1049" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{585000E6-35E3-4CB6-9ED0-7FCBBC33E4B1}"/>
-    <hyperlink ref="E291" r:id="rId1050" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CD80791B-2C11-46ED-8605-289AAB19D3F9}"/>
-    <hyperlink ref="I291" r:id="rId1051" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{CD13354B-AB03-4B16-9783-C2B7DA1C0ADC}"/>
-    <hyperlink ref="M291" r:id="rId1052" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{2F0E6C2D-E63B-4740-AE1A-DD7B62F6EE6F}"/>
-    <hyperlink ref="C292" r:id="rId1053" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{D5BBC32A-2595-47AD-B796-9E8B2558165D}"/>
-    <hyperlink ref="E292" r:id="rId1054" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{DAFA8B9B-B198-4BD6-9398-A954CEDCF8A7}"/>
-    <hyperlink ref="I292" r:id="rId1055" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{A2F7CDEF-B82E-4A9B-A789-1CE24C331981}"/>
-    <hyperlink ref="M292" r:id="rId1056" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{B501F681-9FD9-41FB-8051-C3E460BEB02A}"/>
-    <hyperlink ref="C293" r:id="rId1057" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{E5A037B0-542E-4FD3-A6B8-7B322DAD24AD}"/>
-    <hyperlink ref="E293" r:id="rId1058" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{91DCEB9B-83C8-433A-BCBF-08E304469252}"/>
-    <hyperlink ref="I293" r:id="rId1059" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D6B7E2D1-33A3-4808-8328-BF4A82E60ACE}"/>
-    <hyperlink ref="M293" r:id="rId1060" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{AC31101F-7DFF-4B18-A45B-0ED8FCACCD92}"/>
-    <hyperlink ref="C294" r:id="rId1061" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{F3B9CC85-3155-441C-9F36-C48E3680F1D1}"/>
-    <hyperlink ref="E294" r:id="rId1062" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{BEFD18AC-398D-41B3-AAA4-0265CEE665D8}"/>
-    <hyperlink ref="I294" r:id="rId1063" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{3309B4D2-1908-4C75-BD04-F19F42E692AA}"/>
-    <hyperlink ref="M294" r:id="rId1064" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{9CCBD01E-8A59-4E73-A9C3-A68C0270A0B3}"/>
-    <hyperlink ref="C295" r:id="rId1065" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{AEDA4012-BBAC-4F3A-A4D6-C732E636AD50}"/>
-    <hyperlink ref="E295" r:id="rId1066" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{6C3724A1-B643-4C3C-945A-98B2A9DDA6FB}"/>
-    <hyperlink ref="I295" r:id="rId1067" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{509C0B48-4FE1-4AF0-8530-8CF9D67FB133}"/>
-    <hyperlink ref="M295" r:id="rId1068" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{64A9D545-B70C-4A71-BD71-F10CAB20418D}"/>
-    <hyperlink ref="C296" r:id="rId1069" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{E49A5F72-BD93-4C9A-BCEB-6A941FA3ADA0}"/>
-    <hyperlink ref="E296" r:id="rId1070" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{24C0F6E9-CCBF-48B0-B15B-03423EB98962}"/>
-    <hyperlink ref="I296" r:id="rId1071" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{9953CBA2-4125-474A-9057-12623CF612F6}"/>
-    <hyperlink ref="M296" r:id="rId1072" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{78CD39DE-843A-4757-A6D6-218B4B297242}"/>
-    <hyperlink ref="C297" r:id="rId1073" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{3E597F16-9835-493B-9071-3A2E8E79CA3C}"/>
-    <hyperlink ref="E297" r:id="rId1074" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{99DEA93F-91AB-4E6D-B93C-E74875F40C42}"/>
-    <hyperlink ref="I297" r:id="rId1075" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{DDE0B203-4E40-42F9-8D37-CC8995DECBD1}"/>
-    <hyperlink ref="M297" r:id="rId1076" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{62B21ED7-869C-4715-9974-7DB037D055D6}"/>
-    <hyperlink ref="C298" r:id="rId1077" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{50DADD5E-1075-49D1-BB2E-2BB5FCC5327D}"/>
-    <hyperlink ref="E298" r:id="rId1078" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{E22EC8C0-566A-426B-B09A-C75EF687FA33}"/>
-    <hyperlink ref="I298" r:id="rId1079" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{C37F57F9-1041-4186-BC7E-BC3998D8F215}"/>
-    <hyperlink ref="M298" r:id="rId1080" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{6119B359-DBDE-4AB6-8C1B-F9B5BA3E915B}"/>
-    <hyperlink ref="C300" r:id="rId1081" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{C9E951AF-D226-4951-B8A3-48C542006451}"/>
-    <hyperlink ref="E300" r:id="rId1082" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{29143796-B0AB-4E2A-9E29-8DE9946EA7D3}"/>
-    <hyperlink ref="I300" r:id="rId1083" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{61BFCF2A-1569-4615-8678-B50C601903F9}"/>
-    <hyperlink ref="M300" r:id="rId1084" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{CF5A8001-48EC-4155-8D7F-409F99F1C356}"/>
-    <hyperlink ref="C301" r:id="rId1085" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{A0E6310C-B2AD-463C-8C35-CDB37813D75C}"/>
-    <hyperlink ref="E301" r:id="rId1086" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D9E58267-F5A1-4065-B4A9-0AF88625AD64}"/>
-    <hyperlink ref="I301" r:id="rId1087" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{CA6E0237-ED16-4F3F-81C1-94503A290C23}"/>
-    <hyperlink ref="M301" r:id="rId1088" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{BA9D1E5B-893E-4480-B981-F246BE8BC514}"/>
-    <hyperlink ref="C302" r:id="rId1089" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{69E99D1A-8E99-4D81-B17E-47363343C616}"/>
-    <hyperlink ref="E302" r:id="rId1090" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{A86A05AA-7CB6-4357-A09B-ED45F4C1E5B3}"/>
-    <hyperlink ref="I302" r:id="rId1091" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{48B581F1-39EB-494B-9790-4A0BE7724ECA}"/>
-    <hyperlink ref="M302" r:id="rId1092" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{644914E8-4EC5-477F-BA59-96AC7D9241A8}"/>
-    <hyperlink ref="C303" r:id="rId1093" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{6B2A8F6E-1EEA-4FB6-8643-696871BC9F2E}"/>
-    <hyperlink ref="E303" r:id="rId1094" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{00B1A294-F9C7-4A65-8809-BE8088389B98}"/>
-    <hyperlink ref="I303" r:id="rId1095" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{6BFDA38C-20C3-42A3-9D21-C52CCE7CBA13}"/>
-    <hyperlink ref="M303" r:id="rId1096" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{046997A4-4320-4018-96A6-87FA8927DF9F}"/>
-    <hyperlink ref="C304" r:id="rId1097" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9771004A-890B-44E8-987E-BB4EC0BFA568}"/>
-    <hyperlink ref="E304" r:id="rId1098" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{7CDA8726-0951-43AC-9515-AB8EF161C3E6}"/>
-    <hyperlink ref="I304" r:id="rId1099" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B6697ED7-A023-42D8-95B2-6D1A9624E5BA}"/>
-    <hyperlink ref="M304" r:id="rId1100" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{97FAF239-3607-4520-A7B8-29BA989521AA}"/>
-    <hyperlink ref="C305" r:id="rId1101" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{19E72523-E675-48CB-A5DF-6A2FBFEAEA8F}"/>
-    <hyperlink ref="E305" r:id="rId1102" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{97F30D5A-003B-491C-9557-13A01C08ED75}"/>
-    <hyperlink ref="I305" r:id="rId1103" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{E86D34F7-58C8-495F-AB70-9D121466C3EB}"/>
-    <hyperlink ref="M305" r:id="rId1104" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{30C7B443-83DF-49B9-926C-70D5B5EB5556}"/>
-    <hyperlink ref="C306" r:id="rId1105" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{BAD564DB-575F-4F15-AA77-FE491284262A}"/>
-    <hyperlink ref="E306" r:id="rId1106" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{87B9FF4D-81EC-478B-9EEE-445179638610}"/>
-    <hyperlink ref="I306" r:id="rId1107" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{5C29244A-B7FE-45CF-B862-3556449FFC3C}"/>
-    <hyperlink ref="M306" r:id="rId1108" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{ED97D3C8-9239-4F8C-92DC-EFDCC9194F82}"/>
-    <hyperlink ref="C307" r:id="rId1109" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{0097C3F9-19A2-4F05-BD1C-141F4205618D}"/>
-    <hyperlink ref="E307" r:id="rId1110" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{DDA269AF-C558-4F99-B515-722D885E936B}"/>
-    <hyperlink ref="I307" r:id="rId1111" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5FD6B299-C5DC-4630-B811-E6BB4ECC82E8}"/>
-    <hyperlink ref="M307" r:id="rId1112" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{975D3CEF-3F90-46AB-9962-22BB87223BD4}"/>
-    <hyperlink ref="C308" r:id="rId1113" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{85E340BA-38D1-4B65-9E41-9A3EC2C05A83}"/>
-    <hyperlink ref="E308" r:id="rId1114" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{E8FA3C89-4213-4F7B-BDBA-D6B306481836}"/>
-    <hyperlink ref="I308" r:id="rId1115" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{54FF304D-8C32-4EE7-9E99-80F804AF1985}"/>
-    <hyperlink ref="M308" r:id="rId1116" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{BB4A9B7F-B583-4E91-BBC0-74EFE955568B}"/>
-    <hyperlink ref="C309" r:id="rId1117" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{E72ED014-D299-4DDA-8B15-74C77978124D}"/>
-    <hyperlink ref="E309" r:id="rId1118" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{00F124E4-78E3-4260-BEA2-B8085A24C4E0}"/>
-    <hyperlink ref="I309" r:id="rId1119" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{63236C9B-7F44-495D-8AAE-40821C1911E6}"/>
-    <hyperlink ref="M309" r:id="rId1120" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{E6CD160D-B1FA-4862-BD17-9B77C9503566}"/>
-    <hyperlink ref="C311" r:id="rId1121" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{1E6F96D8-61FF-4B50-8A2D-0CF7E889D8A6}"/>
-    <hyperlink ref="E311" r:id="rId1122" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C0B73786-DCD9-4159-9A3D-F86340B0DF09}"/>
-    <hyperlink ref="I311" r:id="rId1123" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{6EBC5A8D-9B97-480F-9A11-4A638FB6F792}"/>
-    <hyperlink ref="M311" r:id="rId1124" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{9CCFA560-4843-4A2A-BAC8-8AA129A47C07}"/>
-    <hyperlink ref="C312" r:id="rId1125" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{CCCD58A6-4EB3-4C10-9820-FB5EE68E2B01}"/>
-    <hyperlink ref="E312" r:id="rId1126" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{007D35C1-612B-4717-8F7B-025A4B592738}"/>
-    <hyperlink ref="I312" r:id="rId1127" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8B986EA1-FBDC-4B09-92D2-D6676B6AA7B3}"/>
-    <hyperlink ref="M312" r:id="rId1128" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{91CA8514-1B82-4ECD-8FF3-8910F208960C}"/>
-    <hyperlink ref="C313" r:id="rId1129" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{B4060160-FD60-4C30-8951-A5228CF5A47E}"/>
-    <hyperlink ref="E313" r:id="rId1130" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{1B6A532A-2E34-4C8E-B9D6-F72C979CE30A}"/>
-    <hyperlink ref="I313" r:id="rId1131" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B3857EEF-5234-429B-8804-C8724226BEDF}"/>
-    <hyperlink ref="M313" r:id="rId1132" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{9BF3EC9C-CD0D-46F7-8DEF-702A2D43F75D}"/>
-    <hyperlink ref="C314" r:id="rId1133" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{D61A3E61-17C3-4B9B-9236-357E5E6241E9}"/>
-    <hyperlink ref="E314" r:id="rId1134" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{2A4E3FBE-8224-4E77-8EA6-45FA4D63CD59}"/>
-    <hyperlink ref="I314" r:id="rId1135" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{E1AA6234-F8A0-4618-B89E-C2576EE90844}"/>
-    <hyperlink ref="M314" r:id="rId1136" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{F153C21D-EDCA-4BFA-A228-801291001A60}"/>
-    <hyperlink ref="C315" r:id="rId1137" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{0BE877E9-9378-46DB-9BF9-6F93B720A2FF}"/>
-    <hyperlink ref="E315" r:id="rId1138" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{9B0F86EB-18F0-4E0C-8E82-B1255E606C3E}"/>
-    <hyperlink ref="I315" r:id="rId1139" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A3F50354-7B54-47A3-AC8F-7119DAB69F5B}"/>
-    <hyperlink ref="M315" r:id="rId1140" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{767A1826-3B4A-43EA-9585-76B39A4666AE}"/>
-    <hyperlink ref="C316" r:id="rId1141" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{DD04C03B-39A7-460D-8B60-D07198420AB7}"/>
-    <hyperlink ref="E316" r:id="rId1142" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{F894BB58-3DF9-4A2E-B770-B9F11B24C1C1}"/>
-    <hyperlink ref="I316" r:id="rId1143" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{FFE8F420-F048-48EF-BBC3-BCA7021292C9}"/>
-    <hyperlink ref="M316" r:id="rId1144" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{965D87FE-DBA3-4B13-9D46-9A0E8DF02D99}"/>
-    <hyperlink ref="C317" r:id="rId1145" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{EE1F6DE6-FF84-4868-86ED-854DCA63B4C4}"/>
-    <hyperlink ref="E317" r:id="rId1146" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{656A099D-7BF0-4400-A9F5-99488BCE1A78}"/>
-    <hyperlink ref="I317" r:id="rId1147" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4274F1A4-02CB-4B7E-8D3F-6630FD6D14BD}"/>
-    <hyperlink ref="M317" r:id="rId1148" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{5A669FF8-6B5A-4609-8051-0F9F4CEC4111}"/>
-    <hyperlink ref="C318" r:id="rId1149" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{F23F6A1B-461C-471B-B332-EAA906F50883}"/>
-    <hyperlink ref="E318" r:id="rId1150" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{E5D61456-ABC0-40C9-839F-A0B5F3BF457C}"/>
-    <hyperlink ref="I318" r:id="rId1151" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{339133EA-4B02-435B-998D-6E0C6DD50D2D}"/>
-    <hyperlink ref="M318" r:id="rId1152" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{49A5258A-76EC-41C7-A008-8B806C254FF7}"/>
-    <hyperlink ref="C319" r:id="rId1153" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{635E5C65-AC06-45B4-BEC3-B895EE2EDF9F}"/>
-    <hyperlink ref="E319" r:id="rId1154" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{48DB59CD-D72B-4AF5-805B-70117D16BFC6}"/>
-    <hyperlink ref="I319" r:id="rId1155" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{9F2633E7-7A6B-49AE-8180-EE0098718DB8}"/>
-    <hyperlink ref="M319" r:id="rId1156" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{922C582A-1440-4B85-9AC0-B4E31B500215}"/>
-    <hyperlink ref="C320" r:id="rId1157" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{B22502F9-8A30-4CB7-86A3-FDDF81DEA5C2}"/>
-    <hyperlink ref="E320" r:id="rId1158" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{B439D4C2-BE16-45DD-BFCD-FB6A33C19AAF}"/>
-    <hyperlink ref="I320" r:id="rId1159" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{718CCC1B-1F16-4245-A1C5-F30965B33554}"/>
-    <hyperlink ref="M320" r:id="rId1160" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{905F5FB8-423C-4596-A5BB-AE7DD7F17D04}"/>
-    <hyperlink ref="C322" r:id="rId1161" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{0247054C-E5A0-40B8-9A24-D9B0030F38E4}"/>
-    <hyperlink ref="E322" r:id="rId1162" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6F569BC4-8C90-421A-B1EA-CFC298FDD63F}"/>
-    <hyperlink ref="I322" r:id="rId1163" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{7D939116-E0C4-4541-AB1F-BAFEA2764006}"/>
-    <hyperlink ref="M322" r:id="rId1164" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{740677C0-EA22-4F38-AE8C-7436A645D824}"/>
-    <hyperlink ref="C323" r:id="rId1165" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{3636AA4B-1F65-4C1C-ADE6-A2D76BBFC042}"/>
-    <hyperlink ref="E323" r:id="rId1166" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7D2F213F-6E54-47DC-8A37-A29D79DDAE09}"/>
-    <hyperlink ref="I323" r:id="rId1167" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{665735E3-A154-4272-AEE0-2EA9DDBAA7FD}"/>
-    <hyperlink ref="M323" r:id="rId1168" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{E4EA2163-4979-4407-962C-72C4102E85D9}"/>
-    <hyperlink ref="C324" r:id="rId1169" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{49EF6A23-FF51-4A7A-8C8D-6886E504534E}"/>
-    <hyperlink ref="E324" r:id="rId1170" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{895D406D-BC76-4567-948F-9F0CB5F0AD7B}"/>
-    <hyperlink ref="I324" r:id="rId1171" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{AE05F679-43B4-478E-B30F-09D1EC8D1586}"/>
-    <hyperlink ref="M324" r:id="rId1172" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{CDEB0E14-25DF-4E14-A4DB-9F1A6D0D8B48}"/>
-    <hyperlink ref="C325" r:id="rId1173" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{0E1CDC75-0138-4445-8450-5AE5425E546A}"/>
-    <hyperlink ref="E325" r:id="rId1174" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{492B163E-D84C-4C78-8B6E-95843718EDAC}"/>
-    <hyperlink ref="I325" r:id="rId1175" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{65A0B760-D922-4168-A1DB-11F41B6BFC04}"/>
-    <hyperlink ref="M325" r:id="rId1176" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{893C807E-F8CF-430E-A366-3A26B6EAC298}"/>
-    <hyperlink ref="C326" r:id="rId1177" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{FE23BAEE-8B17-4F2F-9718-8702DD380EE8}"/>
-    <hyperlink ref="E326" r:id="rId1178" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A64EAC1B-E75E-42B1-B6E8-71ED7C5C2450}"/>
-    <hyperlink ref="I326" r:id="rId1179" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F9548920-7F09-4A15-84B9-2D2E1D650FCE}"/>
-    <hyperlink ref="M326" r:id="rId1180" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{A7E79FBB-B599-422C-85A3-CD379BF75C11}"/>
-    <hyperlink ref="C327" r:id="rId1181" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{78D9448F-7F7F-4EAE-A084-B4E739873F7C}"/>
-    <hyperlink ref="E327" r:id="rId1182" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{EE919F03-3E39-408F-8C63-A508DCA790F2}"/>
-    <hyperlink ref="I327" r:id="rId1183" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{DB30B941-0B48-41C3-BFFE-24EBC8760364}"/>
-    <hyperlink ref="M327" r:id="rId1184" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{B4108064-9D5A-452A-A695-F8ADFDC28734}"/>
-    <hyperlink ref="C328" r:id="rId1185" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{9A7C3CDC-2026-4B72-A503-29FE13DEE782}"/>
-    <hyperlink ref="E328" r:id="rId1186" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{59ACD624-1EAB-46C6-8CF2-B9D7D8212CF4}"/>
-    <hyperlink ref="I328" r:id="rId1187" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{46B6240F-DBD8-4173-BFA0-6A96FD38DF5B}"/>
-    <hyperlink ref="M328" r:id="rId1188" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{70BD260F-378D-49B3-ADC6-C26858D36196}"/>
-    <hyperlink ref="C329" r:id="rId1189" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{E4541352-B1FF-4685-821C-509DF617F09A}"/>
-    <hyperlink ref="E329" r:id="rId1190" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{F4052C36-777B-450A-AC45-D3E8833325C5}"/>
-    <hyperlink ref="I329" r:id="rId1191" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{7EF09069-7261-43B7-8B96-52E864234230}"/>
-    <hyperlink ref="M329" r:id="rId1192" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{F62CCBA6-DBA7-49EC-944D-8B2A96EA1F8E}"/>
-    <hyperlink ref="C330" r:id="rId1193" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{67842B29-71A3-405C-BC1A-FAA0E6089246}"/>
-    <hyperlink ref="E330" r:id="rId1194" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{413CE8DD-1CFC-4C5B-94B4-914AA1490314}"/>
-    <hyperlink ref="I330" r:id="rId1195" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{0E6512F8-F0EB-431D-A2DB-28FBCD4AC93B}"/>
-    <hyperlink ref="M330" r:id="rId1196" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{1E394D58-77E8-41EC-8AFA-A54DEF7F746B}"/>
-    <hyperlink ref="C331" r:id="rId1197" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{738D0003-059B-4C5A-A9AF-75C3E2615627}"/>
-    <hyperlink ref="E331" r:id="rId1198" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9D4EDD46-0CB9-4746-B183-3D820682C07B}"/>
-    <hyperlink ref="I331" r:id="rId1199" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{AD3C862C-2A48-4629-85A6-0E039EAEF4E9}"/>
-    <hyperlink ref="M331" r:id="rId1200" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{AF51C611-D5A5-4B91-8B67-BFE0FEC816D1}"/>
-    <hyperlink ref="C333" r:id="rId1201" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{E118E919-D6DF-49B4-8588-FB0CA91ABEC4}"/>
-    <hyperlink ref="E333" r:id="rId1202" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{19629558-53CB-4C00-9B7C-78B2F2CEBD0D}"/>
-    <hyperlink ref="I333" r:id="rId1203" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{FB91B996-A009-4FE2-854C-25BC19DFB872}"/>
-    <hyperlink ref="M333" r:id="rId1204" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{BAF61AAD-AC70-407A-9AED-DAD5016780EB}"/>
-    <hyperlink ref="C334" r:id="rId1205" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{F6898ABA-84D0-4E4C-9FE6-7436B0882CAC}"/>
-    <hyperlink ref="E334" r:id="rId1206" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{A71A488A-C37B-4CD0-9554-E5F27AA25539}"/>
-    <hyperlink ref="I334" r:id="rId1207" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{2C643634-3274-49B8-BEA5-F3E2F91E2EBA}"/>
-    <hyperlink ref="M334" r:id="rId1208" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{52911488-821D-4668-B93B-6FA5C63CF34F}"/>
-    <hyperlink ref="C335" r:id="rId1209" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{0C282FC6-F9DB-4929-B22D-3300DA33287A}"/>
-    <hyperlink ref="E335" r:id="rId1210" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4DE98C8B-A016-45EA-894B-10B179CD6505}"/>
-    <hyperlink ref="I335" r:id="rId1211" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{3569257D-6150-4721-B9A3-F10F127249BC}"/>
-    <hyperlink ref="M335" r:id="rId1212" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{0C4D890A-612F-4A4C-91E9-F56FB8928D4B}"/>
-    <hyperlink ref="C336" r:id="rId1213" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{4DC8E619-4431-40F2-A89F-FE8A941A3A0C}"/>
-    <hyperlink ref="E336" r:id="rId1214" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EBA98BCF-ECF3-483E-B98B-3E7FE0823C77}"/>
-    <hyperlink ref="I336" r:id="rId1215" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{11C5193E-6909-4EEE-9204-CB6AEF6AFC99}"/>
-    <hyperlink ref="M336" r:id="rId1216" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{E34C3D61-E44D-453C-9E9C-5FD04449A5BF}"/>
-    <hyperlink ref="C337" r:id="rId1217" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{4EAA3245-65BE-4A1B-BF16-EF03F4DBBA66}"/>
-    <hyperlink ref="E337" r:id="rId1218" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4CDC927C-44F6-43EB-BAB3-993799D8EE30}"/>
-    <hyperlink ref="I337" r:id="rId1219" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{5BF4F690-F283-41C9-BB1C-13CFF6483533}"/>
-    <hyperlink ref="M337" r:id="rId1220" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{2152C01A-2AFC-4867-ABC6-91F117632BA9}"/>
-    <hyperlink ref="C338" r:id="rId1221" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{E705C339-93F3-409E-8C3E-9A1F46120F19}"/>
-    <hyperlink ref="E338" r:id="rId1222" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{83A913CE-3507-4BA1-9A96-80622CA285E0}"/>
-    <hyperlink ref="I338" r:id="rId1223" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{2AAB1F93-AFB9-450F-A4A9-312882D05745}"/>
-    <hyperlink ref="M338" r:id="rId1224" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{BA640EEA-14AF-4F55-86FE-BD6105D94B6E}"/>
-    <hyperlink ref="C339" r:id="rId1225" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{1875469E-D873-4EF1-9CC1-8CD806E2D379}"/>
-    <hyperlink ref="E339" r:id="rId1226" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CEC46368-BC38-4265-98AA-70FCF60BC897}"/>
-    <hyperlink ref="I339" r:id="rId1227" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{712875B4-9613-4300-8F9C-F127CC5F1E9D}"/>
-    <hyperlink ref="M339" r:id="rId1228" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{1CECD9A4-5210-4852-B0C3-E0E3B7C90E15}"/>
-    <hyperlink ref="C340" r:id="rId1229" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{99742DE1-0513-4E55-852C-A05C15BCF463}"/>
-    <hyperlink ref="E340" r:id="rId1230" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{B1E8E667-3B69-4744-91D8-EB4461AB4771}"/>
-    <hyperlink ref="I340" r:id="rId1231" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{2E1036EB-EBD5-4BD4-BFC2-DE1DA4C49B85}"/>
-    <hyperlink ref="M340" r:id="rId1232" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{C1C50D98-E636-41DA-B684-66CB2D1CC5EB}"/>
-    <hyperlink ref="C341" r:id="rId1233" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{28FA5838-57D5-4FE6-A5ED-C7BA4A4F1365}"/>
-    <hyperlink ref="E341" r:id="rId1234" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{02124121-A238-4340-A2F6-522A699D9779}"/>
-    <hyperlink ref="I341" r:id="rId1235" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{05A7793A-96B9-4623-804C-6463A53B12DD}"/>
-    <hyperlink ref="M341" r:id="rId1236" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{A1F4A3A1-A068-47FC-8D5D-C0DAB58BD65D}"/>
-    <hyperlink ref="C342" r:id="rId1237" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{277D30E3-ACDF-4B5E-9901-DB6340DD2D02}"/>
-    <hyperlink ref="E342" r:id="rId1238" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{74305482-652C-4747-9E87-F0C8B55B2184}"/>
-    <hyperlink ref="I342" r:id="rId1239" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{C722D3E7-A681-4656-8E7C-51C219D5018D}"/>
-    <hyperlink ref="M342" r:id="rId1240" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{BB94175F-B4AD-447A-8878-55D73E99BBA8}"/>
-    <hyperlink ref="C344" r:id="rId1241" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{CF74F5C3-EC7A-43FD-B544-3DFEE937FD30}"/>
-    <hyperlink ref="E344" r:id="rId1242" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8D9EDFF9-B7AE-49B0-9265-10109CA658C0}"/>
-    <hyperlink ref="I344" r:id="rId1243" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{C9944B33-E733-4876-92EA-691F9F2ADE81}"/>
-    <hyperlink ref="M344" r:id="rId1244" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{6CD815E3-B814-4BB5-9547-2D095C8695F8}"/>
-    <hyperlink ref="C345" r:id="rId1245" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{71D0E378-EBB7-4DD5-A94E-D13ACCEAC048}"/>
-    <hyperlink ref="E345" r:id="rId1246" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{FB951595-F85B-4292-9C37-E186F33207FA}"/>
-    <hyperlink ref="I345" r:id="rId1247" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{B70AAF80-B8BD-4C7D-BFCF-CB09CC04E03D}"/>
-    <hyperlink ref="M345" r:id="rId1248" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{65AA38CF-6CF3-4E01-90A7-1D8FD9A079D2}"/>
-    <hyperlink ref="C346" r:id="rId1249" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{96ECF52F-6C45-4F6A-87D3-A406FA631D58}"/>
-    <hyperlink ref="E346" r:id="rId1250" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{0279044A-61D4-4FD0-ADA0-5FF6B96B53DD}"/>
-    <hyperlink ref="I346" r:id="rId1251" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{171DA7ED-DE61-4B25-947B-84084A1A776A}"/>
-    <hyperlink ref="M346" r:id="rId1252" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{CED87F92-7069-4041-A664-B5D2407D7B83}"/>
-    <hyperlink ref="C347" r:id="rId1253" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{A57EC6BE-E8E9-4046-B2ED-6652E9D3492A}"/>
-    <hyperlink ref="E347" r:id="rId1254" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8644F68B-3A07-4501-BF6F-75F7B872F12D}"/>
-    <hyperlink ref="I347" r:id="rId1255" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F424915F-8400-443F-98CD-216D3C993653}"/>
-    <hyperlink ref="M347" r:id="rId1256" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{4626F7FD-0BE6-4AAE-A61C-1FA524C6BD8F}"/>
-    <hyperlink ref="C348" r:id="rId1257" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{B04CB15A-8B81-4507-94AB-A83C90833A42}"/>
-    <hyperlink ref="E348" r:id="rId1258" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F81551BB-7BAB-47D0-A898-02F098658451}"/>
-    <hyperlink ref="I348" r:id="rId1259" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4D23F78B-AE79-4548-88D0-D1677F9231A9}"/>
-    <hyperlink ref="M348" r:id="rId1260" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{5C9E9746-994F-44F8-9857-87AAF221790F}"/>
-    <hyperlink ref="C349" r:id="rId1261" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{6E25D726-3597-48F4-9074-4227946D5D4A}"/>
-    <hyperlink ref="E349" r:id="rId1262" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{52A458ED-AD39-444E-8548-12FC0C28229E}"/>
-    <hyperlink ref="I349" r:id="rId1263" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{E3CE5202-5B0D-4E62-9A1B-F17F0A3D7428}"/>
-    <hyperlink ref="M349" r:id="rId1264" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{BE1397CD-3384-4890-85A3-B6440F23B645}"/>
-    <hyperlink ref="C350" r:id="rId1265" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{63559B3D-DB61-4950-B40D-D853AB29FBA0}"/>
-    <hyperlink ref="E350" r:id="rId1266" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{49335674-362A-4A31-A7F5-6E6E06EE5076}"/>
-    <hyperlink ref="I350" r:id="rId1267" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{507FFBF5-9F0C-42B8-940D-1E4262A0FA6A}"/>
-    <hyperlink ref="M350" r:id="rId1268" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{939410FF-F6B7-4640-9F72-1EA23060F610}"/>
-    <hyperlink ref="C351" r:id="rId1269" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{A99BAF1E-633F-408C-A646-A7530E952802}"/>
-    <hyperlink ref="E351" r:id="rId1270" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B73A4680-E1AE-4A8A-B989-8222CCEC373B}"/>
-    <hyperlink ref="I351" r:id="rId1271" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{7EFCD56E-7F58-4D6F-95F7-1F20AA4133B4}"/>
-    <hyperlink ref="M351" r:id="rId1272" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{2264D0C4-59CD-401F-9128-BE9F7AA20FBD}"/>
-    <hyperlink ref="C352" r:id="rId1273" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{03F07DA7-5794-41F7-9AD5-BF72E379D68A}"/>
-    <hyperlink ref="E352" r:id="rId1274" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{1CD658E4-7C49-429F-901E-7C4B25D87F96}"/>
-    <hyperlink ref="I352" r:id="rId1275" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3A17445A-5641-4932-9381-6C561B15ED63}"/>
-    <hyperlink ref="M352" r:id="rId1276" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{06E684B4-F4F6-4BAA-99E8-C5818AC002CA}"/>
-    <hyperlink ref="C353" r:id="rId1277" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{C5E29F36-40AF-492E-9F65-0E83495B411F}"/>
-    <hyperlink ref="E353" r:id="rId1278" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{E5150E0F-4800-46BD-B6BC-27F8FABFCAE4}"/>
-    <hyperlink ref="I353" r:id="rId1279" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{563B8BF1-5307-48A0-8E07-111B6CE0F4FA}"/>
-    <hyperlink ref="M353" r:id="rId1280" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{1F237878-17E3-41F5-BCD2-1A2D609655E9}"/>
-    <hyperlink ref="C355" r:id="rId1281" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{F83EA33D-48F7-400B-AEEA-858B5ECDEBE3}"/>
-    <hyperlink ref="E355" r:id="rId1282" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{F4DB0F8B-BDED-4BBA-88EA-268AB1734562}"/>
-    <hyperlink ref="I355" r:id="rId1283" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{E8EE1ED4-C622-4A3B-9A2F-99037781D5CC}"/>
-    <hyperlink ref="M355" r:id="rId1284" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{D0C4EA75-B027-45DA-B0B4-D4E9AFA14D68}"/>
-    <hyperlink ref="C356" r:id="rId1285" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{AA27E2D5-EF9E-4F68-80A0-B1A093A19BCE}"/>
-    <hyperlink ref="E356" r:id="rId1286" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{251FD3A1-0F4D-4449-8B30-CC9955F238D1}"/>
-    <hyperlink ref="I356" r:id="rId1287" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{FAB83B76-E9F6-40F4-A1CB-7F8D0B68A1E7}"/>
-    <hyperlink ref="M356" r:id="rId1288" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{CA720AEB-C8F8-4F62-B5E3-06298A2DAAA3}"/>
-    <hyperlink ref="C357" r:id="rId1289" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{EEF1D2C1-AD62-4AC5-9AAF-0DB8053C15BC}"/>
-    <hyperlink ref="E357" r:id="rId1290" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{32087C79-0BEC-41C2-9DD2-2EC6154125C2}"/>
-    <hyperlink ref="I357" r:id="rId1291" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3E857214-6B2F-4F4C-9D76-43580E6430BA}"/>
-    <hyperlink ref="M357" r:id="rId1292" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{779C709C-9968-4DEB-A5EF-B48B8E6789B8}"/>
-    <hyperlink ref="C358" r:id="rId1293" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{2ABC5219-6117-4853-8A6A-CF9EF830FD5A}"/>
-    <hyperlink ref="E358" r:id="rId1294" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A9C81A4A-7061-488B-80DE-EE6903920AA0}"/>
-    <hyperlink ref="I358" r:id="rId1295" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{DA3C8DD5-EB11-45F2-9D9B-519D10123052}"/>
-    <hyperlink ref="M358" r:id="rId1296" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{640AAC7E-2113-4220-AFBB-DD49483B28D0}"/>
-    <hyperlink ref="C359" r:id="rId1297" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{0729FFD6-4DF2-47AF-9409-2DDE7A53784F}"/>
-    <hyperlink ref="E359" r:id="rId1298" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6CD19BFE-F347-403E-B56E-4F236FAC317B}"/>
-    <hyperlink ref="I359" r:id="rId1299" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CA1222E2-320C-47DE-A9E4-D7B0EBC4318A}"/>
-    <hyperlink ref="M359" r:id="rId1300" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{3EF22AC1-601B-475C-B582-DA72AD59BAB9}"/>
-    <hyperlink ref="C360" r:id="rId1301" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{CE761F31-A5C3-4A96-B545-E07CD026C50E}"/>
-    <hyperlink ref="E360" r:id="rId1302" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{70CA1EB4-2EE4-4E50-8570-F89EC967A060}"/>
-    <hyperlink ref="I360" r:id="rId1303" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{A3000493-851F-4FB8-BBC8-5C0C7405E363}"/>
-    <hyperlink ref="M360" r:id="rId1304" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{17EAE196-FC2B-426D-967C-1D82B65E18B5}"/>
-    <hyperlink ref="C361" r:id="rId1305" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{1140E6B7-721A-40D8-B938-94B21F93D83D}"/>
-    <hyperlink ref="E361" r:id="rId1306" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{3A309EE6-CB78-4322-9B63-14CF82D7FB07}"/>
-    <hyperlink ref="I361" r:id="rId1307" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B20D9117-4735-481E-85DB-E765110EECB3}"/>
-    <hyperlink ref="M361" r:id="rId1308" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{AC0AE73B-D6D8-4450-B261-3F46FE846104}"/>
-    <hyperlink ref="C362" r:id="rId1309" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{B4E454F3-240C-442E-A77B-24052B59B780}"/>
-    <hyperlink ref="E362" r:id="rId1310" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{4AD9797F-BFCD-43CE-AE0B-F6012B3430D8}"/>
-    <hyperlink ref="I362" r:id="rId1311" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F1AA7487-52F8-4005-8B10-96816F80912F}"/>
-    <hyperlink ref="M362" r:id="rId1312" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{7E083612-2FC7-4DAF-8861-8AA692973B18}"/>
-    <hyperlink ref="C363" r:id="rId1313" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{C5764D0C-8663-4430-A7BD-38069F0128B4}"/>
-    <hyperlink ref="E363" r:id="rId1314" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{0973EA3A-E491-4860-8A35-7C6028CA8CFC}"/>
-    <hyperlink ref="I363" r:id="rId1315" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{9708CE59-5C67-4486-9D51-9EFA00F596A2}"/>
-    <hyperlink ref="M363" r:id="rId1316" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{B4F94FBF-AEA6-4E68-9115-07E456A4317F}"/>
-    <hyperlink ref="C364" r:id="rId1317" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{D7D9767B-50C5-4D9A-B9DA-43EA96116D31}"/>
-    <hyperlink ref="E364" r:id="rId1318" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{FB708260-19E9-47C0-9397-7FFE56F441B1}"/>
-    <hyperlink ref="I364" r:id="rId1319" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7E0F51F9-8713-4E31-B70C-B26EBBFE8DD3}"/>
-    <hyperlink ref="M364" r:id="rId1320" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{DE6CA553-7E79-4917-8809-7BC75396FA5B}"/>
-    <hyperlink ref="C366" r:id="rId1321" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{677F898C-C7EF-44CC-9DC6-9C501B025A05}"/>
-    <hyperlink ref="E366" r:id="rId1322" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E9C9ECA6-74BD-4874-AB85-848068A6C875}"/>
-    <hyperlink ref="I366" r:id="rId1323" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{5F38B176-B028-445E-8349-1C39F1DAB9F5}"/>
-    <hyperlink ref="M366" r:id="rId1324" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{A0195B69-AAF7-439B-866A-83231402EB4A}"/>
-    <hyperlink ref="C367" r:id="rId1325" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{20205AF4-D381-46B8-894B-B7DBFA6CED72}"/>
-    <hyperlink ref="E367" r:id="rId1326" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{93522351-C763-4BC3-9565-A0BF9467F0BB}"/>
-    <hyperlink ref="I367" r:id="rId1327" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{057434EA-9243-4F53-B77B-BD289ABBDB19}"/>
-    <hyperlink ref="M367" r:id="rId1328" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{27C14F74-3073-423A-A40A-6D88A499B913}"/>
-    <hyperlink ref="C368" r:id="rId1329" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{D043E411-C003-4A6C-91A9-069D2AC2E437}"/>
-    <hyperlink ref="E368" r:id="rId1330" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{F7D7426E-0C37-451A-A8E8-9063AD3589C4}"/>
-    <hyperlink ref="I368" r:id="rId1331" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{3A18C9D5-E27E-4E2F-A805-FC35EA9BC1C0}"/>
-    <hyperlink ref="M368" r:id="rId1332" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{08F43DBB-7373-443F-BE04-ED4F975112B6}"/>
-    <hyperlink ref="C369" r:id="rId1333" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{3C032154-A27C-4290-B2EF-7756683499DF}"/>
-    <hyperlink ref="E369" r:id="rId1334" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{125031EB-8668-47FC-AF14-669BE3940E71}"/>
-    <hyperlink ref="I369" r:id="rId1335" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{41823AE7-0C02-4D00-8D49-E1CEA73EC88E}"/>
-    <hyperlink ref="M369" r:id="rId1336" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{A076AF77-D7C9-4654-8017-EB81BDCC1C38}"/>
-    <hyperlink ref="C370" r:id="rId1337" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{FD628C2A-C683-4AB0-85CD-110944BF145E}"/>
-    <hyperlink ref="E370" r:id="rId1338" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{016B6E48-0538-4212-8A5C-41D612AFC6A5}"/>
-    <hyperlink ref="I370" r:id="rId1339" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{F1ECF15D-23F0-46AB-A639-4E0EBF9CCA88}"/>
-    <hyperlink ref="M370" r:id="rId1340" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{E674BEA4-F963-4865-8A72-FE91FE5ABF52}"/>
-    <hyperlink ref="C371" r:id="rId1341" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{8A7A3E16-9587-4603-AD96-4591D1B0EE3B}"/>
-    <hyperlink ref="E371" r:id="rId1342" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{90D3B1EC-03D6-4BE4-AA80-EE9BFB90DDBD}"/>
-    <hyperlink ref="I371" r:id="rId1343" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{20FF9B7D-630C-4857-BA3F-01C3F96F0C97}"/>
-    <hyperlink ref="M371" r:id="rId1344" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{81CBB674-8ADF-4C12-B320-B8C36997B85F}"/>
-    <hyperlink ref="C372" r:id="rId1345" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{F8918F8C-E2C9-41B3-8FB0-96DCF22DA52B}"/>
-    <hyperlink ref="E372" r:id="rId1346" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{3C1167C7-6C73-4673-8BDD-C2F5D4A79277}"/>
-    <hyperlink ref="I372" r:id="rId1347" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{347EB1A9-89E8-456A-AFAA-1EFDE1520850}"/>
-    <hyperlink ref="M372" r:id="rId1348" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{7A7AEDC9-C37E-4AED-80FE-65329B5292B6}"/>
-    <hyperlink ref="C373" r:id="rId1349" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{C854F80D-6DBB-4AF4-AE00-3A022884F28A}"/>
-    <hyperlink ref="E373" r:id="rId1350" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{EA6040E4-9A1C-4327-A14D-7BAB89785830}"/>
-    <hyperlink ref="I373" r:id="rId1351" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{4551B85A-F672-4DD2-8A76-F3A2967CC3C0}"/>
-    <hyperlink ref="M373" r:id="rId1352" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{E0A55CA8-0DD4-45E2-B9EA-B152540B2991}"/>
-    <hyperlink ref="C374" r:id="rId1353" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{71108469-EE88-4B7F-A181-AA1A14497856}"/>
-    <hyperlink ref="E374" r:id="rId1354" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6A779404-FF1A-4B7E-B552-E9FF40DC9BB3}"/>
-    <hyperlink ref="I374" r:id="rId1355" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{1905E288-0A3D-4FE3-8B6B-AA0D9E949C1D}"/>
-    <hyperlink ref="M374" r:id="rId1356" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{88328F51-8124-48F7-82B2-29DCD2AEBC53}"/>
-    <hyperlink ref="C375" r:id="rId1357" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{9B389833-2B94-48FE-99B4-D18D0C635D42}"/>
-    <hyperlink ref="E375" r:id="rId1358" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{9FC6324A-CCA0-4ED4-8A05-999517ABBE15}"/>
-    <hyperlink ref="I375" r:id="rId1359" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{069E820B-25F3-4C0A-B680-1C8C7DF6D1B7}"/>
-    <hyperlink ref="M375" r:id="rId1360" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{D6C19862-3EAA-4667-9D83-C5868921F77D}"/>
-    <hyperlink ref="C377" r:id="rId1361" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{7DD8DA51-F4DB-4159-BCBD-E493CEE141EC}"/>
-    <hyperlink ref="E377" r:id="rId1362" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{44DBABC6-ED5D-4B5F-A2E1-0988B2AE5239}"/>
-    <hyperlink ref="I377" r:id="rId1363" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{DFA0A2D1-05B1-4A27-B543-C924AE291983}"/>
-    <hyperlink ref="M377" r:id="rId1364" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{96EDB33A-BFC1-44F7-A7A5-0DB8C95DE329}"/>
-    <hyperlink ref="C378" r:id="rId1365" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{4195BB8C-C54F-4188-BC86-9CE80D0795FD}"/>
-    <hyperlink ref="E378" r:id="rId1366" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{1FCB9B8D-7D92-422F-8943-87D4E69955A2}"/>
-    <hyperlink ref="I378" r:id="rId1367" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E4FEE64E-475E-474B-A6F1-A33E0BA34C1D}"/>
-    <hyperlink ref="M378" r:id="rId1368" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{A9FB5839-9DC9-47E1-9899-6964078D9824}"/>
-    <hyperlink ref="C379" r:id="rId1369" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{A06A1069-E65F-40D0-98CF-33A642925EC5}"/>
-    <hyperlink ref="E379" r:id="rId1370" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{F54A09C3-1E8F-477C-B11A-351542C913A8}"/>
-    <hyperlink ref="I379" r:id="rId1371" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{51720131-02FF-440C-A844-BB139C947899}"/>
-    <hyperlink ref="M379" r:id="rId1372" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{16B73173-D6DE-4BBE-A284-E1467ECC5DCC}"/>
-    <hyperlink ref="C380" r:id="rId1373" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{AA1C7B0D-7C1D-4103-9C8B-62CF49F46D6A}"/>
-    <hyperlink ref="E380" r:id="rId1374" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{C787C028-0F55-497A-99E6-68DEF4D3AB77}"/>
-    <hyperlink ref="I380" r:id="rId1375" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{0B554297-797A-41FA-AA75-48841A39A3BE}"/>
-    <hyperlink ref="M380" r:id="rId1376" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{0EBDAF1F-3641-495F-9BB4-11FE7214FBF3}"/>
-    <hyperlink ref="C381" r:id="rId1377" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{AD6A7E21-B5F7-4AF0-80C9-3116EFD057B7}"/>
-    <hyperlink ref="E381" r:id="rId1378" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{24B5B21D-C78B-4293-BE60-AAF3E313A0E0}"/>
-    <hyperlink ref="I381" r:id="rId1379" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{196F9E8B-1606-42C0-9816-C1B1B9E13F05}"/>
-    <hyperlink ref="M381" r:id="rId1380" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{A078F15C-8879-40B2-92A5-F914C1AC1E7A}"/>
-    <hyperlink ref="C382" r:id="rId1381" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{77D9D6FE-62C4-41C0-B902-B2C35143D9B7}"/>
-    <hyperlink ref="E382" r:id="rId1382" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{90827FFE-3072-42C6-90DB-4732A8FC2230}"/>
-    <hyperlink ref="I382" r:id="rId1383" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{AA617A4A-9C80-4F21-A34F-9BE068D33708}"/>
-    <hyperlink ref="M382" r:id="rId1384" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{D37CEF54-D9DF-4E0A-A95A-71D063C24672}"/>
-    <hyperlink ref="C383" r:id="rId1385" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{E916DA21-6438-4168-8E0F-E2CD1797CB06}"/>
-    <hyperlink ref="E383" r:id="rId1386" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{83F3481C-F706-4DEC-8069-CB40A25103A5}"/>
-    <hyperlink ref="I383" r:id="rId1387" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{781B0B6B-F9D0-454E-A3C4-0D0B3D5C3AFE}"/>
-    <hyperlink ref="M383" r:id="rId1388" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{6E9AFF47-6042-4ECC-9395-69000695886A}"/>
-    <hyperlink ref="C384" r:id="rId1389" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{DB3C028B-CE29-40D4-B70D-1D5E65AB7A83}"/>
-    <hyperlink ref="E384" r:id="rId1390" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{E57BF28D-4F0B-43CF-8D80-70F0051CE5DA}"/>
-    <hyperlink ref="I384" r:id="rId1391" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5E4BEB2E-916B-494B-BEC0-99937CCCB9AA}"/>
-    <hyperlink ref="M384" r:id="rId1392" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{26A27DDC-1756-48E9-B62D-6CC7E51BC1AB}"/>
-    <hyperlink ref="C385" r:id="rId1393" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{B885A22D-559F-40DE-9574-733DBDF1C38F}"/>
-    <hyperlink ref="E385" r:id="rId1394" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{D7C23DE8-3DE3-4706-8EBD-ECD3CB0540FF}"/>
-    <hyperlink ref="I385" r:id="rId1395" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{95C96D75-177B-473E-A0EA-B5FB2EFED32E}"/>
-    <hyperlink ref="M385" r:id="rId1396" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{5CB0AFA0-DFC2-4097-B7D0-A3E006F042B2}"/>
-    <hyperlink ref="C386" r:id="rId1397" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{7E8F0A5B-B056-44C1-81F1-BC18923301F0}"/>
-    <hyperlink ref="E386" r:id="rId1398" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{ED21410F-DF58-45C6-B9F0-59AC4001A738}"/>
-    <hyperlink ref="I386" r:id="rId1399" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{BB85390B-B72F-4173-A8D7-AF7C29189739}"/>
-    <hyperlink ref="M386" r:id="rId1400" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{5EAD1AEF-72D6-404B-8054-D915FCCFDFA3}"/>
-    <hyperlink ref="C388" r:id="rId1401" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{8AA8013C-7EE9-4B4D-9254-99C4789B3E58}"/>
-    <hyperlink ref="E388" r:id="rId1402" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5773248E-CFF3-4A70-9A79-E152F19695DE}"/>
-    <hyperlink ref="I388" r:id="rId1403" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{80607F91-143D-4444-868B-194888C810A5}"/>
-    <hyperlink ref="M388" r:id="rId1404" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{196D58F0-8BAA-4360-85D6-7AB3CAC83BF0}"/>
-    <hyperlink ref="C389" r:id="rId1405" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{370B4C49-4BC2-4558-AE26-13D2D6FB5E4A}"/>
-    <hyperlink ref="E389" r:id="rId1406" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{A7F25A85-93F0-41CD-A36D-2F60BFF85C37}"/>
-    <hyperlink ref="I389" r:id="rId1407" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{E18788AC-3053-4076-99DC-6B028E40C03D}"/>
-    <hyperlink ref="M389" r:id="rId1408" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{1DF8394F-B341-422A-9D6E-465CA546034C}"/>
-    <hyperlink ref="C390" r:id="rId1409" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{47BA3DFB-646D-47EC-AA52-9901DE965771}"/>
-    <hyperlink ref="E390" r:id="rId1410" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{7AF9E847-E089-4FC6-9D9F-3F0A6F406AD9}"/>
-    <hyperlink ref="I390" r:id="rId1411" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{38447F74-3A77-42F6-AAB6-6746AC1BAC19}"/>
-    <hyperlink ref="M390" r:id="rId1412" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{F4136D48-4691-45C9-9DA8-A7497D32AE3A}"/>
-    <hyperlink ref="C391" r:id="rId1413" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{C592EFE0-5EF6-4B52-A0D2-C1CD135849E4}"/>
-    <hyperlink ref="E391" r:id="rId1414" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{64055524-654F-4D04-95B9-10E6D73B791B}"/>
-    <hyperlink ref="I391" r:id="rId1415" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{9BA29F33-9291-4318-8B44-5C3DC2AE95AB}"/>
-    <hyperlink ref="M391" r:id="rId1416" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{D10884A8-DDA9-47E0-A312-127FE4ABB0FF}"/>
-    <hyperlink ref="C392" r:id="rId1417" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{436CEB53-A2EB-4A28-987E-39D6A4DC85C6}"/>
-    <hyperlink ref="E392" r:id="rId1418" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EFC4516B-CFDF-43F6-A61B-6C552EB2AD3C}"/>
-    <hyperlink ref="I392" r:id="rId1419" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{2D472E48-2CB7-4B66-9297-A262BB389DA6}"/>
-    <hyperlink ref="M392" r:id="rId1420" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{0E227E9C-2CC1-45A5-9E31-D65AD1348B89}"/>
-    <hyperlink ref="C393" r:id="rId1421" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{A12A5EA5-FDD9-4C38-A2B8-EBCD0116A12B}"/>
-    <hyperlink ref="E393" r:id="rId1422" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{A9445189-C802-419D-9C5A-058F3860D27B}"/>
-    <hyperlink ref="I393" r:id="rId1423" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{82DF6EC1-DADB-4567-ABA9-2EBCC209CB29}"/>
-    <hyperlink ref="M393" r:id="rId1424" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{3A4442D5-61F6-4F7F-97BE-B41054A01814}"/>
-    <hyperlink ref="C394" r:id="rId1425" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{4E3E9243-256D-4193-BC45-6F1E8969CE4F}"/>
-    <hyperlink ref="E394" r:id="rId1426" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{62EDA772-0CB1-4C88-B080-D0D3A2149D31}"/>
-    <hyperlink ref="I394" r:id="rId1427" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D98D37C9-41A0-402C-8912-58A5F7712D14}"/>
-    <hyperlink ref="M394" r:id="rId1428" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{0EF830CE-CE51-4901-B882-E145865DBD13}"/>
-    <hyperlink ref="C395" r:id="rId1429" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{F7A7579A-5B89-4EB1-BE9C-FEA6A976532C}"/>
-    <hyperlink ref="E395" r:id="rId1430" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{61EABE7B-EF6F-4D43-BE1A-94BE414E2ADD}"/>
-    <hyperlink ref="I395" r:id="rId1431" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{462C8087-44E1-4B67-A3CA-245B0F18DE53}"/>
-    <hyperlink ref="M395" r:id="rId1432" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{78CE1EA7-EB55-4D1E-8F6B-CFCCB2CE4801}"/>
-    <hyperlink ref="C396" r:id="rId1433" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{85258859-87B9-4F3B-A8CF-AEC23149B88E}"/>
-    <hyperlink ref="E396" r:id="rId1434" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{5B07A312-190A-4224-8F6C-0D6A2AEA2B6B}"/>
-    <hyperlink ref="I396" r:id="rId1435" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{C9067D04-E4A4-44BE-9E62-140840FB195E}"/>
-    <hyperlink ref="M396" r:id="rId1436" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{59BD65AE-1604-4064-B261-04C040D9DB1E}"/>
-    <hyperlink ref="C397" r:id="rId1437" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{8E19476F-80F5-480C-9A5F-4BF9AFCACE03}"/>
-    <hyperlink ref="E397" r:id="rId1438" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B9B0F0B4-0876-4080-981D-1F1930DD755C}"/>
-    <hyperlink ref="I397" r:id="rId1439" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{65241D88-2364-4CF4-8022-14E50FAD5823}"/>
-    <hyperlink ref="M397" r:id="rId1440" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{BFB2E5AF-377F-446C-A8F0-86445CC42DB6}"/>
-    <hyperlink ref="C399" r:id="rId1441" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{37B0EFFF-282D-44AB-AC5F-1C9610E2EFE2}"/>
-    <hyperlink ref="E399" r:id="rId1442" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{694500BB-A81E-46C5-8AA1-E15E90EDE464}"/>
-    <hyperlink ref="I399" r:id="rId1443" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{050709FC-EECD-4D7D-8D7D-3042F8254CF1}"/>
-    <hyperlink ref="M399" r:id="rId1444" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{FCBC7717-5D6B-44A3-B2EA-8C2446F93332}"/>
-    <hyperlink ref="C400" r:id="rId1445" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{3C67CA5E-A450-4F59-B903-1E52FA39748E}"/>
-    <hyperlink ref="E400" r:id="rId1446" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{BD471F0D-3407-4FD2-AB3B-AEABC2D7FD15}"/>
-    <hyperlink ref="I400" r:id="rId1447" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{0B52244F-146F-48F6-8779-078700B988DD}"/>
-    <hyperlink ref="M400" r:id="rId1448" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{82C06E82-4173-4683-9FF7-D9598B29F999}"/>
-    <hyperlink ref="C401" r:id="rId1449" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{8F0D685D-99FD-44C9-B43F-45FAD65EC6CD}"/>
-    <hyperlink ref="E401" r:id="rId1450" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C076C27A-CF5F-4189-A87F-E1F37DE61437}"/>
-    <hyperlink ref="I401" r:id="rId1451" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{406A57E4-54A0-4D96-BE7A-42A54E3C5A3C}"/>
-    <hyperlink ref="M401" r:id="rId1452" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{4FD16F43-5ACA-48A5-8E79-8DF98745D1AB}"/>
-    <hyperlink ref="C402" r:id="rId1453" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{F8C5C103-BF0D-488B-B7D5-F1DBEC7948C1}"/>
-    <hyperlink ref="E402" r:id="rId1454" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{FB394933-A69C-4314-9036-9D88A28D7674}"/>
-    <hyperlink ref="I402" r:id="rId1455" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{F8ADE4DE-361A-475F-8935-E204E0DD6DC7}"/>
-    <hyperlink ref="M402" r:id="rId1456" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{16F0533B-D5D5-46AD-AE85-7BE69945F6A6}"/>
-    <hyperlink ref="C403" r:id="rId1457" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{915CCEF4-71D2-47E9-A825-7AC0D9CB1736}"/>
-    <hyperlink ref="E403" r:id="rId1458" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{41340E84-BEAD-4C09-9F2D-C90AACF50DC1}"/>
-    <hyperlink ref="I403" r:id="rId1459" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{AFACFF79-3D4E-4F2C-8E2A-7D1469A45A6E}"/>
-    <hyperlink ref="M403" r:id="rId1460" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{652AA53D-E66F-438E-87E9-59FACFC10472}"/>
-    <hyperlink ref="C404" r:id="rId1461" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{D70652CA-3BEA-4C16-9D09-797D0E207957}"/>
-    <hyperlink ref="E404" r:id="rId1462" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{6CC0E9A1-D131-43C6-8E92-4AC876557470}"/>
-    <hyperlink ref="I404" r:id="rId1463" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{6FE095CF-A208-4E40-8028-01FA61CD9355}"/>
-    <hyperlink ref="M404" r:id="rId1464" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{7D25F766-F47C-4D52-8E65-12C20C376842}"/>
-    <hyperlink ref="C405" r:id="rId1465" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{A3E8A4C9-F039-4C4A-92E0-9BB60FCCC7D7}"/>
-    <hyperlink ref="E405" r:id="rId1466" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{BE5A2843-B139-4178-AA51-0326A02683C9}"/>
-    <hyperlink ref="I405" r:id="rId1467" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{3ADC4EBB-9363-4CAF-8901-0A015568A5E0}"/>
-    <hyperlink ref="M405" r:id="rId1468" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{623D979D-E85A-47FA-83B6-E50B58CD6AD7}"/>
-    <hyperlink ref="C406" r:id="rId1469" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{04D6AD8C-8AA1-4BAC-BCCE-1F28F7DD5773}"/>
-    <hyperlink ref="E406" r:id="rId1470" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{50B81B75-8D02-4F9A-A7C6-3757DEA37D29}"/>
-    <hyperlink ref="I406" r:id="rId1471" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{C9363200-4522-46B2-BD67-43D54AD1704F}"/>
-    <hyperlink ref="M406" r:id="rId1472" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{2B9ECC46-1A04-445F-A1A5-CB66358006B1}"/>
-    <hyperlink ref="C407" r:id="rId1473" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{72EB9DA3-CE09-4C0E-A319-DA339BEB9C65}"/>
-    <hyperlink ref="E407" r:id="rId1474" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{4C6E0E2E-8D9B-4305-9ED5-65910FEDD4C6}"/>
-    <hyperlink ref="I407" r:id="rId1475" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{74774977-D17A-4AA8-817A-3138F2A5CF4E}"/>
-    <hyperlink ref="M407" r:id="rId1476" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{4419C286-B7E3-4952-8AD5-8C077345112B}"/>
-    <hyperlink ref="C408" r:id="rId1477" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{73B0B305-AC8A-4EBE-B22C-DE9EF6E64406}"/>
-    <hyperlink ref="E408" r:id="rId1478" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8A6879F1-BFCB-438E-8FC0-7B99B166ACDC}"/>
-    <hyperlink ref="I408" r:id="rId1479" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{666DA4D6-FA9C-47C2-ADAF-E6609FCEABA7}"/>
-    <hyperlink ref="M408" r:id="rId1480" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{46A21357-A3D2-491A-93B6-0349510ADB27}"/>
-    <hyperlink ref="C410" r:id="rId1481" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{E466EF56-124A-43A2-9DD2-CD4ED9FBFD9A}"/>
-    <hyperlink ref="E410" r:id="rId1482" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A69D7934-63FA-4B75-913B-A3366A064E93}"/>
-    <hyperlink ref="I410" r:id="rId1483" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1274273A-61A9-4C71-8427-BEA4221A134E}"/>
-    <hyperlink ref="M410" r:id="rId1484" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{24081C11-9326-4EEA-B5B4-E8D9B1074720}"/>
-    <hyperlink ref="C411" r:id="rId1485" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{BD9EA5D4-6528-428A-BD27-DEA53E7A36A9}"/>
-    <hyperlink ref="E411" r:id="rId1486" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{E0142188-FEC5-4A3B-BA48-76A01C7DB33F}"/>
-    <hyperlink ref="I411" r:id="rId1487" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{ED082B67-F2CF-4848-87C1-C0CDD4D9F2F9}"/>
-    <hyperlink ref="M411" r:id="rId1488" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{F8CADA5F-6285-4810-BD33-5B9AEA2A1C69}"/>
-    <hyperlink ref="C412" r:id="rId1489" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{31AD579F-1D0B-40FA-8639-F8753EFCE9C7}"/>
-    <hyperlink ref="E412" r:id="rId1490" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{AFDFFF8D-D7AD-4477-A8E6-7D1B43F550DC}"/>
-    <hyperlink ref="I412" r:id="rId1491" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{33D2E7F5-1D47-48E5-8DB6-3A3C2D1EB3D0}"/>
-    <hyperlink ref="M412" r:id="rId1492" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{A369E3FD-1EF7-44D3-A0AB-9E1FFFDB9E67}"/>
-    <hyperlink ref="C413" r:id="rId1493" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{65835D64-06BF-422A-9A1A-F727FAD5E049}"/>
-    <hyperlink ref="E413" r:id="rId1494" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{8C9D09EC-7DAD-45C1-BFFE-8602363423D2}"/>
-    <hyperlink ref="I413" r:id="rId1495" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{0FAE42F8-3418-4F9E-B54D-3A3A993B0F09}"/>
-    <hyperlink ref="M413" r:id="rId1496" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{7D7C49C6-222D-4921-B92A-4A1C586DE99A}"/>
-    <hyperlink ref="C414" r:id="rId1497" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{11057A0D-24B0-49F7-846B-EA0202FBB38B}"/>
-    <hyperlink ref="E414" r:id="rId1498" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{2E210CB4-C5AE-44BD-8771-AB1EF139B522}"/>
-    <hyperlink ref="I414" r:id="rId1499" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{60E2CE3D-3BD2-4D38-8D49-F67811D61325}"/>
-    <hyperlink ref="M414" r:id="rId1500" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{98B12BAA-FDF6-4399-B27C-A411D425C1CF}"/>
-    <hyperlink ref="C415" r:id="rId1501" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{AA07E8B5-AC1E-47DD-B738-A0C5D2BB60E4}"/>
-    <hyperlink ref="E415" r:id="rId1502" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{A50F20BB-2788-40E6-B930-A1708188BABE}"/>
-    <hyperlink ref="I415" r:id="rId1503" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{2EEE559C-3F6E-4DAA-9459-884737C668C5}"/>
-    <hyperlink ref="M415" r:id="rId1504" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{259136FA-9C81-44D1-B787-C01D3671E426}"/>
-    <hyperlink ref="C416" r:id="rId1505" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{612A152F-92C0-4996-8C2F-C4E2B6A0185B}"/>
-    <hyperlink ref="E416" r:id="rId1506" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{C4B1325C-5386-4141-A1D2-4341B0CF000A}"/>
-    <hyperlink ref="I416" r:id="rId1507" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{00E394A8-C6DD-498C-89C3-A8A6ABE8D4D3}"/>
-    <hyperlink ref="M416" r:id="rId1508" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{61EB28EF-DF2B-4769-9B95-BD887FADA24C}"/>
-    <hyperlink ref="C417" r:id="rId1509" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{8FA3A214-53DE-440E-9486-B1AC4E75FA21}"/>
-    <hyperlink ref="E417" r:id="rId1510" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{D7E5A1EC-7BAD-48F2-9CF9-01F5B6FD2EAF}"/>
-    <hyperlink ref="I417" r:id="rId1511" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{377BA81C-38D2-4A4E-B206-3777D56678EE}"/>
-    <hyperlink ref="M417" r:id="rId1512" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{282E0C5B-9F10-4BD8-92C6-295AC9AD0456}"/>
-    <hyperlink ref="C418" r:id="rId1513" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{D7734919-A203-40FA-8546-6A1A40F1AA93}"/>
-    <hyperlink ref="E418" r:id="rId1514" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2249069E-EC95-4C60-B7A5-8A2AA8E26E4B}"/>
-    <hyperlink ref="I418" r:id="rId1515" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{BCAFF19A-27F4-4AD6-A0B5-A41FDAFE425C}"/>
-    <hyperlink ref="M418" r:id="rId1516" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{90115BBD-4C55-404E-BAF2-36598B416256}"/>
-    <hyperlink ref="C419" r:id="rId1517" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{F78651A8-649F-4B50-9080-2C117C94FB1D}"/>
-    <hyperlink ref="E419" r:id="rId1518" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{492E45BF-6096-4EFF-B3E7-0F37BCC7AEE5}"/>
-    <hyperlink ref="I419" r:id="rId1519" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B8B59FCA-D541-4B1E-8AE0-67C55E908A41}"/>
-    <hyperlink ref="M419" r:id="rId1520" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{B7E6AF1F-3E41-40CC-8016-613E5D41CEC6}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://fbref.com/en/matches/2021-08-13" xr:uid="{0F0B9A6D-6371-4CA2-8352-9738AF1C89B1}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9D2EB651-6E3C-49C1-925F-8887D8304B98}"/>
+    <hyperlink ref="G3" r:id="rId3" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{2573BCB8-3BC6-4035-8A01-4CEB1DB856BD}"/>
+    <hyperlink ref="I3" r:id="rId4" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{92EE18C3-9F5D-4BB2-A943-1E8588DC7EC4}"/>
+    <hyperlink ref="M3" r:id="rId5" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{9F839819-ED28-47C8-8FE3-13AD5FD89644}"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{649983FE-8743-45E8-8009-6025AE12BEF7}"/>
+    <hyperlink ref="E4" r:id="rId7" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B67D5CED-1CB7-462F-874F-D56C0F708A88}"/>
+    <hyperlink ref="G4" r:id="rId8" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{FE519A70-58E0-48B9-91D9-A44A7D23C5C4}"/>
+    <hyperlink ref="I4" r:id="rId9" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{66DAEC21-93BE-449B-B49A-5ECFCADC10A6}"/>
+    <hyperlink ref="M4" r:id="rId10" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{AC4BCDF6-7D44-4E38-B79F-323951D3193F}"/>
+    <hyperlink ref="C5" r:id="rId11" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{0DC88BC4-E863-4A01-BF60-E69C27DC5B68}"/>
+    <hyperlink ref="E5" r:id="rId12" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{684F0103-75F8-4975-8AF8-A0C5FC8EE8B2}"/>
+    <hyperlink ref="G5" r:id="rId13" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{DB2888F0-12AB-4F0C-9B95-D66779B2D77F}"/>
+    <hyperlink ref="I5" r:id="rId14" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{F449FB0B-C36F-4A99-8FA9-FF69C573F9CB}"/>
+    <hyperlink ref="M5" r:id="rId15" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{496344BB-4C67-4572-9161-B3625D2CA13A}"/>
+    <hyperlink ref="C6" r:id="rId16" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{5753F740-0A63-4F1D-92FB-3B836936890A}"/>
+    <hyperlink ref="E6" r:id="rId17" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{40E620B3-D1A7-4DF9-940F-F984DEF4B5DC}"/>
+    <hyperlink ref="G6" r:id="rId18" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{5AA9CE0C-342F-4F31-A92C-18C573375668}"/>
+    <hyperlink ref="I6" r:id="rId19" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BC51B86D-B914-4C1A-BF53-CFE8C9BBAD22}"/>
+    <hyperlink ref="M6" r:id="rId20" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{2CCA909E-CC9C-403F-822B-155EB53E228E}"/>
+    <hyperlink ref="C7" r:id="rId21" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{593B4428-DC51-4A7A-AD99-83F2FB4AA5D8}"/>
+    <hyperlink ref="E7" r:id="rId22" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DD070853-1669-46D4-A344-7F3DBE293120}"/>
+    <hyperlink ref="G7" r:id="rId23" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{9FB0BE8A-9944-453D-91E9-82CB62175FD0}"/>
+    <hyperlink ref="I7" r:id="rId24" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{D9775D62-464C-4A9D-89DD-2B5F5FD76493}"/>
+    <hyperlink ref="M7" r:id="rId25" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{612220AB-E89E-4532-A5EA-D69D0A923CB6}"/>
+    <hyperlink ref="C8" r:id="rId26" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{C58A0048-6531-4BDC-AB61-774D2B702BE3}"/>
+    <hyperlink ref="E8" r:id="rId27" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{884CCEB8-1472-41FF-A07B-08DDCC547FE6}"/>
+    <hyperlink ref="G8" r:id="rId28" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{38E6585C-3706-46F4-94A6-807A15EDD439}"/>
+    <hyperlink ref="I8" r:id="rId29" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{1F9FAD56-84EB-417C-81DA-9066790BC6CB}"/>
+    <hyperlink ref="M8" r:id="rId30" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{EEDF749B-3ABB-4FAB-8BE2-A49EE6505D6F}"/>
+    <hyperlink ref="C9" r:id="rId31" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{39896517-25A5-4C18-8C3A-A5CBA3B1478A}"/>
+    <hyperlink ref="E9" r:id="rId32" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{4D4697D0-9687-41B3-BD5C-1D449B993A66}"/>
+    <hyperlink ref="G9" r:id="rId33" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{D6154557-20FB-45A5-9F15-1AACFB3D318F}"/>
+    <hyperlink ref="I9" r:id="rId34" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{FE8C4E43-11F2-4896-B6D5-EA60964F17DC}"/>
+    <hyperlink ref="M9" r:id="rId35" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{CE367BFE-46A2-48DB-893D-6657E2848D18}"/>
+    <hyperlink ref="C10" r:id="rId36" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{ABF78AD6-83A5-4A50-96DC-F970B2CB71BB}"/>
+    <hyperlink ref="E10" r:id="rId37" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{F5C7D1E8-7900-45DC-9956-75EA13136F98}"/>
+    <hyperlink ref="G10" r:id="rId38" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{614A4053-CC22-40CC-9414-6DB5765CA68D}"/>
+    <hyperlink ref="I10" r:id="rId39" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{840F427E-1451-4E3B-9465-DA22DC29ECE7}"/>
+    <hyperlink ref="M10" r:id="rId40" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{D5B3CFE1-1478-4F28-A9B2-A2CCCCA82DB7}"/>
+    <hyperlink ref="C11" r:id="rId41" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{C1762ACD-B0FE-4EB1-B97B-321B6BBFEB4F}"/>
+    <hyperlink ref="E11" r:id="rId42" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6EC64EF2-5000-489E-B7B2-CB9F78A95FC4}"/>
+    <hyperlink ref="G11" r:id="rId43" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{4A8D0594-8102-44B2-9AEC-615F2E449C31}"/>
+    <hyperlink ref="I11" r:id="rId44" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{7572081E-F653-402B-9693-8A5A5D912255}"/>
+    <hyperlink ref="M11" r:id="rId45" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{92EB612B-CE3B-477B-8720-D21BBB5611EF}"/>
+    <hyperlink ref="C12" r:id="rId46" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{502DD440-E334-40BC-849E-8CAF98005DBA}"/>
+    <hyperlink ref="E12" r:id="rId47" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{5CAB1E01-F41C-41C4-88E0-3BFD9BC40D94}"/>
+    <hyperlink ref="G12" r:id="rId48" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{B6CC423E-CB18-45FF-B9C8-7DDD3780C9D6}"/>
+    <hyperlink ref="I12" r:id="rId49" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{971AB0F4-FD54-4404-9C9A-F02F25559441}"/>
+    <hyperlink ref="M12" r:id="rId50" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{AE1C608C-602B-4F72-AEC6-3D9E6690647C}"/>
+    <hyperlink ref="C14" r:id="rId51" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{ADF1C65F-A209-4868-8A77-3C4DC70ED37E}"/>
+    <hyperlink ref="E14" r:id="rId52" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{64C3D81D-C32B-452D-801C-17E36D9F640F}"/>
+    <hyperlink ref="I14" r:id="rId53" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{E10A9995-41D1-49DD-9182-350855CA111C}"/>
+    <hyperlink ref="M14" r:id="rId54" display="https://fbref.com/en/stathead/matchup/squads/943e8050/822bd0ba/Burnley-vs-Liverpool-History" xr:uid="{1C145640-33AA-4A1B-B496-E60C7F82BFEE}"/>
+    <hyperlink ref="C15" r:id="rId55" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{C7F7DEC6-CECF-457D-9A2B-48B598FF096E}"/>
+    <hyperlink ref="E15" r:id="rId56" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{FBD848BF-8C1C-4815-A036-80722085F36B}"/>
+    <hyperlink ref="I15" r:id="rId57" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{39D61276-AF08-4D6D-AADE-231A54BC32E2}"/>
+    <hyperlink ref="M15" r:id="rId58" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8602292d/Newcastle-United-vs-Aston-Villa-History" xr:uid="{385FEF17-08B6-4C58-846F-AE5E987F8269}"/>
+    <hyperlink ref="C16" r:id="rId59" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{0ED066A2-D6E2-48EB-BC0A-8D3166463B79}"/>
+    <hyperlink ref="E16" r:id="rId60" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1E59263E-B52C-4A47-A367-D742E4CD4645}"/>
+    <hyperlink ref="I16" r:id="rId61" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{F19A336A-F639-4EB0-903D-D52C9201C334}"/>
+    <hyperlink ref="M16" r:id="rId62" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/1c781004/Manchester-City-vs-Norwich-City-History" xr:uid="{69121054-5A64-467D-A518-348DA549F994}"/>
+    <hyperlink ref="C17" r:id="rId63" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{29EE3C2B-374D-4DB2-93AF-9EA36B5AEE4D}"/>
+    <hyperlink ref="E17" r:id="rId64" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{E1FB580F-62B6-4115-890C-306A0CCC5C37}"/>
+    <hyperlink ref="I17" r:id="rId65" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D4740895-1CDF-490B-AC4B-C1E0ABD428D5}"/>
+    <hyperlink ref="M17" r:id="rId66" display="https://fbref.com/en/stathead/matchup/squads/cd051869/47c64c55/Brentford-vs-Crystal-Palace-History" xr:uid="{E2BE3C59-978B-4DF4-B1FF-7FE86584BC49}"/>
+    <hyperlink ref="C18" r:id="rId67" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{A20134F5-02D4-4BD0-9E43-5BFD0E3D545E}"/>
+    <hyperlink ref="E18" r:id="rId68" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{F66B7B9F-991D-4876-9E04-A56ECCC29AEC}"/>
+    <hyperlink ref="I18" r:id="rId69" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{416EFE2E-0F4A-42B7-BF20-484206FA222C}"/>
+    <hyperlink ref="M18" r:id="rId70" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/5bfb9659/Everton-vs-Leeds-United-History" xr:uid="{ED032D77-ABE9-4F8A-82F0-0793255342CC}"/>
+    <hyperlink ref="C19" r:id="rId71" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{2370825E-6824-4231-8785-38928E8D41B0}"/>
+    <hyperlink ref="E19" r:id="rId72" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C7C6DDCF-7A5B-4B79-951A-AF043184BEA8}"/>
+    <hyperlink ref="I19" r:id="rId73" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{185D37F9-2F01-44C6-AF80-034B9E44CFF3}"/>
+    <hyperlink ref="M19" r:id="rId74" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/2abfe087/Brighton-and-Hove-Albion-vs-Watford-History" xr:uid="{CEB51C68-4AA9-43E2-940B-C90C99B9EADD}"/>
+    <hyperlink ref="C20" r:id="rId75" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{6555AE75-AD98-46DF-84B4-664691B3077D}"/>
+    <hyperlink ref="E20" r:id="rId76" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{27C4CA92-23BD-4CB8-8F56-3853EC3C4F9C}"/>
+    <hyperlink ref="I20" r:id="rId77" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{19EE58C7-46BF-4344-B9C3-B2F2885952AE}"/>
+    <hyperlink ref="M20" r:id="rId78" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{9FE7BAB8-8B7B-466C-8F89-6CFDA00232B4}"/>
+    <hyperlink ref="C21" r:id="rId79" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{3F003EC3-D17C-40B1-B9B8-8F5A59D86934}"/>
+    <hyperlink ref="E21" r:id="rId80" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D827AB92-A35A-4E4B-84E8-2277C090C934}"/>
+    <hyperlink ref="I21" r:id="rId81" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{465AFF81-FBC8-4479-8752-96ECCFD97166}"/>
+    <hyperlink ref="M21" r:id="rId82" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{FB5A220C-EC86-4B52-AEF0-AC297CBBE84D}"/>
+    <hyperlink ref="C22" r:id="rId83" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{D999809B-F966-44FC-AB15-6F9CE329AE4A}"/>
+    <hyperlink ref="E22" r:id="rId84" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{E7A7F740-8975-46C2-A614-17187B1A0F60}"/>
+    <hyperlink ref="I22" r:id="rId85" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{EE0F8BA4-F045-4F41-A806-AA0747870A91}"/>
+    <hyperlink ref="M22" r:id="rId86" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{B63ABF76-A423-4951-A807-FAD066EAC1AC}"/>
+    <hyperlink ref="C23" r:id="rId87" display="https://fbref.com/en/matches/2021-08-23" xr:uid="{537EA63D-D42F-45CD-AF1C-41FF847CAF92}"/>
+    <hyperlink ref="E23" r:id="rId88" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{D6F4434C-116A-45B8-A530-174BD08147F7}"/>
+    <hyperlink ref="I23" r:id="rId89" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{BCFD2049-A2CA-4E42-A701-AED5FFB7528A}"/>
+    <hyperlink ref="M23" r:id="rId90" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{A02AD689-DABE-445C-9ACF-91563C5E813A}"/>
+    <hyperlink ref="C25" r:id="rId91" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{1991979E-CC00-48A9-8EBC-69E6A6E30E81}"/>
+    <hyperlink ref="E25" r:id="rId92" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{498E1A0C-97AB-45C6-98DF-1CDE1494C636}"/>
+    <hyperlink ref="I25" r:id="rId93" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{499DF26A-6D30-4479-8E1D-597323A9FC3D}"/>
+    <hyperlink ref="M25" r:id="rId94" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{CFDA8E70-EBBC-4009-BE28-7FCF7F4C73BD}"/>
+    <hyperlink ref="C26" r:id="rId95" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{B6AF99E6-D87C-43F8-87FA-9F5695153357}"/>
+    <hyperlink ref="E26" r:id="rId96" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7ED950A3-2F5A-4057-9B2D-2BBE598EEAB1}"/>
+    <hyperlink ref="I26" r:id="rId97" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D7DF5E98-AC5E-4C74-B45F-D63BBA5E9DFD}"/>
+    <hyperlink ref="M26" r:id="rId98" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{3C94A971-5CDD-4566-AC83-F8C4A2EC0B1C}"/>
+    <hyperlink ref="C27" r:id="rId99" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{0600A007-719D-45A6-B202-D879AE5B4C50}"/>
+    <hyperlink ref="E27" r:id="rId100" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B8521C96-F43A-43EA-95C4-07A2F7C1E0B0}"/>
+    <hyperlink ref="I27" r:id="rId101" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{DD445CD6-CE36-45E3-B0B6-A4313EB8BE7F}"/>
+    <hyperlink ref="M27" r:id="rId102" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{AFB45978-CBF4-411D-ACF3-D95688114575}"/>
+    <hyperlink ref="C28" r:id="rId103" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{0365B4F1-6344-4258-B841-6411A6F3B2A4}"/>
+    <hyperlink ref="E28" r:id="rId104" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{F4735FD8-4722-45EB-81E8-681D25060D2B}"/>
+    <hyperlink ref="I28" r:id="rId105" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{3741C3BE-5F7B-42C4-83D8-8815F9C1E8F4}"/>
+    <hyperlink ref="M28" r:id="rId106" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{51D78809-65A3-462B-BDB3-F58D68B31146}"/>
+    <hyperlink ref="C29" r:id="rId107" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{FC28D870-CDF9-4EF6-AC23-4DC7CFE02404}"/>
+    <hyperlink ref="E29" r:id="rId108" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{5AAD50AB-3FE0-4F50-8C73-3ED7CACB8F82}"/>
+    <hyperlink ref="I29" r:id="rId109" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B9C71152-50B8-4564-A534-CB8EA72B78C1}"/>
+    <hyperlink ref="M29" r:id="rId110" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{382FE52C-D9D5-49E8-B297-0AD9D6EC21AF}"/>
+    <hyperlink ref="C30" r:id="rId111" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{0ABDD120-F5C9-41E3-8093-A8020EB98BEA}"/>
+    <hyperlink ref="E30" r:id="rId112" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{813102EB-CF36-450E-B502-A939977B0D21}"/>
+    <hyperlink ref="I30" r:id="rId113" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B4687BB6-B694-4B69-812D-9E28D64179E0}"/>
+    <hyperlink ref="M30" r:id="rId114" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{23856E38-505C-4466-907B-D7B6B78A6772}"/>
+    <hyperlink ref="C31" r:id="rId115" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{E42CDF89-B264-4ECD-BC4A-046638B11C09}"/>
+    <hyperlink ref="E31" r:id="rId116" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{844FB029-AFE0-4BF0-B2CC-8DF7807E7E72}"/>
+    <hyperlink ref="I31" r:id="rId117" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2149913E-B945-47F6-B0BE-1F4737861123}"/>
+    <hyperlink ref="M31" r:id="rId118" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{A08556C4-44EF-4A1A-B5B3-E75108D37621}"/>
+    <hyperlink ref="C32" r:id="rId119" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{AF58F614-5250-48E8-AF50-2A84CAF1B4A4}"/>
+    <hyperlink ref="E32" r:id="rId120" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{5F3F7DC9-D89D-42D7-BA7E-9B60B348A259}"/>
+    <hyperlink ref="I32" r:id="rId121" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{887BADE7-4ADA-4207-9AB0-653F23E65B08}"/>
+    <hyperlink ref="M32" r:id="rId122" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{82B8128F-E732-4140-A26E-013DA68497A4}"/>
+    <hyperlink ref="C33" r:id="rId123" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{7C091785-D903-4E24-875E-1099512647D9}"/>
+    <hyperlink ref="E33" r:id="rId124" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{87C41F1B-44C2-42F0-ABD9-607BE1008ACC}"/>
+    <hyperlink ref="I33" r:id="rId125" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A0CA2E2B-6968-4D9C-B775-E098188E7346}"/>
+    <hyperlink ref="M33" r:id="rId126" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{EA71FFB0-CF52-482F-859E-E31455E46489}"/>
+    <hyperlink ref="C34" r:id="rId127" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{7903C84D-29B3-4438-8700-DDFAFD995CD2}"/>
+    <hyperlink ref="E34" r:id="rId128" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C36C4247-F50B-473D-AB7A-4A1A7579B7A6}"/>
+    <hyperlink ref="I34" r:id="rId129" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6A454A51-03E9-4D29-B6EC-EE4B55170F9C}"/>
+    <hyperlink ref="M34" r:id="rId130" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{B9A8FCF3-0D67-4B13-9DBB-D407676F67C1}"/>
+    <hyperlink ref="C36" r:id="rId131" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{7CF09F0B-4C32-43D5-B26D-B98E818EC780}"/>
+    <hyperlink ref="E36" r:id="rId132" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AD8162CE-E050-4225-B1C5-32E19A2D2D21}"/>
+    <hyperlink ref="I36" r:id="rId133" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1E50AEDC-4488-4875-AF76-AF702DDB7E38}"/>
+    <hyperlink ref="M36" r:id="rId134" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{6E79F7D0-196F-4F1C-B28E-B7CB6795DDA6}"/>
+    <hyperlink ref="C37" r:id="rId135" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{A17C107E-AC40-4933-82C2-CB170A7FF941}"/>
+    <hyperlink ref="E37" r:id="rId136" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D9BBF4DD-3F34-44D9-896A-2A0C1384445A}"/>
+    <hyperlink ref="I37" r:id="rId137" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{CC2700AF-422C-4656-ABDD-D7F9A0ABE66F}"/>
+    <hyperlink ref="M37" r:id="rId138" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{0B25B4A3-A432-4E27-8CDE-55FB6053A172}"/>
+    <hyperlink ref="C38" r:id="rId139" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{71E21026-E019-4EFD-BF25-DB17F5B447C6}"/>
+    <hyperlink ref="E38" r:id="rId140" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{09116564-C5E6-4210-922C-E37296947B34}"/>
+    <hyperlink ref="I38" r:id="rId141" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{0A46F443-B2BB-40AF-AA7E-6397FEF4F266}"/>
+    <hyperlink ref="M38" r:id="rId142" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{025646DD-EFBB-46AE-B754-74D1450520D9}"/>
+    <hyperlink ref="C39" r:id="rId143" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{527A7C5E-06AA-403C-94ED-31B761F5F7C2}"/>
+    <hyperlink ref="E39" r:id="rId144" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9B9F1D37-1F36-4932-8994-8E697574DA86}"/>
+    <hyperlink ref="I39" r:id="rId145" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E6797609-CE5E-44B1-86D4-021301B6A987}"/>
+    <hyperlink ref="M39" r:id="rId146" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{6F5FEF58-5169-4E2B-A7DD-E4C74368C44F}"/>
+    <hyperlink ref="C40" r:id="rId147" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{859B2532-89BE-4A8B-9476-72D6BD6EB3AA}"/>
+    <hyperlink ref="E40" r:id="rId148" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{BFDC8EE8-86D1-418C-87BA-5002EC507FAB}"/>
+    <hyperlink ref="I40" r:id="rId149" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{CD7D3C6D-AFA4-4BE4-9B01-792A5A1FF4AA}"/>
+    <hyperlink ref="M40" r:id="rId150" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{9731D640-0B43-4153-A1F9-A12C4602A510}"/>
+    <hyperlink ref="C41" r:id="rId151" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{3A3ED960-D368-4974-88C4-CD7D5889A136}"/>
+    <hyperlink ref="E41" r:id="rId152" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{9B3041BA-F342-417A-AEF7-3F09B636EB9C}"/>
+    <hyperlink ref="I41" r:id="rId153" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{EBF6471C-79F0-4749-8F38-47658A237BAB}"/>
+    <hyperlink ref="M41" r:id="rId154" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{0B8EEDA6-286E-49BD-B617-395447C87FFB}"/>
+    <hyperlink ref="C42" r:id="rId155" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{4158FE7A-519A-41E3-BFE3-27D21B5AA58A}"/>
+    <hyperlink ref="E42" r:id="rId156" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5817CB67-5C0A-477B-AD00-1F173490B43D}"/>
+    <hyperlink ref="I42" r:id="rId157" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{EF80DE75-4F54-4EF4-9024-FE2F289460D5}"/>
+    <hyperlink ref="M42" r:id="rId158" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{80678B35-B890-4871-9448-0AC461B4A030}"/>
+    <hyperlink ref="C43" r:id="rId159" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{8BB615DD-E816-4849-AC36-00CBBE212AC5}"/>
+    <hyperlink ref="E43" r:id="rId160" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{E00B47DB-2DC3-46A0-A397-A400BDD5BD0E}"/>
+    <hyperlink ref="I43" r:id="rId161" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4DCE2D6B-D0E9-485B-9281-F5EC1C2AB26D}"/>
+    <hyperlink ref="M43" r:id="rId162" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{D4B63A67-5B97-4331-9A37-6CDF6F644422}"/>
+    <hyperlink ref="C44" r:id="rId163" display="https://fbref.com/en/matches/2021-09-12" xr:uid="{E33CD213-F4C1-4BD4-A7C6-FAA07796A4BF}"/>
+    <hyperlink ref="E44" r:id="rId164" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{AA2E6407-8157-420D-97F7-11572433CFFE}"/>
+    <hyperlink ref="I44" r:id="rId165" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{491F3ED7-1F47-42EC-A802-A270952FDE6D}"/>
+    <hyperlink ref="M44" r:id="rId166" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{23CC1D2E-E9DF-42A2-AE63-8FAAAFA1D35D}"/>
+    <hyperlink ref="C45" r:id="rId167" display="https://fbref.com/en/matches/2021-09-13" xr:uid="{8AE2D09C-58F4-4166-8199-731C36E1EDCB}"/>
+    <hyperlink ref="E45" r:id="rId168" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{E30F7E10-286B-473A-B9D3-DF4F48EBA1E2}"/>
+    <hyperlink ref="I45" r:id="rId169" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{C491AB90-0E94-420B-B5DB-F3BB005CF99D}"/>
+    <hyperlink ref="M45" r:id="rId170" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{D3AA8E69-9155-4D4D-A2A4-46458C56471E}"/>
+    <hyperlink ref="C47" r:id="rId171" display="https://fbref.com/en/matches/2021-09-17" xr:uid="{FE3FB0FC-360C-4845-B59E-033DC8EB14EB}"/>
+    <hyperlink ref="E47" r:id="rId172" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{F5597147-D29E-4387-98A5-E7766D5C4F1C}"/>
+    <hyperlink ref="I47" r:id="rId173" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{CE394E0F-8DCF-4D55-9889-7478500C13C4}"/>
+    <hyperlink ref="M47" r:id="rId174" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{E1661319-7B56-4BA5-9C73-CBD390510D17}"/>
+    <hyperlink ref="C48" r:id="rId175" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{DEDA8593-24B4-4245-90E6-3716796B24F8}"/>
+    <hyperlink ref="E48" r:id="rId176" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EFFCBCCE-F211-44D6-BD87-F1474D10B7D4}"/>
+    <hyperlink ref="I48" r:id="rId177" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{8017BED1-D3CC-4E6D-84E6-864F8ED666A0}"/>
+    <hyperlink ref="M48" r:id="rId178" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{6730B0EB-95D2-4D97-9398-E87C063D80C3}"/>
+    <hyperlink ref="C49" r:id="rId179" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{4D8D252C-2A05-4EF1-8632-A9E824D26B2A}"/>
+    <hyperlink ref="E49" r:id="rId180" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{08B89625-A77A-4806-B65C-BC75DED7E833}"/>
+    <hyperlink ref="I49" r:id="rId181" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2470B624-D4A1-442F-BCD8-E6801E8766B5}"/>
+    <hyperlink ref="M49" r:id="rId182" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{B7A4E3B9-85A3-478F-A673-7B6E5A630A35}"/>
+    <hyperlink ref="C50" r:id="rId183" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{30C169DB-2EE9-44E7-B3BE-6891E18EE4CF}"/>
+    <hyperlink ref="E50" r:id="rId184" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5A5F51BD-A499-436D-8DB6-277C5B4DF240}"/>
+    <hyperlink ref="I50" r:id="rId185" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{ACE0D67D-B591-4E22-B302-7E0AD58106ED}"/>
+    <hyperlink ref="M50" r:id="rId186" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{A2EE1667-27B3-4E16-B9A3-BFA6722C5B7C}"/>
+    <hyperlink ref="C51" r:id="rId187" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{9F9D1587-E361-4C63-A5B7-7E1AEBFED796}"/>
+    <hyperlink ref="E51" r:id="rId188" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2B0797B3-6063-4C36-8206-A7E950B6F951}"/>
+    <hyperlink ref="I51" r:id="rId189" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{CCC61E3D-6FF6-4EC2-8E5D-4015A2D201BF}"/>
+    <hyperlink ref="M51" r:id="rId190" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{71CB4E9F-626A-4D51-8192-DDFCBCF0E57E}"/>
+    <hyperlink ref="C52" r:id="rId191" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{7089C538-6814-46EE-9FD5-8F67F891B138}"/>
+    <hyperlink ref="E52" r:id="rId192" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{C99543E1-BA8D-4DD9-B18C-65C12D10FBCB}"/>
+    <hyperlink ref="I52" r:id="rId193" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{B481C84C-17E9-42CA-80A4-98204AB064F0}"/>
+    <hyperlink ref="M52" r:id="rId194" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{F578C9FB-5B42-4DF5-B919-E7CCC3D0916E}"/>
+    <hyperlink ref="C53" r:id="rId195" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{67CC1865-A7C6-43DE-9406-D6D67C5F7D68}"/>
+    <hyperlink ref="E53" r:id="rId196" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{E28607E0-61AC-4399-8A06-4A6C9B15A6BF}"/>
+    <hyperlink ref="I53" r:id="rId197" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{C3B3BD43-24F0-4264-BE56-FA7DB2628647}"/>
+    <hyperlink ref="M53" r:id="rId198" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{A2D0FA76-2659-4AD5-B6B7-6EDE9EBF7771}"/>
+    <hyperlink ref="C54" r:id="rId199" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{67EDFBF6-1A9D-4D06-ADF9-3D4D5F20FC36}"/>
+    <hyperlink ref="E54" r:id="rId200" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{0F484D11-CB1C-46D5-8D05-7DA26D4DB740}"/>
+    <hyperlink ref="I54" r:id="rId201" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F211B836-D8BD-478A-AA1A-BD735E68989C}"/>
+    <hyperlink ref="M54" r:id="rId202" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{DAC66E44-D060-4804-A329-88901EAE8C3C}"/>
+    <hyperlink ref="C55" r:id="rId203" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{A36D2F52-FBD3-49DC-BC5D-731F6B872972}"/>
+    <hyperlink ref="E55" r:id="rId204" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{3442AF2D-CBBB-4B31-98A0-1A5296A2D4B1}"/>
+    <hyperlink ref="I55" r:id="rId205" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{390934A4-B414-4261-9F7E-D5CE7CA53E1B}"/>
+    <hyperlink ref="M55" r:id="rId206" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{BBD9569A-2838-4BBD-90C9-35228B882ECC}"/>
+    <hyperlink ref="C56" r:id="rId207" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{49C7F75C-A53E-4D07-A92F-A4A370154E37}"/>
+    <hyperlink ref="E56" r:id="rId208" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{0CED2487-29B6-4C26-97E5-37649087F91E}"/>
+    <hyperlink ref="I56" r:id="rId209" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2F4E912E-BB8A-4E72-89D0-E0A4165D0BD2}"/>
+    <hyperlink ref="M56" r:id="rId210" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{8541E52B-18ED-4ACF-AD11-FEA7B4413455}"/>
+    <hyperlink ref="C58" r:id="rId211" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{E428F899-51E4-4332-8083-4E94A3860259}"/>
+    <hyperlink ref="E58" r:id="rId212" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{80009758-5570-4D5A-8AB1-9DB108E54D75}"/>
+    <hyperlink ref="I58" r:id="rId213" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1D1BF534-7FC0-4CEA-86F8-3741E8C41050}"/>
+    <hyperlink ref="M58" r:id="rId214" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{FB0C99D9-92CA-4038-ACC3-BDA8621E0250}"/>
+    <hyperlink ref="C59" r:id="rId215" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{8B8119BF-1125-440C-BC96-4489B86E47EB}"/>
+    <hyperlink ref="E59" r:id="rId216" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{E994D637-B941-417A-83F8-511238AC2F0B}"/>
+    <hyperlink ref="I59" r:id="rId217" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BA09D26D-7A29-43ED-8731-8FB135AFE4EE}"/>
+    <hyperlink ref="M59" r:id="rId218" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{91BF7058-0DAD-4997-A88D-169996C01A2E}"/>
+    <hyperlink ref="C60" r:id="rId219" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{6F4B3039-0A2D-42A2-AB1A-93EDFC4CD82E}"/>
+    <hyperlink ref="E60" r:id="rId220" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{EAC99BE6-2B22-4DE5-8F74-CD07A2ABE00D}"/>
+    <hyperlink ref="I60" r:id="rId221" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{1ECAAC8F-4E2A-4ED4-8E6D-4B833836BE8B}"/>
+    <hyperlink ref="M60" r:id="rId222" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{3050532D-FBD6-4ECF-A583-EDB7C448D5F7}"/>
+    <hyperlink ref="C61" r:id="rId223" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{F6BD1329-D2DF-4CB0-911D-B7083C07F54B}"/>
+    <hyperlink ref="E61" r:id="rId224" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{E0FF2E72-7E5A-4FA8-AECD-B23994C6BB33}"/>
+    <hyperlink ref="I61" r:id="rId225" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{383219C7-CFDA-4636-8795-F4186BFD6AB8}"/>
+    <hyperlink ref="M61" r:id="rId226" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{FC83F2BD-DDCD-4797-8A02-F5367663B34B}"/>
+    <hyperlink ref="C62" r:id="rId227" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{02B7E8AE-5CA4-40D9-AEA1-17580953B461}"/>
+    <hyperlink ref="E62" r:id="rId228" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{034CF3F4-BF65-45DA-8E41-B8E2D7E664B9}"/>
+    <hyperlink ref="I62" r:id="rId229" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{428402F0-E76A-4043-B6E8-F323E6FE5403}"/>
+    <hyperlink ref="M62" r:id="rId230" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{25F69C93-8D60-4D75-B2AB-F219509E4738}"/>
+    <hyperlink ref="C63" r:id="rId231" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{24B30CC5-E389-4650-ADDD-85B7D41F9690}"/>
+    <hyperlink ref="E63" r:id="rId232" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7C1F89BE-F105-4EE3-A8F9-83D996E667DE}"/>
+    <hyperlink ref="I63" r:id="rId233" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{9E3BEBC2-2AE4-4346-9C05-5BED180E9A7D}"/>
+    <hyperlink ref="M63" r:id="rId234" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{E76E68C7-B24E-45DF-9A39-5A64A4F896ED}"/>
+    <hyperlink ref="C64" r:id="rId235" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{A7904392-691C-43DE-AEED-1CB2EABCA6D8}"/>
+    <hyperlink ref="E64" r:id="rId236" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{037FFE49-779E-4001-9F69-DBC9E4804EFE}"/>
+    <hyperlink ref="I64" r:id="rId237" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5C951C77-3D51-420C-85AB-A7F015B74BBC}"/>
+    <hyperlink ref="M64" r:id="rId238" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{D7C38C32-DE95-4CBE-B61C-E2538596FF54}"/>
+    <hyperlink ref="C65" r:id="rId239" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{4BB59C60-E0AF-4371-AE7D-643776AB262B}"/>
+    <hyperlink ref="E65" r:id="rId240" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{447741A4-FD89-445B-AF0F-51DEEB03E7A5}"/>
+    <hyperlink ref="I65" r:id="rId241" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{CBBCAC72-59F7-4689-BC44-59EF7D4566A0}"/>
+    <hyperlink ref="M65" r:id="rId242" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{5CB53D22-E299-46AE-A662-47FE93E76D58}"/>
+    <hyperlink ref="C66" r:id="rId243" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{BE0C8ABF-967B-4DED-AF5D-0DF054775E40}"/>
+    <hyperlink ref="E66" r:id="rId244" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{00BD3FE3-18BB-440A-8EBD-E560D65AAD36}"/>
+    <hyperlink ref="I66" r:id="rId245" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{662F2CBA-DF1B-4F68-9AAE-FE045D71215B}"/>
+    <hyperlink ref="M66" r:id="rId246" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{8B62C29A-301D-4220-A71E-DCA67166EE43}"/>
+    <hyperlink ref="C67" r:id="rId247" display="https://fbref.com/en/matches/2021-09-27" xr:uid="{311A6E51-3820-4E10-9884-E8F91D4C3810}"/>
+    <hyperlink ref="E67" r:id="rId248" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2ACA2B68-2655-4665-B9CD-F711CB611DBB}"/>
+    <hyperlink ref="I67" r:id="rId249" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{91271346-5336-4D97-8AE4-3CBFDEDC48BF}"/>
+    <hyperlink ref="M67" r:id="rId250" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{F5B03270-CEA3-44AE-97C5-440821878CAF}"/>
+    <hyperlink ref="C69" r:id="rId251" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{DB10D0AC-F405-4C47-A6CD-8AF418D2A6A6}"/>
+    <hyperlink ref="E69" r:id="rId252" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{08CCD47C-4471-45F2-B782-E7A219679FC7}"/>
+    <hyperlink ref="I69" r:id="rId253" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{CFC76311-0686-418D-AF88-1CD38AB970C5}"/>
+    <hyperlink ref="M69" r:id="rId254" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{F0BFD9BA-1A8E-46E2-9E31-E591FBD14BE1}"/>
+    <hyperlink ref="C70" r:id="rId255" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{04948362-F1D7-459A-A7D1-8430C6DA0B3A}"/>
+    <hyperlink ref="E70" r:id="rId256" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3BCB521C-C4FF-4CD1-9A52-F8A696D160DA}"/>
+    <hyperlink ref="I70" r:id="rId257" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{482EAD4D-867C-473A-8272-EAE29685A8E8}"/>
+    <hyperlink ref="M70" r:id="rId258" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{307FFF99-021B-4CEB-8004-B821F2CFE62A}"/>
+    <hyperlink ref="C71" r:id="rId259" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{2B185BD0-616A-4404-846C-21BF87043817}"/>
+    <hyperlink ref="E71" r:id="rId260" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2CDA8CA3-466F-4427-BB4A-035DE2CBFC5F}"/>
+    <hyperlink ref="I71" r:id="rId261" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{ACA72765-AD5B-4C3C-8CB6-605464ACA22E}"/>
+    <hyperlink ref="M71" r:id="rId262" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{0D154953-B29C-4E57-BF40-235EA05BFDD2}"/>
+    <hyperlink ref="C72" r:id="rId263" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{AD39D1E7-E55F-44AC-9362-105EC67A8BC7}"/>
+    <hyperlink ref="E72" r:id="rId264" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7F0B2BB7-9CD5-4584-B51D-CB9A5BBFD0AB}"/>
+    <hyperlink ref="I72" r:id="rId265" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{A14E9883-1EFD-4D09-9362-E8DE74719B1F}"/>
+    <hyperlink ref="M72" r:id="rId266" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{7CA7050B-3AFE-4698-91A2-591E0A778694}"/>
+    <hyperlink ref="C73" r:id="rId267" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{C50504F2-C581-4D4F-A3F7-819C8966D915}"/>
+    <hyperlink ref="E73" r:id="rId268" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{AED7D539-3060-4899-94FC-004FC4B56E68}"/>
+    <hyperlink ref="I73" r:id="rId269" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{AD7B0E5D-FE76-478E-BA28-314E523EAED2}"/>
+    <hyperlink ref="M73" r:id="rId270" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{86D0C349-C53F-4C16-8192-368FEB172369}"/>
+    <hyperlink ref="C74" r:id="rId271" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{8842EB26-10C1-405B-ADDF-1BFA459911F2}"/>
+    <hyperlink ref="E74" r:id="rId272" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{FAF26728-506D-42EF-9573-F0448504BDA8}"/>
+    <hyperlink ref="I74" r:id="rId273" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{25306D78-A980-44A5-ADDE-B4FDD61916C6}"/>
+    <hyperlink ref="M74" r:id="rId274" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{DE68E769-4251-4566-AA86-A8E17B636338}"/>
+    <hyperlink ref="C75" r:id="rId275" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{CFE92D7E-A11A-4001-B07D-A2AFF1A72B3A}"/>
+    <hyperlink ref="E75" r:id="rId276" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{8AC30795-8252-4C01-AE1C-49DFBD81A675}"/>
+    <hyperlink ref="I75" r:id="rId277" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{03D63A25-BCC5-439D-A4B1-32B37E2F7387}"/>
+    <hyperlink ref="M75" r:id="rId278" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{C05557FE-B9A9-452D-82F2-BF22BD04E577}"/>
+    <hyperlink ref="C76" r:id="rId279" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{12E0E0CA-1381-450F-A47B-4166442DE86A}"/>
+    <hyperlink ref="E76" r:id="rId280" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{09F7D150-9CB9-4FAB-A738-7530DD4ADD97}"/>
+    <hyperlink ref="I76" r:id="rId281" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B34793C8-51BA-4FDF-85DB-46ED807CCEE2}"/>
+    <hyperlink ref="M76" r:id="rId282" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{90D6C686-23BE-4178-AE0B-2E09853D6688}"/>
+    <hyperlink ref="C77" r:id="rId283" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{DEBFEC0D-8A34-45E4-9288-E02580659CED}"/>
+    <hyperlink ref="E77" r:id="rId284" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{DC0CF728-A0E9-40BB-AEE1-0991BEA7F525}"/>
+    <hyperlink ref="I77" r:id="rId285" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A08F3B46-1C90-4675-BA6E-6DBD3623FA91}"/>
+    <hyperlink ref="M77" r:id="rId286" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{A817F438-EFBC-4FB5-A62B-9FF5FA0FCCE8}"/>
+    <hyperlink ref="C78" r:id="rId287" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{DE1412AD-9CEA-42AE-ACCB-1876582DFF3C}"/>
+    <hyperlink ref="E78" r:id="rId288" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C00DCD08-0E54-4120-B886-0407B2BFCF4C}"/>
+    <hyperlink ref="I78" r:id="rId289" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{2ECDC6AD-5752-4923-9736-286795CE465D}"/>
+    <hyperlink ref="M78" r:id="rId290" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{D85F4D4D-0A0F-42BA-922E-BE98E6F8C809}"/>
+    <hyperlink ref="C80" r:id="rId291" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{C3ED2F20-E293-4C99-98A5-D759613FD9F8}"/>
+    <hyperlink ref="E80" r:id="rId292" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{67BC426B-DF4A-4018-ADB0-7D1BE780A597}"/>
+    <hyperlink ref="I80" r:id="rId293" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9AB2019E-8017-46C0-BCA9-CAD6F1F87325}"/>
+    <hyperlink ref="M80" r:id="rId294" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{D1CF5F00-E2BB-4725-B759-72778648BB82}"/>
+    <hyperlink ref="C81" r:id="rId295" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{8C042DA3-7AA0-4A54-93F7-4E636F2C79A2}"/>
+    <hyperlink ref="E81" r:id="rId296" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B6F1F778-E058-4A86-8813-607E33803E53}"/>
+    <hyperlink ref="I81" r:id="rId297" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B14AFF2C-8743-46F6-AF86-BC5AEA2AA6DD}"/>
+    <hyperlink ref="M81" r:id="rId298" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{CBB55C7E-368C-4673-9A20-E3A4BE3067AE}"/>
+    <hyperlink ref="C82" r:id="rId299" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{0116F4C5-D6D5-4E30-9CC3-450C442C2E63}"/>
+    <hyperlink ref="E82" r:id="rId300" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E8F03437-6462-41DF-B0B2-2BE8FCBAFCEA}"/>
+    <hyperlink ref="I82" r:id="rId301" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4FF8F557-D804-4029-8FCF-5FB7BEF252CE}"/>
+    <hyperlink ref="M82" r:id="rId302" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{5BE59027-283F-4143-8142-66E557F672C4}"/>
+    <hyperlink ref="C83" r:id="rId303" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{6DDB69B6-26CF-4122-ACEE-817CDFC4D5B7}"/>
+    <hyperlink ref="E83" r:id="rId304" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D51F7578-00D1-453F-A6B9-7DF094EB3D0A}"/>
+    <hyperlink ref="I83" r:id="rId305" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{D7D5994C-F964-49C2-B3CB-47F7AD3599A4}"/>
+    <hyperlink ref="M83" r:id="rId306" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{34B0CF0C-9AD2-4AE5-91AC-02710C46B6CF}"/>
+    <hyperlink ref="C84" r:id="rId307" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{0C18DF3D-F03F-4FDF-AE52-73587BC550B8}"/>
+    <hyperlink ref="E84" r:id="rId308" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{416C4C78-2AF4-4F1E-97DB-A716B241FB6F}"/>
+    <hyperlink ref="I84" r:id="rId309" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F1AE1518-4F8C-4B2A-8AAB-B842F6CE082D}"/>
+    <hyperlink ref="M84" r:id="rId310" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{BEF6E44C-3D49-4FF4-A089-A1E0D14533AB}"/>
+    <hyperlink ref="C85" r:id="rId311" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{191F547E-CB05-4297-AEFF-702D83C7E6B5}"/>
+    <hyperlink ref="E85" r:id="rId312" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{1EAC7401-1B9D-471C-B9CF-853DA50C5E6C}"/>
+    <hyperlink ref="I85" r:id="rId313" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EE87427E-5D62-490F-8E97-295428AAD352}"/>
+    <hyperlink ref="M85" r:id="rId314" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{806A759E-FF98-40CE-AFE7-EF583B897DC8}"/>
+    <hyperlink ref="C86" r:id="rId315" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{2EC612A3-FC3E-4D4F-AC82-9226806D6B35}"/>
+    <hyperlink ref="E86" r:id="rId316" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{A3FBFED0-060C-46B8-9DE3-9B6630688632}"/>
+    <hyperlink ref="I86" r:id="rId317" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{1A843F47-C93E-4895-B5BD-A0023646B700}"/>
+    <hyperlink ref="M86" r:id="rId318" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{8BBFF7A5-6941-4BAA-9E09-80303E01DE1B}"/>
+    <hyperlink ref="C87" r:id="rId319" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{50D637CB-AB6E-4189-A8B6-E65DF7B329D5}"/>
+    <hyperlink ref="E87" r:id="rId320" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{628B1CEA-6AE8-4248-B4A4-65EE6C88B5E6}"/>
+    <hyperlink ref="I87" r:id="rId321" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F9001C8F-4665-40D1-AD96-05D44AE50668}"/>
+    <hyperlink ref="M87" r:id="rId322" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{B5010AD5-2711-47DE-ABA9-68A19A11558F}"/>
+    <hyperlink ref="C88" r:id="rId323" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{1EC5B1FB-ACAF-4251-88D8-24F1197FFE5B}"/>
+    <hyperlink ref="E88" r:id="rId324" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{A189A51C-512F-42C5-B234-E65162B13D40}"/>
+    <hyperlink ref="I88" r:id="rId325" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{0A032E8D-E9FD-4490-8A0A-7700FE95974B}"/>
+    <hyperlink ref="M88" r:id="rId326" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{0D39ADE2-F718-4E9F-98E8-B486897966E8}"/>
+    <hyperlink ref="C89" r:id="rId327" display="https://fbref.com/en/matches/2021-10-18" xr:uid="{56B80A28-8D08-4788-8CA7-8D1708CC2028}"/>
+    <hyperlink ref="E89" r:id="rId328" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8A4586A5-891C-472B-B2EF-67FE9780E9D4}"/>
+    <hyperlink ref="I89" r:id="rId329" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{7F611142-5ED0-4095-9A6C-C801B90B76EC}"/>
+    <hyperlink ref="M89" r:id="rId330" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{05D53CAA-95EC-49D4-850E-594AFFFC508C}"/>
+    <hyperlink ref="C91" r:id="rId331" display="https://fbref.com/en/matches/2021-10-22" xr:uid="{623C1AE6-2499-44A0-9DE1-44343600451C}"/>
+    <hyperlink ref="E91" r:id="rId332" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{461F7083-9F62-4892-B0C4-0284019542B2}"/>
+    <hyperlink ref="I91" r:id="rId333" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{1B36ACEB-AEBF-421C-A179-396DFFD37F4E}"/>
+    <hyperlink ref="M91" r:id="rId334" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{EC001806-243E-49A1-84B7-881A1516D5EA}"/>
+    <hyperlink ref="C92" r:id="rId335" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{9D04DCB8-0A3C-4455-8450-340A30157FA1}"/>
+    <hyperlink ref="E92" r:id="rId336" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B71E0ED6-F0C3-4AF4-98A8-5112BEA68AAF}"/>
+    <hyperlink ref="I92" r:id="rId337" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CE6215D9-7D9F-4EB5-9ED6-B7ED312ABE85}"/>
+    <hyperlink ref="M92" r:id="rId338" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{C47905A2-3DB8-49AF-94AF-AEF9898D00EF}"/>
+    <hyperlink ref="C93" r:id="rId339" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{D198AFB8-E86E-4848-A967-FB443B564C43}"/>
+    <hyperlink ref="E93" r:id="rId340" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{F87E8A99-729F-45FA-ABFC-4E627FC5A589}"/>
+    <hyperlink ref="I93" r:id="rId341" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{496CF180-F7E9-470D-BA3E-062684A39CA9}"/>
+    <hyperlink ref="M93" r:id="rId342" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{4BC46944-762D-4715-8874-5CFE8A86DA69}"/>
+    <hyperlink ref="C94" r:id="rId343" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{21F5D503-4115-4646-B5ED-A4D5263FC87B}"/>
+    <hyperlink ref="E94" r:id="rId344" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{44D29941-6D76-4128-9FF9-5A3079C4584C}"/>
+    <hyperlink ref="I94" r:id="rId345" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{0C0CE4EB-F72C-48D5-9DA9-67FFB6669584}"/>
+    <hyperlink ref="M94" r:id="rId346" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{4BFABFDA-932C-4E97-886E-D8D83D7B2468}"/>
+    <hyperlink ref="C95" r:id="rId347" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{ABFE601A-C6F4-45CD-BF26-3FDBAE0CAAE2}"/>
+    <hyperlink ref="E95" r:id="rId348" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{C47659A3-F9DA-44F9-8823-7F7B4BB38D65}"/>
+    <hyperlink ref="I95" r:id="rId349" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C534EB0A-D737-4C41-92BC-285D84217F94}"/>
+    <hyperlink ref="M95" r:id="rId350" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{2BA91FC5-F41A-4C63-8F04-4C95364EA32A}"/>
+    <hyperlink ref="C96" r:id="rId351" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{86437C19-1738-4462-A7ED-A8F2D40360E6}"/>
+    <hyperlink ref="E96" r:id="rId352" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{4ACDD910-E046-42F9-B76D-E592206E844E}"/>
+    <hyperlink ref="I96" r:id="rId353" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C203CFB5-166D-42B8-A124-2AC3B58B2E05}"/>
+    <hyperlink ref="M96" r:id="rId354" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{A3CCD0BC-147A-4059-BD16-0CC7F564CA84}"/>
+    <hyperlink ref="C97" r:id="rId355" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{7602357F-3E12-4DBA-ABB5-660272F4CB4C}"/>
+    <hyperlink ref="E97" r:id="rId356" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E2351901-7023-4063-B14C-8EB850BCA6A4}"/>
+    <hyperlink ref="I97" r:id="rId357" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{91BC3666-322F-4563-BD0A-C0668E8092F9}"/>
+    <hyperlink ref="M97" r:id="rId358" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{45F50D51-9EB4-4250-BBAA-909C5E1EDD5C}"/>
+    <hyperlink ref="C98" r:id="rId359" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{8D3127C4-1BCD-460E-BC77-7B3CC096F2D1}"/>
+    <hyperlink ref="E98" r:id="rId360" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{86868901-B22A-43BE-87F4-AA464049B739}"/>
+    <hyperlink ref="I98" r:id="rId361" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8C606A6B-CD73-4977-B9C5-7CFB87686EE9}"/>
+    <hyperlink ref="M98" r:id="rId362" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{EEA2935B-9D40-45A9-AB32-2BEA9823EBE7}"/>
+    <hyperlink ref="C99" r:id="rId363" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{A9384B98-8208-4A26-A5C5-D8C8DC8BB2BC}"/>
+    <hyperlink ref="E99" r:id="rId364" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C263CE4C-2859-4874-AAEF-BD4F61D6D9D9}"/>
+    <hyperlink ref="I99" r:id="rId365" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{4E032BB3-1F75-4DB4-A3D8-EA9FCC2A1F05}"/>
+    <hyperlink ref="M99" r:id="rId366" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{D302C1D4-FC5A-4E38-AE81-524E8722C64C}"/>
+    <hyperlink ref="C100" r:id="rId367" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{ED472057-8A65-455E-82EE-7B0B468832B9}"/>
+    <hyperlink ref="E100" r:id="rId368" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{695EA6AE-7FBD-4126-9511-2EA76F3DDA6E}"/>
+    <hyperlink ref="I100" r:id="rId369" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{86399441-7E4E-4570-B20A-E61410197AAE}"/>
+    <hyperlink ref="M100" r:id="rId370" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{2A532208-1B8F-49E8-8F6A-74138A332282}"/>
+    <hyperlink ref="C102" r:id="rId371" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{031753F2-A32C-482D-8764-61CE47947036}"/>
+    <hyperlink ref="E102" r:id="rId372" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{C1EA2A9C-F953-4FC7-BB6A-D7B324B786AD}"/>
+    <hyperlink ref="I102" r:id="rId373" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{1E04DF12-4C9B-4AEA-B603-8591418FB1C7}"/>
+    <hyperlink ref="M102" r:id="rId374" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{79E0BB96-D426-4D94-A919-3FCA515FC5BA}"/>
+    <hyperlink ref="C103" r:id="rId375" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{4A0D6001-6E3D-47CD-BF29-776C9C909FE4}"/>
+    <hyperlink ref="E103" r:id="rId376" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{FB1072E6-60C1-4EA4-894D-A093510277EE}"/>
+    <hyperlink ref="I103" r:id="rId377" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CCE95B01-D67B-4749-952A-E476B16DD91A}"/>
+    <hyperlink ref="M103" r:id="rId378" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{E8E176B3-3EAF-4D3A-BC98-9BD5F054D065}"/>
+    <hyperlink ref="C104" r:id="rId379" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{AD648ACF-6A06-4015-A733-ADFA76E9DB0E}"/>
+    <hyperlink ref="E104" r:id="rId380" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{E9CEB0EC-797F-4CA6-89DF-C30603D15F39}"/>
+    <hyperlink ref="I104" r:id="rId381" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F24D6A61-ECAE-4E25-A442-9EA54097B2E5}"/>
+    <hyperlink ref="M104" r:id="rId382" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{A1D320AD-4905-48DD-93B4-2FF037E637E5}"/>
+    <hyperlink ref="C105" r:id="rId383" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{0E146932-1291-4113-8FE1-861CE3C11A54}"/>
+    <hyperlink ref="E105" r:id="rId384" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B72E4547-D5CA-4C5A-BFF6-AAE7BD389752}"/>
+    <hyperlink ref="I105" r:id="rId385" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7B5A2F2A-C7EC-488E-9797-B7FB94B19FFB}"/>
+    <hyperlink ref="M105" r:id="rId386" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{B97890A5-2342-422C-A839-B5F1BE540C3C}"/>
+    <hyperlink ref="C106" r:id="rId387" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{ADD3EBCA-59C1-4E6D-B29A-806122FDA5CD}"/>
+    <hyperlink ref="E106" r:id="rId388" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{10B8CE2D-5C5E-44D3-965C-FC78CE0CCBA2}"/>
+    <hyperlink ref="I106" r:id="rId389" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{2B83F55A-EE58-4902-8A09-ED1483699FD6}"/>
+    <hyperlink ref="M106" r:id="rId390" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{754689CF-3BF6-41E4-AF89-9014A3CD1C08}"/>
+    <hyperlink ref="C107" r:id="rId391" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{E97FC72E-0086-4F57-BD42-1723AA274E49}"/>
+    <hyperlink ref="E107" r:id="rId392" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{B8A1FB1B-9B4A-41F4-8FC3-88D83929F40F}"/>
+    <hyperlink ref="I107" r:id="rId393" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4D3CEC44-4FB7-490E-B0B7-BD82E2529733}"/>
+    <hyperlink ref="M107" r:id="rId394" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{715DABD8-8A34-4A1C-BF84-179CF8494C62}"/>
+    <hyperlink ref="C108" r:id="rId395" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{9F8E2DC4-CCD0-45E3-8657-73C0BC0A22D6}"/>
+    <hyperlink ref="E108" r:id="rId396" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{40ABA9CB-5B80-4E21-9B61-FB9F897F344E}"/>
+    <hyperlink ref="I108" r:id="rId397" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{D721C4EE-3F32-412A-9FE9-2C0A3B430CA7}"/>
+    <hyperlink ref="M108" r:id="rId398" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{7F658D94-E199-4954-89A8-2313CF9BE5A4}"/>
+    <hyperlink ref="C109" r:id="rId399" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{EA47C170-85E2-4284-87A0-99A619E37F42}"/>
+    <hyperlink ref="E109" r:id="rId400" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{170F68E7-449D-4AFB-8E01-5E84F404C3E0}"/>
+    <hyperlink ref="I109" r:id="rId401" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{077AE7F7-2941-49CE-8B9A-22E37EF99B57}"/>
+    <hyperlink ref="M109" r:id="rId402" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{C78E27F0-4157-40EC-A409-D6C981ACBD8A}"/>
+    <hyperlink ref="C110" r:id="rId403" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{6BCBC793-3231-4225-B26C-6225D6BA3307}"/>
+    <hyperlink ref="E110" r:id="rId404" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{89988F17-A46B-4EB2-B87A-60473975D58E}"/>
+    <hyperlink ref="I110" r:id="rId405" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{A871D8E3-206F-47DE-B884-3BEED17FCF16}"/>
+    <hyperlink ref="M110" r:id="rId406" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{8C28F8D1-B998-4DD7-BF81-26032CD120A0}"/>
+    <hyperlink ref="C111" r:id="rId407" display="https://fbref.com/en/matches/2021-11-01" xr:uid="{7447A803-ED9E-4044-94D2-B883EA9A1CB9}"/>
+    <hyperlink ref="E111" r:id="rId408" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{4061E294-9C34-4E8E-81A8-77C5C65D9581}"/>
+    <hyperlink ref="I111" r:id="rId409" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{EA88A5A9-3573-4FEA-87C7-A9612312092A}"/>
+    <hyperlink ref="M111" r:id="rId410" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{B94586D1-3941-4B4F-B3FC-43AABEB03DB1}"/>
+    <hyperlink ref="C113" r:id="rId411" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{4F3D8828-FA0F-4889-8326-825A0448A33C}"/>
+    <hyperlink ref="E113" r:id="rId412" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{70686EDB-B40D-4531-807E-B68ECFF72466}"/>
+    <hyperlink ref="I113" r:id="rId413" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{14A171B6-5C69-47C6-ACDC-71E7635195A2}"/>
+    <hyperlink ref="M113" r:id="rId414" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{F1680471-4CA7-4DED-B12E-45B701CB8269}"/>
+    <hyperlink ref="C114" r:id="rId415" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{9CCFC001-8011-47E6-AC42-FCB09B2151DC}"/>
+    <hyperlink ref="E114" r:id="rId416" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F8D65EC9-F5A1-4BC8-B8C6-1A3EB8B517C5}"/>
+    <hyperlink ref="I114" r:id="rId417" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FF96E7A3-95BB-4985-91FD-D71414417C40}"/>
+    <hyperlink ref="M114" r:id="rId418" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{C778A4FD-F667-470B-9D15-816961D67CB5}"/>
+    <hyperlink ref="C115" r:id="rId419" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{5D81339F-AC88-4541-A2B4-B1479A16507D}"/>
+    <hyperlink ref="E115" r:id="rId420" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AD753813-5C6F-4BCF-8C92-84566E8A7AA6}"/>
+    <hyperlink ref="I115" r:id="rId421" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{F1DB8176-01D4-4DF0-9337-7F622B26383A}"/>
+    <hyperlink ref="M115" r:id="rId422" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{F207F1FE-122E-4921-B3A5-AE9339FA03A2}"/>
+    <hyperlink ref="C116" r:id="rId423" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{8256BFAE-2812-4765-91AD-AF42394F58B5}"/>
+    <hyperlink ref="E116" r:id="rId424" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{38FD64BE-BF4E-40A0-9388-8195F84C467C}"/>
+    <hyperlink ref="I116" r:id="rId425" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{F41E4774-2212-45C1-B5FB-400BC17A3B8E}"/>
+    <hyperlink ref="M116" r:id="rId426" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{2E71D7D3-6FDF-475A-9C04-7A56D2048AA8}"/>
+    <hyperlink ref="C117" r:id="rId427" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{F98E6836-57FB-4F97-803B-ACCB7AE6C9B0}"/>
+    <hyperlink ref="E117" r:id="rId428" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2EF9970F-9D95-436A-AC0B-058BCBBC3628}"/>
+    <hyperlink ref="I117" r:id="rId429" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{9228F438-F4A9-4D27-83E3-10F0DA625ACE}"/>
+    <hyperlink ref="M117" r:id="rId430" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{67DC2D47-7CB3-46BC-AAF0-F2BE8A152ADB}"/>
+    <hyperlink ref="C118" r:id="rId431" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{750E3B46-6478-4DE7-A80E-3E68D6660314}"/>
+    <hyperlink ref="E118" r:id="rId432" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{FFBF4CAE-BE3B-49CB-B455-982CCECB9B1E}"/>
+    <hyperlink ref="I118" r:id="rId433" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{17315ACD-4BED-4500-B79F-6A0B306F6B14}"/>
+    <hyperlink ref="M118" r:id="rId434" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{8ED6A1B7-6424-46A7-8ED5-E5D5BDE9779C}"/>
+    <hyperlink ref="C119" r:id="rId435" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{BEB7C0C2-0FAE-4FB6-9779-170D7267930A}"/>
+    <hyperlink ref="E119" r:id="rId436" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{5358304E-2578-47E0-B920-4886E11434ED}"/>
+    <hyperlink ref="I119" r:id="rId437" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{94369ACA-EBC0-462F-808D-143CFCC21DAE}"/>
+    <hyperlink ref="M119" r:id="rId438" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{77CB2B1D-98B4-4783-A5AF-B80ECC67F8A5}"/>
+    <hyperlink ref="C120" r:id="rId439" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{733E6B99-197D-4F5E-ABE9-8CE8D9F06F3C}"/>
+    <hyperlink ref="E120" r:id="rId440" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{C5AED7F1-A76A-497F-A25F-092FB2DF758F}"/>
+    <hyperlink ref="I120" r:id="rId441" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6BF6F746-9CB5-4BED-8963-3DEF0D6BE434}"/>
+    <hyperlink ref="M120" r:id="rId442" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{2CC730EB-B526-4543-9DA8-92DC4C811B3D}"/>
+    <hyperlink ref="C121" r:id="rId443" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{0F5F3AB0-1CA2-4408-B175-8E71AAD5CC05}"/>
+    <hyperlink ref="E121" r:id="rId444" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{A7A975A7-B4FB-431A-AC9A-06D049F1BF5C}"/>
+    <hyperlink ref="I121" r:id="rId445" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{51F6B64B-51D4-4DD4-A5C9-7816675C06C3}"/>
+    <hyperlink ref="M121" r:id="rId446" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{5F7E8312-C7A7-46D4-8C0A-69E294894F87}"/>
+    <hyperlink ref="C122" r:id="rId447" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{7195662A-8B1F-461C-9CF0-54164502E6A9}"/>
+    <hyperlink ref="E122" r:id="rId448" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7CA986DB-2225-4CE1-BBD3-DC77135845FA}"/>
+    <hyperlink ref="I122" r:id="rId449" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{4D9F4B0B-A570-4AD6-8D5B-B34E6997711B}"/>
+    <hyperlink ref="M122" r:id="rId450" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{87AD9939-2391-4BD9-B3BD-25AC647E873B}"/>
+    <hyperlink ref="C124" r:id="rId451" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{325A990C-4D27-42C5-9FFF-0DD534E60EDC}"/>
+    <hyperlink ref="E124" r:id="rId452" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F74C2F59-120D-4D5E-BA75-0AF69460A2CD}"/>
+    <hyperlink ref="I124" r:id="rId453" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4B3162D1-7754-4984-9697-0979712E829E}"/>
+    <hyperlink ref="M124" r:id="rId454" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{3327273D-68BC-49A3-9FF2-720EEFCE66D6}"/>
+    <hyperlink ref="C125" r:id="rId455" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{00C87B6D-C747-4037-A21C-E9638ACD86A5}"/>
+    <hyperlink ref="E125" r:id="rId456" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{AB6E5EE6-151B-45FA-8E6C-8367875CF203}"/>
+    <hyperlink ref="I125" r:id="rId457" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{C737AB31-2B62-4DB3-A865-591382F9DD2F}"/>
+    <hyperlink ref="M125" r:id="rId458" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{72633C66-651E-43DA-AD33-0D5B133F2295}"/>
+    <hyperlink ref="C126" r:id="rId459" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{01E31A2D-2D55-469E-9CDD-9446CFE8A985}"/>
+    <hyperlink ref="E126" r:id="rId460" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{FB85D463-2199-4B6A-A4EE-BC977C94E015}"/>
+    <hyperlink ref="I126" r:id="rId461" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{9408FA6A-E9E7-461F-8FF7-F65D255DAC6D}"/>
+    <hyperlink ref="M126" r:id="rId462" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{C64F4BFF-ACFB-4BCB-A1B0-4BFD63BE2AFA}"/>
+    <hyperlink ref="C127" r:id="rId463" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{34EC38E3-4F17-4DA0-A1F0-2608640E8668}"/>
+    <hyperlink ref="E127" r:id="rId464" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A7714FAD-515B-467C-B6A0-F8E852DED720}"/>
+    <hyperlink ref="I127" r:id="rId465" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{50084130-2E28-439E-8CCF-ABD9033A378D}"/>
+    <hyperlink ref="M127" r:id="rId466" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{7AE19529-CEFB-4544-8AEA-FEC9AC0C8A32}"/>
+    <hyperlink ref="C128" r:id="rId467" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{15CDD2FE-F8DC-405C-B7C0-BB6F45B23135}"/>
+    <hyperlink ref="E128" r:id="rId468" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7EE6167C-D9FA-4F43-9321-7524E8816148}"/>
+    <hyperlink ref="I128" r:id="rId469" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8C808577-0D18-4EC7-BD8F-50A305262584}"/>
+    <hyperlink ref="M128" r:id="rId470" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{C39A362C-11FA-4C26-9A20-A80E99FEB35E}"/>
+    <hyperlink ref="C129" r:id="rId471" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{2E974677-3888-4E02-A0EF-89E0FAE3E857}"/>
+    <hyperlink ref="E129" r:id="rId472" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{588EEE9E-6600-464B-9F21-E5E61E12B412}"/>
+    <hyperlink ref="I129" r:id="rId473" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{04E78997-A681-412E-99DC-150AE3D99C18}"/>
+    <hyperlink ref="M129" r:id="rId474" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{F5E65292-0175-4CAC-93B4-E14324E95E7E}"/>
+    <hyperlink ref="C130" r:id="rId475" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{9049C3F9-75FA-410B-BDE8-FE911C43AA7F}"/>
+    <hyperlink ref="E130" r:id="rId476" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{A283A3DB-C2DD-4292-8B95-7D4935359E58}"/>
+    <hyperlink ref="I130" r:id="rId477" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{149B1642-2521-4423-9773-9CAD1C63FE86}"/>
+    <hyperlink ref="M130" r:id="rId478" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{0F6BDE6D-9D0A-45AF-9863-380E1F5493B7}"/>
+    <hyperlink ref="C131" r:id="rId479" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{F580FD3C-5CEA-4BED-97F1-2BDAF3A92144}"/>
+    <hyperlink ref="E131" r:id="rId480" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3EA92371-761A-43A7-86F3-7CFC26465536}"/>
+    <hyperlink ref="I131" r:id="rId481" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{DD266F47-D3E7-4DB0-AAD9-FC5B986B9E1C}"/>
+    <hyperlink ref="M131" r:id="rId482" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{742689A6-E32C-4C02-9183-09D38019C296}"/>
+    <hyperlink ref="C132" r:id="rId483" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{136EFEC6-0C45-4AE1-90C0-44A37D0E1D1A}"/>
+    <hyperlink ref="E132" r:id="rId484" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{058669F5-2202-413F-A465-42318C862958}"/>
+    <hyperlink ref="I132" r:id="rId485" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{80AFB561-FD48-4C64-A242-9440138016E8}"/>
+    <hyperlink ref="M132" r:id="rId486" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{CB745B55-732C-4822-9161-50FC066BE94F}"/>
+    <hyperlink ref="C133" r:id="rId487" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{02D309ED-863E-4893-86B6-5836E3E5BD4E}"/>
+    <hyperlink ref="E133" r:id="rId488" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{374B71CD-4995-40CE-84B9-CEEF531ADB0C}"/>
+    <hyperlink ref="I133" r:id="rId489" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{46AEC51C-15B8-4A93-B65E-DDE4C337387C}"/>
+    <hyperlink ref="M133" r:id="rId490" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{C12C8199-A59A-44D6-91C8-18A8ADA823C9}"/>
+    <hyperlink ref="C135" r:id="rId491" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{9A3C9958-7C89-4A09-A5A2-ECAD0AFEC707}"/>
+    <hyperlink ref="E135" r:id="rId492" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{43B51398-69E7-43AE-ACE4-54866E13DBF8}"/>
+    <hyperlink ref="I135" r:id="rId493" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{F2A3B2EB-778C-4C88-ABA9-8E0F7D3A309C}"/>
+    <hyperlink ref="M135" r:id="rId494" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{D4ADED99-446F-4180-9A5B-5A9E685ABFD1}"/>
+    <hyperlink ref="C136" r:id="rId495" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{61288822-055F-4097-B120-9714A11A0D94}"/>
+    <hyperlink ref="E136" r:id="rId496" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{F46D8DEE-1D08-4F8F-A2D2-DB56B9CB8F70}"/>
+    <hyperlink ref="I136" r:id="rId497" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{095B44EC-2BC6-4381-9735-26A6A9F8B709}"/>
+    <hyperlink ref="M136" r:id="rId498" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{5DF25DCC-21A4-4120-AB26-EE08A10107F2}"/>
+    <hyperlink ref="C137" r:id="rId499" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{D490C2D5-4DD4-4243-A98B-8808C68A9D2F}"/>
+    <hyperlink ref="E137" r:id="rId500" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{CA72541E-F7E9-423C-A952-88D66A4F5E8B}"/>
+    <hyperlink ref="I137" r:id="rId501" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BDD5653F-6363-48AF-B17B-84D8689B024E}"/>
+    <hyperlink ref="M137" r:id="rId502" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{F446983C-0C90-4364-A0C6-1B7CFC9AC827}"/>
+    <hyperlink ref="C138" r:id="rId503" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{35366848-ABC3-4A67-AB78-817ABCB90B85}"/>
+    <hyperlink ref="E138" r:id="rId504" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{C54BE16C-ECEB-4379-ADA9-ECF28BFB5117}"/>
+    <hyperlink ref="I138" r:id="rId505" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C932B7FD-7546-442A-BC4F-7F524A62BCD5}"/>
+    <hyperlink ref="M138" r:id="rId506" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{B5D42770-B670-4DDA-917C-E1E1F3239996}"/>
+    <hyperlink ref="C139" r:id="rId507" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{4CCDC043-6821-44B8-94FD-8F840FD4AD17}"/>
+    <hyperlink ref="E139" r:id="rId508" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{6C5BEC53-AC17-49B3-9B4F-2870A3D17893}"/>
+    <hyperlink ref="I139" r:id="rId509" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{5870B74C-5D44-4D6B-958F-502149A99545}"/>
+    <hyperlink ref="M139" r:id="rId510" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{FF9A6029-1DD1-4669-BCA7-2F55FD6C82F8}"/>
+    <hyperlink ref="C140" r:id="rId511" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{A7F1259D-AEC3-4156-AF1B-46FC0E222871}"/>
+    <hyperlink ref="E140" r:id="rId512" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B287A598-1E52-496D-A436-D48F06D6318F}"/>
+    <hyperlink ref="I140" r:id="rId513" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{E1AA43E2-A5D0-4CDA-9570-C7F7452793A8}"/>
+    <hyperlink ref="M140" r:id="rId514" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{F5B3C3F8-1DA2-4628-8C2E-67A71836C1A7}"/>
+    <hyperlink ref="C141" r:id="rId515" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{C71B80C1-A2F4-44E6-89BC-F2860052DC51}"/>
+    <hyperlink ref="E141" r:id="rId516" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{83532364-BD62-44F7-B27A-EEE8CFFD27CA}"/>
+    <hyperlink ref="I141" r:id="rId517" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A0D49262-354B-4E96-BE26-5688B06BDF78}"/>
+    <hyperlink ref="M141" r:id="rId518" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{E740FA17-F411-44A0-B93E-7B2C7A2077F7}"/>
+    <hyperlink ref="C142" r:id="rId519" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{8159B220-696E-448F-B9C3-267BE539AB52}"/>
+    <hyperlink ref="E142" r:id="rId520" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2B212EC4-9FE3-4013-9693-60A486991BA9}"/>
+    <hyperlink ref="I142" r:id="rId521" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DFB2C4E0-2D1B-4508-8F16-048E4A3E4F11}"/>
+    <hyperlink ref="M142" r:id="rId522" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{C995A127-D728-46F8-BEF0-81E637F6EAA6}"/>
+    <hyperlink ref="C143" r:id="rId523" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{C4B63579-8CCD-4757-B1F4-2E321D14FD28}"/>
+    <hyperlink ref="E143" r:id="rId524" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{10F97A88-1407-4104-872D-6F648518FBB8}"/>
+    <hyperlink ref="I143" r:id="rId525" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{2E054907-6B16-410D-982A-E9362B4C320D}"/>
+    <hyperlink ref="M143" r:id="rId526" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{C4A6464F-D9BA-4E3A-A030-44E4A6E961BC}"/>
+    <hyperlink ref="C144" r:id="rId527" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{C85CA424-E42C-4295-9EB6-2EBE1CD17E83}"/>
+    <hyperlink ref="E144" r:id="rId528" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{288492FD-5022-468F-9814-BE6868242674}"/>
+    <hyperlink ref="I144" r:id="rId529" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{53A49723-22F6-4702-86CF-ED0DFDA96E51}"/>
+    <hyperlink ref="M144" r:id="rId530" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{61E7D2DA-3C69-42AB-9F4C-2FDAB782106C}"/>
+    <hyperlink ref="C146" r:id="rId531" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{80CCEB64-20A5-4311-BF7F-BDE26208F79D}"/>
+    <hyperlink ref="E146" r:id="rId532" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B003747E-309A-42D9-BCF0-3C84C0456F05}"/>
+    <hyperlink ref="I146" r:id="rId533" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{A27C49A3-EC86-485E-82D6-EB82542D3B05}"/>
+    <hyperlink ref="M146" r:id="rId534" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{EB886CE0-5238-4EEC-9122-11643101DCCF}"/>
+    <hyperlink ref="C147" r:id="rId535" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{AFCF90EE-698D-4722-A94E-18BA0F80C643}"/>
+    <hyperlink ref="E147" r:id="rId536" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{DD5E854E-56D5-4B36-AEC3-B7746690C15C}"/>
+    <hyperlink ref="I147" r:id="rId537" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{8D605CBE-F8AC-4C6B-8CAE-03002AC66F3F}"/>
+    <hyperlink ref="M147" r:id="rId538" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{1C590C8D-068E-4DF3-83DA-37EE3B2286A3}"/>
+    <hyperlink ref="C148" r:id="rId539" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{758D5891-1FA3-49CE-9ABA-7B78C4F0974F}"/>
+    <hyperlink ref="E148" r:id="rId540" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DB1EBA34-AF52-44A5-8023-CEE0C0E2F5A6}"/>
+    <hyperlink ref="I148" r:id="rId541" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{32F398C0-6A7B-4B8C-83A9-B06FA7D3AC40}"/>
+    <hyperlink ref="M148" r:id="rId542" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{F0E99F98-9521-4448-94C0-19DBB982B634}"/>
+    <hyperlink ref="C149" r:id="rId543" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{DF1A0BE0-185E-4825-AF6E-D53E9C69FE6D}"/>
+    <hyperlink ref="E149" r:id="rId544" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{1EF1C422-5B3A-4141-A24F-B1C4272B1F3A}"/>
+    <hyperlink ref="I149" r:id="rId545" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{52EA571E-F33B-4FF8-8FF9-F478272576EE}"/>
+    <hyperlink ref="M149" r:id="rId546" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{DCAE2490-3C4C-4AA5-8959-CCF29F0D42FE}"/>
+    <hyperlink ref="C150" r:id="rId547" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{970FC509-096B-45D9-BB22-DB33F7DF415C}"/>
+    <hyperlink ref="E150" r:id="rId548" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DC87BCF5-2279-4245-9443-7C7FFBA0811C}"/>
+    <hyperlink ref="I150" r:id="rId549" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{381F765F-77D3-4D3B-AB00-3217BA04924B}"/>
+    <hyperlink ref="M150" r:id="rId550" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{0894081C-1F0E-4678-B670-A3D8BEB3256C}"/>
+    <hyperlink ref="C151" r:id="rId551" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{52047987-0184-486B-BE41-39FD0D2CA671}"/>
+    <hyperlink ref="E151" r:id="rId552" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{1EBFFFE2-8550-44CE-A4AB-72BDBD9114F1}"/>
+    <hyperlink ref="I151" r:id="rId553" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{19E9EF33-A925-410B-8BFC-654D56F7624F}"/>
+    <hyperlink ref="M151" r:id="rId554" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{069D369F-51A2-47D3-AA5E-5DA386A268E5}"/>
+    <hyperlink ref="C152" r:id="rId555" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{FB92FB15-9B09-43E5-A8F6-B196F7BAE844}"/>
+    <hyperlink ref="E152" r:id="rId556" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8FB078FB-77B0-4A51-80AD-039A4FF861A2}"/>
+    <hyperlink ref="I152" r:id="rId557" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9B0E8552-83D1-47F3-9C06-9CE911B38803}"/>
+    <hyperlink ref="M152" r:id="rId558" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{3D3BA8E1-82F2-47B9-B6B8-DC1F78A6A556}"/>
+    <hyperlink ref="C153" r:id="rId559" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{1DF26D3D-D737-4AA3-8B31-C17993C9EAD2}"/>
+    <hyperlink ref="E153" r:id="rId560" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{37B29F53-437D-46A6-8C43-DFFA7658F32E}"/>
+    <hyperlink ref="I153" r:id="rId561" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{34F487AB-B9C3-41D3-9CE7-F2EEDB7434C8}"/>
+    <hyperlink ref="M153" r:id="rId562" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{60497B0F-39D3-420D-88D2-A3BDAF24ED36}"/>
+    <hyperlink ref="C154" r:id="rId563" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{FA6842FF-01BB-4F1C-9FEA-CD6A6CD2E842}"/>
+    <hyperlink ref="E154" r:id="rId564" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{7C036E5F-2EAC-49C2-9729-1480D4A893E5}"/>
+    <hyperlink ref="I154" r:id="rId565" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{5554E31B-419D-4528-B061-C4F5FCB20ED0}"/>
+    <hyperlink ref="M154" r:id="rId566" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{6EABC631-683F-4F42-A247-0F1829781EED}"/>
+    <hyperlink ref="C155" r:id="rId567" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{184B5D53-93FA-4C81-910A-10D86C77AEA2}"/>
+    <hyperlink ref="E155" r:id="rId568" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9226C68A-3C9E-48F1-9A06-E43631221F0E}"/>
+    <hyperlink ref="I155" r:id="rId569" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{5891B9F8-6E4E-4445-B917-74896D5A2CF6}"/>
+    <hyperlink ref="M155" r:id="rId570" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{CC94FA28-372C-4846-B733-5C30CFB2CC68}"/>
+    <hyperlink ref="C157" r:id="rId571" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{872168AF-0F5E-49DA-9D6B-5B536600BEEC}"/>
+    <hyperlink ref="E157" r:id="rId572" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{07CD7020-4A32-4499-8546-D3E0CEFC0EE3}"/>
+    <hyperlink ref="I157" r:id="rId573" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{4DB40516-429D-41E6-8A23-4A735C4F199F}"/>
+    <hyperlink ref="M157" r:id="rId574" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{F8332948-547C-47FD-AD18-FCBDE2B5DE74}"/>
+    <hyperlink ref="C158" r:id="rId575" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{2C6131AF-4615-40EE-B630-3B49B92F28EB}"/>
+    <hyperlink ref="E158" r:id="rId576" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{E10C1DDE-0463-4BB8-8F69-DF9D6D9880D8}"/>
+    <hyperlink ref="I158" r:id="rId577" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7FD05AD8-0CD2-47F4-A7B1-9045A643CFC1}"/>
+    <hyperlink ref="M158" r:id="rId578" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{51ABABC5-D0DE-4A17-8C77-344807D5527E}"/>
+    <hyperlink ref="C159" r:id="rId579" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{DF9694C2-C7D2-4049-B1BC-67AE344CE677}"/>
+    <hyperlink ref="E159" r:id="rId580" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{1A28B819-6272-4AFE-9CE3-A6A5DE702995}"/>
+    <hyperlink ref="I159" r:id="rId581" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F2A54E1D-4D08-45F4-AA8E-A9F946E8E06F}"/>
+    <hyperlink ref="M159" r:id="rId582" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{CD7B8CE2-1AEA-42EA-BE13-8C19CD6A2938}"/>
+    <hyperlink ref="C160" r:id="rId583" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{B8E78E0D-046B-4888-BB5D-111BF6311F19}"/>
+    <hyperlink ref="E160" r:id="rId584" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{5AA2DE85-5D6B-4C37-A6E8-0AA63E23E388}"/>
+    <hyperlink ref="I160" r:id="rId585" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D386F271-2316-4A47-906A-25D4BA4A9E43}"/>
+    <hyperlink ref="M160" r:id="rId586" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{7971B9DF-C12C-4B33-BC47-2481CEA7E9D8}"/>
+    <hyperlink ref="C161" r:id="rId587" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{1F5A1525-B7B9-4A99-A4DA-7263ACD428B1}"/>
+    <hyperlink ref="E161" r:id="rId588" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6CE6ED48-80AA-4A30-91D5-4BD6C9C390A0}"/>
+    <hyperlink ref="I161" r:id="rId589" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{99C93A54-6C2D-4C1A-A6C9-845AC2B15D64}"/>
+    <hyperlink ref="M161" r:id="rId590" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{7E3AC5DB-BFBC-4DD5-93D7-0B7BDFAE5F9B}"/>
+    <hyperlink ref="C162" r:id="rId591" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{8220F4FD-1EEA-4A9E-BF78-0F5F28C78246}"/>
+    <hyperlink ref="E162" r:id="rId592" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{AD15EA73-262E-48E7-80B0-F2C961273254}"/>
+    <hyperlink ref="I162" r:id="rId593" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{D51DEF5E-07BA-4007-8C56-DB3D8550BCD1}"/>
+    <hyperlink ref="M162" r:id="rId594" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{FD2E692F-E072-471A-A6FD-70A347055D8C}"/>
+    <hyperlink ref="C163" r:id="rId595" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{07A40113-CB37-40C8-BA5D-EE9CA8EA5C9A}"/>
+    <hyperlink ref="E163" r:id="rId596" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{474744DA-3F33-46B8-B24A-5032D625EC19}"/>
+    <hyperlink ref="I163" r:id="rId597" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{67AE038A-C4EE-48FB-9520-10E21D71D780}"/>
+    <hyperlink ref="M163" r:id="rId598" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{F8327A3B-A47B-40D7-9EBF-EEE22FD5855C}"/>
+    <hyperlink ref="C164" r:id="rId599" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{C642F72E-1114-4A87-8A7D-A3DF0588541A}"/>
+    <hyperlink ref="E164" r:id="rId600" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{714E3BC6-7EAB-4919-9CAB-710190E1E50F}"/>
+    <hyperlink ref="I164" r:id="rId601" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F7E0FD9F-A3B4-467C-9D92-2D5D3E1552C9}"/>
+    <hyperlink ref="M164" r:id="rId602" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{2FEDAAF0-F26F-4F5B-9F95-67103126A137}"/>
+    <hyperlink ref="C165" r:id="rId603" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{E7353207-DB9B-4FDB-8BE6-EC708BDFE29B}"/>
+    <hyperlink ref="E165" r:id="rId604" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F3A8112B-F185-4F05-B562-3D53CE9BA191}"/>
+    <hyperlink ref="I165" r:id="rId605" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{8B8B4C13-CB84-4C0B-9562-44FCC1D93C03}"/>
+    <hyperlink ref="M165" r:id="rId606" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{24565385-A8A0-435E-A482-FDDA15CA426A}"/>
+    <hyperlink ref="C166" r:id="rId607" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{233B58B5-CC56-47F2-A150-E9B49355627D}"/>
+    <hyperlink ref="E166" r:id="rId608" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{AED72431-EA78-421F-909E-71B52BF77412}"/>
+    <hyperlink ref="I166" r:id="rId609" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{94A16360-ABB4-40AB-B036-F16EBDF83A3B}"/>
+    <hyperlink ref="M166" r:id="rId610" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{29408D33-1FD0-4292-B856-10F6E94D9218}"/>
+    <hyperlink ref="C168" r:id="rId611" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{3D7B24FB-41E3-4ED0-AAE0-413806426662}"/>
+    <hyperlink ref="E168" r:id="rId612" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7137CB20-96CB-4808-82D8-EA7F9D846AD8}"/>
+    <hyperlink ref="I168" r:id="rId613" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{57953BA3-BD8F-4093-A9DB-3B56C9DB0285}"/>
+    <hyperlink ref="M168" r:id="rId614" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{5AF778EA-F33D-4CE6-9D5E-304CD78356D7}"/>
+    <hyperlink ref="C169" r:id="rId615" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{0F3A4985-3011-473B-9FC0-FDC2CBF7D34F}"/>
+    <hyperlink ref="E169" r:id="rId616" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{8AAA6E44-1088-4E62-9D50-779437B2E436}"/>
+    <hyperlink ref="I169" r:id="rId617" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{17C98B3E-7911-4556-B924-8AED3CACF718}"/>
+    <hyperlink ref="M169" r:id="rId618" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{BE3341E6-214D-43C6-A790-66441DFC021B}"/>
+    <hyperlink ref="C170" r:id="rId619" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{E951A094-5DF8-43C0-9335-C893E134F10E}"/>
+    <hyperlink ref="E170" r:id="rId620" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{CCBE2D0C-E5D7-4580-992D-7A61ECA43858}"/>
+    <hyperlink ref="I170" r:id="rId621" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B3E51699-E737-474A-B890-16AD8A0A8B30}"/>
+    <hyperlink ref="M170" r:id="rId622" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{87049FCF-705D-48FE-8325-F04DEA52D019}"/>
+    <hyperlink ref="C171" r:id="rId623" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{1B920F07-7319-44D9-9184-EDD4CE3AB7E2}"/>
+    <hyperlink ref="E171" r:id="rId624" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{8D23CD5F-4DFF-4417-AD3C-FD91A5EF09A5}"/>
+    <hyperlink ref="I171" r:id="rId625" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8DB8A9A3-A54B-472E-80EA-111172FECEC5}"/>
+    <hyperlink ref="M171" r:id="rId626" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{45376B62-E4F9-4DD3-BC6D-627CB5497264}"/>
+    <hyperlink ref="C172" r:id="rId627" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{75B232C6-EA0C-47C4-9F83-74D3F6536FB7}"/>
+    <hyperlink ref="E172" r:id="rId628" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{118528D0-FE65-4A5D-819A-E39EFE4E6F18}"/>
+    <hyperlink ref="I172" r:id="rId629" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B3ED297B-C600-41B4-8FDA-CD0DCDFD87EC}"/>
+    <hyperlink ref="M172" r:id="rId630" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{DC9E5EAA-5BF0-4F30-93AE-45F65ADD91EE}"/>
+    <hyperlink ref="C173" r:id="rId631" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{CBC56616-DAC3-4828-A1EC-E54C393A1B79}"/>
+    <hyperlink ref="E173" r:id="rId632" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{402D33C1-097E-4412-A855-3BADF903C596}"/>
+    <hyperlink ref="I173" r:id="rId633" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{3606B276-C1E6-4CC2-AB4D-9DA9DA24B918}"/>
+    <hyperlink ref="M173" r:id="rId634" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{BC2E54F4-283F-4092-B6DC-064534127CCA}"/>
+    <hyperlink ref="C174" r:id="rId635" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{5F8E4465-89EE-4DBD-9864-83C869E88B03}"/>
+    <hyperlink ref="E174" r:id="rId636" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{206E613B-909D-4394-A7AF-55E152A069E0}"/>
+    <hyperlink ref="I174" r:id="rId637" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{57745B0D-D0E3-4BC8-91B1-FBB5EB545300}"/>
+    <hyperlink ref="M174" r:id="rId638" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{8619DA3C-DBF8-45F4-871E-4E556D56006A}"/>
+    <hyperlink ref="C175" r:id="rId639" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{0DDF6CC9-C61D-4F08-9E68-F32A4383790B}"/>
+    <hyperlink ref="E175" r:id="rId640" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{5295AB59-0F6A-45E0-B68C-509EF8207E01}"/>
+    <hyperlink ref="I175" r:id="rId641" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{7CA1701B-E733-4BE6-B3B4-D0EADDBA435F}"/>
+    <hyperlink ref="M175" r:id="rId642" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{3679BB92-8C3E-426B-96B9-30D8F17A4BA0}"/>
+    <hyperlink ref="C176" r:id="rId643" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{C6C37F53-6F0F-40F8-85A0-B226947F75A2}"/>
+    <hyperlink ref="E176" r:id="rId644" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C901C67E-E86F-4B0A-AD29-EEFBB699D32F}"/>
+    <hyperlink ref="I176" r:id="rId645" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{3C6C2D04-B93C-42AF-B7EC-6CDE0F917026}"/>
+    <hyperlink ref="M176" r:id="rId646" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{13195612-868A-46E1-95C2-A015EF14FAA7}"/>
+    <hyperlink ref="C177" r:id="rId647" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{94BD29E0-43D2-4149-A789-200CE39B0A14}"/>
+    <hyperlink ref="E177" r:id="rId648" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{0A6E0FCA-3D70-4552-9550-0F830BEF7E98}"/>
+    <hyperlink ref="I177" r:id="rId649" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6BB34892-76C8-4630-A6CC-78CACBFE6E64}"/>
+    <hyperlink ref="M177" r:id="rId650" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{BFDECD2A-932D-436E-80A1-21A4446FA742}"/>
+    <hyperlink ref="C179" r:id="rId651" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{05F65A2A-8D05-48B4-8E82-893D31AE90F3}"/>
+    <hyperlink ref="E179" r:id="rId652" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{1BC56CD5-9DB0-466C-826E-5907F5AC2D07}"/>
+    <hyperlink ref="I179" r:id="rId653" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{C0831C4B-8B03-45A0-9FA7-181AC3BAB520}"/>
+    <hyperlink ref="M179" r:id="rId654" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{2F1FFD15-EE4A-45A8-B0AC-4C434B6EDC89}"/>
+    <hyperlink ref="C180" r:id="rId655" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{8E21C650-E394-46BA-8309-906B1015E786}"/>
+    <hyperlink ref="E180" r:id="rId656" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{5CB52EB6-E59B-4CCF-9DC7-2E7368EC1B34}"/>
+    <hyperlink ref="I180" r:id="rId657" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{933C458E-1F31-41B2-9385-D9C2765FA58E}"/>
+    <hyperlink ref="M180" r:id="rId658" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{A97F1135-66F0-454B-A275-59CB563A1E04}"/>
+    <hyperlink ref="C181" r:id="rId659" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{6A89F864-2AC1-400C-9B70-2F631F6B646A}"/>
+    <hyperlink ref="E181" r:id="rId660" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A86088E6-652D-4B44-BB11-26C4C3046F01}"/>
+    <hyperlink ref="I181" r:id="rId661" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{227B19C6-BDBD-49AF-BF70-A0E0B447B064}"/>
+    <hyperlink ref="M181" r:id="rId662" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{BC6E752C-5730-41AD-A971-A42ECB7C4F12}"/>
+    <hyperlink ref="C182" r:id="rId663" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{0C73F595-0D90-4BBD-850C-AAA6E4D8F8C8}"/>
+    <hyperlink ref="E182" r:id="rId664" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{144A9F0A-B2BF-46C2-ADC1-3E97186F8D70}"/>
+    <hyperlink ref="I182" r:id="rId665" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{0BAD2390-A5CC-46AC-9CDE-34B3F158F126}"/>
+    <hyperlink ref="M182" r:id="rId666" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{289C7502-2D8A-44DB-85D3-C1E0E584B0D4}"/>
+    <hyperlink ref="C183" r:id="rId667" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{82B7F1A8-DC24-4E48-803A-BACB5C3C8F6D}"/>
+    <hyperlink ref="E183" r:id="rId668" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6CF108B7-85C5-4433-A451-CA132C140D2E}"/>
+    <hyperlink ref="I183" r:id="rId669" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{CE5BD712-D9A3-4851-B3EE-3701C43C3649}"/>
+    <hyperlink ref="M183" r:id="rId670" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{4E74D4FF-877D-4AEF-A6D5-1C16E9A50657}"/>
+    <hyperlink ref="C184" r:id="rId671" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{CFC685BB-9CB4-423F-B58E-4BBB8B5F165B}"/>
+    <hyperlink ref="E184" r:id="rId672" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1A1B45E6-ABB0-4FA5-8AF4-62E5C447CE87}"/>
+    <hyperlink ref="I184" r:id="rId673" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D0B8B05D-75BE-4C5E-80CF-578E781F0992}"/>
+    <hyperlink ref="M184" r:id="rId674" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{40F19A39-C2FA-43B0-8D9A-B31D14EBD2FC}"/>
+    <hyperlink ref="C185" r:id="rId675" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{7EBF5F69-58C2-4512-A479-A7BBD3C5CFB1}"/>
+    <hyperlink ref="E185" r:id="rId676" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D8574084-45BB-43AF-9AEA-A009C40862D2}"/>
+    <hyperlink ref="I185" r:id="rId677" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{C8FAC631-EBE4-4D2B-8C88-82212302F7DE}"/>
+    <hyperlink ref="M185" r:id="rId678" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{81872A33-E071-4BDA-A61A-895B79E11311}"/>
+    <hyperlink ref="C186" r:id="rId679" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{671FAEDB-2960-40FD-95CF-A0E67F888C57}"/>
+    <hyperlink ref="E186" r:id="rId680" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{370614BD-7783-4CA7-AD5B-9788D1F79F9A}"/>
+    <hyperlink ref="I186" r:id="rId681" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C04AFB2A-C6D4-478C-99B2-06B92E99EC94}"/>
+    <hyperlink ref="M186" r:id="rId682" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{0AA9067F-5DE7-44FC-AB8B-434F81B531DF}"/>
+    <hyperlink ref="C187" r:id="rId683" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{583B34AA-4ED3-4EE9-9740-9D58BAD38398}"/>
+    <hyperlink ref="E187" r:id="rId684" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C74A58ED-2696-4E92-A394-15E6A169C83D}"/>
+    <hyperlink ref="I187" r:id="rId685" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{4897C393-1771-4F7C-A600-2B5AFE5B1E80}"/>
+    <hyperlink ref="M187" r:id="rId686" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{3D4941D1-F8D3-499A-ADD7-956C05EA111E}"/>
+    <hyperlink ref="C188" r:id="rId687" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{61CAF26A-8CD1-4C8D-B79D-354A9982D715}"/>
+    <hyperlink ref="E188" r:id="rId688" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{9FF24E15-9ACF-4776-B70C-75A49F606D01}"/>
+    <hyperlink ref="I188" r:id="rId689" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{16E0B96D-6434-4787-B0A8-F305565F6464}"/>
+    <hyperlink ref="M188" r:id="rId690" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{F145A29C-B031-46A7-B007-ABBC1062079D}"/>
+    <hyperlink ref="C190" r:id="rId691" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{B62F7DE7-D9FF-46E7-BAE3-9C52C4699414}"/>
+    <hyperlink ref="E190" r:id="rId692" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8522BF0C-BAF9-40EC-BEC1-EB4D59F6A096}"/>
+    <hyperlink ref="I190" r:id="rId693" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{74F379D1-5E44-449A-9A2C-7C2DFD5D3BEF}"/>
+    <hyperlink ref="M190" r:id="rId694" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{C5FE3648-BCD1-402B-A801-A001FF9186F8}"/>
+    <hyperlink ref="C191" r:id="rId695" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{38F9548B-D47D-450D-A8F6-D0B300C9D317}"/>
+    <hyperlink ref="E191" r:id="rId696" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A9DB25A7-9D06-4217-91C2-E7DF681C0A59}"/>
+    <hyperlink ref="I191" r:id="rId697" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{6B1F9D96-CB11-465A-BE0F-29C55B2C6BEE}"/>
+    <hyperlink ref="M191" r:id="rId698" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{9DA57E06-7CB3-421F-B4BC-0AEB255E09AD}"/>
+    <hyperlink ref="C192" r:id="rId699" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{7D27B2A9-A802-42E3-8F4E-065B6EE31F76}"/>
+    <hyperlink ref="E192" r:id="rId700" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5136EA59-B42F-4519-A4F9-3ABBF0948685}"/>
+    <hyperlink ref="I192" r:id="rId701" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{93CBADEF-C1EB-4C31-B471-D1EC9029994C}"/>
+    <hyperlink ref="M192" r:id="rId702" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{E1043B6B-DF63-4177-9BAD-85799A8D57DF}"/>
+    <hyperlink ref="C193" r:id="rId703" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{2127C1FB-25A4-43A2-9BCF-3C0DBC3C616F}"/>
+    <hyperlink ref="E193" r:id="rId704" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D0EECE8A-1931-4F8D-8299-82B57D9CA7B0}"/>
+    <hyperlink ref="I193" r:id="rId705" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5C437D8D-1EBA-476E-8927-31B5D8C9D447}"/>
+    <hyperlink ref="M193" r:id="rId706" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{80CC3B60-CAA0-4993-A705-ADA384D46505}"/>
+    <hyperlink ref="C194" r:id="rId707" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{AEFD62F5-75C0-4E2F-AE6A-1473512B5633}"/>
+    <hyperlink ref="E194" r:id="rId708" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C6C2FEB9-D92C-49E3-BDDB-5E1FAB3B9C09}"/>
+    <hyperlink ref="I194" r:id="rId709" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E9DF3B07-E3DA-4044-9386-E822B007A293}"/>
+    <hyperlink ref="M194" r:id="rId710" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{48256072-E22E-4423-BFF8-23A13C7F0AFC}"/>
+    <hyperlink ref="C195" r:id="rId711" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{B39BC09D-F4F6-480E-BA1C-C2B585D3FBA1}"/>
+    <hyperlink ref="E195" r:id="rId712" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{59911F39-E673-4E31-BD1C-82958CDF9D7E}"/>
+    <hyperlink ref="I195" r:id="rId713" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{60B1FD29-7EB3-4B46-B48C-F7E4501BBB78}"/>
+    <hyperlink ref="M195" r:id="rId714" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{077E4F63-7DFA-4BC8-83C3-808116AEC7CE}"/>
+    <hyperlink ref="C196" r:id="rId715" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{A1C298DE-D83D-4163-BF83-074CADE73765}"/>
+    <hyperlink ref="E196" r:id="rId716" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E0C0772B-12F6-497A-B152-72607C67FAC0}"/>
+    <hyperlink ref="I196" r:id="rId717" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{C6636B74-D3BF-4830-9274-D289256A8DE9}"/>
+    <hyperlink ref="M196" r:id="rId718" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{8FE6B99F-9757-458E-89E0-C12B4C2478E1}"/>
+    <hyperlink ref="C197" r:id="rId719" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{C17B6F4F-F4D0-4186-8577-0E5087FFDF71}"/>
+    <hyperlink ref="E197" r:id="rId720" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{A3753475-3355-41AE-95A5-53CA46EF697F}"/>
+    <hyperlink ref="I197" r:id="rId721" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{4D13A90C-FE0B-4AC4-9ED0-B896BA06E26B}"/>
+    <hyperlink ref="M197" r:id="rId722" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{92DE87DE-8024-4D5C-8D91-2BEA2B5A82FC}"/>
+    <hyperlink ref="C198" r:id="rId723" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{77BE0821-B5AA-4B53-B786-905ABF3DAECC}"/>
+    <hyperlink ref="E198" r:id="rId724" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{78F9D2EF-3691-4288-821E-B0493180AC9D}"/>
+    <hyperlink ref="I198" r:id="rId725" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{EB6033C5-72DB-4193-893E-94F2747BF3C8}"/>
+    <hyperlink ref="M198" r:id="rId726" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{AFC02BB1-25BD-487B-B84E-80898C668777}"/>
+    <hyperlink ref="C199" r:id="rId727" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{C20A66DF-811F-47D3-9C4E-9DD471CA95EF}"/>
+    <hyperlink ref="E199" r:id="rId728" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{ADDA62ED-0B73-4A64-A343-854A9A26B5D4}"/>
+    <hyperlink ref="I199" r:id="rId729" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{19A43FC0-0919-4BE4-876E-EF16FF2D780A}"/>
+    <hyperlink ref="M199" r:id="rId730" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{ABCC5BE7-7D4D-406F-B8DE-A48D68A4E1CE}"/>
+    <hyperlink ref="C201" r:id="rId731" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{A9489DA5-12A6-4ECF-84A3-A4F083A9CEF2}"/>
+    <hyperlink ref="E201" r:id="rId732" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{6FFFCEDC-0AED-4708-B554-43477EB689EC}"/>
+    <hyperlink ref="I201" r:id="rId733" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{2F8D09A7-7A18-4DCF-B0A5-6A2CB31084D8}"/>
+    <hyperlink ref="M201" r:id="rId734" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{9B58FA76-0471-4411-999F-E9324B21ABB9}"/>
+    <hyperlink ref="C202" r:id="rId735" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{1495DF25-45C4-425A-BFE1-B662C8E32F53}"/>
+    <hyperlink ref="E202" r:id="rId736" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4BBDADB7-3147-488C-9026-7E73C4732706}"/>
+    <hyperlink ref="I202" r:id="rId737" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B18F3872-4FEE-4170-A5EA-4149AD8EF7F1}"/>
+    <hyperlink ref="M202" r:id="rId738" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{6F1FDB85-C7B0-4E5B-86DB-39A94A29531D}"/>
+    <hyperlink ref="C203" r:id="rId739" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{DF101F1F-A7B2-4D3F-B20A-E96DDC81EC08}"/>
+    <hyperlink ref="E203" r:id="rId740" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{63DA9F7E-A235-419B-9CD9-3E238A77A3BA}"/>
+    <hyperlink ref="I203" r:id="rId741" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{A3C79048-3AB3-4355-8734-FD46473FA9AC}"/>
+    <hyperlink ref="M203" r:id="rId742" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{4F8C02C9-2C0B-4A4A-9785-46CD70B568E1}"/>
+    <hyperlink ref="C204" r:id="rId743" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{2DC47D0C-E53A-49A3-A250-D8D830B82523}"/>
+    <hyperlink ref="E204" r:id="rId744" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{2385A461-0D7D-4F87-87F4-22921B4C2142}"/>
+    <hyperlink ref="I204" r:id="rId745" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F2B960E4-714D-4FB9-B49F-3F183A6F6717}"/>
+    <hyperlink ref="M204" r:id="rId746" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{7A8F3935-756F-4494-BCC2-7EB1E32AA0D7}"/>
+    <hyperlink ref="C205" r:id="rId747" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{0DF2265C-C53B-4CC9-935F-E72A4AF5E849}"/>
+    <hyperlink ref="E205" r:id="rId748" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{03073916-32FB-4811-8697-BF0E9048A6E6}"/>
+    <hyperlink ref="I205" r:id="rId749" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0BA06900-A1E6-4429-A989-0C32A8F7C459}"/>
+    <hyperlink ref="M205" r:id="rId750" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{41A67447-C1D7-46B8-8289-BC7CC51FBEB3}"/>
+    <hyperlink ref="C206" r:id="rId751" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{2FCA5808-A71A-42E6-A9AA-FE768FCDB0B2}"/>
+    <hyperlink ref="E206" r:id="rId752" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B8E94BF9-CEB9-41B9-9A72-32819AAD6BD2}"/>
+    <hyperlink ref="I206" r:id="rId753" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{E035BAD1-0726-49F4-A043-7D19DA7B1020}"/>
+    <hyperlink ref="M206" r:id="rId754" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{4FD2CD5B-7DE2-4A51-84FD-9E25BC1C48A1}"/>
+    <hyperlink ref="C207" r:id="rId755" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B975D87E-E5E3-49F5-A8F9-A503DDA913DA}"/>
+    <hyperlink ref="E207" r:id="rId756" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{AE66EFFB-7F43-4D35-AC8F-DF253B66E4BC}"/>
+    <hyperlink ref="I207" r:id="rId757" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{2C899CCE-6EAA-4F65-834B-B83695A3DF0F}"/>
+    <hyperlink ref="M207" r:id="rId758" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{122BE09E-6184-4FD5-A132-BD63B9D7E75D}"/>
+    <hyperlink ref="C208" r:id="rId759" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{9FC222DC-8AA3-4BBF-8FE7-3C568DF0744F}"/>
+    <hyperlink ref="E208" r:id="rId760" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{1BF56A93-663E-4A27-837C-44594C6F732D}"/>
+    <hyperlink ref="I208" r:id="rId761" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{BAE9D81A-90E5-4656-8218-E5194E00784C}"/>
+    <hyperlink ref="M208" r:id="rId762" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{97D570D6-B48E-4C01-8D51-3D3CFE19CF59}"/>
+    <hyperlink ref="C209" r:id="rId763" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B6D94059-1ECF-4CE4-9D79-27DD17A89B87}"/>
+    <hyperlink ref="E209" r:id="rId764" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{342106EC-8782-4576-8E17-7A6A5A662D83}"/>
+    <hyperlink ref="I209" r:id="rId765" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{7B634F87-CFA0-49E3-926D-C15F04B88423}"/>
+    <hyperlink ref="M209" r:id="rId766" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{AC9C663C-80D7-48D4-A6E9-E9033A344C11}"/>
+    <hyperlink ref="C210" r:id="rId767" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B1283EC1-B574-47C7-8E2B-4AC8405E2B1C}"/>
+    <hyperlink ref="E210" r:id="rId768" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7DE95310-3595-48F1-99CF-5F93CCFC6A21}"/>
+    <hyperlink ref="I210" r:id="rId769" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{582B489E-FC03-427F-A74E-355C6CFA7200}"/>
+    <hyperlink ref="M210" r:id="rId770" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{15012C08-E800-4E0B-B9A4-69CAD1A2E0B7}"/>
+    <hyperlink ref="C212" r:id="rId771" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{9B76EE2B-9360-48A2-B0DC-60C08F879E39}"/>
+    <hyperlink ref="E212" r:id="rId772" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A886F336-A137-409E-85C7-18C59F5AF274}"/>
+    <hyperlink ref="I212" r:id="rId773" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{63CA5A14-43B7-4010-90F3-F599D4366C3C}"/>
+    <hyperlink ref="M212" r:id="rId774" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{6CCF72E3-6CD0-418F-B9E6-C82E39CBD90D}"/>
+    <hyperlink ref="C213" r:id="rId775" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{43092D69-581B-4FB3-A388-2C4FE5D902D7}"/>
+    <hyperlink ref="E213" r:id="rId776" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B8DAB247-A8C2-47EF-8F36-1899F3ECE8DF}"/>
+    <hyperlink ref="I213" r:id="rId777" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{DC48F937-BE40-4844-BBB7-FE142F46AA47}"/>
+    <hyperlink ref="M213" r:id="rId778" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{C1BAC3E9-62B2-4ACB-971F-E61F6B5AA082}"/>
+    <hyperlink ref="C214" r:id="rId779" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{66F51691-5E39-4F8A-894D-1998714ED885}"/>
+    <hyperlink ref="E214" r:id="rId780" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1F3C1F81-ABEC-4767-9705-47B998C027A9}"/>
+    <hyperlink ref="I214" r:id="rId781" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{84403404-B584-4BC3-8EC6-A6AB5A0AAEAA}"/>
+    <hyperlink ref="M214" r:id="rId782" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{FDA9F336-9624-4876-8DA7-389DA45DD7C8}"/>
+    <hyperlink ref="C215" r:id="rId783" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{627876C0-67B9-49F7-B1A8-86FF50D586AF}"/>
+    <hyperlink ref="E215" r:id="rId784" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{30A22A48-E202-4DF6-B1D0-106A7A487434}"/>
+    <hyperlink ref="I215" r:id="rId785" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{CEC2E4CB-FECD-4F38-861F-C395D0B40D9D}"/>
+    <hyperlink ref="M215" r:id="rId786" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{05085CC2-2BE7-4F98-87E3-312363AABBF0}"/>
+    <hyperlink ref="C216" r:id="rId787" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{BBF4433A-FC7E-4E0D-81E5-7F103841B356}"/>
+    <hyperlink ref="E216" r:id="rId788" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{6DA55E32-C4AC-473A-BBA1-C11D4AAAE543}"/>
+    <hyperlink ref="I216" r:id="rId789" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{6683D265-FBF5-48AE-BA66-612729774241}"/>
+    <hyperlink ref="M216" r:id="rId790" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{D43F7781-2432-4CC2-9D88-E01EE9842705}"/>
+    <hyperlink ref="C217" r:id="rId791" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{F0197562-9584-4938-9D07-CF4A17F236A6}"/>
+    <hyperlink ref="E217" r:id="rId792" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A209A706-39D3-4B37-8940-B137AD21725D}"/>
+    <hyperlink ref="I217" r:id="rId793" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{93D260CF-FD62-4C7F-9A2F-391A9956357E}"/>
+    <hyperlink ref="M217" r:id="rId794" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{10049BBF-318C-4FD1-8457-2EBFE1BD71D3}"/>
+    <hyperlink ref="C218" r:id="rId795" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{A3B656A7-5486-4807-A7E7-6907261EE9FB}"/>
+    <hyperlink ref="E218" r:id="rId796" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{72B58089-BD7B-457A-8B37-84D81E49DC2B}"/>
+    <hyperlink ref="I218" r:id="rId797" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{44C84B6C-0C5E-4571-A96F-D57E24687F21}"/>
+    <hyperlink ref="M218" r:id="rId798" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{043248B9-6FE4-4999-BACB-CA1D929C241C}"/>
+    <hyperlink ref="C219" r:id="rId799" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{92486F3E-0937-453D-9981-7F76CE3853CC}"/>
+    <hyperlink ref="E219" r:id="rId800" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{4D4254D6-BA47-4A84-BAA9-CF15B5111E8B}"/>
+    <hyperlink ref="I219" r:id="rId801" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D6B31447-81A7-4073-8D4C-77EFD52690B3}"/>
+    <hyperlink ref="M219" r:id="rId802" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{DF0D32D5-FF21-4BBE-8A7B-6173BDF3AE58}"/>
+    <hyperlink ref="C220" r:id="rId803" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{DDF7DFB1-83D9-499B-BB52-8FD6F8EDD7FD}"/>
+    <hyperlink ref="E220" r:id="rId804" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7A3954BC-CCD6-4008-A3D3-6297B13E8CB5}"/>
+    <hyperlink ref="I220" r:id="rId805" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{E2FBB033-CE37-4D1C-8107-45086D24FB2B}"/>
+    <hyperlink ref="M220" r:id="rId806" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{50CAF598-700A-4613-90C9-81DC9B20E512}"/>
+    <hyperlink ref="C221" r:id="rId807" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{2975F026-3B3A-42F5-A6E9-273B2D39325C}"/>
+    <hyperlink ref="E221" r:id="rId808" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{9B8A088F-02AB-4CBA-8F01-49A7F4A1A16F}"/>
+    <hyperlink ref="I221" r:id="rId809" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{86D47C5F-1C38-4617-A6A4-4A08512BE0AD}"/>
+    <hyperlink ref="M221" r:id="rId810" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{3D9E8EB2-327F-43F9-90AB-DA1541A9C330}"/>
+    <hyperlink ref="C223" r:id="rId811" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{564399F8-0B78-45B4-B77B-864037A05A9C}"/>
+    <hyperlink ref="E223" r:id="rId812" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B6985DEC-9BE8-4AD0-A2C5-BC5F3D52C685}"/>
+    <hyperlink ref="I223" r:id="rId813" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{05F2981D-D012-42E0-9C0C-A08AA6611BF9}"/>
+    <hyperlink ref="M223" r:id="rId814" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{D8A1CC9F-16F7-490F-B1B2-840BCA43C366}"/>
+    <hyperlink ref="C224" r:id="rId815" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{10905B03-2844-4184-B7C0-B91E1A7655DD}"/>
+    <hyperlink ref="E224" r:id="rId816" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{E79409AD-4E38-4F45-9D27-1D066D17E709}"/>
+    <hyperlink ref="I224" r:id="rId817" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{6F274021-56C5-4940-9E81-4A85EFEA1D81}"/>
+    <hyperlink ref="M224" r:id="rId818" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{F9869C7A-A5A0-4C1B-ADE6-2C64CEBD9170}"/>
+    <hyperlink ref="C225" r:id="rId819" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{FD805386-9165-461B-AAB7-86CCEE073218}"/>
+    <hyperlink ref="E225" r:id="rId820" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{47F3E6D9-B1B8-4E56-B800-8AF020DEA63F}"/>
+    <hyperlink ref="I225" r:id="rId821" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{375B2D81-15C8-4D5A-A842-A71F694545A7}"/>
+    <hyperlink ref="M225" r:id="rId822" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{73A5CD1B-485A-43C3-8395-F2F0EB1A9252}"/>
+    <hyperlink ref="C226" r:id="rId823" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{081CABD9-BF8A-4F65-857F-AE8064CEAAD2}"/>
+    <hyperlink ref="E226" r:id="rId824" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{FE84F9B9-7B8F-4A85-B374-3C6E686BB223}"/>
+    <hyperlink ref="I226" r:id="rId825" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{0E9DBC24-8449-4E37-BDEC-77854967CF10}"/>
+    <hyperlink ref="M226" r:id="rId826" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{F37999A5-54A9-4200-B291-B3918E303117}"/>
+    <hyperlink ref="C227" r:id="rId827" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{4DF19A01-9BEE-4677-8174-AA282E11ED9F}"/>
+    <hyperlink ref="E227" r:id="rId828" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F2360C2D-79B7-4A86-BBD7-A47411A0BB82}"/>
+    <hyperlink ref="I227" r:id="rId829" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9F218D09-36F5-4DC6-A378-F802565272A4}"/>
+    <hyperlink ref="M227" r:id="rId830" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{C77C8206-32BF-4E4A-9272-81D17B9A9B2C}"/>
+    <hyperlink ref="C228" r:id="rId831" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{A74F2982-F45E-4AE5-9B47-3ABD6CFBA1E3}"/>
+    <hyperlink ref="E228" r:id="rId832" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D2FBE5D7-F1EF-465C-A10D-E082790F3D02}"/>
+    <hyperlink ref="I228" r:id="rId833" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4E52F2AB-6894-431B-B843-643724E48722}"/>
+    <hyperlink ref="M228" r:id="rId834" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{65227056-7CC4-4901-8101-FE5E798A28BE}"/>
+    <hyperlink ref="C229" r:id="rId835" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{7924B7ED-CC93-4E3E-BB51-0634C0859C5D}"/>
+    <hyperlink ref="E229" r:id="rId836" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{39FBCFDA-C789-48AA-8D70-A5809E8136F4}"/>
+    <hyperlink ref="I229" r:id="rId837" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{620055B1-A039-4267-AE04-F5056E14F447}"/>
+    <hyperlink ref="M229" r:id="rId838" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{E05AA971-D9AB-42E2-A6D5-36DC99E61CB8}"/>
+    <hyperlink ref="C230" r:id="rId839" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{1A2F238D-2E5D-4BAA-9B78-F35F52173DB3}"/>
+    <hyperlink ref="E230" r:id="rId840" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{63831E8C-DABF-4098-A19D-E4DE97699458}"/>
+    <hyperlink ref="I230" r:id="rId841" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{3AFA24D7-1308-4A57-93D5-F06DC2156B70}"/>
+    <hyperlink ref="M230" r:id="rId842" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{4FF9ECA5-5E62-4785-9E99-F30EA5D4DB64}"/>
+    <hyperlink ref="C231" r:id="rId843" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{3BD2A280-510B-4EF6-9662-400CCE954398}"/>
+    <hyperlink ref="E231" r:id="rId844" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{791C6CCE-CCEA-4987-A336-B81D943F0E18}"/>
+    <hyperlink ref="I231" r:id="rId845" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{4FC2FC30-AB68-4697-912D-30A2918E025C}"/>
+    <hyperlink ref="M231" r:id="rId846" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{36E62C5A-22F9-4D34-ACA0-CBC0F1746F88}"/>
+    <hyperlink ref="C232" r:id="rId847" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{471DFE7D-BEF0-462A-ACDF-8AF9335ECA65}"/>
+    <hyperlink ref="E232" r:id="rId848" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0D0ED41C-D798-4BFE-B824-BBE17B583B5B}"/>
+    <hyperlink ref="I232" r:id="rId849" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{424BAFB1-45BC-439E-8B0C-8E3D1E3AFDF1}"/>
+    <hyperlink ref="M232" r:id="rId850" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{26D69776-738E-4CAF-8A53-C2DD8A2160FD}"/>
+    <hyperlink ref="C234" r:id="rId851" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{E03661F0-9EBA-4163-B7A8-9DE14D4A2F8F}"/>
+    <hyperlink ref="E234" r:id="rId852" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{78FDB78B-2CB3-48C5-824A-B526ED7E397D}"/>
+    <hyperlink ref="I234" r:id="rId853" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{BF48DEEE-064F-4AEF-8B94-D5B41BB6C683}"/>
+    <hyperlink ref="M234" r:id="rId854" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{274A1DBD-1F4E-46D0-9920-D79F8198523D}"/>
+    <hyperlink ref="C235" r:id="rId855" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{9A58F002-6262-4852-8E53-5A371357D6CE}"/>
+    <hyperlink ref="E235" r:id="rId856" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{DEDD57C3-3D8E-43FF-920F-C935E830E1D5}"/>
+    <hyperlink ref="I235" r:id="rId857" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{E170A911-50AD-4A53-A18A-F5F9DDE3F1B8}"/>
+    <hyperlink ref="M235" r:id="rId858" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{6D9BD297-D1CD-4B7F-8D92-20A3D3CCA429}"/>
+    <hyperlink ref="C236" r:id="rId859" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{304201DB-6C44-4810-A2E5-5C0C573F1846}"/>
+    <hyperlink ref="E236" r:id="rId860" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{0AC80522-116A-4405-B516-A2AB859E5D57}"/>
+    <hyperlink ref="I236" r:id="rId861" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{0EF6A277-DF25-4AE4-908A-F86E6D959B12}"/>
+    <hyperlink ref="M236" r:id="rId862" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{53C0EAA5-C2AD-42F0-9B96-1465B3052183}"/>
+    <hyperlink ref="C237" r:id="rId863" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{8F3DF5DE-5714-421F-A985-885FCF252F6E}"/>
+    <hyperlink ref="E237" r:id="rId864" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{45DD79C3-A6A9-44FC-9247-5D71F45B6A58}"/>
+    <hyperlink ref="I237" r:id="rId865" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{089885E7-BC2E-4C47-9569-B91583D00D6A}"/>
+    <hyperlink ref="M237" r:id="rId866" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{F1629C62-29C5-4C02-AD5B-6CD02E97AB61}"/>
+    <hyperlink ref="C238" r:id="rId867" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{CB464A96-9550-4FA1-9A43-0042F598444F}"/>
+    <hyperlink ref="E238" r:id="rId868" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{70FCC3F8-EC07-4A4B-ADA3-973CBE2DE316}"/>
+    <hyperlink ref="I238" r:id="rId869" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E87B7837-8878-480D-B021-7E5979221261}"/>
+    <hyperlink ref="M238" r:id="rId870" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{690D0F38-7883-4489-88E5-2E10015A13E4}"/>
+    <hyperlink ref="C239" r:id="rId871" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{35C6950F-F7B3-4508-AB7C-F9D8AF371B0C}"/>
+    <hyperlink ref="E239" r:id="rId872" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D823E03C-2E61-4B14-8EBF-528A2E7C87ED}"/>
+    <hyperlink ref="I239" r:id="rId873" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{73B9FCCC-CC97-4DB2-AE99-AB62ACF9283F}"/>
+    <hyperlink ref="M239" r:id="rId874" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{C767227F-E2C8-45BA-A76A-15209D8E972C}"/>
+    <hyperlink ref="C240" r:id="rId875" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{DB7EF732-D8B9-4ED8-8668-7A9AC3724BB0}"/>
+    <hyperlink ref="E240" r:id="rId876" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{338BBB31-4032-4919-A134-F11799D9E466}"/>
+    <hyperlink ref="I240" r:id="rId877" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0EAC6C1A-C746-4115-AE4F-A9C11E947A17}"/>
+    <hyperlink ref="M240" r:id="rId878" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{B6CEC079-8DAA-4338-B337-B59B880EC46F}"/>
+    <hyperlink ref="C241" r:id="rId879" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{F56D74A3-3A24-4C49-AB24-68242BA59704}"/>
+    <hyperlink ref="E241" r:id="rId880" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1DEDB05D-5102-4840-B31F-B46190793147}"/>
+    <hyperlink ref="I241" r:id="rId881" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2ECD0E80-57C1-4FC5-A45A-22961D55D35F}"/>
+    <hyperlink ref="M241" r:id="rId882" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{C6593C6E-2CB5-41C2-8E8A-2A5B490139C9}"/>
+    <hyperlink ref="C242" r:id="rId883" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{85F906ED-C0F3-4859-A4F0-5F20ACE31621}"/>
+    <hyperlink ref="E242" r:id="rId884" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{9EA21D0D-D5BF-460C-814A-E0BE29D1AF72}"/>
+    <hyperlink ref="I242" r:id="rId885" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{4874987F-1DB0-4935-8161-3CFCB8C3B656}"/>
+    <hyperlink ref="M242" r:id="rId886" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{85F19EDF-17C3-447E-B453-018BA48448F5}"/>
+    <hyperlink ref="C243" r:id="rId887" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{98EFB3D2-43A9-4EDA-B681-BDABD10D9A1A}"/>
+    <hyperlink ref="E243" r:id="rId888" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B20A3373-526C-46C4-BB92-FA9D5871E7DD}"/>
+    <hyperlink ref="I243" r:id="rId889" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7767D1FA-C04F-4EF5-B407-2E27AD83D15C}"/>
+    <hyperlink ref="M243" r:id="rId890" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{DEB54A54-C18F-4734-ADDC-108F10CA970E}"/>
+    <hyperlink ref="C245" r:id="rId891" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{A46D5CC0-5CBF-49D5-B657-E113335DD4F2}"/>
+    <hyperlink ref="E245" r:id="rId892" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{21AE3CDC-7554-4723-B0FF-6FA2078A86CC}"/>
+    <hyperlink ref="I245" r:id="rId893" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{08FC62C9-21BD-4EEB-988C-8F2CF1409988}"/>
+    <hyperlink ref="M245" r:id="rId894" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{A6C1ED8B-3772-4708-A6B4-44A17806989B}"/>
+    <hyperlink ref="C246" r:id="rId895" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{0D275B88-CD99-4A2A-917F-414F37B26C3E}"/>
+    <hyperlink ref="E246" r:id="rId896" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{A49B4BEA-A5F5-476C-9E13-273BA2E2F0AB}"/>
+    <hyperlink ref="I246" r:id="rId897" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{41426481-99A1-4A6C-8348-11AB77E0E764}"/>
+    <hyperlink ref="M246" r:id="rId898" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{694ED5AF-2023-4EF9-A8CA-F2C968C32C1E}"/>
+    <hyperlink ref="C247" r:id="rId899" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{41339E41-C366-4C35-930A-06703C472455}"/>
+    <hyperlink ref="E247" r:id="rId900" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{5F31D48C-3313-42A8-AFF1-CC2AFD287B5F}"/>
+    <hyperlink ref="I247" r:id="rId901" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{CEBBFF64-B1C6-4EF3-BA83-647CC66776BB}"/>
+    <hyperlink ref="M247" r:id="rId902" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{7CB84334-6700-4F93-BCB8-7FF4CBAAD86C}"/>
+    <hyperlink ref="C248" r:id="rId903" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{B5637867-3CE0-4073-97D4-407654E901BD}"/>
+    <hyperlink ref="E248" r:id="rId904" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{A11ADB5E-71A6-4F74-9DCD-DB429F0C3469}"/>
+    <hyperlink ref="I248" r:id="rId905" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{8D2A020F-3D5F-4252-A1DE-FA15C2C7138C}"/>
+    <hyperlink ref="M248" r:id="rId906" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{891EA160-8AF5-4FD6-99CF-4941E5251745}"/>
+    <hyperlink ref="C249" r:id="rId907" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{39FD79C7-E5C9-417D-B3DB-82C0D54FEAA1}"/>
+    <hyperlink ref="E249" r:id="rId908" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{14211B1F-22A6-4DAF-8797-1AD9787FAB44}"/>
+    <hyperlink ref="I249" r:id="rId909" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4E9249CF-9BDA-4EAE-BAEC-33B0C8B159FB}"/>
+    <hyperlink ref="M249" r:id="rId910" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{306B96E1-9E9B-41BB-9BC1-236F9104489B}"/>
+    <hyperlink ref="C250" r:id="rId911" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{B9C7C006-DF54-4DD2-BF24-61E844D59490}"/>
+    <hyperlink ref="E250" r:id="rId912" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{63B0F5B1-6334-4A09-A604-E2B4AD1CCCF7}"/>
+    <hyperlink ref="I250" r:id="rId913" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{99E807A5-032B-4B0B-9E60-47C89B3F3283}"/>
+    <hyperlink ref="M250" r:id="rId914" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{097621A4-A72A-41C3-BD10-BFC3153DD5F8}"/>
+    <hyperlink ref="C251" r:id="rId915" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{4A1671B1-04BC-4568-8FC4-715F5AC58FB7}"/>
+    <hyperlink ref="E251" r:id="rId916" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{3C28B03B-7EDF-47C6-ABB2-678C07840F6C}"/>
+    <hyperlink ref="I251" r:id="rId917" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{553EBE23-CC1F-4F04-9554-08EBFA2A5B5F}"/>
+    <hyperlink ref="M251" r:id="rId918" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{098CD679-3CBE-468E-8F38-C15D99FE9E6C}"/>
+    <hyperlink ref="C252" r:id="rId919" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{7E41F2A4-71F1-4F39-9A70-11B902B9A608}"/>
+    <hyperlink ref="E252" r:id="rId920" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{C3116C5E-9292-43B0-A8AE-C0B314E236B9}"/>
+    <hyperlink ref="I252" r:id="rId921" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B248C6FB-2F79-4EF8-9BFA-45E8FB0EB662}"/>
+    <hyperlink ref="M252" r:id="rId922" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{919C7C90-F110-4A14-88EC-68CC26C910BA}"/>
+    <hyperlink ref="C253" r:id="rId923" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{A4B9586F-0428-4D1F-9246-7B0C0754E48C}"/>
+    <hyperlink ref="E253" r:id="rId924" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B9628CDA-C9AB-47E1-BDE2-57C063BA8EFA}"/>
+    <hyperlink ref="I253" r:id="rId925" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{09720D0E-4C62-4133-B80F-1C4C44F8F31D}"/>
+    <hyperlink ref="M253" r:id="rId926" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{7CBB16B6-71DC-4903-9ED5-AE9F289FFAA0}"/>
+    <hyperlink ref="C254" r:id="rId927" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{9D34A729-9124-48FB-9D3D-D4568EEB438C}"/>
+    <hyperlink ref="E254" r:id="rId928" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{58A15C1D-8BAC-49CB-B2B8-C476787DE0D2}"/>
+    <hyperlink ref="I254" r:id="rId929" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{9C0CC3A2-F986-4124-A571-FC7B5678FD51}"/>
+    <hyperlink ref="M254" r:id="rId930" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{E89CC141-24BF-4A8C-9E5D-15C8DFE9D302}"/>
+    <hyperlink ref="C256" r:id="rId931" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{A236A87C-7B57-4B42-B477-4086A5D0FED1}"/>
+    <hyperlink ref="E256" r:id="rId932" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D28C6A79-92A0-417C-8E84-0649A3F54623}"/>
+    <hyperlink ref="I256" r:id="rId933" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F3BE21EE-60DC-4B8D-AF36-24F819D191ED}"/>
+    <hyperlink ref="M256" r:id="rId934" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{95A834F5-EF5D-40DA-995F-73D64CFF2735}"/>
+    <hyperlink ref="C257" r:id="rId935" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{310A361D-1260-438D-A678-ABF5987588E6}"/>
+    <hyperlink ref="E257" r:id="rId936" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{FD1FAC1D-34D6-4103-AAA3-B15778E49088}"/>
+    <hyperlink ref="I257" r:id="rId937" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A5A5E5A3-B87E-4591-80DD-33308495F4E1}"/>
+    <hyperlink ref="M257" r:id="rId938" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{B8D6375E-1FC1-4586-9235-B5A7907DED31}"/>
+    <hyperlink ref="C258" r:id="rId939" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{7E185473-F377-4615-8FDA-167119DAAE97}"/>
+    <hyperlink ref="E258" r:id="rId940" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{D6FF7FD8-5791-48FC-BA26-A6833909CD0A}"/>
+    <hyperlink ref="I258" r:id="rId941" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{D33210AA-0CF5-46DA-B690-498B811911F6}"/>
+    <hyperlink ref="M258" r:id="rId942" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{1CB175D3-0262-406B-9039-B0A35E8EAD36}"/>
+    <hyperlink ref="C259" r:id="rId943" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{0D8CC7A1-6E17-463D-AB7A-FFFE3E2D042E}"/>
+    <hyperlink ref="E259" r:id="rId944" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E29B5435-2EB2-4920-BDEC-B297F6056073}"/>
+    <hyperlink ref="I259" r:id="rId945" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{0B29D8DE-5B38-462E-94FE-5F689BFDC6D4}"/>
+    <hyperlink ref="M259" r:id="rId946" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{C6665C0C-3497-4CC7-9175-427C2C8598B3}"/>
+    <hyperlink ref="C260" r:id="rId947" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{EE47C529-8E93-49D8-BFA0-FD245F9A472E}"/>
+    <hyperlink ref="E260" r:id="rId948" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{97F69CA2-FD38-4538-AB55-1F2FBE23E281}"/>
+    <hyperlink ref="I260" r:id="rId949" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{6DED53F1-98B5-4C3A-B983-A7F81F68E99A}"/>
+    <hyperlink ref="M260" r:id="rId950" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{1D9806D5-060C-42BA-8653-E9ECC0E8C12D}"/>
+    <hyperlink ref="C261" r:id="rId951" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{FE3337CA-AE93-482C-9807-716114480FEB}"/>
+    <hyperlink ref="E261" r:id="rId952" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{049F96EC-57A1-4EB4-90CD-EEECBB168EB8}"/>
+    <hyperlink ref="I261" r:id="rId953" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{175119D2-995C-4277-A990-3B9FE540C802}"/>
+    <hyperlink ref="M261" r:id="rId954" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{DD54871F-F219-41B3-B2CC-A8EA58833F77}"/>
+    <hyperlink ref="C262" r:id="rId955" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{B4AEB787-0C19-4CF0-A90E-1499C8461F51}"/>
+    <hyperlink ref="E262" r:id="rId956" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{06946904-7098-4A8B-9F0B-7C5E7FDF7253}"/>
+    <hyperlink ref="I262" r:id="rId957" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{E5CC76BA-EAEB-4DD7-977D-0F193E3A9365}"/>
+    <hyperlink ref="M262" r:id="rId958" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{A4A7C85A-E87A-446A-B3A5-B2E8B8FB1C80}"/>
+    <hyperlink ref="C263" r:id="rId959" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{88886D47-1396-4806-B0EE-79A35884160E}"/>
+    <hyperlink ref="E263" r:id="rId960" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{33925327-77F8-4743-976E-AFB2589EEA8B}"/>
+    <hyperlink ref="I263" r:id="rId961" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{16D7903A-563C-4907-B81F-DE9D6EF6AA7A}"/>
+    <hyperlink ref="M263" r:id="rId962" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{2544F819-2060-4093-9468-36FE2CC7821B}"/>
+    <hyperlink ref="C264" r:id="rId963" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{D2B1AE56-C676-45B2-A7A4-8AE953A925FD}"/>
+    <hyperlink ref="E264" r:id="rId964" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{B41405EC-65B2-4B50-8FAD-846F90D4074C}"/>
+    <hyperlink ref="I264" r:id="rId965" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{E56696B1-DDC9-4C4B-A2FC-570236BEEE7D}"/>
+    <hyperlink ref="M264" r:id="rId966" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{B06136E5-343D-4621-A32F-15EFDC63DDA4}"/>
+    <hyperlink ref="C265" r:id="rId967" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{EDFF63C3-2148-47B4-A921-63A63CE551C0}"/>
+    <hyperlink ref="E265" r:id="rId968" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{064FCEA2-2050-4D78-B948-767AA4A49CAD}"/>
+    <hyperlink ref="I265" r:id="rId969" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{9DAE596F-92A0-4250-B8CB-E53F5D608296}"/>
+    <hyperlink ref="M265" r:id="rId970" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{45FE0FAF-29BA-4469-9719-7A0B924AC8A7}"/>
+    <hyperlink ref="C267" r:id="rId971" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{F3B80030-F675-45AC-85F6-DB28BCD8C1B3}"/>
+    <hyperlink ref="E267" r:id="rId972" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{023C2ED2-C064-4A7E-BD52-231314C65085}"/>
+    <hyperlink ref="I267" r:id="rId973" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{750A32B9-B0B5-4885-8928-89C374E7F728}"/>
+    <hyperlink ref="M267" r:id="rId974" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{FFEDB940-A43D-4F8B-A077-6F5CBF0AC9B9}"/>
+    <hyperlink ref="C268" r:id="rId975" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{F088DC80-343A-4C4D-A141-BF00DB780DC2}"/>
+    <hyperlink ref="E268" r:id="rId976" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{E81ED626-C84A-4909-A99C-00DA557A8A73}"/>
+    <hyperlink ref="I268" r:id="rId977" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C9C026F6-3FE8-47C5-BFF8-D2F9C73D1C9E}"/>
+    <hyperlink ref="M268" r:id="rId978" display="https://fbref.com/en/stathead/matchup/squads/943e8050/822bd0ba/Burnley-vs-Liverpool-History" xr:uid="{AAE57E2A-1FD6-478E-B71B-91E28E3DE851}"/>
+    <hyperlink ref="C269" r:id="rId979" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{EB7D8481-1CD2-41FF-8C8E-B579F6267C27}"/>
+    <hyperlink ref="E269" r:id="rId980" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{98E9F4B3-30BD-4D2C-A8A1-889FCAF70F63}"/>
+    <hyperlink ref="I269" r:id="rId981" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{219B8D10-86C0-4659-A836-B345DEF2DC6A}"/>
+    <hyperlink ref="M269" r:id="rId982" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{EE2C872A-9891-41C8-8EA6-1CF5B2DA9943}"/>
+    <hyperlink ref="C270" r:id="rId983" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{11BB9BCC-C3AE-4272-AC59-5182CAA03A5F}"/>
+    <hyperlink ref="E270" r:id="rId984" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{D2DB683A-84EC-4CD0-A4C4-25F8F2CE8D26}"/>
+    <hyperlink ref="I270" r:id="rId985" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{CCDE8B19-F951-4431-A525-362609AC2EF9}"/>
+    <hyperlink ref="M270" r:id="rId986" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{6416561E-D157-4F88-B249-007F11283614}"/>
+    <hyperlink ref="C271" r:id="rId987" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{A2909975-BA8E-4A63-A4A1-23617F4110CC}"/>
+    <hyperlink ref="E271" r:id="rId988" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5C4ECCA4-15E1-4D95-A12D-884ACDBF20F1}"/>
+    <hyperlink ref="I271" r:id="rId989" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{7072FAFB-1AF9-4874-BBAD-9A6C086F24D7}"/>
+    <hyperlink ref="M271" r:id="rId990" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/5bfb9659/Everton-vs-Leeds-United-History" xr:uid="{ABCA1D4C-FF7C-4C10-9912-916061F5E6AD}"/>
+    <hyperlink ref="C272" r:id="rId991" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{BD13D9A5-1772-4807-B895-69C25A57EEAC}"/>
+    <hyperlink ref="E272" r:id="rId992" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{5769F39E-9FDB-4F48-B8C9-D662C3BC89D2}"/>
+    <hyperlink ref="I272" r:id="rId993" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{700355F7-4D06-4C31-A337-08030A8FC165}"/>
+    <hyperlink ref="M272" r:id="rId994" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8602292d/Newcastle-United-vs-Aston-Villa-History" xr:uid="{0A3D7813-B037-4384-8788-D0EA03B26C28}"/>
+    <hyperlink ref="C273" r:id="rId995" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{03D6C370-1D78-4BE2-A501-9905F4CB35CE}"/>
+    <hyperlink ref="E273" r:id="rId996" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B786280A-9098-4D77-93DB-136592F20886}"/>
+    <hyperlink ref="I273" r:id="rId997" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{07BFBEF1-9A16-45D7-BDD2-30F250366630}"/>
+    <hyperlink ref="M273" r:id="rId998" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{B94F4759-19F1-4F30-9A7A-8E16DD2BD003}"/>
+    <hyperlink ref="C274" r:id="rId999" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{E406789C-A4E9-4066-B007-76EC32CAB064}"/>
+    <hyperlink ref="E274" r:id="rId1000" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C47E5389-8DE0-48E7-938B-F01771136445}"/>
+    <hyperlink ref="I274" r:id="rId1001" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{4D58BDBD-A17A-41B1-A027-748B25E4AAFA}"/>
+    <hyperlink ref="M274" r:id="rId1002" display="https://fbref.com/en/stathead/matchup/squads/cd051869/47c64c55/Brentford-vs-Crystal-Palace-History" xr:uid="{82F0F09D-5EB6-4AD3-91EA-6BDFE3950A5D}"/>
+    <hyperlink ref="C275" r:id="rId1003" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{C84B05B9-400D-41E3-A17C-2158DD4AD4D7}"/>
+    <hyperlink ref="E275" r:id="rId1004" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{B7CB835F-6EBE-4165-A0CD-806D2A742D46}"/>
+    <hyperlink ref="I275" r:id="rId1005" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E2D913A5-047D-4C8E-AFEB-8686740B9358}"/>
+    <hyperlink ref="M275" r:id="rId1006" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/1c781004/Manchester-City-vs-Norwich-City-History" xr:uid="{83B51103-22E0-4B6D-A0FB-24BF6211EA20}"/>
+    <hyperlink ref="C276" r:id="rId1007" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{B67187C3-C542-4D53-A91D-CFD00DBAEB51}"/>
+    <hyperlink ref="E276" r:id="rId1008" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{9F9F38D2-49C9-409C-9A78-3E75C6AADD4F}"/>
+    <hyperlink ref="I276" r:id="rId1009" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{3CEE9428-6162-4307-851D-CE1CA2E99496}"/>
+    <hyperlink ref="M276" r:id="rId1010" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/2abfe087/Brighton-and-Hove-Albion-vs-Watford-History" xr:uid="{0A5CE1B8-BD0E-4603-A3BA-1C5783F4CC83}"/>
+    <hyperlink ref="C278" r:id="rId1011" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{146E12E3-1FD6-478F-AC5C-99C98A7C793E}"/>
+    <hyperlink ref="E278" r:id="rId1012" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2C8F7F2F-DC16-4A4B-82D6-0DC0DE8872F6}"/>
+    <hyperlink ref="I278" r:id="rId1013" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CA404EE5-BB7F-422D-A66F-4396237F8CA3}"/>
+    <hyperlink ref="M278" r:id="rId1014" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/19538871/Leeds-United-vs-Manchester-United-History" xr:uid="{0827A366-882D-4C39-B6BD-6772BE311D88}"/>
+    <hyperlink ref="C279" r:id="rId1015" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{4CD4E254-EEC8-4AB8-9DD6-6CC1CEBC25C4}"/>
+    <hyperlink ref="E279" r:id="rId1016" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8DC33FBA-6CD6-4AAD-BF45-56B75F7A65AB}"/>
+    <hyperlink ref="I279" r:id="rId1017" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0AE25672-E35D-471C-8352-6075C5B95032}"/>
+    <hyperlink ref="M279" r:id="rId1018" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/33c895d4/Everton-vs-Southampton-History" xr:uid="{D3D896C6-4DD6-4CCD-ABB3-8ECC25DF03AB}"/>
+    <hyperlink ref="C280" r:id="rId1019" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{D31A0A4E-D2AD-4B0A-BC0C-53D1B0051653}"/>
+    <hyperlink ref="E280" r:id="rId1020" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{626E7214-68D4-48FD-98D1-E9F3B1DA5DF7}"/>
+    <hyperlink ref="I280" r:id="rId1021" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9FE872C6-8CDE-43B5-86B7-38CBF263E607}"/>
+    <hyperlink ref="M280" r:id="rId1022" display="https://fbref.com/en/stathead/matchup/squads/cd051869/18bb7c10/Brentford-vs-Arsenal-History" xr:uid="{76293A0A-D480-45BA-8FDC-F8D669A38FE8}"/>
+    <hyperlink ref="C281" r:id="rId1023" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{7A7ED678-4642-4A30-97FA-76E6E885F325}"/>
+    <hyperlink ref="E281" r:id="rId1024" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{09E40C12-DC7A-41AB-867C-9C40C0FB863A}"/>
+    <hyperlink ref="I281" r:id="rId1025" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{9564DD1A-8CA6-4116-A3DF-2DABDEE0CFE0}"/>
+    <hyperlink ref="M281" r:id="rId1026" display="https://fbref.com/en/stathead/matchup/squads/8602292d/2abfe087/Aston-Villa-vs-Watford-History" xr:uid="{9ACDDE44-08FA-49E3-BB01-CE0B16FF5CB1}"/>
+    <hyperlink ref="C282" r:id="rId1027" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{73B91ED5-2C23-41E1-983D-F6D683D86C78}"/>
+    <hyperlink ref="E282" r:id="rId1028" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{58689A7B-B00C-4095-9DBE-392B384EFFB8}"/>
+    <hyperlink ref="I282" r:id="rId1029" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{D49B4525-2590-455A-AED8-26E82A5A9EF6}"/>
+    <hyperlink ref="M282" r:id="rId1030" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/361ca564/Manchester-City-vs-Tottenham-Hotspur-History" xr:uid="{73D15429-F8A2-4828-9965-CF52F3843937}"/>
+    <hyperlink ref="C283" r:id="rId1031" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{684AF49F-1DF9-44E1-8BE4-8A6920DB1C56}"/>
+    <hyperlink ref="E283" r:id="rId1032" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{28273B0A-A3F2-4874-908F-0F06C3E8CE5D}"/>
+    <hyperlink ref="I283" r:id="rId1033" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{14F22515-91CB-4E54-9123-705C4416C2E3}"/>
+    <hyperlink ref="M283" r:id="rId1034" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/1c781004/Liverpool-vs-Norwich-City-History" xr:uid="{326642A3-DCD9-43C8-A0D6-F0548B37D6A0}"/>
+    <hyperlink ref="C284" r:id="rId1035" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{CDE88E6A-9F0A-4AC4-91B6-75C056BE0800}"/>
+    <hyperlink ref="E284" r:id="rId1036" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{075C6CE5-D40B-4613-A6EF-56B553AEC088}"/>
+    <hyperlink ref="I284" r:id="rId1037" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{3CA00CC7-2860-4570-934E-F5BDDD2F61BD}"/>
+    <hyperlink ref="M284" r:id="rId1038" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/47c64c55/Chelsea-vs-Crystal-Palace-History" xr:uid="{422D3937-38C4-46D8-9739-40C659E8AB14}"/>
+    <hyperlink ref="C285" r:id="rId1039" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{E6A6717A-65C6-4137-9EFC-2E147432A4C9}"/>
+    <hyperlink ref="E285" r:id="rId1040" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F32D976B-0D5E-44A1-8804-9AD90BB8183F}"/>
+    <hyperlink ref="I285" r:id="rId1041" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{810B6432-5DD2-4791-BAA1-E296D3A0690A}"/>
+    <hyperlink ref="M285" r:id="rId1042" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/7c21e445/Newcastle-United-vs-West-Ham-United-History" xr:uid="{134E15EA-ED7D-4A7A-8637-2612BE9F166E}"/>
+    <hyperlink ref="C286" r:id="rId1043" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{14A8EB0C-6D62-4829-8A29-1E616ABB23F6}"/>
+    <hyperlink ref="E286" r:id="rId1044" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{854DAA73-9EFD-485D-A879-FD3C13507A57}"/>
+    <hyperlink ref="I286" r:id="rId1045" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{C1E321BB-E52B-4C6B-983E-09C70E3A1A04}"/>
+    <hyperlink ref="M286" r:id="rId1046" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8cec06e1/Leicester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{150B5C10-47B2-4920-998E-B24FAE695323}"/>
+    <hyperlink ref="C287" r:id="rId1047" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{7E241596-6666-4095-8E09-EC728485CD21}"/>
+    <hyperlink ref="E287" r:id="rId1048" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E2644C41-CC81-4744-B274-C5E8F720D80A}"/>
+    <hyperlink ref="I287" r:id="rId1049" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{7F8D341E-699E-44F2-8147-100D78C38B7F}"/>
+    <hyperlink ref="M287" r:id="rId1050" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/943e8050/Brighton-and-Hove-Albion-vs-Burnley-History" xr:uid="{EE62E2E9-73BC-4372-8A38-9724E0325293}"/>
+    <hyperlink ref="C289" r:id="rId1051" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{E764A4B6-0B0C-4FD7-BAB7-1FFD469C1C61}"/>
+    <hyperlink ref="E289" r:id="rId1052" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{CA0E205E-7EBB-4FCF-8802-F7EE8D461860}"/>
+    <hyperlink ref="I289" r:id="rId1053" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{A70F23A2-7F17-4EFC-B176-B6AF12A79F0C}"/>
+    <hyperlink ref="M289" r:id="rId1054" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{1E4FCC0C-8EDA-4986-A103-22AD409E977A}"/>
+    <hyperlink ref="C290" r:id="rId1055" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{22F9D3F8-AC32-40FB-ABE1-21EA430D98CF}"/>
+    <hyperlink ref="E290" r:id="rId1056" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E6926A2B-CD96-4391-8FBF-6775CE09EE94}"/>
+    <hyperlink ref="I290" r:id="rId1057" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A368B136-2DA5-4852-B795-04AC775B5AAA}"/>
+    <hyperlink ref="M290" r:id="rId1058" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{957B1CF4-796D-4414-B3DE-09DBBCFD4F02}"/>
+    <hyperlink ref="C291" r:id="rId1059" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{B70F4F76-7372-46BD-B497-B4652D5641C8}"/>
+    <hyperlink ref="E291" r:id="rId1060" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{535A901F-755E-4848-8127-B5B940DDE978}"/>
+    <hyperlink ref="I291" r:id="rId1061" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{617CD481-D550-4BBB-B026-BBFEFCE0D242}"/>
+    <hyperlink ref="M291" r:id="rId1062" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{8386A043-BACA-426A-B69C-A841B34CE5FF}"/>
+    <hyperlink ref="C292" r:id="rId1063" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{4C3F5286-0702-4137-9A3E-0D32CD01615D}"/>
+    <hyperlink ref="E292" r:id="rId1064" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{A699B3B7-F5FB-400A-86BB-B36AF0E996E7}"/>
+    <hyperlink ref="I292" r:id="rId1065" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{E080B9A3-84B3-4B3B-84B7-D6378799683F}"/>
+    <hyperlink ref="M292" r:id="rId1066" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{9C51F6BA-70C0-43FB-ABD8-CF1D6B4E037E}"/>
+    <hyperlink ref="C293" r:id="rId1067" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{A078EA58-F3D1-45D4-81AA-1773D79C73DF}"/>
+    <hyperlink ref="E293" r:id="rId1068" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{FB3A2D83-D6C9-4BE9-9458-36916B3B2584}"/>
+    <hyperlink ref="I293" r:id="rId1069" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DD489B62-CC81-4415-9313-580DD990EFE4}"/>
+    <hyperlink ref="M293" r:id="rId1070" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{E5488FC7-56FF-404F-9EAD-9AEF791B9163}"/>
+    <hyperlink ref="C294" r:id="rId1071" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{6495707B-A8E4-4D9B-BC91-40ECA4188D72}"/>
+    <hyperlink ref="E294" r:id="rId1072" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{451062F0-7110-4D7D-9273-2F2CDB6AF505}"/>
+    <hyperlink ref="I294" r:id="rId1073" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{86D79011-7556-4468-A4BB-312A64D86FF3}"/>
+    <hyperlink ref="M294" r:id="rId1074" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{F71DB120-C835-40F0-A322-DA9A6068EF14}"/>
+    <hyperlink ref="C295" r:id="rId1075" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{FB2A9767-9C43-479D-B945-987C44398E00}"/>
+    <hyperlink ref="E295" r:id="rId1076" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{B3AE331F-7681-411B-8239-705880960CA6}"/>
+    <hyperlink ref="I295" r:id="rId1077" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{0EC81581-6C63-479A-A4F7-EFA66CA30520}"/>
+    <hyperlink ref="M295" r:id="rId1078" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{8A820A08-D047-44E3-B11E-A0130C2FD3C8}"/>
+    <hyperlink ref="C296" r:id="rId1079" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{D7ED9E00-3C1B-4C89-AB1A-E99C0E38A834}"/>
+    <hyperlink ref="E296" r:id="rId1080" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9D9EAA10-E4BC-42C3-A1C8-78033F32237E}"/>
+    <hyperlink ref="I296" r:id="rId1081" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{3F6E25BC-386F-4453-A09C-F54E872BAB8C}"/>
+    <hyperlink ref="M296" r:id="rId1082" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{C55176DA-7A7D-405E-B634-602075CD8EB4}"/>
+    <hyperlink ref="C297" r:id="rId1083" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{A3B9A8A6-AFED-48B6-801A-CA654B729D58}"/>
+    <hyperlink ref="E297" r:id="rId1084" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{EBF2D6F1-9604-454A-B985-E148EA24CDB7}"/>
+    <hyperlink ref="I297" r:id="rId1085" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{4EEBC3A6-E68C-4ACF-955B-AF8831B2B7D8}"/>
+    <hyperlink ref="M297" r:id="rId1086" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{6BEE9B94-51AB-4376-89F3-2C971A316531}"/>
+    <hyperlink ref="C298" r:id="rId1087" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{355A8F7E-A3F1-4611-82BD-6573CE6433DC}"/>
+    <hyperlink ref="E298" r:id="rId1088" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{03F36422-DD2B-4C8A-ACCB-5E16ADAA89C4}"/>
+    <hyperlink ref="I298" r:id="rId1089" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{AD05A588-7B45-4834-AFDD-55FEFF70E4C2}"/>
+    <hyperlink ref="M298" r:id="rId1090" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{CD7C0DBA-B743-4CED-AFEB-55F999665D95}"/>
+    <hyperlink ref="C300" r:id="rId1091" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{DF3482B6-A221-489C-BBA1-030A55B7E763}"/>
+    <hyperlink ref="E300" r:id="rId1092" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{00767940-A839-43B7-9A86-AD356C8EA248}"/>
+    <hyperlink ref="I300" r:id="rId1093" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{AA8F1532-D878-40B9-8DFE-8C4A9EDBE2F5}"/>
+    <hyperlink ref="M300" r:id="rId1094" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{1C894E03-FBB6-44B7-8716-F8E884A0BC3D}"/>
+    <hyperlink ref="C301" r:id="rId1095" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{B6A457B3-1C87-4B17-AF9D-1FDE865FEDE5}"/>
+    <hyperlink ref="E301" r:id="rId1096" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{1199FB81-28DE-4D84-AB3A-0E8678A6598E}"/>
+    <hyperlink ref="I301" r:id="rId1097" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{015460E4-24FD-46B4-B35E-294D15B7B1FC}"/>
+    <hyperlink ref="M301" r:id="rId1098" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{C198A32F-516B-4A62-9F9B-6861B96E7434}"/>
+    <hyperlink ref="C302" r:id="rId1099" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9F4D12C6-CBE9-4EE7-9513-7862E61306B9}"/>
+    <hyperlink ref="E302" r:id="rId1100" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{46254C84-31BA-4939-A2EB-111DD3071445}"/>
+    <hyperlink ref="I302" r:id="rId1101" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{3D356EBC-34A5-4851-BAD8-4D707D42BAEA}"/>
+    <hyperlink ref="M302" r:id="rId1102" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{0B662435-53C4-400F-BD41-EC02A33FAECA}"/>
+    <hyperlink ref="C303" r:id="rId1103" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9EB7F163-6BC9-4D70-94D8-CF79D07477AB}"/>
+    <hyperlink ref="E303" r:id="rId1104" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{864061B8-4451-4785-A667-DCB432CFEA19}"/>
+    <hyperlink ref="I303" r:id="rId1105" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4A991CD0-FBE3-465E-9D4B-9828DED5660B}"/>
+    <hyperlink ref="M303" r:id="rId1106" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{BB99116D-A0D6-40AC-8A9E-E6330D1F5136}"/>
+    <hyperlink ref="C304" r:id="rId1107" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{8E8FEB42-8891-4CA1-8C43-F36E7752267D}"/>
+    <hyperlink ref="E304" r:id="rId1108" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{872FD319-5CAA-4FA7-92BE-277D26D4DEF4}"/>
+    <hyperlink ref="I304" r:id="rId1109" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{AC6D48B4-F8F6-444C-B7F1-A365687E4B2B}"/>
+    <hyperlink ref="M304" r:id="rId1110" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{831D6FB8-E2E9-4A4F-AD7C-1B3A80F804D7}"/>
+    <hyperlink ref="C305" r:id="rId1111" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{AE422B03-BEBA-4661-B764-36DCFC764700}"/>
+    <hyperlink ref="E305" r:id="rId1112" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A95674E4-E85C-436C-8E28-EADDBB2F2CC9}"/>
+    <hyperlink ref="I305" r:id="rId1113" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{480916C7-1CE6-4A08-95A4-C9B4C8FFA307}"/>
+    <hyperlink ref="M305" r:id="rId1114" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{48E69361-20BC-47F3-8EE2-1AC0FBC33013}"/>
+    <hyperlink ref="C306" r:id="rId1115" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{6FDE6095-FCD8-490A-9AAE-D47D0CD24AC7}"/>
+    <hyperlink ref="E306" r:id="rId1116" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{2B727105-83B0-4138-82AF-FCAD093B518A}"/>
+    <hyperlink ref="I306" r:id="rId1117" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{263316CA-4094-4602-BB6A-F234183F3925}"/>
+    <hyperlink ref="M306" r:id="rId1118" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{8EC8596A-6F1E-41A0-940E-4DEA49EE59A4}"/>
+    <hyperlink ref="C307" r:id="rId1119" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9F016F24-C29A-4AD4-85B7-C0B5606B57E9}"/>
+    <hyperlink ref="E307" r:id="rId1120" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{91D75BC1-A817-4050-8C5F-DBB6884E6DEC}"/>
+    <hyperlink ref="I307" r:id="rId1121" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BC701D45-5A6C-43D6-9089-307CCF3B8E9B}"/>
+    <hyperlink ref="M307" r:id="rId1122" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{873BF299-4E98-444B-BF4A-9A95CDB820EC}"/>
+    <hyperlink ref="C308" r:id="rId1123" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{B6032529-7E03-4E12-AB4F-3D2211EA66F4}"/>
+    <hyperlink ref="E308" r:id="rId1124" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{84E9B5DD-2B65-4D2A-B7AD-FA6E726BDBEE}"/>
+    <hyperlink ref="I308" r:id="rId1125" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{58A29CA8-887F-43FF-905C-FCFD355D5EBB}"/>
+    <hyperlink ref="M308" r:id="rId1126" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{C07230B5-C911-48A2-839B-9BBDAA6A7EA2}"/>
+    <hyperlink ref="C309" r:id="rId1127" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{8AA1AE66-A08F-402D-8C0D-14374C349CC4}"/>
+    <hyperlink ref="E309" r:id="rId1128" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A67E2736-CD06-4982-9F33-87997BA75234}"/>
+    <hyperlink ref="I309" r:id="rId1129" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{4CA97622-1A96-4290-9745-416EE0DFF671}"/>
+    <hyperlink ref="M309" r:id="rId1130" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{F042AB4A-264D-47D3-AF4A-8A51A9C5326E}"/>
+    <hyperlink ref="C311" r:id="rId1131" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{BB655D56-ACDB-495D-B847-BA680B907608}"/>
+    <hyperlink ref="E311" r:id="rId1132" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{A0999B8C-32AD-46EE-B20D-6DB894ABBCE5}"/>
+    <hyperlink ref="I311" r:id="rId1133" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{976CE44D-B6E7-4D77-9726-27292566E64D}"/>
+    <hyperlink ref="M311" r:id="rId1134" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{B301545C-5268-4748-BE15-FD1EA37CD481}"/>
+    <hyperlink ref="C312" r:id="rId1135" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{62799074-5BBA-429B-8DEF-D688236DE5CB}"/>
+    <hyperlink ref="E312" r:id="rId1136" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{872879C5-FE9E-47A9-8A7A-CE3CCD70A19D}"/>
+    <hyperlink ref="I312" r:id="rId1137" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1377B3F6-F5D2-4F8F-A4FB-57101A3193C0}"/>
+    <hyperlink ref="M312" r:id="rId1138" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{48E27EC6-B928-47BF-8ED7-CBA2F929749C}"/>
+    <hyperlink ref="C313" r:id="rId1139" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{5135E169-325B-4302-B960-5191B484231D}"/>
+    <hyperlink ref="E313" r:id="rId1140" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{F340E625-F2B1-4044-85C1-8007DD590B7D}"/>
+    <hyperlink ref="I313" r:id="rId1141" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{4D7972FC-246A-4A89-8FC8-DF8E80A14C8D}"/>
+    <hyperlink ref="M313" r:id="rId1142" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{072A2665-DE62-46CF-BED4-9A1F89B1676C}"/>
+    <hyperlink ref="C314" r:id="rId1143" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{59F6B58D-8E90-4422-85AC-161BD6506BCE}"/>
+    <hyperlink ref="E314" r:id="rId1144" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{8A4369B2-7AF2-41F8-B5C7-C68F3712CCE5}"/>
+    <hyperlink ref="I314" r:id="rId1145" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{EF02F09B-9DD1-4F2E-94D1-75938C63C3CF}"/>
+    <hyperlink ref="M314" r:id="rId1146" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{9EFF15A8-E21A-4DC6-854F-23EE8692B44F}"/>
+    <hyperlink ref="C315" r:id="rId1147" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{69063198-0EF0-4FF5-A460-0F99DBAA8E61}"/>
+    <hyperlink ref="E315" r:id="rId1148" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{C8087D49-B505-45E3-A19A-D46AA87AC0B9}"/>
+    <hyperlink ref="I315" r:id="rId1149" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{3F4F8E55-1F47-4B10-AECD-F7488289B357}"/>
+    <hyperlink ref="M315" r:id="rId1150" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{F1286EAD-7ACD-4E27-8844-C01B55F6FDA2}"/>
+    <hyperlink ref="C316" r:id="rId1151" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{F6A92147-891D-4815-ACF1-94772983CD01}"/>
+    <hyperlink ref="E316" r:id="rId1152" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B072C872-F97F-427A-BC63-529F6F93E4CB}"/>
+    <hyperlink ref="I316" r:id="rId1153" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{1D766E85-810A-45B0-AA70-D08A967FE8B2}"/>
+    <hyperlink ref="M316" r:id="rId1154" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{DC96D608-431D-4106-B6E0-D4EF9BA67DE7}"/>
+    <hyperlink ref="C317" r:id="rId1155" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{A37249B9-CE84-4769-8EB2-60A67E1C2114}"/>
+    <hyperlink ref="E317" r:id="rId1156" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{2AF608CC-44F9-4BA5-A56F-916B84C496A1}"/>
+    <hyperlink ref="I317" r:id="rId1157" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2C6AD15F-7115-46A5-A8E5-513CFCA6189B}"/>
+    <hyperlink ref="M317" r:id="rId1158" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{5E757AA3-90A0-42B0-9F3F-CB8A39066DA8}"/>
+    <hyperlink ref="C318" r:id="rId1159" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{B1DEABF6-24AA-4A22-8383-3D3CB1D0F8FC}"/>
+    <hyperlink ref="E318" r:id="rId1160" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{A315B286-AAD7-4C40-B5C4-722197584B46}"/>
+    <hyperlink ref="I318" r:id="rId1161" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5EEF5183-113A-49A5-9351-5FB60E96DC6E}"/>
+    <hyperlink ref="M318" r:id="rId1162" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{147BD519-DBC5-4CF0-BC6B-E4AD976CE2A7}"/>
+    <hyperlink ref="C319" r:id="rId1163" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{9D8BB06A-22CB-481D-9D66-2E8B5AED7171}"/>
+    <hyperlink ref="E319" r:id="rId1164" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{EF66AF95-DC0A-41BE-A047-5F6523C24B74}"/>
+    <hyperlink ref="I319" r:id="rId1165" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FA9CF3AE-86F4-4B33-B223-D1DBD3985982}"/>
+    <hyperlink ref="M319" r:id="rId1166" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{8BFB1BBC-874B-48F9-91C3-89C5A220F3D5}"/>
+    <hyperlink ref="C320" r:id="rId1167" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{CB18828A-C1AD-4ECA-8217-C38E6CE6581F}"/>
+    <hyperlink ref="E320" r:id="rId1168" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4BCCF68F-CCB0-4B9A-B656-BE3A959DED85}"/>
+    <hyperlink ref="I320" r:id="rId1169" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{745923C0-626A-4921-B1A9-19DD770884FC}"/>
+    <hyperlink ref="M320" r:id="rId1170" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{7862E579-B503-4773-A7D1-C66BF12997B7}"/>
+    <hyperlink ref="C322" r:id="rId1171" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{B0AEDA40-AFD2-4BF8-9487-5CF3F3FBF8A5}"/>
+    <hyperlink ref="E322" r:id="rId1172" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BD5DA300-7314-443E-832C-F4A692CC4536}"/>
+    <hyperlink ref="I322" r:id="rId1173" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AC51A62D-F1F9-4A5D-B7EF-56A635EE3CDF}"/>
+    <hyperlink ref="M322" r:id="rId1174" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{4A5E75AE-54D1-46D9-992F-80A8E3A99BA8}"/>
+    <hyperlink ref="C323" r:id="rId1175" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{606404A4-E17A-4399-881E-9337209A18AA}"/>
+    <hyperlink ref="E323" r:id="rId1176" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{866339E5-98AD-4E09-98B8-ED82F9487BA6}"/>
+    <hyperlink ref="I323" r:id="rId1177" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{37D4F02B-5539-419A-AA84-87C7F79ABA6A}"/>
+    <hyperlink ref="M323" r:id="rId1178" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{C333DAFB-9D49-4734-8D8A-F19F80CEA204}"/>
+    <hyperlink ref="C324" r:id="rId1179" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{1D030AAF-5A69-46CA-9CF3-321E1DC9ACC7}"/>
+    <hyperlink ref="E324" r:id="rId1180" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{A2454679-22CC-469B-B447-F3DD3208A523}"/>
+    <hyperlink ref="I324" r:id="rId1181" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8108D94D-0F22-4746-A8C0-207AA77C3C7A}"/>
+    <hyperlink ref="M324" r:id="rId1182" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{05DDDC89-85DF-49F4-A846-CA23CFBCBE82}"/>
+    <hyperlink ref="C325" r:id="rId1183" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{81725BCE-DDC4-47A7-9B14-73A64BFCFC1E}"/>
+    <hyperlink ref="E325" r:id="rId1184" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{6FE168DC-1033-4A06-9686-DBC3372BC785}"/>
+    <hyperlink ref="I325" r:id="rId1185" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EA9B6C3E-68B6-4CF9-8956-3925A05C6BA2}"/>
+    <hyperlink ref="M325" r:id="rId1186" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{89F78AB9-BE9B-487C-BCFC-731784D6F55D}"/>
+    <hyperlink ref="C326" r:id="rId1187" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{229C7501-B96F-4F74-8EDE-E48B02E47802}"/>
+    <hyperlink ref="E326" r:id="rId1188" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{2FA574F4-02B2-4D7E-BCC5-E5D6E70AA8BD}"/>
+    <hyperlink ref="I326" r:id="rId1189" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B133CE84-08CE-4523-A2DD-ED6978D0A495}"/>
+    <hyperlink ref="M326" r:id="rId1190" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{8624E391-FB01-45A3-BAC3-A2BF9C0E6B13}"/>
+    <hyperlink ref="C327" r:id="rId1191" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{413C382B-58E6-422A-BBBE-D6B53A30AE83}"/>
+    <hyperlink ref="E327" r:id="rId1192" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{BEFF7952-A387-4212-91E7-107603580DC1}"/>
+    <hyperlink ref="I327" r:id="rId1193" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{36E83424-51D5-4AFB-BC5F-87B6774FABE2}"/>
+    <hyperlink ref="M327" r:id="rId1194" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{C52B91F6-169A-4FB2-8892-207FCBC98F06}"/>
+    <hyperlink ref="C328" r:id="rId1195" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{AAD35B8B-1502-4C05-B632-87440A40B934}"/>
+    <hyperlink ref="E328" r:id="rId1196" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B875DA04-8E68-4DA8-9B9C-238A80D66396}"/>
+    <hyperlink ref="I328" r:id="rId1197" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F8A2E851-6FA1-4A55-8962-3ACCD80A7FF6}"/>
+    <hyperlink ref="M328" r:id="rId1198" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{060932FF-A161-484E-A5CE-F22D6A2A2821}"/>
+    <hyperlink ref="C329" r:id="rId1199" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{8CDAE3E9-0820-4EA2-8E0B-F52C9806D1A7}"/>
+    <hyperlink ref="E329" r:id="rId1200" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{AE58DF3B-4D90-4D6C-84BE-989278A8940A}"/>
+    <hyperlink ref="I329" r:id="rId1201" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{0CA203B0-213C-447A-B170-613899216B1C}"/>
+    <hyperlink ref="M329" r:id="rId1202" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{3C5D135D-F065-478B-B2AC-92B1E443269F}"/>
+    <hyperlink ref="C330" r:id="rId1203" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{B5DF436D-66EA-43C0-B40A-23AF079D9281}"/>
+    <hyperlink ref="E330" r:id="rId1204" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{4ADD97A6-E13D-48F1-8A8B-C373236A7AB5}"/>
+    <hyperlink ref="I330" r:id="rId1205" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5BE50993-61C9-43E3-ABB4-3417A4ACC702}"/>
+    <hyperlink ref="M330" r:id="rId1206" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{47B6949E-6CEC-41A2-A55D-DDAF71E41749}"/>
+    <hyperlink ref="C331" r:id="rId1207" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{FEF3DB3B-8D04-4B28-AD36-4ECA8F35F7C0}"/>
+    <hyperlink ref="E331" r:id="rId1208" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{E7364776-D96E-439A-ACB7-370BB37425F8}"/>
+    <hyperlink ref="I331" r:id="rId1209" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6B8AE50C-7645-4721-97C5-BF8389119D97}"/>
+    <hyperlink ref="M331" r:id="rId1210" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{B478FC9F-AEF5-42A7-9EEB-A6F0C9070B73}"/>
+    <hyperlink ref="C333" r:id="rId1211" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{9C159C79-6AC2-4238-B004-ADB3AF851BD0}"/>
+    <hyperlink ref="E333" r:id="rId1212" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A4611C12-379F-4442-B51B-AEDD692772B5}"/>
+    <hyperlink ref="I333" r:id="rId1213" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D059E29B-DF39-4F38-9AA6-F0E84EEAD573}"/>
+    <hyperlink ref="M333" r:id="rId1214" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{C442B746-750F-49E8-B751-197F6550BA1C}"/>
+    <hyperlink ref="C334" r:id="rId1215" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{5E6D1423-EAC3-49C9-9CC6-54DCD1A1704A}"/>
+    <hyperlink ref="E334" r:id="rId1216" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{53BCE0F5-5834-419A-AE65-D2890D713BFB}"/>
+    <hyperlink ref="I334" r:id="rId1217" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{AB5DBEC9-7F59-4C72-A1F9-533D9C968539}"/>
+    <hyperlink ref="M334" r:id="rId1218" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{D6A95245-81A2-48BA-BF0F-FCC46ED52315}"/>
+    <hyperlink ref="C335" r:id="rId1219" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{3C04049E-33CD-48FB-AD30-96937B4516C0}"/>
+    <hyperlink ref="E335" r:id="rId1220" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{E1FC47AA-6192-443B-86B0-686552FB370F}"/>
+    <hyperlink ref="I335" r:id="rId1221" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2DD3AB58-C6CB-40B5-AF13-355502A5374E}"/>
+    <hyperlink ref="M335" r:id="rId1222" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{2C608E74-A59B-4CF8-A757-21358F238DD0}"/>
+    <hyperlink ref="C336" r:id="rId1223" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{0E07D6CB-3642-4863-992E-E814493624DA}"/>
+    <hyperlink ref="E336" r:id="rId1224" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F148F199-6973-4015-8654-3E24A7E45E0E}"/>
+    <hyperlink ref="I336" r:id="rId1225" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{A21640D4-6A1F-4583-AD12-1EEFF8DC843F}"/>
+    <hyperlink ref="M336" r:id="rId1226" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{8F20798E-B9F9-4B68-8993-5F0C37BE530B}"/>
+    <hyperlink ref="C337" r:id="rId1227" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{FFBE17B5-1E2B-42D2-A510-B7AC9154942B}"/>
+    <hyperlink ref="E337" r:id="rId1228" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BEC89B8A-8497-4C40-8EBE-2DBF2D9BBC65}"/>
+    <hyperlink ref="I337" r:id="rId1229" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D61CF965-650D-46C9-9BCF-1DB260B47F42}"/>
+    <hyperlink ref="M337" r:id="rId1230" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{CBEBE016-8AF4-4C7B-8883-5BE31C1CE3BB}"/>
+    <hyperlink ref="C338" r:id="rId1231" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{7B374562-3333-40D1-8EA0-45E155200CE9}"/>
+    <hyperlink ref="E338" r:id="rId1232" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{E30B4F85-92BD-4A34-BC2F-A83E12588D78}"/>
+    <hyperlink ref="I338" r:id="rId1233" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9FA9696D-2B18-4509-A379-824531136B61}"/>
+    <hyperlink ref="M338" r:id="rId1234" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{73322C08-8117-40D0-9F31-986193FB0B0B}"/>
+    <hyperlink ref="C339" r:id="rId1235" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{F02B62C8-487D-4AF0-8A2D-D72AA52C7857}"/>
+    <hyperlink ref="E339" r:id="rId1236" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{FB54084B-C144-49A4-AFCD-CE3CB6382DC2}"/>
+    <hyperlink ref="I339" r:id="rId1237" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{3146B529-F465-4452-9C1B-3956AAA13518}"/>
+    <hyperlink ref="M339" r:id="rId1238" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{E3E7ED8E-E2B7-4817-A770-BC494E25F9FC}"/>
+    <hyperlink ref="C340" r:id="rId1239" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{BABC222D-2A06-4E8B-BF4C-FCD9E5A0286A}"/>
+    <hyperlink ref="E340" r:id="rId1240" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{B94ADFA0-9F08-43DD-A09D-028C4FC1D012}"/>
+    <hyperlink ref="I340" r:id="rId1241" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C478B227-C47B-40B4-811B-EE2AA2B0513C}"/>
+    <hyperlink ref="M340" r:id="rId1242" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{4CD4193E-DB1B-41BF-BE81-5ABE32D1EFDF}"/>
+    <hyperlink ref="C341" r:id="rId1243" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{93CD25B6-815A-49F6-95EE-B4114674FE14}"/>
+    <hyperlink ref="E341" r:id="rId1244" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B7174427-1F35-4C25-8BA1-37844BFABB94}"/>
+    <hyperlink ref="I341" r:id="rId1245" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{9220C800-5B98-4708-9F69-2DDE684EEEC2}"/>
+    <hyperlink ref="M341" r:id="rId1246" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{0BA75CA9-0CCC-441A-B7AC-53D4817FA41E}"/>
+    <hyperlink ref="C342" r:id="rId1247" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{743DD314-1388-4638-9FC6-7E2B0813EF36}"/>
+    <hyperlink ref="E342" r:id="rId1248" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CBA6465D-94ED-4A93-9FC0-C8FDFB1920CF}"/>
+    <hyperlink ref="I342" r:id="rId1249" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{DC2F6F3C-0E45-4F91-BBE5-3FE935368930}"/>
+    <hyperlink ref="M342" r:id="rId1250" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{5D3B9326-A6D2-4FCD-BA69-AED29EAB203E}"/>
+    <hyperlink ref="C344" r:id="rId1251" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{0F8BD88E-7F68-4E0E-85D1-58FDC0892792}"/>
+    <hyperlink ref="E344" r:id="rId1252" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{F7728BEA-7CDB-49A4-8C10-6ECE24159DBB}"/>
+    <hyperlink ref="I344" r:id="rId1253" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{3FBB6804-FCBA-4431-8B5B-F1B018E77AEC}"/>
+    <hyperlink ref="M344" r:id="rId1254" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{039361B8-75F1-4B6D-87B7-35F8E837B78F}"/>
+    <hyperlink ref="C345" r:id="rId1255" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{80C8398C-C0E0-4AC3-A04F-10B17E258DF6}"/>
+    <hyperlink ref="E345" r:id="rId1256" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{B727E92D-DDB9-48C5-A448-D42F37DD6339}"/>
+    <hyperlink ref="I345" r:id="rId1257" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{AA37F80E-1C2E-420D-88F1-CAAE0CAE57F3}"/>
+    <hyperlink ref="M345" r:id="rId1258" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{8990E221-C397-4840-84CC-366FC667EDA1}"/>
+    <hyperlink ref="C346" r:id="rId1259" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{1C4496C7-3116-4A25-9F72-B3AB5717E98D}"/>
+    <hyperlink ref="E346" r:id="rId1260" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{253A24C3-1020-480E-96F3-B54B9F7A09F1}"/>
+    <hyperlink ref="I346" r:id="rId1261" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{66EE374C-35BB-4513-94DD-469311CB267F}"/>
+    <hyperlink ref="M346" r:id="rId1262" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{DCB2B61A-82AC-406F-82BF-9EA604C8B97B}"/>
+    <hyperlink ref="C347" r:id="rId1263" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{A8CED509-D2D8-4261-B91D-8A65F7B210EE}"/>
+    <hyperlink ref="E347" r:id="rId1264" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{1E67609B-7204-4C09-8024-2D4576A42A0C}"/>
+    <hyperlink ref="I347" r:id="rId1265" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{04F77D86-7B7B-4D32-AF50-AD092D57B9C0}"/>
+    <hyperlink ref="M347" r:id="rId1266" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{F74CB013-7068-40C3-AF94-930FECF9B83D}"/>
+    <hyperlink ref="C348" r:id="rId1267" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{BEE37605-308C-4525-99F7-34C2A5828C0D}"/>
+    <hyperlink ref="E348" r:id="rId1268" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{ADF1B8F1-0DE8-4510-8E87-B5777D3FAA08}"/>
+    <hyperlink ref="I348" r:id="rId1269" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{5FD559EC-3648-4F48-BD6A-3A872AB4C77D}"/>
+    <hyperlink ref="M348" r:id="rId1270" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{C7E308B0-ADC8-4E6E-B413-867C224D925F}"/>
+    <hyperlink ref="C349" r:id="rId1271" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{4A108189-3A47-4E1A-88E7-30ED9A5269D2}"/>
+    <hyperlink ref="E349" r:id="rId1272" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1605AAD8-CC9F-4FFB-BF49-8A549681BD0F}"/>
+    <hyperlink ref="I349" r:id="rId1273" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{90EE922B-CBD2-4172-AE3A-903867B7ABE9}"/>
+    <hyperlink ref="M349" r:id="rId1274" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{953F1B1F-B061-4BA1-9657-1EE87C4E1097}"/>
+    <hyperlink ref="C350" r:id="rId1275" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{B2278535-11EF-433C-97F8-37F5A691C1C6}"/>
+    <hyperlink ref="E350" r:id="rId1276" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{43B51ACD-36AD-4BCC-BCC3-685554763FEE}"/>
+    <hyperlink ref="I350" r:id="rId1277" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{8543EB38-A23B-497E-A1B7-0FB634D74F20}"/>
+    <hyperlink ref="M350" r:id="rId1278" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{0A32E741-9553-4576-90BB-FFD3D18BDD43}"/>
+    <hyperlink ref="C351" r:id="rId1279" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{F1F2E792-5B50-4DA4-8E2A-F720703B99B2}"/>
+    <hyperlink ref="E351" r:id="rId1280" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{49888526-06A9-42F2-AFBF-8385841ACA06}"/>
+    <hyperlink ref="I351" r:id="rId1281" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{511A48CB-1B87-4902-AFD0-68186BB5822A}"/>
+    <hyperlink ref="M351" r:id="rId1282" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{313759BE-51D7-4BDC-B2CB-782104A86DE8}"/>
+    <hyperlink ref="C352" r:id="rId1283" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{A577CB5A-BE87-49D7-BDB0-875C4901A8DF}"/>
+    <hyperlink ref="E352" r:id="rId1284" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{1059C315-40DB-449D-8CA6-77ED381D1ED6}"/>
+    <hyperlink ref="I352" r:id="rId1285" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{493B3832-9C41-4CB6-A179-8E39B9A0DE28}"/>
+    <hyperlink ref="M352" r:id="rId1286" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{85EBB45F-E27C-4400-B9B4-54F1FF497E3A}"/>
+    <hyperlink ref="C353" r:id="rId1287" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{2F1192D1-FF45-420D-9279-CD024529D91D}"/>
+    <hyperlink ref="E353" r:id="rId1288" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0AC6D39A-4775-4C56-A909-01DEFA0042F8}"/>
+    <hyperlink ref="I353" r:id="rId1289" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{786CE910-75FC-4506-90E5-7FB750B03278}"/>
+    <hyperlink ref="M353" r:id="rId1290" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{23431A9D-81D3-4D50-8AAA-31F2E54178A5}"/>
+    <hyperlink ref="C355" r:id="rId1291" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{33752382-3EA1-4F04-9017-45BD40FB2B65}"/>
+    <hyperlink ref="E355" r:id="rId1292" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8B3F65D3-55D4-42EF-8E40-90F49BFEB752}"/>
+    <hyperlink ref="I355" r:id="rId1293" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{5E331F4A-1388-4C4E-90F5-86B6DCDB1FCE}"/>
+    <hyperlink ref="M355" r:id="rId1294" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{29BAFDF4-B152-4989-AB4F-6D1CB21395C9}"/>
+    <hyperlink ref="C356" r:id="rId1295" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{B17420E3-8866-4C4C-B284-225C25094CE7}"/>
+    <hyperlink ref="E356" r:id="rId1296" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8DE36AD6-1918-408C-A7A2-BDF349F5F839}"/>
+    <hyperlink ref="I356" r:id="rId1297" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{357CC64D-2641-4C3C-AFFC-BAC33FDC4785}"/>
+    <hyperlink ref="M356" r:id="rId1298" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{BB8FE075-6761-4DD4-8D97-4CFA2E29F8F2}"/>
+    <hyperlink ref="C357" r:id="rId1299" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{5953ADE5-B1DE-4D29-BC5C-13DCC912E99F}"/>
+    <hyperlink ref="E357" r:id="rId1300" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{10AB4EBE-EB37-423E-BE22-2EB29B955717}"/>
+    <hyperlink ref="I357" r:id="rId1301" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{836F614F-B8CC-4CB5-B524-C6635D15FF5A}"/>
+    <hyperlink ref="M357" r:id="rId1302" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{11A6D1EF-E265-4FEB-B3D6-CB2BF3D5555B}"/>
+    <hyperlink ref="C358" r:id="rId1303" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{32DC7846-1012-4831-870E-CB5068F6D8C2}"/>
+    <hyperlink ref="E358" r:id="rId1304" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{80F0DB85-A711-421A-9A1A-F8EA2534561A}"/>
+    <hyperlink ref="I358" r:id="rId1305" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5CF4BEAE-7474-4B9E-9B4A-30CA49468916}"/>
+    <hyperlink ref="M358" r:id="rId1306" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{1927785E-A1A6-45CD-BA7D-C6F6999CD280}"/>
+    <hyperlink ref="C359" r:id="rId1307" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{315CBBA6-8EB4-400A-9898-E7757F48835F}"/>
+    <hyperlink ref="E359" r:id="rId1308" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{33BA0470-C6FB-42E6-B100-B3C99BF329DA}"/>
+    <hyperlink ref="I359" r:id="rId1309" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{37709DDE-DB3F-4178-BF4F-0A1A346FB22E}"/>
+    <hyperlink ref="M359" r:id="rId1310" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{26CDA0EB-5395-4F87-859B-1C682E084A21}"/>
+    <hyperlink ref="C360" r:id="rId1311" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{8BC5B235-A758-4462-B48F-C3C3A482160C}"/>
+    <hyperlink ref="E360" r:id="rId1312" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{8E0080EF-6F26-4391-868B-76F8EC1EE44F}"/>
+    <hyperlink ref="I360" r:id="rId1313" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7729D985-E7B4-423E-B8DA-BE498FC68200}"/>
+    <hyperlink ref="M360" r:id="rId1314" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{103F2038-D0C0-471B-89F3-E387B8DB04FB}"/>
+    <hyperlink ref="C361" r:id="rId1315" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{CAD55A91-26B0-4B23-8B95-46791E79C917}"/>
+    <hyperlink ref="E361" r:id="rId1316" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B4955CC0-4ACB-4AFD-A254-03CFD63FE05E}"/>
+    <hyperlink ref="I361" r:id="rId1317" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{E8F6DB9C-88A8-4740-AF80-8B76A140C4D8}"/>
+    <hyperlink ref="M361" r:id="rId1318" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{CB507D0D-DC7B-4A13-92DC-4597234C23B3}"/>
+    <hyperlink ref="C362" r:id="rId1319" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{1F62D015-5762-4556-A825-1E3258671C78}"/>
+    <hyperlink ref="E362" r:id="rId1320" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{90447E69-58DA-4E48-9AEB-9E646194EE42}"/>
+    <hyperlink ref="I362" r:id="rId1321" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1EEFD90B-65FB-4C05-A62F-F67191DBE26E}"/>
+    <hyperlink ref="M362" r:id="rId1322" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{10A46060-6D94-4C35-BDF9-E73DCBBDF837}"/>
+    <hyperlink ref="C363" r:id="rId1323" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{4E9D4931-B2F1-49B6-99E2-70DECC5FE02C}"/>
+    <hyperlink ref="E363" r:id="rId1324" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{04C18F99-068B-48BE-AA55-2E086C0D383F}"/>
+    <hyperlink ref="I363" r:id="rId1325" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{749DA0D2-71E7-4C18-B640-FD7845A9005E}"/>
+    <hyperlink ref="M363" r:id="rId1326" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{CFDC5D85-7419-49FB-8CBD-FA7CEF2078BA}"/>
+    <hyperlink ref="C364" r:id="rId1327" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{7EB19C62-4BB5-4589-B8D6-137A4F96B0CD}"/>
+    <hyperlink ref="E364" r:id="rId1328" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{764D1813-54CE-43B7-9A6A-A8D240C66C35}"/>
+    <hyperlink ref="I364" r:id="rId1329" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C96F5D4D-F93E-4776-9D27-098211EBB0A2}"/>
+    <hyperlink ref="M364" r:id="rId1330" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{3C10C1FC-3A72-4F69-9485-475F1503C1AA}"/>
+    <hyperlink ref="C366" r:id="rId1331" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{B7E42607-BBDA-4797-882D-67654336E2E1}"/>
+    <hyperlink ref="E366" r:id="rId1332" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7A06FE78-26C5-452B-A2C5-3BEDCB136DC3}"/>
+    <hyperlink ref="I366" r:id="rId1333" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6C783BAA-0784-40F9-97E7-0285A3C54A18}"/>
+    <hyperlink ref="M366" r:id="rId1334" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{93B4AF5C-66CA-4978-BE75-31D2DF51327B}"/>
+    <hyperlink ref="C367" r:id="rId1335" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{643F5168-D560-4370-A904-B29CE9593901}"/>
+    <hyperlink ref="E367" r:id="rId1336" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{04B982B2-206F-4C4D-9783-0B8621EBA808}"/>
+    <hyperlink ref="I367" r:id="rId1337" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{9D796C28-98E2-45D1-AFCA-4C5CF262B2E0}"/>
+    <hyperlink ref="M367" r:id="rId1338" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{152B71F5-1104-411C-9A3B-FA6BBA0BD17E}"/>
+    <hyperlink ref="C368" r:id="rId1339" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{553C095E-D853-4125-B3A7-D7C1B507E90B}"/>
+    <hyperlink ref="E368" r:id="rId1340" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7A6C0D8B-1AAA-4E9D-8B9F-263F580199B4}"/>
+    <hyperlink ref="I368" r:id="rId1341" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BB31F3BE-0034-4D99-9F99-55A3A3632432}"/>
+    <hyperlink ref="M368" r:id="rId1342" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{52A2C31C-D5BB-49C9-B88C-5141624317AD}"/>
+    <hyperlink ref="C369" r:id="rId1343" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{9952EAE4-31EA-4DFE-AA45-B476B6EAD45F}"/>
+    <hyperlink ref="E369" r:id="rId1344" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5787C784-36F6-4553-A55B-8DB9346FF5A4}"/>
+    <hyperlink ref="I369" r:id="rId1345" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DDC684C9-A837-4A9F-A528-9BB900AA8CE6}"/>
+    <hyperlink ref="M369" r:id="rId1346" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{07566A59-7C4C-44F6-8223-2CB90E12BC3A}"/>
+    <hyperlink ref="C370" r:id="rId1347" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{9656671E-A885-4B8E-9A43-E496F879F5AA}"/>
+    <hyperlink ref="E370" r:id="rId1348" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{78BF0DDD-D831-4A18-8BCB-6427BE692DC6}"/>
+    <hyperlink ref="I370" r:id="rId1349" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{43F6F450-112F-42E4-AD4F-27E328EBB5E0}"/>
+    <hyperlink ref="M370" r:id="rId1350" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{5D960D2C-30DF-4E54-ADDF-095E4B377EA1}"/>
+    <hyperlink ref="C371" r:id="rId1351" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{E7A834B7-DBE8-42D6-B65A-6CEAA65204E0}"/>
+    <hyperlink ref="E371" r:id="rId1352" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{4A559049-0F51-4CD8-A71E-C240CD3ED754}"/>
+    <hyperlink ref="I371" r:id="rId1353" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{ABA5675F-368E-412B-BC7F-C70A5E3AF3E4}"/>
+    <hyperlink ref="M371" r:id="rId1354" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{7B48A123-8868-4DA4-9325-25160772A60A}"/>
+    <hyperlink ref="C372" r:id="rId1355" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{FE8EDF9B-2BAB-43D1-9D72-4A1B1CA20147}"/>
+    <hyperlink ref="E372" r:id="rId1356" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{E95ED53F-54F5-4CF2-8991-82D0478999B8}"/>
+    <hyperlink ref="I372" r:id="rId1357" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{DA151C9E-F9B4-4C3B-98ED-A7CAA24F8E83}"/>
+    <hyperlink ref="M372" r:id="rId1358" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{F685A940-195E-4272-A65C-E5FC0FD2D64A}"/>
+    <hyperlink ref="C373" r:id="rId1359" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{FD6BC475-AF40-46D6-AA57-BCC72DC8CED2}"/>
+    <hyperlink ref="E373" r:id="rId1360" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B82CA6B3-6732-47C0-B6B9-03CE22E81E16}"/>
+    <hyperlink ref="I373" r:id="rId1361" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{5FC393F9-EE60-46B9-917A-A62C288772B7}"/>
+    <hyperlink ref="M373" r:id="rId1362" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{762438BC-8CA9-483F-8686-BAC3DEC05AA7}"/>
+    <hyperlink ref="C374" r:id="rId1363" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{6B9F138E-3BF7-4486-9EA2-C533E61FFA1B}"/>
+    <hyperlink ref="E374" r:id="rId1364" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{BC653A2B-A407-48EF-9AC4-4E62E05F07DC}"/>
+    <hyperlink ref="I374" r:id="rId1365" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{81F3C9C6-F612-4C68-B537-9C80270D4F52}"/>
+    <hyperlink ref="M374" r:id="rId1366" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{A52E6C45-A211-406C-A89C-587FE279F974}"/>
+    <hyperlink ref="C375" r:id="rId1367" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{AF517A95-34E7-464B-95CA-C8B1AADA303E}"/>
+    <hyperlink ref="E375" r:id="rId1368" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{8D2B2329-1D51-4F14-86CC-61260605B256}"/>
+    <hyperlink ref="I375" r:id="rId1369" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{5EB6A2A1-CF55-43F0-B8F2-7C6B12DA0462}"/>
+    <hyperlink ref="M375" r:id="rId1370" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{4D584D3F-FB12-4B4E-B5AC-8A296705D22C}"/>
+    <hyperlink ref="C377" r:id="rId1371" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{BCE6290D-2E1B-4CDC-9309-F54FBE9FFA5C}"/>
+    <hyperlink ref="E377" r:id="rId1372" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{35A6BB84-2262-49FA-8F9F-58C980E276FE}"/>
+    <hyperlink ref="I377" r:id="rId1373" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{BA077F3B-8814-4C12-8758-BBE059207BA1}"/>
+    <hyperlink ref="M377" r:id="rId1374" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{47AB65DF-91C1-4193-9B32-5AEE6A5B3C08}"/>
+    <hyperlink ref="C378" r:id="rId1375" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{58253F93-9C8F-4542-B472-BE51AAE949B5}"/>
+    <hyperlink ref="E378" r:id="rId1376" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{7033D812-B5B5-46DA-B07F-7524CFDB7999}"/>
+    <hyperlink ref="I378" r:id="rId1377" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{6FD42025-1876-497A-B3D2-FD5F58DAED1D}"/>
+    <hyperlink ref="M378" r:id="rId1378" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{E689CD2F-196D-4BC6-92DC-A7C57B672E81}"/>
+    <hyperlink ref="C379" r:id="rId1379" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{EC483A20-E268-42AC-8F34-DBB85AEEED29}"/>
+    <hyperlink ref="E379" r:id="rId1380" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{FC78F9A2-A91C-43D5-9947-F97AD467D0D0}"/>
+    <hyperlink ref="I379" r:id="rId1381" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{7152A3F0-D6C9-47A8-9B03-BA015F2116B5}"/>
+    <hyperlink ref="M379" r:id="rId1382" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{825A02E7-D016-4881-85FB-4B6D3486CA04}"/>
+    <hyperlink ref="C380" r:id="rId1383" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{B7C02F6C-7244-4792-BE1F-5B730B29E264}"/>
+    <hyperlink ref="E380" r:id="rId1384" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{7FD1CD3D-B76E-4D0C-8215-8F4C8E7E4399}"/>
+    <hyperlink ref="I380" r:id="rId1385" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B2AC00A4-818C-42A6-9B1C-334CD2B39DBC}"/>
+    <hyperlink ref="M380" r:id="rId1386" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{F6B86B4D-3547-4396-8547-41F0DE1E426D}"/>
+    <hyperlink ref="C381" r:id="rId1387" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{C934DE26-627E-48D2-8D36-9894F47172D5}"/>
+    <hyperlink ref="E381" r:id="rId1388" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{7EC8EE75-B107-4B79-A297-7B0919E25844}"/>
+    <hyperlink ref="I381" r:id="rId1389" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{EF5AD62E-2891-4F24-8C47-334AB4C865F4}"/>
+    <hyperlink ref="M381" r:id="rId1390" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{70A70FCC-0081-463F-BEA6-7E9279ECE9FD}"/>
+    <hyperlink ref="C382" r:id="rId1391" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{B34A1D13-2DFE-4112-BEC6-51695DCC18F2}"/>
+    <hyperlink ref="E382" r:id="rId1392" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F7A5F77C-08DF-463C-82B4-7C0F11B938DB}"/>
+    <hyperlink ref="I382" r:id="rId1393" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{FCB8AF20-99FB-41D7-A1B3-8A8B20344BDE}"/>
+    <hyperlink ref="M382" r:id="rId1394" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{D81B5D1D-21DF-405F-893C-5DED4667ACD3}"/>
+    <hyperlink ref="C383" r:id="rId1395" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{77A4E410-5193-4C9C-B6E2-B06EAEB4AC04}"/>
+    <hyperlink ref="E383" r:id="rId1396" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{05F5059E-6006-4391-9025-E1FBEF14AA67}"/>
+    <hyperlink ref="I383" r:id="rId1397" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EDA4768A-BEB7-466D-A66C-D977A8D494B7}"/>
+    <hyperlink ref="M383" r:id="rId1398" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{E3C7A7CA-C6C0-42A1-84BC-7587F88B3E0F}"/>
+    <hyperlink ref="C384" r:id="rId1399" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{2FE0CF63-315B-4642-AFCA-E4DBE116EA2C}"/>
+    <hyperlink ref="E384" r:id="rId1400" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{1A497C63-DA61-4679-82C4-C121B1D8993E}"/>
+    <hyperlink ref="I384" r:id="rId1401" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{BA899F41-74BA-4FDA-BC48-68172E34ED8B}"/>
+    <hyperlink ref="M384" r:id="rId1402" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{DD168D3C-F023-4AA4-877B-2D72061AD845}"/>
+    <hyperlink ref="C385" r:id="rId1403" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{EE9CF307-E269-46CC-A938-F39ECBDBEC9C}"/>
+    <hyperlink ref="E385" r:id="rId1404" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A43BB53B-7FB9-48DE-8FA1-FBFD75CBED0A}"/>
+    <hyperlink ref="I385" r:id="rId1405" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F3DE2082-DB51-4B08-874B-485F752C11C3}"/>
+    <hyperlink ref="M385" r:id="rId1406" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{EDD0CBB5-B3E0-4992-992F-0131C63E9006}"/>
+    <hyperlink ref="C386" r:id="rId1407" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{8CCE8D85-1E8D-4C2E-BA22-BF274A292853}"/>
+    <hyperlink ref="E386" r:id="rId1408" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{3DCBBC8E-D4D9-40DF-A830-7EABBE180F67}"/>
+    <hyperlink ref="I386" r:id="rId1409" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{20EF8144-F449-442C-B735-7E3A608882F4}"/>
+    <hyperlink ref="M386" r:id="rId1410" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{5219AF65-6C52-436D-9A09-68E5BFD9C8C2}"/>
+    <hyperlink ref="C388" r:id="rId1411" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{82BBFC8D-5BFD-4C2E-BF48-090716EB5DCF}"/>
+    <hyperlink ref="E388" r:id="rId1412" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{51E7839B-97DC-4C07-8826-7CD59C067C32}"/>
+    <hyperlink ref="I388" r:id="rId1413" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{5E589278-4AF5-4D46-ADB6-227C1C159AE5}"/>
+    <hyperlink ref="M388" r:id="rId1414" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{5971FAC6-8852-45A6-9040-9C624E30CE8D}"/>
+    <hyperlink ref="C389" r:id="rId1415" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{0A554FED-BD4C-4015-A687-A6E0EFAE5588}"/>
+    <hyperlink ref="E389" r:id="rId1416" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{768B0ABA-0E1E-44B4-9458-211401433E4D}"/>
+    <hyperlink ref="I389" r:id="rId1417" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{123246A4-EEDB-40FC-BF16-5D39B4055A12}"/>
+    <hyperlink ref="M389" r:id="rId1418" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{32C6011E-8D11-4489-B814-02905E251D93}"/>
+    <hyperlink ref="C390" r:id="rId1419" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{560E9922-DCB0-4090-9704-F428D470710A}"/>
+    <hyperlink ref="E390" r:id="rId1420" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D0A2BA17-84C7-4C64-9A6E-E0DBEE6B4FEC}"/>
+    <hyperlink ref="I390" r:id="rId1421" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{7D31859C-3B1C-4625-9346-862DECAE1EE9}"/>
+    <hyperlink ref="M390" r:id="rId1422" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{32595DE3-C85B-4C9B-B701-5558D367229E}"/>
+    <hyperlink ref="C391" r:id="rId1423" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{8CFA7154-A514-4194-A461-8BE98DDF7BF7}"/>
+    <hyperlink ref="E391" r:id="rId1424" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{A406D60A-75B9-4887-9E6C-E1E26E9A42D9}"/>
+    <hyperlink ref="I391" r:id="rId1425" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{139F3318-3558-4FAA-83C5-2B76E71966E5}"/>
+    <hyperlink ref="M391" r:id="rId1426" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{5F9E31BD-4576-44DF-A1D2-89BB5D72DC98}"/>
+    <hyperlink ref="C392" r:id="rId1427" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{DB97ACF4-6B3D-499E-BC0A-AF34C96E0FB4}"/>
+    <hyperlink ref="E392" r:id="rId1428" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CB6697DF-FD0D-4FC5-A2F5-3D8A7008FB75}"/>
+    <hyperlink ref="I392" r:id="rId1429" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{7EBF2032-E424-4055-ABA8-B1F4E304DFA9}"/>
+    <hyperlink ref="M392" r:id="rId1430" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{982C9AF9-35B4-4779-97D8-42D0713659F8}"/>
+    <hyperlink ref="C393" r:id="rId1431" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{B7945253-859A-4D92-BD3D-D5451E688750}"/>
+    <hyperlink ref="E393" r:id="rId1432" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8052BBF4-5EB3-40E1-B8A3-174C12AE2704}"/>
+    <hyperlink ref="I393" r:id="rId1433" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{23A13DA6-F2C9-45C2-8DEA-32CBB9A1D72E}"/>
+    <hyperlink ref="M393" r:id="rId1434" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{11FE6BB6-7F4F-4151-83C7-777094F2D897}"/>
+    <hyperlink ref="C394" r:id="rId1435" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{85EC473A-9F85-4586-8DC9-C44CD77033C8}"/>
+    <hyperlink ref="E394" r:id="rId1436" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{B79C1887-76FA-4883-8DD1-86BC1BC21B59}"/>
+    <hyperlink ref="I394" r:id="rId1437" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{ADC36DE5-739B-410F-B53F-503C5ECFC3F0}"/>
+    <hyperlink ref="M394" r:id="rId1438" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{F2C7016D-6D64-43E3-ABFF-E594A0E482E0}"/>
+    <hyperlink ref="C395" r:id="rId1439" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{24A1A178-08B8-466D-B2C7-CE4FED14910D}"/>
+    <hyperlink ref="E395" r:id="rId1440" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{85C6C517-8F4F-4198-994D-3C51DFBACD64}"/>
+    <hyperlink ref="I395" r:id="rId1441" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{22BEA887-AF47-41EB-B336-0B08C8FCC986}"/>
+    <hyperlink ref="M395" r:id="rId1442" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{414CA179-01A6-44B2-86A3-41EF4E1AC41F}"/>
+    <hyperlink ref="C396" r:id="rId1443" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{BA55C6C6-CF48-4857-98AB-1B03D71DCF85}"/>
+    <hyperlink ref="E396" r:id="rId1444" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{99DD5D49-D9BF-4F64-87FA-5AACDD76C0DE}"/>
+    <hyperlink ref="I396" r:id="rId1445" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B03EFB7B-B524-4F39-ADD5-560D4216FE06}"/>
+    <hyperlink ref="M396" r:id="rId1446" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{808FE2C9-F92F-43DD-A439-81552E413332}"/>
+    <hyperlink ref="C397" r:id="rId1447" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{0D830B42-1D43-43FC-A542-FF6C9A674795}"/>
+    <hyperlink ref="E397" r:id="rId1448" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F745A0E9-08BB-4EEB-9FD2-983BBC5DA83A}"/>
+    <hyperlink ref="I397" r:id="rId1449" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{556AF4E8-D3CE-4E2C-8F0F-EAAF82A20AD6}"/>
+    <hyperlink ref="M397" r:id="rId1450" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{5C48643D-9879-4C85-8D07-B10336CD3F3F}"/>
+    <hyperlink ref="C399" r:id="rId1451" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{AB67DD9D-9505-48D5-AEDC-C05927C6908A}"/>
+    <hyperlink ref="E399" r:id="rId1452" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{9596D452-4510-4B83-9600-15BA17D4DDE9}"/>
+    <hyperlink ref="I399" r:id="rId1453" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{ADBDD468-9E32-43DA-A2FE-DF8FE03E719C}"/>
+    <hyperlink ref="M399" r:id="rId1454" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{382E156D-0002-480B-B933-2DEFF36A6C59}"/>
+    <hyperlink ref="C400" r:id="rId1455" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{2F732A97-6894-4227-953E-95DB23AD991C}"/>
+    <hyperlink ref="E400" r:id="rId1456" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8182042D-308F-497A-99BB-4E9A70C0EC60}"/>
+    <hyperlink ref="I400" r:id="rId1457" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{DC63C1B5-CF30-4563-9AE6-95416A18E609}"/>
+    <hyperlink ref="M400" r:id="rId1458" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{7D2288A1-8151-4F51-BB59-BF7C6870DDF8}"/>
+    <hyperlink ref="C401" r:id="rId1459" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{10A2B3FD-71E9-4C81-8BD7-BF09B255883C}"/>
+    <hyperlink ref="E401" r:id="rId1460" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4E487170-1696-419D-94AA-0FC5C7324443}"/>
+    <hyperlink ref="I401" r:id="rId1461" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BA49DCC9-7807-4F00-A55E-7DA693519D70}"/>
+    <hyperlink ref="M401" r:id="rId1462" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{DEDD0302-FBE5-4AD2-8F08-DD7BD4DBB9CD}"/>
+    <hyperlink ref="C402" r:id="rId1463" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{0797A5BE-4FDA-419F-9B48-9BBB23CEE871}"/>
+    <hyperlink ref="E402" r:id="rId1464" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{308FBD3D-3E7C-4F3A-A67B-2E0D1B1F086B}"/>
+    <hyperlink ref="I402" r:id="rId1465" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{88C0FDB8-5426-41B0-81E3-113BE45C4928}"/>
+    <hyperlink ref="M402" r:id="rId1466" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{CA6D71E8-BA1A-4BCB-A69C-8737A6FC20FE}"/>
+    <hyperlink ref="C403" r:id="rId1467" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{B7EA2EC1-04DD-426C-9FD1-1DF0726BBDA2}"/>
+    <hyperlink ref="E403" r:id="rId1468" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{581B5568-463A-46AC-AA59-BCABA628A0EB}"/>
+    <hyperlink ref="I403" r:id="rId1469" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D2DEA5E5-1E89-462D-94B0-0068E06AAC76}"/>
+    <hyperlink ref="M403" r:id="rId1470" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{A91CA01A-C078-4DA5-AAC2-7310E9AE5173}"/>
+    <hyperlink ref="C404" r:id="rId1471" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{84027D49-55C0-4CC5-8C8A-969BD0BA93D7}"/>
+    <hyperlink ref="E404" r:id="rId1472" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{74AE91B6-F71D-43B2-8867-8BBCD3F11096}"/>
+    <hyperlink ref="I404" r:id="rId1473" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E6FE0678-8884-4DC2-AED7-5E0123674AC7}"/>
+    <hyperlink ref="M404" r:id="rId1474" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{405CCC30-671B-4E90-BF5D-77F07F853A0C}"/>
+    <hyperlink ref="C405" r:id="rId1475" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{06BE3CF2-B84F-4EEF-98B6-EF5BD9D3C18F}"/>
+    <hyperlink ref="E405" r:id="rId1476" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1AB935A9-18C1-49F8-B5A9-534747CDA89F}"/>
+    <hyperlink ref="I405" r:id="rId1477" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{D094780A-E1F6-4D5F-8D2A-25279FEA0AB7}"/>
+    <hyperlink ref="M405" r:id="rId1478" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{3884B4EF-1CE9-48E4-8745-4E65EBA4CD25}"/>
+    <hyperlink ref="C406" r:id="rId1479" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{D7AD7260-E3D6-4D6A-9215-84E3536E10A1}"/>
+    <hyperlink ref="E406" r:id="rId1480" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{E081FE89-75CD-4823-B9D5-02712123BA55}"/>
+    <hyperlink ref="I406" r:id="rId1481" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A0CF958D-C8C4-4797-B808-0DE23FDFCC3D}"/>
+    <hyperlink ref="M406" r:id="rId1482" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{A307BFB5-F0D5-4496-BE30-697906B1E3A7}"/>
+    <hyperlink ref="C407" r:id="rId1483" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{16279B2D-1D8B-496A-9CA6-717C1111B14C}"/>
+    <hyperlink ref="E407" r:id="rId1484" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{1EF23212-8C29-43E7-BE80-B8CEB4D723DC}"/>
+    <hyperlink ref="I407" r:id="rId1485" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{15D1F90B-0E89-4558-8FD0-3AB6F63850FE}"/>
+    <hyperlink ref="M407" r:id="rId1486" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{3DDACFA4-7711-4D70-BB5A-E7A7E49E759E}"/>
+    <hyperlink ref="C408" r:id="rId1487" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{17581484-6993-448C-9590-58E1F7CD22A1}"/>
+    <hyperlink ref="E408" r:id="rId1488" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B611A424-D556-4DB6-A1A2-802D5D7367B1}"/>
+    <hyperlink ref="I408" r:id="rId1489" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{ECCA5C66-BA71-45CB-8158-26DFB545DF60}"/>
+    <hyperlink ref="M408" r:id="rId1490" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{1C59FC45-DB6F-4AEF-A47D-33C6C7956A2D}"/>
+    <hyperlink ref="C410" r:id="rId1491" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{AAD7F4BB-ED57-422B-894D-B3FF7DBE9C01}"/>
+    <hyperlink ref="E410" r:id="rId1492" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CF141F50-E721-4267-9868-D08B049CDAF7}"/>
+    <hyperlink ref="I410" r:id="rId1493" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{A2B54DE8-CF70-41DF-B46B-5B3EF9B2121F}"/>
+    <hyperlink ref="M410" r:id="rId1494" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{361177AE-2118-43FE-B860-47D90DEBC9C7}"/>
+    <hyperlink ref="C411" r:id="rId1495" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{737E4792-D4A4-44B0-A3A3-3F34136E3CB2}"/>
+    <hyperlink ref="E411" r:id="rId1496" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9F48497A-D338-430F-84BD-8ABEEEC0ADD0}"/>
+    <hyperlink ref="I411" r:id="rId1497" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{78C234DA-869D-4A56-A3F0-7CB999B99A57}"/>
+    <hyperlink ref="M411" r:id="rId1498" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{18648DF8-E039-471B-B845-4102090212BA}"/>
+    <hyperlink ref="C412" r:id="rId1499" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{0B769B7B-0C87-4F89-B99B-F45649EBB33D}"/>
+    <hyperlink ref="E412" r:id="rId1500" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7DBA2789-D5FB-4D7C-A1AF-A3C5ADBDAD90}"/>
+    <hyperlink ref="I412" r:id="rId1501" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6D0C1518-159C-4D5E-98B4-2A30E1B17E6E}"/>
+    <hyperlink ref="M412" r:id="rId1502" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{BDD9520F-0BBC-431A-BAFD-FED869F16EF0}"/>
+    <hyperlink ref="C413" r:id="rId1503" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{78C80AFB-87B2-4866-95DD-3697F8E28405}"/>
+    <hyperlink ref="E413" r:id="rId1504" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E5F79AF6-F00D-4DBE-90A7-A6CEFA51FA89}"/>
+    <hyperlink ref="I413" r:id="rId1505" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{6966924E-7579-4819-9FE8-FB1F48B66994}"/>
+    <hyperlink ref="M413" r:id="rId1506" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{577924B5-F0AE-472F-A85D-F1FD383716F3}"/>
+    <hyperlink ref="C414" r:id="rId1507" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{84BBFFAD-56C0-4433-BD02-C9C52F8F6980}"/>
+    <hyperlink ref="E414" r:id="rId1508" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{354271E4-076D-42B2-97A7-113D5ABF68E4}"/>
+    <hyperlink ref="I414" r:id="rId1509" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{215EBEAE-F819-49FA-B818-A29329A58E01}"/>
+    <hyperlink ref="M414" r:id="rId1510" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{97E8C1D1-1BA4-44B7-AD14-92EFEA785300}"/>
+    <hyperlink ref="C415" r:id="rId1511" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{1771B786-16BE-4FF1-A557-5E6F52CBEC00}"/>
+    <hyperlink ref="E415" r:id="rId1512" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{FC5E12DA-3644-473B-9F73-E96BB24D39A1}"/>
+    <hyperlink ref="I415" r:id="rId1513" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FE0E48C3-F423-4ACD-8898-DECF41BBD1BB}"/>
+    <hyperlink ref="M415" r:id="rId1514" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{DD3CFF0A-3027-4B3B-B2A5-37A12725AA67}"/>
+    <hyperlink ref="C416" r:id="rId1515" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{654FF381-26F1-4EB2-A1CE-BE4282DD37D1}"/>
+    <hyperlink ref="E416" r:id="rId1516" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{4BE936EF-6D68-4E18-BD0C-70781C2AD11F}"/>
+    <hyperlink ref="I416" r:id="rId1517" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E1058F63-95E7-4D0F-AEBC-EA54B99A8255}"/>
+    <hyperlink ref="M416" r:id="rId1518" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{6DE85279-B217-463B-B6F9-E8D621A7650E}"/>
+    <hyperlink ref="C417" r:id="rId1519" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{B729854E-4ACE-495E-A5BE-20EF1A926F3C}"/>
+    <hyperlink ref="E417" r:id="rId1520" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{40F390E2-3BEA-49B0-8C4B-EF015909ABF5}"/>
+    <hyperlink ref="I417" r:id="rId1521" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{F821F421-0208-4C4C-9230-BDE8CF1B67A5}"/>
+    <hyperlink ref="M417" r:id="rId1522" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{1C523F17-7430-44A0-8E01-FB63EFE40877}"/>
+    <hyperlink ref="C418" r:id="rId1523" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{D49CC29B-C0EE-45B7-A1A2-7FFD5171D96A}"/>
+    <hyperlink ref="E418" r:id="rId1524" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{9A3F2816-C62B-4BE4-938D-9D58500FD5B2}"/>
+    <hyperlink ref="I418" r:id="rId1525" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{2CF8A5A5-D26C-4D03-A11E-F86898EB721A}"/>
+    <hyperlink ref="M418" r:id="rId1526" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{110C7BE9-24DF-490E-A6EC-64938B7BD56A}"/>
+    <hyperlink ref="C419" r:id="rId1527" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{9B435D14-5A71-4E50-BF58-867209BA8DED}"/>
+    <hyperlink ref="E419" r:id="rId1528" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{0A53E036-FC83-4F39-BD1F-6D6F10B0079F}"/>
+    <hyperlink ref="I419" r:id="rId1529" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7AB9AF43-470A-4743-A022-1CCAB45669E4}"/>
+    <hyperlink ref="M419" r:id="rId1530" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{C8A3BFB5-2D8D-46C3-A4FD-A65957676B0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1521"/>
+  <pageSetup orientation="portrait" r:id="rId1531"/>
 </worksheet>
 </file>
--- a/Fixtures/Fixtures_2021_2022.xlsx
+++ b/Fixtures/Fixtures_2021_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabzu\Documents\All EPL Project Files\Fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5A6140-4D23-4257-871C-17107DA8B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFEFBC-CC7C-4AC5-A52A-396756C0C18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CC4F3B36-7531-43AE-9A50-CC7491D1709F}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="85">
   <si>
     <r>
       <t xml:space="preserve">Scores &amp; Fixtures </t>
@@ -307,6 +307,21 @@
   </si>
   <si>
     <t>Anthony Taylor</t>
+  </si>
+  <si>
+    <t>5–0</t>
+  </si>
+  <si>
+    <t>Graham Scott</t>
+  </si>
+  <si>
+    <t>0–0</t>
+  </si>
+  <si>
+    <t>2–2</t>
+  </si>
+  <si>
+    <t>Darren England</t>
   </si>
 </sst>
 </file>
@@ -764,7 +779,7 @@
     <col min="9" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -985,7 +1000,9 @@
       <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="8">
+        <v>16910</v>
+      </c>
       <c r="K6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1109,7 +1126,9 @@
       <c r="I9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="8">
+        <v>38487</v>
+      </c>
       <c r="K9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1279,19 +1298,29 @@
       <c r="E14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.7</v>
+      </c>
       <c r="I14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="8">
+        <v>52591</v>
+      </c>
       <c r="K14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="M14" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N14" s="2"/>
     </row>
@@ -1311,19 +1340,29 @@
       <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.7</v>
+      </c>
       <c r="I15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="8">
+        <v>41964</v>
+      </c>
       <c r="K15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M15" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -1343,19 +1382,29 @@
       <c r="E16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="8">
+        <v>51437</v>
+      </c>
       <c r="K16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="M16" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N16" s="2"/>
     </row>
@@ -1375,19 +1424,29 @@
       <c r="E17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.9</v>
+      </c>
       <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="8">
+        <v>23091</v>
+      </c>
       <c r="K17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="M17" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N17" s="2"/>
     </row>
@@ -1407,9 +1466,15 @@
       <c r="E18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.1</v>
+      </c>
       <c r="I18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1417,9 +1482,11 @@
       <c r="K18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="M18" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N18" s="2"/>
     </row>
@@ -1439,19 +1506,29 @@
       <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.8</v>
+      </c>
       <c r="I19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="8">
+        <v>29485</v>
+      </c>
       <c r="K19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="M19" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N19" s="2"/>
     </row>
@@ -2685,17 +2762,17 @@
         <v>0.625</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="5" t="s">
@@ -2717,17 +2794,17 @@
         <v>0.625</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="5" t="s">
@@ -3325,17 +3402,17 @@
         <v>0.625</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="5" t="s">
@@ -3357,17 +3434,17 @@
         <v>0.625</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="5" t="s">
@@ -4365,17 +4442,17 @@
         <v>0.625</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="5" t="s">
@@ -4397,17 +4474,17 @@
         <v>0.625</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="5" t="s">
@@ -4429,17 +4506,17 @@
         <v>0.625</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="5" t="s">
@@ -4461,17 +4538,17 @@
         <v>0.625</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="5" t="s">
@@ -4637,17 +4714,17 @@
         <v>0.625</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="5" t="s">
@@ -4701,17 +4778,17 @@
         <v>0.625</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="5" t="s">
@@ -4893,17 +4970,17 @@
         <v>0.625</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J132" s="2"/>
       <c r="K132" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="5" t="s">
@@ -4925,17 +5002,17 @@
         <v>0.625</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J133" s="2"/>
       <c r="K133" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="5" t="s">
@@ -5133,17 +5210,17 @@
         <v>0.625</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="5" t="s">
@@ -5165,17 +5242,17 @@
         <v>0.625</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="5" t="s">
@@ -5197,17 +5274,17 @@
         <v>0.625</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="5" t="s">
@@ -5229,17 +5306,17 @@
         <v>0.625</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="5" t="s">
@@ -5261,17 +5338,17 @@
         <v>0.625</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="5" t="s">
@@ -5373,17 +5450,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="5" t="s">
@@ -5405,17 +5482,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="5" t="s">
@@ -5741,17 +5818,17 @@
         <v>0.625</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J160" s="2"/>
       <c r="K160" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="5" t="s">
@@ -5773,17 +5850,17 @@
         <v>0.625</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="5" t="s">
@@ -5869,17 +5946,17 @@
         <v>0.625</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="5" t="s">
@@ -5901,17 +5978,17 @@
         <v>0.625</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="5" t="s">
@@ -6141,17 +6218,17 @@
         <v>0.625</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L173" s="2"/>
       <c r="M173" s="5" t="s">
@@ -6173,17 +6250,17 @@
         <v>0.625</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="5" t="s">
@@ -6205,17 +6282,17 @@
         <v>0.625</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="L175" s="2"/>
       <c r="M175" s="5" t="s">
@@ -6237,17 +6314,17 @@
         <v>0.625</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="5" t="s">
@@ -6269,17 +6346,17 @@
         <v>0.625</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="5" t="s">
@@ -6653,17 +6730,17 @@
         <v>0.625</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L190" s="2"/>
       <c r="M190" s="5" t="s">
@@ -6685,17 +6762,17 @@
         <v>0.625</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L191" s="2"/>
       <c r="M191" s="5" t="s">
@@ -6909,17 +6986,17 @@
         <v>0.625</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J198" s="2"/>
       <c r="K198" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L198" s="2"/>
       <c r="M198" s="5" t="s">
@@ -6941,17 +7018,17 @@
         <v>0.625</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J199" s="2"/>
       <c r="K199" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L199" s="2"/>
       <c r="M199" s="5" t="s">
@@ -7021,17 +7098,17 @@
         <v>0.625</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J202" s="2"/>
       <c r="K202" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L202" s="2"/>
       <c r="M202" s="5" t="s">
@@ -7085,17 +7162,17 @@
         <v>0.625</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L204" s="2"/>
       <c r="M204" s="5" t="s">
@@ -7149,17 +7226,17 @@
         <v>0.625</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J206" s="2"/>
       <c r="K206" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L206" s="2"/>
       <c r="M206" s="5" t="s">
@@ -7181,17 +7258,17 @@
         <v>0.625</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L207" s="2"/>
       <c r="M207" s="5" t="s">
@@ -7325,17 +7402,17 @@
         <v>0.625</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J212" s="2"/>
       <c r="K212" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L212" s="2"/>
       <c r="M212" s="5" t="s">
@@ -7357,17 +7434,17 @@
         <v>0.625</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J213" s="2"/>
       <c r="K213" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L213" s="2"/>
       <c r="M213" s="5" t="s">
@@ -7453,17 +7530,17 @@
         <v>0.625</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J216" s="2"/>
       <c r="K216" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="L216" s="2"/>
       <c r="M216" s="5" t="s">
@@ -7485,17 +7562,17 @@
         <v>0.625</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J217" s="2"/>
       <c r="K217" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L217" s="2"/>
       <c r="M217" s="5" t="s">
@@ -7549,17 +7626,17 @@
         <v>0.625</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J219" s="2"/>
       <c r="K219" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L219" s="2"/>
       <c r="M219" s="5" t="s">
@@ -7581,17 +7658,17 @@
         <v>0.625</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J220" s="2"/>
       <c r="K220" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="L220" s="2"/>
       <c r="M220" s="5" t="s">
@@ -7661,17 +7738,17 @@
         <v>0.625</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J223" s="2"/>
       <c r="K223" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L223" s="2"/>
       <c r="M223" s="5" t="s">
@@ -7693,17 +7770,17 @@
         <v>0.625</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J224" s="2"/>
       <c r="K224" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L224" s="2"/>
       <c r="M224" s="5" t="s">
@@ -7997,17 +8074,17 @@
         <v>0.625</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J234" s="2"/>
       <c r="K234" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L234" s="2"/>
       <c r="M234" s="5" t="s">
@@ -8029,17 +8106,17 @@
         <v>0.625</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="I235" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J235" s="2"/>
       <c r="K235" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L235" s="2"/>
       <c r="M235" s="5" t="s">
@@ -8093,17 +8170,17 @@
         <v>0.625</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J237" s="2"/>
       <c r="K237" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L237" s="2"/>
       <c r="M237" s="5" t="s">
@@ -8125,17 +8202,17 @@
         <v>0.625</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J238" s="2"/>
       <c r="K238" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L238" s="2"/>
       <c r="M238" s="5" t="s">
@@ -8253,17 +8330,17 @@
         <v>0.625</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="I242" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J242" s="2"/>
       <c r="K242" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="L242" s="2"/>
       <c r="M242" s="5" t="s">
@@ -8285,17 +8362,17 @@
         <v>0.625</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J243" s="2"/>
       <c r="K243" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="L243" s="2"/>
       <c r="M243" s="5" t="s">
@@ -8669,17 +8746,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="I256" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J256" s="2"/>
       <c r="K256" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L256" s="2"/>
       <c r="M256" s="5" t="s">
@@ -8701,17 +8778,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="I257" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J257" s="2"/>
       <c r="K257" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L257" s="2"/>
       <c r="M257" s="5" t="s">
@@ -8733,17 +8810,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J258" s="2"/>
       <c r="K258" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L258" s="2"/>
       <c r="M258" s="5" t="s">
@@ -8765,17 +8842,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J259" s="2"/>
       <c r="K259" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L259" s="2"/>
       <c r="M259" s="5" t="s">
@@ -9005,17 +9082,17 @@
         <v>0.625</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J267" s="2"/>
       <c r="K267" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L267" s="2"/>
       <c r="M267" s="5" t="s">
@@ -9037,17 +9114,17 @@
         <v>0.625</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J268" s="2"/>
       <c r="K268" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L268" s="2"/>
       <c r="M268" s="5" t="s">
@@ -9133,17 +9210,17 @@
         <v>0.625</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J271" s="2"/>
       <c r="K271" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L271" s="2"/>
       <c r="M271" s="5" t="s">
@@ -9165,17 +9242,17 @@
         <v>0.625</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J272" s="2"/>
       <c r="K272" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L272" s="2"/>
       <c r="M272" s="5" t="s">
@@ -9197,17 +9274,17 @@
         <v>0.625</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="I273" s="5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J273" s="2"/>
       <c r="K273" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L273" s="2"/>
       <c r="M273" s="5" t="s">
@@ -9229,17 +9306,17 @@
         <v>0.625</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J274" s="2"/>
       <c r="K274" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L274" s="2"/>
       <c r="M274" s="5" t="s">
@@ -9373,17 +9450,17 @@
         <v>0.625</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L279" s="2"/>
       <c r="M279" s="5" t="s">
@@ -9405,17 +9482,17 @@
         <v>0.625</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J280" s="2"/>
       <c r="K280" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L280" s="2"/>
       <c r="M280" s="5" t="s">
@@ -9437,17 +9514,17 @@
         <v>0.625</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L281" s="2"/>
       <c r="M281" s="5" t="s">
@@ -9469,17 +9546,17 @@
         <v>0.625</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="5" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L282" s="2"/>
       <c r="M282" s="5" t="s">
@@ -9677,17 +9754,17 @@
         <v>0.625</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="I289" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J289" s="2"/>
       <c r="K289" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="L289" s="2"/>
       <c r="M289" s="5" t="s">
@@ -9709,17 +9786,17 @@
         <v>0.625</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="I290" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L290" s="2"/>
       <c r="M290" s="5" t="s">
@@ -9837,17 +9914,17 @@
         <v>0.625</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="I294" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="L294" s="2"/>
       <c r="M294" s="5" t="s">
@@ -9869,17 +9946,17 @@
         <v>0.625</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="I295" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L295" s="2"/>
       <c r="M295" s="5" t="s">
@@ -9901,17 +9978,17 @@
         <v>0.625</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="L296" s="2"/>
       <c r="M296" s="5" t="s">
@@ -9933,17 +10010,17 @@
         <v>0.625</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="L297" s="2"/>
       <c r="M297" s="5" t="s">
@@ -9965,17 +10042,17 @@
         <v>0.625</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="I298" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L298" s="2"/>
       <c r="M298" s="5" t="s">
@@ -10173,17 +10250,17 @@
         <v>0.625</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="I305" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L305" s="2"/>
       <c r="M305" s="5" t="s">
@@ -10269,17 +10346,17 @@
         <v>0.625</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="I308" s="5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L308" s="2"/>
       <c r="M308" s="5" t="s">
@@ -10541,17 +10618,17 @@
         <v>0.625</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="I317" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L317" s="2"/>
       <c r="M317" s="5" t="s">
@@ -10573,17 +10650,17 @@
         <v>0.625</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L318" s="2"/>
       <c r="M318" s="5" t="s">
@@ -10605,17 +10682,17 @@
         <v>0.625</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L319" s="2"/>
       <c r="M319" s="5" t="s">
@@ -10637,17 +10714,17 @@
         <v>0.625</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="I320" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="L320" s="2"/>
       <c r="M320" s="5" t="s">
@@ -10877,17 +10954,17 @@
         <v>0.625</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="I328" s="5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L328" s="2"/>
       <c r="M328" s="5" t="s">
@@ -10909,17 +10986,17 @@
         <v>0.625</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="I329" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L329" s="2"/>
       <c r="M329" s="5" t="s">
@@ -10941,17 +11018,17 @@
         <v>0.625</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="I330" s="5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L330" s="2"/>
       <c r="M330" s="5" t="s">
@@ -11149,17 +11226,17 @@
         <v>0.625</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="I337" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L337" s="2"/>
       <c r="M337" s="5" t="s">
@@ -11181,17 +11258,17 @@
         <v>0.625</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="I338" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L338" s="2"/>
       <c r="M338" s="5" t="s">
@@ -11277,17 +11354,17 @@
         <v>0.625</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="I341" s="5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="L341" s="2"/>
       <c r="M341" s="5" t="s">
@@ -11309,17 +11386,17 @@
         <v>0.625</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="I342" s="5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="L342" s="2"/>
       <c r="M342" s="5" t="s">
@@ -11389,17 +11466,17 @@
         <v>0.625</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="I345" s="5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L345" s="2"/>
       <c r="M345" s="5" t="s">
@@ -11421,17 +11498,17 @@
         <v>0.625</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="I346" s="5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L346" s="2"/>
       <c r="M346" s="5" t="s">
@@ -11549,17 +11626,17 @@
         <v>0.625</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="I350" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L350" s="2"/>
       <c r="M350" s="5" t="s">
@@ -11581,17 +11658,17 @@
         <v>0.625</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="I351" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="L351" s="2"/>
       <c r="M351" s="5" t="s">
@@ -11613,17 +11690,17 @@
         <v>0.625</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="I352" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L352" s="2"/>
       <c r="M352" s="5" t="s">
@@ -11645,17 +11722,17 @@
         <v>0.625</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="I353" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L353" s="2"/>
       <c r="M353" s="5" t="s">
@@ -11693,17 +11770,17 @@
         <v>0.625</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="I355" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="L355" s="2"/>
       <c r="M355" s="5" t="s">
@@ -11725,17 +11802,17 @@
         <v>0.625</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="I356" s="5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="L356" s="2"/>
       <c r="M356" s="5" t="s">
@@ -11789,17 +11866,17 @@
         <v>0.625</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="I358" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J358" s="2"/>
       <c r="K358" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L358" s="2"/>
       <c r="M358" s="5" t="s">
@@ -11821,17 +11898,17 @@
         <v>0.625</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="I359" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L359" s="2"/>
       <c r="M359" s="5" t="s">
@@ -12029,17 +12106,17 @@
         <v>0.625</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="I366" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L366" s="2"/>
       <c r="M366" s="5" t="s">
@@ -12093,17 +12170,17 @@
         <v>0.625</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L368" s="2"/>
       <c r="M368" s="5" t="s">
@@ -12125,17 +12202,17 @@
         <v>0.625</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="I369" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L369" s="2"/>
       <c r="M369" s="5" t="s">
@@ -12157,17 +12234,17 @@
         <v>0.625</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="I370" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="5" t="s">
@@ -12221,17 +12298,17 @@
         <v>0.625</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="I372" s="5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L372" s="2"/>
       <c r="M372" s="5" t="s">
@@ -12429,17 +12506,17 @@
         <v>0.625</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="I379" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="L379" s="2"/>
       <c r="M379" s="5" t="s">
@@ -12461,17 +12538,17 @@
         <v>0.625</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="I380" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L380" s="2"/>
       <c r="M380" s="5" t="s">
@@ -12493,17 +12570,17 @@
         <v>0.625</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="I381" s="5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L381" s="2"/>
       <c r="M381" s="5" t="s">
@@ -12525,17 +12602,17 @@
         <v>0.625</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="I382" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="L382" s="2"/>
       <c r="M382" s="5" t="s">
@@ -12557,17 +12634,17 @@
         <v>0.625</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="I383" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L383" s="2"/>
       <c r="M383" s="5" t="s">
@@ -12765,17 +12842,17 @@
         <v>0.625</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L390" s="2"/>
       <c r="M390" s="5" t="s">
@@ -12797,17 +12874,17 @@
         <v>0.625</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="I391" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L391" s="2"/>
       <c r="M391" s="5" t="s">
@@ -12861,17 +12938,17 @@
         <v>0.625</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="I393" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="L393" s="2"/>
       <c r="M393" s="5" t="s">
@@ -12893,17 +12970,17 @@
         <v>0.625</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="I394" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L394" s="2"/>
       <c r="M394" s="5" t="s">
@@ -12925,17 +13002,17 @@
         <v>0.625</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="I395" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L395" s="2"/>
       <c r="M395" s="5" t="s">
@@ -12957,17 +13034,17 @@
         <v>0.625</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="I396" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L396" s="2"/>
       <c r="M396" s="5" t="s">
@@ -12989,17 +13066,17 @@
         <v>0.625</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="I397" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L397" s="2"/>
       <c r="M397" s="5" t="s">
@@ -13101,17 +13178,17 @@
         <v>0.625</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="I401" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L401" s="2"/>
       <c r="M401" s="5" t="s">
@@ -13133,17 +13210,17 @@
         <v>0.625</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="I402" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L402" s="2"/>
       <c r="M402" s="5" t="s">
@@ -13261,17 +13338,17 @@
         <v>0.625</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="I406" s="5" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L406" s="2"/>
       <c r="M406" s="5" t="s">
@@ -13293,17 +13370,17 @@
         <v>0.625</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="I407" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L407" s="2"/>
       <c r="M407" s="5" t="s">
@@ -13437,17 +13514,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L412" s="2"/>
       <c r="M412" s="5" t="s">
@@ -13469,17 +13546,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="I413" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L413" s="2"/>
       <c r="M413" s="5" t="s">
@@ -13501,17 +13578,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="I414" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L414" s="2"/>
       <c r="M414" s="5" t="s">
@@ -13533,17 +13610,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="I415" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L415" s="2"/>
       <c r="M415" s="5" t="s">
@@ -13565,17 +13642,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="L416" s="2"/>
       <c r="M416" s="5" t="s">
@@ -13597,17 +13674,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="I417" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="L417" s="2"/>
       <c r="M417" s="5" t="s">
@@ -13684,1538 +13761,1544 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://fbref.com/en/matches/2021-08-13" xr:uid="{0F0B9A6D-6371-4CA2-8352-9738AF1C89B1}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9D2EB651-6E3C-49C1-925F-8887D8304B98}"/>
-    <hyperlink ref="G3" r:id="rId3" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{2573BCB8-3BC6-4035-8A01-4CEB1DB856BD}"/>
-    <hyperlink ref="I3" r:id="rId4" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{92EE18C3-9F5D-4BB2-A943-1E8588DC7EC4}"/>
-    <hyperlink ref="M3" r:id="rId5" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{9F839819-ED28-47C8-8FE3-13AD5FD89644}"/>
-    <hyperlink ref="C4" r:id="rId6" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{649983FE-8743-45E8-8009-6025AE12BEF7}"/>
-    <hyperlink ref="E4" r:id="rId7" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B67D5CED-1CB7-462F-874F-D56C0F708A88}"/>
-    <hyperlink ref="G4" r:id="rId8" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{FE519A70-58E0-48B9-91D9-A44A7D23C5C4}"/>
-    <hyperlink ref="I4" r:id="rId9" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{66DAEC21-93BE-449B-B49A-5ECFCADC10A6}"/>
-    <hyperlink ref="M4" r:id="rId10" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{AC4BCDF6-7D44-4E38-B79F-323951D3193F}"/>
-    <hyperlink ref="C5" r:id="rId11" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{0DC88BC4-E863-4A01-BF60-E69C27DC5B68}"/>
-    <hyperlink ref="E5" r:id="rId12" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{684F0103-75F8-4975-8AF8-A0C5FC8EE8B2}"/>
-    <hyperlink ref="G5" r:id="rId13" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{DB2888F0-12AB-4F0C-9B95-D66779B2D77F}"/>
-    <hyperlink ref="I5" r:id="rId14" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{F449FB0B-C36F-4A99-8FA9-FF69C573F9CB}"/>
-    <hyperlink ref="M5" r:id="rId15" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{496344BB-4C67-4572-9161-B3625D2CA13A}"/>
-    <hyperlink ref="C6" r:id="rId16" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{5753F740-0A63-4F1D-92FB-3B836936890A}"/>
-    <hyperlink ref="E6" r:id="rId17" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{40E620B3-D1A7-4DF9-940F-F984DEF4B5DC}"/>
-    <hyperlink ref="G6" r:id="rId18" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{5AA9CE0C-342F-4F31-A92C-18C573375668}"/>
-    <hyperlink ref="I6" r:id="rId19" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BC51B86D-B914-4C1A-BF53-CFE8C9BBAD22}"/>
-    <hyperlink ref="M6" r:id="rId20" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{2CCA909E-CC9C-403F-822B-155EB53E228E}"/>
-    <hyperlink ref="C7" r:id="rId21" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{593B4428-DC51-4A7A-AD99-83F2FB4AA5D8}"/>
-    <hyperlink ref="E7" r:id="rId22" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DD070853-1669-46D4-A344-7F3DBE293120}"/>
-    <hyperlink ref="G7" r:id="rId23" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{9FB0BE8A-9944-453D-91E9-82CB62175FD0}"/>
-    <hyperlink ref="I7" r:id="rId24" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{D9775D62-464C-4A9D-89DD-2B5F5FD76493}"/>
-    <hyperlink ref="M7" r:id="rId25" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{612220AB-E89E-4532-A5EA-D69D0A923CB6}"/>
-    <hyperlink ref="C8" r:id="rId26" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{C58A0048-6531-4BDC-AB61-774D2B702BE3}"/>
-    <hyperlink ref="E8" r:id="rId27" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{884CCEB8-1472-41FF-A07B-08DDCC547FE6}"/>
-    <hyperlink ref="G8" r:id="rId28" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{38E6585C-3706-46F4-94A6-807A15EDD439}"/>
-    <hyperlink ref="I8" r:id="rId29" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{1F9FAD56-84EB-417C-81DA-9066790BC6CB}"/>
-    <hyperlink ref="M8" r:id="rId30" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{EEDF749B-3ABB-4FAB-8BE2-A49EE6505D6F}"/>
-    <hyperlink ref="C9" r:id="rId31" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{39896517-25A5-4C18-8C3A-A5CBA3B1478A}"/>
-    <hyperlink ref="E9" r:id="rId32" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{4D4697D0-9687-41B3-BD5C-1D449B993A66}"/>
-    <hyperlink ref="G9" r:id="rId33" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{D6154557-20FB-45A5-9F15-1AACFB3D318F}"/>
-    <hyperlink ref="I9" r:id="rId34" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{FE8C4E43-11F2-4896-B6D5-EA60964F17DC}"/>
-    <hyperlink ref="M9" r:id="rId35" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{CE367BFE-46A2-48DB-893D-6657E2848D18}"/>
-    <hyperlink ref="C10" r:id="rId36" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{ABF78AD6-83A5-4A50-96DC-F970B2CB71BB}"/>
-    <hyperlink ref="E10" r:id="rId37" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{F5C7D1E8-7900-45DC-9956-75EA13136F98}"/>
-    <hyperlink ref="G10" r:id="rId38" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{614A4053-CC22-40CC-9414-6DB5765CA68D}"/>
-    <hyperlink ref="I10" r:id="rId39" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{840F427E-1451-4E3B-9465-DA22DC29ECE7}"/>
-    <hyperlink ref="M10" r:id="rId40" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{D5B3CFE1-1478-4F28-A9B2-A2CCCCA82DB7}"/>
-    <hyperlink ref="C11" r:id="rId41" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{C1762ACD-B0FE-4EB1-B97B-321B6BBFEB4F}"/>
-    <hyperlink ref="E11" r:id="rId42" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6EC64EF2-5000-489E-B7B2-CB9F78A95FC4}"/>
-    <hyperlink ref="G11" r:id="rId43" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{4A8D0594-8102-44B2-9AEC-615F2E449C31}"/>
-    <hyperlink ref="I11" r:id="rId44" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{7572081E-F653-402B-9693-8A5A5D912255}"/>
-    <hyperlink ref="M11" r:id="rId45" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{92EB612B-CE3B-477B-8720-D21BBB5611EF}"/>
-    <hyperlink ref="C12" r:id="rId46" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{502DD440-E334-40BC-849E-8CAF98005DBA}"/>
-    <hyperlink ref="E12" r:id="rId47" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{5CAB1E01-F41C-41C4-88E0-3BFD9BC40D94}"/>
-    <hyperlink ref="G12" r:id="rId48" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{B6CC423E-CB18-45FF-B9C8-7DDD3780C9D6}"/>
-    <hyperlink ref="I12" r:id="rId49" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{971AB0F4-FD54-4404-9C9A-F02F25559441}"/>
-    <hyperlink ref="M12" r:id="rId50" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{AE1C608C-602B-4F72-AEC6-3D9E6690647C}"/>
-    <hyperlink ref="C14" r:id="rId51" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{ADF1C65F-A209-4868-8A77-3C4DC70ED37E}"/>
-    <hyperlink ref="E14" r:id="rId52" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{64C3D81D-C32B-452D-801C-17E36D9F640F}"/>
-    <hyperlink ref="I14" r:id="rId53" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{E10A9995-41D1-49DD-9182-350855CA111C}"/>
-    <hyperlink ref="M14" r:id="rId54" display="https://fbref.com/en/stathead/matchup/squads/943e8050/822bd0ba/Burnley-vs-Liverpool-History" xr:uid="{1C145640-33AA-4A1B-B496-E60C7F82BFEE}"/>
-    <hyperlink ref="C15" r:id="rId55" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{C7F7DEC6-CECF-457D-9A2B-48B598FF096E}"/>
-    <hyperlink ref="E15" r:id="rId56" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{FBD848BF-8C1C-4815-A036-80722085F36B}"/>
-    <hyperlink ref="I15" r:id="rId57" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{39D61276-AF08-4D6D-AADE-231A54BC32E2}"/>
-    <hyperlink ref="M15" r:id="rId58" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8602292d/Newcastle-United-vs-Aston-Villa-History" xr:uid="{385FEF17-08B6-4C58-846F-AE5E987F8269}"/>
-    <hyperlink ref="C16" r:id="rId59" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{0ED066A2-D6E2-48EB-BC0A-8D3166463B79}"/>
-    <hyperlink ref="E16" r:id="rId60" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1E59263E-B52C-4A47-A367-D742E4CD4645}"/>
-    <hyperlink ref="I16" r:id="rId61" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{F19A336A-F639-4EB0-903D-D52C9201C334}"/>
-    <hyperlink ref="M16" r:id="rId62" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/1c781004/Manchester-City-vs-Norwich-City-History" xr:uid="{69121054-5A64-467D-A518-348DA549F994}"/>
-    <hyperlink ref="C17" r:id="rId63" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{29EE3C2B-374D-4DB2-93AF-9EA36B5AEE4D}"/>
-    <hyperlink ref="E17" r:id="rId64" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{E1FB580F-62B6-4115-890C-306A0CCC5C37}"/>
-    <hyperlink ref="I17" r:id="rId65" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D4740895-1CDF-490B-AC4B-C1E0ABD428D5}"/>
-    <hyperlink ref="M17" r:id="rId66" display="https://fbref.com/en/stathead/matchup/squads/cd051869/47c64c55/Brentford-vs-Crystal-Palace-History" xr:uid="{E2BE3C59-978B-4DF4-B1FF-7FE86584BC49}"/>
-    <hyperlink ref="C18" r:id="rId67" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{A20134F5-02D4-4BD0-9E43-5BFD0E3D545E}"/>
-    <hyperlink ref="E18" r:id="rId68" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{F66B7B9F-991D-4876-9E04-A56ECCC29AEC}"/>
-    <hyperlink ref="I18" r:id="rId69" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{416EFE2E-0F4A-42B7-BF20-484206FA222C}"/>
-    <hyperlink ref="M18" r:id="rId70" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/5bfb9659/Everton-vs-Leeds-United-History" xr:uid="{ED032D77-ABE9-4F8A-82F0-0793255342CC}"/>
-    <hyperlink ref="C19" r:id="rId71" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{2370825E-6824-4231-8785-38928E8D41B0}"/>
-    <hyperlink ref="E19" r:id="rId72" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C7C6DDCF-7A5B-4B79-951A-AF043184BEA8}"/>
-    <hyperlink ref="I19" r:id="rId73" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{185D37F9-2F01-44C6-AF80-034B9E44CFF3}"/>
-    <hyperlink ref="M19" r:id="rId74" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/2abfe087/Brighton-and-Hove-Albion-vs-Watford-History" xr:uid="{CEB51C68-4AA9-43E2-940B-C90C99B9EADD}"/>
-    <hyperlink ref="C20" r:id="rId75" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{6555AE75-AD98-46DF-84B4-664691B3077D}"/>
-    <hyperlink ref="E20" r:id="rId76" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{27C4CA92-23BD-4CB8-8F56-3853EC3C4F9C}"/>
-    <hyperlink ref="I20" r:id="rId77" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{19EE58C7-46BF-4344-B9C3-B2F2885952AE}"/>
-    <hyperlink ref="M20" r:id="rId78" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{9FE7BAB8-8B7B-466C-8F89-6CFDA00232B4}"/>
-    <hyperlink ref="C21" r:id="rId79" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{3F003EC3-D17C-40B1-B9B8-8F5A59D86934}"/>
-    <hyperlink ref="E21" r:id="rId80" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D827AB92-A35A-4E4B-84E8-2277C090C934}"/>
-    <hyperlink ref="I21" r:id="rId81" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{465AFF81-FBC8-4479-8752-96ECCFD97166}"/>
-    <hyperlink ref="M21" r:id="rId82" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{FB5A220C-EC86-4B52-AEF0-AC297CBBE84D}"/>
-    <hyperlink ref="C22" r:id="rId83" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{D999809B-F966-44FC-AB15-6F9CE329AE4A}"/>
-    <hyperlink ref="E22" r:id="rId84" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{E7A7F740-8975-46C2-A614-17187B1A0F60}"/>
-    <hyperlink ref="I22" r:id="rId85" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{EE0F8BA4-F045-4F41-A806-AA0747870A91}"/>
-    <hyperlink ref="M22" r:id="rId86" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{B63ABF76-A423-4951-A807-FAD066EAC1AC}"/>
-    <hyperlink ref="C23" r:id="rId87" display="https://fbref.com/en/matches/2021-08-23" xr:uid="{537EA63D-D42F-45CD-AF1C-41FF847CAF92}"/>
-    <hyperlink ref="E23" r:id="rId88" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{D6F4434C-116A-45B8-A530-174BD08147F7}"/>
-    <hyperlink ref="I23" r:id="rId89" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{BCFD2049-A2CA-4E42-A701-AED5FFB7528A}"/>
-    <hyperlink ref="M23" r:id="rId90" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{A02AD689-DABE-445C-9ACF-91563C5E813A}"/>
-    <hyperlink ref="C25" r:id="rId91" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{1991979E-CC00-48A9-8EBC-69E6A6E30E81}"/>
-    <hyperlink ref="E25" r:id="rId92" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{498E1A0C-97AB-45C6-98DF-1CDE1494C636}"/>
-    <hyperlink ref="I25" r:id="rId93" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{499DF26A-6D30-4479-8E1D-597323A9FC3D}"/>
-    <hyperlink ref="M25" r:id="rId94" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{CFDA8E70-EBBC-4009-BE28-7FCF7F4C73BD}"/>
-    <hyperlink ref="C26" r:id="rId95" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{B6AF99E6-D87C-43F8-87FA-9F5695153357}"/>
-    <hyperlink ref="E26" r:id="rId96" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7ED950A3-2F5A-4057-9B2D-2BBE598EEAB1}"/>
-    <hyperlink ref="I26" r:id="rId97" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D7DF5E98-AC5E-4C74-B45F-D63BBA5E9DFD}"/>
-    <hyperlink ref="M26" r:id="rId98" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{3C94A971-5CDD-4566-AC83-F8C4A2EC0B1C}"/>
-    <hyperlink ref="C27" r:id="rId99" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{0600A007-719D-45A6-B202-D879AE5B4C50}"/>
-    <hyperlink ref="E27" r:id="rId100" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B8521C96-F43A-43EA-95C4-07A2F7C1E0B0}"/>
-    <hyperlink ref="I27" r:id="rId101" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{DD445CD6-CE36-45E3-B0B6-A4313EB8BE7F}"/>
-    <hyperlink ref="M27" r:id="rId102" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{AFB45978-CBF4-411D-ACF3-D95688114575}"/>
-    <hyperlink ref="C28" r:id="rId103" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{0365B4F1-6344-4258-B841-6411A6F3B2A4}"/>
-    <hyperlink ref="E28" r:id="rId104" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{F4735FD8-4722-45EB-81E8-681D25060D2B}"/>
-    <hyperlink ref="I28" r:id="rId105" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{3741C3BE-5F7B-42C4-83D8-8815F9C1E8F4}"/>
-    <hyperlink ref="M28" r:id="rId106" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{51D78809-65A3-462B-BDB3-F58D68B31146}"/>
-    <hyperlink ref="C29" r:id="rId107" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{FC28D870-CDF9-4EF6-AC23-4DC7CFE02404}"/>
-    <hyperlink ref="E29" r:id="rId108" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{5AAD50AB-3FE0-4F50-8C73-3ED7CACB8F82}"/>
-    <hyperlink ref="I29" r:id="rId109" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B9C71152-50B8-4564-A534-CB8EA72B78C1}"/>
-    <hyperlink ref="M29" r:id="rId110" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{382FE52C-D9D5-49E8-B297-0AD9D6EC21AF}"/>
-    <hyperlink ref="C30" r:id="rId111" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{0ABDD120-F5C9-41E3-8093-A8020EB98BEA}"/>
-    <hyperlink ref="E30" r:id="rId112" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{813102EB-CF36-450E-B502-A939977B0D21}"/>
-    <hyperlink ref="I30" r:id="rId113" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B4687BB6-B694-4B69-812D-9E28D64179E0}"/>
-    <hyperlink ref="M30" r:id="rId114" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{23856E38-505C-4466-907B-D7B6B78A6772}"/>
-    <hyperlink ref="C31" r:id="rId115" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{E42CDF89-B264-4ECD-BC4A-046638B11C09}"/>
-    <hyperlink ref="E31" r:id="rId116" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{844FB029-AFE0-4BF0-B2CC-8DF7807E7E72}"/>
-    <hyperlink ref="I31" r:id="rId117" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2149913E-B945-47F6-B0BE-1F4737861123}"/>
-    <hyperlink ref="M31" r:id="rId118" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{A08556C4-44EF-4A1A-B5B3-E75108D37621}"/>
-    <hyperlink ref="C32" r:id="rId119" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{AF58F614-5250-48E8-AF50-2A84CAF1B4A4}"/>
-    <hyperlink ref="E32" r:id="rId120" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{5F3F7DC9-D89D-42D7-BA7E-9B60B348A259}"/>
-    <hyperlink ref="I32" r:id="rId121" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{887BADE7-4ADA-4207-9AB0-653F23E65B08}"/>
-    <hyperlink ref="M32" r:id="rId122" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{82B8128F-E732-4140-A26E-013DA68497A4}"/>
-    <hyperlink ref="C33" r:id="rId123" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{7C091785-D903-4E24-875E-1099512647D9}"/>
-    <hyperlink ref="E33" r:id="rId124" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{87C41F1B-44C2-42F0-ABD9-607BE1008ACC}"/>
-    <hyperlink ref="I33" r:id="rId125" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A0CA2E2B-6968-4D9C-B775-E098188E7346}"/>
-    <hyperlink ref="M33" r:id="rId126" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{EA71FFB0-CF52-482F-859E-E31455E46489}"/>
-    <hyperlink ref="C34" r:id="rId127" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{7903C84D-29B3-4438-8700-DDFAFD995CD2}"/>
-    <hyperlink ref="E34" r:id="rId128" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C36C4247-F50B-473D-AB7A-4A1A7579B7A6}"/>
-    <hyperlink ref="I34" r:id="rId129" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6A454A51-03E9-4D29-B6EC-EE4B55170F9C}"/>
-    <hyperlink ref="M34" r:id="rId130" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{B9A8FCF3-0D67-4B13-9DBB-D407676F67C1}"/>
-    <hyperlink ref="C36" r:id="rId131" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{7CF09F0B-4C32-43D5-B26D-B98E818EC780}"/>
-    <hyperlink ref="E36" r:id="rId132" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AD8162CE-E050-4225-B1C5-32E19A2D2D21}"/>
-    <hyperlink ref="I36" r:id="rId133" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1E50AEDC-4488-4875-AF76-AF702DDB7E38}"/>
-    <hyperlink ref="M36" r:id="rId134" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{6E79F7D0-196F-4F1C-B28E-B7CB6795DDA6}"/>
-    <hyperlink ref="C37" r:id="rId135" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{A17C107E-AC40-4933-82C2-CB170A7FF941}"/>
-    <hyperlink ref="E37" r:id="rId136" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D9BBF4DD-3F34-44D9-896A-2A0C1384445A}"/>
-    <hyperlink ref="I37" r:id="rId137" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{CC2700AF-422C-4656-ABDD-D7F9A0ABE66F}"/>
-    <hyperlink ref="M37" r:id="rId138" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{0B25B4A3-A432-4E27-8CDE-55FB6053A172}"/>
-    <hyperlink ref="C38" r:id="rId139" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{71E21026-E019-4EFD-BF25-DB17F5B447C6}"/>
-    <hyperlink ref="E38" r:id="rId140" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{09116564-C5E6-4210-922C-E37296947B34}"/>
-    <hyperlink ref="I38" r:id="rId141" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{0A46F443-B2BB-40AF-AA7E-6397FEF4F266}"/>
-    <hyperlink ref="M38" r:id="rId142" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{025646DD-EFBB-46AE-B754-74D1450520D9}"/>
-    <hyperlink ref="C39" r:id="rId143" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{527A7C5E-06AA-403C-94ED-31B761F5F7C2}"/>
-    <hyperlink ref="E39" r:id="rId144" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9B9F1D37-1F36-4932-8994-8E697574DA86}"/>
-    <hyperlink ref="I39" r:id="rId145" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E6797609-CE5E-44B1-86D4-021301B6A987}"/>
-    <hyperlink ref="M39" r:id="rId146" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{6F5FEF58-5169-4E2B-A7DD-E4C74368C44F}"/>
-    <hyperlink ref="C40" r:id="rId147" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{859B2532-89BE-4A8B-9476-72D6BD6EB3AA}"/>
-    <hyperlink ref="E40" r:id="rId148" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{BFDC8EE8-86D1-418C-87BA-5002EC507FAB}"/>
-    <hyperlink ref="I40" r:id="rId149" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{CD7D3C6D-AFA4-4BE4-9B01-792A5A1FF4AA}"/>
-    <hyperlink ref="M40" r:id="rId150" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{9731D640-0B43-4153-A1F9-A12C4602A510}"/>
-    <hyperlink ref="C41" r:id="rId151" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{3A3ED960-D368-4974-88C4-CD7D5889A136}"/>
-    <hyperlink ref="E41" r:id="rId152" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{9B3041BA-F342-417A-AEF7-3F09B636EB9C}"/>
-    <hyperlink ref="I41" r:id="rId153" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{EBF6471C-79F0-4749-8F38-47658A237BAB}"/>
-    <hyperlink ref="M41" r:id="rId154" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{0B8EEDA6-286E-49BD-B617-395447C87FFB}"/>
-    <hyperlink ref="C42" r:id="rId155" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{4158FE7A-519A-41E3-BFE3-27D21B5AA58A}"/>
-    <hyperlink ref="E42" r:id="rId156" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5817CB67-5C0A-477B-AD00-1F173490B43D}"/>
-    <hyperlink ref="I42" r:id="rId157" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{EF80DE75-4F54-4EF4-9024-FE2F289460D5}"/>
-    <hyperlink ref="M42" r:id="rId158" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{80678B35-B890-4871-9448-0AC461B4A030}"/>
-    <hyperlink ref="C43" r:id="rId159" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{8BB615DD-E816-4849-AC36-00CBBE212AC5}"/>
-    <hyperlink ref="E43" r:id="rId160" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{E00B47DB-2DC3-46A0-A397-A400BDD5BD0E}"/>
-    <hyperlink ref="I43" r:id="rId161" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4DCE2D6B-D0E9-485B-9281-F5EC1C2AB26D}"/>
-    <hyperlink ref="M43" r:id="rId162" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{D4B63A67-5B97-4331-9A37-6CDF6F644422}"/>
-    <hyperlink ref="C44" r:id="rId163" display="https://fbref.com/en/matches/2021-09-12" xr:uid="{E33CD213-F4C1-4BD4-A7C6-FAA07796A4BF}"/>
-    <hyperlink ref="E44" r:id="rId164" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{AA2E6407-8157-420D-97F7-11572433CFFE}"/>
-    <hyperlink ref="I44" r:id="rId165" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{491F3ED7-1F47-42EC-A802-A270952FDE6D}"/>
-    <hyperlink ref="M44" r:id="rId166" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{23CC1D2E-E9DF-42A2-AE63-8FAAAFA1D35D}"/>
-    <hyperlink ref="C45" r:id="rId167" display="https://fbref.com/en/matches/2021-09-13" xr:uid="{8AE2D09C-58F4-4166-8199-731C36E1EDCB}"/>
-    <hyperlink ref="E45" r:id="rId168" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{E30F7E10-286B-473A-B9D3-DF4F48EBA1E2}"/>
-    <hyperlink ref="I45" r:id="rId169" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{C491AB90-0E94-420B-B5DB-F3BB005CF99D}"/>
-    <hyperlink ref="M45" r:id="rId170" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{D3AA8E69-9155-4D4D-A2A4-46458C56471E}"/>
-    <hyperlink ref="C47" r:id="rId171" display="https://fbref.com/en/matches/2021-09-17" xr:uid="{FE3FB0FC-360C-4845-B59E-033DC8EB14EB}"/>
-    <hyperlink ref="E47" r:id="rId172" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{F5597147-D29E-4387-98A5-E7766D5C4F1C}"/>
-    <hyperlink ref="I47" r:id="rId173" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{CE394E0F-8DCF-4D55-9889-7478500C13C4}"/>
-    <hyperlink ref="M47" r:id="rId174" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{E1661319-7B56-4BA5-9C73-CBD390510D17}"/>
-    <hyperlink ref="C48" r:id="rId175" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{DEDA8593-24B4-4245-90E6-3716796B24F8}"/>
-    <hyperlink ref="E48" r:id="rId176" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EFFCBCCE-F211-44D6-BD87-F1474D10B7D4}"/>
-    <hyperlink ref="I48" r:id="rId177" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{8017BED1-D3CC-4E6D-84E6-864F8ED666A0}"/>
-    <hyperlink ref="M48" r:id="rId178" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{6730B0EB-95D2-4D97-9398-E87C063D80C3}"/>
-    <hyperlink ref="C49" r:id="rId179" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{4D8D252C-2A05-4EF1-8632-A9E824D26B2A}"/>
-    <hyperlink ref="E49" r:id="rId180" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{08B89625-A77A-4806-B65C-BC75DED7E833}"/>
-    <hyperlink ref="I49" r:id="rId181" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2470B624-D4A1-442F-BCD8-E6801E8766B5}"/>
-    <hyperlink ref="M49" r:id="rId182" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{B7A4E3B9-85A3-478F-A673-7B6E5A630A35}"/>
-    <hyperlink ref="C50" r:id="rId183" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{30C169DB-2EE9-44E7-B3BE-6891E18EE4CF}"/>
-    <hyperlink ref="E50" r:id="rId184" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5A5F51BD-A499-436D-8DB6-277C5B4DF240}"/>
-    <hyperlink ref="I50" r:id="rId185" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{ACE0D67D-B591-4E22-B302-7E0AD58106ED}"/>
-    <hyperlink ref="M50" r:id="rId186" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{A2EE1667-27B3-4E16-B9A3-BFA6722C5B7C}"/>
-    <hyperlink ref="C51" r:id="rId187" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{9F9D1587-E361-4C63-A5B7-7E1AEBFED796}"/>
-    <hyperlink ref="E51" r:id="rId188" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2B0797B3-6063-4C36-8206-A7E950B6F951}"/>
-    <hyperlink ref="I51" r:id="rId189" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{CCC61E3D-6FF6-4EC2-8E5D-4015A2D201BF}"/>
-    <hyperlink ref="M51" r:id="rId190" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{71CB4E9F-626A-4D51-8192-DDFCBCF0E57E}"/>
-    <hyperlink ref="C52" r:id="rId191" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{7089C538-6814-46EE-9FD5-8F67F891B138}"/>
-    <hyperlink ref="E52" r:id="rId192" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{C99543E1-BA8D-4DD9-B18C-65C12D10FBCB}"/>
-    <hyperlink ref="I52" r:id="rId193" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{B481C84C-17E9-42CA-80A4-98204AB064F0}"/>
-    <hyperlink ref="M52" r:id="rId194" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{F578C9FB-5B42-4DF5-B919-E7CCC3D0916E}"/>
-    <hyperlink ref="C53" r:id="rId195" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{67CC1865-A7C6-43DE-9406-D6D67C5F7D68}"/>
-    <hyperlink ref="E53" r:id="rId196" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{E28607E0-61AC-4399-8A06-4A6C9B15A6BF}"/>
-    <hyperlink ref="I53" r:id="rId197" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{C3B3BD43-24F0-4264-BE56-FA7DB2628647}"/>
-    <hyperlink ref="M53" r:id="rId198" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{A2D0FA76-2659-4AD5-B6B7-6EDE9EBF7771}"/>
-    <hyperlink ref="C54" r:id="rId199" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{67EDFBF6-1A9D-4D06-ADF9-3D4D5F20FC36}"/>
-    <hyperlink ref="E54" r:id="rId200" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{0F484D11-CB1C-46D5-8D05-7DA26D4DB740}"/>
-    <hyperlink ref="I54" r:id="rId201" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F211B836-D8BD-478A-AA1A-BD735E68989C}"/>
-    <hyperlink ref="M54" r:id="rId202" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{DAC66E44-D060-4804-A329-88901EAE8C3C}"/>
-    <hyperlink ref="C55" r:id="rId203" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{A36D2F52-FBD3-49DC-BC5D-731F6B872972}"/>
-    <hyperlink ref="E55" r:id="rId204" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{3442AF2D-CBBB-4B31-98A0-1A5296A2D4B1}"/>
-    <hyperlink ref="I55" r:id="rId205" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{390934A4-B414-4261-9F7E-D5CE7CA53E1B}"/>
-    <hyperlink ref="M55" r:id="rId206" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{BBD9569A-2838-4BBD-90C9-35228B882ECC}"/>
-    <hyperlink ref="C56" r:id="rId207" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{49C7F75C-A53E-4D07-A92F-A4A370154E37}"/>
-    <hyperlink ref="E56" r:id="rId208" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{0CED2487-29B6-4C26-97E5-37649087F91E}"/>
-    <hyperlink ref="I56" r:id="rId209" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2F4E912E-BB8A-4E72-89D0-E0A4165D0BD2}"/>
-    <hyperlink ref="M56" r:id="rId210" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{8541E52B-18ED-4ACF-AD11-FEA7B4413455}"/>
-    <hyperlink ref="C58" r:id="rId211" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{E428F899-51E4-4332-8083-4E94A3860259}"/>
-    <hyperlink ref="E58" r:id="rId212" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{80009758-5570-4D5A-8AB1-9DB108E54D75}"/>
-    <hyperlink ref="I58" r:id="rId213" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1D1BF534-7FC0-4CEA-86F8-3741E8C41050}"/>
-    <hyperlink ref="M58" r:id="rId214" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{FB0C99D9-92CA-4038-ACC3-BDA8621E0250}"/>
-    <hyperlink ref="C59" r:id="rId215" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{8B8119BF-1125-440C-BC96-4489B86E47EB}"/>
-    <hyperlink ref="E59" r:id="rId216" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{E994D637-B941-417A-83F8-511238AC2F0B}"/>
-    <hyperlink ref="I59" r:id="rId217" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BA09D26D-7A29-43ED-8731-8FB135AFE4EE}"/>
-    <hyperlink ref="M59" r:id="rId218" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{91BF7058-0DAD-4997-A88D-169996C01A2E}"/>
-    <hyperlink ref="C60" r:id="rId219" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{6F4B3039-0A2D-42A2-AB1A-93EDFC4CD82E}"/>
-    <hyperlink ref="E60" r:id="rId220" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{EAC99BE6-2B22-4DE5-8F74-CD07A2ABE00D}"/>
-    <hyperlink ref="I60" r:id="rId221" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{1ECAAC8F-4E2A-4ED4-8E6D-4B833836BE8B}"/>
-    <hyperlink ref="M60" r:id="rId222" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{3050532D-FBD6-4ECF-A583-EDB7C448D5F7}"/>
-    <hyperlink ref="C61" r:id="rId223" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{F6BD1329-D2DF-4CB0-911D-B7083C07F54B}"/>
-    <hyperlink ref="E61" r:id="rId224" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{E0FF2E72-7E5A-4FA8-AECD-B23994C6BB33}"/>
-    <hyperlink ref="I61" r:id="rId225" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{383219C7-CFDA-4636-8795-F4186BFD6AB8}"/>
-    <hyperlink ref="M61" r:id="rId226" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{FC83F2BD-DDCD-4797-8A02-F5367663B34B}"/>
-    <hyperlink ref="C62" r:id="rId227" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{02B7E8AE-5CA4-40D9-AEA1-17580953B461}"/>
-    <hyperlink ref="E62" r:id="rId228" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{034CF3F4-BF65-45DA-8E41-B8E2D7E664B9}"/>
-    <hyperlink ref="I62" r:id="rId229" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{428402F0-E76A-4043-B6E8-F323E6FE5403}"/>
-    <hyperlink ref="M62" r:id="rId230" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{25F69C93-8D60-4D75-B2AB-F219509E4738}"/>
-    <hyperlink ref="C63" r:id="rId231" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{24B30CC5-E389-4650-ADDD-85B7D41F9690}"/>
-    <hyperlink ref="E63" r:id="rId232" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7C1F89BE-F105-4EE3-A8F9-83D996E667DE}"/>
-    <hyperlink ref="I63" r:id="rId233" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{9E3BEBC2-2AE4-4346-9C05-5BED180E9A7D}"/>
-    <hyperlink ref="M63" r:id="rId234" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{E76E68C7-B24E-45DF-9A39-5A64A4F896ED}"/>
-    <hyperlink ref="C64" r:id="rId235" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{A7904392-691C-43DE-AEED-1CB2EABCA6D8}"/>
-    <hyperlink ref="E64" r:id="rId236" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{037FFE49-779E-4001-9F69-DBC9E4804EFE}"/>
-    <hyperlink ref="I64" r:id="rId237" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5C951C77-3D51-420C-85AB-A7F015B74BBC}"/>
-    <hyperlink ref="M64" r:id="rId238" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{D7C38C32-DE95-4CBE-B61C-E2538596FF54}"/>
-    <hyperlink ref="C65" r:id="rId239" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{4BB59C60-E0AF-4371-AE7D-643776AB262B}"/>
-    <hyperlink ref="E65" r:id="rId240" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{447741A4-FD89-445B-AF0F-51DEEB03E7A5}"/>
-    <hyperlink ref="I65" r:id="rId241" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{CBBCAC72-59F7-4689-BC44-59EF7D4566A0}"/>
-    <hyperlink ref="M65" r:id="rId242" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{5CB53D22-E299-46AE-A662-47FE93E76D58}"/>
-    <hyperlink ref="C66" r:id="rId243" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{BE0C8ABF-967B-4DED-AF5D-0DF054775E40}"/>
-    <hyperlink ref="E66" r:id="rId244" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{00BD3FE3-18BB-440A-8EBD-E560D65AAD36}"/>
-    <hyperlink ref="I66" r:id="rId245" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{662F2CBA-DF1B-4F68-9AAE-FE045D71215B}"/>
-    <hyperlink ref="M66" r:id="rId246" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{8B62C29A-301D-4220-A71E-DCA67166EE43}"/>
-    <hyperlink ref="C67" r:id="rId247" display="https://fbref.com/en/matches/2021-09-27" xr:uid="{311A6E51-3820-4E10-9884-E8F91D4C3810}"/>
-    <hyperlink ref="E67" r:id="rId248" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2ACA2B68-2655-4665-B9CD-F711CB611DBB}"/>
-    <hyperlink ref="I67" r:id="rId249" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{91271346-5336-4D97-8AE4-3CBFDEDC48BF}"/>
-    <hyperlink ref="M67" r:id="rId250" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{F5B03270-CEA3-44AE-97C5-440821878CAF}"/>
-    <hyperlink ref="C69" r:id="rId251" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{DB10D0AC-F405-4C47-A6CD-8AF418D2A6A6}"/>
-    <hyperlink ref="E69" r:id="rId252" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{08CCD47C-4471-45F2-B782-E7A219679FC7}"/>
-    <hyperlink ref="I69" r:id="rId253" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{CFC76311-0686-418D-AF88-1CD38AB970C5}"/>
-    <hyperlink ref="M69" r:id="rId254" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{F0BFD9BA-1A8E-46E2-9E31-E591FBD14BE1}"/>
-    <hyperlink ref="C70" r:id="rId255" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{04948362-F1D7-459A-A7D1-8430C6DA0B3A}"/>
-    <hyperlink ref="E70" r:id="rId256" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3BCB521C-C4FF-4CD1-9A52-F8A696D160DA}"/>
-    <hyperlink ref="I70" r:id="rId257" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{482EAD4D-867C-473A-8272-EAE29685A8E8}"/>
-    <hyperlink ref="M70" r:id="rId258" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{307FFF99-021B-4CEB-8004-B821F2CFE62A}"/>
-    <hyperlink ref="C71" r:id="rId259" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{2B185BD0-616A-4404-846C-21BF87043817}"/>
-    <hyperlink ref="E71" r:id="rId260" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2CDA8CA3-466F-4427-BB4A-035DE2CBFC5F}"/>
-    <hyperlink ref="I71" r:id="rId261" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{ACA72765-AD5B-4C3C-8CB6-605464ACA22E}"/>
-    <hyperlink ref="M71" r:id="rId262" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{0D154953-B29C-4E57-BF40-235EA05BFDD2}"/>
-    <hyperlink ref="C72" r:id="rId263" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{AD39D1E7-E55F-44AC-9362-105EC67A8BC7}"/>
-    <hyperlink ref="E72" r:id="rId264" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7F0B2BB7-9CD5-4584-B51D-CB9A5BBFD0AB}"/>
-    <hyperlink ref="I72" r:id="rId265" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{A14E9883-1EFD-4D09-9362-E8DE74719B1F}"/>
-    <hyperlink ref="M72" r:id="rId266" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{7CA7050B-3AFE-4698-91A2-591E0A778694}"/>
-    <hyperlink ref="C73" r:id="rId267" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{C50504F2-C581-4D4F-A3F7-819C8966D915}"/>
-    <hyperlink ref="E73" r:id="rId268" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{AED7D539-3060-4899-94FC-004FC4B56E68}"/>
-    <hyperlink ref="I73" r:id="rId269" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{AD7B0E5D-FE76-478E-BA28-314E523EAED2}"/>
-    <hyperlink ref="M73" r:id="rId270" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{86D0C349-C53F-4C16-8192-368FEB172369}"/>
-    <hyperlink ref="C74" r:id="rId271" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{8842EB26-10C1-405B-ADDF-1BFA459911F2}"/>
-    <hyperlink ref="E74" r:id="rId272" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{FAF26728-506D-42EF-9573-F0448504BDA8}"/>
-    <hyperlink ref="I74" r:id="rId273" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{25306D78-A980-44A5-ADDE-B4FDD61916C6}"/>
-    <hyperlink ref="M74" r:id="rId274" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{DE68E769-4251-4566-AA86-A8E17B636338}"/>
-    <hyperlink ref="C75" r:id="rId275" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{CFE92D7E-A11A-4001-B07D-A2AFF1A72B3A}"/>
-    <hyperlink ref="E75" r:id="rId276" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{8AC30795-8252-4C01-AE1C-49DFBD81A675}"/>
-    <hyperlink ref="I75" r:id="rId277" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{03D63A25-BCC5-439D-A4B1-32B37E2F7387}"/>
-    <hyperlink ref="M75" r:id="rId278" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{C05557FE-B9A9-452D-82F2-BF22BD04E577}"/>
-    <hyperlink ref="C76" r:id="rId279" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{12E0E0CA-1381-450F-A47B-4166442DE86A}"/>
-    <hyperlink ref="E76" r:id="rId280" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{09F7D150-9CB9-4FAB-A738-7530DD4ADD97}"/>
-    <hyperlink ref="I76" r:id="rId281" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B34793C8-51BA-4FDF-85DB-46ED807CCEE2}"/>
-    <hyperlink ref="M76" r:id="rId282" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{90D6C686-23BE-4178-AE0B-2E09853D6688}"/>
-    <hyperlink ref="C77" r:id="rId283" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{DEBFEC0D-8A34-45E4-9288-E02580659CED}"/>
-    <hyperlink ref="E77" r:id="rId284" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{DC0CF728-A0E9-40BB-AEE1-0991BEA7F525}"/>
-    <hyperlink ref="I77" r:id="rId285" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A08F3B46-1C90-4675-BA6E-6DBD3623FA91}"/>
-    <hyperlink ref="M77" r:id="rId286" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{A817F438-EFBC-4FB5-A62B-9FF5FA0FCCE8}"/>
-    <hyperlink ref="C78" r:id="rId287" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{DE1412AD-9CEA-42AE-ACCB-1876582DFF3C}"/>
-    <hyperlink ref="E78" r:id="rId288" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C00DCD08-0E54-4120-B886-0407B2BFCF4C}"/>
-    <hyperlink ref="I78" r:id="rId289" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{2ECDC6AD-5752-4923-9736-286795CE465D}"/>
-    <hyperlink ref="M78" r:id="rId290" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{D85F4D4D-0A0F-42BA-922E-BE98E6F8C809}"/>
-    <hyperlink ref="C80" r:id="rId291" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{C3ED2F20-E293-4C99-98A5-D759613FD9F8}"/>
-    <hyperlink ref="E80" r:id="rId292" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{67BC426B-DF4A-4018-ADB0-7D1BE780A597}"/>
-    <hyperlink ref="I80" r:id="rId293" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9AB2019E-8017-46C0-BCA9-CAD6F1F87325}"/>
-    <hyperlink ref="M80" r:id="rId294" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{D1CF5F00-E2BB-4725-B759-72778648BB82}"/>
-    <hyperlink ref="C81" r:id="rId295" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{8C042DA3-7AA0-4A54-93F7-4E636F2C79A2}"/>
-    <hyperlink ref="E81" r:id="rId296" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B6F1F778-E058-4A86-8813-607E33803E53}"/>
-    <hyperlink ref="I81" r:id="rId297" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B14AFF2C-8743-46F6-AF86-BC5AEA2AA6DD}"/>
-    <hyperlink ref="M81" r:id="rId298" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{CBB55C7E-368C-4673-9A20-E3A4BE3067AE}"/>
-    <hyperlink ref="C82" r:id="rId299" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{0116F4C5-D6D5-4E30-9CC3-450C442C2E63}"/>
-    <hyperlink ref="E82" r:id="rId300" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E8F03437-6462-41DF-B0B2-2BE8FCBAFCEA}"/>
-    <hyperlink ref="I82" r:id="rId301" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4FF8F557-D804-4029-8FCF-5FB7BEF252CE}"/>
-    <hyperlink ref="M82" r:id="rId302" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{5BE59027-283F-4143-8142-66E557F672C4}"/>
-    <hyperlink ref="C83" r:id="rId303" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{6DDB69B6-26CF-4122-ACEE-817CDFC4D5B7}"/>
-    <hyperlink ref="E83" r:id="rId304" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D51F7578-00D1-453F-A6B9-7DF094EB3D0A}"/>
-    <hyperlink ref="I83" r:id="rId305" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{D7D5994C-F964-49C2-B3CB-47F7AD3599A4}"/>
-    <hyperlink ref="M83" r:id="rId306" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{34B0CF0C-9AD2-4AE5-91AC-02710C46B6CF}"/>
-    <hyperlink ref="C84" r:id="rId307" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{0C18DF3D-F03F-4FDF-AE52-73587BC550B8}"/>
-    <hyperlink ref="E84" r:id="rId308" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{416C4C78-2AF4-4F1E-97DB-A716B241FB6F}"/>
-    <hyperlink ref="I84" r:id="rId309" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F1AE1518-4F8C-4B2A-8AAB-B842F6CE082D}"/>
-    <hyperlink ref="M84" r:id="rId310" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{BEF6E44C-3D49-4FF4-A089-A1E0D14533AB}"/>
-    <hyperlink ref="C85" r:id="rId311" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{191F547E-CB05-4297-AEFF-702D83C7E6B5}"/>
-    <hyperlink ref="E85" r:id="rId312" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{1EAC7401-1B9D-471C-B9CF-853DA50C5E6C}"/>
-    <hyperlink ref="I85" r:id="rId313" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EE87427E-5D62-490F-8E97-295428AAD352}"/>
-    <hyperlink ref="M85" r:id="rId314" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{806A759E-FF98-40CE-AFE7-EF583B897DC8}"/>
-    <hyperlink ref="C86" r:id="rId315" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{2EC612A3-FC3E-4D4F-AC82-9226806D6B35}"/>
-    <hyperlink ref="E86" r:id="rId316" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{A3FBFED0-060C-46B8-9DE3-9B6630688632}"/>
-    <hyperlink ref="I86" r:id="rId317" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{1A843F47-C93E-4895-B5BD-A0023646B700}"/>
-    <hyperlink ref="M86" r:id="rId318" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{8BBFF7A5-6941-4BAA-9E09-80303E01DE1B}"/>
-    <hyperlink ref="C87" r:id="rId319" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{50D637CB-AB6E-4189-A8B6-E65DF7B329D5}"/>
-    <hyperlink ref="E87" r:id="rId320" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{628B1CEA-6AE8-4248-B4A4-65EE6C88B5E6}"/>
-    <hyperlink ref="I87" r:id="rId321" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F9001C8F-4665-40D1-AD96-05D44AE50668}"/>
-    <hyperlink ref="M87" r:id="rId322" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{B5010AD5-2711-47DE-ABA9-68A19A11558F}"/>
-    <hyperlink ref="C88" r:id="rId323" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{1EC5B1FB-ACAF-4251-88D8-24F1197FFE5B}"/>
-    <hyperlink ref="E88" r:id="rId324" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{A189A51C-512F-42C5-B234-E65162B13D40}"/>
-    <hyperlink ref="I88" r:id="rId325" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{0A032E8D-E9FD-4490-8A0A-7700FE95974B}"/>
-    <hyperlink ref="M88" r:id="rId326" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{0D39ADE2-F718-4E9F-98E8-B486897966E8}"/>
-    <hyperlink ref="C89" r:id="rId327" display="https://fbref.com/en/matches/2021-10-18" xr:uid="{56B80A28-8D08-4788-8CA7-8D1708CC2028}"/>
-    <hyperlink ref="E89" r:id="rId328" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8A4586A5-891C-472B-B2EF-67FE9780E9D4}"/>
-    <hyperlink ref="I89" r:id="rId329" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{7F611142-5ED0-4095-9A6C-C801B90B76EC}"/>
-    <hyperlink ref="M89" r:id="rId330" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{05D53CAA-95EC-49D4-850E-594AFFFC508C}"/>
-    <hyperlink ref="C91" r:id="rId331" display="https://fbref.com/en/matches/2021-10-22" xr:uid="{623C1AE6-2499-44A0-9DE1-44343600451C}"/>
-    <hyperlink ref="E91" r:id="rId332" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{461F7083-9F62-4892-B0C4-0284019542B2}"/>
-    <hyperlink ref="I91" r:id="rId333" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{1B36ACEB-AEBF-421C-A179-396DFFD37F4E}"/>
-    <hyperlink ref="M91" r:id="rId334" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{EC001806-243E-49A1-84B7-881A1516D5EA}"/>
-    <hyperlink ref="C92" r:id="rId335" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{9D04DCB8-0A3C-4455-8450-340A30157FA1}"/>
-    <hyperlink ref="E92" r:id="rId336" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B71E0ED6-F0C3-4AF4-98A8-5112BEA68AAF}"/>
-    <hyperlink ref="I92" r:id="rId337" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CE6215D9-7D9F-4EB5-9ED6-B7ED312ABE85}"/>
-    <hyperlink ref="M92" r:id="rId338" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{C47905A2-3DB8-49AF-94AF-AEF9898D00EF}"/>
-    <hyperlink ref="C93" r:id="rId339" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{D198AFB8-E86E-4848-A967-FB443B564C43}"/>
-    <hyperlink ref="E93" r:id="rId340" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{F87E8A99-729F-45FA-ABFC-4E627FC5A589}"/>
-    <hyperlink ref="I93" r:id="rId341" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{496CF180-F7E9-470D-BA3E-062684A39CA9}"/>
-    <hyperlink ref="M93" r:id="rId342" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{4BC46944-762D-4715-8874-5CFE8A86DA69}"/>
-    <hyperlink ref="C94" r:id="rId343" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{21F5D503-4115-4646-B5ED-A4D5263FC87B}"/>
-    <hyperlink ref="E94" r:id="rId344" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{44D29941-6D76-4128-9FF9-5A3079C4584C}"/>
-    <hyperlink ref="I94" r:id="rId345" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{0C0CE4EB-F72C-48D5-9DA9-67FFB6669584}"/>
-    <hyperlink ref="M94" r:id="rId346" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{4BFABFDA-932C-4E97-886E-D8D83D7B2468}"/>
-    <hyperlink ref="C95" r:id="rId347" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{ABFE601A-C6F4-45CD-BF26-3FDBAE0CAAE2}"/>
-    <hyperlink ref="E95" r:id="rId348" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{C47659A3-F9DA-44F9-8823-7F7B4BB38D65}"/>
-    <hyperlink ref="I95" r:id="rId349" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C534EB0A-D737-4C41-92BC-285D84217F94}"/>
-    <hyperlink ref="M95" r:id="rId350" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{2BA91FC5-F41A-4C63-8F04-4C95364EA32A}"/>
-    <hyperlink ref="C96" r:id="rId351" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{86437C19-1738-4462-A7ED-A8F2D40360E6}"/>
-    <hyperlink ref="E96" r:id="rId352" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{4ACDD910-E046-42F9-B76D-E592206E844E}"/>
-    <hyperlink ref="I96" r:id="rId353" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C203CFB5-166D-42B8-A124-2AC3B58B2E05}"/>
-    <hyperlink ref="M96" r:id="rId354" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{A3CCD0BC-147A-4059-BD16-0CC7F564CA84}"/>
-    <hyperlink ref="C97" r:id="rId355" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{7602357F-3E12-4DBA-ABB5-660272F4CB4C}"/>
-    <hyperlink ref="E97" r:id="rId356" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E2351901-7023-4063-B14C-8EB850BCA6A4}"/>
-    <hyperlink ref="I97" r:id="rId357" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{91BC3666-322F-4563-BD0A-C0668E8092F9}"/>
-    <hyperlink ref="M97" r:id="rId358" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{45F50D51-9EB4-4250-BBAA-909C5E1EDD5C}"/>
-    <hyperlink ref="C98" r:id="rId359" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{8D3127C4-1BCD-460E-BC77-7B3CC096F2D1}"/>
-    <hyperlink ref="E98" r:id="rId360" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{86868901-B22A-43BE-87F4-AA464049B739}"/>
-    <hyperlink ref="I98" r:id="rId361" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8C606A6B-CD73-4977-B9C5-7CFB87686EE9}"/>
-    <hyperlink ref="M98" r:id="rId362" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{EEA2935B-9D40-45A9-AB32-2BEA9823EBE7}"/>
-    <hyperlink ref="C99" r:id="rId363" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{A9384B98-8208-4A26-A5C5-D8C8DC8BB2BC}"/>
-    <hyperlink ref="E99" r:id="rId364" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C263CE4C-2859-4874-AAEF-BD4F61D6D9D9}"/>
-    <hyperlink ref="I99" r:id="rId365" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{4E032BB3-1F75-4DB4-A3D8-EA9FCC2A1F05}"/>
-    <hyperlink ref="M99" r:id="rId366" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{D302C1D4-FC5A-4E38-AE81-524E8722C64C}"/>
-    <hyperlink ref="C100" r:id="rId367" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{ED472057-8A65-455E-82EE-7B0B468832B9}"/>
-    <hyperlink ref="E100" r:id="rId368" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{695EA6AE-7FBD-4126-9511-2EA76F3DDA6E}"/>
-    <hyperlink ref="I100" r:id="rId369" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{86399441-7E4E-4570-B20A-E61410197AAE}"/>
-    <hyperlink ref="M100" r:id="rId370" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{2A532208-1B8F-49E8-8F6A-74138A332282}"/>
-    <hyperlink ref="C102" r:id="rId371" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{031753F2-A32C-482D-8764-61CE47947036}"/>
-    <hyperlink ref="E102" r:id="rId372" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{C1EA2A9C-F953-4FC7-BB6A-D7B324B786AD}"/>
-    <hyperlink ref="I102" r:id="rId373" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{1E04DF12-4C9B-4AEA-B603-8591418FB1C7}"/>
-    <hyperlink ref="M102" r:id="rId374" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{79E0BB96-D426-4D94-A919-3FCA515FC5BA}"/>
-    <hyperlink ref="C103" r:id="rId375" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{4A0D6001-6E3D-47CD-BF29-776C9C909FE4}"/>
-    <hyperlink ref="E103" r:id="rId376" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{FB1072E6-60C1-4EA4-894D-A093510277EE}"/>
-    <hyperlink ref="I103" r:id="rId377" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CCE95B01-D67B-4749-952A-E476B16DD91A}"/>
-    <hyperlink ref="M103" r:id="rId378" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{E8E176B3-3EAF-4D3A-BC98-9BD5F054D065}"/>
-    <hyperlink ref="C104" r:id="rId379" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{AD648ACF-6A06-4015-A733-ADFA76E9DB0E}"/>
-    <hyperlink ref="E104" r:id="rId380" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{E9CEB0EC-797F-4CA6-89DF-C30603D15F39}"/>
-    <hyperlink ref="I104" r:id="rId381" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F24D6A61-ECAE-4E25-A442-9EA54097B2E5}"/>
-    <hyperlink ref="M104" r:id="rId382" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{A1D320AD-4905-48DD-93B4-2FF037E637E5}"/>
-    <hyperlink ref="C105" r:id="rId383" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{0E146932-1291-4113-8FE1-861CE3C11A54}"/>
-    <hyperlink ref="E105" r:id="rId384" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B72E4547-D5CA-4C5A-BFF6-AAE7BD389752}"/>
-    <hyperlink ref="I105" r:id="rId385" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7B5A2F2A-C7EC-488E-9797-B7FB94B19FFB}"/>
-    <hyperlink ref="M105" r:id="rId386" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{B97890A5-2342-422C-A839-B5F1BE540C3C}"/>
-    <hyperlink ref="C106" r:id="rId387" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{ADD3EBCA-59C1-4E6D-B29A-806122FDA5CD}"/>
-    <hyperlink ref="E106" r:id="rId388" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{10B8CE2D-5C5E-44D3-965C-FC78CE0CCBA2}"/>
-    <hyperlink ref="I106" r:id="rId389" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{2B83F55A-EE58-4902-8A09-ED1483699FD6}"/>
-    <hyperlink ref="M106" r:id="rId390" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{754689CF-3BF6-41E4-AF89-9014A3CD1C08}"/>
-    <hyperlink ref="C107" r:id="rId391" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{E97FC72E-0086-4F57-BD42-1723AA274E49}"/>
-    <hyperlink ref="E107" r:id="rId392" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{B8A1FB1B-9B4A-41F4-8FC3-88D83929F40F}"/>
-    <hyperlink ref="I107" r:id="rId393" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4D3CEC44-4FB7-490E-B0B7-BD82E2529733}"/>
-    <hyperlink ref="M107" r:id="rId394" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{715DABD8-8A34-4A1C-BF84-179CF8494C62}"/>
-    <hyperlink ref="C108" r:id="rId395" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{9F8E2DC4-CCD0-45E3-8657-73C0BC0A22D6}"/>
-    <hyperlink ref="E108" r:id="rId396" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{40ABA9CB-5B80-4E21-9B61-FB9F897F344E}"/>
-    <hyperlink ref="I108" r:id="rId397" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{D721C4EE-3F32-412A-9FE9-2C0A3B430CA7}"/>
-    <hyperlink ref="M108" r:id="rId398" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{7F658D94-E199-4954-89A8-2313CF9BE5A4}"/>
-    <hyperlink ref="C109" r:id="rId399" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{EA47C170-85E2-4284-87A0-99A619E37F42}"/>
-    <hyperlink ref="E109" r:id="rId400" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{170F68E7-449D-4AFB-8E01-5E84F404C3E0}"/>
-    <hyperlink ref="I109" r:id="rId401" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{077AE7F7-2941-49CE-8B9A-22E37EF99B57}"/>
-    <hyperlink ref="M109" r:id="rId402" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{C78E27F0-4157-40EC-A409-D6C981ACBD8A}"/>
-    <hyperlink ref="C110" r:id="rId403" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{6BCBC793-3231-4225-B26C-6225D6BA3307}"/>
-    <hyperlink ref="E110" r:id="rId404" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{89988F17-A46B-4EB2-B87A-60473975D58E}"/>
-    <hyperlink ref="I110" r:id="rId405" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{A871D8E3-206F-47DE-B884-3BEED17FCF16}"/>
-    <hyperlink ref="M110" r:id="rId406" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{8C28F8D1-B998-4DD7-BF81-26032CD120A0}"/>
-    <hyperlink ref="C111" r:id="rId407" display="https://fbref.com/en/matches/2021-11-01" xr:uid="{7447A803-ED9E-4044-94D2-B883EA9A1CB9}"/>
-    <hyperlink ref="E111" r:id="rId408" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{4061E294-9C34-4E8E-81A8-77C5C65D9581}"/>
-    <hyperlink ref="I111" r:id="rId409" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{EA88A5A9-3573-4FEA-87C7-A9612312092A}"/>
-    <hyperlink ref="M111" r:id="rId410" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{B94586D1-3941-4B4F-B3FC-43AABEB03DB1}"/>
-    <hyperlink ref="C113" r:id="rId411" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{4F3D8828-FA0F-4889-8326-825A0448A33C}"/>
-    <hyperlink ref="E113" r:id="rId412" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{70686EDB-B40D-4531-807E-B68ECFF72466}"/>
-    <hyperlink ref="I113" r:id="rId413" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{14A171B6-5C69-47C6-ACDC-71E7635195A2}"/>
-    <hyperlink ref="M113" r:id="rId414" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{F1680471-4CA7-4DED-B12E-45B701CB8269}"/>
-    <hyperlink ref="C114" r:id="rId415" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{9CCFC001-8011-47E6-AC42-FCB09B2151DC}"/>
-    <hyperlink ref="E114" r:id="rId416" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F8D65EC9-F5A1-4BC8-B8C6-1A3EB8B517C5}"/>
-    <hyperlink ref="I114" r:id="rId417" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FF96E7A3-95BB-4985-91FD-D71414417C40}"/>
-    <hyperlink ref="M114" r:id="rId418" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{C778A4FD-F667-470B-9D15-816961D67CB5}"/>
-    <hyperlink ref="C115" r:id="rId419" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{5D81339F-AC88-4541-A2B4-B1479A16507D}"/>
-    <hyperlink ref="E115" r:id="rId420" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AD753813-5C6F-4BCF-8C92-84566E8A7AA6}"/>
-    <hyperlink ref="I115" r:id="rId421" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{F1DB8176-01D4-4DF0-9337-7F622B26383A}"/>
-    <hyperlink ref="M115" r:id="rId422" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{F207F1FE-122E-4921-B3A5-AE9339FA03A2}"/>
-    <hyperlink ref="C116" r:id="rId423" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{8256BFAE-2812-4765-91AD-AF42394F58B5}"/>
-    <hyperlink ref="E116" r:id="rId424" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{38FD64BE-BF4E-40A0-9388-8195F84C467C}"/>
-    <hyperlink ref="I116" r:id="rId425" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{F41E4774-2212-45C1-B5FB-400BC17A3B8E}"/>
-    <hyperlink ref="M116" r:id="rId426" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{2E71D7D3-6FDF-475A-9C04-7A56D2048AA8}"/>
-    <hyperlink ref="C117" r:id="rId427" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{F98E6836-57FB-4F97-803B-ACCB7AE6C9B0}"/>
-    <hyperlink ref="E117" r:id="rId428" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2EF9970F-9D95-436A-AC0B-058BCBBC3628}"/>
-    <hyperlink ref="I117" r:id="rId429" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{9228F438-F4A9-4D27-83E3-10F0DA625ACE}"/>
-    <hyperlink ref="M117" r:id="rId430" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{67DC2D47-7CB3-46BC-AAF0-F2BE8A152ADB}"/>
-    <hyperlink ref="C118" r:id="rId431" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{750E3B46-6478-4DE7-A80E-3E68D6660314}"/>
-    <hyperlink ref="E118" r:id="rId432" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{FFBF4CAE-BE3B-49CB-B455-982CCECB9B1E}"/>
-    <hyperlink ref="I118" r:id="rId433" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{17315ACD-4BED-4500-B79F-6A0B306F6B14}"/>
-    <hyperlink ref="M118" r:id="rId434" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{8ED6A1B7-6424-46A7-8ED5-E5D5BDE9779C}"/>
-    <hyperlink ref="C119" r:id="rId435" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{BEB7C0C2-0FAE-4FB6-9779-170D7267930A}"/>
-    <hyperlink ref="E119" r:id="rId436" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{5358304E-2578-47E0-B920-4886E11434ED}"/>
-    <hyperlink ref="I119" r:id="rId437" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{94369ACA-EBC0-462F-808D-143CFCC21DAE}"/>
-    <hyperlink ref="M119" r:id="rId438" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{77CB2B1D-98B4-4783-A5AF-B80ECC67F8A5}"/>
-    <hyperlink ref="C120" r:id="rId439" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{733E6B99-197D-4F5E-ABE9-8CE8D9F06F3C}"/>
-    <hyperlink ref="E120" r:id="rId440" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{C5AED7F1-A76A-497F-A25F-092FB2DF758F}"/>
-    <hyperlink ref="I120" r:id="rId441" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6BF6F746-9CB5-4BED-8963-3DEF0D6BE434}"/>
-    <hyperlink ref="M120" r:id="rId442" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{2CC730EB-B526-4543-9DA8-92DC4C811B3D}"/>
-    <hyperlink ref="C121" r:id="rId443" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{0F5F3AB0-1CA2-4408-B175-8E71AAD5CC05}"/>
-    <hyperlink ref="E121" r:id="rId444" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{A7A975A7-B4FB-431A-AC9A-06D049F1BF5C}"/>
-    <hyperlink ref="I121" r:id="rId445" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{51F6B64B-51D4-4DD4-A5C9-7816675C06C3}"/>
-    <hyperlink ref="M121" r:id="rId446" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{5F7E8312-C7A7-46D4-8C0A-69E294894F87}"/>
-    <hyperlink ref="C122" r:id="rId447" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{7195662A-8B1F-461C-9CF0-54164502E6A9}"/>
-    <hyperlink ref="E122" r:id="rId448" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7CA986DB-2225-4CE1-BBD3-DC77135845FA}"/>
-    <hyperlink ref="I122" r:id="rId449" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{4D9F4B0B-A570-4AD6-8D5B-B34E6997711B}"/>
-    <hyperlink ref="M122" r:id="rId450" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{87AD9939-2391-4BD9-B3BD-25AC647E873B}"/>
-    <hyperlink ref="C124" r:id="rId451" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{325A990C-4D27-42C5-9FFF-0DD534E60EDC}"/>
-    <hyperlink ref="E124" r:id="rId452" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F74C2F59-120D-4D5E-BA75-0AF69460A2CD}"/>
-    <hyperlink ref="I124" r:id="rId453" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4B3162D1-7754-4984-9697-0979712E829E}"/>
-    <hyperlink ref="M124" r:id="rId454" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{3327273D-68BC-49A3-9FF2-720EEFCE66D6}"/>
-    <hyperlink ref="C125" r:id="rId455" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{00C87B6D-C747-4037-A21C-E9638ACD86A5}"/>
-    <hyperlink ref="E125" r:id="rId456" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{AB6E5EE6-151B-45FA-8E6C-8367875CF203}"/>
-    <hyperlink ref="I125" r:id="rId457" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{C737AB31-2B62-4DB3-A865-591382F9DD2F}"/>
-    <hyperlink ref="M125" r:id="rId458" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{72633C66-651E-43DA-AD33-0D5B133F2295}"/>
-    <hyperlink ref="C126" r:id="rId459" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{01E31A2D-2D55-469E-9CDD-9446CFE8A985}"/>
-    <hyperlink ref="E126" r:id="rId460" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{FB85D463-2199-4B6A-A4EE-BC977C94E015}"/>
-    <hyperlink ref="I126" r:id="rId461" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{9408FA6A-E9E7-461F-8FF7-F65D255DAC6D}"/>
-    <hyperlink ref="M126" r:id="rId462" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{C64F4BFF-ACFB-4BCB-A1B0-4BFD63BE2AFA}"/>
-    <hyperlink ref="C127" r:id="rId463" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{34EC38E3-4F17-4DA0-A1F0-2608640E8668}"/>
-    <hyperlink ref="E127" r:id="rId464" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A7714FAD-515B-467C-B6A0-F8E852DED720}"/>
-    <hyperlink ref="I127" r:id="rId465" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{50084130-2E28-439E-8CCF-ABD9033A378D}"/>
-    <hyperlink ref="M127" r:id="rId466" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{7AE19529-CEFB-4544-8AEA-FEC9AC0C8A32}"/>
-    <hyperlink ref="C128" r:id="rId467" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{15CDD2FE-F8DC-405C-B7C0-BB6F45B23135}"/>
-    <hyperlink ref="E128" r:id="rId468" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7EE6167C-D9FA-4F43-9321-7524E8816148}"/>
-    <hyperlink ref="I128" r:id="rId469" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8C808577-0D18-4EC7-BD8F-50A305262584}"/>
-    <hyperlink ref="M128" r:id="rId470" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{C39A362C-11FA-4C26-9A20-A80E99FEB35E}"/>
-    <hyperlink ref="C129" r:id="rId471" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{2E974677-3888-4E02-A0EF-89E0FAE3E857}"/>
-    <hyperlink ref="E129" r:id="rId472" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{588EEE9E-6600-464B-9F21-E5E61E12B412}"/>
-    <hyperlink ref="I129" r:id="rId473" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{04E78997-A681-412E-99DC-150AE3D99C18}"/>
-    <hyperlink ref="M129" r:id="rId474" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{F5E65292-0175-4CAC-93B4-E14324E95E7E}"/>
-    <hyperlink ref="C130" r:id="rId475" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{9049C3F9-75FA-410B-BDE8-FE911C43AA7F}"/>
-    <hyperlink ref="E130" r:id="rId476" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{A283A3DB-C2DD-4292-8B95-7D4935359E58}"/>
-    <hyperlink ref="I130" r:id="rId477" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{149B1642-2521-4423-9773-9CAD1C63FE86}"/>
-    <hyperlink ref="M130" r:id="rId478" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{0F6BDE6D-9D0A-45AF-9863-380E1F5493B7}"/>
-    <hyperlink ref="C131" r:id="rId479" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{F580FD3C-5CEA-4BED-97F1-2BDAF3A92144}"/>
-    <hyperlink ref="E131" r:id="rId480" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3EA92371-761A-43A7-86F3-7CFC26465536}"/>
-    <hyperlink ref="I131" r:id="rId481" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{DD266F47-D3E7-4DB0-AAD9-FC5B986B9E1C}"/>
-    <hyperlink ref="M131" r:id="rId482" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{742689A6-E32C-4C02-9183-09D38019C296}"/>
-    <hyperlink ref="C132" r:id="rId483" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{136EFEC6-0C45-4AE1-90C0-44A37D0E1D1A}"/>
-    <hyperlink ref="E132" r:id="rId484" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{058669F5-2202-413F-A465-42318C862958}"/>
-    <hyperlink ref="I132" r:id="rId485" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{80AFB561-FD48-4C64-A242-9440138016E8}"/>
-    <hyperlink ref="M132" r:id="rId486" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{CB745B55-732C-4822-9161-50FC066BE94F}"/>
-    <hyperlink ref="C133" r:id="rId487" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{02D309ED-863E-4893-86B6-5836E3E5BD4E}"/>
-    <hyperlink ref="E133" r:id="rId488" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{374B71CD-4995-40CE-84B9-CEEF531ADB0C}"/>
-    <hyperlink ref="I133" r:id="rId489" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{46AEC51C-15B8-4A93-B65E-DDE4C337387C}"/>
-    <hyperlink ref="M133" r:id="rId490" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{C12C8199-A59A-44D6-91C8-18A8ADA823C9}"/>
-    <hyperlink ref="C135" r:id="rId491" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{9A3C9958-7C89-4A09-A5A2-ECAD0AFEC707}"/>
-    <hyperlink ref="E135" r:id="rId492" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{43B51398-69E7-43AE-ACE4-54866E13DBF8}"/>
-    <hyperlink ref="I135" r:id="rId493" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{F2A3B2EB-778C-4C88-ABA9-8E0F7D3A309C}"/>
-    <hyperlink ref="M135" r:id="rId494" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{D4ADED99-446F-4180-9A5B-5A9E685ABFD1}"/>
-    <hyperlink ref="C136" r:id="rId495" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{61288822-055F-4097-B120-9714A11A0D94}"/>
-    <hyperlink ref="E136" r:id="rId496" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{F46D8DEE-1D08-4F8F-A2D2-DB56B9CB8F70}"/>
-    <hyperlink ref="I136" r:id="rId497" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{095B44EC-2BC6-4381-9735-26A6A9F8B709}"/>
-    <hyperlink ref="M136" r:id="rId498" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{5DF25DCC-21A4-4120-AB26-EE08A10107F2}"/>
-    <hyperlink ref="C137" r:id="rId499" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{D490C2D5-4DD4-4243-A98B-8808C68A9D2F}"/>
-    <hyperlink ref="E137" r:id="rId500" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{CA72541E-F7E9-423C-A952-88D66A4F5E8B}"/>
-    <hyperlink ref="I137" r:id="rId501" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BDD5653F-6363-48AF-B17B-84D8689B024E}"/>
-    <hyperlink ref="M137" r:id="rId502" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{F446983C-0C90-4364-A0C6-1B7CFC9AC827}"/>
-    <hyperlink ref="C138" r:id="rId503" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{35366848-ABC3-4A67-AB78-817ABCB90B85}"/>
-    <hyperlink ref="E138" r:id="rId504" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{C54BE16C-ECEB-4379-ADA9-ECF28BFB5117}"/>
-    <hyperlink ref="I138" r:id="rId505" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C932B7FD-7546-442A-BC4F-7F524A62BCD5}"/>
-    <hyperlink ref="M138" r:id="rId506" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{B5D42770-B670-4DDA-917C-E1E1F3239996}"/>
-    <hyperlink ref="C139" r:id="rId507" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{4CCDC043-6821-44B8-94FD-8F840FD4AD17}"/>
-    <hyperlink ref="E139" r:id="rId508" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{6C5BEC53-AC17-49B3-9B4F-2870A3D17893}"/>
-    <hyperlink ref="I139" r:id="rId509" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{5870B74C-5D44-4D6B-958F-502149A99545}"/>
-    <hyperlink ref="M139" r:id="rId510" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{FF9A6029-1DD1-4669-BCA7-2F55FD6C82F8}"/>
-    <hyperlink ref="C140" r:id="rId511" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{A7F1259D-AEC3-4156-AF1B-46FC0E222871}"/>
-    <hyperlink ref="E140" r:id="rId512" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B287A598-1E52-496D-A436-D48F06D6318F}"/>
-    <hyperlink ref="I140" r:id="rId513" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{E1AA43E2-A5D0-4CDA-9570-C7F7452793A8}"/>
-    <hyperlink ref="M140" r:id="rId514" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{F5B3C3F8-1DA2-4628-8C2E-67A71836C1A7}"/>
-    <hyperlink ref="C141" r:id="rId515" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{C71B80C1-A2F4-44E6-89BC-F2860052DC51}"/>
-    <hyperlink ref="E141" r:id="rId516" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{83532364-BD62-44F7-B27A-EEE8CFFD27CA}"/>
-    <hyperlink ref="I141" r:id="rId517" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A0D49262-354B-4E96-BE26-5688B06BDF78}"/>
-    <hyperlink ref="M141" r:id="rId518" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{E740FA17-F411-44A0-B93E-7B2C7A2077F7}"/>
-    <hyperlink ref="C142" r:id="rId519" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{8159B220-696E-448F-B9C3-267BE539AB52}"/>
-    <hyperlink ref="E142" r:id="rId520" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2B212EC4-9FE3-4013-9693-60A486991BA9}"/>
-    <hyperlink ref="I142" r:id="rId521" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DFB2C4E0-2D1B-4508-8F16-048E4A3E4F11}"/>
-    <hyperlink ref="M142" r:id="rId522" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{C995A127-D728-46F8-BEF0-81E637F6EAA6}"/>
-    <hyperlink ref="C143" r:id="rId523" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{C4B63579-8CCD-4757-B1F4-2E321D14FD28}"/>
-    <hyperlink ref="E143" r:id="rId524" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{10F97A88-1407-4104-872D-6F648518FBB8}"/>
-    <hyperlink ref="I143" r:id="rId525" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{2E054907-6B16-410D-982A-E9362B4C320D}"/>
-    <hyperlink ref="M143" r:id="rId526" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{C4A6464F-D9BA-4E3A-A030-44E4A6E961BC}"/>
-    <hyperlink ref="C144" r:id="rId527" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{C85CA424-E42C-4295-9EB6-2EBE1CD17E83}"/>
-    <hyperlink ref="E144" r:id="rId528" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{288492FD-5022-468F-9814-BE6868242674}"/>
-    <hyperlink ref="I144" r:id="rId529" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{53A49723-22F6-4702-86CF-ED0DFDA96E51}"/>
-    <hyperlink ref="M144" r:id="rId530" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{61E7D2DA-3C69-42AB-9F4C-2FDAB782106C}"/>
-    <hyperlink ref="C146" r:id="rId531" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{80CCEB64-20A5-4311-BF7F-BDE26208F79D}"/>
-    <hyperlink ref="E146" r:id="rId532" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B003747E-309A-42D9-BCF0-3C84C0456F05}"/>
-    <hyperlink ref="I146" r:id="rId533" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{A27C49A3-EC86-485E-82D6-EB82542D3B05}"/>
-    <hyperlink ref="M146" r:id="rId534" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{EB886CE0-5238-4EEC-9122-11643101DCCF}"/>
-    <hyperlink ref="C147" r:id="rId535" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{AFCF90EE-698D-4722-A94E-18BA0F80C643}"/>
-    <hyperlink ref="E147" r:id="rId536" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{DD5E854E-56D5-4B36-AEC3-B7746690C15C}"/>
-    <hyperlink ref="I147" r:id="rId537" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{8D605CBE-F8AC-4C6B-8CAE-03002AC66F3F}"/>
-    <hyperlink ref="M147" r:id="rId538" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{1C590C8D-068E-4DF3-83DA-37EE3B2286A3}"/>
-    <hyperlink ref="C148" r:id="rId539" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{758D5891-1FA3-49CE-9ABA-7B78C4F0974F}"/>
-    <hyperlink ref="E148" r:id="rId540" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DB1EBA34-AF52-44A5-8023-CEE0C0E2F5A6}"/>
-    <hyperlink ref="I148" r:id="rId541" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{32F398C0-6A7B-4B8C-83A9-B06FA7D3AC40}"/>
-    <hyperlink ref="M148" r:id="rId542" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{F0E99F98-9521-4448-94C0-19DBB982B634}"/>
-    <hyperlink ref="C149" r:id="rId543" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{DF1A0BE0-185E-4825-AF6E-D53E9C69FE6D}"/>
-    <hyperlink ref="E149" r:id="rId544" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{1EF1C422-5B3A-4141-A24F-B1C4272B1F3A}"/>
-    <hyperlink ref="I149" r:id="rId545" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{52EA571E-F33B-4FF8-8FF9-F478272576EE}"/>
-    <hyperlink ref="M149" r:id="rId546" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{DCAE2490-3C4C-4AA5-8959-CCF29F0D42FE}"/>
-    <hyperlink ref="C150" r:id="rId547" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{970FC509-096B-45D9-BB22-DB33F7DF415C}"/>
-    <hyperlink ref="E150" r:id="rId548" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DC87BCF5-2279-4245-9443-7C7FFBA0811C}"/>
-    <hyperlink ref="I150" r:id="rId549" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{381F765F-77D3-4D3B-AB00-3217BA04924B}"/>
-    <hyperlink ref="M150" r:id="rId550" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{0894081C-1F0E-4678-B670-A3D8BEB3256C}"/>
-    <hyperlink ref="C151" r:id="rId551" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{52047987-0184-486B-BE41-39FD0D2CA671}"/>
-    <hyperlink ref="E151" r:id="rId552" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{1EBFFFE2-8550-44CE-A4AB-72BDBD9114F1}"/>
-    <hyperlink ref="I151" r:id="rId553" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{19E9EF33-A925-410B-8BFC-654D56F7624F}"/>
-    <hyperlink ref="M151" r:id="rId554" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{069D369F-51A2-47D3-AA5E-5DA386A268E5}"/>
-    <hyperlink ref="C152" r:id="rId555" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{FB92FB15-9B09-43E5-A8F6-B196F7BAE844}"/>
-    <hyperlink ref="E152" r:id="rId556" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8FB078FB-77B0-4A51-80AD-039A4FF861A2}"/>
-    <hyperlink ref="I152" r:id="rId557" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9B0E8552-83D1-47F3-9C06-9CE911B38803}"/>
-    <hyperlink ref="M152" r:id="rId558" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{3D3BA8E1-82F2-47B9-B6B8-DC1F78A6A556}"/>
-    <hyperlink ref="C153" r:id="rId559" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{1DF26D3D-D737-4AA3-8B31-C17993C9EAD2}"/>
-    <hyperlink ref="E153" r:id="rId560" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{37B29F53-437D-46A6-8C43-DFFA7658F32E}"/>
-    <hyperlink ref="I153" r:id="rId561" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{34F487AB-B9C3-41D3-9CE7-F2EEDB7434C8}"/>
-    <hyperlink ref="M153" r:id="rId562" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{60497B0F-39D3-420D-88D2-A3BDAF24ED36}"/>
-    <hyperlink ref="C154" r:id="rId563" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{FA6842FF-01BB-4F1C-9FEA-CD6A6CD2E842}"/>
-    <hyperlink ref="E154" r:id="rId564" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{7C036E5F-2EAC-49C2-9729-1480D4A893E5}"/>
-    <hyperlink ref="I154" r:id="rId565" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{5554E31B-419D-4528-B061-C4F5FCB20ED0}"/>
-    <hyperlink ref="M154" r:id="rId566" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{6EABC631-683F-4F42-A247-0F1829781EED}"/>
-    <hyperlink ref="C155" r:id="rId567" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{184B5D53-93FA-4C81-910A-10D86C77AEA2}"/>
-    <hyperlink ref="E155" r:id="rId568" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9226C68A-3C9E-48F1-9A06-E43631221F0E}"/>
-    <hyperlink ref="I155" r:id="rId569" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{5891B9F8-6E4E-4445-B917-74896D5A2CF6}"/>
-    <hyperlink ref="M155" r:id="rId570" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{CC94FA28-372C-4846-B733-5C30CFB2CC68}"/>
-    <hyperlink ref="C157" r:id="rId571" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{872168AF-0F5E-49DA-9D6B-5B536600BEEC}"/>
-    <hyperlink ref="E157" r:id="rId572" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{07CD7020-4A32-4499-8546-D3E0CEFC0EE3}"/>
-    <hyperlink ref="I157" r:id="rId573" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{4DB40516-429D-41E6-8A23-4A735C4F199F}"/>
-    <hyperlink ref="M157" r:id="rId574" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{F8332948-547C-47FD-AD18-FCBDE2B5DE74}"/>
-    <hyperlink ref="C158" r:id="rId575" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{2C6131AF-4615-40EE-B630-3B49B92F28EB}"/>
-    <hyperlink ref="E158" r:id="rId576" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{E10C1DDE-0463-4BB8-8F69-DF9D6D9880D8}"/>
-    <hyperlink ref="I158" r:id="rId577" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7FD05AD8-0CD2-47F4-A7B1-9045A643CFC1}"/>
-    <hyperlink ref="M158" r:id="rId578" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{51ABABC5-D0DE-4A17-8C77-344807D5527E}"/>
-    <hyperlink ref="C159" r:id="rId579" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{DF9694C2-C7D2-4049-B1BC-67AE344CE677}"/>
-    <hyperlink ref="E159" r:id="rId580" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{1A28B819-6272-4AFE-9CE3-A6A5DE702995}"/>
-    <hyperlink ref="I159" r:id="rId581" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F2A54E1D-4D08-45F4-AA8E-A9F946E8E06F}"/>
-    <hyperlink ref="M159" r:id="rId582" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{CD7B8CE2-1AEA-42EA-BE13-8C19CD6A2938}"/>
-    <hyperlink ref="C160" r:id="rId583" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{B8E78E0D-046B-4888-BB5D-111BF6311F19}"/>
-    <hyperlink ref="E160" r:id="rId584" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{5AA2DE85-5D6B-4C37-A6E8-0AA63E23E388}"/>
-    <hyperlink ref="I160" r:id="rId585" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D386F271-2316-4A47-906A-25D4BA4A9E43}"/>
-    <hyperlink ref="M160" r:id="rId586" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{7971B9DF-C12C-4B33-BC47-2481CEA7E9D8}"/>
-    <hyperlink ref="C161" r:id="rId587" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{1F5A1525-B7B9-4A99-A4DA-7263ACD428B1}"/>
-    <hyperlink ref="E161" r:id="rId588" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6CE6ED48-80AA-4A30-91D5-4BD6C9C390A0}"/>
-    <hyperlink ref="I161" r:id="rId589" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{99C93A54-6C2D-4C1A-A6C9-845AC2B15D64}"/>
-    <hyperlink ref="M161" r:id="rId590" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{7E3AC5DB-BFBC-4DD5-93D7-0B7BDFAE5F9B}"/>
-    <hyperlink ref="C162" r:id="rId591" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{8220F4FD-1EEA-4A9E-BF78-0F5F28C78246}"/>
-    <hyperlink ref="E162" r:id="rId592" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{AD15EA73-262E-48E7-80B0-F2C961273254}"/>
-    <hyperlink ref="I162" r:id="rId593" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{D51DEF5E-07BA-4007-8C56-DB3D8550BCD1}"/>
-    <hyperlink ref="M162" r:id="rId594" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{FD2E692F-E072-471A-A6FD-70A347055D8C}"/>
-    <hyperlink ref="C163" r:id="rId595" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{07A40113-CB37-40C8-BA5D-EE9CA8EA5C9A}"/>
-    <hyperlink ref="E163" r:id="rId596" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{474744DA-3F33-46B8-B24A-5032D625EC19}"/>
-    <hyperlink ref="I163" r:id="rId597" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{67AE038A-C4EE-48FB-9520-10E21D71D780}"/>
-    <hyperlink ref="M163" r:id="rId598" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{F8327A3B-A47B-40D7-9EBF-EEE22FD5855C}"/>
-    <hyperlink ref="C164" r:id="rId599" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{C642F72E-1114-4A87-8A7D-A3DF0588541A}"/>
-    <hyperlink ref="E164" r:id="rId600" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{714E3BC6-7EAB-4919-9CAB-710190E1E50F}"/>
-    <hyperlink ref="I164" r:id="rId601" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F7E0FD9F-A3B4-467C-9D92-2D5D3E1552C9}"/>
-    <hyperlink ref="M164" r:id="rId602" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{2FEDAAF0-F26F-4F5B-9F95-67103126A137}"/>
-    <hyperlink ref="C165" r:id="rId603" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{E7353207-DB9B-4FDB-8BE6-EC708BDFE29B}"/>
-    <hyperlink ref="E165" r:id="rId604" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F3A8112B-F185-4F05-B562-3D53CE9BA191}"/>
-    <hyperlink ref="I165" r:id="rId605" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{8B8B4C13-CB84-4C0B-9562-44FCC1D93C03}"/>
-    <hyperlink ref="M165" r:id="rId606" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{24565385-A8A0-435E-A482-FDDA15CA426A}"/>
-    <hyperlink ref="C166" r:id="rId607" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{233B58B5-CC56-47F2-A150-E9B49355627D}"/>
-    <hyperlink ref="E166" r:id="rId608" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{AED72431-EA78-421F-909E-71B52BF77412}"/>
-    <hyperlink ref="I166" r:id="rId609" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{94A16360-ABB4-40AB-B036-F16EBDF83A3B}"/>
-    <hyperlink ref="M166" r:id="rId610" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{29408D33-1FD0-4292-B856-10F6E94D9218}"/>
-    <hyperlink ref="C168" r:id="rId611" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{3D7B24FB-41E3-4ED0-AAE0-413806426662}"/>
-    <hyperlink ref="E168" r:id="rId612" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7137CB20-96CB-4808-82D8-EA7F9D846AD8}"/>
-    <hyperlink ref="I168" r:id="rId613" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{57953BA3-BD8F-4093-A9DB-3B56C9DB0285}"/>
-    <hyperlink ref="M168" r:id="rId614" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{5AF778EA-F33D-4CE6-9D5E-304CD78356D7}"/>
-    <hyperlink ref="C169" r:id="rId615" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{0F3A4985-3011-473B-9FC0-FDC2CBF7D34F}"/>
-    <hyperlink ref="E169" r:id="rId616" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{8AAA6E44-1088-4E62-9D50-779437B2E436}"/>
-    <hyperlink ref="I169" r:id="rId617" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{17C98B3E-7911-4556-B924-8AED3CACF718}"/>
-    <hyperlink ref="M169" r:id="rId618" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{BE3341E6-214D-43C6-A790-66441DFC021B}"/>
-    <hyperlink ref="C170" r:id="rId619" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{E951A094-5DF8-43C0-9335-C893E134F10E}"/>
-    <hyperlink ref="E170" r:id="rId620" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{CCBE2D0C-E5D7-4580-992D-7A61ECA43858}"/>
-    <hyperlink ref="I170" r:id="rId621" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B3E51699-E737-474A-B890-16AD8A0A8B30}"/>
-    <hyperlink ref="M170" r:id="rId622" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{87049FCF-705D-48FE-8325-F04DEA52D019}"/>
-    <hyperlink ref="C171" r:id="rId623" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{1B920F07-7319-44D9-9184-EDD4CE3AB7E2}"/>
-    <hyperlink ref="E171" r:id="rId624" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{8D23CD5F-4DFF-4417-AD3C-FD91A5EF09A5}"/>
-    <hyperlink ref="I171" r:id="rId625" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8DB8A9A3-A54B-472E-80EA-111172FECEC5}"/>
-    <hyperlink ref="M171" r:id="rId626" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{45376B62-E4F9-4DD3-BC6D-627CB5497264}"/>
-    <hyperlink ref="C172" r:id="rId627" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{75B232C6-EA0C-47C4-9F83-74D3F6536FB7}"/>
-    <hyperlink ref="E172" r:id="rId628" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{118528D0-FE65-4A5D-819A-E39EFE4E6F18}"/>
-    <hyperlink ref="I172" r:id="rId629" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B3ED297B-C600-41B4-8FDA-CD0DCDFD87EC}"/>
-    <hyperlink ref="M172" r:id="rId630" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{DC9E5EAA-5BF0-4F30-93AE-45F65ADD91EE}"/>
-    <hyperlink ref="C173" r:id="rId631" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{CBC56616-DAC3-4828-A1EC-E54C393A1B79}"/>
-    <hyperlink ref="E173" r:id="rId632" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{402D33C1-097E-4412-A855-3BADF903C596}"/>
-    <hyperlink ref="I173" r:id="rId633" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{3606B276-C1E6-4CC2-AB4D-9DA9DA24B918}"/>
-    <hyperlink ref="M173" r:id="rId634" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{BC2E54F4-283F-4092-B6DC-064534127CCA}"/>
-    <hyperlink ref="C174" r:id="rId635" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{5F8E4465-89EE-4DBD-9864-83C869E88B03}"/>
-    <hyperlink ref="E174" r:id="rId636" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{206E613B-909D-4394-A7AF-55E152A069E0}"/>
-    <hyperlink ref="I174" r:id="rId637" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{57745B0D-D0E3-4BC8-91B1-FBB5EB545300}"/>
-    <hyperlink ref="M174" r:id="rId638" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{8619DA3C-DBF8-45F4-871E-4E556D56006A}"/>
-    <hyperlink ref="C175" r:id="rId639" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{0DDF6CC9-C61D-4F08-9E68-F32A4383790B}"/>
-    <hyperlink ref="E175" r:id="rId640" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{5295AB59-0F6A-45E0-B68C-509EF8207E01}"/>
-    <hyperlink ref="I175" r:id="rId641" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{7CA1701B-E733-4BE6-B3B4-D0EADDBA435F}"/>
-    <hyperlink ref="M175" r:id="rId642" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{3679BB92-8C3E-426B-96B9-30D8F17A4BA0}"/>
-    <hyperlink ref="C176" r:id="rId643" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{C6C37F53-6F0F-40F8-85A0-B226947F75A2}"/>
-    <hyperlink ref="E176" r:id="rId644" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C901C67E-E86F-4B0A-AD29-EEFBB699D32F}"/>
-    <hyperlink ref="I176" r:id="rId645" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{3C6C2D04-B93C-42AF-B7EC-6CDE0F917026}"/>
-    <hyperlink ref="M176" r:id="rId646" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{13195612-868A-46E1-95C2-A015EF14FAA7}"/>
-    <hyperlink ref="C177" r:id="rId647" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{94BD29E0-43D2-4149-A789-200CE39B0A14}"/>
-    <hyperlink ref="E177" r:id="rId648" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{0A6E0FCA-3D70-4552-9550-0F830BEF7E98}"/>
-    <hyperlink ref="I177" r:id="rId649" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6BB34892-76C8-4630-A6CC-78CACBFE6E64}"/>
-    <hyperlink ref="M177" r:id="rId650" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{BFDECD2A-932D-436E-80A1-21A4446FA742}"/>
-    <hyperlink ref="C179" r:id="rId651" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{05F65A2A-8D05-48B4-8E82-893D31AE90F3}"/>
-    <hyperlink ref="E179" r:id="rId652" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{1BC56CD5-9DB0-466C-826E-5907F5AC2D07}"/>
-    <hyperlink ref="I179" r:id="rId653" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{C0831C4B-8B03-45A0-9FA7-181AC3BAB520}"/>
-    <hyperlink ref="M179" r:id="rId654" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{2F1FFD15-EE4A-45A8-B0AC-4C434B6EDC89}"/>
-    <hyperlink ref="C180" r:id="rId655" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{8E21C650-E394-46BA-8309-906B1015E786}"/>
-    <hyperlink ref="E180" r:id="rId656" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{5CB52EB6-E59B-4CCF-9DC7-2E7368EC1B34}"/>
-    <hyperlink ref="I180" r:id="rId657" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{933C458E-1F31-41B2-9385-D9C2765FA58E}"/>
-    <hyperlink ref="M180" r:id="rId658" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{A97F1135-66F0-454B-A275-59CB563A1E04}"/>
-    <hyperlink ref="C181" r:id="rId659" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{6A89F864-2AC1-400C-9B70-2F631F6B646A}"/>
-    <hyperlink ref="E181" r:id="rId660" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A86088E6-652D-4B44-BB11-26C4C3046F01}"/>
-    <hyperlink ref="I181" r:id="rId661" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{227B19C6-BDBD-49AF-BF70-A0E0B447B064}"/>
-    <hyperlink ref="M181" r:id="rId662" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{BC6E752C-5730-41AD-A971-A42ECB7C4F12}"/>
-    <hyperlink ref="C182" r:id="rId663" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{0C73F595-0D90-4BBD-850C-AAA6E4D8F8C8}"/>
-    <hyperlink ref="E182" r:id="rId664" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{144A9F0A-B2BF-46C2-ADC1-3E97186F8D70}"/>
-    <hyperlink ref="I182" r:id="rId665" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{0BAD2390-A5CC-46AC-9CDE-34B3F158F126}"/>
-    <hyperlink ref="M182" r:id="rId666" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{289C7502-2D8A-44DB-85D3-C1E0E584B0D4}"/>
-    <hyperlink ref="C183" r:id="rId667" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{82B7F1A8-DC24-4E48-803A-BACB5C3C8F6D}"/>
-    <hyperlink ref="E183" r:id="rId668" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6CF108B7-85C5-4433-A451-CA132C140D2E}"/>
-    <hyperlink ref="I183" r:id="rId669" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{CE5BD712-D9A3-4851-B3EE-3701C43C3649}"/>
-    <hyperlink ref="M183" r:id="rId670" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{4E74D4FF-877D-4AEF-A6D5-1C16E9A50657}"/>
-    <hyperlink ref="C184" r:id="rId671" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{CFC685BB-9CB4-423F-B58E-4BBB8B5F165B}"/>
-    <hyperlink ref="E184" r:id="rId672" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1A1B45E6-ABB0-4FA5-8AF4-62E5C447CE87}"/>
-    <hyperlink ref="I184" r:id="rId673" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D0B8B05D-75BE-4C5E-80CF-578E781F0992}"/>
-    <hyperlink ref="M184" r:id="rId674" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{40F19A39-C2FA-43B0-8D9A-B31D14EBD2FC}"/>
-    <hyperlink ref="C185" r:id="rId675" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{7EBF5F69-58C2-4512-A479-A7BBD3C5CFB1}"/>
-    <hyperlink ref="E185" r:id="rId676" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D8574084-45BB-43AF-9AEA-A009C40862D2}"/>
-    <hyperlink ref="I185" r:id="rId677" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{C8FAC631-EBE4-4D2B-8C88-82212302F7DE}"/>
-    <hyperlink ref="M185" r:id="rId678" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{81872A33-E071-4BDA-A61A-895B79E11311}"/>
-    <hyperlink ref="C186" r:id="rId679" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{671FAEDB-2960-40FD-95CF-A0E67F888C57}"/>
-    <hyperlink ref="E186" r:id="rId680" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{370614BD-7783-4CA7-AD5B-9788D1F79F9A}"/>
-    <hyperlink ref="I186" r:id="rId681" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C04AFB2A-C6D4-478C-99B2-06B92E99EC94}"/>
-    <hyperlink ref="M186" r:id="rId682" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{0AA9067F-5DE7-44FC-AB8B-434F81B531DF}"/>
-    <hyperlink ref="C187" r:id="rId683" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{583B34AA-4ED3-4EE9-9740-9D58BAD38398}"/>
-    <hyperlink ref="E187" r:id="rId684" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C74A58ED-2696-4E92-A394-15E6A169C83D}"/>
-    <hyperlink ref="I187" r:id="rId685" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{4897C393-1771-4F7C-A600-2B5AFE5B1E80}"/>
-    <hyperlink ref="M187" r:id="rId686" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{3D4941D1-F8D3-499A-ADD7-956C05EA111E}"/>
-    <hyperlink ref="C188" r:id="rId687" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{61CAF26A-8CD1-4C8D-B79D-354A9982D715}"/>
-    <hyperlink ref="E188" r:id="rId688" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{9FF24E15-9ACF-4776-B70C-75A49F606D01}"/>
-    <hyperlink ref="I188" r:id="rId689" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{16E0B96D-6434-4787-B0A8-F305565F6464}"/>
-    <hyperlink ref="M188" r:id="rId690" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{F145A29C-B031-46A7-B007-ABBC1062079D}"/>
-    <hyperlink ref="C190" r:id="rId691" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{B62F7DE7-D9FF-46E7-BAE3-9C52C4699414}"/>
-    <hyperlink ref="E190" r:id="rId692" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8522BF0C-BAF9-40EC-BEC1-EB4D59F6A096}"/>
-    <hyperlink ref="I190" r:id="rId693" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{74F379D1-5E44-449A-9A2C-7C2DFD5D3BEF}"/>
-    <hyperlink ref="M190" r:id="rId694" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{C5FE3648-BCD1-402B-A801-A001FF9186F8}"/>
-    <hyperlink ref="C191" r:id="rId695" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{38F9548B-D47D-450D-A8F6-D0B300C9D317}"/>
-    <hyperlink ref="E191" r:id="rId696" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A9DB25A7-9D06-4217-91C2-E7DF681C0A59}"/>
-    <hyperlink ref="I191" r:id="rId697" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{6B1F9D96-CB11-465A-BE0F-29C55B2C6BEE}"/>
-    <hyperlink ref="M191" r:id="rId698" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{9DA57E06-7CB3-421F-B4BC-0AEB255E09AD}"/>
-    <hyperlink ref="C192" r:id="rId699" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{7D27B2A9-A802-42E3-8F4E-065B6EE31F76}"/>
-    <hyperlink ref="E192" r:id="rId700" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5136EA59-B42F-4519-A4F9-3ABBF0948685}"/>
-    <hyperlink ref="I192" r:id="rId701" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{93CBADEF-C1EB-4C31-B471-D1EC9029994C}"/>
-    <hyperlink ref="M192" r:id="rId702" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{E1043B6B-DF63-4177-9BAD-85799A8D57DF}"/>
-    <hyperlink ref="C193" r:id="rId703" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{2127C1FB-25A4-43A2-9BCF-3C0DBC3C616F}"/>
-    <hyperlink ref="E193" r:id="rId704" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D0EECE8A-1931-4F8D-8299-82B57D9CA7B0}"/>
-    <hyperlink ref="I193" r:id="rId705" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5C437D8D-1EBA-476E-8927-31B5D8C9D447}"/>
-    <hyperlink ref="M193" r:id="rId706" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{80CC3B60-CAA0-4993-A705-ADA384D46505}"/>
-    <hyperlink ref="C194" r:id="rId707" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{AEFD62F5-75C0-4E2F-AE6A-1473512B5633}"/>
-    <hyperlink ref="E194" r:id="rId708" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C6C2FEB9-D92C-49E3-BDDB-5E1FAB3B9C09}"/>
-    <hyperlink ref="I194" r:id="rId709" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E9DF3B07-E3DA-4044-9386-E822B007A293}"/>
-    <hyperlink ref="M194" r:id="rId710" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{48256072-E22E-4423-BFF8-23A13C7F0AFC}"/>
-    <hyperlink ref="C195" r:id="rId711" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{B39BC09D-F4F6-480E-BA1C-C2B585D3FBA1}"/>
-    <hyperlink ref="E195" r:id="rId712" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{59911F39-E673-4E31-BD1C-82958CDF9D7E}"/>
-    <hyperlink ref="I195" r:id="rId713" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{60B1FD29-7EB3-4B46-B48C-F7E4501BBB78}"/>
-    <hyperlink ref="M195" r:id="rId714" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{077E4F63-7DFA-4BC8-83C3-808116AEC7CE}"/>
-    <hyperlink ref="C196" r:id="rId715" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{A1C298DE-D83D-4163-BF83-074CADE73765}"/>
-    <hyperlink ref="E196" r:id="rId716" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E0C0772B-12F6-497A-B152-72607C67FAC0}"/>
-    <hyperlink ref="I196" r:id="rId717" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{C6636B74-D3BF-4830-9274-D289256A8DE9}"/>
-    <hyperlink ref="M196" r:id="rId718" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{8FE6B99F-9757-458E-89E0-C12B4C2478E1}"/>
-    <hyperlink ref="C197" r:id="rId719" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{C17B6F4F-F4D0-4186-8577-0E5087FFDF71}"/>
-    <hyperlink ref="E197" r:id="rId720" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{A3753475-3355-41AE-95A5-53CA46EF697F}"/>
-    <hyperlink ref="I197" r:id="rId721" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{4D13A90C-FE0B-4AC4-9ED0-B896BA06E26B}"/>
-    <hyperlink ref="M197" r:id="rId722" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{92DE87DE-8024-4D5C-8D91-2BEA2B5A82FC}"/>
-    <hyperlink ref="C198" r:id="rId723" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{77BE0821-B5AA-4B53-B786-905ABF3DAECC}"/>
-    <hyperlink ref="E198" r:id="rId724" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{78F9D2EF-3691-4288-821E-B0493180AC9D}"/>
-    <hyperlink ref="I198" r:id="rId725" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{EB6033C5-72DB-4193-893E-94F2747BF3C8}"/>
-    <hyperlink ref="M198" r:id="rId726" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{AFC02BB1-25BD-487B-B84E-80898C668777}"/>
-    <hyperlink ref="C199" r:id="rId727" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{C20A66DF-811F-47D3-9C4E-9DD471CA95EF}"/>
-    <hyperlink ref="E199" r:id="rId728" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{ADDA62ED-0B73-4A64-A343-854A9A26B5D4}"/>
-    <hyperlink ref="I199" r:id="rId729" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{19A43FC0-0919-4BE4-876E-EF16FF2D780A}"/>
-    <hyperlink ref="M199" r:id="rId730" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{ABCC5BE7-7D4D-406F-B8DE-A48D68A4E1CE}"/>
-    <hyperlink ref="C201" r:id="rId731" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{A9489DA5-12A6-4ECF-84A3-A4F083A9CEF2}"/>
-    <hyperlink ref="E201" r:id="rId732" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{6FFFCEDC-0AED-4708-B554-43477EB689EC}"/>
-    <hyperlink ref="I201" r:id="rId733" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{2F8D09A7-7A18-4DCF-B0A5-6A2CB31084D8}"/>
-    <hyperlink ref="M201" r:id="rId734" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{9B58FA76-0471-4411-999F-E9324B21ABB9}"/>
-    <hyperlink ref="C202" r:id="rId735" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{1495DF25-45C4-425A-BFE1-B662C8E32F53}"/>
-    <hyperlink ref="E202" r:id="rId736" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4BBDADB7-3147-488C-9026-7E73C4732706}"/>
-    <hyperlink ref="I202" r:id="rId737" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B18F3872-4FEE-4170-A5EA-4149AD8EF7F1}"/>
-    <hyperlink ref="M202" r:id="rId738" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{6F1FDB85-C7B0-4E5B-86DB-39A94A29531D}"/>
-    <hyperlink ref="C203" r:id="rId739" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{DF101F1F-A7B2-4D3F-B20A-E96DDC81EC08}"/>
-    <hyperlink ref="E203" r:id="rId740" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{63DA9F7E-A235-419B-9CD9-3E238A77A3BA}"/>
-    <hyperlink ref="I203" r:id="rId741" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{A3C79048-3AB3-4355-8734-FD46473FA9AC}"/>
-    <hyperlink ref="M203" r:id="rId742" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{4F8C02C9-2C0B-4A4A-9785-46CD70B568E1}"/>
-    <hyperlink ref="C204" r:id="rId743" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{2DC47D0C-E53A-49A3-A250-D8D830B82523}"/>
-    <hyperlink ref="E204" r:id="rId744" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{2385A461-0D7D-4F87-87F4-22921B4C2142}"/>
-    <hyperlink ref="I204" r:id="rId745" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F2B960E4-714D-4FB9-B49F-3F183A6F6717}"/>
-    <hyperlink ref="M204" r:id="rId746" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{7A8F3935-756F-4494-BCC2-7EB1E32AA0D7}"/>
-    <hyperlink ref="C205" r:id="rId747" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{0DF2265C-C53B-4CC9-935F-E72A4AF5E849}"/>
-    <hyperlink ref="E205" r:id="rId748" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{03073916-32FB-4811-8697-BF0E9048A6E6}"/>
-    <hyperlink ref="I205" r:id="rId749" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0BA06900-A1E6-4429-A989-0C32A8F7C459}"/>
-    <hyperlink ref="M205" r:id="rId750" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{41A67447-C1D7-46B8-8289-BC7CC51FBEB3}"/>
-    <hyperlink ref="C206" r:id="rId751" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{2FCA5808-A71A-42E6-A9AA-FE768FCDB0B2}"/>
-    <hyperlink ref="E206" r:id="rId752" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B8E94BF9-CEB9-41B9-9A72-32819AAD6BD2}"/>
-    <hyperlink ref="I206" r:id="rId753" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{E035BAD1-0726-49F4-A043-7D19DA7B1020}"/>
-    <hyperlink ref="M206" r:id="rId754" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{4FD2CD5B-7DE2-4A51-84FD-9E25BC1C48A1}"/>
-    <hyperlink ref="C207" r:id="rId755" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B975D87E-E5E3-49F5-A8F9-A503DDA913DA}"/>
-    <hyperlink ref="E207" r:id="rId756" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{AE66EFFB-7F43-4D35-AC8F-DF253B66E4BC}"/>
-    <hyperlink ref="I207" r:id="rId757" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{2C899CCE-6EAA-4F65-834B-B83695A3DF0F}"/>
-    <hyperlink ref="M207" r:id="rId758" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{122BE09E-6184-4FD5-A132-BD63B9D7E75D}"/>
-    <hyperlink ref="C208" r:id="rId759" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{9FC222DC-8AA3-4BBF-8FE7-3C568DF0744F}"/>
-    <hyperlink ref="E208" r:id="rId760" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{1BF56A93-663E-4A27-837C-44594C6F732D}"/>
-    <hyperlink ref="I208" r:id="rId761" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{BAE9D81A-90E5-4656-8218-E5194E00784C}"/>
-    <hyperlink ref="M208" r:id="rId762" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{97D570D6-B48E-4C01-8D51-3D3CFE19CF59}"/>
-    <hyperlink ref="C209" r:id="rId763" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B6D94059-1ECF-4CE4-9D79-27DD17A89B87}"/>
-    <hyperlink ref="E209" r:id="rId764" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{342106EC-8782-4576-8E17-7A6A5A662D83}"/>
-    <hyperlink ref="I209" r:id="rId765" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{7B634F87-CFA0-49E3-926D-C15F04B88423}"/>
-    <hyperlink ref="M209" r:id="rId766" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{AC9C663C-80D7-48D4-A6E9-E9033A344C11}"/>
-    <hyperlink ref="C210" r:id="rId767" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B1283EC1-B574-47C7-8E2B-4AC8405E2B1C}"/>
-    <hyperlink ref="E210" r:id="rId768" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7DE95310-3595-48F1-99CF-5F93CCFC6A21}"/>
-    <hyperlink ref="I210" r:id="rId769" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{582B489E-FC03-427F-A74E-355C6CFA7200}"/>
-    <hyperlink ref="M210" r:id="rId770" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{15012C08-E800-4E0B-B9A4-69CAD1A2E0B7}"/>
-    <hyperlink ref="C212" r:id="rId771" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{9B76EE2B-9360-48A2-B0DC-60C08F879E39}"/>
-    <hyperlink ref="E212" r:id="rId772" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A886F336-A137-409E-85C7-18C59F5AF274}"/>
-    <hyperlink ref="I212" r:id="rId773" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{63CA5A14-43B7-4010-90F3-F599D4366C3C}"/>
-    <hyperlink ref="M212" r:id="rId774" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{6CCF72E3-6CD0-418F-B9E6-C82E39CBD90D}"/>
-    <hyperlink ref="C213" r:id="rId775" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{43092D69-581B-4FB3-A388-2C4FE5D902D7}"/>
-    <hyperlink ref="E213" r:id="rId776" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B8DAB247-A8C2-47EF-8F36-1899F3ECE8DF}"/>
-    <hyperlink ref="I213" r:id="rId777" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{DC48F937-BE40-4844-BBB7-FE142F46AA47}"/>
-    <hyperlink ref="M213" r:id="rId778" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{C1BAC3E9-62B2-4ACB-971F-E61F6B5AA082}"/>
-    <hyperlink ref="C214" r:id="rId779" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{66F51691-5E39-4F8A-894D-1998714ED885}"/>
-    <hyperlink ref="E214" r:id="rId780" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1F3C1F81-ABEC-4767-9705-47B998C027A9}"/>
-    <hyperlink ref="I214" r:id="rId781" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{84403404-B584-4BC3-8EC6-A6AB5A0AAEAA}"/>
-    <hyperlink ref="M214" r:id="rId782" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{FDA9F336-9624-4876-8DA7-389DA45DD7C8}"/>
-    <hyperlink ref="C215" r:id="rId783" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{627876C0-67B9-49F7-B1A8-86FF50D586AF}"/>
-    <hyperlink ref="E215" r:id="rId784" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{30A22A48-E202-4DF6-B1D0-106A7A487434}"/>
-    <hyperlink ref="I215" r:id="rId785" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{CEC2E4CB-FECD-4F38-861F-C395D0B40D9D}"/>
-    <hyperlink ref="M215" r:id="rId786" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{05085CC2-2BE7-4F98-87E3-312363AABBF0}"/>
-    <hyperlink ref="C216" r:id="rId787" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{BBF4433A-FC7E-4E0D-81E5-7F103841B356}"/>
-    <hyperlink ref="E216" r:id="rId788" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{6DA55E32-C4AC-473A-BBA1-C11D4AAAE543}"/>
-    <hyperlink ref="I216" r:id="rId789" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{6683D265-FBF5-48AE-BA66-612729774241}"/>
-    <hyperlink ref="M216" r:id="rId790" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{D43F7781-2432-4CC2-9D88-E01EE9842705}"/>
-    <hyperlink ref="C217" r:id="rId791" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{F0197562-9584-4938-9D07-CF4A17F236A6}"/>
-    <hyperlink ref="E217" r:id="rId792" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A209A706-39D3-4B37-8940-B137AD21725D}"/>
-    <hyperlink ref="I217" r:id="rId793" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{93D260CF-FD62-4C7F-9A2F-391A9956357E}"/>
-    <hyperlink ref="M217" r:id="rId794" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{10049BBF-318C-4FD1-8457-2EBFE1BD71D3}"/>
-    <hyperlink ref="C218" r:id="rId795" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{A3B656A7-5486-4807-A7E7-6907261EE9FB}"/>
-    <hyperlink ref="E218" r:id="rId796" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{72B58089-BD7B-457A-8B37-84D81E49DC2B}"/>
-    <hyperlink ref="I218" r:id="rId797" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{44C84B6C-0C5E-4571-A96F-D57E24687F21}"/>
-    <hyperlink ref="M218" r:id="rId798" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{043248B9-6FE4-4999-BACB-CA1D929C241C}"/>
-    <hyperlink ref="C219" r:id="rId799" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{92486F3E-0937-453D-9981-7F76CE3853CC}"/>
-    <hyperlink ref="E219" r:id="rId800" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{4D4254D6-BA47-4A84-BAA9-CF15B5111E8B}"/>
-    <hyperlink ref="I219" r:id="rId801" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D6B31447-81A7-4073-8D4C-77EFD52690B3}"/>
-    <hyperlink ref="M219" r:id="rId802" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{DF0D32D5-FF21-4BBE-8A7B-6173BDF3AE58}"/>
-    <hyperlink ref="C220" r:id="rId803" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{DDF7DFB1-83D9-499B-BB52-8FD6F8EDD7FD}"/>
-    <hyperlink ref="E220" r:id="rId804" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7A3954BC-CCD6-4008-A3D3-6297B13E8CB5}"/>
-    <hyperlink ref="I220" r:id="rId805" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{E2FBB033-CE37-4D1C-8107-45086D24FB2B}"/>
-    <hyperlink ref="M220" r:id="rId806" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{50CAF598-700A-4613-90C9-81DC9B20E512}"/>
-    <hyperlink ref="C221" r:id="rId807" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{2975F026-3B3A-42F5-A6E9-273B2D39325C}"/>
-    <hyperlink ref="E221" r:id="rId808" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{9B8A088F-02AB-4CBA-8F01-49A7F4A1A16F}"/>
-    <hyperlink ref="I221" r:id="rId809" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{86D47C5F-1C38-4617-A6A4-4A08512BE0AD}"/>
-    <hyperlink ref="M221" r:id="rId810" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{3D9E8EB2-327F-43F9-90AB-DA1541A9C330}"/>
-    <hyperlink ref="C223" r:id="rId811" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{564399F8-0B78-45B4-B77B-864037A05A9C}"/>
-    <hyperlink ref="E223" r:id="rId812" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B6985DEC-9BE8-4AD0-A2C5-BC5F3D52C685}"/>
-    <hyperlink ref="I223" r:id="rId813" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{05F2981D-D012-42E0-9C0C-A08AA6611BF9}"/>
-    <hyperlink ref="M223" r:id="rId814" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{D8A1CC9F-16F7-490F-B1B2-840BCA43C366}"/>
-    <hyperlink ref="C224" r:id="rId815" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{10905B03-2844-4184-B7C0-B91E1A7655DD}"/>
-    <hyperlink ref="E224" r:id="rId816" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{E79409AD-4E38-4F45-9D27-1D066D17E709}"/>
-    <hyperlink ref="I224" r:id="rId817" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{6F274021-56C5-4940-9E81-4A85EFEA1D81}"/>
-    <hyperlink ref="M224" r:id="rId818" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{F9869C7A-A5A0-4C1B-ADE6-2C64CEBD9170}"/>
-    <hyperlink ref="C225" r:id="rId819" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{FD805386-9165-461B-AAB7-86CCEE073218}"/>
-    <hyperlink ref="E225" r:id="rId820" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{47F3E6D9-B1B8-4E56-B800-8AF020DEA63F}"/>
-    <hyperlink ref="I225" r:id="rId821" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{375B2D81-15C8-4D5A-A842-A71F694545A7}"/>
-    <hyperlink ref="M225" r:id="rId822" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{73A5CD1B-485A-43C3-8395-F2F0EB1A9252}"/>
-    <hyperlink ref="C226" r:id="rId823" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{081CABD9-BF8A-4F65-857F-AE8064CEAAD2}"/>
-    <hyperlink ref="E226" r:id="rId824" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{FE84F9B9-7B8F-4A85-B374-3C6E686BB223}"/>
-    <hyperlink ref="I226" r:id="rId825" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{0E9DBC24-8449-4E37-BDEC-77854967CF10}"/>
-    <hyperlink ref="M226" r:id="rId826" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{F37999A5-54A9-4200-B291-B3918E303117}"/>
-    <hyperlink ref="C227" r:id="rId827" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{4DF19A01-9BEE-4677-8174-AA282E11ED9F}"/>
-    <hyperlink ref="E227" r:id="rId828" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F2360C2D-79B7-4A86-BBD7-A47411A0BB82}"/>
-    <hyperlink ref="I227" r:id="rId829" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9F218D09-36F5-4DC6-A378-F802565272A4}"/>
-    <hyperlink ref="M227" r:id="rId830" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{C77C8206-32BF-4E4A-9272-81D17B9A9B2C}"/>
-    <hyperlink ref="C228" r:id="rId831" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{A74F2982-F45E-4AE5-9B47-3ABD6CFBA1E3}"/>
-    <hyperlink ref="E228" r:id="rId832" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D2FBE5D7-F1EF-465C-A10D-E082790F3D02}"/>
-    <hyperlink ref="I228" r:id="rId833" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4E52F2AB-6894-431B-B843-643724E48722}"/>
-    <hyperlink ref="M228" r:id="rId834" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{65227056-7CC4-4901-8101-FE5E798A28BE}"/>
-    <hyperlink ref="C229" r:id="rId835" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{7924B7ED-CC93-4E3E-BB51-0634C0859C5D}"/>
-    <hyperlink ref="E229" r:id="rId836" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{39FBCFDA-C789-48AA-8D70-A5809E8136F4}"/>
-    <hyperlink ref="I229" r:id="rId837" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{620055B1-A039-4267-AE04-F5056E14F447}"/>
-    <hyperlink ref="M229" r:id="rId838" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{E05AA971-D9AB-42E2-A6D5-36DC99E61CB8}"/>
-    <hyperlink ref="C230" r:id="rId839" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{1A2F238D-2E5D-4BAA-9B78-F35F52173DB3}"/>
-    <hyperlink ref="E230" r:id="rId840" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{63831E8C-DABF-4098-A19D-E4DE97699458}"/>
-    <hyperlink ref="I230" r:id="rId841" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{3AFA24D7-1308-4A57-93D5-F06DC2156B70}"/>
-    <hyperlink ref="M230" r:id="rId842" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{4FF9ECA5-5E62-4785-9E99-F30EA5D4DB64}"/>
-    <hyperlink ref="C231" r:id="rId843" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{3BD2A280-510B-4EF6-9662-400CCE954398}"/>
-    <hyperlink ref="E231" r:id="rId844" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{791C6CCE-CCEA-4987-A336-B81D943F0E18}"/>
-    <hyperlink ref="I231" r:id="rId845" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{4FC2FC30-AB68-4697-912D-30A2918E025C}"/>
-    <hyperlink ref="M231" r:id="rId846" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{36E62C5A-22F9-4D34-ACA0-CBC0F1746F88}"/>
-    <hyperlink ref="C232" r:id="rId847" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{471DFE7D-BEF0-462A-ACDF-8AF9335ECA65}"/>
-    <hyperlink ref="E232" r:id="rId848" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0D0ED41C-D798-4BFE-B824-BBE17B583B5B}"/>
-    <hyperlink ref="I232" r:id="rId849" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{424BAFB1-45BC-439E-8B0C-8E3D1E3AFDF1}"/>
-    <hyperlink ref="M232" r:id="rId850" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{26D69776-738E-4CAF-8A53-C2DD8A2160FD}"/>
-    <hyperlink ref="C234" r:id="rId851" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{E03661F0-9EBA-4163-B7A8-9DE14D4A2F8F}"/>
-    <hyperlink ref="E234" r:id="rId852" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{78FDB78B-2CB3-48C5-824A-B526ED7E397D}"/>
-    <hyperlink ref="I234" r:id="rId853" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{BF48DEEE-064F-4AEF-8B94-D5B41BB6C683}"/>
-    <hyperlink ref="M234" r:id="rId854" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{274A1DBD-1F4E-46D0-9920-D79F8198523D}"/>
-    <hyperlink ref="C235" r:id="rId855" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{9A58F002-6262-4852-8E53-5A371357D6CE}"/>
-    <hyperlink ref="E235" r:id="rId856" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{DEDD57C3-3D8E-43FF-920F-C935E830E1D5}"/>
-    <hyperlink ref="I235" r:id="rId857" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{E170A911-50AD-4A53-A18A-F5F9DDE3F1B8}"/>
-    <hyperlink ref="M235" r:id="rId858" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{6D9BD297-D1CD-4B7F-8D92-20A3D3CCA429}"/>
-    <hyperlink ref="C236" r:id="rId859" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{304201DB-6C44-4810-A2E5-5C0C573F1846}"/>
-    <hyperlink ref="E236" r:id="rId860" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{0AC80522-116A-4405-B516-A2AB859E5D57}"/>
-    <hyperlink ref="I236" r:id="rId861" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{0EF6A277-DF25-4AE4-908A-F86E6D959B12}"/>
-    <hyperlink ref="M236" r:id="rId862" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{53C0EAA5-C2AD-42F0-9B96-1465B3052183}"/>
-    <hyperlink ref="C237" r:id="rId863" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{8F3DF5DE-5714-421F-A985-885FCF252F6E}"/>
-    <hyperlink ref="E237" r:id="rId864" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{45DD79C3-A6A9-44FC-9247-5D71F45B6A58}"/>
-    <hyperlink ref="I237" r:id="rId865" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{089885E7-BC2E-4C47-9569-B91583D00D6A}"/>
-    <hyperlink ref="M237" r:id="rId866" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{F1629C62-29C5-4C02-AD5B-6CD02E97AB61}"/>
-    <hyperlink ref="C238" r:id="rId867" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{CB464A96-9550-4FA1-9A43-0042F598444F}"/>
-    <hyperlink ref="E238" r:id="rId868" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{70FCC3F8-EC07-4A4B-ADA3-973CBE2DE316}"/>
-    <hyperlink ref="I238" r:id="rId869" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E87B7837-8878-480D-B021-7E5979221261}"/>
-    <hyperlink ref="M238" r:id="rId870" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{690D0F38-7883-4489-88E5-2E10015A13E4}"/>
-    <hyperlink ref="C239" r:id="rId871" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{35C6950F-F7B3-4508-AB7C-F9D8AF371B0C}"/>
-    <hyperlink ref="E239" r:id="rId872" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D823E03C-2E61-4B14-8EBF-528A2E7C87ED}"/>
-    <hyperlink ref="I239" r:id="rId873" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{73B9FCCC-CC97-4DB2-AE99-AB62ACF9283F}"/>
-    <hyperlink ref="M239" r:id="rId874" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{C767227F-E2C8-45BA-A76A-15209D8E972C}"/>
-    <hyperlink ref="C240" r:id="rId875" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{DB7EF732-D8B9-4ED8-8668-7A9AC3724BB0}"/>
-    <hyperlink ref="E240" r:id="rId876" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{338BBB31-4032-4919-A134-F11799D9E466}"/>
-    <hyperlink ref="I240" r:id="rId877" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0EAC6C1A-C746-4115-AE4F-A9C11E947A17}"/>
-    <hyperlink ref="M240" r:id="rId878" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{B6CEC079-8DAA-4338-B337-B59B880EC46F}"/>
-    <hyperlink ref="C241" r:id="rId879" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{F56D74A3-3A24-4C49-AB24-68242BA59704}"/>
-    <hyperlink ref="E241" r:id="rId880" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1DEDB05D-5102-4840-B31F-B46190793147}"/>
-    <hyperlink ref="I241" r:id="rId881" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2ECD0E80-57C1-4FC5-A45A-22961D55D35F}"/>
-    <hyperlink ref="M241" r:id="rId882" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{C6593C6E-2CB5-41C2-8E8A-2A5B490139C9}"/>
-    <hyperlink ref="C242" r:id="rId883" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{85F906ED-C0F3-4859-A4F0-5F20ACE31621}"/>
-    <hyperlink ref="E242" r:id="rId884" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{9EA21D0D-D5BF-460C-814A-E0BE29D1AF72}"/>
-    <hyperlink ref="I242" r:id="rId885" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{4874987F-1DB0-4935-8161-3CFCB8C3B656}"/>
-    <hyperlink ref="M242" r:id="rId886" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{85F19EDF-17C3-447E-B453-018BA48448F5}"/>
-    <hyperlink ref="C243" r:id="rId887" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{98EFB3D2-43A9-4EDA-B681-BDABD10D9A1A}"/>
-    <hyperlink ref="E243" r:id="rId888" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B20A3373-526C-46C4-BB92-FA9D5871E7DD}"/>
-    <hyperlink ref="I243" r:id="rId889" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7767D1FA-C04F-4EF5-B407-2E27AD83D15C}"/>
-    <hyperlink ref="M243" r:id="rId890" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{DEB54A54-C18F-4734-ADDC-108F10CA970E}"/>
-    <hyperlink ref="C245" r:id="rId891" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{A46D5CC0-5CBF-49D5-B657-E113335DD4F2}"/>
-    <hyperlink ref="E245" r:id="rId892" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{21AE3CDC-7554-4723-B0FF-6FA2078A86CC}"/>
-    <hyperlink ref="I245" r:id="rId893" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{08FC62C9-21BD-4EEB-988C-8F2CF1409988}"/>
-    <hyperlink ref="M245" r:id="rId894" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{A6C1ED8B-3772-4708-A6B4-44A17806989B}"/>
-    <hyperlink ref="C246" r:id="rId895" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{0D275B88-CD99-4A2A-917F-414F37B26C3E}"/>
-    <hyperlink ref="E246" r:id="rId896" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{A49B4BEA-A5F5-476C-9E13-273BA2E2F0AB}"/>
-    <hyperlink ref="I246" r:id="rId897" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{41426481-99A1-4A6C-8348-11AB77E0E764}"/>
-    <hyperlink ref="M246" r:id="rId898" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{694ED5AF-2023-4EF9-A8CA-F2C968C32C1E}"/>
-    <hyperlink ref="C247" r:id="rId899" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{41339E41-C366-4C35-930A-06703C472455}"/>
-    <hyperlink ref="E247" r:id="rId900" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{5F31D48C-3313-42A8-AFF1-CC2AFD287B5F}"/>
-    <hyperlink ref="I247" r:id="rId901" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{CEBBFF64-B1C6-4EF3-BA83-647CC66776BB}"/>
-    <hyperlink ref="M247" r:id="rId902" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{7CB84334-6700-4F93-BCB8-7FF4CBAAD86C}"/>
-    <hyperlink ref="C248" r:id="rId903" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{B5637867-3CE0-4073-97D4-407654E901BD}"/>
-    <hyperlink ref="E248" r:id="rId904" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{A11ADB5E-71A6-4F74-9DCD-DB429F0C3469}"/>
-    <hyperlink ref="I248" r:id="rId905" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{8D2A020F-3D5F-4252-A1DE-FA15C2C7138C}"/>
-    <hyperlink ref="M248" r:id="rId906" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{891EA160-8AF5-4FD6-99CF-4941E5251745}"/>
-    <hyperlink ref="C249" r:id="rId907" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{39FD79C7-E5C9-417D-B3DB-82C0D54FEAA1}"/>
-    <hyperlink ref="E249" r:id="rId908" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{14211B1F-22A6-4DAF-8797-1AD9787FAB44}"/>
-    <hyperlink ref="I249" r:id="rId909" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4E9249CF-9BDA-4EAE-BAEC-33B0C8B159FB}"/>
-    <hyperlink ref="M249" r:id="rId910" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{306B96E1-9E9B-41BB-9BC1-236F9104489B}"/>
-    <hyperlink ref="C250" r:id="rId911" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{B9C7C006-DF54-4DD2-BF24-61E844D59490}"/>
-    <hyperlink ref="E250" r:id="rId912" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{63B0F5B1-6334-4A09-A604-E2B4AD1CCCF7}"/>
-    <hyperlink ref="I250" r:id="rId913" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{99E807A5-032B-4B0B-9E60-47C89B3F3283}"/>
-    <hyperlink ref="M250" r:id="rId914" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{097621A4-A72A-41C3-BD10-BFC3153DD5F8}"/>
-    <hyperlink ref="C251" r:id="rId915" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{4A1671B1-04BC-4568-8FC4-715F5AC58FB7}"/>
-    <hyperlink ref="E251" r:id="rId916" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{3C28B03B-7EDF-47C6-ABB2-678C07840F6C}"/>
-    <hyperlink ref="I251" r:id="rId917" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{553EBE23-CC1F-4F04-9554-08EBFA2A5B5F}"/>
-    <hyperlink ref="M251" r:id="rId918" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{098CD679-3CBE-468E-8F38-C15D99FE9E6C}"/>
-    <hyperlink ref="C252" r:id="rId919" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{7E41F2A4-71F1-4F39-9A70-11B902B9A608}"/>
-    <hyperlink ref="E252" r:id="rId920" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{C3116C5E-9292-43B0-A8AE-C0B314E236B9}"/>
-    <hyperlink ref="I252" r:id="rId921" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B248C6FB-2F79-4EF8-9BFA-45E8FB0EB662}"/>
-    <hyperlink ref="M252" r:id="rId922" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{919C7C90-F110-4A14-88EC-68CC26C910BA}"/>
-    <hyperlink ref="C253" r:id="rId923" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{A4B9586F-0428-4D1F-9246-7B0C0754E48C}"/>
-    <hyperlink ref="E253" r:id="rId924" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B9628CDA-C9AB-47E1-BDE2-57C063BA8EFA}"/>
-    <hyperlink ref="I253" r:id="rId925" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{09720D0E-4C62-4133-B80F-1C4C44F8F31D}"/>
-    <hyperlink ref="M253" r:id="rId926" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{7CBB16B6-71DC-4903-9ED5-AE9F289FFAA0}"/>
-    <hyperlink ref="C254" r:id="rId927" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{9D34A729-9124-48FB-9D3D-D4568EEB438C}"/>
-    <hyperlink ref="E254" r:id="rId928" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{58A15C1D-8BAC-49CB-B2B8-C476787DE0D2}"/>
-    <hyperlink ref="I254" r:id="rId929" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{9C0CC3A2-F986-4124-A571-FC7B5678FD51}"/>
-    <hyperlink ref="M254" r:id="rId930" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{E89CC141-24BF-4A8C-9E5D-15C8DFE9D302}"/>
-    <hyperlink ref="C256" r:id="rId931" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{A236A87C-7B57-4B42-B477-4086A5D0FED1}"/>
-    <hyperlink ref="E256" r:id="rId932" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D28C6A79-92A0-417C-8E84-0649A3F54623}"/>
-    <hyperlink ref="I256" r:id="rId933" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F3BE21EE-60DC-4B8D-AF36-24F819D191ED}"/>
-    <hyperlink ref="M256" r:id="rId934" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{95A834F5-EF5D-40DA-995F-73D64CFF2735}"/>
-    <hyperlink ref="C257" r:id="rId935" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{310A361D-1260-438D-A678-ABF5987588E6}"/>
-    <hyperlink ref="E257" r:id="rId936" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{FD1FAC1D-34D6-4103-AAA3-B15778E49088}"/>
-    <hyperlink ref="I257" r:id="rId937" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A5A5E5A3-B87E-4591-80DD-33308495F4E1}"/>
-    <hyperlink ref="M257" r:id="rId938" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{B8D6375E-1FC1-4586-9235-B5A7907DED31}"/>
-    <hyperlink ref="C258" r:id="rId939" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{7E185473-F377-4615-8FDA-167119DAAE97}"/>
-    <hyperlink ref="E258" r:id="rId940" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{D6FF7FD8-5791-48FC-BA26-A6833909CD0A}"/>
-    <hyperlink ref="I258" r:id="rId941" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{D33210AA-0CF5-46DA-B690-498B811911F6}"/>
-    <hyperlink ref="M258" r:id="rId942" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{1CB175D3-0262-406B-9039-B0A35E8EAD36}"/>
-    <hyperlink ref="C259" r:id="rId943" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{0D8CC7A1-6E17-463D-AB7A-FFFE3E2D042E}"/>
-    <hyperlink ref="E259" r:id="rId944" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E29B5435-2EB2-4920-BDEC-B297F6056073}"/>
-    <hyperlink ref="I259" r:id="rId945" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{0B29D8DE-5B38-462E-94FE-5F689BFDC6D4}"/>
-    <hyperlink ref="M259" r:id="rId946" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{C6665C0C-3497-4CC7-9175-427C2C8598B3}"/>
-    <hyperlink ref="C260" r:id="rId947" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{EE47C529-8E93-49D8-BFA0-FD245F9A472E}"/>
-    <hyperlink ref="E260" r:id="rId948" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{97F69CA2-FD38-4538-AB55-1F2FBE23E281}"/>
-    <hyperlink ref="I260" r:id="rId949" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{6DED53F1-98B5-4C3A-B983-A7F81F68E99A}"/>
-    <hyperlink ref="M260" r:id="rId950" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{1D9806D5-060C-42BA-8653-E9ECC0E8C12D}"/>
-    <hyperlink ref="C261" r:id="rId951" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{FE3337CA-AE93-482C-9807-716114480FEB}"/>
-    <hyperlink ref="E261" r:id="rId952" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{049F96EC-57A1-4EB4-90CD-EEECBB168EB8}"/>
-    <hyperlink ref="I261" r:id="rId953" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{175119D2-995C-4277-A990-3B9FE540C802}"/>
-    <hyperlink ref="M261" r:id="rId954" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{DD54871F-F219-41B3-B2CC-A8EA58833F77}"/>
-    <hyperlink ref="C262" r:id="rId955" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{B4AEB787-0C19-4CF0-A90E-1499C8461F51}"/>
-    <hyperlink ref="E262" r:id="rId956" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{06946904-7098-4A8B-9F0B-7C5E7FDF7253}"/>
-    <hyperlink ref="I262" r:id="rId957" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{E5CC76BA-EAEB-4DD7-977D-0F193E3A9365}"/>
-    <hyperlink ref="M262" r:id="rId958" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{A4A7C85A-E87A-446A-B3A5-B2E8B8FB1C80}"/>
-    <hyperlink ref="C263" r:id="rId959" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{88886D47-1396-4806-B0EE-79A35884160E}"/>
-    <hyperlink ref="E263" r:id="rId960" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{33925327-77F8-4743-976E-AFB2589EEA8B}"/>
-    <hyperlink ref="I263" r:id="rId961" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{16D7903A-563C-4907-B81F-DE9D6EF6AA7A}"/>
-    <hyperlink ref="M263" r:id="rId962" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{2544F819-2060-4093-9468-36FE2CC7821B}"/>
-    <hyperlink ref="C264" r:id="rId963" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{D2B1AE56-C676-45B2-A7A4-8AE953A925FD}"/>
-    <hyperlink ref="E264" r:id="rId964" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{B41405EC-65B2-4B50-8FAD-846F90D4074C}"/>
-    <hyperlink ref="I264" r:id="rId965" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{E56696B1-DDC9-4C4B-A2FC-570236BEEE7D}"/>
-    <hyperlink ref="M264" r:id="rId966" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{B06136E5-343D-4621-A32F-15EFDC63DDA4}"/>
-    <hyperlink ref="C265" r:id="rId967" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{EDFF63C3-2148-47B4-A921-63A63CE551C0}"/>
-    <hyperlink ref="E265" r:id="rId968" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{064FCEA2-2050-4D78-B948-767AA4A49CAD}"/>
-    <hyperlink ref="I265" r:id="rId969" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{9DAE596F-92A0-4250-B8CB-E53F5D608296}"/>
-    <hyperlink ref="M265" r:id="rId970" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{45FE0FAF-29BA-4469-9719-7A0B924AC8A7}"/>
-    <hyperlink ref="C267" r:id="rId971" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{F3B80030-F675-45AC-85F6-DB28BCD8C1B3}"/>
-    <hyperlink ref="E267" r:id="rId972" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{023C2ED2-C064-4A7E-BD52-231314C65085}"/>
-    <hyperlink ref="I267" r:id="rId973" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{750A32B9-B0B5-4885-8928-89C374E7F728}"/>
-    <hyperlink ref="M267" r:id="rId974" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{FFEDB940-A43D-4F8B-A077-6F5CBF0AC9B9}"/>
-    <hyperlink ref="C268" r:id="rId975" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{F088DC80-343A-4C4D-A141-BF00DB780DC2}"/>
-    <hyperlink ref="E268" r:id="rId976" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{E81ED626-C84A-4909-A99C-00DA557A8A73}"/>
-    <hyperlink ref="I268" r:id="rId977" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C9C026F6-3FE8-47C5-BFF8-D2F9C73D1C9E}"/>
-    <hyperlink ref="M268" r:id="rId978" display="https://fbref.com/en/stathead/matchup/squads/943e8050/822bd0ba/Burnley-vs-Liverpool-History" xr:uid="{AAE57E2A-1FD6-478E-B71B-91E28E3DE851}"/>
-    <hyperlink ref="C269" r:id="rId979" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{EB7D8481-1CD2-41FF-8C8E-B579F6267C27}"/>
-    <hyperlink ref="E269" r:id="rId980" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{98E9F4B3-30BD-4D2C-A8A1-889FCAF70F63}"/>
-    <hyperlink ref="I269" r:id="rId981" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{219B8D10-86C0-4659-A836-B345DEF2DC6A}"/>
-    <hyperlink ref="M269" r:id="rId982" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{EE2C872A-9891-41C8-8EA6-1CF5B2DA9943}"/>
-    <hyperlink ref="C270" r:id="rId983" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{11BB9BCC-C3AE-4272-AC59-5182CAA03A5F}"/>
-    <hyperlink ref="E270" r:id="rId984" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{D2DB683A-84EC-4CD0-A4C4-25F8F2CE8D26}"/>
-    <hyperlink ref="I270" r:id="rId985" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{CCDE8B19-F951-4431-A525-362609AC2EF9}"/>
-    <hyperlink ref="M270" r:id="rId986" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{6416561E-D157-4F88-B249-007F11283614}"/>
-    <hyperlink ref="C271" r:id="rId987" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{A2909975-BA8E-4A63-A4A1-23617F4110CC}"/>
-    <hyperlink ref="E271" r:id="rId988" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5C4ECCA4-15E1-4D95-A12D-884ACDBF20F1}"/>
-    <hyperlink ref="I271" r:id="rId989" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{7072FAFB-1AF9-4874-BBAD-9A6C086F24D7}"/>
-    <hyperlink ref="M271" r:id="rId990" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/5bfb9659/Everton-vs-Leeds-United-History" xr:uid="{ABCA1D4C-FF7C-4C10-9912-916061F5E6AD}"/>
-    <hyperlink ref="C272" r:id="rId991" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{BD13D9A5-1772-4807-B895-69C25A57EEAC}"/>
-    <hyperlink ref="E272" r:id="rId992" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{5769F39E-9FDB-4F48-B8C9-D662C3BC89D2}"/>
-    <hyperlink ref="I272" r:id="rId993" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{700355F7-4D06-4C31-A337-08030A8FC165}"/>
-    <hyperlink ref="M272" r:id="rId994" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8602292d/Newcastle-United-vs-Aston-Villa-History" xr:uid="{0A3D7813-B037-4384-8788-D0EA03B26C28}"/>
-    <hyperlink ref="C273" r:id="rId995" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{03D6C370-1D78-4BE2-A501-9905F4CB35CE}"/>
-    <hyperlink ref="E273" r:id="rId996" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B786280A-9098-4D77-93DB-136592F20886}"/>
-    <hyperlink ref="I273" r:id="rId997" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{07BFBEF1-9A16-45D7-BDD2-30F250366630}"/>
-    <hyperlink ref="M273" r:id="rId998" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{B94F4759-19F1-4F30-9A7A-8E16DD2BD003}"/>
-    <hyperlink ref="C274" r:id="rId999" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{E406789C-A4E9-4066-B007-76EC32CAB064}"/>
-    <hyperlink ref="E274" r:id="rId1000" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C47E5389-8DE0-48E7-938B-F01771136445}"/>
-    <hyperlink ref="I274" r:id="rId1001" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{4D58BDBD-A17A-41B1-A027-748B25E4AAFA}"/>
-    <hyperlink ref="M274" r:id="rId1002" display="https://fbref.com/en/stathead/matchup/squads/cd051869/47c64c55/Brentford-vs-Crystal-Palace-History" xr:uid="{82F0F09D-5EB6-4AD3-91EA-6BDFE3950A5D}"/>
-    <hyperlink ref="C275" r:id="rId1003" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{C84B05B9-400D-41E3-A17C-2158DD4AD4D7}"/>
-    <hyperlink ref="E275" r:id="rId1004" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{B7CB835F-6EBE-4165-A0CD-806D2A742D46}"/>
-    <hyperlink ref="I275" r:id="rId1005" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E2D913A5-047D-4C8E-AFEB-8686740B9358}"/>
-    <hyperlink ref="M275" r:id="rId1006" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/1c781004/Manchester-City-vs-Norwich-City-History" xr:uid="{83B51103-22E0-4B6D-A0FB-24BF6211EA20}"/>
-    <hyperlink ref="C276" r:id="rId1007" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{B67187C3-C542-4D53-A91D-CFD00DBAEB51}"/>
-    <hyperlink ref="E276" r:id="rId1008" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{9F9F38D2-49C9-409C-9A78-3E75C6AADD4F}"/>
-    <hyperlink ref="I276" r:id="rId1009" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{3CEE9428-6162-4307-851D-CE1CA2E99496}"/>
-    <hyperlink ref="M276" r:id="rId1010" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/2abfe087/Brighton-and-Hove-Albion-vs-Watford-History" xr:uid="{0A5CE1B8-BD0E-4603-A3BA-1C5783F4CC83}"/>
-    <hyperlink ref="C278" r:id="rId1011" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{146E12E3-1FD6-478F-AC5C-99C98A7C793E}"/>
-    <hyperlink ref="E278" r:id="rId1012" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2C8F7F2F-DC16-4A4B-82D6-0DC0DE8872F6}"/>
-    <hyperlink ref="I278" r:id="rId1013" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CA404EE5-BB7F-422D-A66F-4396237F8CA3}"/>
-    <hyperlink ref="M278" r:id="rId1014" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/19538871/Leeds-United-vs-Manchester-United-History" xr:uid="{0827A366-882D-4C39-B6BD-6772BE311D88}"/>
-    <hyperlink ref="C279" r:id="rId1015" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{4CD4E254-EEC8-4AB8-9DD6-6CC1CEBC25C4}"/>
-    <hyperlink ref="E279" r:id="rId1016" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8DC33FBA-6CD6-4AAD-BF45-56B75F7A65AB}"/>
-    <hyperlink ref="I279" r:id="rId1017" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0AE25672-E35D-471C-8352-6075C5B95032}"/>
-    <hyperlink ref="M279" r:id="rId1018" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/33c895d4/Everton-vs-Southampton-History" xr:uid="{D3D896C6-4DD6-4CCD-ABB3-8ECC25DF03AB}"/>
-    <hyperlink ref="C280" r:id="rId1019" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{D31A0A4E-D2AD-4B0A-BC0C-53D1B0051653}"/>
-    <hyperlink ref="E280" r:id="rId1020" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{626E7214-68D4-48FD-98D1-E9F3B1DA5DF7}"/>
-    <hyperlink ref="I280" r:id="rId1021" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9FE872C6-8CDE-43B5-86B7-38CBF263E607}"/>
-    <hyperlink ref="M280" r:id="rId1022" display="https://fbref.com/en/stathead/matchup/squads/cd051869/18bb7c10/Brentford-vs-Arsenal-History" xr:uid="{76293A0A-D480-45BA-8FDC-F8D669A38FE8}"/>
-    <hyperlink ref="C281" r:id="rId1023" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{7A7ED678-4642-4A30-97FA-76E6E885F325}"/>
-    <hyperlink ref="E281" r:id="rId1024" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{09E40C12-DC7A-41AB-867C-9C40C0FB863A}"/>
-    <hyperlink ref="I281" r:id="rId1025" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{9564DD1A-8CA6-4116-A3DF-2DABDEE0CFE0}"/>
-    <hyperlink ref="M281" r:id="rId1026" display="https://fbref.com/en/stathead/matchup/squads/8602292d/2abfe087/Aston-Villa-vs-Watford-History" xr:uid="{9ACDDE44-08FA-49E3-BB01-CE0B16FF5CB1}"/>
-    <hyperlink ref="C282" r:id="rId1027" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{73B91ED5-2C23-41E1-983D-F6D683D86C78}"/>
-    <hyperlink ref="E282" r:id="rId1028" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{58689A7B-B00C-4095-9DBE-392B384EFFB8}"/>
-    <hyperlink ref="I282" r:id="rId1029" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{D49B4525-2590-455A-AED8-26E82A5A9EF6}"/>
-    <hyperlink ref="M282" r:id="rId1030" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/361ca564/Manchester-City-vs-Tottenham-Hotspur-History" xr:uid="{73D15429-F8A2-4828-9965-CF52F3843937}"/>
-    <hyperlink ref="C283" r:id="rId1031" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{684AF49F-1DF9-44E1-8BE4-8A6920DB1C56}"/>
-    <hyperlink ref="E283" r:id="rId1032" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{28273B0A-A3F2-4874-908F-0F06C3E8CE5D}"/>
-    <hyperlink ref="I283" r:id="rId1033" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{14F22515-91CB-4E54-9123-705C4416C2E3}"/>
-    <hyperlink ref="M283" r:id="rId1034" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/1c781004/Liverpool-vs-Norwich-City-History" xr:uid="{326642A3-DCD9-43C8-A0D6-F0548B37D6A0}"/>
-    <hyperlink ref="C284" r:id="rId1035" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{CDE88E6A-9F0A-4AC4-91B6-75C056BE0800}"/>
-    <hyperlink ref="E284" r:id="rId1036" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{075C6CE5-D40B-4613-A6EF-56B553AEC088}"/>
-    <hyperlink ref="I284" r:id="rId1037" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{3CA00CC7-2860-4570-934E-F5BDDD2F61BD}"/>
-    <hyperlink ref="M284" r:id="rId1038" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/47c64c55/Chelsea-vs-Crystal-Palace-History" xr:uid="{422D3937-38C4-46D8-9739-40C659E8AB14}"/>
-    <hyperlink ref="C285" r:id="rId1039" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{E6A6717A-65C6-4137-9EFC-2E147432A4C9}"/>
-    <hyperlink ref="E285" r:id="rId1040" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F32D976B-0D5E-44A1-8804-9AD90BB8183F}"/>
-    <hyperlink ref="I285" r:id="rId1041" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{810B6432-5DD2-4791-BAA1-E296D3A0690A}"/>
-    <hyperlink ref="M285" r:id="rId1042" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/7c21e445/Newcastle-United-vs-West-Ham-United-History" xr:uid="{134E15EA-ED7D-4A7A-8637-2612BE9F166E}"/>
-    <hyperlink ref="C286" r:id="rId1043" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{14A8EB0C-6D62-4829-8A29-1E616ABB23F6}"/>
-    <hyperlink ref="E286" r:id="rId1044" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{854DAA73-9EFD-485D-A879-FD3C13507A57}"/>
-    <hyperlink ref="I286" r:id="rId1045" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{C1E321BB-E52B-4C6B-983E-09C70E3A1A04}"/>
-    <hyperlink ref="M286" r:id="rId1046" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8cec06e1/Leicester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{150B5C10-47B2-4920-998E-B24FAE695323}"/>
-    <hyperlink ref="C287" r:id="rId1047" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{7E241596-6666-4095-8E09-EC728485CD21}"/>
-    <hyperlink ref="E287" r:id="rId1048" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E2644C41-CC81-4744-B274-C5E8F720D80A}"/>
-    <hyperlink ref="I287" r:id="rId1049" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{7F8D341E-699E-44F2-8147-100D78C38B7F}"/>
-    <hyperlink ref="M287" r:id="rId1050" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/943e8050/Brighton-and-Hove-Albion-vs-Burnley-History" xr:uid="{EE62E2E9-73BC-4372-8A38-9724E0325293}"/>
-    <hyperlink ref="C289" r:id="rId1051" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{E764A4B6-0B0C-4FD7-BAB7-1FFD469C1C61}"/>
-    <hyperlink ref="E289" r:id="rId1052" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{CA0E205E-7EBB-4FCF-8802-F7EE8D461860}"/>
-    <hyperlink ref="I289" r:id="rId1053" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{A70F23A2-7F17-4EFC-B176-B6AF12A79F0C}"/>
-    <hyperlink ref="M289" r:id="rId1054" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{1E4FCC0C-8EDA-4986-A103-22AD409E977A}"/>
-    <hyperlink ref="C290" r:id="rId1055" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{22F9D3F8-AC32-40FB-ABE1-21EA430D98CF}"/>
-    <hyperlink ref="E290" r:id="rId1056" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E6926A2B-CD96-4391-8FBF-6775CE09EE94}"/>
-    <hyperlink ref="I290" r:id="rId1057" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A368B136-2DA5-4852-B795-04AC775B5AAA}"/>
-    <hyperlink ref="M290" r:id="rId1058" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{957B1CF4-796D-4414-B3DE-09DBBCFD4F02}"/>
-    <hyperlink ref="C291" r:id="rId1059" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{B70F4F76-7372-46BD-B497-B4652D5641C8}"/>
-    <hyperlink ref="E291" r:id="rId1060" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{535A901F-755E-4848-8127-B5B940DDE978}"/>
-    <hyperlink ref="I291" r:id="rId1061" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{617CD481-D550-4BBB-B026-BBFEFCE0D242}"/>
-    <hyperlink ref="M291" r:id="rId1062" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{8386A043-BACA-426A-B69C-A841B34CE5FF}"/>
-    <hyperlink ref="C292" r:id="rId1063" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{4C3F5286-0702-4137-9A3E-0D32CD01615D}"/>
-    <hyperlink ref="E292" r:id="rId1064" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{A699B3B7-F5FB-400A-86BB-B36AF0E996E7}"/>
-    <hyperlink ref="I292" r:id="rId1065" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{E080B9A3-84B3-4B3B-84B7-D6378799683F}"/>
-    <hyperlink ref="M292" r:id="rId1066" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{9C51F6BA-70C0-43FB-ABD8-CF1D6B4E037E}"/>
-    <hyperlink ref="C293" r:id="rId1067" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{A078EA58-F3D1-45D4-81AA-1773D79C73DF}"/>
-    <hyperlink ref="E293" r:id="rId1068" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{FB3A2D83-D6C9-4BE9-9458-36916B3B2584}"/>
-    <hyperlink ref="I293" r:id="rId1069" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DD489B62-CC81-4415-9313-580DD990EFE4}"/>
-    <hyperlink ref="M293" r:id="rId1070" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{E5488FC7-56FF-404F-9EAD-9AEF791B9163}"/>
-    <hyperlink ref="C294" r:id="rId1071" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{6495707B-A8E4-4D9B-BC91-40ECA4188D72}"/>
-    <hyperlink ref="E294" r:id="rId1072" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{451062F0-7110-4D7D-9273-2F2CDB6AF505}"/>
-    <hyperlink ref="I294" r:id="rId1073" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{86D79011-7556-4468-A4BB-312A64D86FF3}"/>
-    <hyperlink ref="M294" r:id="rId1074" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{F71DB120-C835-40F0-A322-DA9A6068EF14}"/>
-    <hyperlink ref="C295" r:id="rId1075" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{FB2A9767-9C43-479D-B945-987C44398E00}"/>
-    <hyperlink ref="E295" r:id="rId1076" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{B3AE331F-7681-411B-8239-705880960CA6}"/>
-    <hyperlink ref="I295" r:id="rId1077" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{0EC81581-6C63-479A-A4F7-EFA66CA30520}"/>
-    <hyperlink ref="M295" r:id="rId1078" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{8A820A08-D047-44E3-B11E-A0130C2FD3C8}"/>
-    <hyperlink ref="C296" r:id="rId1079" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{D7ED9E00-3C1B-4C89-AB1A-E99C0E38A834}"/>
-    <hyperlink ref="E296" r:id="rId1080" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9D9EAA10-E4BC-42C3-A1C8-78033F32237E}"/>
-    <hyperlink ref="I296" r:id="rId1081" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{3F6E25BC-386F-4453-A09C-F54E872BAB8C}"/>
-    <hyperlink ref="M296" r:id="rId1082" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{C55176DA-7A7D-405E-B634-602075CD8EB4}"/>
-    <hyperlink ref="C297" r:id="rId1083" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{A3B9A8A6-AFED-48B6-801A-CA654B729D58}"/>
-    <hyperlink ref="E297" r:id="rId1084" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{EBF2D6F1-9604-454A-B985-E148EA24CDB7}"/>
-    <hyperlink ref="I297" r:id="rId1085" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{4EEBC3A6-E68C-4ACF-955B-AF8831B2B7D8}"/>
-    <hyperlink ref="M297" r:id="rId1086" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{6BEE9B94-51AB-4376-89F3-2C971A316531}"/>
-    <hyperlink ref="C298" r:id="rId1087" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{355A8F7E-A3F1-4611-82BD-6573CE6433DC}"/>
-    <hyperlink ref="E298" r:id="rId1088" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{03F36422-DD2B-4C8A-ACCB-5E16ADAA89C4}"/>
-    <hyperlink ref="I298" r:id="rId1089" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{AD05A588-7B45-4834-AFDD-55FEFF70E4C2}"/>
-    <hyperlink ref="M298" r:id="rId1090" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{CD7C0DBA-B743-4CED-AFEB-55F999665D95}"/>
-    <hyperlink ref="C300" r:id="rId1091" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{DF3482B6-A221-489C-BBA1-030A55B7E763}"/>
-    <hyperlink ref="E300" r:id="rId1092" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{00767940-A839-43B7-9A86-AD356C8EA248}"/>
-    <hyperlink ref="I300" r:id="rId1093" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{AA8F1532-D878-40B9-8DFE-8C4A9EDBE2F5}"/>
-    <hyperlink ref="M300" r:id="rId1094" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{1C894E03-FBB6-44B7-8716-F8E884A0BC3D}"/>
-    <hyperlink ref="C301" r:id="rId1095" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{B6A457B3-1C87-4B17-AF9D-1FDE865FEDE5}"/>
-    <hyperlink ref="E301" r:id="rId1096" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{1199FB81-28DE-4D84-AB3A-0E8678A6598E}"/>
-    <hyperlink ref="I301" r:id="rId1097" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{015460E4-24FD-46B4-B35E-294D15B7B1FC}"/>
-    <hyperlink ref="M301" r:id="rId1098" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{C198A32F-516B-4A62-9F9B-6861B96E7434}"/>
-    <hyperlink ref="C302" r:id="rId1099" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9F4D12C6-CBE9-4EE7-9513-7862E61306B9}"/>
-    <hyperlink ref="E302" r:id="rId1100" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{46254C84-31BA-4939-A2EB-111DD3071445}"/>
-    <hyperlink ref="I302" r:id="rId1101" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{3D356EBC-34A5-4851-BAD8-4D707D42BAEA}"/>
-    <hyperlink ref="M302" r:id="rId1102" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{0B662435-53C4-400F-BD41-EC02A33FAECA}"/>
-    <hyperlink ref="C303" r:id="rId1103" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9EB7F163-6BC9-4D70-94D8-CF79D07477AB}"/>
-    <hyperlink ref="E303" r:id="rId1104" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{864061B8-4451-4785-A667-DCB432CFEA19}"/>
-    <hyperlink ref="I303" r:id="rId1105" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4A991CD0-FBE3-465E-9D4B-9828DED5660B}"/>
-    <hyperlink ref="M303" r:id="rId1106" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{BB99116D-A0D6-40AC-8A9E-E6330D1F5136}"/>
-    <hyperlink ref="C304" r:id="rId1107" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{8E8FEB42-8891-4CA1-8C43-F36E7752267D}"/>
-    <hyperlink ref="E304" r:id="rId1108" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{872FD319-5CAA-4FA7-92BE-277D26D4DEF4}"/>
-    <hyperlink ref="I304" r:id="rId1109" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{AC6D48B4-F8F6-444C-B7F1-A365687E4B2B}"/>
-    <hyperlink ref="M304" r:id="rId1110" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{831D6FB8-E2E9-4A4F-AD7C-1B3A80F804D7}"/>
-    <hyperlink ref="C305" r:id="rId1111" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{AE422B03-BEBA-4661-B764-36DCFC764700}"/>
-    <hyperlink ref="E305" r:id="rId1112" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A95674E4-E85C-436C-8E28-EADDBB2F2CC9}"/>
-    <hyperlink ref="I305" r:id="rId1113" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{480916C7-1CE6-4A08-95A4-C9B4C8FFA307}"/>
-    <hyperlink ref="M305" r:id="rId1114" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{48E69361-20BC-47F3-8EE2-1AC0FBC33013}"/>
-    <hyperlink ref="C306" r:id="rId1115" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{6FDE6095-FCD8-490A-9AAE-D47D0CD24AC7}"/>
-    <hyperlink ref="E306" r:id="rId1116" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{2B727105-83B0-4138-82AF-FCAD093B518A}"/>
-    <hyperlink ref="I306" r:id="rId1117" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{263316CA-4094-4602-BB6A-F234183F3925}"/>
-    <hyperlink ref="M306" r:id="rId1118" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{8EC8596A-6F1E-41A0-940E-4DEA49EE59A4}"/>
-    <hyperlink ref="C307" r:id="rId1119" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9F016F24-C29A-4AD4-85B7-C0B5606B57E9}"/>
-    <hyperlink ref="E307" r:id="rId1120" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{91D75BC1-A817-4050-8C5F-DBB6884E6DEC}"/>
-    <hyperlink ref="I307" r:id="rId1121" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BC701D45-5A6C-43D6-9089-307CCF3B8E9B}"/>
-    <hyperlink ref="M307" r:id="rId1122" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{873BF299-4E98-444B-BF4A-9A95CDB820EC}"/>
-    <hyperlink ref="C308" r:id="rId1123" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{B6032529-7E03-4E12-AB4F-3D2211EA66F4}"/>
-    <hyperlink ref="E308" r:id="rId1124" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{84E9B5DD-2B65-4D2A-B7AD-FA6E726BDBEE}"/>
-    <hyperlink ref="I308" r:id="rId1125" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{58A29CA8-887F-43FF-905C-FCFD355D5EBB}"/>
-    <hyperlink ref="M308" r:id="rId1126" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{C07230B5-C911-48A2-839B-9BBDAA6A7EA2}"/>
-    <hyperlink ref="C309" r:id="rId1127" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{8AA1AE66-A08F-402D-8C0D-14374C349CC4}"/>
-    <hyperlink ref="E309" r:id="rId1128" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A67E2736-CD06-4982-9F33-87997BA75234}"/>
-    <hyperlink ref="I309" r:id="rId1129" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{4CA97622-1A96-4290-9745-416EE0DFF671}"/>
-    <hyperlink ref="M309" r:id="rId1130" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{F042AB4A-264D-47D3-AF4A-8A51A9C5326E}"/>
-    <hyperlink ref="C311" r:id="rId1131" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{BB655D56-ACDB-495D-B847-BA680B907608}"/>
-    <hyperlink ref="E311" r:id="rId1132" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{A0999B8C-32AD-46EE-B20D-6DB894ABBCE5}"/>
-    <hyperlink ref="I311" r:id="rId1133" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{976CE44D-B6E7-4D77-9726-27292566E64D}"/>
-    <hyperlink ref="M311" r:id="rId1134" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{B301545C-5268-4748-BE15-FD1EA37CD481}"/>
-    <hyperlink ref="C312" r:id="rId1135" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{62799074-5BBA-429B-8DEF-D688236DE5CB}"/>
-    <hyperlink ref="E312" r:id="rId1136" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{872879C5-FE9E-47A9-8A7A-CE3CCD70A19D}"/>
-    <hyperlink ref="I312" r:id="rId1137" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1377B3F6-F5D2-4F8F-A4FB-57101A3193C0}"/>
-    <hyperlink ref="M312" r:id="rId1138" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{48E27EC6-B928-47BF-8ED7-CBA2F929749C}"/>
-    <hyperlink ref="C313" r:id="rId1139" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{5135E169-325B-4302-B960-5191B484231D}"/>
-    <hyperlink ref="E313" r:id="rId1140" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{F340E625-F2B1-4044-85C1-8007DD590B7D}"/>
-    <hyperlink ref="I313" r:id="rId1141" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{4D7972FC-246A-4A89-8FC8-DF8E80A14C8D}"/>
-    <hyperlink ref="M313" r:id="rId1142" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{072A2665-DE62-46CF-BED4-9A1F89B1676C}"/>
-    <hyperlink ref="C314" r:id="rId1143" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{59F6B58D-8E90-4422-85AC-161BD6506BCE}"/>
-    <hyperlink ref="E314" r:id="rId1144" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{8A4369B2-7AF2-41F8-B5C7-C68F3712CCE5}"/>
-    <hyperlink ref="I314" r:id="rId1145" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{EF02F09B-9DD1-4F2E-94D1-75938C63C3CF}"/>
-    <hyperlink ref="M314" r:id="rId1146" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{9EFF15A8-E21A-4DC6-854F-23EE8692B44F}"/>
-    <hyperlink ref="C315" r:id="rId1147" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{69063198-0EF0-4FF5-A460-0F99DBAA8E61}"/>
-    <hyperlink ref="E315" r:id="rId1148" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{C8087D49-B505-45E3-A19A-D46AA87AC0B9}"/>
-    <hyperlink ref="I315" r:id="rId1149" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{3F4F8E55-1F47-4B10-AECD-F7488289B357}"/>
-    <hyperlink ref="M315" r:id="rId1150" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{F1286EAD-7ACD-4E27-8844-C01B55F6FDA2}"/>
-    <hyperlink ref="C316" r:id="rId1151" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{F6A92147-891D-4815-ACF1-94772983CD01}"/>
-    <hyperlink ref="E316" r:id="rId1152" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B072C872-F97F-427A-BC63-529F6F93E4CB}"/>
-    <hyperlink ref="I316" r:id="rId1153" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{1D766E85-810A-45B0-AA70-D08A967FE8B2}"/>
-    <hyperlink ref="M316" r:id="rId1154" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{DC96D608-431D-4106-B6E0-D4EF9BA67DE7}"/>
-    <hyperlink ref="C317" r:id="rId1155" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{A37249B9-CE84-4769-8EB2-60A67E1C2114}"/>
-    <hyperlink ref="E317" r:id="rId1156" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{2AF608CC-44F9-4BA5-A56F-916B84C496A1}"/>
-    <hyperlink ref="I317" r:id="rId1157" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2C6AD15F-7115-46A5-A8E5-513CFCA6189B}"/>
-    <hyperlink ref="M317" r:id="rId1158" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{5E757AA3-90A0-42B0-9F3F-CB8A39066DA8}"/>
-    <hyperlink ref="C318" r:id="rId1159" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{B1DEABF6-24AA-4A22-8383-3D3CB1D0F8FC}"/>
-    <hyperlink ref="E318" r:id="rId1160" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{A315B286-AAD7-4C40-B5C4-722197584B46}"/>
-    <hyperlink ref="I318" r:id="rId1161" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5EEF5183-113A-49A5-9351-5FB60E96DC6E}"/>
-    <hyperlink ref="M318" r:id="rId1162" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{147BD519-DBC5-4CF0-BC6B-E4AD976CE2A7}"/>
-    <hyperlink ref="C319" r:id="rId1163" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{9D8BB06A-22CB-481D-9D66-2E8B5AED7171}"/>
-    <hyperlink ref="E319" r:id="rId1164" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{EF66AF95-DC0A-41BE-A047-5F6523C24B74}"/>
-    <hyperlink ref="I319" r:id="rId1165" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FA9CF3AE-86F4-4B33-B223-D1DBD3985982}"/>
-    <hyperlink ref="M319" r:id="rId1166" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{8BFB1BBC-874B-48F9-91C3-89C5A220F3D5}"/>
-    <hyperlink ref="C320" r:id="rId1167" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{CB18828A-C1AD-4ECA-8217-C38E6CE6581F}"/>
-    <hyperlink ref="E320" r:id="rId1168" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4BCCF68F-CCB0-4B9A-B656-BE3A959DED85}"/>
-    <hyperlink ref="I320" r:id="rId1169" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{745923C0-626A-4921-B1A9-19DD770884FC}"/>
-    <hyperlink ref="M320" r:id="rId1170" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{7862E579-B503-4773-A7D1-C66BF12997B7}"/>
-    <hyperlink ref="C322" r:id="rId1171" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{B0AEDA40-AFD2-4BF8-9487-5CF3F3FBF8A5}"/>
-    <hyperlink ref="E322" r:id="rId1172" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BD5DA300-7314-443E-832C-F4A692CC4536}"/>
-    <hyperlink ref="I322" r:id="rId1173" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AC51A62D-F1F9-4A5D-B7EF-56A635EE3CDF}"/>
-    <hyperlink ref="M322" r:id="rId1174" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{4A5E75AE-54D1-46D9-992F-80A8E3A99BA8}"/>
-    <hyperlink ref="C323" r:id="rId1175" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{606404A4-E17A-4399-881E-9337209A18AA}"/>
-    <hyperlink ref="E323" r:id="rId1176" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{866339E5-98AD-4E09-98B8-ED82F9487BA6}"/>
-    <hyperlink ref="I323" r:id="rId1177" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{37D4F02B-5539-419A-AA84-87C7F79ABA6A}"/>
-    <hyperlink ref="M323" r:id="rId1178" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{C333DAFB-9D49-4734-8D8A-F19F80CEA204}"/>
-    <hyperlink ref="C324" r:id="rId1179" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{1D030AAF-5A69-46CA-9CF3-321E1DC9ACC7}"/>
-    <hyperlink ref="E324" r:id="rId1180" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{A2454679-22CC-469B-B447-F3DD3208A523}"/>
-    <hyperlink ref="I324" r:id="rId1181" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8108D94D-0F22-4746-A8C0-207AA77C3C7A}"/>
-    <hyperlink ref="M324" r:id="rId1182" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{05DDDC89-85DF-49F4-A846-CA23CFBCBE82}"/>
-    <hyperlink ref="C325" r:id="rId1183" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{81725BCE-DDC4-47A7-9B14-73A64BFCFC1E}"/>
-    <hyperlink ref="E325" r:id="rId1184" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{6FE168DC-1033-4A06-9686-DBC3372BC785}"/>
-    <hyperlink ref="I325" r:id="rId1185" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EA9B6C3E-68B6-4CF9-8956-3925A05C6BA2}"/>
-    <hyperlink ref="M325" r:id="rId1186" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{89F78AB9-BE9B-487C-BCFC-731784D6F55D}"/>
-    <hyperlink ref="C326" r:id="rId1187" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{229C7501-B96F-4F74-8EDE-E48B02E47802}"/>
-    <hyperlink ref="E326" r:id="rId1188" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{2FA574F4-02B2-4D7E-BCC5-E5D6E70AA8BD}"/>
-    <hyperlink ref="I326" r:id="rId1189" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B133CE84-08CE-4523-A2DD-ED6978D0A495}"/>
-    <hyperlink ref="M326" r:id="rId1190" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{8624E391-FB01-45A3-BAC3-A2BF9C0E6B13}"/>
-    <hyperlink ref="C327" r:id="rId1191" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{413C382B-58E6-422A-BBBE-D6B53A30AE83}"/>
-    <hyperlink ref="E327" r:id="rId1192" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{BEFF7952-A387-4212-91E7-107603580DC1}"/>
-    <hyperlink ref="I327" r:id="rId1193" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{36E83424-51D5-4AFB-BC5F-87B6774FABE2}"/>
-    <hyperlink ref="M327" r:id="rId1194" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{C52B91F6-169A-4FB2-8892-207FCBC98F06}"/>
-    <hyperlink ref="C328" r:id="rId1195" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{AAD35B8B-1502-4C05-B632-87440A40B934}"/>
-    <hyperlink ref="E328" r:id="rId1196" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B875DA04-8E68-4DA8-9B9C-238A80D66396}"/>
-    <hyperlink ref="I328" r:id="rId1197" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F8A2E851-6FA1-4A55-8962-3ACCD80A7FF6}"/>
-    <hyperlink ref="M328" r:id="rId1198" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{060932FF-A161-484E-A5CE-F22D6A2A2821}"/>
-    <hyperlink ref="C329" r:id="rId1199" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{8CDAE3E9-0820-4EA2-8E0B-F52C9806D1A7}"/>
-    <hyperlink ref="E329" r:id="rId1200" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{AE58DF3B-4D90-4D6C-84BE-989278A8940A}"/>
-    <hyperlink ref="I329" r:id="rId1201" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{0CA203B0-213C-447A-B170-613899216B1C}"/>
-    <hyperlink ref="M329" r:id="rId1202" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{3C5D135D-F065-478B-B2AC-92B1E443269F}"/>
-    <hyperlink ref="C330" r:id="rId1203" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{B5DF436D-66EA-43C0-B40A-23AF079D9281}"/>
-    <hyperlink ref="E330" r:id="rId1204" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{4ADD97A6-E13D-48F1-8A8B-C373236A7AB5}"/>
-    <hyperlink ref="I330" r:id="rId1205" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5BE50993-61C9-43E3-ABB4-3417A4ACC702}"/>
-    <hyperlink ref="M330" r:id="rId1206" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{47B6949E-6CEC-41A2-A55D-DDAF71E41749}"/>
-    <hyperlink ref="C331" r:id="rId1207" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{FEF3DB3B-8D04-4B28-AD36-4ECA8F35F7C0}"/>
-    <hyperlink ref="E331" r:id="rId1208" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{E7364776-D96E-439A-ACB7-370BB37425F8}"/>
-    <hyperlink ref="I331" r:id="rId1209" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6B8AE50C-7645-4721-97C5-BF8389119D97}"/>
-    <hyperlink ref="M331" r:id="rId1210" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{B478FC9F-AEF5-42A7-9EEB-A6F0C9070B73}"/>
-    <hyperlink ref="C333" r:id="rId1211" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{9C159C79-6AC2-4238-B004-ADB3AF851BD0}"/>
-    <hyperlink ref="E333" r:id="rId1212" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A4611C12-379F-4442-B51B-AEDD692772B5}"/>
-    <hyperlink ref="I333" r:id="rId1213" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D059E29B-DF39-4F38-9AA6-F0E84EEAD573}"/>
-    <hyperlink ref="M333" r:id="rId1214" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{C442B746-750F-49E8-B751-197F6550BA1C}"/>
-    <hyperlink ref="C334" r:id="rId1215" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{5E6D1423-EAC3-49C9-9CC6-54DCD1A1704A}"/>
-    <hyperlink ref="E334" r:id="rId1216" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{53BCE0F5-5834-419A-AE65-D2890D713BFB}"/>
-    <hyperlink ref="I334" r:id="rId1217" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{AB5DBEC9-7F59-4C72-A1F9-533D9C968539}"/>
-    <hyperlink ref="M334" r:id="rId1218" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{D6A95245-81A2-48BA-BF0F-FCC46ED52315}"/>
-    <hyperlink ref="C335" r:id="rId1219" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{3C04049E-33CD-48FB-AD30-96937B4516C0}"/>
-    <hyperlink ref="E335" r:id="rId1220" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{E1FC47AA-6192-443B-86B0-686552FB370F}"/>
-    <hyperlink ref="I335" r:id="rId1221" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2DD3AB58-C6CB-40B5-AF13-355502A5374E}"/>
-    <hyperlink ref="M335" r:id="rId1222" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{2C608E74-A59B-4CF8-A757-21358F238DD0}"/>
-    <hyperlink ref="C336" r:id="rId1223" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{0E07D6CB-3642-4863-992E-E814493624DA}"/>
-    <hyperlink ref="E336" r:id="rId1224" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F148F199-6973-4015-8654-3E24A7E45E0E}"/>
-    <hyperlink ref="I336" r:id="rId1225" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{A21640D4-6A1F-4583-AD12-1EEFF8DC843F}"/>
-    <hyperlink ref="M336" r:id="rId1226" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{8F20798E-B9F9-4B68-8993-5F0C37BE530B}"/>
-    <hyperlink ref="C337" r:id="rId1227" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{FFBE17B5-1E2B-42D2-A510-B7AC9154942B}"/>
-    <hyperlink ref="E337" r:id="rId1228" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BEC89B8A-8497-4C40-8EBE-2DBF2D9BBC65}"/>
-    <hyperlink ref="I337" r:id="rId1229" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D61CF965-650D-46C9-9BCF-1DB260B47F42}"/>
-    <hyperlink ref="M337" r:id="rId1230" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{CBEBE016-8AF4-4C7B-8883-5BE31C1CE3BB}"/>
-    <hyperlink ref="C338" r:id="rId1231" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{7B374562-3333-40D1-8EA0-45E155200CE9}"/>
-    <hyperlink ref="E338" r:id="rId1232" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{E30B4F85-92BD-4A34-BC2F-A83E12588D78}"/>
-    <hyperlink ref="I338" r:id="rId1233" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9FA9696D-2B18-4509-A379-824531136B61}"/>
-    <hyperlink ref="M338" r:id="rId1234" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{73322C08-8117-40D0-9F31-986193FB0B0B}"/>
-    <hyperlink ref="C339" r:id="rId1235" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{F02B62C8-487D-4AF0-8A2D-D72AA52C7857}"/>
-    <hyperlink ref="E339" r:id="rId1236" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{FB54084B-C144-49A4-AFCD-CE3CB6382DC2}"/>
-    <hyperlink ref="I339" r:id="rId1237" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{3146B529-F465-4452-9C1B-3956AAA13518}"/>
-    <hyperlink ref="M339" r:id="rId1238" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{E3E7ED8E-E2B7-4817-A770-BC494E25F9FC}"/>
-    <hyperlink ref="C340" r:id="rId1239" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{BABC222D-2A06-4E8B-BF4C-FCD9E5A0286A}"/>
-    <hyperlink ref="E340" r:id="rId1240" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{B94ADFA0-9F08-43DD-A09D-028C4FC1D012}"/>
-    <hyperlink ref="I340" r:id="rId1241" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C478B227-C47B-40B4-811B-EE2AA2B0513C}"/>
-    <hyperlink ref="M340" r:id="rId1242" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{4CD4193E-DB1B-41BF-BE81-5ABE32D1EFDF}"/>
-    <hyperlink ref="C341" r:id="rId1243" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{93CD25B6-815A-49F6-95EE-B4114674FE14}"/>
-    <hyperlink ref="E341" r:id="rId1244" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B7174427-1F35-4C25-8BA1-37844BFABB94}"/>
-    <hyperlink ref="I341" r:id="rId1245" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{9220C800-5B98-4708-9F69-2DDE684EEEC2}"/>
-    <hyperlink ref="M341" r:id="rId1246" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{0BA75CA9-0CCC-441A-B7AC-53D4817FA41E}"/>
-    <hyperlink ref="C342" r:id="rId1247" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{743DD314-1388-4638-9FC6-7E2B0813EF36}"/>
-    <hyperlink ref="E342" r:id="rId1248" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CBA6465D-94ED-4A93-9FC0-C8FDFB1920CF}"/>
-    <hyperlink ref="I342" r:id="rId1249" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{DC2F6F3C-0E45-4F91-BBE5-3FE935368930}"/>
-    <hyperlink ref="M342" r:id="rId1250" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{5D3B9326-A6D2-4FCD-BA69-AED29EAB203E}"/>
-    <hyperlink ref="C344" r:id="rId1251" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{0F8BD88E-7F68-4E0E-85D1-58FDC0892792}"/>
-    <hyperlink ref="E344" r:id="rId1252" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{F7728BEA-7CDB-49A4-8C10-6ECE24159DBB}"/>
-    <hyperlink ref="I344" r:id="rId1253" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{3FBB6804-FCBA-4431-8B5B-F1B018E77AEC}"/>
-    <hyperlink ref="M344" r:id="rId1254" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{039361B8-75F1-4B6D-87B7-35F8E837B78F}"/>
-    <hyperlink ref="C345" r:id="rId1255" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{80C8398C-C0E0-4AC3-A04F-10B17E258DF6}"/>
-    <hyperlink ref="E345" r:id="rId1256" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{B727E92D-DDB9-48C5-A448-D42F37DD6339}"/>
-    <hyperlink ref="I345" r:id="rId1257" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{AA37F80E-1C2E-420D-88F1-CAAE0CAE57F3}"/>
-    <hyperlink ref="M345" r:id="rId1258" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{8990E221-C397-4840-84CC-366FC667EDA1}"/>
-    <hyperlink ref="C346" r:id="rId1259" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{1C4496C7-3116-4A25-9F72-B3AB5717E98D}"/>
-    <hyperlink ref="E346" r:id="rId1260" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{253A24C3-1020-480E-96F3-B54B9F7A09F1}"/>
-    <hyperlink ref="I346" r:id="rId1261" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{66EE374C-35BB-4513-94DD-469311CB267F}"/>
-    <hyperlink ref="M346" r:id="rId1262" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{DCB2B61A-82AC-406F-82BF-9EA604C8B97B}"/>
-    <hyperlink ref="C347" r:id="rId1263" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{A8CED509-D2D8-4261-B91D-8A65F7B210EE}"/>
-    <hyperlink ref="E347" r:id="rId1264" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{1E67609B-7204-4C09-8024-2D4576A42A0C}"/>
-    <hyperlink ref="I347" r:id="rId1265" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{04F77D86-7B7B-4D32-AF50-AD092D57B9C0}"/>
-    <hyperlink ref="M347" r:id="rId1266" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{F74CB013-7068-40C3-AF94-930FECF9B83D}"/>
-    <hyperlink ref="C348" r:id="rId1267" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{BEE37605-308C-4525-99F7-34C2A5828C0D}"/>
-    <hyperlink ref="E348" r:id="rId1268" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{ADF1B8F1-0DE8-4510-8E87-B5777D3FAA08}"/>
-    <hyperlink ref="I348" r:id="rId1269" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{5FD559EC-3648-4F48-BD6A-3A872AB4C77D}"/>
-    <hyperlink ref="M348" r:id="rId1270" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{C7E308B0-ADC8-4E6E-B413-867C224D925F}"/>
-    <hyperlink ref="C349" r:id="rId1271" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{4A108189-3A47-4E1A-88E7-30ED9A5269D2}"/>
-    <hyperlink ref="E349" r:id="rId1272" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1605AAD8-CC9F-4FFB-BF49-8A549681BD0F}"/>
-    <hyperlink ref="I349" r:id="rId1273" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{90EE922B-CBD2-4172-AE3A-903867B7ABE9}"/>
-    <hyperlink ref="M349" r:id="rId1274" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{953F1B1F-B061-4BA1-9657-1EE87C4E1097}"/>
-    <hyperlink ref="C350" r:id="rId1275" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{B2278535-11EF-433C-97F8-37F5A691C1C6}"/>
-    <hyperlink ref="E350" r:id="rId1276" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{43B51ACD-36AD-4BCC-BCC3-685554763FEE}"/>
-    <hyperlink ref="I350" r:id="rId1277" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{8543EB38-A23B-497E-A1B7-0FB634D74F20}"/>
-    <hyperlink ref="M350" r:id="rId1278" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{0A32E741-9553-4576-90BB-FFD3D18BDD43}"/>
-    <hyperlink ref="C351" r:id="rId1279" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{F1F2E792-5B50-4DA4-8E2A-F720703B99B2}"/>
-    <hyperlink ref="E351" r:id="rId1280" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{49888526-06A9-42F2-AFBF-8385841ACA06}"/>
-    <hyperlink ref="I351" r:id="rId1281" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{511A48CB-1B87-4902-AFD0-68186BB5822A}"/>
-    <hyperlink ref="M351" r:id="rId1282" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{313759BE-51D7-4BDC-B2CB-782104A86DE8}"/>
-    <hyperlink ref="C352" r:id="rId1283" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{A577CB5A-BE87-49D7-BDB0-875C4901A8DF}"/>
-    <hyperlink ref="E352" r:id="rId1284" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{1059C315-40DB-449D-8CA6-77ED381D1ED6}"/>
-    <hyperlink ref="I352" r:id="rId1285" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{493B3832-9C41-4CB6-A179-8E39B9A0DE28}"/>
-    <hyperlink ref="M352" r:id="rId1286" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{85EBB45F-E27C-4400-B9B4-54F1FF497E3A}"/>
-    <hyperlink ref="C353" r:id="rId1287" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{2F1192D1-FF45-420D-9279-CD024529D91D}"/>
-    <hyperlink ref="E353" r:id="rId1288" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0AC6D39A-4775-4C56-A909-01DEFA0042F8}"/>
-    <hyperlink ref="I353" r:id="rId1289" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{786CE910-75FC-4506-90E5-7FB750B03278}"/>
-    <hyperlink ref="M353" r:id="rId1290" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{23431A9D-81D3-4D50-8AAA-31F2E54178A5}"/>
-    <hyperlink ref="C355" r:id="rId1291" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{33752382-3EA1-4F04-9017-45BD40FB2B65}"/>
-    <hyperlink ref="E355" r:id="rId1292" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8B3F65D3-55D4-42EF-8E40-90F49BFEB752}"/>
-    <hyperlink ref="I355" r:id="rId1293" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{5E331F4A-1388-4C4E-90F5-86B6DCDB1FCE}"/>
-    <hyperlink ref="M355" r:id="rId1294" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{29BAFDF4-B152-4989-AB4F-6D1CB21395C9}"/>
-    <hyperlink ref="C356" r:id="rId1295" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{B17420E3-8866-4C4C-B284-225C25094CE7}"/>
-    <hyperlink ref="E356" r:id="rId1296" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8DE36AD6-1918-408C-A7A2-BDF349F5F839}"/>
-    <hyperlink ref="I356" r:id="rId1297" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{357CC64D-2641-4C3C-AFFC-BAC33FDC4785}"/>
-    <hyperlink ref="M356" r:id="rId1298" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{BB8FE075-6761-4DD4-8D97-4CFA2E29F8F2}"/>
-    <hyperlink ref="C357" r:id="rId1299" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{5953ADE5-B1DE-4D29-BC5C-13DCC912E99F}"/>
-    <hyperlink ref="E357" r:id="rId1300" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{10AB4EBE-EB37-423E-BE22-2EB29B955717}"/>
-    <hyperlink ref="I357" r:id="rId1301" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{836F614F-B8CC-4CB5-B524-C6635D15FF5A}"/>
-    <hyperlink ref="M357" r:id="rId1302" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{11A6D1EF-E265-4FEB-B3D6-CB2BF3D5555B}"/>
-    <hyperlink ref="C358" r:id="rId1303" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{32DC7846-1012-4831-870E-CB5068F6D8C2}"/>
-    <hyperlink ref="E358" r:id="rId1304" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{80F0DB85-A711-421A-9A1A-F8EA2534561A}"/>
-    <hyperlink ref="I358" r:id="rId1305" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5CF4BEAE-7474-4B9E-9B4A-30CA49468916}"/>
-    <hyperlink ref="M358" r:id="rId1306" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{1927785E-A1A6-45CD-BA7D-C6F6999CD280}"/>
-    <hyperlink ref="C359" r:id="rId1307" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{315CBBA6-8EB4-400A-9898-E7757F48835F}"/>
-    <hyperlink ref="E359" r:id="rId1308" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{33BA0470-C6FB-42E6-B100-B3C99BF329DA}"/>
-    <hyperlink ref="I359" r:id="rId1309" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{37709DDE-DB3F-4178-BF4F-0A1A346FB22E}"/>
-    <hyperlink ref="M359" r:id="rId1310" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{26CDA0EB-5395-4F87-859B-1C682E084A21}"/>
-    <hyperlink ref="C360" r:id="rId1311" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{8BC5B235-A758-4462-B48F-C3C3A482160C}"/>
-    <hyperlink ref="E360" r:id="rId1312" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{8E0080EF-6F26-4391-868B-76F8EC1EE44F}"/>
-    <hyperlink ref="I360" r:id="rId1313" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7729D985-E7B4-423E-B8DA-BE498FC68200}"/>
-    <hyperlink ref="M360" r:id="rId1314" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{103F2038-D0C0-471B-89F3-E387B8DB04FB}"/>
-    <hyperlink ref="C361" r:id="rId1315" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{CAD55A91-26B0-4B23-8B95-46791E79C917}"/>
-    <hyperlink ref="E361" r:id="rId1316" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B4955CC0-4ACB-4AFD-A254-03CFD63FE05E}"/>
-    <hyperlink ref="I361" r:id="rId1317" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{E8F6DB9C-88A8-4740-AF80-8B76A140C4D8}"/>
-    <hyperlink ref="M361" r:id="rId1318" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{CB507D0D-DC7B-4A13-92DC-4597234C23B3}"/>
-    <hyperlink ref="C362" r:id="rId1319" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{1F62D015-5762-4556-A825-1E3258671C78}"/>
-    <hyperlink ref="E362" r:id="rId1320" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{90447E69-58DA-4E48-9AEB-9E646194EE42}"/>
-    <hyperlink ref="I362" r:id="rId1321" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1EEFD90B-65FB-4C05-A62F-F67191DBE26E}"/>
-    <hyperlink ref="M362" r:id="rId1322" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{10A46060-6D94-4C35-BDF9-E73DCBBDF837}"/>
-    <hyperlink ref="C363" r:id="rId1323" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{4E9D4931-B2F1-49B6-99E2-70DECC5FE02C}"/>
-    <hyperlink ref="E363" r:id="rId1324" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{04C18F99-068B-48BE-AA55-2E086C0D383F}"/>
-    <hyperlink ref="I363" r:id="rId1325" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{749DA0D2-71E7-4C18-B640-FD7845A9005E}"/>
-    <hyperlink ref="M363" r:id="rId1326" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{CFDC5D85-7419-49FB-8CBD-FA7CEF2078BA}"/>
-    <hyperlink ref="C364" r:id="rId1327" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{7EB19C62-4BB5-4589-B8D6-137A4F96B0CD}"/>
-    <hyperlink ref="E364" r:id="rId1328" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{764D1813-54CE-43B7-9A6A-A8D240C66C35}"/>
-    <hyperlink ref="I364" r:id="rId1329" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C96F5D4D-F93E-4776-9D27-098211EBB0A2}"/>
-    <hyperlink ref="M364" r:id="rId1330" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{3C10C1FC-3A72-4F69-9485-475F1503C1AA}"/>
-    <hyperlink ref="C366" r:id="rId1331" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{B7E42607-BBDA-4797-882D-67654336E2E1}"/>
-    <hyperlink ref="E366" r:id="rId1332" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7A06FE78-26C5-452B-A2C5-3BEDCB136DC3}"/>
-    <hyperlink ref="I366" r:id="rId1333" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6C783BAA-0784-40F9-97E7-0285A3C54A18}"/>
-    <hyperlink ref="M366" r:id="rId1334" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{93B4AF5C-66CA-4978-BE75-31D2DF51327B}"/>
-    <hyperlink ref="C367" r:id="rId1335" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{643F5168-D560-4370-A904-B29CE9593901}"/>
-    <hyperlink ref="E367" r:id="rId1336" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{04B982B2-206F-4C4D-9783-0B8621EBA808}"/>
-    <hyperlink ref="I367" r:id="rId1337" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{9D796C28-98E2-45D1-AFCA-4C5CF262B2E0}"/>
-    <hyperlink ref="M367" r:id="rId1338" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{152B71F5-1104-411C-9A3B-FA6BBA0BD17E}"/>
-    <hyperlink ref="C368" r:id="rId1339" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{553C095E-D853-4125-B3A7-D7C1B507E90B}"/>
-    <hyperlink ref="E368" r:id="rId1340" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7A6C0D8B-1AAA-4E9D-8B9F-263F580199B4}"/>
-    <hyperlink ref="I368" r:id="rId1341" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BB31F3BE-0034-4D99-9F99-55A3A3632432}"/>
-    <hyperlink ref="M368" r:id="rId1342" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{52A2C31C-D5BB-49C9-B88C-5141624317AD}"/>
-    <hyperlink ref="C369" r:id="rId1343" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{9952EAE4-31EA-4DFE-AA45-B476B6EAD45F}"/>
-    <hyperlink ref="E369" r:id="rId1344" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5787C784-36F6-4553-A55B-8DB9346FF5A4}"/>
-    <hyperlink ref="I369" r:id="rId1345" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DDC684C9-A837-4A9F-A528-9BB900AA8CE6}"/>
-    <hyperlink ref="M369" r:id="rId1346" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{07566A59-7C4C-44F6-8223-2CB90E12BC3A}"/>
-    <hyperlink ref="C370" r:id="rId1347" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{9656671E-A885-4B8E-9A43-E496F879F5AA}"/>
-    <hyperlink ref="E370" r:id="rId1348" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{78BF0DDD-D831-4A18-8BCB-6427BE692DC6}"/>
-    <hyperlink ref="I370" r:id="rId1349" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{43F6F450-112F-42E4-AD4F-27E328EBB5E0}"/>
-    <hyperlink ref="M370" r:id="rId1350" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{5D960D2C-30DF-4E54-ADDF-095E4B377EA1}"/>
-    <hyperlink ref="C371" r:id="rId1351" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{E7A834B7-DBE8-42D6-B65A-6CEAA65204E0}"/>
-    <hyperlink ref="E371" r:id="rId1352" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{4A559049-0F51-4CD8-A71E-C240CD3ED754}"/>
-    <hyperlink ref="I371" r:id="rId1353" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{ABA5675F-368E-412B-BC7F-C70A5E3AF3E4}"/>
-    <hyperlink ref="M371" r:id="rId1354" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{7B48A123-8868-4DA4-9325-25160772A60A}"/>
-    <hyperlink ref="C372" r:id="rId1355" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{FE8EDF9B-2BAB-43D1-9D72-4A1B1CA20147}"/>
-    <hyperlink ref="E372" r:id="rId1356" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{E95ED53F-54F5-4CF2-8991-82D0478999B8}"/>
-    <hyperlink ref="I372" r:id="rId1357" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{DA151C9E-F9B4-4C3B-98ED-A7CAA24F8E83}"/>
-    <hyperlink ref="M372" r:id="rId1358" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{F685A940-195E-4272-A65C-E5FC0FD2D64A}"/>
-    <hyperlink ref="C373" r:id="rId1359" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{FD6BC475-AF40-46D6-AA57-BCC72DC8CED2}"/>
-    <hyperlink ref="E373" r:id="rId1360" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B82CA6B3-6732-47C0-B6B9-03CE22E81E16}"/>
-    <hyperlink ref="I373" r:id="rId1361" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{5FC393F9-EE60-46B9-917A-A62C288772B7}"/>
-    <hyperlink ref="M373" r:id="rId1362" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{762438BC-8CA9-483F-8686-BAC3DEC05AA7}"/>
-    <hyperlink ref="C374" r:id="rId1363" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{6B9F138E-3BF7-4486-9EA2-C533E61FFA1B}"/>
-    <hyperlink ref="E374" r:id="rId1364" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{BC653A2B-A407-48EF-9AC4-4E62E05F07DC}"/>
-    <hyperlink ref="I374" r:id="rId1365" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{81F3C9C6-F612-4C68-B537-9C80270D4F52}"/>
-    <hyperlink ref="M374" r:id="rId1366" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{A52E6C45-A211-406C-A89C-587FE279F974}"/>
-    <hyperlink ref="C375" r:id="rId1367" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{AF517A95-34E7-464B-95CA-C8B1AADA303E}"/>
-    <hyperlink ref="E375" r:id="rId1368" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{8D2B2329-1D51-4F14-86CC-61260605B256}"/>
-    <hyperlink ref="I375" r:id="rId1369" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{5EB6A2A1-CF55-43F0-B8F2-7C6B12DA0462}"/>
-    <hyperlink ref="M375" r:id="rId1370" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{4D584D3F-FB12-4B4E-B5AC-8A296705D22C}"/>
-    <hyperlink ref="C377" r:id="rId1371" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{BCE6290D-2E1B-4CDC-9309-F54FBE9FFA5C}"/>
-    <hyperlink ref="E377" r:id="rId1372" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{35A6BB84-2262-49FA-8F9F-58C980E276FE}"/>
-    <hyperlink ref="I377" r:id="rId1373" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{BA077F3B-8814-4C12-8758-BBE059207BA1}"/>
-    <hyperlink ref="M377" r:id="rId1374" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{47AB65DF-91C1-4193-9B32-5AEE6A5B3C08}"/>
-    <hyperlink ref="C378" r:id="rId1375" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{58253F93-9C8F-4542-B472-BE51AAE949B5}"/>
-    <hyperlink ref="E378" r:id="rId1376" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{7033D812-B5B5-46DA-B07F-7524CFDB7999}"/>
-    <hyperlink ref="I378" r:id="rId1377" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{6FD42025-1876-497A-B3D2-FD5F58DAED1D}"/>
-    <hyperlink ref="M378" r:id="rId1378" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{E689CD2F-196D-4BC6-92DC-A7C57B672E81}"/>
-    <hyperlink ref="C379" r:id="rId1379" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{EC483A20-E268-42AC-8F34-DBB85AEEED29}"/>
-    <hyperlink ref="E379" r:id="rId1380" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{FC78F9A2-A91C-43D5-9947-F97AD467D0D0}"/>
-    <hyperlink ref="I379" r:id="rId1381" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{7152A3F0-D6C9-47A8-9B03-BA015F2116B5}"/>
-    <hyperlink ref="M379" r:id="rId1382" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{825A02E7-D016-4881-85FB-4B6D3486CA04}"/>
-    <hyperlink ref="C380" r:id="rId1383" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{B7C02F6C-7244-4792-BE1F-5B730B29E264}"/>
-    <hyperlink ref="E380" r:id="rId1384" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{7FD1CD3D-B76E-4D0C-8215-8F4C8E7E4399}"/>
-    <hyperlink ref="I380" r:id="rId1385" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{B2AC00A4-818C-42A6-9B1C-334CD2B39DBC}"/>
-    <hyperlink ref="M380" r:id="rId1386" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{F6B86B4D-3547-4396-8547-41F0DE1E426D}"/>
-    <hyperlink ref="C381" r:id="rId1387" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{C934DE26-627E-48D2-8D36-9894F47172D5}"/>
-    <hyperlink ref="E381" r:id="rId1388" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{7EC8EE75-B107-4B79-A297-7B0919E25844}"/>
-    <hyperlink ref="I381" r:id="rId1389" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{EF5AD62E-2891-4F24-8C47-334AB4C865F4}"/>
-    <hyperlink ref="M381" r:id="rId1390" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{70A70FCC-0081-463F-BEA6-7E9279ECE9FD}"/>
-    <hyperlink ref="C382" r:id="rId1391" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{B34A1D13-2DFE-4112-BEC6-51695DCC18F2}"/>
-    <hyperlink ref="E382" r:id="rId1392" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F7A5F77C-08DF-463C-82B4-7C0F11B938DB}"/>
-    <hyperlink ref="I382" r:id="rId1393" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{FCB8AF20-99FB-41D7-A1B3-8A8B20344BDE}"/>
-    <hyperlink ref="M382" r:id="rId1394" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{D81B5D1D-21DF-405F-893C-5DED4667ACD3}"/>
-    <hyperlink ref="C383" r:id="rId1395" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{77A4E410-5193-4C9C-B6E2-B06EAEB4AC04}"/>
-    <hyperlink ref="E383" r:id="rId1396" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{05F5059E-6006-4391-9025-E1FBEF14AA67}"/>
-    <hyperlink ref="I383" r:id="rId1397" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EDA4768A-BEB7-466D-A66C-D977A8D494B7}"/>
-    <hyperlink ref="M383" r:id="rId1398" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{E3C7A7CA-C6C0-42A1-84BC-7587F88B3E0F}"/>
-    <hyperlink ref="C384" r:id="rId1399" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{2FE0CF63-315B-4642-AFCA-E4DBE116EA2C}"/>
-    <hyperlink ref="E384" r:id="rId1400" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{1A497C63-DA61-4679-82C4-C121B1D8993E}"/>
-    <hyperlink ref="I384" r:id="rId1401" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{BA899F41-74BA-4FDA-BC48-68172E34ED8B}"/>
-    <hyperlink ref="M384" r:id="rId1402" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{DD168D3C-F023-4AA4-877B-2D72061AD845}"/>
-    <hyperlink ref="C385" r:id="rId1403" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{EE9CF307-E269-46CC-A938-F39ECBDBEC9C}"/>
-    <hyperlink ref="E385" r:id="rId1404" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A43BB53B-7FB9-48DE-8FA1-FBFD75CBED0A}"/>
-    <hyperlink ref="I385" r:id="rId1405" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F3DE2082-DB51-4B08-874B-485F752C11C3}"/>
-    <hyperlink ref="M385" r:id="rId1406" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{EDD0CBB5-B3E0-4992-992F-0131C63E9006}"/>
-    <hyperlink ref="C386" r:id="rId1407" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{8CCE8D85-1E8D-4C2E-BA22-BF274A292853}"/>
-    <hyperlink ref="E386" r:id="rId1408" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{3DCBBC8E-D4D9-40DF-A830-7EABBE180F67}"/>
-    <hyperlink ref="I386" r:id="rId1409" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{20EF8144-F449-442C-B735-7E3A608882F4}"/>
-    <hyperlink ref="M386" r:id="rId1410" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{5219AF65-6C52-436D-9A09-68E5BFD9C8C2}"/>
-    <hyperlink ref="C388" r:id="rId1411" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{82BBFC8D-5BFD-4C2E-BF48-090716EB5DCF}"/>
-    <hyperlink ref="E388" r:id="rId1412" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{51E7839B-97DC-4C07-8826-7CD59C067C32}"/>
-    <hyperlink ref="I388" r:id="rId1413" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{5E589278-4AF5-4D46-ADB6-227C1C159AE5}"/>
-    <hyperlink ref="M388" r:id="rId1414" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{5971FAC6-8852-45A6-9040-9C624E30CE8D}"/>
-    <hyperlink ref="C389" r:id="rId1415" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{0A554FED-BD4C-4015-A687-A6E0EFAE5588}"/>
-    <hyperlink ref="E389" r:id="rId1416" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{768B0ABA-0E1E-44B4-9458-211401433E4D}"/>
-    <hyperlink ref="I389" r:id="rId1417" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{123246A4-EEDB-40FC-BF16-5D39B4055A12}"/>
-    <hyperlink ref="M389" r:id="rId1418" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{32C6011E-8D11-4489-B814-02905E251D93}"/>
-    <hyperlink ref="C390" r:id="rId1419" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{560E9922-DCB0-4090-9704-F428D470710A}"/>
-    <hyperlink ref="E390" r:id="rId1420" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D0A2BA17-84C7-4C64-9A6E-E0DBEE6B4FEC}"/>
-    <hyperlink ref="I390" r:id="rId1421" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{7D31859C-3B1C-4625-9346-862DECAE1EE9}"/>
-    <hyperlink ref="M390" r:id="rId1422" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{32595DE3-C85B-4C9B-B701-5558D367229E}"/>
-    <hyperlink ref="C391" r:id="rId1423" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{8CFA7154-A514-4194-A461-8BE98DDF7BF7}"/>
-    <hyperlink ref="E391" r:id="rId1424" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{A406D60A-75B9-4887-9E6C-E1E26E9A42D9}"/>
-    <hyperlink ref="I391" r:id="rId1425" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{139F3318-3558-4FAA-83C5-2B76E71966E5}"/>
-    <hyperlink ref="M391" r:id="rId1426" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{5F9E31BD-4576-44DF-A1D2-89BB5D72DC98}"/>
-    <hyperlink ref="C392" r:id="rId1427" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{DB97ACF4-6B3D-499E-BC0A-AF34C96E0FB4}"/>
-    <hyperlink ref="E392" r:id="rId1428" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CB6697DF-FD0D-4FC5-A2F5-3D8A7008FB75}"/>
-    <hyperlink ref="I392" r:id="rId1429" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{7EBF2032-E424-4055-ABA8-B1F4E304DFA9}"/>
-    <hyperlink ref="M392" r:id="rId1430" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{982C9AF9-35B4-4779-97D8-42D0713659F8}"/>
-    <hyperlink ref="C393" r:id="rId1431" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{B7945253-859A-4D92-BD3D-D5451E688750}"/>
-    <hyperlink ref="E393" r:id="rId1432" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8052BBF4-5EB3-40E1-B8A3-174C12AE2704}"/>
-    <hyperlink ref="I393" r:id="rId1433" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{23A13DA6-F2C9-45C2-8DEA-32CBB9A1D72E}"/>
-    <hyperlink ref="M393" r:id="rId1434" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{11FE6BB6-7F4F-4151-83C7-777094F2D897}"/>
-    <hyperlink ref="C394" r:id="rId1435" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{85EC473A-9F85-4586-8DC9-C44CD77033C8}"/>
-    <hyperlink ref="E394" r:id="rId1436" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{B79C1887-76FA-4883-8DD1-86BC1BC21B59}"/>
-    <hyperlink ref="I394" r:id="rId1437" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{ADC36DE5-739B-410F-B53F-503C5ECFC3F0}"/>
-    <hyperlink ref="M394" r:id="rId1438" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{F2C7016D-6D64-43E3-ABFF-E594A0E482E0}"/>
-    <hyperlink ref="C395" r:id="rId1439" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{24A1A178-08B8-466D-B2C7-CE4FED14910D}"/>
-    <hyperlink ref="E395" r:id="rId1440" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{85C6C517-8F4F-4198-994D-3C51DFBACD64}"/>
-    <hyperlink ref="I395" r:id="rId1441" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{22BEA887-AF47-41EB-B336-0B08C8FCC986}"/>
-    <hyperlink ref="M395" r:id="rId1442" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{414CA179-01A6-44B2-86A3-41EF4E1AC41F}"/>
-    <hyperlink ref="C396" r:id="rId1443" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{BA55C6C6-CF48-4857-98AB-1B03D71DCF85}"/>
-    <hyperlink ref="E396" r:id="rId1444" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{99DD5D49-D9BF-4F64-87FA-5AACDD76C0DE}"/>
-    <hyperlink ref="I396" r:id="rId1445" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B03EFB7B-B524-4F39-ADD5-560D4216FE06}"/>
-    <hyperlink ref="M396" r:id="rId1446" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{808FE2C9-F92F-43DD-A439-81552E413332}"/>
-    <hyperlink ref="C397" r:id="rId1447" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{0D830B42-1D43-43FC-A542-FF6C9A674795}"/>
-    <hyperlink ref="E397" r:id="rId1448" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F745A0E9-08BB-4EEB-9FD2-983BBC5DA83A}"/>
-    <hyperlink ref="I397" r:id="rId1449" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{556AF4E8-D3CE-4E2C-8F0F-EAAF82A20AD6}"/>
-    <hyperlink ref="M397" r:id="rId1450" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{5C48643D-9879-4C85-8D07-B10336CD3F3F}"/>
-    <hyperlink ref="C399" r:id="rId1451" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{AB67DD9D-9505-48D5-AEDC-C05927C6908A}"/>
-    <hyperlink ref="E399" r:id="rId1452" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{9596D452-4510-4B83-9600-15BA17D4DDE9}"/>
-    <hyperlink ref="I399" r:id="rId1453" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{ADBDD468-9E32-43DA-A2FE-DF8FE03E719C}"/>
-    <hyperlink ref="M399" r:id="rId1454" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{382E156D-0002-480B-B933-2DEFF36A6C59}"/>
-    <hyperlink ref="C400" r:id="rId1455" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{2F732A97-6894-4227-953E-95DB23AD991C}"/>
-    <hyperlink ref="E400" r:id="rId1456" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8182042D-308F-497A-99BB-4E9A70C0EC60}"/>
-    <hyperlink ref="I400" r:id="rId1457" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{DC63C1B5-CF30-4563-9AE6-95416A18E609}"/>
-    <hyperlink ref="M400" r:id="rId1458" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{7D2288A1-8151-4F51-BB59-BF7C6870DDF8}"/>
-    <hyperlink ref="C401" r:id="rId1459" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{10A2B3FD-71E9-4C81-8BD7-BF09B255883C}"/>
-    <hyperlink ref="E401" r:id="rId1460" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4E487170-1696-419D-94AA-0FC5C7324443}"/>
-    <hyperlink ref="I401" r:id="rId1461" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BA49DCC9-7807-4F00-A55E-7DA693519D70}"/>
-    <hyperlink ref="M401" r:id="rId1462" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{DEDD0302-FBE5-4AD2-8F08-DD7BD4DBB9CD}"/>
-    <hyperlink ref="C402" r:id="rId1463" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{0797A5BE-4FDA-419F-9B48-9BBB23CEE871}"/>
-    <hyperlink ref="E402" r:id="rId1464" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{308FBD3D-3E7C-4F3A-A67B-2E0D1B1F086B}"/>
-    <hyperlink ref="I402" r:id="rId1465" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{88C0FDB8-5426-41B0-81E3-113BE45C4928}"/>
-    <hyperlink ref="M402" r:id="rId1466" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{CA6D71E8-BA1A-4BCB-A69C-8737A6FC20FE}"/>
-    <hyperlink ref="C403" r:id="rId1467" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{B7EA2EC1-04DD-426C-9FD1-1DF0726BBDA2}"/>
-    <hyperlink ref="E403" r:id="rId1468" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{581B5568-463A-46AC-AA59-BCABA628A0EB}"/>
-    <hyperlink ref="I403" r:id="rId1469" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D2DEA5E5-1E89-462D-94B0-0068E06AAC76}"/>
-    <hyperlink ref="M403" r:id="rId1470" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{A91CA01A-C078-4DA5-AAC2-7310E9AE5173}"/>
-    <hyperlink ref="C404" r:id="rId1471" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{84027D49-55C0-4CC5-8C8A-969BD0BA93D7}"/>
-    <hyperlink ref="E404" r:id="rId1472" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{74AE91B6-F71D-43B2-8867-8BBCD3F11096}"/>
-    <hyperlink ref="I404" r:id="rId1473" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E6FE0678-8884-4DC2-AED7-5E0123674AC7}"/>
-    <hyperlink ref="M404" r:id="rId1474" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{405CCC30-671B-4E90-BF5D-77F07F853A0C}"/>
-    <hyperlink ref="C405" r:id="rId1475" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{06BE3CF2-B84F-4EEF-98B6-EF5BD9D3C18F}"/>
-    <hyperlink ref="E405" r:id="rId1476" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1AB935A9-18C1-49F8-B5A9-534747CDA89F}"/>
-    <hyperlink ref="I405" r:id="rId1477" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{D094780A-E1F6-4D5F-8D2A-25279FEA0AB7}"/>
-    <hyperlink ref="M405" r:id="rId1478" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{3884B4EF-1CE9-48E4-8745-4E65EBA4CD25}"/>
-    <hyperlink ref="C406" r:id="rId1479" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{D7AD7260-E3D6-4D6A-9215-84E3536E10A1}"/>
-    <hyperlink ref="E406" r:id="rId1480" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{E081FE89-75CD-4823-B9D5-02712123BA55}"/>
-    <hyperlink ref="I406" r:id="rId1481" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A0CF958D-C8C4-4797-B808-0DE23FDFCC3D}"/>
-    <hyperlink ref="M406" r:id="rId1482" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{A307BFB5-F0D5-4496-BE30-697906B1E3A7}"/>
-    <hyperlink ref="C407" r:id="rId1483" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{16279B2D-1D8B-496A-9CA6-717C1111B14C}"/>
-    <hyperlink ref="E407" r:id="rId1484" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{1EF23212-8C29-43E7-BE80-B8CEB4D723DC}"/>
-    <hyperlink ref="I407" r:id="rId1485" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{15D1F90B-0E89-4558-8FD0-3AB6F63850FE}"/>
-    <hyperlink ref="M407" r:id="rId1486" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{3DDACFA4-7711-4D70-BB5A-E7A7E49E759E}"/>
-    <hyperlink ref="C408" r:id="rId1487" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{17581484-6993-448C-9590-58E1F7CD22A1}"/>
-    <hyperlink ref="E408" r:id="rId1488" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B611A424-D556-4DB6-A1A2-802D5D7367B1}"/>
-    <hyperlink ref="I408" r:id="rId1489" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{ECCA5C66-BA71-45CB-8158-26DFB545DF60}"/>
-    <hyperlink ref="M408" r:id="rId1490" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{1C59FC45-DB6F-4AEF-A47D-33C6C7956A2D}"/>
-    <hyperlink ref="C410" r:id="rId1491" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{AAD7F4BB-ED57-422B-894D-B3FF7DBE9C01}"/>
-    <hyperlink ref="E410" r:id="rId1492" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CF141F50-E721-4267-9868-D08B049CDAF7}"/>
-    <hyperlink ref="I410" r:id="rId1493" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{A2B54DE8-CF70-41DF-B46B-5B3EF9B2121F}"/>
-    <hyperlink ref="M410" r:id="rId1494" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{361177AE-2118-43FE-B860-47D90DEBC9C7}"/>
-    <hyperlink ref="C411" r:id="rId1495" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{737E4792-D4A4-44B0-A3A3-3F34136E3CB2}"/>
-    <hyperlink ref="E411" r:id="rId1496" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9F48497A-D338-430F-84BD-8ABEEEC0ADD0}"/>
-    <hyperlink ref="I411" r:id="rId1497" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{78C234DA-869D-4A56-A3F0-7CB999B99A57}"/>
-    <hyperlink ref="M411" r:id="rId1498" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{18648DF8-E039-471B-B845-4102090212BA}"/>
-    <hyperlink ref="C412" r:id="rId1499" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{0B769B7B-0C87-4F89-B99B-F45649EBB33D}"/>
-    <hyperlink ref="E412" r:id="rId1500" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7DBA2789-D5FB-4D7C-A1AF-A3C5ADBDAD90}"/>
-    <hyperlink ref="I412" r:id="rId1501" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6D0C1518-159C-4D5E-98B4-2A30E1B17E6E}"/>
-    <hyperlink ref="M412" r:id="rId1502" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{BDD9520F-0BBC-431A-BAFD-FED869F16EF0}"/>
-    <hyperlink ref="C413" r:id="rId1503" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{78C80AFB-87B2-4866-95DD-3697F8E28405}"/>
-    <hyperlink ref="E413" r:id="rId1504" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E5F79AF6-F00D-4DBE-90A7-A6CEFA51FA89}"/>
-    <hyperlink ref="I413" r:id="rId1505" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{6966924E-7579-4819-9FE8-FB1F48B66994}"/>
-    <hyperlink ref="M413" r:id="rId1506" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{577924B5-F0AE-472F-A85D-F1FD383716F3}"/>
-    <hyperlink ref="C414" r:id="rId1507" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{84BBFFAD-56C0-4433-BD02-C9C52F8F6980}"/>
-    <hyperlink ref="E414" r:id="rId1508" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{354271E4-076D-42B2-97A7-113D5ABF68E4}"/>
-    <hyperlink ref="I414" r:id="rId1509" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{215EBEAE-F819-49FA-B818-A29329A58E01}"/>
-    <hyperlink ref="M414" r:id="rId1510" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{97E8C1D1-1BA4-44B7-AD14-92EFEA785300}"/>
-    <hyperlink ref="C415" r:id="rId1511" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{1771B786-16BE-4FF1-A557-5E6F52CBEC00}"/>
-    <hyperlink ref="E415" r:id="rId1512" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{FC5E12DA-3644-473B-9F73-E96BB24D39A1}"/>
-    <hyperlink ref="I415" r:id="rId1513" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FE0E48C3-F423-4ACD-8898-DECF41BBD1BB}"/>
-    <hyperlink ref="M415" r:id="rId1514" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{DD3CFF0A-3027-4B3B-B2A5-37A12725AA67}"/>
-    <hyperlink ref="C416" r:id="rId1515" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{654FF381-26F1-4EB2-A1CE-BE4282DD37D1}"/>
-    <hyperlink ref="E416" r:id="rId1516" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{4BE936EF-6D68-4E18-BD0C-70781C2AD11F}"/>
-    <hyperlink ref="I416" r:id="rId1517" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E1058F63-95E7-4D0F-AEBC-EA54B99A8255}"/>
-    <hyperlink ref="M416" r:id="rId1518" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{6DE85279-B217-463B-B6F9-E8D621A7650E}"/>
-    <hyperlink ref="C417" r:id="rId1519" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{B729854E-4ACE-495E-A5BE-20EF1A926F3C}"/>
-    <hyperlink ref="E417" r:id="rId1520" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{40F390E2-3BEA-49B0-8C4B-EF015909ABF5}"/>
-    <hyperlink ref="I417" r:id="rId1521" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{F821F421-0208-4C4C-9230-BDE8CF1B67A5}"/>
-    <hyperlink ref="M417" r:id="rId1522" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{1C523F17-7430-44A0-8E01-FB63EFE40877}"/>
-    <hyperlink ref="C418" r:id="rId1523" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{D49CC29B-C0EE-45B7-A1A2-7FFD5171D96A}"/>
-    <hyperlink ref="E418" r:id="rId1524" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{9A3F2816-C62B-4BE4-938D-9D58500FD5B2}"/>
-    <hyperlink ref="I418" r:id="rId1525" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{2CF8A5A5-D26C-4D03-A11E-F86898EB721A}"/>
-    <hyperlink ref="M418" r:id="rId1526" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{110C7BE9-24DF-490E-A6EC-64938B7BD56A}"/>
-    <hyperlink ref="C419" r:id="rId1527" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{9B435D14-5A71-4E50-BF58-867209BA8DED}"/>
-    <hyperlink ref="E419" r:id="rId1528" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{0A53E036-FC83-4F39-BD1F-6D6F10B0079F}"/>
-    <hyperlink ref="I419" r:id="rId1529" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7AB9AF43-470A-4743-A022-1CCAB45669E4}"/>
-    <hyperlink ref="M419" r:id="rId1530" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{C8A3BFB5-2D8D-46C3-A4FD-A65957676B0B}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://fbref.com/en/matches/2021-08-13" xr:uid="{34AFB4F0-93E5-4EC8-91A7-FEC2A101FB77}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{6F947C2E-9B5E-4DC4-8612-6A030E75D556}"/>
+    <hyperlink ref="G3" r:id="rId3" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{F3FD3AD3-3691-4FDD-B4E4-3776BE591B6B}"/>
+    <hyperlink ref="I3" r:id="rId4" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{C5D27A27-0A81-4866-9728-3CB891F82507}"/>
+    <hyperlink ref="M3" r:id="rId5" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{4BA689AC-C23C-40E2-ACA9-DBFEB73B4EFB}"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{AC817BBA-A940-4D32-A9B2-31A16219A45A}"/>
+    <hyperlink ref="E4" r:id="rId7" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{D827D893-45E0-4E6A-B365-BB589913F749}"/>
+    <hyperlink ref="G4" r:id="rId8" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{64E307E2-45B5-4B89-ABAC-9910A5EE4260}"/>
+    <hyperlink ref="I4" r:id="rId9" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2D14A5F3-E7BC-4487-B808-8D23DA0B9942}"/>
+    <hyperlink ref="M4" r:id="rId10" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{9FB11FAA-AE5F-4BF4-8B25-6D6EE88605A2}"/>
+    <hyperlink ref="C5" r:id="rId11" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{2452D36D-601C-4C20-89D9-56DBDC1CC993}"/>
+    <hyperlink ref="E5" r:id="rId12" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{CE8429CA-CAD6-46CA-916A-F1EC1A744BE9}"/>
+    <hyperlink ref="G5" r:id="rId13" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{9E66AF7D-5D4E-4C06-AD12-2BB74FD8D686}"/>
+    <hyperlink ref="I5" r:id="rId14" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{CEAC5513-BDEB-47D1-BBA8-6652FAB9883C}"/>
+    <hyperlink ref="M5" r:id="rId15" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{A0809518-A53C-4E0B-9E2E-CF0EC50CE2C9}"/>
+    <hyperlink ref="C6" r:id="rId16" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{F721CBE5-60A1-4525-955D-ACB802C7EF22}"/>
+    <hyperlink ref="E6" r:id="rId17" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{69D96BD9-E6F9-4B26-8614-4937546ED79A}"/>
+    <hyperlink ref="G6" r:id="rId18" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{1F686C90-5839-4F6D-A136-307C7343F690}"/>
+    <hyperlink ref="I6" r:id="rId19" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B0BE06A8-93E1-4406-86B5-5A348A95E3B7}"/>
+    <hyperlink ref="M6" r:id="rId20" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{57BE9C9D-73C2-448F-9866-03671060EA54}"/>
+    <hyperlink ref="C7" r:id="rId21" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{4B853627-8105-47A1-B9B2-3F076837E196}"/>
+    <hyperlink ref="E7" r:id="rId22" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0B9B1EEB-E1B5-4B81-92A1-29CD9DDBC1CF}"/>
+    <hyperlink ref="G7" r:id="rId23" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{B5D931A3-BD0B-4090-92C5-A203F68CD9DD}"/>
+    <hyperlink ref="I7" r:id="rId24" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{84A356D5-A1E4-4FBA-82C3-D968937025E0}"/>
+    <hyperlink ref="M7" r:id="rId25" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{99320025-F890-4E1C-B222-C3D1E531E323}"/>
+    <hyperlink ref="C8" r:id="rId26" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{1F346288-EB2C-40EA-8C33-2C1014B4A0DE}"/>
+    <hyperlink ref="E8" r:id="rId27" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{E804DAEC-9121-4A65-8F0B-4829C7043D16}"/>
+    <hyperlink ref="G8" r:id="rId28" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{6A578424-B6EC-415B-A496-FF9EEDF06102}"/>
+    <hyperlink ref="I8" r:id="rId29" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{938ACF83-CB60-4ADF-BA10-1EF494409089}"/>
+    <hyperlink ref="M8" r:id="rId30" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{74753CEC-5BF9-4F0E-8B88-C53A2CD23FF5}"/>
+    <hyperlink ref="C9" r:id="rId31" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{22FA70CF-1A1D-4064-BE02-7BC47F563383}"/>
+    <hyperlink ref="E9" r:id="rId32" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{CFC62AB8-DCC7-464A-9D23-5ACE603C9902}"/>
+    <hyperlink ref="G9" r:id="rId33" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{277984E5-EA78-4558-84F6-1CA083882272}"/>
+    <hyperlink ref="I9" r:id="rId34" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{79D2B2B4-09E3-4F95-877C-0D35C1CD8612}"/>
+    <hyperlink ref="M9" r:id="rId35" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{6E8EE033-997D-474A-9F26-1FC7051CFCF7}"/>
+    <hyperlink ref="C10" r:id="rId36" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{795ABF43-3B63-40F5-BD61-EFD9BC85C643}"/>
+    <hyperlink ref="E10" r:id="rId37" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{006AF90D-EC2F-42FD-A796-A59A13F01B27}"/>
+    <hyperlink ref="G10" r:id="rId38" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{D2731050-B15E-44E9-9D52-429F4459CF6B}"/>
+    <hyperlink ref="I10" r:id="rId39" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{448725E8-D54A-4266-9C01-AB6120A77DCA}"/>
+    <hyperlink ref="M10" r:id="rId40" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{487BB218-EC06-4B8E-B481-DEAFE11DD750}"/>
+    <hyperlink ref="C11" r:id="rId41" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{D4FEBAA6-4383-40C6-9CB5-A59DD9078CA0}"/>
+    <hyperlink ref="E11" r:id="rId42" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B28910F8-46D6-430E-AA49-0BF368B84CBC}"/>
+    <hyperlink ref="G11" r:id="rId43" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{9FB1A7E5-C362-4C87-B472-F3D05CCF24FE}"/>
+    <hyperlink ref="I11" r:id="rId44" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{D9A4C5CA-23DF-4A09-BFB9-4AC4614AC8B3}"/>
+    <hyperlink ref="M11" r:id="rId45" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{2FE6B957-1F1F-4C68-A9BF-9C3DED0B40BC}"/>
+    <hyperlink ref="C12" r:id="rId46" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{0BFFD935-461F-49EA-9330-C6C84DC91217}"/>
+    <hyperlink ref="E12" r:id="rId47" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{84637AD7-D5B0-4C27-864F-92829537228A}"/>
+    <hyperlink ref="G12" r:id="rId48" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{660B4D71-F0A7-44FD-A03E-093A65A3679F}"/>
+    <hyperlink ref="I12" r:id="rId49" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{57B157C5-0163-46FF-95E7-DFFBA8A7F0CB}"/>
+    <hyperlink ref="M12" r:id="rId50" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{4EB1886A-5D0F-4A6E-A010-541C8A98015E}"/>
+    <hyperlink ref="C14" r:id="rId51" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{871BC711-7FE5-4A64-AD4D-1424868EAC3A}"/>
+    <hyperlink ref="E14" r:id="rId52" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5C44D824-6AA9-4441-8BAE-A587BB7908C4}"/>
+    <hyperlink ref="G14" r:id="rId53" display="https://fbref.com/en/matches/94d9dac0/Liverpool-Burnley-August-21-2021-Premier-League" xr:uid="{CF258A93-073C-4D5D-B780-06805815939D}"/>
+    <hyperlink ref="I14" r:id="rId54" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B12323E7-7091-4692-B4DC-3487E01A1C6C}"/>
+    <hyperlink ref="M14" r:id="rId55" display="https://fbref.com/en/matches/94d9dac0/Liverpool-Burnley-August-21-2021-Premier-League" xr:uid="{E1D0A7D3-E360-4BA0-BB28-47F90ECFBA35}"/>
+    <hyperlink ref="C15" r:id="rId56" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{BBBEFEEA-694A-4912-9AB8-E22AF9AA3E9C}"/>
+    <hyperlink ref="E15" r:id="rId57" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{0A1144B0-62BC-4BA8-990E-8CAD65C4F263}"/>
+    <hyperlink ref="G15" r:id="rId58" display="https://fbref.com/en/matches/662d4074/Aston-Villa-Newcastle-United-August-21-2021-Premier-League" xr:uid="{FE072D68-D20E-4B46-B107-DDF5EE635512}"/>
+    <hyperlink ref="I15" r:id="rId59" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{9B0C9822-A639-4CDC-A8A9-6EBC643B1EA4}"/>
+    <hyperlink ref="M15" r:id="rId60" display="https://fbref.com/en/matches/662d4074/Aston-Villa-Newcastle-United-August-21-2021-Premier-League" xr:uid="{BD56BDD5-C03E-4638-AD91-4919FD6979EF}"/>
+    <hyperlink ref="C16" r:id="rId61" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{FB028C1F-5BFD-4706-841E-685FAC15ED6B}"/>
+    <hyperlink ref="E16" r:id="rId62" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{93ED3DA4-1CBD-4BFD-8E5E-4F935D8C5403}"/>
+    <hyperlink ref="G16" r:id="rId63" display="https://fbref.com/en/matches/ab6db0d6/Manchester-City-Norwich-City-August-21-2021-Premier-League" xr:uid="{8FADDA3C-3C09-48A0-A0D9-96906D362684}"/>
+    <hyperlink ref="I16" r:id="rId64" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{ABB09678-55EE-4BCB-90F3-196CFB3BA4BC}"/>
+    <hyperlink ref="M16" r:id="rId65" display="https://fbref.com/en/matches/ab6db0d6/Manchester-City-Norwich-City-August-21-2021-Premier-League" xr:uid="{7CF3407B-5782-4B71-A147-8A176D0AB29F}"/>
+    <hyperlink ref="C17" r:id="rId66" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{55F33109-5B4D-4BAF-867E-57A9107E58F1}"/>
+    <hyperlink ref="E17" r:id="rId67" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D336A150-97E3-4A5B-A6FC-CB600E5BBF9F}"/>
+    <hyperlink ref="G17" r:id="rId68" display="https://fbref.com/en/matches/c8945d11/Crystal-Palace-Brentford-August-21-2021-Premier-League" xr:uid="{38D075DE-586B-488D-82C9-263DDA1CEDCD}"/>
+    <hyperlink ref="I17" r:id="rId69" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{EB63BE0D-1170-4343-87DF-83333D51D03D}"/>
+    <hyperlink ref="M17" r:id="rId70" display="https://fbref.com/en/matches/c8945d11/Crystal-Palace-Brentford-August-21-2021-Premier-League" xr:uid="{DD9F79B2-DF78-4422-A30E-53987226795A}"/>
+    <hyperlink ref="C18" r:id="rId71" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{9031E94A-15CD-4A95-99EE-56D1C5D62823}"/>
+    <hyperlink ref="E18" r:id="rId72" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{91F052E1-6B01-4710-B95C-1C41F7A56574}"/>
+    <hyperlink ref="G18" r:id="rId73" display="https://fbref.com/en/matches/b9064680/Leeds-United-Everton-August-21-2021-Premier-League" xr:uid="{980F5769-4969-45A7-AB51-041019B73FEC}"/>
+    <hyperlink ref="I18" r:id="rId74" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{992E656C-D462-49D8-9E2D-3632481ED0DA}"/>
+    <hyperlink ref="M18" r:id="rId75" display="https://fbref.com/en/matches/b9064680/Leeds-United-Everton-August-21-2021-Premier-League" xr:uid="{C1C1F403-96E0-444A-BE93-64B2E7C32445}"/>
+    <hyperlink ref="C19" r:id="rId76" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{998A14CE-7708-4D92-AD8E-4081140BED92}"/>
+    <hyperlink ref="E19" r:id="rId77" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{24A1DFFC-0257-4B04-B1CE-0B8FC1896E88}"/>
+    <hyperlink ref="G19" r:id="rId78" display="https://fbref.com/en/matches/072af2f8/Brighton-and-Hove-Albion-Watford-August-21-2021-Premier-League" xr:uid="{A0F98AE2-7FF4-4DA1-BB88-87C281E1A262}"/>
+    <hyperlink ref="I19" r:id="rId79" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{2355FBFE-EA17-4501-AC50-5B56D396B19C}"/>
+    <hyperlink ref="M19" r:id="rId80" display="https://fbref.com/en/matches/072af2f8/Brighton-and-Hove-Albion-Watford-August-21-2021-Premier-League" xr:uid="{FFEDF20E-240C-465D-A138-93D0AB8FE3F3}"/>
+    <hyperlink ref="C20" r:id="rId81" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{2FEA3DC3-F522-4628-9093-72AF8BD85201}"/>
+    <hyperlink ref="E20" r:id="rId82" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{CCB1A115-0E29-49FB-8B75-0DA1C55DB915}"/>
+    <hyperlink ref="I20" r:id="rId83" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1A6CAC8C-8155-4319-8901-7CBBCAF4733C}"/>
+    <hyperlink ref="M20" r:id="rId84" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{D1AE3256-8A36-476D-8763-A8B1970AE70B}"/>
+    <hyperlink ref="C21" r:id="rId85" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{58C385DD-9064-4630-8F04-C56129C1B6AA}"/>
+    <hyperlink ref="E21" r:id="rId86" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A9B4AE98-27F1-4F34-BCBC-03E24970962B}"/>
+    <hyperlink ref="I21" r:id="rId87" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{6ECCF888-2623-4ADB-9F4F-70268F18F4AE}"/>
+    <hyperlink ref="M21" r:id="rId88" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{4C6A3F07-8914-4726-8379-EA163A11DBED}"/>
+    <hyperlink ref="C22" r:id="rId89" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{81D3743F-B18A-4A32-B8AE-5DC30525C976}"/>
+    <hyperlink ref="E22" r:id="rId90" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{A39B119D-BF57-4B0F-A635-A902BB51606F}"/>
+    <hyperlink ref="I22" r:id="rId91" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{4A968CAF-65AF-400C-8B4A-9F2F52DC620C}"/>
+    <hyperlink ref="M22" r:id="rId92" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{94CE72EF-CC9E-44ED-829C-E571D51F2FD8}"/>
+    <hyperlink ref="C23" r:id="rId93" display="https://fbref.com/en/matches/2021-08-23" xr:uid="{5A4C9249-7D43-44A1-9E59-27B0909C5553}"/>
+    <hyperlink ref="E23" r:id="rId94" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{5838648D-DB9F-4FF0-AD89-CD0F1947C2CE}"/>
+    <hyperlink ref="I23" r:id="rId95" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{BE026E2D-E6E2-4834-BE77-7D9D0D3DDE09}"/>
+    <hyperlink ref="M23" r:id="rId96" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{15E16364-8864-4CF6-A2AC-5D9A816F683B}"/>
+    <hyperlink ref="C25" r:id="rId97" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{914F5079-7808-44DA-8C21-E45451B13D28}"/>
+    <hyperlink ref="E25" r:id="rId98" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{579B1208-14FD-4BC8-B9D0-A9B33CF009D9}"/>
+    <hyperlink ref="I25" r:id="rId99" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9F29734A-2002-4E39-8EC6-DEDE3956F5E0}"/>
+    <hyperlink ref="M25" r:id="rId100" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{7F9EB6D9-AADB-4AEA-9413-7C399CB3E7E5}"/>
+    <hyperlink ref="C26" r:id="rId101" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{D749BA73-75E8-4CDA-8339-59029F835ABB}"/>
+    <hyperlink ref="E26" r:id="rId102" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{544CBEB0-BC02-4DB3-891C-FBBE24DD96F4}"/>
+    <hyperlink ref="I26" r:id="rId103" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{858FD23C-9AC8-4725-A3B8-F921A02EEB28}"/>
+    <hyperlink ref="M26" r:id="rId104" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{4C40FF23-55FD-4E26-A6DD-9B8E8F965BBA}"/>
+    <hyperlink ref="C27" r:id="rId105" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{FA297CA8-BCA7-476D-995C-2EC2B7FE873D}"/>
+    <hyperlink ref="E27" r:id="rId106" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{7EF216D1-5616-4244-96B8-B0E781F3E563}"/>
+    <hyperlink ref="I27" r:id="rId107" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{11D8F233-40A7-49D6-9BD5-305383E796C7}"/>
+    <hyperlink ref="M27" r:id="rId108" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{1A210F8D-6D5F-472B-8431-722CE14D9C2D}"/>
+    <hyperlink ref="C28" r:id="rId109" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{1A67FC83-383A-41F1-BEFD-DC2CE29B4803}"/>
+    <hyperlink ref="E28" r:id="rId110" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{497C15EE-3C80-4EF2-9BB1-1791AE582125}"/>
+    <hyperlink ref="I28" r:id="rId111" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{C4183A2F-58A4-4DD3-9BDC-6EAD332C6797}"/>
+    <hyperlink ref="M28" r:id="rId112" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{BFE5AFFD-39F2-4F72-A5AF-925AC51E371F}"/>
+    <hyperlink ref="C29" r:id="rId113" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{23D6C307-CD6D-4904-AB0B-8F733BD605C6}"/>
+    <hyperlink ref="E29" r:id="rId114" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{8CC16B2E-B9CE-4AE3-98BD-4BE8B4D2F82B}"/>
+    <hyperlink ref="I29" r:id="rId115" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{71B5B890-8D75-44C0-9F64-117E34DE0256}"/>
+    <hyperlink ref="M29" r:id="rId116" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{49B0F642-3FD7-411C-9E9B-2950929316A1}"/>
+    <hyperlink ref="C30" r:id="rId117" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{F98ACB3E-88B5-474F-976F-5AE89E1F229E}"/>
+    <hyperlink ref="E30" r:id="rId118" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1CD85639-EBD4-460C-85F9-35D1F9A67863}"/>
+    <hyperlink ref="I30" r:id="rId119" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{ACA800FC-1F45-4E12-9D59-4222F0A27BA8}"/>
+    <hyperlink ref="M30" r:id="rId120" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{FF5DA729-9722-438F-B7B4-96B7262B5D27}"/>
+    <hyperlink ref="C31" r:id="rId121" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{E6E6F2AF-DF0F-4462-8496-71C2A6AE7FC5}"/>
+    <hyperlink ref="E31" r:id="rId122" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5CCDEF02-72E8-4E3C-97E7-DF457226C27C}"/>
+    <hyperlink ref="I31" r:id="rId123" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A59C02C5-6B32-4EAF-BC5B-DD6D5FFC510A}"/>
+    <hyperlink ref="M31" r:id="rId124" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{F31C3855-558A-4374-9C87-9894E0B629CC}"/>
+    <hyperlink ref="C32" r:id="rId125" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{4D261579-740A-4E01-B600-51FDB91F7B0F}"/>
+    <hyperlink ref="E32" r:id="rId126" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C18B38BB-592B-4D77-BBA3-ADDC8E7183ED}"/>
+    <hyperlink ref="I32" r:id="rId127" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0A73CC45-0437-4754-B88B-BF5295862DD4}"/>
+    <hyperlink ref="M32" r:id="rId128" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{A7E348D4-434C-4317-9E4B-8C0D75A8FCC5}"/>
+    <hyperlink ref="C33" r:id="rId129" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{D5CC53D1-B1AD-4820-8452-46D3A27E3C62}"/>
+    <hyperlink ref="E33" r:id="rId130" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6696A151-A3FE-411B-B1D8-C18431724B30}"/>
+    <hyperlink ref="I33" r:id="rId131" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{FEDD7588-8A97-4D76-AA9A-ECB247D665E3}"/>
+    <hyperlink ref="M33" r:id="rId132" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{4B2C92E8-40C5-4320-9E65-786E3FB68C9C}"/>
+    <hyperlink ref="C34" r:id="rId133" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{5FD3E505-D2D3-4811-96BB-68AD79C27A43}"/>
+    <hyperlink ref="E34" r:id="rId134" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{9608AAE5-B07B-48E5-A615-8657CAC72F56}"/>
+    <hyperlink ref="I34" r:id="rId135" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CB323F73-6BBB-4503-9F1A-AE85557B46F4}"/>
+    <hyperlink ref="M34" r:id="rId136" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{652070CD-13AC-4A17-92ED-92BDDA8D9143}"/>
+    <hyperlink ref="C36" r:id="rId137" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{5A4B3FCA-7288-4548-852D-ABCF7ACA1B72}"/>
+    <hyperlink ref="E36" r:id="rId138" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{81156D59-C57F-47BA-9B11-53A4D350B067}"/>
+    <hyperlink ref="I36" r:id="rId139" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{BD5FE183-2A65-4963-B613-CD0DEC007F0C}"/>
+    <hyperlink ref="M36" r:id="rId140" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{197254FA-2A14-4897-A1BA-691DBFEAAA31}"/>
+    <hyperlink ref="C37" r:id="rId141" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{2989B234-E3AC-48F6-B190-60A78256C532}"/>
+    <hyperlink ref="E37" r:id="rId142" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{656A78A9-2537-4C6C-8153-9869014D726C}"/>
+    <hyperlink ref="I37" r:id="rId143" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BCFFC6E9-AD6D-4947-96D3-A1DE70D20471}"/>
+    <hyperlink ref="M37" r:id="rId144" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{7B7F5167-44C1-4CE8-84DC-E21183D1349F}"/>
+    <hyperlink ref="C38" r:id="rId145" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{6BDDBCC3-01F3-4749-B9D6-EDC17A029926}"/>
+    <hyperlink ref="E38" r:id="rId146" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{FD3B3BBA-B987-4621-8520-10F907D0313D}"/>
+    <hyperlink ref="I38" r:id="rId147" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{237F6A64-B4A5-42A2-A00C-94DC25BC487F}"/>
+    <hyperlink ref="M38" r:id="rId148" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{4774A625-9FC6-4877-AF0A-EA81A882CD99}"/>
+    <hyperlink ref="C39" r:id="rId149" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{F7380424-EC77-4FAE-8AB9-6CC4EF1A53F8}"/>
+    <hyperlink ref="E39" r:id="rId150" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{221B8FD1-A936-4797-BD9E-66F8DC2BCE0A}"/>
+    <hyperlink ref="I39" r:id="rId151" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B3CC6990-9531-4AFA-8104-60FAFFE0D51E}"/>
+    <hyperlink ref="M39" r:id="rId152" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{213D343D-8517-4A19-8C54-2CFB2DFE5EC3}"/>
+    <hyperlink ref="C40" r:id="rId153" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{598BA21D-897D-475E-9A1B-FF62B9E96E3E}"/>
+    <hyperlink ref="E40" r:id="rId154" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{73899717-0483-42E9-9C98-362E486D0A44}"/>
+    <hyperlink ref="I40" r:id="rId155" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C411478D-7DE7-4E42-AFF2-A06A33365A70}"/>
+    <hyperlink ref="M40" r:id="rId156" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{E10BB9ED-2040-4FA5-872C-59D2BC2C0F62}"/>
+    <hyperlink ref="C41" r:id="rId157" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{82DF2F81-FD84-4027-BFE0-BEB8BE7F3461}"/>
+    <hyperlink ref="E41" r:id="rId158" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{3DC5EA79-8461-46A3-BC7F-7497362608E7}"/>
+    <hyperlink ref="I41" r:id="rId159" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5DC72A95-5098-4AD8-AE7F-48058E35DF35}"/>
+    <hyperlink ref="M41" r:id="rId160" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{E2A934A3-953F-46E1-8DC0-59031283DC6A}"/>
+    <hyperlink ref="C42" r:id="rId161" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{5D1DE88A-A367-4109-A1D1-303314184863}"/>
+    <hyperlink ref="E42" r:id="rId162" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CDD69379-2106-48C3-8E8F-C70E2EE3C2E9}"/>
+    <hyperlink ref="I42" r:id="rId163" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B38710AC-8294-4AD4-B546-C178ACA759DB}"/>
+    <hyperlink ref="M42" r:id="rId164" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{110E216C-18B5-488B-979D-BE880382BCF8}"/>
+    <hyperlink ref="C43" r:id="rId165" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{EEFB9D4F-7F9B-4B1B-AEB9-E31588861598}"/>
+    <hyperlink ref="E43" r:id="rId166" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{FF7ABE5D-BD1D-47A8-BD19-5A47D1634C93}"/>
+    <hyperlink ref="I43" r:id="rId167" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AFCAD3B7-D15D-44D1-91AF-D88E28E5B3EF}"/>
+    <hyperlink ref="M43" r:id="rId168" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{CB82F4A6-C636-4152-A42A-04B65CA5B8C6}"/>
+    <hyperlink ref="C44" r:id="rId169" display="https://fbref.com/en/matches/2021-09-12" xr:uid="{41DE107B-199A-4E3C-9960-E4F058A7A548}"/>
+    <hyperlink ref="E44" r:id="rId170" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{9B5CFFB7-C7CA-45B5-92B2-05CB17ECA9F5}"/>
+    <hyperlink ref="I44" r:id="rId171" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{31FA2BB7-BE41-4516-BBFA-D131A4851A2A}"/>
+    <hyperlink ref="M44" r:id="rId172" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{C16B9D2F-A554-4740-8025-1E074710C94B}"/>
+    <hyperlink ref="C45" r:id="rId173" display="https://fbref.com/en/matches/2021-09-13" xr:uid="{EC1D2DCB-AC1B-4F91-B204-C791D6802572}"/>
+    <hyperlink ref="E45" r:id="rId174" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5804DC4D-58C6-4FF4-84CC-D70DD9947963}"/>
+    <hyperlink ref="I45" r:id="rId175" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3991DD7D-F656-4D44-975F-BBD32919FDB6}"/>
+    <hyperlink ref="M45" r:id="rId176" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{13E0F358-754D-4051-B241-7CB81D8CB84A}"/>
+    <hyperlink ref="C47" r:id="rId177" display="https://fbref.com/en/matches/2021-09-17" xr:uid="{2E81AA47-B951-4E6E-81D3-7A36787505D1}"/>
+    <hyperlink ref="E47" r:id="rId178" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{39C73061-217C-4695-B197-A490E42888A0}"/>
+    <hyperlink ref="I47" r:id="rId179" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{BDECE0B9-0E95-4370-9E3B-E320C0EB2D8C}"/>
+    <hyperlink ref="M47" r:id="rId180" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{6CBFECE0-B6CE-40C9-B528-100641E1FED9}"/>
+    <hyperlink ref="C48" r:id="rId181" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{AE947AD3-FC5A-4127-9F8D-35069B481977}"/>
+    <hyperlink ref="E48" r:id="rId182" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{FF9223BA-D06E-4F83-8D2A-9412506E7EF5}"/>
+    <hyperlink ref="I48" r:id="rId183" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7C7A6954-D863-4576-83F2-CEA57D6F51EB}"/>
+    <hyperlink ref="M48" r:id="rId184" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{4831B406-36AA-4975-B8F2-BC46D1E8859B}"/>
+    <hyperlink ref="C49" r:id="rId185" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{9038755B-9D79-4D27-909C-AFAC3890E5FD}"/>
+    <hyperlink ref="E49" r:id="rId186" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{D55AE079-1102-4BE7-B093-AB98937EBE34}"/>
+    <hyperlink ref="I49" r:id="rId187" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{5ADEEE5D-916D-4951-838D-CC4AA011F8EB}"/>
+    <hyperlink ref="M49" r:id="rId188" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{E913F5A0-220A-45BD-BE60-4524F72E2F27}"/>
+    <hyperlink ref="C50" r:id="rId189" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{8E9B4822-A805-4969-B0CF-8BB418CE84CE}"/>
+    <hyperlink ref="E50" r:id="rId190" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D499ABC8-CC7A-4302-8EF6-35673EE52839}"/>
+    <hyperlink ref="I50" r:id="rId191" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{0D6E8C27-8BCF-49A4-B892-C7AC0EDCF0F0}"/>
+    <hyperlink ref="M50" r:id="rId192" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{1ADE1126-168A-4AA2-99E4-EE3ECD581E89}"/>
+    <hyperlink ref="C51" r:id="rId193" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{70C0A866-409C-45F3-8006-24916E2D25B6}"/>
+    <hyperlink ref="E51" r:id="rId194" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{AA0850C6-645B-434A-A927-519D5E11EC06}"/>
+    <hyperlink ref="I51" r:id="rId195" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{709632D9-5AD4-4AEE-B956-413EC3E8E42E}"/>
+    <hyperlink ref="M51" r:id="rId196" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{3E74B6D4-8B72-48BC-99ED-93F327394B2C}"/>
+    <hyperlink ref="C52" r:id="rId197" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{62C86FE2-4BCB-4A13-9EED-1760300B5EC3}"/>
+    <hyperlink ref="E52" r:id="rId198" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3EC756EE-0EC7-4E67-ABD5-E5D96847FFE0}"/>
+    <hyperlink ref="I52" r:id="rId199" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{35A66DA4-18EB-4CA4-9D27-AFAC9632CE4E}"/>
+    <hyperlink ref="M52" r:id="rId200" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{714774B7-CF8B-4937-A0D3-6E93D47071A8}"/>
+    <hyperlink ref="C53" r:id="rId201" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{3D5A6A04-9A5B-44E2-A6F0-10AEEF4CE6D0}"/>
+    <hyperlink ref="E53" r:id="rId202" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4B45A485-9727-4802-919E-0E15335CAB03}"/>
+    <hyperlink ref="I53" r:id="rId203" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{2613A64D-FA6A-4944-89DC-36E614F2C496}"/>
+    <hyperlink ref="M53" r:id="rId204" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{6200AD9A-F723-4A78-9160-4A749E9885DA}"/>
+    <hyperlink ref="C54" r:id="rId205" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{1657CB6F-9101-4AF8-8576-7210C8E22C6A}"/>
+    <hyperlink ref="E54" r:id="rId206" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{08F2445E-1F5B-493A-A316-4F5B7E73F08C}"/>
+    <hyperlink ref="I54" r:id="rId207" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F6D98630-FBF0-48D9-A033-6D97AD0B318E}"/>
+    <hyperlink ref="M54" r:id="rId208" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{31537D83-8283-4A91-9B42-7F84E599BDFE}"/>
+    <hyperlink ref="C55" r:id="rId209" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{5B8CFCD2-A809-4457-B5AA-7AF7EDD1BEE3}"/>
+    <hyperlink ref="E55" r:id="rId210" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{309CA9EC-8511-4F64-A704-B26E89C306CB}"/>
+    <hyperlink ref="I55" r:id="rId211" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{0D1F32FE-5BE3-4047-BB66-E9273A0F5E58}"/>
+    <hyperlink ref="M55" r:id="rId212" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{EAFB9A2E-58DA-423B-B058-4106A8C33FDE}"/>
+    <hyperlink ref="C56" r:id="rId213" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{1D163445-5F38-471D-88E7-5DF046833233}"/>
+    <hyperlink ref="E56" r:id="rId214" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{683C7FB0-6DC8-4B11-B40A-114E5A6FD391}"/>
+    <hyperlink ref="I56" r:id="rId215" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{CC4087D3-28E1-4A7A-BCFE-9D3D3A04C873}"/>
+    <hyperlink ref="M56" r:id="rId216" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{7F111163-ABEC-46A7-9790-AFABE1FDB97E}"/>
+    <hyperlink ref="C58" r:id="rId217" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{7882B893-183A-4F8D-83B7-E68286F9370F}"/>
+    <hyperlink ref="E58" r:id="rId218" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{571A8374-45BA-434B-9EC6-FEF5C7C5367E}"/>
+    <hyperlink ref="I58" r:id="rId219" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D94ACA43-AB21-4B37-AA23-ED8F8B3133F9}"/>
+    <hyperlink ref="M58" r:id="rId220" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{3FE1C364-1592-46EE-8EA6-57C0E175D98B}"/>
+    <hyperlink ref="C59" r:id="rId221" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{3FE9C7CE-BF3D-4F81-BE93-4F81500826D1}"/>
+    <hyperlink ref="E59" r:id="rId222" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C8AB3B2C-393A-47A4-9A9F-94A431533B83}"/>
+    <hyperlink ref="I59" r:id="rId223" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{586B0103-7FB2-43CC-AD06-77DDE23B879F}"/>
+    <hyperlink ref="M59" r:id="rId224" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{98E9DF84-BB97-4C84-9D26-1FA5FFC254F2}"/>
+    <hyperlink ref="C60" r:id="rId225" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{0ABDC021-AE63-4D05-974C-7ACA1C89C128}"/>
+    <hyperlink ref="E60" r:id="rId226" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{0AF6337B-370F-4D9C-B0EB-F3288C67FDF3}"/>
+    <hyperlink ref="I60" r:id="rId227" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{447463CD-DA7C-4BE5-976A-A606AA885653}"/>
+    <hyperlink ref="M60" r:id="rId228" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{4A088C09-15D0-41F3-B08A-5403C91A0927}"/>
+    <hyperlink ref="C61" r:id="rId229" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{43517F65-8331-4672-8A1E-EFBAB7BD8918}"/>
+    <hyperlink ref="E61" r:id="rId230" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{5202B92C-AC9F-41E1-8E10-BF360225361A}"/>
+    <hyperlink ref="I61" r:id="rId231" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3E3253E8-EE8C-4447-A9D3-CBA7E169C9F3}"/>
+    <hyperlink ref="M61" r:id="rId232" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{C382B3D8-12D2-42BC-A20A-61B93263A7F9}"/>
+    <hyperlink ref="C62" r:id="rId233" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{1F0C6652-FE12-4077-927C-E480AB22F46A}"/>
+    <hyperlink ref="E62" r:id="rId234" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{78337F64-002D-44B6-AD57-F1F0FB735965}"/>
+    <hyperlink ref="I62" r:id="rId235" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FD39F2D4-0D82-448B-867F-B9E5EB4CFB5B}"/>
+    <hyperlink ref="M62" r:id="rId236" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{74E9DF99-8680-4ADE-82B5-3B37A63B17A9}"/>
+    <hyperlink ref="C63" r:id="rId237" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{E26FB80A-6104-4019-97C5-A3AAF9F383A7}"/>
+    <hyperlink ref="E63" r:id="rId238" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{2DE6161F-D94B-4244-9B28-E6597EB94D21}"/>
+    <hyperlink ref="I63" r:id="rId239" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A3D21C45-89E9-4470-A5B6-3D2482C734AA}"/>
+    <hyperlink ref="M63" r:id="rId240" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{4EB49823-97D1-4F49-8046-BFF599C8F472}"/>
+    <hyperlink ref="C64" r:id="rId241" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{CB879155-68F2-4AA2-B2F9-F6ECFBD99D98}"/>
+    <hyperlink ref="E64" r:id="rId242" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{1668E08B-E2EA-4509-9277-DAAE089DF805}"/>
+    <hyperlink ref="I64" r:id="rId243" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{42DA1266-BC43-4051-9E4A-496C82F5D8AC}"/>
+    <hyperlink ref="M64" r:id="rId244" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{51761E4C-FE03-4854-A6D4-6221CB9AF497}"/>
+    <hyperlink ref="C65" r:id="rId245" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{51E75AA9-3FAD-459E-B328-1445F39C99E4}"/>
+    <hyperlink ref="E65" r:id="rId246" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{DB74BD96-83DF-46ED-B386-7E605D10832C}"/>
+    <hyperlink ref="I65" r:id="rId247" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{0077DBF5-1DB1-4D74-8DE2-B76E6DA583A1}"/>
+    <hyperlink ref="M65" r:id="rId248" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{98856805-2A43-47BD-B69B-164D77AC2AD1}"/>
+    <hyperlink ref="C66" r:id="rId249" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{879AFC3D-289E-45C8-A892-D4888FE89132}"/>
+    <hyperlink ref="E66" r:id="rId250" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9A4EFD20-379A-4A74-9C0A-318E835553D5}"/>
+    <hyperlink ref="I66" r:id="rId251" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{73AB8A95-C514-400B-B534-4CC8906868F1}"/>
+    <hyperlink ref="M66" r:id="rId252" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{DF2D8C94-D23A-4CC5-B1FA-2172FAA0EB34}"/>
+    <hyperlink ref="C67" r:id="rId253" display="https://fbref.com/en/matches/2021-09-27" xr:uid="{B3FD64B5-F2C7-4A98-A396-1A3FCDED0977}"/>
+    <hyperlink ref="E67" r:id="rId254" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{10822599-2241-4776-B189-51068EA016C6}"/>
+    <hyperlink ref="I67" r:id="rId255" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{65D191B9-775E-478B-9CA7-D40B20A82E87}"/>
+    <hyperlink ref="M67" r:id="rId256" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{B5787BE1-2F92-419B-8714-786778874321}"/>
+    <hyperlink ref="C69" r:id="rId257" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{76D9F3D7-AD07-4437-89C7-39463478C579}"/>
+    <hyperlink ref="E69" r:id="rId258" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6DFD8F5A-3AC7-4182-9D13-74D176436737}"/>
+    <hyperlink ref="I69" r:id="rId259" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{3C04377F-9B5D-4D94-A7C0-77A6D214C100}"/>
+    <hyperlink ref="M69" r:id="rId260" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{48DC0E6B-2810-4581-BFB8-12DA49187EB9}"/>
+    <hyperlink ref="C70" r:id="rId261" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{216ECE24-CD6D-401A-BF03-8E92732D2650}"/>
+    <hyperlink ref="E70" r:id="rId262" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2E9092FB-1CEB-4999-8436-D616177A7CB4}"/>
+    <hyperlink ref="I70" r:id="rId263" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{AB73ADD1-C5FF-465D-962C-BB149F1D62A9}"/>
+    <hyperlink ref="M70" r:id="rId264" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{7A26D5EC-71CA-478A-B037-9B4AB3DF1C78}"/>
+    <hyperlink ref="C71" r:id="rId265" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{8AE82CA0-8538-431B-BE76-1BF260792A95}"/>
+    <hyperlink ref="E71" r:id="rId266" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{3E1F72ED-5773-48CA-B2CD-842268B5D2E4}"/>
+    <hyperlink ref="I71" r:id="rId267" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E49D9D2C-660C-4E43-9FC7-2DF086F06057}"/>
+    <hyperlink ref="M71" r:id="rId268" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{ABBCDCAC-0C75-4F46-8CF3-7ED82A642A83}"/>
+    <hyperlink ref="C72" r:id="rId269" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{E180E227-CB8B-4DCD-A784-774724DCBAF8}"/>
+    <hyperlink ref="E72" r:id="rId270" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F991AF54-1E02-469C-87B1-6AC70DD90D6B}"/>
+    <hyperlink ref="I72" r:id="rId271" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{5387D04C-68BE-4A24-A666-960C672135E8}"/>
+    <hyperlink ref="M72" r:id="rId272" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{DE589A62-8839-4C58-A967-9C5F01F42DFD}"/>
+    <hyperlink ref="C73" r:id="rId273" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{2EE4D438-88B3-454A-BB9A-615B5551D28D}"/>
+    <hyperlink ref="E73" r:id="rId274" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DF8727B4-DB11-4F4C-9C95-F9A5F7D8DA27}"/>
+    <hyperlink ref="I73" r:id="rId275" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{D21D568C-9643-4612-BA98-83F1BCA6581D}"/>
+    <hyperlink ref="M73" r:id="rId276" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{FA1884AF-176E-4D9C-9A04-35CEC4ECFFD6}"/>
+    <hyperlink ref="C74" r:id="rId277" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{A7257031-F92C-4D66-9F71-2254A6154718}"/>
+    <hyperlink ref="E74" r:id="rId278" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{E110F7C2-899D-474D-A0FE-A70AA58EC5DB}"/>
+    <hyperlink ref="I74" r:id="rId279" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AC2CEC50-0781-4439-930B-5A990111D47F}"/>
+    <hyperlink ref="M74" r:id="rId280" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{A6D08185-15BB-46F4-88EB-C5323459D6EC}"/>
+    <hyperlink ref="C75" r:id="rId281" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{5D4801CC-AFBB-4582-9B2A-5EB51597051A}"/>
+    <hyperlink ref="E75" r:id="rId282" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{062A3FD8-1BB5-4941-91A0-84B78FAD6858}"/>
+    <hyperlink ref="I75" r:id="rId283" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{F9051B47-00D3-4132-99C3-B0F8A617DD02}"/>
+    <hyperlink ref="M75" r:id="rId284" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{CFDF6FC0-A9DB-4726-97E5-22C0040F2079}"/>
+    <hyperlink ref="C76" r:id="rId285" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{0BBAAA51-CE0F-4D33-9C9A-0598D80ACCEC}"/>
+    <hyperlink ref="E76" r:id="rId286" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{72194A70-C087-4723-AC62-DF4E6298CFE7}"/>
+    <hyperlink ref="I76" r:id="rId287" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D6074372-5A62-44BF-B72F-39AA7E7AE6B6}"/>
+    <hyperlink ref="M76" r:id="rId288" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{2E1EAB9C-A96D-41EC-AC62-8D0B9F6DD505}"/>
+    <hyperlink ref="C77" r:id="rId289" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{062AC4F5-33E5-458F-92D4-6E4C9C6E4965}"/>
+    <hyperlink ref="E77" r:id="rId290" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{3918DA1A-8A32-4C0D-A012-2EA8EA477F75}"/>
+    <hyperlink ref="I77" r:id="rId291" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D4F99376-E603-46CE-9B1E-CBC2E0F7AFCA}"/>
+    <hyperlink ref="M77" r:id="rId292" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{CB46E7E1-540E-4FA3-A066-89EC9DFC27EE}"/>
+    <hyperlink ref="C78" r:id="rId293" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{B2ADFD32-DF05-4428-8705-8775BB2F7AAD}"/>
+    <hyperlink ref="E78" r:id="rId294" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9485B7A5-02E8-4245-B1D3-F3F8388D9160}"/>
+    <hyperlink ref="I78" r:id="rId295" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{86BBBA0A-75A2-42BF-833F-FD67AC4F1278}"/>
+    <hyperlink ref="M78" r:id="rId296" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{E94FF161-513F-4FBF-B290-139E09289923}"/>
+    <hyperlink ref="C80" r:id="rId297" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{4E5F040E-BBB8-4429-8AE5-D72561FF151F}"/>
+    <hyperlink ref="E80" r:id="rId298" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{458A1E60-042B-43AD-ACDB-1B1DE499247E}"/>
+    <hyperlink ref="I80" r:id="rId299" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{DC2665B6-555F-4D4B-AA12-2A83BF8ECE0D}"/>
+    <hyperlink ref="M80" r:id="rId300" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{DA64AF08-BFD6-44FB-B73C-D9579CC89847}"/>
+    <hyperlink ref="C81" r:id="rId301" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{9377351A-4D47-49F7-BB08-85F024FB6CEF}"/>
+    <hyperlink ref="E81" r:id="rId302" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{DFC71F2D-DB83-4D61-9FFC-F5EEDA6AAFA5}"/>
+    <hyperlink ref="I81" r:id="rId303" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D5A67A67-1D4B-47B6-A1EB-2AF151E228DC}"/>
+    <hyperlink ref="M81" r:id="rId304" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{72819AF9-6FF4-4D18-9ADE-6388B7EC9797}"/>
+    <hyperlink ref="C82" r:id="rId305" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{193F344A-D10A-4A05-955B-527A1FEE2185}"/>
+    <hyperlink ref="E82" r:id="rId306" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{DB5FC1DD-DC25-4F20-9C7A-1FFC48575F5B}"/>
+    <hyperlink ref="I82" r:id="rId307" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{EDE31C69-96CB-4953-9DBD-83966D606F4B}"/>
+    <hyperlink ref="M82" r:id="rId308" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{3286D58C-D985-4D0E-925A-FB7881951F1A}"/>
+    <hyperlink ref="C83" r:id="rId309" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{AE6FF374-8203-4ACD-BD7E-9DB392D011A8}"/>
+    <hyperlink ref="E83" r:id="rId310" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{431C422C-B039-45C9-BB18-887B83F62A4D}"/>
+    <hyperlink ref="I83" r:id="rId311" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A9132F0E-2E44-470D-A367-9BE6FD0A4073}"/>
+    <hyperlink ref="M83" r:id="rId312" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{7E823451-54B9-4358-AC18-DC49512DBC59}"/>
+    <hyperlink ref="C84" r:id="rId313" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{62D9CAB4-A4D7-49AB-835C-4EA02810D5C2}"/>
+    <hyperlink ref="E84" r:id="rId314" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1BD2A711-8ED8-4B51-850E-053F79857F2B}"/>
+    <hyperlink ref="I84" r:id="rId315" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{44354E12-A9CE-4985-A225-28C1EE676C35}"/>
+    <hyperlink ref="M84" r:id="rId316" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{4BDF12DB-4565-49AB-BF85-C88E8C3D7440}"/>
+    <hyperlink ref="C85" r:id="rId317" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{972DA7A4-14E8-4D94-8702-01519FCDE35F}"/>
+    <hyperlink ref="E85" r:id="rId318" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AB1A3813-D449-406C-93E8-4F9BBDAEB9F4}"/>
+    <hyperlink ref="I85" r:id="rId319" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6B3A8745-F622-492A-86A7-10101241D955}"/>
+    <hyperlink ref="M85" r:id="rId320" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{F0BA67F2-665E-424E-8BC0-D1FB95680088}"/>
+    <hyperlink ref="C86" r:id="rId321" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{A57797CF-79CF-440E-99CA-A4EBA94AA56C}"/>
+    <hyperlink ref="E86" r:id="rId322" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{15F95A8F-E4C4-47A4-8577-5D5C776E5665}"/>
+    <hyperlink ref="I86" r:id="rId323" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{532B5E45-C218-4C1E-AF74-4FC4F1E220D8}"/>
+    <hyperlink ref="M86" r:id="rId324" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{31EF7F7E-FDF1-4EA4-9E68-25F490258581}"/>
+    <hyperlink ref="C87" r:id="rId325" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{B76B2FEA-4F41-45A7-A9FE-8C38505F6205}"/>
+    <hyperlink ref="E87" r:id="rId326" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7716C210-2976-4490-899E-ECAE7670C3E7}"/>
+    <hyperlink ref="I87" r:id="rId327" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{C6CA848E-6780-474D-B2E5-3BB05360E3A8}"/>
+    <hyperlink ref="M87" r:id="rId328" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{3BC72E7B-7305-402B-ABFC-ABF8C07916DE}"/>
+    <hyperlink ref="C88" r:id="rId329" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{98E454B5-A181-404E-9990-9A4F13712994}"/>
+    <hyperlink ref="E88" r:id="rId330" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FB4FBC73-8476-40F3-B5C8-CC24D7A2E7B8}"/>
+    <hyperlink ref="I88" r:id="rId331" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{83E1237A-47DB-4461-88CC-55D026D76429}"/>
+    <hyperlink ref="M88" r:id="rId332" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{E7ECDA56-89D4-476E-80C3-62691DD1EA96}"/>
+    <hyperlink ref="C89" r:id="rId333" display="https://fbref.com/en/matches/2021-10-18" xr:uid="{DE2D9E74-E672-4C7A-988F-290B1B4470A4}"/>
+    <hyperlink ref="E89" r:id="rId334" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{3455857A-2DE4-4961-8D1F-7AE85A5DECF0}"/>
+    <hyperlink ref="I89" r:id="rId335" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{1839AA55-E636-4782-ABF2-EC04C9497DD2}"/>
+    <hyperlink ref="M89" r:id="rId336" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{E77F24E1-16DA-4CD8-AD91-FEF0A6943497}"/>
+    <hyperlink ref="C91" r:id="rId337" display="https://fbref.com/en/matches/2021-10-22" xr:uid="{A0C4BFBF-ED9C-47E6-AADD-8170D39E5959}"/>
+    <hyperlink ref="E91" r:id="rId338" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{644EECBC-62A7-4EB7-82D5-8ED70DA06188}"/>
+    <hyperlink ref="I91" r:id="rId339" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{88EE94CB-6174-4E7D-A249-2AADE2CE5144}"/>
+    <hyperlink ref="M91" r:id="rId340" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{DEED79CC-B16E-491D-AAE2-6E7287AA96B6}"/>
+    <hyperlink ref="C92" r:id="rId341" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{C28866F5-0A43-4697-9091-F3F8D1DCEB53}"/>
+    <hyperlink ref="E92" r:id="rId342" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{EE849C67-6CB1-42C4-961F-C8DC8919B06E}"/>
+    <hyperlink ref="I92" r:id="rId343" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7910797D-466C-4CD7-9CFF-B451F88EEF1C}"/>
+    <hyperlink ref="M92" r:id="rId344" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{F8CB4BFB-0548-4BC5-9904-488BE8B82CCF}"/>
+    <hyperlink ref="C93" r:id="rId345" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{E187AE67-6BA7-46BA-B66F-76112726E9BE}"/>
+    <hyperlink ref="E93" r:id="rId346" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8574E50E-00AB-4BFC-A40B-FA9C63EAE9F7}"/>
+    <hyperlink ref="I93" r:id="rId347" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F10F1268-05E1-4E74-AAA3-6A3040F9C1CB}"/>
+    <hyperlink ref="M93" r:id="rId348" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{3DCD56E9-3EF7-4BDC-9A01-AC9E1729FAAF}"/>
+    <hyperlink ref="C94" r:id="rId349" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{5E3B42D7-505E-4E37-9D3C-CF58063E9589}"/>
+    <hyperlink ref="E94" r:id="rId350" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{CDE34561-E886-413D-B0E1-F53AD6ECB7C0}"/>
+    <hyperlink ref="I94" r:id="rId351" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{696657C1-CE24-4602-B5CA-97B7C0BD44BE}"/>
+    <hyperlink ref="M94" r:id="rId352" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{CB39F90B-EC26-4E3F-AE18-3E62FA123FAD}"/>
+    <hyperlink ref="C95" r:id="rId353" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{8462742E-2E55-4A85-B54C-F6D64D2D9C34}"/>
+    <hyperlink ref="E95" r:id="rId354" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{E18BB042-7127-4024-B43D-3471FEAFFCFF}"/>
+    <hyperlink ref="I95" r:id="rId355" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{7211A43B-3266-4CBB-99C4-CBBC1D9F88BD}"/>
+    <hyperlink ref="M95" r:id="rId356" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{0F107E29-6D13-47F8-A080-4593707FE48B}"/>
+    <hyperlink ref="C96" r:id="rId357" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{A9C6EB12-C206-4D23-AE11-A0A80C38E493}"/>
+    <hyperlink ref="E96" r:id="rId358" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D3DA2BD8-F84E-42AE-B172-16531AA8E674}"/>
+    <hyperlink ref="I96" r:id="rId359" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{344E55B6-EBCC-474A-A633-D16D0CD8784C}"/>
+    <hyperlink ref="M96" r:id="rId360" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{58782736-34DA-489B-9B45-ADED5D2CEC21}"/>
+    <hyperlink ref="C97" r:id="rId361" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{B75BDB50-60CC-4346-BE45-F9EE946AEB0E}"/>
+    <hyperlink ref="E97" r:id="rId362" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1CDC09B6-FA63-4835-96A9-575BD1460480}"/>
+    <hyperlink ref="I97" r:id="rId363" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3B398827-C5B5-46B4-95AD-87E2F8069F28}"/>
+    <hyperlink ref="M97" r:id="rId364" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{30A796C8-2FFD-4994-9810-7BF90977B308}"/>
+    <hyperlink ref="C98" r:id="rId365" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{F450EF07-236E-45D1-B3EA-E5D3DD63B46B}"/>
+    <hyperlink ref="E98" r:id="rId366" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{3864E7CB-6D76-4255-B7FF-6459EFEACF52}"/>
+    <hyperlink ref="I98" r:id="rId367" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C6AFBFEE-3515-41B6-967E-09EC9A80D6ED}"/>
+    <hyperlink ref="M98" r:id="rId368" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{CBA66B52-004A-43E6-A376-BD9C1840F5C4}"/>
+    <hyperlink ref="C99" r:id="rId369" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{EAE71444-E481-4869-AA29-974424C1264A}"/>
+    <hyperlink ref="E99" r:id="rId370" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{590BECBC-11D3-4EDB-A004-A1C7AAA66632}"/>
+    <hyperlink ref="I99" r:id="rId371" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{5C3AEA6F-5834-441D-A042-401F18AA435E}"/>
+    <hyperlink ref="M99" r:id="rId372" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{30AEDC39-8117-4722-B965-BDD2CC0C566F}"/>
+    <hyperlink ref="C100" r:id="rId373" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{C17460FC-4D56-488E-A7A3-A751A1EBD29D}"/>
+    <hyperlink ref="E100" r:id="rId374" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{100EC2DD-8142-433E-8A4E-CFF95808F74F}"/>
+    <hyperlink ref="I100" r:id="rId375" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1E9AE3AC-F276-405C-A1C2-F4841A2DC02B}"/>
+    <hyperlink ref="M100" r:id="rId376" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{E6098A37-9B7C-41C5-9DED-E35169FEC07D}"/>
+    <hyperlink ref="C102" r:id="rId377" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{2C34F355-5ED7-4489-B2F4-6B4B4465DBA4}"/>
+    <hyperlink ref="E102" r:id="rId378" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{6BBA31AD-1F2B-4684-A5A9-959A06675854}"/>
+    <hyperlink ref="I102" r:id="rId379" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{14EFA029-F17F-4E45-80EC-F5B653D06673}"/>
+    <hyperlink ref="M102" r:id="rId380" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{3DC7579D-5AB1-4309-807B-58FE6513BA56}"/>
+    <hyperlink ref="C103" r:id="rId381" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{3DA887EA-4070-42B2-B5DF-7468E15F364E}"/>
+    <hyperlink ref="E103" r:id="rId382" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{FDE429E5-4299-479A-BC23-BCB545AB05CA}"/>
+    <hyperlink ref="I103" r:id="rId383" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{7E009D7D-1E9B-4ADF-9054-DADA7DAD8083}"/>
+    <hyperlink ref="M103" r:id="rId384" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{AE7B6ACC-5327-4AAC-B01E-6F5BFDBCDFFC}"/>
+    <hyperlink ref="C104" r:id="rId385" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{6283B5FA-4E44-43EE-B398-54CBF1D8C0DB}"/>
+    <hyperlink ref="E104" r:id="rId386" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{34CF176B-00A7-4D31-9D89-8014D774991E}"/>
+    <hyperlink ref="I104" r:id="rId387" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{BB0146A5-04EE-4B8B-B7F7-84E8F0F70470}"/>
+    <hyperlink ref="M104" r:id="rId388" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{4CB084FD-ACBE-4CAE-9FDD-48A5663B83C4}"/>
+    <hyperlink ref="C105" r:id="rId389" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{D2DD5BF5-69F8-4EFE-A78B-3D1B3FD89F70}"/>
+    <hyperlink ref="E105" r:id="rId390" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{1727F43C-8D1C-4371-9B7D-8495CF7A8660}"/>
+    <hyperlink ref="I105" r:id="rId391" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{32D325AD-C395-4036-BBD2-737BA3DFAC16}"/>
+    <hyperlink ref="M105" r:id="rId392" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{B5EB4BCB-A078-4622-92B7-D193E9A328EB}"/>
+    <hyperlink ref="C106" r:id="rId393" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{DA7DFE49-3917-4519-B6E7-536A5992AFFE}"/>
+    <hyperlink ref="E106" r:id="rId394" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{D7DD094E-7638-49FD-9D4B-469C0CC7CD86}"/>
+    <hyperlink ref="I106" r:id="rId395" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{200BF018-2D29-4FE0-9D41-D5AA6B0BA572}"/>
+    <hyperlink ref="M106" r:id="rId396" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{A0510725-D1E3-4B29-B63E-8D768734C542}"/>
+    <hyperlink ref="C107" r:id="rId397" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{EB49FD47-1FE7-451A-8E8D-A47540417A2D}"/>
+    <hyperlink ref="E107" r:id="rId398" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{3BF612A2-2381-4520-B4C7-53BBFDDA1DFB}"/>
+    <hyperlink ref="I107" r:id="rId399" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{9475D5D2-C0CD-48EA-A3BD-A3622B907FE7}"/>
+    <hyperlink ref="M107" r:id="rId400" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{29EBF3EE-AC82-408C-A9D4-552EF5A72DA2}"/>
+    <hyperlink ref="C108" r:id="rId401" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{6B74C45D-CAB9-41BF-BC82-A22801A976F2}"/>
+    <hyperlink ref="E108" r:id="rId402" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{250B686C-32BE-479B-AF27-C0B320C99ACC}"/>
+    <hyperlink ref="I108" r:id="rId403" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{DFCCF0A1-2C73-47BE-B27A-00A9B42E8B8A}"/>
+    <hyperlink ref="M108" r:id="rId404" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{B7972051-521E-49F5-BB61-9A27734D1A0D}"/>
+    <hyperlink ref="C109" r:id="rId405" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{2E565A90-28C1-4A70-8162-FF1A4BF3B40A}"/>
+    <hyperlink ref="E109" r:id="rId406" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{DF9DDA4A-FD1F-49E2-99A1-5772AAF17CA7}"/>
+    <hyperlink ref="I109" r:id="rId407" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4E6AFF16-7009-4325-8087-DB3984D5D425}"/>
+    <hyperlink ref="M109" r:id="rId408" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{1BF3FA30-5014-410B-93DB-B4CEEA38BC36}"/>
+    <hyperlink ref="C110" r:id="rId409" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{D427558E-78DC-4DF2-8E10-39628E7DC9AB}"/>
+    <hyperlink ref="E110" r:id="rId410" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{8AC829C1-2A45-4010-82B1-2DF3EFC10CF8}"/>
+    <hyperlink ref="I110" r:id="rId411" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{E82770C3-786D-4173-A203-9E31825FFE4A}"/>
+    <hyperlink ref="M110" r:id="rId412" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{C0DE3C77-8334-4308-A99A-517114650374}"/>
+    <hyperlink ref="C111" r:id="rId413" display="https://fbref.com/en/matches/2021-11-01" xr:uid="{FF1F6FEF-85D8-4819-A7F1-6B7ACA132137}"/>
+    <hyperlink ref="E111" r:id="rId414" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{648E9DD0-8928-4581-9149-A469324678E5}"/>
+    <hyperlink ref="I111" r:id="rId415" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{D552F5A1-8E9E-4BA7-A189-3299185735D8}"/>
+    <hyperlink ref="M111" r:id="rId416" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{3E521FE9-3DDA-4347-9D32-F407EB673F38}"/>
+    <hyperlink ref="C113" r:id="rId417" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{0DC1B630-1F8F-4293-88BD-D083EEBE59DB}"/>
+    <hyperlink ref="E113" r:id="rId418" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7062C0BD-D06F-4B51-8CB9-D597878B2BFF}"/>
+    <hyperlink ref="I113" r:id="rId419" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D91FCE1F-648A-4EB0-93E5-3164BFCA4AA7}"/>
+    <hyperlink ref="M113" r:id="rId420" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{5EBCD4EB-3028-41A7-ADB2-4326E7BE5DC5}"/>
+    <hyperlink ref="C114" r:id="rId421" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{0B147F17-8639-42BA-B0CE-65E780C6C272}"/>
+    <hyperlink ref="E114" r:id="rId422" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D723E22A-B34A-4740-B3D8-C344871C9835}"/>
+    <hyperlink ref="I114" r:id="rId423" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{76A8C8C3-1E3A-4962-A959-C17534006A41}"/>
+    <hyperlink ref="M114" r:id="rId424" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{B9F89CA5-45E4-42E1-8369-82A5ED58ED0C}"/>
+    <hyperlink ref="C115" r:id="rId425" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{F18DF82C-6C07-4E71-8681-709B2725A48C}"/>
+    <hyperlink ref="E115" r:id="rId426" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A3335F47-B094-434A-B5EC-BC6F29C0FF83}"/>
+    <hyperlink ref="I115" r:id="rId427" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{4047B651-5CF4-4AD0-9866-8EA361D0F7AF}"/>
+    <hyperlink ref="M115" r:id="rId428" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{F5E5E722-AD2E-47C8-A3CD-E7FA8EF93A75}"/>
+    <hyperlink ref="C116" r:id="rId429" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{BC20180A-B4E7-4E7E-AF75-542E56B0C786}"/>
+    <hyperlink ref="E116" r:id="rId430" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{56295358-DCF4-4944-9701-CE0131670DC7}"/>
+    <hyperlink ref="I116" r:id="rId431" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{795455D5-BECC-4755-8881-76734888EF1D}"/>
+    <hyperlink ref="M116" r:id="rId432" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{5F3F9EC2-828D-4B98-80FB-7794AD09C453}"/>
+    <hyperlink ref="C117" r:id="rId433" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{1B04616A-3E69-438A-850C-41E62F4AFC4E}"/>
+    <hyperlink ref="E117" r:id="rId434" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{47A7B945-B86B-487E-9806-F6DDFA338A6F}"/>
+    <hyperlink ref="I117" r:id="rId435" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{27AF2C1E-2E9F-4200-B245-A5D82724CEBF}"/>
+    <hyperlink ref="M117" r:id="rId436" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{E4875F9F-1308-46D9-BD88-791129AE15BD}"/>
+    <hyperlink ref="C118" r:id="rId437" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{788F4913-6195-4962-BF79-E42998038F9A}"/>
+    <hyperlink ref="E118" r:id="rId438" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{3BBF3B18-92E5-48BB-924E-46529C71AB61}"/>
+    <hyperlink ref="I118" r:id="rId439" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{7B34FD0E-120F-44A9-9502-1D475568C55C}"/>
+    <hyperlink ref="M118" r:id="rId440" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{ED3CC806-F699-4A7D-8D85-E1E65585D7A5}"/>
+    <hyperlink ref="C119" r:id="rId441" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{EAB74439-6C7C-4D78-9C53-9BC8F5BAD7EB}"/>
+    <hyperlink ref="E119" r:id="rId442" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{DF14DE58-B4EF-4F1A-B7D9-C13B0F8D87D5}"/>
+    <hyperlink ref="I119" r:id="rId443" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{2607768E-93C8-45CB-AE7C-62F3753EF387}"/>
+    <hyperlink ref="M119" r:id="rId444" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{A2646195-FF29-4A00-8CB2-6C9AB0B8117A}"/>
+    <hyperlink ref="C120" r:id="rId445" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{ECD74E45-B636-468E-97C7-D708F42685C2}"/>
+    <hyperlink ref="E120" r:id="rId446" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{8BF8AFC2-70CA-4271-9327-95DA819F8DD9}"/>
+    <hyperlink ref="I120" r:id="rId447" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{21B6423D-8551-4414-A224-13CF6F2E64C5}"/>
+    <hyperlink ref="M120" r:id="rId448" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{95A70777-961A-4BFA-B32B-392AE33E8254}"/>
+    <hyperlink ref="C121" r:id="rId449" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{723DD0EF-0D86-4260-BEA2-5223B70B75A4}"/>
+    <hyperlink ref="E121" r:id="rId450" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{E92F2B76-A734-40E2-B1CF-BC8EA5E24F12}"/>
+    <hyperlink ref="I121" r:id="rId451" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{7FF7B215-7050-4947-A79B-8B437B057F0B}"/>
+    <hyperlink ref="M121" r:id="rId452" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{8B6C9051-F76D-4FDF-8F59-57EC22197844}"/>
+    <hyperlink ref="C122" r:id="rId453" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{33A64576-D4D1-47B6-A5AF-EC190F1DA15D}"/>
+    <hyperlink ref="E122" r:id="rId454" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{71E4980C-D22D-470D-8780-0F3E79B929A6}"/>
+    <hyperlink ref="I122" r:id="rId455" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{2625D3AE-79D8-46AB-A8F7-F0E25E6067FC}"/>
+    <hyperlink ref="M122" r:id="rId456" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{EE7BE86B-311A-4BE7-B478-F905FBDA9CAA}"/>
+    <hyperlink ref="C124" r:id="rId457" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{C857D00C-3289-4E6D-AD2B-A47ACC90D583}"/>
+    <hyperlink ref="E124" r:id="rId458" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D9E8A0B5-9C93-42B3-854B-CF3837951265}"/>
+    <hyperlink ref="I124" r:id="rId459" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{075D60E9-394A-45E9-896F-6D09B7898AA8}"/>
+    <hyperlink ref="M124" r:id="rId460" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{2A52F6D1-4C4E-4583-935D-55C0614FBD11}"/>
+    <hyperlink ref="C125" r:id="rId461" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{46DE4A30-EEC6-4106-B997-3F65B520F215}"/>
+    <hyperlink ref="E125" r:id="rId462" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D582EF2F-F3EC-40F1-BC8F-E3878EFAE102}"/>
+    <hyperlink ref="I125" r:id="rId463" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{DD118796-62FB-4D96-9F18-CBA93468FC2B}"/>
+    <hyperlink ref="M125" r:id="rId464" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{B8E6C706-743D-4F16-BB49-D8BEDD933390}"/>
+    <hyperlink ref="C126" r:id="rId465" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{B5E98C16-AE4F-4497-9077-C121FA8102D6}"/>
+    <hyperlink ref="E126" r:id="rId466" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{8DFDFEED-C83D-4EF0-9499-522DE4143B55}"/>
+    <hyperlink ref="I126" r:id="rId467" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{87AE08A7-69DF-49DA-9EEF-D7347D50706E}"/>
+    <hyperlink ref="M126" r:id="rId468" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{699315CF-FF04-416B-8E02-85CFEF6324A1}"/>
+    <hyperlink ref="C127" r:id="rId469" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{67AC695B-07E2-4FCA-9D45-38689D6693DC}"/>
+    <hyperlink ref="E127" r:id="rId470" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{9F35E5D0-7DA9-48CE-9811-D235FDDC21FC}"/>
+    <hyperlink ref="I127" r:id="rId471" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{991AF0F9-0E97-4729-8656-63FAEBADEFEF}"/>
+    <hyperlink ref="M127" r:id="rId472" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{444CFADE-2DA8-43A4-930B-C7109D11290E}"/>
+    <hyperlink ref="C128" r:id="rId473" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{4A1FFF92-9928-463B-800E-511B489320DA}"/>
+    <hyperlink ref="E128" r:id="rId474" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{392C10B6-E219-4838-A23E-785A4F222178}"/>
+    <hyperlink ref="I128" r:id="rId475" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{92EE7D65-0697-45C8-A821-D9B3A07DB85E}"/>
+    <hyperlink ref="M128" r:id="rId476" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{BDD6D134-27DF-43AF-8810-4023B750B915}"/>
+    <hyperlink ref="C129" r:id="rId477" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{0EFF7784-1B0F-4EA2-B198-D3879D877302}"/>
+    <hyperlink ref="E129" r:id="rId478" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{20CABDB6-7D30-4B6B-B498-D5F516D8B2EE}"/>
+    <hyperlink ref="I129" r:id="rId479" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{9CCF86F8-015C-4528-ACE8-35E6E782967C}"/>
+    <hyperlink ref="M129" r:id="rId480" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{98584963-28DD-428F-96C2-BB0A53C64BB3}"/>
+    <hyperlink ref="C130" r:id="rId481" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{F0BE25B6-CE1D-4064-BE9A-27AAA14B0FA5}"/>
+    <hyperlink ref="E130" r:id="rId482" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{FCD55325-43DE-498D-A5A6-00EF1C8A12CE}"/>
+    <hyperlink ref="I130" r:id="rId483" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{BE00FC32-14DE-4ED7-9C4E-13B01B983471}"/>
+    <hyperlink ref="M130" r:id="rId484" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{56331800-0DEA-477F-B314-863372D1849F}"/>
+    <hyperlink ref="C131" r:id="rId485" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{2627D783-EBB8-47C2-B1D5-32A6BE7E13CA}"/>
+    <hyperlink ref="E131" r:id="rId486" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{417B7049-4644-48F1-8AAF-7583EE31657E}"/>
+    <hyperlink ref="I131" r:id="rId487" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{82A6AB0D-2D7B-41AA-AFDE-6D9627CE8EEF}"/>
+    <hyperlink ref="M131" r:id="rId488" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{D0A94FF7-DE00-415F-80B0-32B966E6D71B}"/>
+    <hyperlink ref="C132" r:id="rId489" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{EF32D3CA-7B2B-4723-B02B-AA3D6A6E357C}"/>
+    <hyperlink ref="E132" r:id="rId490" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B393A4E3-5F7E-4F24-ABAE-056EA059EC79}"/>
+    <hyperlink ref="I132" r:id="rId491" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{97075A07-5BC1-4688-92F8-2B48AF3E7BBF}"/>
+    <hyperlink ref="M132" r:id="rId492" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{CBC7ABFB-A45B-46DD-920E-CC6A76455272}"/>
+    <hyperlink ref="C133" r:id="rId493" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{FA77D32C-D431-4CFE-8A40-DB07012205BA}"/>
+    <hyperlink ref="E133" r:id="rId494" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0538FF5F-B1BD-4A01-ADBE-78C27A821441}"/>
+    <hyperlink ref="I133" r:id="rId495" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5366235C-F7F9-414E-ABBC-F007FF5833AB}"/>
+    <hyperlink ref="M133" r:id="rId496" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{81692B81-1847-4385-ABD9-07481BE26F24}"/>
+    <hyperlink ref="C135" r:id="rId497" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{8AE6C9A5-C593-420D-9C20-57E297A98D27}"/>
+    <hyperlink ref="E135" r:id="rId498" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{DD1E57FB-6AFA-42AC-AC52-1904D0624156}"/>
+    <hyperlink ref="I135" r:id="rId499" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{02C7FAF6-2043-4DFE-8FD9-F27674BD5C55}"/>
+    <hyperlink ref="M135" r:id="rId500" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{203B72E8-00E2-4E19-90F8-773B61032232}"/>
+    <hyperlink ref="C136" r:id="rId501" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{3336BE43-3E7A-4F5F-9573-AAF20914DB3E}"/>
+    <hyperlink ref="E136" r:id="rId502" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{6CAC87FD-E1ED-40E4-85C6-FD7B00B78923}"/>
+    <hyperlink ref="I136" r:id="rId503" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{3C550BD1-D791-48F6-A4F5-21976FD7D237}"/>
+    <hyperlink ref="M136" r:id="rId504" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{89BCAC59-FBD6-402D-B6CB-4ECC8A7D2FFF}"/>
+    <hyperlink ref="C137" r:id="rId505" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{E1284924-EB8D-4987-A59B-E4556711E49E}"/>
+    <hyperlink ref="E137" r:id="rId506" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{211BE43F-F2E1-4B23-A8A0-F6006BCC6C44}"/>
+    <hyperlink ref="I137" r:id="rId507" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{794209E0-DA51-4610-B561-6E1ECB3B1562}"/>
+    <hyperlink ref="M137" r:id="rId508" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{FF6533EA-70C6-4712-AA00-387566102FD7}"/>
+    <hyperlink ref="C138" r:id="rId509" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{2A795E31-DE29-49AE-956B-291BD4019CD8}"/>
+    <hyperlink ref="E138" r:id="rId510" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{096AE209-0BFC-43B4-9C47-C791D9C9BB06}"/>
+    <hyperlink ref="I138" r:id="rId511" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C4413B50-FFE6-4072-A585-B3A6D0B80582}"/>
+    <hyperlink ref="M138" r:id="rId512" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{E7F8D3D8-F23C-4F51-AF2D-6E8A5372391B}"/>
+    <hyperlink ref="C139" r:id="rId513" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{C8C7D89E-DB9C-4820-81C7-6CC76392BA35}"/>
+    <hyperlink ref="E139" r:id="rId514" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{92A3A337-1BDC-4687-8060-413E73192642}"/>
+    <hyperlink ref="I139" r:id="rId515" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{463D99E0-B16C-422D-94DE-26B5DD0827AD}"/>
+    <hyperlink ref="M139" r:id="rId516" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{C9D9D432-4739-48F0-9921-A81906255B6A}"/>
+    <hyperlink ref="C140" r:id="rId517" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{CCD01F8B-C764-40A9-8975-2AA73F0EE0C9}"/>
+    <hyperlink ref="E140" r:id="rId518" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5C2D0B3C-16F9-44D9-B313-DC0279591E95}"/>
+    <hyperlink ref="I140" r:id="rId519" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5181368B-00C2-492B-8DDF-4966EC44BC59}"/>
+    <hyperlink ref="M140" r:id="rId520" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{2EA3E673-BB6B-43FD-AF3A-BF85D47E3EB2}"/>
+    <hyperlink ref="C141" r:id="rId521" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{BD901C63-AB49-49BA-81FB-85DF75CECC40}"/>
+    <hyperlink ref="E141" r:id="rId522" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6107CAE6-999C-4119-9D2E-09FE58F3CFA8}"/>
+    <hyperlink ref="I141" r:id="rId523" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{E98A2C21-71F9-4CC8-891C-A9D68170D2C6}"/>
+    <hyperlink ref="M141" r:id="rId524" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{6DECD879-6BC6-4356-94FE-8C90C474C699}"/>
+    <hyperlink ref="C142" r:id="rId525" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{370B9D47-D217-4F54-8803-B34B3578ED03}"/>
+    <hyperlink ref="E142" r:id="rId526" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{69ABD899-116D-42AE-B596-C03D5E24DB94}"/>
+    <hyperlink ref="I142" r:id="rId527" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{9D839B01-E4AA-4A40-85FF-042C141ADD90}"/>
+    <hyperlink ref="M142" r:id="rId528" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{FEBAFACD-E89B-47E3-924D-92D827147D5D}"/>
+    <hyperlink ref="C143" r:id="rId529" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{F422D70C-4C58-41D8-A3F7-796F9BE35A5E}"/>
+    <hyperlink ref="E143" r:id="rId530" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D8A716C2-E912-4F2D-A1E5-EB77E89EE2BA}"/>
+    <hyperlink ref="I143" r:id="rId531" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{636AD4DC-39C5-487C-B19D-78304E853C84}"/>
+    <hyperlink ref="M143" r:id="rId532" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{9B05B319-8EF3-4348-9224-FFF4923795AE}"/>
+    <hyperlink ref="C144" r:id="rId533" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{D0F90033-029C-4E99-B0B4-90B0CC76C64E}"/>
+    <hyperlink ref="E144" r:id="rId534" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{F02005A7-22DB-42F3-9DD9-80191E7B24C5}"/>
+    <hyperlink ref="I144" r:id="rId535" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B233517B-9C48-4D91-AD52-0678BAD328C9}"/>
+    <hyperlink ref="M144" r:id="rId536" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{8D97B8B9-3B9C-4F2B-826E-9E0694034597}"/>
+    <hyperlink ref="C146" r:id="rId537" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{116667A6-C201-450D-8316-BD7C439E202E}"/>
+    <hyperlink ref="E146" r:id="rId538" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{42E6E4A9-301D-4070-AC48-33B919A03565}"/>
+    <hyperlink ref="I146" r:id="rId539" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F5C84662-95E7-4374-A291-FAB3FBE0A5D9}"/>
+    <hyperlink ref="M146" r:id="rId540" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{C1C3D443-3EDA-4EB6-9ADC-13F13A17ABF2}"/>
+    <hyperlink ref="C147" r:id="rId541" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{66284AEA-93AB-43D5-9C46-74A14262FA6B}"/>
+    <hyperlink ref="E147" r:id="rId542" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{5B59DB47-971E-4804-A769-9561EC8D5136}"/>
+    <hyperlink ref="I147" r:id="rId543" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{11E51990-9043-4571-B94A-132E168543F5}"/>
+    <hyperlink ref="M147" r:id="rId544" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{ADB2030D-F51F-4FE4-B65E-48AA8A436E8B}"/>
+    <hyperlink ref="C148" r:id="rId545" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{2658E42D-A67C-48F4-9A4F-D62D9459A1A5}"/>
+    <hyperlink ref="E148" r:id="rId546" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{185A377A-58CB-4531-BCF2-C128953CD0F4}"/>
+    <hyperlink ref="I148" r:id="rId547" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D4667EB4-46DD-4160-8E2C-359DCEEED464}"/>
+    <hyperlink ref="M148" r:id="rId548" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{87580404-B5BF-48BC-9542-9EDB633048C3}"/>
+    <hyperlink ref="C149" r:id="rId549" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{46A8E3C3-B087-4F1C-BDEB-9DB156FA82A3}"/>
+    <hyperlink ref="E149" r:id="rId550" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{3294FBC0-E481-456D-B81C-6F3D5835D471}"/>
+    <hyperlink ref="I149" r:id="rId551" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F00CCBCD-15E3-4214-A414-00354B486EAD}"/>
+    <hyperlink ref="M149" r:id="rId552" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{5E26E2A8-A5A0-4BAD-8AAF-996D0F57FA82}"/>
+    <hyperlink ref="C150" r:id="rId553" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{F984BFF9-0E20-4AA1-90E6-3473206268C5}"/>
+    <hyperlink ref="E150" r:id="rId554" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{D29C2547-4204-4A8D-8DCB-17E0C3FF73F9}"/>
+    <hyperlink ref="I150" r:id="rId555" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{514294B3-2477-4A56-AD50-34E46E2916D9}"/>
+    <hyperlink ref="M150" r:id="rId556" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{78E421A7-D775-4F1B-8899-64D1A7AF089C}"/>
+    <hyperlink ref="C151" r:id="rId557" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{E782E054-B928-4474-9B96-F0D04D42EDC1}"/>
+    <hyperlink ref="E151" r:id="rId558" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{565E9AE0-124D-428B-BE8E-B6C7D599DB97}"/>
+    <hyperlink ref="I151" r:id="rId559" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{F2A39ADA-B9B5-4BD4-892C-0199874334D2}"/>
+    <hyperlink ref="M151" r:id="rId560" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{A858973F-D24B-4964-8753-76F53C959D09}"/>
+    <hyperlink ref="C152" r:id="rId561" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{5ED5AA9E-B2E3-4970-964C-C4E756C212FF}"/>
+    <hyperlink ref="E152" r:id="rId562" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8CEFDD09-B9DC-4F5D-ADE1-B99A3718EF5F}"/>
+    <hyperlink ref="I152" r:id="rId563" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{99F53289-1BAD-454C-9BE6-B2CFCCB83093}"/>
+    <hyperlink ref="M152" r:id="rId564" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{970C5B6B-AE1D-4E6C-B38A-55C1D135D956}"/>
+    <hyperlink ref="C153" r:id="rId565" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{C253DFC3-D402-4945-89ED-8A2DC48C368F}"/>
+    <hyperlink ref="E153" r:id="rId566" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{CCAAC91F-D521-4B2C-A54F-52C7E86D329E}"/>
+    <hyperlink ref="I153" r:id="rId567" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{0B2A4FDD-C9EB-4874-9DF8-CEADBF928007}"/>
+    <hyperlink ref="M153" r:id="rId568" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{07126B39-DB12-4E21-B3BB-31B16E8EF332}"/>
+    <hyperlink ref="C154" r:id="rId569" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{25489BFF-10B1-476C-92CC-A9554B35CFEA}"/>
+    <hyperlink ref="E154" r:id="rId570" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8B13874D-42CD-46FD-A850-B05A81652B33}"/>
+    <hyperlink ref="I154" r:id="rId571" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D917DDF8-57CA-4DC8-85EF-96125A3CF09D}"/>
+    <hyperlink ref="M154" r:id="rId572" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{A89A8A81-D76E-4E71-9F4D-535739DF48B7}"/>
+    <hyperlink ref="C155" r:id="rId573" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{F2200D19-9C43-4FE2-8115-2D0B9F3EB3C4}"/>
+    <hyperlink ref="E155" r:id="rId574" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D3C1F22A-0BF4-4651-8E15-FC6ACA656639}"/>
+    <hyperlink ref="I155" r:id="rId575" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{974834C1-7B22-4BF8-893B-8A76FEC90ABA}"/>
+    <hyperlink ref="M155" r:id="rId576" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{D25D15C9-B8D5-43C0-BF9E-28F014767879}"/>
+    <hyperlink ref="C157" r:id="rId577" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{9F94EF25-8E11-41ED-ADE8-363EB7B288E2}"/>
+    <hyperlink ref="E157" r:id="rId578" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{0EB30A7D-DE22-4DB0-8F12-FA36B6ADA784}"/>
+    <hyperlink ref="I157" r:id="rId579" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D237A71C-654C-430B-BA75-50CA2857559B}"/>
+    <hyperlink ref="M157" r:id="rId580" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{5F3A99CA-2456-487E-9D4E-60AC5013C19D}"/>
+    <hyperlink ref="C158" r:id="rId581" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{DADD6110-3965-4C96-8F38-F0158B663E02}"/>
+    <hyperlink ref="E158" r:id="rId582" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{027D0061-F5AD-461C-8C20-7FA787FA4715}"/>
+    <hyperlink ref="I158" r:id="rId583" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7160EF40-FBDA-4463-AF47-C89B3095B37E}"/>
+    <hyperlink ref="M158" r:id="rId584" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{4ADC5BC5-DBDF-483F-887A-F13E4B2F3126}"/>
+    <hyperlink ref="C159" r:id="rId585" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{95F7CBEE-EF22-4E58-872A-E18F598F5D49}"/>
+    <hyperlink ref="E159" r:id="rId586" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{01554990-9F38-440F-8BA8-38BCB38CB4EF}"/>
+    <hyperlink ref="I159" r:id="rId587" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B5C4F591-F67F-4695-9E0F-FBCD60873444}"/>
+    <hyperlink ref="M159" r:id="rId588" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{C4C142AE-CB1D-43FF-8FDA-8C7929D7ACAD}"/>
+    <hyperlink ref="C160" r:id="rId589" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{4B00A0DD-06B4-47DF-8386-0DA33264ED30}"/>
+    <hyperlink ref="E160" r:id="rId590" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8BF1888E-CDB8-40D0-A190-32E42D6791C7}"/>
+    <hyperlink ref="I160" r:id="rId591" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{3909B549-905A-4075-B458-A7F734C087DA}"/>
+    <hyperlink ref="M160" r:id="rId592" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{54D303E3-C15D-4AB2-8551-D06314E630E9}"/>
+    <hyperlink ref="C161" r:id="rId593" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{D32E80B3-A9B6-48D3-9973-D511881A602F}"/>
+    <hyperlink ref="E161" r:id="rId594" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{51E34F80-FF8C-4C54-860A-886F91EBDF36}"/>
+    <hyperlink ref="I161" r:id="rId595" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A041BE1A-9447-4B77-B727-A906E1E3DB4E}"/>
+    <hyperlink ref="M161" r:id="rId596" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{BB1681C7-7937-4587-A08D-D94570511092}"/>
+    <hyperlink ref="C162" r:id="rId597" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{45588490-7F8F-4A95-8A08-94E8BE7798E8}"/>
+    <hyperlink ref="E162" r:id="rId598" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{EF69DBDA-93A8-4146-9D2F-F1AF46260398}"/>
+    <hyperlink ref="I162" r:id="rId599" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{4EED7701-1297-43CC-B520-12822F35526C}"/>
+    <hyperlink ref="M162" r:id="rId600" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{B0BD7BB3-59C4-4091-982E-1FC3B42C0549}"/>
+    <hyperlink ref="C163" r:id="rId601" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{26321BE2-7499-49BB-9498-D63C0BF8B85B}"/>
+    <hyperlink ref="E163" r:id="rId602" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{1ADEFD1F-4350-484C-8EE8-64EF4BBE7F48}"/>
+    <hyperlink ref="I163" r:id="rId603" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{BD6CCAC2-055F-4550-B336-87C785E88204}"/>
+    <hyperlink ref="M163" r:id="rId604" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{669A56C8-89AE-4BB1-8E7D-34AFB6642273}"/>
+    <hyperlink ref="C164" r:id="rId605" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{39A3BEED-F62D-4AE1-B42B-B7699B5C6E65}"/>
+    <hyperlink ref="E164" r:id="rId606" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{0A70DDF6-3D4F-44A2-AE88-67CF06B50A58}"/>
+    <hyperlink ref="I164" r:id="rId607" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A2CD1CAA-A683-41C4-AED9-4449FBBACF5E}"/>
+    <hyperlink ref="M164" r:id="rId608" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{E5C56249-7B9A-4AA9-A9E8-161603821FB6}"/>
+    <hyperlink ref="C165" r:id="rId609" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{897420CE-1615-4DFB-8E2A-A8322C5F969A}"/>
+    <hyperlink ref="E165" r:id="rId610" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{20AB6D56-9F4F-4BA0-BDEF-D1ACDA13AF1D}"/>
+    <hyperlink ref="I165" r:id="rId611" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D8081A93-7DC4-4F18-A911-FBC01AB9E5CF}"/>
+    <hyperlink ref="M165" r:id="rId612" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{ACDCDB6A-15CB-4314-AEB3-BE752F61F6A6}"/>
+    <hyperlink ref="C166" r:id="rId613" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{51B199D0-6936-4A69-8818-485A1F1CABB4}"/>
+    <hyperlink ref="E166" r:id="rId614" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{8D571214-B1B1-4C60-A903-203829D5E1F2}"/>
+    <hyperlink ref="I166" r:id="rId615" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{91655FFD-FE05-4E99-B820-56ABB2E55E0B}"/>
+    <hyperlink ref="M166" r:id="rId616" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{AC0A1F68-A345-4448-8099-D51278F520D6}"/>
+    <hyperlink ref="C168" r:id="rId617" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{1EFCE10A-BA8A-4D9E-A0C4-5A07349EF8F6}"/>
+    <hyperlink ref="E168" r:id="rId618" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{AED9CFB3-CD70-42F2-BB36-74CAE06565AA}"/>
+    <hyperlink ref="I168" r:id="rId619" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2E8B5ED3-593C-49FA-8076-AC59C879BDCF}"/>
+    <hyperlink ref="M168" r:id="rId620" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{CCE8183C-E5AE-405B-AB0A-C5A5CABC3FFF}"/>
+    <hyperlink ref="C169" r:id="rId621" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{8FB09999-E38F-46DA-937B-7AD99BA868AF}"/>
+    <hyperlink ref="E169" r:id="rId622" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7372F250-914C-4D38-AE49-EF7425D87E87}"/>
+    <hyperlink ref="I169" r:id="rId623" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AAC94B07-136A-44C1-AD13-F921251B6676}"/>
+    <hyperlink ref="M169" r:id="rId624" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{ED3DDDF0-52D3-4643-9A04-C0EDE6FFAEA5}"/>
+    <hyperlink ref="C170" r:id="rId625" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{C55DA3F5-7F41-4C21-AAB0-1F7DEE175A66}"/>
+    <hyperlink ref="E170" r:id="rId626" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{8D389CFF-C445-44D1-921F-D498499233FE}"/>
+    <hyperlink ref="I170" r:id="rId627" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{26204E8D-CDDE-453D-BEF5-402A4F91C392}"/>
+    <hyperlink ref="M170" r:id="rId628" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{93A8A6C4-4167-4A2D-8AD4-B0F04594AC2D}"/>
+    <hyperlink ref="C171" r:id="rId629" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{EECCBF83-FCA7-4FBE-A3C7-C182CC490370}"/>
+    <hyperlink ref="E171" r:id="rId630" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{1FFDF951-856B-47E3-A4DB-DF8265B6CE8E}"/>
+    <hyperlink ref="I171" r:id="rId631" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B34A51AD-D5C7-4206-AB9F-009E116E34E4}"/>
+    <hyperlink ref="M171" r:id="rId632" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{703B1C3A-BB4C-47DA-A06C-3F8BE03AF60F}"/>
+    <hyperlink ref="C172" r:id="rId633" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{D2029734-0BF0-491D-BEE7-2D73607F09AE}"/>
+    <hyperlink ref="E172" r:id="rId634" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{71C530C1-6349-4DB7-89FC-989B317F17B6}"/>
+    <hyperlink ref="I172" r:id="rId635" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{3B45DA37-467A-40B1-A854-BC3457AC0850}"/>
+    <hyperlink ref="M172" r:id="rId636" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{8A2BE7C0-BCEB-4C00-A19E-A5191AD2F2A2}"/>
+    <hyperlink ref="C173" r:id="rId637" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{D3437746-40F6-460C-8D3E-D49F0EF913A5}"/>
+    <hyperlink ref="E173" r:id="rId638" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EBD7C8B3-4F32-4C61-AB28-35DA6B0922BB}"/>
+    <hyperlink ref="I173" r:id="rId639" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{ED032091-3C27-4B01-ADD7-B01ABBE4D4B1}"/>
+    <hyperlink ref="M173" r:id="rId640" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{0AA5B766-8DC7-4B33-8E4B-9306FB554A5B}"/>
+    <hyperlink ref="C174" r:id="rId641" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{12CD3B08-EFC4-4103-B8EC-2B20F3D5F0CD}"/>
+    <hyperlink ref="E174" r:id="rId642" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D4F760C3-BCE5-425A-8C67-71B885DDCC90}"/>
+    <hyperlink ref="I174" r:id="rId643" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BC26A55E-E5DA-4A62-A15A-D2BFA86899AE}"/>
+    <hyperlink ref="M174" r:id="rId644" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{D03DED41-8C64-4315-B7F9-437B7C5E25CA}"/>
+    <hyperlink ref="C175" r:id="rId645" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{D15D7574-1FFC-4D20-9AAA-9E032E127787}"/>
+    <hyperlink ref="E175" r:id="rId646" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BA87AD68-FB46-47F1-B667-2A62337B2DEB}"/>
+    <hyperlink ref="I175" r:id="rId647" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{0891FB03-4A0C-46B8-A8FD-530EEDC11499}"/>
+    <hyperlink ref="M175" r:id="rId648" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{D1C2D312-2F36-4B7C-9130-18B5B85603B8}"/>
+    <hyperlink ref="C176" r:id="rId649" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{93F5F0C3-74CD-4EBD-8A83-4E707CB141D2}"/>
+    <hyperlink ref="E176" r:id="rId650" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{9E730F3A-87BD-4017-AAA0-A5656F9D0627}"/>
+    <hyperlink ref="I176" r:id="rId651" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{56AEDB4C-8F97-42FB-AF51-B5D416C7F352}"/>
+    <hyperlink ref="M176" r:id="rId652" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{9414D068-E206-442C-A818-CE2E319166EC}"/>
+    <hyperlink ref="C177" r:id="rId653" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{106B491F-38A3-4A16-8058-AE3C97C931D3}"/>
+    <hyperlink ref="E177" r:id="rId654" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{FC8D6D18-B07D-4A94-9D88-B250732C9358}"/>
+    <hyperlink ref="I177" r:id="rId655" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{AA130C7A-C90F-4B3F-AB23-7EE1C5B3F935}"/>
+    <hyperlink ref="M177" r:id="rId656" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{9D35926F-08B9-4467-9C6B-B84DDCD2F465}"/>
+    <hyperlink ref="C179" r:id="rId657" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{D4465B23-71CC-4182-9B74-2F55E9577FD2}"/>
+    <hyperlink ref="E179" r:id="rId658" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{89BD4030-1304-44B9-859B-7E33E2FBBBD0}"/>
+    <hyperlink ref="I179" r:id="rId659" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4BDE4624-E291-48E4-B37E-A3358912554E}"/>
+    <hyperlink ref="M179" r:id="rId660" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{FA0D5400-D257-41C5-933A-05A92FDA23E1}"/>
+    <hyperlink ref="C180" r:id="rId661" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{1DDFF465-2CD2-4A57-888B-DBF4941B0B81}"/>
+    <hyperlink ref="E180" r:id="rId662" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E3879F03-8BA0-44DE-BB14-D965FF98C9CA}"/>
+    <hyperlink ref="I180" r:id="rId663" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4E965FC0-6F3F-49CD-A199-B42A9CF47D7B}"/>
+    <hyperlink ref="M180" r:id="rId664" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{A6E4E9F3-729F-4E2C-B939-07F02AE967F9}"/>
+    <hyperlink ref="C181" r:id="rId665" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{4C468FD2-2A70-4C1E-99D5-668B5764780A}"/>
+    <hyperlink ref="E181" r:id="rId666" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{6ECB6A32-1E00-450B-A9FD-296E044ED095}"/>
+    <hyperlink ref="I181" r:id="rId667" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B99ECEAB-6F85-4E77-85DC-C6692BF4976E}"/>
+    <hyperlink ref="M181" r:id="rId668" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{CAAC6F84-EA26-4A69-AC08-54BD77692F22}"/>
+    <hyperlink ref="C182" r:id="rId669" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{D1057799-56C4-4939-943C-FEA5B1BC8A44}"/>
+    <hyperlink ref="E182" r:id="rId670" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9E57DED7-3921-428A-A898-6EE533C42E57}"/>
+    <hyperlink ref="I182" r:id="rId671" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{54D1B8DD-23CA-4886-9287-8DBF2F0F576A}"/>
+    <hyperlink ref="M182" r:id="rId672" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{BC91C2BD-5FAA-4F2B-A2E9-84633E5F7358}"/>
+    <hyperlink ref="C183" r:id="rId673" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{E015019D-0627-41EE-B4F4-1BA2A510EFC1}"/>
+    <hyperlink ref="E183" r:id="rId674" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{4A8554DD-4879-4D7C-9AFE-F24AFE9F4101}"/>
+    <hyperlink ref="I183" r:id="rId675" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{72E60DC9-4699-4598-A9FF-3CB065459E58}"/>
+    <hyperlink ref="M183" r:id="rId676" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{BB58A856-CF40-49AC-983E-C0F9579F1B3C}"/>
+    <hyperlink ref="C184" r:id="rId677" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{634D3AA8-A98E-4218-97FC-2168E3E0ACDE}"/>
+    <hyperlink ref="E184" r:id="rId678" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{A6B7AA25-D170-4E93-812D-6C4BCF9F15DA}"/>
+    <hyperlink ref="I184" r:id="rId679" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6B3CD564-BE96-4DFB-83A2-3E4E2AC68882}"/>
+    <hyperlink ref="M184" r:id="rId680" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{98BEF9C4-0AAD-446C-AAE2-C2BF68FFF5D7}"/>
+    <hyperlink ref="C185" r:id="rId681" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{5E1CD55F-A2C7-44C0-9C40-044780627718}"/>
+    <hyperlink ref="E185" r:id="rId682" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D59C0A93-CA44-46B0-BE83-0E2E3EDDEFBB}"/>
+    <hyperlink ref="I185" r:id="rId683" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7AA20321-9E09-4F85-A2B0-9F2D555F8C40}"/>
+    <hyperlink ref="M185" r:id="rId684" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{1009ADE3-194D-4240-B3D9-F126FDE585FF}"/>
+    <hyperlink ref="C186" r:id="rId685" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{0E43E74A-A098-4717-807E-188D2E233E2C}"/>
+    <hyperlink ref="E186" r:id="rId686" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{FC72620D-270D-4FB1-8E1D-57E3806E23F7}"/>
+    <hyperlink ref="I186" r:id="rId687" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{79A58831-C5BE-45C2-AFDE-1CC47A3B0831}"/>
+    <hyperlink ref="M186" r:id="rId688" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{85C24782-4450-4DC2-A606-6170C42334C5}"/>
+    <hyperlink ref="C187" r:id="rId689" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{195BA7FB-AC19-4C41-A0C4-6B6C33F18568}"/>
+    <hyperlink ref="E187" r:id="rId690" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{13D97B01-D2F7-4052-ADA1-E646BE340CC9}"/>
+    <hyperlink ref="I187" r:id="rId691" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6EE4DA76-1A31-420B-851F-1F2A2DA0388D}"/>
+    <hyperlink ref="M187" r:id="rId692" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{AE75C9FF-57FB-45CE-8140-E09EB57F2BCE}"/>
+    <hyperlink ref="C188" r:id="rId693" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{8747E1C8-023F-4C6B-A81A-1CF9FF4CDB80}"/>
+    <hyperlink ref="E188" r:id="rId694" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{BA51FD42-2762-4DCC-809E-E9FB6B0EA9EA}"/>
+    <hyperlink ref="I188" r:id="rId695" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6EDE286E-0658-45FC-A9BD-957DBAE0598C}"/>
+    <hyperlink ref="M188" r:id="rId696" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{2144E47A-BEEB-4A8B-A44A-D1DBE26DAC33}"/>
+    <hyperlink ref="C190" r:id="rId697" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{05F685ED-50BE-4297-934A-6EE12D8213B9}"/>
+    <hyperlink ref="E190" r:id="rId698" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{92C6128F-7FE9-4639-9F98-7960582F5216}"/>
+    <hyperlink ref="I190" r:id="rId699" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{697F66C8-1715-4747-BF63-F152B9CB0CC6}"/>
+    <hyperlink ref="M190" r:id="rId700" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{160547F3-BA5B-44E3-9144-B45BFCB354A4}"/>
+    <hyperlink ref="C191" r:id="rId701" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{61707AB6-3AC0-4796-B10A-199A1E14D45A}"/>
+    <hyperlink ref="E191" r:id="rId702" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1BB66CC7-957C-463B-B774-031C8C8BC299}"/>
+    <hyperlink ref="I191" r:id="rId703" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{31F9250D-588A-4E49-B33D-35A55D20C7FA}"/>
+    <hyperlink ref="M191" r:id="rId704" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{1E01BFCA-5E99-46A4-88B3-29B133C7EACC}"/>
+    <hyperlink ref="C192" r:id="rId705" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{C726F4C5-04C2-4B51-87F2-B86373483C1B}"/>
+    <hyperlink ref="E192" r:id="rId706" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1A0231B4-8CAA-4F75-B9C8-49E93359C499}"/>
+    <hyperlink ref="I192" r:id="rId707" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{00761D9A-BEDB-4CEA-AD36-E9A6B648DD31}"/>
+    <hyperlink ref="M192" r:id="rId708" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{A1FE2811-81C5-49EB-B3F4-46E0F66CF1CC}"/>
+    <hyperlink ref="C193" r:id="rId709" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{8FACD34E-1E66-40C2-A9EF-E23E00F728F6}"/>
+    <hyperlink ref="E193" r:id="rId710" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D1D66BD6-18F4-41B6-B30A-4CA42A62A0BB}"/>
+    <hyperlink ref="I193" r:id="rId711" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{3D9AF3D3-0B0F-4C69-8B31-35E03BC73C4A}"/>
+    <hyperlink ref="M193" r:id="rId712" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{AFD44EE1-98FA-467B-B593-2ECE04240BFA}"/>
+    <hyperlink ref="C194" r:id="rId713" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{7C87B3AA-C8E9-403B-A2D8-807BC2735B13}"/>
+    <hyperlink ref="E194" r:id="rId714" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{83A91F40-768E-4A7F-9872-3B553692562D}"/>
+    <hyperlink ref="I194" r:id="rId715" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{014AF368-F6D5-484E-BBD1-A70164ACA01B}"/>
+    <hyperlink ref="M194" r:id="rId716" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{0D4A5D37-9D46-4314-B908-F8D84BF19FF8}"/>
+    <hyperlink ref="C195" r:id="rId717" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{D32816B3-4891-4AAA-9496-722F2919FF29}"/>
+    <hyperlink ref="E195" r:id="rId718" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{89D54004-197F-463C-B336-B6120B1E0910}"/>
+    <hyperlink ref="I195" r:id="rId719" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{16009039-AE96-49B1-9799-C49230A641D3}"/>
+    <hyperlink ref="M195" r:id="rId720" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{3149DA6A-6659-4EBC-8A90-502B8597D9F6}"/>
+    <hyperlink ref="C196" r:id="rId721" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{7480EFB3-4CCA-4781-BC2F-AC5D910293D3}"/>
+    <hyperlink ref="E196" r:id="rId722" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{F6B0852D-809F-4FAF-8F59-296077ECADEF}"/>
+    <hyperlink ref="I196" r:id="rId723" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{92E00894-D3AA-4D1C-8F59-D04BB52BC6E9}"/>
+    <hyperlink ref="M196" r:id="rId724" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{BE30AE77-92EF-4A8B-A934-858D8D0B9D2B}"/>
+    <hyperlink ref="C197" r:id="rId725" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{71522545-955D-4C7B-872E-E9BEE2017410}"/>
+    <hyperlink ref="E197" r:id="rId726" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{CA73D2A9-1727-4986-A4B8-B18AFF19A12E}"/>
+    <hyperlink ref="I197" r:id="rId727" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1A8D170E-52A5-4509-A333-5D5B7A58819F}"/>
+    <hyperlink ref="M197" r:id="rId728" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{40C32DF5-3FF3-4FD7-B50E-70F88249B6CF}"/>
+    <hyperlink ref="C198" r:id="rId729" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{9189D304-FDDE-4568-A0BB-27D5D71F4A63}"/>
+    <hyperlink ref="E198" r:id="rId730" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{ED78751C-B804-48D8-868F-F51E986099F2}"/>
+    <hyperlink ref="I198" r:id="rId731" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{8C9FFF05-C9EF-4551-B435-DB5BB0B2322F}"/>
+    <hyperlink ref="M198" r:id="rId732" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{30A2F44C-052F-4D99-8B3E-34015B9E0AE3}"/>
+    <hyperlink ref="C199" r:id="rId733" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{35E46E34-18F2-4F3D-8EEB-104DD65BC873}"/>
+    <hyperlink ref="E199" r:id="rId734" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A1356556-7069-466E-8188-54AD92071A8E}"/>
+    <hyperlink ref="I199" r:id="rId735" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5A1B336E-83CE-47BF-A8BF-C5FEEE6DEC3F}"/>
+    <hyperlink ref="M199" r:id="rId736" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{3C73A1F8-C6C9-49DF-B16E-4274477041DD}"/>
+    <hyperlink ref="C201" r:id="rId737" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{4732D50E-3FAD-4DAF-A850-8CC824AD7091}"/>
+    <hyperlink ref="E201" r:id="rId738" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{7460136F-3F4E-41A8-A914-D3389C6D4EF8}"/>
+    <hyperlink ref="I201" r:id="rId739" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{4C65C4C9-B377-467F-A21C-3252A246289E}"/>
+    <hyperlink ref="M201" r:id="rId740" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{3E37338E-81FD-4FF9-9CBE-69BD2DE4FE0E}"/>
+    <hyperlink ref="C202" r:id="rId741" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{3AF9E07E-7872-4D41-957B-01DE95F7FFC2}"/>
+    <hyperlink ref="E202" r:id="rId742" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FC099B0B-5EEA-4679-AAEE-9163B3AF5A1C}"/>
+    <hyperlink ref="I202" r:id="rId743" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1BEDFD16-A709-4ECC-AA83-2B6BD1F18D04}"/>
+    <hyperlink ref="M202" r:id="rId744" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{7F689DD1-67F4-4E35-BB3C-B7823677C2A0}"/>
+    <hyperlink ref="C203" r:id="rId745" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{A9B52755-67F3-40C4-B54A-3D81CA6CAA1B}"/>
+    <hyperlink ref="E203" r:id="rId746" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2BACAD99-D0B1-469B-A150-B6B999EEE198}"/>
+    <hyperlink ref="I203" r:id="rId747" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{72B8B9A6-2F2D-4E8D-81C5-480DB126DECB}"/>
+    <hyperlink ref="M203" r:id="rId748" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{DA84EDD5-509B-4421-8B70-CB1AC41AF5C9}"/>
+    <hyperlink ref="C204" r:id="rId749" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{84495590-1697-4EC1-B867-76BB2BF4AF6F}"/>
+    <hyperlink ref="E204" r:id="rId750" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{09F484BC-0CC7-47E7-B1D9-C25B1D30B5FB}"/>
+    <hyperlink ref="I204" r:id="rId751" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{E2C67CE3-F215-4AF0-B7C6-26DD11DE9CFA}"/>
+    <hyperlink ref="M204" r:id="rId752" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{401502A8-9942-4F68-A1C0-79E757D3F774}"/>
+    <hyperlink ref="C205" r:id="rId753" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{6DDC5B3D-9C5E-400E-A420-337852DA5E4A}"/>
+    <hyperlink ref="E205" r:id="rId754" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5A2E65F3-83B4-40D2-8915-346664EC525A}"/>
+    <hyperlink ref="I205" r:id="rId755" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5EE025FB-823D-41E8-A86F-30EC7E8E2F56}"/>
+    <hyperlink ref="M205" r:id="rId756" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{20616EFE-84CB-4DAD-98D7-9B2FED95BDF7}"/>
+    <hyperlink ref="C206" r:id="rId757" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{97321DBA-5A1F-4E5E-A4BC-BF0C1B1A8647}"/>
+    <hyperlink ref="E206" r:id="rId758" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C339A3EE-380D-4C8C-BC73-0922BC2C66F3}"/>
+    <hyperlink ref="I206" r:id="rId759" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{0E5EA9C1-CE3F-460B-B2D4-615B23A8A808}"/>
+    <hyperlink ref="M206" r:id="rId760" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{7B6022FB-270B-4E67-9C22-CA93AADE0AE4}"/>
+    <hyperlink ref="C207" r:id="rId761" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B15CEBDB-0741-46AF-BE2B-EFD5379A08AC}"/>
+    <hyperlink ref="E207" r:id="rId762" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{C13D4244-2477-4600-A70F-C85EC4371FD3}"/>
+    <hyperlink ref="I207" r:id="rId763" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{01A4115B-C270-4EAD-B434-EE87D47349F3}"/>
+    <hyperlink ref="M207" r:id="rId764" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{F677F6F4-73F4-49E3-948D-5E346D3F5B59}"/>
+    <hyperlink ref="C208" r:id="rId765" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{6407B45C-2019-423A-8CED-98BAE919E638}"/>
+    <hyperlink ref="E208" r:id="rId766" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C7FD9B2F-BB0F-4C25-897C-2CEA31BBFFB2}"/>
+    <hyperlink ref="I208" r:id="rId767" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{FBD3EA95-D8FA-427C-B691-DE9E095BF045}"/>
+    <hyperlink ref="M208" r:id="rId768" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{3FBA39F3-1CFE-4981-A8BE-B7D4A4AFFE6D}"/>
+    <hyperlink ref="C209" r:id="rId769" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{1B665096-1014-4041-81D2-3E44D1933BB7}"/>
+    <hyperlink ref="E209" r:id="rId770" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C7DF1F18-49E1-42CB-A8BB-37F5F6F6CD56}"/>
+    <hyperlink ref="I209" r:id="rId771" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{B57886D1-AAE6-4D61-9B91-BB42619D98B2}"/>
+    <hyperlink ref="M209" r:id="rId772" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{9FB69297-FC94-4B8E-8740-5A594F3F378B}"/>
+    <hyperlink ref="C210" r:id="rId773" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{421FFF34-8543-403D-89E1-405E0D09FE4B}"/>
+    <hyperlink ref="E210" r:id="rId774" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{A9131CA4-B3B0-4C8D-A0C9-8947175B25AE}"/>
+    <hyperlink ref="I210" r:id="rId775" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{718C7C64-70AC-4608-8E5F-F700A6EB5FBF}"/>
+    <hyperlink ref="M210" r:id="rId776" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{2E5E6E7E-EA90-4BC8-9712-22A6A3502E3A}"/>
+    <hyperlink ref="C212" r:id="rId777" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{88955996-4C82-4AEE-87C2-CB983A3D4318}"/>
+    <hyperlink ref="E212" r:id="rId778" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7F23503F-D056-4789-A20F-EACC61133BE8}"/>
+    <hyperlink ref="I212" r:id="rId779" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{4734E933-C8EA-4C50-8BA5-8074B040BE60}"/>
+    <hyperlink ref="M212" r:id="rId780" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{14FAA268-0684-4988-B667-ACD0DC79229D}"/>
+    <hyperlink ref="C213" r:id="rId781" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{51AB4722-3653-460D-9D83-7D46EB29A397}"/>
+    <hyperlink ref="E213" r:id="rId782" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F54A7C54-428B-469B-A58A-5222BFFAADE3}"/>
+    <hyperlink ref="I213" r:id="rId783" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1FB30606-27DE-4D64-B8E9-8C670F012F88}"/>
+    <hyperlink ref="M213" r:id="rId784" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{C74FFB5E-1DC5-400C-9E34-424984C3E073}"/>
+    <hyperlink ref="C214" r:id="rId785" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{694E3688-C437-4161-AC1B-706022D40DCC}"/>
+    <hyperlink ref="E214" r:id="rId786" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{DAA7AE3B-5A3A-4702-AF4D-C27D08F50A5B}"/>
+    <hyperlink ref="I214" r:id="rId787" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{83C4A8D6-9F4B-44D8-8D14-67F1F704A951}"/>
+    <hyperlink ref="M214" r:id="rId788" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{E4222D1F-C4E9-4D80-8AC1-C7EE024C99E9}"/>
+    <hyperlink ref="C215" r:id="rId789" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{D18E177D-BCA8-4034-9726-917E442263BF}"/>
+    <hyperlink ref="E215" r:id="rId790" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{29E61AD9-E265-4FC8-B82F-DA61DCDABCFB}"/>
+    <hyperlink ref="I215" r:id="rId791" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{1D1E4F29-9C72-4338-99AC-FFAF4513D1F7}"/>
+    <hyperlink ref="M215" r:id="rId792" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{AF5A7514-843F-4097-8E81-834523814887}"/>
+    <hyperlink ref="C216" r:id="rId793" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{EDBF06DF-D6B3-4312-8296-04F719F12116}"/>
+    <hyperlink ref="E216" r:id="rId794" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{67DD0F92-38EF-4526-8A5B-EB0B771F09E2}"/>
+    <hyperlink ref="I216" r:id="rId795" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{0B60C26E-552E-48D7-8750-FA0648F6B2CE}"/>
+    <hyperlink ref="M216" r:id="rId796" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{BA48F634-A598-41B7-9A47-9A885C426643}"/>
+    <hyperlink ref="C217" r:id="rId797" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{B56905C7-DF7F-4FF6-9647-C85C911271C4}"/>
+    <hyperlink ref="E217" r:id="rId798" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{330B217A-B449-460D-96EE-C6074CDA112C}"/>
+    <hyperlink ref="I217" r:id="rId799" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{82DB0FD0-C41B-4849-82E9-6B5D21B0AA4F}"/>
+    <hyperlink ref="M217" r:id="rId800" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{4965F510-7EA4-485D-8311-2E3D34D3FD70}"/>
+    <hyperlink ref="C218" r:id="rId801" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{A5D1F198-27A1-4ED4-9633-8AA521FF7BF6}"/>
+    <hyperlink ref="E218" r:id="rId802" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{6CDC7DC9-30CA-46A0-8AB1-906651408797}"/>
+    <hyperlink ref="I218" r:id="rId803" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{BFA9042B-57AA-4B8E-8180-2FB25C0A8922}"/>
+    <hyperlink ref="M218" r:id="rId804" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{B94A704F-A630-46BF-89F0-FE3A414E035B}"/>
+    <hyperlink ref="C219" r:id="rId805" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{B39B1AF4-35B9-41A6-B9CE-842F54BF3F6B}"/>
+    <hyperlink ref="E219" r:id="rId806" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EDF4CD32-FE72-44E7-BBF3-D09C1A535060}"/>
+    <hyperlink ref="I219" r:id="rId807" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{BACBE896-0FB0-4B00-92B0-0F3F26FB8AA2}"/>
+    <hyperlink ref="M219" r:id="rId808" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{17C54C4A-ECB7-4B1F-831F-DE68A3371240}"/>
+    <hyperlink ref="C220" r:id="rId809" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{A08A3A39-B2E3-48B9-9887-EC9487C54A6C}"/>
+    <hyperlink ref="E220" r:id="rId810" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{2171BF3F-851D-401C-AFCF-ECF0B122EAA2}"/>
+    <hyperlink ref="I220" r:id="rId811" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3E9DE9E5-C3EF-451B-9B24-2675C4289EDA}"/>
+    <hyperlink ref="M220" r:id="rId812" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{2789CEF0-8E53-44EB-9A96-98B8D0F43A21}"/>
+    <hyperlink ref="C221" r:id="rId813" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{DD0ABC74-74FF-41D5-9EF0-55788C2D7FC8}"/>
+    <hyperlink ref="E221" r:id="rId814" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D79E5827-D213-488B-8F05-9746A44EB79B}"/>
+    <hyperlink ref="I221" r:id="rId815" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1EE17890-135D-4170-A1A5-6C82BC3A9AC8}"/>
+    <hyperlink ref="M221" r:id="rId816" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{D2785C85-8551-4992-B96D-E90BEA81D252}"/>
+    <hyperlink ref="C223" r:id="rId817" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{5E2B04A2-7E85-4C04-A80F-4131DF6EFBCC}"/>
+    <hyperlink ref="E223" r:id="rId818" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{4E2FC568-57B8-478E-9F66-908493CC4F96}"/>
+    <hyperlink ref="I223" r:id="rId819" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AB875C76-A410-43E4-B414-D59B98F1E8B1}"/>
+    <hyperlink ref="M223" r:id="rId820" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{94BB9255-4B86-4B60-BC24-C52E8CFB0595}"/>
+    <hyperlink ref="C224" r:id="rId821" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{F6EB1F01-3198-4CBE-BC94-E033A750B1DB}"/>
+    <hyperlink ref="E224" r:id="rId822" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{40CB2925-A02E-4CF2-AD11-5DE3C967CCE7}"/>
+    <hyperlink ref="I224" r:id="rId823" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{87DCD2C8-2274-437A-A791-BE9B6D8F761D}"/>
+    <hyperlink ref="M224" r:id="rId824" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{F6343BAF-1DB9-443F-8031-394B12FF31A7}"/>
+    <hyperlink ref="C225" r:id="rId825" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{07073C53-766A-4262-852C-5E6E964C3142}"/>
+    <hyperlink ref="E225" r:id="rId826" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{FBD23FC8-CB93-4B16-9E1A-627C6C122C4C}"/>
+    <hyperlink ref="I225" r:id="rId827" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D807A451-812D-48FD-8725-C2B8AC6A337E}"/>
+    <hyperlink ref="M225" r:id="rId828" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{E6F04047-A4C8-47EE-B273-C880504CCCAF}"/>
+    <hyperlink ref="C226" r:id="rId829" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{4012926A-FC06-478C-A98A-A1F7FF1848F9}"/>
+    <hyperlink ref="E226" r:id="rId830" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{19F57D9E-A4C3-4AD8-B954-648C0182A10F}"/>
+    <hyperlink ref="I226" r:id="rId831" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{FF5B7D64-9779-4652-AF53-1558A191701D}"/>
+    <hyperlink ref="M226" r:id="rId832" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{2E35C02D-2C17-4BEB-9241-18EA749AAE15}"/>
+    <hyperlink ref="C227" r:id="rId833" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{BD5D1CBD-1DB8-4ECA-8666-2AB427421DE3}"/>
+    <hyperlink ref="E227" r:id="rId834" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{EAE6CDC8-73D4-43A0-91EE-9CEED5AB2C92}"/>
+    <hyperlink ref="I227" r:id="rId835" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{FDBABCEF-2661-4A45-914E-96B70087E77A}"/>
+    <hyperlink ref="M227" r:id="rId836" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{1FA83C11-EECD-4E75-A4D9-9C0EDDCC9EFD}"/>
+    <hyperlink ref="C228" r:id="rId837" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{A03D2A4D-0FFB-4C27-AC35-2947CA6A910A}"/>
+    <hyperlink ref="E228" r:id="rId838" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{B72EA8D4-CB4F-4650-BD07-A280284FE059}"/>
+    <hyperlink ref="I228" r:id="rId839" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{512ACFC8-1D75-45D1-B559-9EB2EBE6374B}"/>
+    <hyperlink ref="M228" r:id="rId840" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{ABB9B225-80A6-4B9F-9E7D-E147A6D349FF}"/>
+    <hyperlink ref="C229" r:id="rId841" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{9683C88E-6483-418C-BDE6-E15A929C1A5B}"/>
+    <hyperlink ref="E229" r:id="rId842" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9DF574FA-F99B-42FE-8E95-1AA4B9BD9BEA}"/>
+    <hyperlink ref="I229" r:id="rId843" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5515A544-30E0-4611-AB31-F7509C136CB9}"/>
+    <hyperlink ref="M229" r:id="rId844" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{C09CA7CB-D05E-47AE-B412-756BE4CCFFB7}"/>
+    <hyperlink ref="C230" r:id="rId845" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{1CF18B7E-B8BC-42A1-B39C-ABB32CFE3240}"/>
+    <hyperlink ref="E230" r:id="rId846" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{E947E47F-B618-4EEA-BE8A-026404E0A8AC}"/>
+    <hyperlink ref="I230" r:id="rId847" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FF9A4AAC-1FD9-4781-BD2A-981F1F172A61}"/>
+    <hyperlink ref="M230" r:id="rId848" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{4667F282-A2C8-4C05-BE12-5A273645F89E}"/>
+    <hyperlink ref="C231" r:id="rId849" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{FF50CF6B-183E-4DEA-82DA-27BAC5CA7492}"/>
+    <hyperlink ref="E231" r:id="rId850" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{57B0C998-ACA4-44ED-B830-415555C55B08}"/>
+    <hyperlink ref="I231" r:id="rId851" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{E2E4DB37-9CCD-40D7-8A0C-846E1CC85889}"/>
+    <hyperlink ref="M231" r:id="rId852" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{93172B97-9D22-4F48-B2EA-4AE802A0DBF7}"/>
+    <hyperlink ref="C232" r:id="rId853" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{01F58235-BB5A-43E1-8810-08180D61DDD9}"/>
+    <hyperlink ref="E232" r:id="rId854" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{75DDCF9C-411D-4340-9463-C96DA9AEEA4F}"/>
+    <hyperlink ref="I232" r:id="rId855" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{62600631-EF54-448B-94A2-0F6CFE9D908F}"/>
+    <hyperlink ref="M232" r:id="rId856" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{AF7829E1-BD64-4AA7-9C7A-7084B22F4036}"/>
+    <hyperlink ref="C234" r:id="rId857" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{18667BC9-67BB-421F-ACFF-F54F62E9A20A}"/>
+    <hyperlink ref="E234" r:id="rId858" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{67FA38D5-A833-467B-BD5D-394A83CE50BD}"/>
+    <hyperlink ref="I234" r:id="rId859" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{05940DA3-C3BB-4E2C-A9EA-21E3C277F396}"/>
+    <hyperlink ref="M234" r:id="rId860" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{311461BD-01E2-413E-956E-CC67B062CCF5}"/>
+    <hyperlink ref="C235" r:id="rId861" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{402F5E9E-3B18-4F77-99E1-23098C4170CF}"/>
+    <hyperlink ref="E235" r:id="rId862" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{623E3FD7-C39B-41E4-B9D4-E3B8C9F0CFE8}"/>
+    <hyperlink ref="I235" r:id="rId863" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{300EB4A9-7BDC-457C-A112-50FCE9B2047A}"/>
+    <hyperlink ref="M235" r:id="rId864" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{E8A54BA3-93B1-417F-BA72-54566958C191}"/>
+    <hyperlink ref="C236" r:id="rId865" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{79022DFE-DEAC-40C3-A6F1-3853BB71300D}"/>
+    <hyperlink ref="E236" r:id="rId866" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5947C5F0-B19C-46CF-86C7-805F243EC3FB}"/>
+    <hyperlink ref="I236" r:id="rId867" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D838B76A-9770-4624-BF58-90A31A0AAD0E}"/>
+    <hyperlink ref="M236" r:id="rId868" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{0595B7F5-DEC9-42A2-A8F8-BE8D98F371C6}"/>
+    <hyperlink ref="C237" r:id="rId869" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{BE2EC990-F4E5-4EA9-A480-A658D656AD51}"/>
+    <hyperlink ref="E237" r:id="rId870" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B265716A-299B-4B3B-8803-97F521E7582D}"/>
+    <hyperlink ref="I237" r:id="rId871" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{5222F516-F8F0-4CE8-8004-6D1F7A8B07FD}"/>
+    <hyperlink ref="M237" r:id="rId872" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{78F6EE41-EB07-428E-82DB-3DB430C9855B}"/>
+    <hyperlink ref="C238" r:id="rId873" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{9980C9F4-932B-4E1B-A6CF-CC8F461A1A12}"/>
+    <hyperlink ref="E238" r:id="rId874" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C2CE855D-B5F8-4383-952F-E271237EDB78}"/>
+    <hyperlink ref="I238" r:id="rId875" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{DEA3C581-99E0-4098-BAC6-277DAC133132}"/>
+    <hyperlink ref="M238" r:id="rId876" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{E7EB289E-459C-4890-A5FB-F03C047C1F92}"/>
+    <hyperlink ref="C239" r:id="rId877" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{B852C8C0-2245-4447-BE0D-12201A8660B7}"/>
+    <hyperlink ref="E239" r:id="rId878" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{0F8CB673-B7C2-4870-A5AA-3725C1F2C289}"/>
+    <hyperlink ref="I239" r:id="rId879" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7EB34831-87D1-4217-B0CB-D03ED4DFD43C}"/>
+    <hyperlink ref="M239" r:id="rId880" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{9B9A7DDB-A09A-4E6C-B7E6-F5E8324370AE}"/>
+    <hyperlink ref="C240" r:id="rId881" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{3A4C15C8-A6CA-492F-AC2B-9EA7F7333AC4}"/>
+    <hyperlink ref="E240" r:id="rId882" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EA5CBD6B-5B47-4FFE-8F6E-DCA37D26E9E2}"/>
+    <hyperlink ref="I240" r:id="rId883" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{73203E3A-58F9-4264-9A45-A08BAC5868EC}"/>
+    <hyperlink ref="M240" r:id="rId884" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{E240ACF5-DF4C-44B7-8CB5-593479BF9732}"/>
+    <hyperlink ref="C241" r:id="rId885" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{2E6A6DB7-9FC7-4F11-BF77-854890BED239}"/>
+    <hyperlink ref="E241" r:id="rId886" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{F368339A-4644-490D-9288-7D141B4E65AA}"/>
+    <hyperlink ref="I241" r:id="rId887" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{830E3C81-D46F-412E-9BC5-17DEC19C1058}"/>
+    <hyperlink ref="M241" r:id="rId888" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{2A564413-9C12-416E-8B4B-2001C3D5935F}"/>
+    <hyperlink ref="C242" r:id="rId889" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{ED243480-910D-4D9D-A962-CDD5C77842B5}"/>
+    <hyperlink ref="E242" r:id="rId890" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C93A4233-C620-4501-8432-998AE4707B94}"/>
+    <hyperlink ref="I242" r:id="rId891" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{30A4D87D-F6FA-4994-A079-BF2D667981C1}"/>
+    <hyperlink ref="M242" r:id="rId892" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{04F82AEC-5BAF-4020-AB4E-B4BC21B779BB}"/>
+    <hyperlink ref="C243" r:id="rId893" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{F95C4BAB-A7E8-48D5-AF26-10E82C6A1FFB}"/>
+    <hyperlink ref="E243" r:id="rId894" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{DF1509C6-D6E5-4E89-8D95-48EB5A9C588B}"/>
+    <hyperlink ref="I243" r:id="rId895" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{CCB07B23-8D74-4C65-952D-F3FF9868B725}"/>
+    <hyperlink ref="M243" r:id="rId896" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{C2A9D86F-8AA5-4FF3-A3DB-A345E5937B0A}"/>
+    <hyperlink ref="C245" r:id="rId897" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{1F545900-3562-459E-B135-EB9F8FE29A6F}"/>
+    <hyperlink ref="E245" r:id="rId898" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C935AA8F-4C4B-47B8-8A89-FC44C0E7D15F}"/>
+    <hyperlink ref="I245" r:id="rId899" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{F97F8F29-5CE2-4D99-B3C2-99BA78222652}"/>
+    <hyperlink ref="M245" r:id="rId900" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{F047BDA2-DD16-4FFC-8A30-B152CB3A04D9}"/>
+    <hyperlink ref="C246" r:id="rId901" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{11F85BDD-9FA3-4FFA-A6BB-ADD46186BD5C}"/>
+    <hyperlink ref="E246" r:id="rId902" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2C853058-D042-46AD-A6E2-FDD2B95196B0}"/>
+    <hyperlink ref="I246" r:id="rId903" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{992D99E8-3167-4B4E-BB9F-1E606B7316A8}"/>
+    <hyperlink ref="M246" r:id="rId904" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{FD53CDEC-5433-48DA-831D-85FD7481BDA4}"/>
+    <hyperlink ref="C247" r:id="rId905" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{7076470F-8CC6-4678-BACC-B85E0DF56D1E}"/>
+    <hyperlink ref="E247" r:id="rId906" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{693297DE-7346-4351-A9C4-8923B888B6C4}"/>
+    <hyperlink ref="I247" r:id="rId907" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{45ADEB30-98CC-4DEE-9C2E-80DD115BCB44}"/>
+    <hyperlink ref="M247" r:id="rId908" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{FD6E8128-4BCC-475D-BE8B-FD1D41895048}"/>
+    <hyperlink ref="C248" r:id="rId909" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{BBE88DB6-F50E-45A0-9C93-157D630807BC}"/>
+    <hyperlink ref="E248" r:id="rId910" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9E2F4A76-909E-46FA-B00D-EA4A32B19501}"/>
+    <hyperlink ref="I248" r:id="rId911" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{6B5B20E2-35CE-4A8D-A9DA-9CE375BD1BCA}"/>
+    <hyperlink ref="M248" r:id="rId912" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{DAA3A759-4BAC-4850-982B-55C3BA345CED}"/>
+    <hyperlink ref="C249" r:id="rId913" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{E0D30428-7EEB-4776-82C6-1B82CFA98F99}"/>
+    <hyperlink ref="E249" r:id="rId914" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5A97BC16-8549-46B4-BCB0-3ECA22899249}"/>
+    <hyperlink ref="I249" r:id="rId915" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{EE4B686D-712F-4674-A5C8-0634C1CD3A7B}"/>
+    <hyperlink ref="M249" r:id="rId916" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{F8C7C210-05A3-4B1C-AC59-51085EDAAC06}"/>
+    <hyperlink ref="C250" r:id="rId917" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{DE838547-01CF-41ED-939A-6613AFFF5770}"/>
+    <hyperlink ref="E250" r:id="rId918" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{DCAEDF1D-881D-4A75-84A8-8A33C6B176F9}"/>
+    <hyperlink ref="I250" r:id="rId919" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{9E0B3E73-0CB2-40F8-A1AA-7B449803D3B3}"/>
+    <hyperlink ref="M250" r:id="rId920" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{2897CA1F-CD1C-4FCA-888E-C3A0F2EF40EB}"/>
+    <hyperlink ref="C251" r:id="rId921" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{658736EA-CF24-402E-863D-F95A32764466}"/>
+    <hyperlink ref="E251" r:id="rId922" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A7DB5B88-C725-4EC9-A3B4-052FE471F552}"/>
+    <hyperlink ref="I251" r:id="rId923" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{ABE39A31-273E-46B5-94A5-36FC264398F3}"/>
+    <hyperlink ref="M251" r:id="rId924" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{88FBA2CC-F87E-4650-AE40-605BB6012494}"/>
+    <hyperlink ref="C252" r:id="rId925" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{32A3A3D8-BFE9-4EFD-9523-B51A81637A95}"/>
+    <hyperlink ref="E252" r:id="rId926" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B6A73FB9-E383-4826-9197-A7FFF8FF7C99}"/>
+    <hyperlink ref="I252" r:id="rId927" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{6C2A12C9-5E96-4221-9ABD-F0918E8FF8BE}"/>
+    <hyperlink ref="M252" r:id="rId928" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{9D57D3C7-9C8F-4539-A361-F4CF3D49BFFB}"/>
+    <hyperlink ref="C253" r:id="rId929" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{6A9A9E99-C016-4CD8-A771-9F5F60AD676D}"/>
+    <hyperlink ref="E253" r:id="rId930" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{742D551A-E374-4853-867D-07BB04BF3E17}"/>
+    <hyperlink ref="I253" r:id="rId931" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{C98A5981-B2F6-4699-886E-942289F77D69}"/>
+    <hyperlink ref="M253" r:id="rId932" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{C454E38D-C552-4769-ACFE-BA72EC4213BA}"/>
+    <hyperlink ref="C254" r:id="rId933" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{B3065186-BBE5-441A-9BBE-75C572D56138}"/>
+    <hyperlink ref="E254" r:id="rId934" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{35450D5D-2D95-4650-BDCF-11ED310B2E38}"/>
+    <hyperlink ref="I254" r:id="rId935" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{FEF28070-CBEB-4428-B093-FC3397001207}"/>
+    <hyperlink ref="M254" r:id="rId936" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{0771A770-E136-4281-8FAE-3A24BFE8A6B0}"/>
+    <hyperlink ref="C256" r:id="rId937" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{E732B0B4-8FCD-4249-9EFD-0B69FD258A1F}"/>
+    <hyperlink ref="E256" r:id="rId938" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{7FB1EA78-95A9-488B-8F26-95C973EDFA65}"/>
+    <hyperlink ref="I256" r:id="rId939" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{BD883667-B6FF-4544-8AD0-3116C6F3BCD8}"/>
+    <hyperlink ref="M256" r:id="rId940" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{869C553B-FB73-48EF-8DDB-BCB152506C4F}"/>
+    <hyperlink ref="C257" r:id="rId941" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{C899881C-5D9D-4337-8107-AAD60267B17D}"/>
+    <hyperlink ref="E257" r:id="rId942" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5F74E754-1CCF-4C40-8683-35F8DCA74F9C}"/>
+    <hyperlink ref="I257" r:id="rId943" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{DEADAFCA-DEA3-4EF2-88AB-C46BD1D73DB0}"/>
+    <hyperlink ref="M257" r:id="rId944" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{6774BD34-6EEA-4FA7-8F55-1B37847D1E88}"/>
+    <hyperlink ref="C258" r:id="rId945" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{72981B5E-0556-4228-A19B-C3494E458FA5}"/>
+    <hyperlink ref="E258" r:id="rId946" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{70CF6FE1-DC51-492B-AF1D-6B2CC2A841D0}"/>
+    <hyperlink ref="I258" r:id="rId947" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{39CF7739-B3BD-400F-8B36-7E8F11824A77}"/>
+    <hyperlink ref="M258" r:id="rId948" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{9FDD94B6-4C56-4630-870E-EFC7551A68B3}"/>
+    <hyperlink ref="C259" r:id="rId949" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{E7E4F55D-3F22-4ACA-ACDB-F8ED0EF8B553}"/>
+    <hyperlink ref="E259" r:id="rId950" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B0C159F0-030A-4CFC-9BF9-123C74042A74}"/>
+    <hyperlink ref="I259" r:id="rId951" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2AB2FF84-EAB2-41CC-AAD8-500058D443C1}"/>
+    <hyperlink ref="M259" r:id="rId952" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{F74229AC-183F-45EF-BC0C-13E035EDE9E2}"/>
+    <hyperlink ref="C260" r:id="rId953" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{D3D689C7-6D8B-4A68-B9CE-377382157346}"/>
+    <hyperlink ref="E260" r:id="rId954" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{1823F78D-C5BB-4A5F-A0F6-CC2CADA5DD2D}"/>
+    <hyperlink ref="I260" r:id="rId955" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C920546D-B758-4D6A-B6F0-31F552FD693A}"/>
+    <hyperlink ref="M260" r:id="rId956" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{373E2631-E56E-4D27-912B-27BAB678E1FF}"/>
+    <hyperlink ref="C261" r:id="rId957" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{46D35134-E66E-4C6E-B12D-A8E1E4002911}"/>
+    <hyperlink ref="E261" r:id="rId958" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{42162003-1AD3-4FD8-B40D-64DD5B001AEE}"/>
+    <hyperlink ref="I261" r:id="rId959" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{B7A1897C-4C89-490F-A215-F608613D1614}"/>
+    <hyperlink ref="M261" r:id="rId960" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{8B7DA094-EC60-4EC5-B7B4-5C6B310989E1}"/>
+    <hyperlink ref="C262" r:id="rId961" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{B0EE5B24-90C0-4BD5-A22C-D4367EEA5420}"/>
+    <hyperlink ref="E262" r:id="rId962" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8809F17C-C71E-4690-82D9-4A32C286C077}"/>
+    <hyperlink ref="I262" r:id="rId963" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{95D26A20-327A-4D84-965C-28A20AE69229}"/>
+    <hyperlink ref="M262" r:id="rId964" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{CDCDBFA6-5FE8-4B80-9141-2D5F67C3EE0E}"/>
+    <hyperlink ref="C263" r:id="rId965" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{1D7E51FD-BF6B-44A5-824F-C3B0947B8352}"/>
+    <hyperlink ref="E263" r:id="rId966" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{390AF48A-3EF4-4F8F-BB1D-4BDA1456C8FC}"/>
+    <hyperlink ref="I263" r:id="rId967" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{38EA9427-0DB8-4E0B-AA88-FCB37C4699F4}"/>
+    <hyperlink ref="M263" r:id="rId968" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{5EDF32A6-F15E-4A67-85C4-DBA6173F010D}"/>
+    <hyperlink ref="C264" r:id="rId969" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{62F8181D-5D5F-4D82-BA15-B68059E9A455}"/>
+    <hyperlink ref="E264" r:id="rId970" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D5FA70F5-526F-4CF7-82A7-0F7813B28054}"/>
+    <hyperlink ref="I264" r:id="rId971" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C9E7B4A6-7260-4BBC-A3EA-E609FF684488}"/>
+    <hyperlink ref="M264" r:id="rId972" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{FE1635D4-DC62-4F19-AA02-EEF76BDF0EF8}"/>
+    <hyperlink ref="C265" r:id="rId973" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{C76C18E3-9FCE-481D-9A95-62998807E8CC}"/>
+    <hyperlink ref="E265" r:id="rId974" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{08DC63AF-44CD-43D6-97D2-BA267E05E8AE}"/>
+    <hyperlink ref="I265" r:id="rId975" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{052E8CE1-3B1B-41D9-9695-E761FC7BDF49}"/>
+    <hyperlink ref="M265" r:id="rId976" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{D1FECDD1-D6E4-4950-A00A-019963185D76}"/>
+    <hyperlink ref="C267" r:id="rId977" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{432BF9C2-DE0A-44D5-987D-E601BB46B1BD}"/>
+    <hyperlink ref="E267" r:id="rId978" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{9CBB11D0-B250-41A6-9A5C-ED6749485A7E}"/>
+    <hyperlink ref="I267" r:id="rId979" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{893C5794-E479-44D9-B199-E56E81E39932}"/>
+    <hyperlink ref="M267" r:id="rId980" display="https://fbref.com/en/stathead/matchup/squads/943e8050/822bd0ba/Burnley-vs-Liverpool-History" xr:uid="{57ED1E0D-84DC-4DA6-8337-A889A260A84D}"/>
+    <hyperlink ref="C268" r:id="rId981" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{5E831983-7613-4FD5-A3B2-D183A220ECB9}"/>
+    <hyperlink ref="E268" r:id="rId982" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F757953A-7747-4354-B978-123089AE9AEF}"/>
+    <hyperlink ref="I268" r:id="rId983" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9F508F3B-AC8D-4D7E-86A3-52A1B279A71C}"/>
+    <hyperlink ref="M268" r:id="rId984" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{1F26C03F-37F3-405F-8285-0B205E12EAF5}"/>
+    <hyperlink ref="C269" r:id="rId985" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{E8CAEE0D-0E3B-4799-8126-420683BE2C11}"/>
+    <hyperlink ref="E269" r:id="rId986" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{03465FEE-1944-47FE-8A54-1FE2BDB5EB5B}"/>
+    <hyperlink ref="I269" r:id="rId987" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{EA8BB9D6-2720-4E85-8284-29BA936794FE}"/>
+    <hyperlink ref="M269" r:id="rId988" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{3A5F125B-D62D-43B7-8F67-E456B6F5CEBE}"/>
+    <hyperlink ref="C270" r:id="rId989" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{CE5FF35C-A9D9-4512-985E-CA214E6C3243}"/>
+    <hyperlink ref="E270" r:id="rId990" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{09C8AB79-30FC-4B48-A1A2-9AFFDA0D3A71}"/>
+    <hyperlink ref="I270" r:id="rId991" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A6AA9750-7253-405C-8C6D-284D7B0C26E8}"/>
+    <hyperlink ref="M270" r:id="rId992" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{DC851C24-059D-486E-B09C-97A4F83FD5C7}"/>
+    <hyperlink ref="C271" r:id="rId993" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{2DBF9007-1D33-4F21-A021-B9FD12275D49}"/>
+    <hyperlink ref="E271" r:id="rId994" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{AAFC9DD0-2377-4DF2-8352-76A079995271}"/>
+    <hyperlink ref="I271" r:id="rId995" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{12A60082-6D73-488E-9F07-B2CA7FE13DC7}"/>
+    <hyperlink ref="M271" r:id="rId996" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8602292d/Newcastle-United-vs-Aston-Villa-History" xr:uid="{3C98BDF6-0F98-4627-85AF-5CE8FB95EAE4}"/>
+    <hyperlink ref="C272" r:id="rId997" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{8793C7C3-E42A-4B0A-91E2-005A66902C71}"/>
+    <hyperlink ref="E272" r:id="rId998" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{530632F4-0592-4A80-A0D8-2B9E099DF15D}"/>
+    <hyperlink ref="I272" r:id="rId999" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{B57016FB-1CF0-4493-A8DC-C63F91E43750}"/>
+    <hyperlink ref="M272" r:id="rId1000" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/5bfb9659/Everton-vs-Leeds-United-History" xr:uid="{5A26DF45-104C-40B0-A239-3D63F5046091}"/>
+    <hyperlink ref="C273" r:id="rId1001" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{F2A2CFFF-FDF3-469A-A330-AF7AD4D9FC3E}"/>
+    <hyperlink ref="E273" r:id="rId1002" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{06795DF0-8447-48C6-9F92-DB8CC1BC3D16}"/>
+    <hyperlink ref="I273" r:id="rId1003" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AE8ED119-EFF4-4158-8DC6-90B24BA9CB65}"/>
+    <hyperlink ref="M273" r:id="rId1004" display="https://fbref.com/en/stathead/matchup/squads/cd051869/47c64c55/Brentford-vs-Crystal-Palace-History" xr:uid="{B7E82DF3-C334-43F5-87EB-76E46F78183B}"/>
+    <hyperlink ref="C274" r:id="rId1005" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{2E8ADBB7-5F92-4E34-977A-B9EBF74C4AED}"/>
+    <hyperlink ref="E274" r:id="rId1006" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{494CD543-35D5-447B-A626-D9B6FFEAB8D9}"/>
+    <hyperlink ref="I274" r:id="rId1007" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{F51C30F7-1800-4BF6-9676-DD45D4AFB4C0}"/>
+    <hyperlink ref="M274" r:id="rId1008" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{649F3B34-84F5-4DCE-807C-F2D32066A72D}"/>
+    <hyperlink ref="C275" r:id="rId1009" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{3FE5BD25-D6C8-4B7F-B781-8A51A08075BB}"/>
+    <hyperlink ref="E275" r:id="rId1010" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E7238AA8-9AEB-48D1-9A83-B799AF3FBC48}"/>
+    <hyperlink ref="I275" r:id="rId1011" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E31EC1FA-7157-444A-AB4A-EECCFDEB052A}"/>
+    <hyperlink ref="M275" r:id="rId1012" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/1c781004/Manchester-City-vs-Norwich-City-History" xr:uid="{13BC9E01-6432-4A21-8A7D-72BF0FCF0677}"/>
+    <hyperlink ref="C276" r:id="rId1013" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{4DEAB0AC-2AE5-458D-B952-4CEE2384BC97}"/>
+    <hyperlink ref="E276" r:id="rId1014" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{F4A15E65-4236-4195-99FC-6993727D3D9D}"/>
+    <hyperlink ref="I276" r:id="rId1015" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4B7D66AF-A90C-4C0C-B372-BA49BE23994F}"/>
+    <hyperlink ref="M276" r:id="rId1016" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/2abfe087/Brighton-and-Hove-Albion-vs-Watford-History" xr:uid="{155DB737-73BD-47E9-BC07-E3481B671635}"/>
+    <hyperlink ref="C278" r:id="rId1017" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{BF60DC4E-C30A-4675-B99A-CDA0CBB9D7F5}"/>
+    <hyperlink ref="E278" r:id="rId1018" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{73BF553E-3504-4A12-B4CD-C4450349552E}"/>
+    <hyperlink ref="I278" r:id="rId1019" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{57FABC65-D990-46C7-B2B6-39235C87C33E}"/>
+    <hyperlink ref="M278" r:id="rId1020" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/19538871/Leeds-United-vs-Manchester-United-History" xr:uid="{7A00494B-4FEC-405B-92C3-5A85978A22CD}"/>
+    <hyperlink ref="C279" r:id="rId1021" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{26AAEB57-FEAA-442C-9409-43E50979ABD0}"/>
+    <hyperlink ref="E279" r:id="rId1022" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F4446077-D981-4A5A-A804-F96564E2D954}"/>
+    <hyperlink ref="I279" r:id="rId1023" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{8BC55211-E4FF-4633-B83B-7539745D03C6}"/>
+    <hyperlink ref="M279" r:id="rId1024" display="https://fbref.com/en/stathead/matchup/squads/8602292d/2abfe087/Aston-Villa-vs-Watford-History" xr:uid="{280CAC1B-6D73-4734-A9C5-70FDEF140878}"/>
+    <hyperlink ref="C280" r:id="rId1025" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{4C774EF2-2B9F-4709-8E91-4EAA85A729A1}"/>
+    <hyperlink ref="E280" r:id="rId1026" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{B76389F2-F270-4652-BEF3-283405D7F9BF}"/>
+    <hyperlink ref="I280" r:id="rId1027" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{3926AC72-6565-4FE7-AAE4-78C2F79C9136}"/>
+    <hyperlink ref="M280" r:id="rId1028" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/361ca564/Manchester-City-vs-Tottenham-Hotspur-History" xr:uid="{1FE5CE6E-CDBA-4076-9208-2B015F4A1187}"/>
+    <hyperlink ref="C281" r:id="rId1029" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{3DDEEF02-135C-4F8C-B249-E764411CDD2D}"/>
+    <hyperlink ref="E281" r:id="rId1030" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{07C67FD2-41C8-4B62-827A-893C8A96BC2E}"/>
+    <hyperlink ref="I281" r:id="rId1031" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{2041C096-9B9B-4BED-937E-9B68DF918E8C}"/>
+    <hyperlink ref="M281" r:id="rId1032" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/33c895d4/Everton-vs-Southampton-History" xr:uid="{E67AEB1C-5D10-4195-88BF-10DABCA0ABC7}"/>
+    <hyperlink ref="C282" r:id="rId1033" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{463F810D-587A-4E89-9E3D-D5E3E2D50637}"/>
+    <hyperlink ref="E282" r:id="rId1034" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{FAA24B41-7085-4CEB-96F6-4046AC9A7A6E}"/>
+    <hyperlink ref="I282" r:id="rId1035" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{2C4ED0E3-A508-44A9-89A5-5C376D61DF73}"/>
+    <hyperlink ref="M282" r:id="rId1036" display="https://fbref.com/en/stathead/matchup/squads/cd051869/18bb7c10/Brentford-vs-Arsenal-History" xr:uid="{313F5390-FC7C-4637-985A-4D498069637F}"/>
+    <hyperlink ref="C283" r:id="rId1037" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{2165395C-E53A-4BC4-BBD7-84B2B010DA30}"/>
+    <hyperlink ref="E283" r:id="rId1038" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{96C6E899-3E80-4D5A-A825-ACC479155813}"/>
+    <hyperlink ref="I283" r:id="rId1039" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A4FD82A9-5754-4FE9-B3A3-31A84E26AADC}"/>
+    <hyperlink ref="M283" r:id="rId1040" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/1c781004/Liverpool-vs-Norwich-City-History" xr:uid="{4242D4E2-A9EF-43CF-9DA0-96807265E582}"/>
+    <hyperlink ref="C284" r:id="rId1041" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{561A2BFA-7CFE-4148-AEA3-447C745A8A51}"/>
+    <hyperlink ref="E284" r:id="rId1042" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{8DE7B44B-93EC-46BA-80F2-329B3E9AFE5E}"/>
+    <hyperlink ref="I284" r:id="rId1043" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{FE07272F-6574-4CB1-B305-709E5A13B39E}"/>
+    <hyperlink ref="M284" r:id="rId1044" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/47c64c55/Chelsea-vs-Crystal-Palace-History" xr:uid="{1A6C5792-0D55-41D9-846D-A5D0DFA9B0DC}"/>
+    <hyperlink ref="C285" r:id="rId1045" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{1D6E76BF-14AA-4BED-A91A-0B090C4231EA}"/>
+    <hyperlink ref="E285" r:id="rId1046" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{6F71911F-F737-4043-9B39-3FED932AD37B}"/>
+    <hyperlink ref="I285" r:id="rId1047" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{D7A2A918-3ABC-4F5A-9986-32AA9716A613}"/>
+    <hyperlink ref="M285" r:id="rId1048" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/7c21e445/Newcastle-United-vs-West-Ham-United-History" xr:uid="{BEBD6C9A-CD0B-42C5-A548-833011D8A4E7}"/>
+    <hyperlink ref="C286" r:id="rId1049" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{271BDBD0-7657-44B8-AD79-79AA11682845}"/>
+    <hyperlink ref="E286" r:id="rId1050" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{2159A695-7383-4E99-881A-A481FDC93F75}"/>
+    <hyperlink ref="I286" r:id="rId1051" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A980BDF2-2014-4F49-A751-F2048FF9335B}"/>
+    <hyperlink ref="M286" r:id="rId1052" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8cec06e1/Leicester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{376534F4-07E4-43E4-B5D3-1E29B2DAB06C}"/>
+    <hyperlink ref="C287" r:id="rId1053" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{87B19A64-D529-4102-98B5-BEBC10FF3B95}"/>
+    <hyperlink ref="E287" r:id="rId1054" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{162EB43F-E7FC-45A0-910B-FCC36090A5AE}"/>
+    <hyperlink ref="I287" r:id="rId1055" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2905502A-8AD8-4051-918B-7D30F346FD77}"/>
+    <hyperlink ref="M287" r:id="rId1056" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/943e8050/Brighton-and-Hove-Albion-vs-Burnley-History" xr:uid="{0703DA04-B363-484A-AD6E-F8CF294CE4A1}"/>
+    <hyperlink ref="C289" r:id="rId1057" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{FB147FBD-BF48-4DA8-97F0-3BED9C20ECFA}"/>
+    <hyperlink ref="E289" r:id="rId1058" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{40E63EF2-AB54-41C9-8F21-77F2E9D2C681}"/>
+    <hyperlink ref="I289" r:id="rId1059" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{0F4F2024-0778-46EB-A948-79766B8E3463}"/>
+    <hyperlink ref="M289" r:id="rId1060" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{F8205EB1-B2EC-468F-9565-CFBAB10F469E}"/>
+    <hyperlink ref="C290" r:id="rId1061" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{C6C8704C-9748-4B33-9534-3AA8AC626930}"/>
+    <hyperlink ref="E290" r:id="rId1062" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0373489D-9704-4667-9557-94BED2EB33DA}"/>
+    <hyperlink ref="I290" r:id="rId1063" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{017427AA-A71C-48BB-9A06-F99ACD0B3FC3}"/>
+    <hyperlink ref="M290" r:id="rId1064" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{F154A67E-9346-46CA-824C-95D46142F902}"/>
+    <hyperlink ref="C291" r:id="rId1065" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{C5E47D47-82CE-4BDF-8109-C35D40638831}"/>
+    <hyperlink ref="E291" r:id="rId1066" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{A5262189-069C-4A1F-BC7A-C3A0F88E167E}"/>
+    <hyperlink ref="I291" r:id="rId1067" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{15DB27AD-94C4-42DD-8AF1-6B258AA5FCF6}"/>
+    <hyperlink ref="M291" r:id="rId1068" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{E79CE1C8-D9B0-4F49-BD28-F962D8A3ED09}"/>
+    <hyperlink ref="C292" r:id="rId1069" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{FAB3430D-6608-4359-805F-33BEB782A0E5}"/>
+    <hyperlink ref="E292" r:id="rId1070" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{E250ED27-B71F-429A-8D84-764F9FACB995}"/>
+    <hyperlink ref="I292" r:id="rId1071" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{42DEA258-85C0-440C-B52E-DC74031948AA}"/>
+    <hyperlink ref="M292" r:id="rId1072" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{03C8CF7F-0106-43C3-A9D3-09CB93953221}"/>
+    <hyperlink ref="C293" r:id="rId1073" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{488FB842-D975-4B77-84AD-2B9A606AE596}"/>
+    <hyperlink ref="E293" r:id="rId1074" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{1F240EA8-96EE-4B4C-9572-B0DA012EC14D}"/>
+    <hyperlink ref="I293" r:id="rId1075" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{92B8785E-9ED0-4490-AEDB-C1112C49F0EA}"/>
+    <hyperlink ref="M293" r:id="rId1076" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{27C6D85B-224C-4DD4-9C51-4F130D8153F8}"/>
+    <hyperlink ref="C294" r:id="rId1077" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{23D8FDD4-7A92-494E-89C8-723CF58D17D1}"/>
+    <hyperlink ref="E294" r:id="rId1078" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8777F8A5-F2DD-4AD5-BB50-CC6F56837BBE}"/>
+    <hyperlink ref="I294" r:id="rId1079" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{AAE1BA31-D8C4-4A81-8B24-91F912632217}"/>
+    <hyperlink ref="M294" r:id="rId1080" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{AD7DA330-33B7-4F40-ADE7-EFC16A3826BD}"/>
+    <hyperlink ref="C295" r:id="rId1081" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{CA7CF51B-4E87-40D7-9B26-6FF82CCDFDC3}"/>
+    <hyperlink ref="E295" r:id="rId1082" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7CC35C94-8846-4651-BC60-E8DE4A4CF736}"/>
+    <hyperlink ref="I295" r:id="rId1083" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{C41B0099-517E-4CA1-B913-F3A1A09D9197}"/>
+    <hyperlink ref="M295" r:id="rId1084" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{7C7898FB-01F7-4653-993E-D8FE9B119A94}"/>
+    <hyperlink ref="C296" r:id="rId1085" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{D84AF4B5-8D91-44E9-9DDB-216D89FB1A35}"/>
+    <hyperlink ref="E296" r:id="rId1086" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{258EF7FD-4441-45DD-9FE4-D32DE6C32CDE}"/>
+    <hyperlink ref="I296" r:id="rId1087" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{938C36E8-D338-443F-8C4C-FDBB0C3FF94A}"/>
+    <hyperlink ref="M296" r:id="rId1088" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{9B412088-98D0-498C-A649-3DB9602D21FA}"/>
+    <hyperlink ref="C297" r:id="rId1089" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{7D90A9E1-4F1E-43FF-A6BA-7010B020DC85}"/>
+    <hyperlink ref="E297" r:id="rId1090" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7C07F6DF-14E8-42EB-ABC7-FB172AE05BE1}"/>
+    <hyperlink ref="I297" r:id="rId1091" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{91695CF9-207C-42FE-8F85-B7A23C5DCEF1}"/>
+    <hyperlink ref="M297" r:id="rId1092" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{F2102D0B-D796-4364-B279-D7D20C19DE72}"/>
+    <hyperlink ref="C298" r:id="rId1093" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{F550A588-81DE-4DF4-BA0A-87600AC9F06B}"/>
+    <hyperlink ref="E298" r:id="rId1094" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{07D80A51-ACDB-4AA8-95B7-7EDA7B6B0644}"/>
+    <hyperlink ref="I298" r:id="rId1095" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{CE236F3E-F83D-4E51-883C-1FD0398FF4EF}"/>
+    <hyperlink ref="M298" r:id="rId1096" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{B75B0A94-90BE-4FBA-9FB2-DD3B21FE4BE4}"/>
+    <hyperlink ref="C300" r:id="rId1097" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{830A7E78-E5F2-44C0-B228-A1D0A6BE2133}"/>
+    <hyperlink ref="E300" r:id="rId1098" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{2F927A7A-D3EE-49DD-B2E1-5332DD1D779B}"/>
+    <hyperlink ref="I300" r:id="rId1099" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EE1DBEE9-162C-4D38-B17F-84687B66F20A}"/>
+    <hyperlink ref="M300" r:id="rId1100" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{0CE47DAE-D1F2-493E-B977-41C698E3AE3B}"/>
+    <hyperlink ref="C301" r:id="rId1101" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{A441F2A0-21D9-4BDB-A8E5-0B33D818E15D}"/>
+    <hyperlink ref="E301" r:id="rId1102" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{87FDA2EB-C9ED-4105-9827-0996193D13C7}"/>
+    <hyperlink ref="I301" r:id="rId1103" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{96C35D02-794F-4108-AAE1-B4AA1DD81A57}"/>
+    <hyperlink ref="M301" r:id="rId1104" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{D2C807E4-7BB7-4DDE-8AF6-920E9040B31D}"/>
+    <hyperlink ref="C302" r:id="rId1105" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{BF0599EB-CF01-4C99-A720-2ED2C7628EC6}"/>
+    <hyperlink ref="E302" r:id="rId1106" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{92AFF2B0-304C-44AD-AB21-A1E7243C872B}"/>
+    <hyperlink ref="I302" r:id="rId1107" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{28B04C51-11D0-45DE-A2EE-6C8C4CFE797F}"/>
+    <hyperlink ref="M302" r:id="rId1108" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{6EC47FE6-5A3B-4EB8-9AE3-7CD83D809058}"/>
+    <hyperlink ref="C303" r:id="rId1109" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{E453136F-BABA-4DD8-B007-BE9D32E2A0E2}"/>
+    <hyperlink ref="E303" r:id="rId1110" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C4BAE5D7-E06F-4FF8-ADCA-00EBF35D1260}"/>
+    <hyperlink ref="I303" r:id="rId1111" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BC76FE7A-512E-4F8E-90B2-2285A8ED23C0}"/>
+    <hyperlink ref="M303" r:id="rId1112" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{C1C8C309-B72B-435B-9BC3-DDD3D4C8ECDC}"/>
+    <hyperlink ref="C304" r:id="rId1113" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{685F0FCD-3F22-4560-A6ED-6A77604D8995}"/>
+    <hyperlink ref="E304" r:id="rId1114" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{9D81E443-F028-4695-B21F-08D44A23687C}"/>
+    <hyperlink ref="I304" r:id="rId1115" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{0CE3194B-EBF1-42B0-8E68-1C17A43358DA}"/>
+    <hyperlink ref="M304" r:id="rId1116" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{479A0F42-5CA9-43F8-9FB3-217AA02E57B6}"/>
+    <hyperlink ref="C305" r:id="rId1117" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{28F534B5-1905-4AEB-9412-65974C7AD2B9}"/>
+    <hyperlink ref="E305" r:id="rId1118" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{224708B4-0F93-43CC-BB49-BD1C742AAE7A}"/>
+    <hyperlink ref="I305" r:id="rId1119" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{50317C81-BB11-44A8-B976-2E59D21BFEE4}"/>
+    <hyperlink ref="M305" r:id="rId1120" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{759A57E8-A935-4997-9F5D-C70C4B9233A0}"/>
+    <hyperlink ref="C306" r:id="rId1121" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{DC6C0678-4A80-4078-B670-9574C4F0F09E}"/>
+    <hyperlink ref="E306" r:id="rId1122" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{08510B83-7F50-4BD5-BB71-C1FACAC684C8}"/>
+    <hyperlink ref="I306" r:id="rId1123" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{0DB5E836-088E-4023-902D-4DCEECCEA9D6}"/>
+    <hyperlink ref="M306" r:id="rId1124" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{00DDF4A9-E07B-4051-88AA-0F524C7D5618}"/>
+    <hyperlink ref="C307" r:id="rId1125" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{87B66F89-58B2-40E0-9EE1-F102C601BEFF}"/>
+    <hyperlink ref="E307" r:id="rId1126" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{5C6668CE-8ECC-4D73-A762-D11069A1A2B0}"/>
+    <hyperlink ref="I307" r:id="rId1127" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F27F80AE-7D9A-4F0E-8AE9-FD87B9B25964}"/>
+    <hyperlink ref="M307" r:id="rId1128" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{CA3E9C2F-657B-47E9-B73A-723E4F5BB9DC}"/>
+    <hyperlink ref="C308" r:id="rId1129" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9C6E4EAF-2F41-49C4-95D7-0FA2F9FA0386}"/>
+    <hyperlink ref="E308" r:id="rId1130" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EBEF3580-88A0-484C-808E-42B121D6A19B}"/>
+    <hyperlink ref="I308" r:id="rId1131" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{6703F501-771E-4D55-944F-0D911C3E1F83}"/>
+    <hyperlink ref="M308" r:id="rId1132" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{3DA83F81-F960-432D-B90A-4A826CDB77EC}"/>
+    <hyperlink ref="C309" r:id="rId1133" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{E7D17D33-0A04-4761-B194-6D972E82233A}"/>
+    <hyperlink ref="E309" r:id="rId1134" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{687C6474-EC59-432C-B69D-387D8D299825}"/>
+    <hyperlink ref="I309" r:id="rId1135" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{0469E9E2-EE6B-4B20-8249-5B3DC4F76457}"/>
+    <hyperlink ref="M309" r:id="rId1136" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{A21550B8-8100-484E-A65D-FC0ECA3EC81D}"/>
+    <hyperlink ref="C311" r:id="rId1137" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{0579B1ED-6088-4C50-931C-7F5B9E27AD9D}"/>
+    <hyperlink ref="E311" r:id="rId1138" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5AD34BF1-4D31-4D37-835B-A36D479160DF}"/>
+    <hyperlink ref="I311" r:id="rId1139" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{8B752DF5-16AE-4F6D-9C8E-B338AD430577}"/>
+    <hyperlink ref="M311" r:id="rId1140" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{BFE7233C-B375-4D0B-8859-CD740109FDBF}"/>
+    <hyperlink ref="C312" r:id="rId1141" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{20ACD2D8-461A-433F-B437-36760C034B3F}"/>
+    <hyperlink ref="E312" r:id="rId1142" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{660250D6-E6C1-41DA-9FA6-4F77BF856149}"/>
+    <hyperlink ref="I312" r:id="rId1143" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C079F340-3983-4365-BE11-A488BB924B92}"/>
+    <hyperlink ref="M312" r:id="rId1144" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{7A36A74B-E87D-4679-9090-1FA2E69AFA21}"/>
+    <hyperlink ref="C313" r:id="rId1145" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{BAF8B8A1-CD23-488E-A688-0946CAB7E17E}"/>
+    <hyperlink ref="E313" r:id="rId1146" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{3519B261-AD81-4422-A635-BFC6D4ECAEDE}"/>
+    <hyperlink ref="I313" r:id="rId1147" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{EB03A086-8D6F-40DD-9618-FA807A7A6950}"/>
+    <hyperlink ref="M313" r:id="rId1148" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{C436BF19-8693-4112-9398-8B4266004C79}"/>
+    <hyperlink ref="C314" r:id="rId1149" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{E4E173E2-D612-4974-9631-D2951D42F3BD}"/>
+    <hyperlink ref="E314" r:id="rId1150" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{6A09849A-4BE6-4DC3-9143-4E4F5566E092}"/>
+    <hyperlink ref="I314" r:id="rId1151" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5809977D-42A8-4807-945D-DC185EFD446F}"/>
+    <hyperlink ref="M314" r:id="rId1152" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{126673BB-3A6A-40D9-BFD6-5E8FB1BE1CA3}"/>
+    <hyperlink ref="C315" r:id="rId1153" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{60C10B3E-509C-4D91-B2E1-229600223A58}"/>
+    <hyperlink ref="E315" r:id="rId1154" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{F9DA27E5-C34F-46CA-93BE-29BC41874166}"/>
+    <hyperlink ref="I315" r:id="rId1155" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DBBD810C-9FC0-492D-AD0B-A2F11B7E1E5C}"/>
+    <hyperlink ref="M315" r:id="rId1156" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{54C0C34F-03A9-4993-AA53-86356FB95C34}"/>
+    <hyperlink ref="C316" r:id="rId1157" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{5AFF7D9A-A3F8-4356-AB3E-4FC98E78F51F}"/>
+    <hyperlink ref="E316" r:id="rId1158" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D7D77843-F75C-4419-A8DF-F84F84E0C43E}"/>
+    <hyperlink ref="I316" r:id="rId1159" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{1720D190-2070-4F99-ACCE-DC6A3DED9241}"/>
+    <hyperlink ref="M316" r:id="rId1160" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{181B255E-C249-4EDB-A7E9-CAE9F2FD3631}"/>
+    <hyperlink ref="C317" r:id="rId1161" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{71368B9C-3470-4578-B68D-51BAAB6E416A}"/>
+    <hyperlink ref="E317" r:id="rId1162" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2267BF5E-FBEC-4BFB-88CF-8DECB9594996}"/>
+    <hyperlink ref="I317" r:id="rId1163" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5EB7EF25-0C5A-4C65-82A2-A85F558CCD16}"/>
+    <hyperlink ref="M317" r:id="rId1164" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{43D3FA65-210B-4862-8BA8-524D91F0D80A}"/>
+    <hyperlink ref="C318" r:id="rId1165" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{4FC6614A-9E6E-4F74-B166-0DE453D716F7}"/>
+    <hyperlink ref="E318" r:id="rId1166" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{82AAABD4-3C5A-40E0-90F3-EAF425EED427}"/>
+    <hyperlink ref="I318" r:id="rId1167" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F2A6AEDB-2CD6-4D95-8074-4F4F488817A2}"/>
+    <hyperlink ref="M318" r:id="rId1168" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{4FD09A58-9EE7-4103-8FCF-C1234F0ACDCB}"/>
+    <hyperlink ref="C319" r:id="rId1169" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{04A82316-BFC5-4F7E-8F2B-05024AB6B223}"/>
+    <hyperlink ref="E319" r:id="rId1170" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{B90A7479-2F2A-4F4B-83FA-A108373C8738}"/>
+    <hyperlink ref="I319" r:id="rId1171" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{532E3BB7-6EBE-4428-9C69-8C6494156B67}"/>
+    <hyperlink ref="M319" r:id="rId1172" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{939B1863-71B2-4201-8DC8-A5C7FFC97385}"/>
+    <hyperlink ref="C320" r:id="rId1173" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{0B1C5319-28BF-42C4-B66A-2491D5653DD7}"/>
+    <hyperlink ref="E320" r:id="rId1174" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{D4D911F9-5955-4458-B855-5519423D5C7E}"/>
+    <hyperlink ref="I320" r:id="rId1175" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{02E683C6-C7FB-4913-9F02-10A0C6F22059}"/>
+    <hyperlink ref="M320" r:id="rId1176" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{B9BEDDFE-B4CA-4DCF-9ED7-8E5EE6E35B70}"/>
+    <hyperlink ref="C322" r:id="rId1177" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{60BD3DD8-321F-4E06-89EF-FFFB641A2DD8}"/>
+    <hyperlink ref="E322" r:id="rId1178" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C65BB30E-DF5D-496F-90A6-6F47E3E47E3E}"/>
+    <hyperlink ref="I322" r:id="rId1179" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{5838A908-AB2F-4D86-BABB-EA689DE55DE8}"/>
+    <hyperlink ref="M322" r:id="rId1180" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{3C9232A6-DD4F-48F4-B17B-C4045C972E61}"/>
+    <hyperlink ref="C323" r:id="rId1181" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{A030627B-AF2B-42CB-BB1F-551E57C4A2C4}"/>
+    <hyperlink ref="E323" r:id="rId1182" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{089FE887-8284-47C7-97D9-A99558C0BC30}"/>
+    <hyperlink ref="I323" r:id="rId1183" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{DB908233-326B-4B7E-B70D-578431A236C0}"/>
+    <hyperlink ref="M323" r:id="rId1184" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{EC6B570C-B03E-4DE2-A3EF-02DB23A1942D}"/>
+    <hyperlink ref="C324" r:id="rId1185" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{3D608E6E-1C4D-4EB5-8681-E67F31DD2B99}"/>
+    <hyperlink ref="E324" r:id="rId1186" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E0D53284-0B1D-4D0F-867B-4E3C6A727A1D}"/>
+    <hyperlink ref="I324" r:id="rId1187" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{60C75E59-7932-4733-89A8-BC8F8EF86A2B}"/>
+    <hyperlink ref="M324" r:id="rId1188" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{D5D02AEB-21EF-4466-BF03-0E46B10EC6F9}"/>
+    <hyperlink ref="C325" r:id="rId1189" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{FC2490DC-BA7B-4972-B691-5EC38A664396}"/>
+    <hyperlink ref="E325" r:id="rId1190" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{7EC3CE97-D386-404E-B9CE-4C155A093C35}"/>
+    <hyperlink ref="I325" r:id="rId1191" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{462E2EE6-1741-4706-9B94-DDAE343AF23C}"/>
+    <hyperlink ref="M325" r:id="rId1192" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{4A52CCC7-3D38-408F-BAEC-FA392776D3BA}"/>
+    <hyperlink ref="C326" r:id="rId1193" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{D4DC1EEC-7983-47BB-97C5-111BA8DF6DBC}"/>
+    <hyperlink ref="E326" r:id="rId1194" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D7FD35D2-E3E6-401B-B7DC-5BC3DD5DCDD3}"/>
+    <hyperlink ref="I326" r:id="rId1195" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{59864117-5FDE-4D78-88BC-3D2228604E02}"/>
+    <hyperlink ref="M326" r:id="rId1196" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{F4DF4906-6899-4703-8470-012CAB7FCE62}"/>
+    <hyperlink ref="C327" r:id="rId1197" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{2865A2F8-8B6A-443E-BFBA-B59293F313F2}"/>
+    <hyperlink ref="E327" r:id="rId1198" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{45A7D5DD-0B5B-41CD-93DF-09987E96F89F}"/>
+    <hyperlink ref="I327" r:id="rId1199" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{64AED367-2087-4D62-8DF4-B10945843E42}"/>
+    <hyperlink ref="M327" r:id="rId1200" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{3A5E030F-EAA2-4EA3-AF37-093781B1C240}"/>
+    <hyperlink ref="C328" r:id="rId1201" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{289141CD-6ECA-48E7-BCF9-5976E4030B90}"/>
+    <hyperlink ref="E328" r:id="rId1202" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{8FAB580F-C069-4F06-83E9-67AA03FBC209}"/>
+    <hyperlink ref="I328" r:id="rId1203" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{6C4E606D-70E6-4ED2-89B1-DEC490A98BDF}"/>
+    <hyperlink ref="M328" r:id="rId1204" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{FBF64DEE-2F06-44C5-93D4-191B5D75DD40}"/>
+    <hyperlink ref="C329" r:id="rId1205" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{D56C102C-A8EC-4809-8D78-96CE73C36F4A}"/>
+    <hyperlink ref="E329" r:id="rId1206" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{2658410A-3921-4E63-A76E-3EE06BFC4AE9}"/>
+    <hyperlink ref="I329" r:id="rId1207" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{3E16AEE4-5486-42E1-A5A1-B62BDC5E7116}"/>
+    <hyperlink ref="M329" r:id="rId1208" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{901E4767-75B3-48B7-BB8A-04E301269A27}"/>
+    <hyperlink ref="C330" r:id="rId1209" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{92EAC188-48C3-417E-892E-2E1174F9E3DE}"/>
+    <hyperlink ref="E330" r:id="rId1210" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{173395DB-6078-47D9-800D-A75C22BE3086}"/>
+    <hyperlink ref="I330" r:id="rId1211" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{3CD81FC0-9A84-433E-93F3-8295AD0DA577}"/>
+    <hyperlink ref="M330" r:id="rId1212" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{5433A195-DA24-479C-9910-3FA36DBE6649}"/>
+    <hyperlink ref="C331" r:id="rId1213" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{0F84ACEE-9EA0-45FA-9F3E-E5ABBFD46AC5}"/>
+    <hyperlink ref="E331" r:id="rId1214" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{6D49B232-1FDA-4BBB-B732-84C762AA3E08}"/>
+    <hyperlink ref="I331" r:id="rId1215" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1EE2F86F-5EB6-4A3F-97AD-2EAB8C7E95DB}"/>
+    <hyperlink ref="M331" r:id="rId1216" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{D288B338-ADA4-46F9-8DAC-58EA8963D7A7}"/>
+    <hyperlink ref="C333" r:id="rId1217" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{856278FC-7389-468D-B085-CF8AD828C182}"/>
+    <hyperlink ref="E333" r:id="rId1218" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{84293A29-E9E0-4F15-B72E-8EC693392D5B}"/>
+    <hyperlink ref="I333" r:id="rId1219" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{28FBAA7D-55C4-4E1E-8588-B5B97C920201}"/>
+    <hyperlink ref="M333" r:id="rId1220" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{C97D86ED-030F-46BD-AD4C-5DB5F4EA1E53}"/>
+    <hyperlink ref="C334" r:id="rId1221" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{3791A0A2-CC37-4F44-B5DD-7BCBBE6426A0}"/>
+    <hyperlink ref="E334" r:id="rId1222" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1AA30AD8-406D-4868-879B-BFD108443144}"/>
+    <hyperlink ref="I334" r:id="rId1223" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6706B0D8-2D84-4000-AB42-3B4AE2589F60}"/>
+    <hyperlink ref="M334" r:id="rId1224" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{3E09EEA5-8CC8-470F-AE12-D103E61944F7}"/>
+    <hyperlink ref="C335" r:id="rId1225" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{BACAFF98-EDD2-4B7C-95B0-8D58DA7B0B92}"/>
+    <hyperlink ref="E335" r:id="rId1226" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A66E9CB5-7AD8-459F-A160-286AE9AED3AA}"/>
+    <hyperlink ref="I335" r:id="rId1227" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2654BD5B-B619-4BFB-A6E5-611DE9969A97}"/>
+    <hyperlink ref="M335" r:id="rId1228" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{3D9D7165-AA81-4418-AC3F-5CA7E1E333F2}"/>
+    <hyperlink ref="C336" r:id="rId1229" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{F2A1ABC7-5C45-4FB5-B8EE-3E211B471C3B}"/>
+    <hyperlink ref="E336" r:id="rId1230" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{FF75DD23-C1E0-4BC0-A1CD-4CE9142A0DF0}"/>
+    <hyperlink ref="I336" r:id="rId1231" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{68149C2C-FCBD-4460-85DC-8647A3B3AC03}"/>
+    <hyperlink ref="M336" r:id="rId1232" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{1D7E512D-ECB3-4B7A-91DF-EF8A3BF44127}"/>
+    <hyperlink ref="C337" r:id="rId1233" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{5F8291F0-6382-409E-B33D-935D446B07CC}"/>
+    <hyperlink ref="E337" r:id="rId1234" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4D4E19CB-9D1C-4C19-B545-D9A89DF6D353}"/>
+    <hyperlink ref="I337" r:id="rId1235" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B9B29533-357A-4A15-BDCE-FD8C68A71372}"/>
+    <hyperlink ref="M337" r:id="rId1236" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{5436246F-4E4E-4D5B-86A9-FAAA9286C873}"/>
+    <hyperlink ref="C338" r:id="rId1237" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{1CDA86DA-2B45-44F6-8DEE-742F54B6DFDB}"/>
+    <hyperlink ref="E338" r:id="rId1238" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D58D92EA-33CD-45EC-9708-273673199672}"/>
+    <hyperlink ref="I338" r:id="rId1239" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{AA7E20C1-7091-424C-8415-BFDCDC9FCABD}"/>
+    <hyperlink ref="M338" r:id="rId1240" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{0A24D6AC-F20B-471F-AE82-112E5C8B7BF8}"/>
+    <hyperlink ref="C339" r:id="rId1241" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{662941B4-098B-4F91-840C-1E806BBD4C63}"/>
+    <hyperlink ref="E339" r:id="rId1242" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{ADC06A0A-47F7-48DF-B310-DE79FB32214A}"/>
+    <hyperlink ref="I339" r:id="rId1243" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{858386ED-5D93-4E78-A435-E3C74E12EC73}"/>
+    <hyperlink ref="M339" r:id="rId1244" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{90CAF382-FC90-45FC-A0DF-897A4432C5C8}"/>
+    <hyperlink ref="C340" r:id="rId1245" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{16CB3203-5641-4DCB-8B03-E3CF1B015F3C}"/>
+    <hyperlink ref="E340" r:id="rId1246" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7F8CE340-44D6-4C13-8DAB-BC01CDB0310B}"/>
+    <hyperlink ref="I340" r:id="rId1247" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{125833EE-259A-413D-BD08-C9749C718198}"/>
+    <hyperlink ref="M340" r:id="rId1248" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{0C673E6D-0293-4EE0-98C4-9A360F399B8D}"/>
+    <hyperlink ref="C341" r:id="rId1249" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{4B2BB5EE-D7CF-4A3A-AE18-7859ECEC3797}"/>
+    <hyperlink ref="E341" r:id="rId1250" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{37C87F17-68BD-43EA-AB6E-95336D39C281}"/>
+    <hyperlink ref="I341" r:id="rId1251" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{C47BD070-A097-499E-AF73-17D20579929E}"/>
+    <hyperlink ref="M341" r:id="rId1252" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{E4BD4977-B5BF-4E05-B873-FCCF57617985}"/>
+    <hyperlink ref="C342" r:id="rId1253" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{D3630E87-80D0-4217-AA8E-6BE76BF90337}"/>
+    <hyperlink ref="E342" r:id="rId1254" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{29A1E82C-99A9-42A3-83CA-B7805BC87C8E}"/>
+    <hyperlink ref="I342" r:id="rId1255" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{28009B5F-2EBD-4527-B315-BBEA7490A85B}"/>
+    <hyperlink ref="M342" r:id="rId1256" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{40D6CDFE-25E3-494A-A69A-7974C5964876}"/>
+    <hyperlink ref="C344" r:id="rId1257" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{74C5E34A-CF05-4777-908D-568D42FB8EF3}"/>
+    <hyperlink ref="E344" r:id="rId1258" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{942AC167-9ED8-406A-827F-ACDD2E73AF6F}"/>
+    <hyperlink ref="I344" r:id="rId1259" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{CFA37838-A710-4DF3-A5BA-6BC80C24F8DC}"/>
+    <hyperlink ref="M344" r:id="rId1260" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{82E495A6-FA28-466E-96B0-E7EA5F561CFF}"/>
+    <hyperlink ref="C345" r:id="rId1261" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{9F72E9D9-7DDE-4BEA-9C50-BA93A97D2EBE}"/>
+    <hyperlink ref="E345" r:id="rId1262" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4AFE975B-9056-4049-B364-1F0FB1DA4349}"/>
+    <hyperlink ref="I345" r:id="rId1263" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B553E601-9459-4473-A192-3B10D64D688E}"/>
+    <hyperlink ref="M345" r:id="rId1264" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{74D28F43-B6E0-4D64-AEEF-8BD41BB53484}"/>
+    <hyperlink ref="C346" r:id="rId1265" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{81DFAEA8-A50E-40B0-BDD1-EEF85EC25FCC}"/>
+    <hyperlink ref="E346" r:id="rId1266" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{92421166-4AEE-4695-85AF-CEAED93E2E2F}"/>
+    <hyperlink ref="I346" r:id="rId1267" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{F177AF66-9B57-4AC2-9E06-34FA56D72B11}"/>
+    <hyperlink ref="M346" r:id="rId1268" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{3DC3CF58-B44B-48D1-8323-B422018EAC65}"/>
+    <hyperlink ref="C347" r:id="rId1269" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{F52FC0FC-39BB-4C3E-84DB-2DDED865D7CF}"/>
+    <hyperlink ref="E347" r:id="rId1270" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{0E15D96D-C064-48D5-9D12-E0D5345D6F62}"/>
+    <hyperlink ref="I347" r:id="rId1271" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{334D2AD9-2A88-4CB1-A3AD-8C1C1CE59671}"/>
+    <hyperlink ref="M347" r:id="rId1272" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{BC5231E7-4211-4DEF-85EC-511EE1B903C1}"/>
+    <hyperlink ref="C348" r:id="rId1273" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{5A13B234-6264-423A-95B8-E1349DAD2366}"/>
+    <hyperlink ref="E348" r:id="rId1274" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{BB5E5343-2BEC-435C-812E-0129EF00A67E}"/>
+    <hyperlink ref="I348" r:id="rId1275" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BFDED715-1A42-49CF-8CD1-06C9FAA494D5}"/>
+    <hyperlink ref="M348" r:id="rId1276" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{18C4F346-3C53-4A4F-9F26-B7A7C884F3CE}"/>
+    <hyperlink ref="C349" r:id="rId1277" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{FC6E048D-96DA-4038-9D1B-7604EFD99A31}"/>
+    <hyperlink ref="E349" r:id="rId1278" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{AF00FD51-8239-47AA-9695-96A2221169FC}"/>
+    <hyperlink ref="I349" r:id="rId1279" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{DD12FA3C-67AB-493E-BA3D-AD26569B57E3}"/>
+    <hyperlink ref="M349" r:id="rId1280" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{122050D1-F5D7-4EC1-9024-EED45C4BDC01}"/>
+    <hyperlink ref="C350" r:id="rId1281" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{645ABFD5-6B07-46F7-B9FF-F80C81C7F26C}"/>
+    <hyperlink ref="E350" r:id="rId1282" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6BA4351F-16D3-488A-89D0-794080E740BB}"/>
+    <hyperlink ref="I350" r:id="rId1283" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1287E43E-C8A3-4A01-B65D-3266C9F5C81D}"/>
+    <hyperlink ref="M350" r:id="rId1284" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{1B02A6BE-E9CE-4977-95BA-A86C3F4124B5}"/>
+    <hyperlink ref="C351" r:id="rId1285" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{3F8BD52E-C449-46F4-A762-42B2E5CB95C5}"/>
+    <hyperlink ref="E351" r:id="rId1286" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{7F92BE30-D192-43E9-B9F3-7962C6D6FDC4}"/>
+    <hyperlink ref="I351" r:id="rId1287" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{4FA98B64-EA38-4E24-B751-F70EF1CFCF25}"/>
+    <hyperlink ref="M351" r:id="rId1288" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{068EF785-8F82-4715-9353-46EDC0AD4ADF}"/>
+    <hyperlink ref="C352" r:id="rId1289" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{6857E6A8-201D-4A72-88B7-69E0060C048B}"/>
+    <hyperlink ref="E352" r:id="rId1290" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{F2BDD325-990F-47E5-A6CC-3EA47F4485E7}"/>
+    <hyperlink ref="I352" r:id="rId1291" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EBD8AC6F-ECFF-4127-80C4-F268294149CB}"/>
+    <hyperlink ref="M352" r:id="rId1292" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{6EE4AB66-4E87-4EE6-8268-ACC804470F58}"/>
+    <hyperlink ref="C353" r:id="rId1293" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{2868F941-1E9A-42A9-8250-36235B548C35}"/>
+    <hyperlink ref="E353" r:id="rId1294" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A4FA18C6-3EB2-42FE-B56F-E2A7DF6ADD00}"/>
+    <hyperlink ref="I353" r:id="rId1295" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{236F53FF-2642-48F5-98E2-909916A73604}"/>
+    <hyperlink ref="M353" r:id="rId1296" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{ED640CFF-F091-4A6B-9765-A08C99841541}"/>
+    <hyperlink ref="C355" r:id="rId1297" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{F4BFF4D4-1814-486B-BB5C-57F3888E4144}"/>
+    <hyperlink ref="E355" r:id="rId1298" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{19DB0482-0E84-4A9C-B31D-11E36CB8BB31}"/>
+    <hyperlink ref="I355" r:id="rId1299" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{984B2F25-D766-4C75-9516-7DAC161B51A9}"/>
+    <hyperlink ref="M355" r:id="rId1300" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{65FAA4DF-F3E5-427B-B157-607628AACF6C}"/>
+    <hyperlink ref="C356" r:id="rId1301" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{2ADAB5A7-491F-4997-8389-D29B47B9D0E6}"/>
+    <hyperlink ref="E356" r:id="rId1302" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{4E95357C-02E5-44CC-B9F9-86C4781ADF29}"/>
+    <hyperlink ref="I356" r:id="rId1303" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{05B77C53-8A3F-4035-9608-64BE882AF969}"/>
+    <hyperlink ref="M356" r:id="rId1304" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{D31B1DDC-E47A-4BF2-9409-B41CB950EC19}"/>
+    <hyperlink ref="C357" r:id="rId1305" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{36C3E4C9-35EF-4DF7-A982-913471D183A5}"/>
+    <hyperlink ref="E357" r:id="rId1306" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{025A31C6-3CA6-4D52-B8BF-0DDC73151C67}"/>
+    <hyperlink ref="I357" r:id="rId1307" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{52F0B901-B1F8-4D97-9B53-A147E96A61AD}"/>
+    <hyperlink ref="M357" r:id="rId1308" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{406F9BEF-2166-4FB9-99C1-487C5635FE1B}"/>
+    <hyperlink ref="C358" r:id="rId1309" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{01D50CEA-CA54-4DEA-91F0-FDFBC425FA9D}"/>
+    <hyperlink ref="E358" r:id="rId1310" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{E3C1DAD7-2F99-4056-9818-1ADA34DB1A78}"/>
+    <hyperlink ref="I358" r:id="rId1311" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{3F20CC25-EEDA-4EF0-BB4C-FA32B267CE71}"/>
+    <hyperlink ref="M358" r:id="rId1312" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{91392271-4B44-4125-9E59-FFCB7AC19473}"/>
+    <hyperlink ref="C359" r:id="rId1313" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{1E5BAC33-5785-422F-B09A-ED60B1DF636A}"/>
+    <hyperlink ref="E359" r:id="rId1314" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{97A33DE6-A01D-43A1-B5D7-55D199E44D28}"/>
+    <hyperlink ref="I359" r:id="rId1315" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{8F99F6BC-A83E-417C-BF5A-8964EE9D2FEF}"/>
+    <hyperlink ref="M359" r:id="rId1316" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{C3C0B9EA-0B06-4D56-B499-25561FF11091}"/>
+    <hyperlink ref="C360" r:id="rId1317" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{7DC7A84A-81D6-471C-A95C-E7D9FCF58644}"/>
+    <hyperlink ref="E360" r:id="rId1318" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{A7439D5F-7797-4DB8-BE1B-EC0ED97CC952}"/>
+    <hyperlink ref="I360" r:id="rId1319" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{293172A1-C9FD-4737-8C17-AB57B3DF0966}"/>
+    <hyperlink ref="M360" r:id="rId1320" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{BF695E4A-E118-41FA-9448-08392EE036C2}"/>
+    <hyperlink ref="C361" r:id="rId1321" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{F194F024-DE28-408E-935B-41E36DAC4EF0}"/>
+    <hyperlink ref="E361" r:id="rId1322" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{2FF7EFBE-C74A-4E44-AA5B-6EB2D32E2392}"/>
+    <hyperlink ref="I361" r:id="rId1323" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A94A8798-386D-4220-98BE-26F04F997F22}"/>
+    <hyperlink ref="M361" r:id="rId1324" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{E504BBD7-C3C4-479C-9C1A-C4BE5983FB2E}"/>
+    <hyperlink ref="C362" r:id="rId1325" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{CB6D96F8-C7C8-4833-9417-E3DBED951AA9}"/>
+    <hyperlink ref="E362" r:id="rId1326" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{6D837169-B7EC-4297-A79F-D2D4D7854EF2}"/>
+    <hyperlink ref="I362" r:id="rId1327" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{99D454EB-4C64-443B-BC95-85B8A6C3D348}"/>
+    <hyperlink ref="M362" r:id="rId1328" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{1AF32DE3-B472-4582-BDD9-52046CBFC742}"/>
+    <hyperlink ref="C363" r:id="rId1329" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{9731E61F-F286-471D-84D7-714C93B8F6A9}"/>
+    <hyperlink ref="E363" r:id="rId1330" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{7453C820-DF10-42AE-8316-379BFC1AD968}"/>
+    <hyperlink ref="I363" r:id="rId1331" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{598388CE-C4AA-4E25-8AC8-71BE2FF7A8A3}"/>
+    <hyperlink ref="M363" r:id="rId1332" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{BEBE1F76-EF8E-49BB-A4CD-CCFE66982D74}"/>
+    <hyperlink ref="C364" r:id="rId1333" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{BFBD3A46-A57F-48E8-A6C5-6018C605B4AF}"/>
+    <hyperlink ref="E364" r:id="rId1334" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{1FC5C4C8-FE5C-47CD-AD1D-61C624A0976D}"/>
+    <hyperlink ref="I364" r:id="rId1335" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7AE850DA-1523-45AD-A588-F05893767E6D}"/>
+    <hyperlink ref="M364" r:id="rId1336" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{111F4FA0-0849-46E9-87B9-DB2C415B9917}"/>
+    <hyperlink ref="C366" r:id="rId1337" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{1754A468-5165-4E46-B949-C4C23D7D1E03}"/>
+    <hyperlink ref="E366" r:id="rId1338" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7275D972-AD9E-4042-9A5B-833A2CDE39DA}"/>
+    <hyperlink ref="I366" r:id="rId1339" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BE3DEE30-3A0D-497E-AA92-C890E78865C5}"/>
+    <hyperlink ref="M366" r:id="rId1340" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{F9D7E4C8-990E-4DA2-B59D-326A3A534A26}"/>
+    <hyperlink ref="C367" r:id="rId1341" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{535F6FDA-F61C-4B48-8579-08838280D487}"/>
+    <hyperlink ref="E367" r:id="rId1342" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{36840079-9620-47D0-99F6-A40CA6ECF3E6}"/>
+    <hyperlink ref="I367" r:id="rId1343" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4ECFE800-E685-4AD5-B006-BC003BCDF5A3}"/>
+    <hyperlink ref="M367" r:id="rId1344" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{0D35C3FF-00BE-4479-89FF-5E65BC5E99F3}"/>
+    <hyperlink ref="C368" r:id="rId1345" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{A23BAC87-3146-40B7-85D9-473EF34BBF66}"/>
+    <hyperlink ref="E368" r:id="rId1346" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1B221215-8AF7-4678-B522-8A1A50E7F8A3}"/>
+    <hyperlink ref="I368" r:id="rId1347" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{50CBBB07-4513-4C4E-AC28-F39298D0E4C5}"/>
+    <hyperlink ref="M368" r:id="rId1348" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{4EA88DB6-0CBB-4381-98A8-11790B78E7A7}"/>
+    <hyperlink ref="C369" r:id="rId1349" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{57D92EE6-CC77-484B-A85D-F4829F9778C5}"/>
+    <hyperlink ref="E369" r:id="rId1350" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{8EB327B6-82E9-4C0B-B407-CBE0BC3610FA}"/>
+    <hyperlink ref="I369" r:id="rId1351" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{9EF0F722-9540-40E5-8FCD-341A39CB7338}"/>
+    <hyperlink ref="M369" r:id="rId1352" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{529178BA-2EDE-4A12-8526-57629363063F}"/>
+    <hyperlink ref="C370" r:id="rId1353" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{2CF888BD-6356-4831-B1B0-CE5294C0A238}"/>
+    <hyperlink ref="E370" r:id="rId1354" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D7578946-A877-49DF-8EE6-7FBB3585B30E}"/>
+    <hyperlink ref="I370" r:id="rId1355" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{4C968057-B2C7-44A7-B3B6-C8A6BFDC9641}"/>
+    <hyperlink ref="M370" r:id="rId1356" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{7D7E48E0-2976-433E-B98D-C76BD1F81C35}"/>
+    <hyperlink ref="C371" r:id="rId1357" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{936C869C-5B24-470D-B293-7CB242773EA2}"/>
+    <hyperlink ref="E371" r:id="rId1358" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{092A1D89-7A05-4023-B934-335E610127CD}"/>
+    <hyperlink ref="I371" r:id="rId1359" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{1402CCAF-18B9-4BE1-9AC3-70DB258178CF}"/>
+    <hyperlink ref="M371" r:id="rId1360" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{23D034C5-F972-4A08-B0A8-F4655DE56D20}"/>
+    <hyperlink ref="C372" r:id="rId1361" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{F958EC75-2624-4399-9BFD-6E0915EBC2E9}"/>
+    <hyperlink ref="E372" r:id="rId1362" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{15B96EA1-F050-450E-A978-3BC89EB02A61}"/>
+    <hyperlink ref="I372" r:id="rId1363" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{9C42B171-8273-4849-B4B0-E8D94068DC55}"/>
+    <hyperlink ref="M372" r:id="rId1364" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{CDACCEF2-F182-4468-B8C4-83388EEB248F}"/>
+    <hyperlink ref="C373" r:id="rId1365" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{C4709107-0D73-42A9-87AC-CD25FD4453FE}"/>
+    <hyperlink ref="E373" r:id="rId1366" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{053DE97D-04CE-48CC-B2C1-FF8B72F365AA}"/>
+    <hyperlink ref="I373" r:id="rId1367" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{06CC009E-BBC5-450C-B102-A5B6E331C6D8}"/>
+    <hyperlink ref="M373" r:id="rId1368" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{9502E562-A7D4-4A43-A333-24FB3A2DFB78}"/>
+    <hyperlink ref="C374" r:id="rId1369" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{A227FF9A-913E-4B91-9154-794E0D8B5957}"/>
+    <hyperlink ref="E374" r:id="rId1370" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{4D3416C5-E70A-49C2-AAB8-9FBFF5EC2808}"/>
+    <hyperlink ref="I374" r:id="rId1371" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{19F4C14B-DB34-4D28-BE0D-276F5D125581}"/>
+    <hyperlink ref="M374" r:id="rId1372" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{EF8FEC5F-CC18-4C45-9A5E-87C995008F7C}"/>
+    <hyperlink ref="C375" r:id="rId1373" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{EF277158-0F66-415C-9EA7-A7559A1C2FEC}"/>
+    <hyperlink ref="E375" r:id="rId1374" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{0FB7E065-F3AB-491B-84CB-A764411E755D}"/>
+    <hyperlink ref="I375" r:id="rId1375" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{DF561899-F0F0-49A7-8CED-058F17288750}"/>
+    <hyperlink ref="M375" r:id="rId1376" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{51E3DC41-31E9-439B-B7CD-C29047E31085}"/>
+    <hyperlink ref="C377" r:id="rId1377" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{823BE257-9166-4A68-9524-8D39DA2E8027}"/>
+    <hyperlink ref="E377" r:id="rId1378" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{D09729A9-B4A6-4792-86B6-0055B90CFA38}"/>
+    <hyperlink ref="I377" r:id="rId1379" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{6436F20E-9B95-449B-AFCC-04980D9864C6}"/>
+    <hyperlink ref="M377" r:id="rId1380" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{89AC588B-A2F6-46E2-8E78-BE9DA1DAADC4}"/>
+    <hyperlink ref="C378" r:id="rId1381" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{6C6DCE21-2E21-4499-B9AA-5FBD3793677F}"/>
+    <hyperlink ref="E378" r:id="rId1382" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{268C30E9-6D26-4641-8EF4-B2828A2BEEFA}"/>
+    <hyperlink ref="I378" r:id="rId1383" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{8DA78B99-8C97-42A7-9A57-98C9D977684C}"/>
+    <hyperlink ref="M378" r:id="rId1384" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{CCDE121C-4F47-4B8A-B680-DA9BEF4D2C5A}"/>
+    <hyperlink ref="C379" r:id="rId1385" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{86C08F23-65A2-4891-9D66-A9A0C7AB8407}"/>
+    <hyperlink ref="E379" r:id="rId1386" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{8A625E35-0669-4692-BFCB-D43A93EC39A0}"/>
+    <hyperlink ref="I379" r:id="rId1387" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7B89DC9D-DA4D-4E6B-AB9C-A4005CB848D3}"/>
+    <hyperlink ref="M379" r:id="rId1388" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{F3D60557-8B08-4A9C-9099-ED14FE51178C}"/>
+    <hyperlink ref="C380" r:id="rId1389" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{C77CA334-764A-4D2B-AE83-8A0DC4B50BEB}"/>
+    <hyperlink ref="E380" r:id="rId1390" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{122E3164-9E9F-4AC4-BC5D-B569AA520112}"/>
+    <hyperlink ref="I380" r:id="rId1391" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EB463219-1D41-4F76-B1BC-17ACC4C9C665}"/>
+    <hyperlink ref="M380" r:id="rId1392" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{F9AAB88D-6150-4BB2-A51C-554F32AB22EA}"/>
+    <hyperlink ref="C381" r:id="rId1393" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{3F89CB81-BAF5-492C-95D2-F4DE7BBEBA71}"/>
+    <hyperlink ref="E381" r:id="rId1394" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{12EC2E81-B530-4ED9-8CDE-B29B448B17C6}"/>
+    <hyperlink ref="I381" r:id="rId1395" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{E2B0691F-F141-42CF-B83D-6C93193B9A09}"/>
+    <hyperlink ref="M381" r:id="rId1396" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{81B3A2F7-6A20-4BFF-AE51-A2FB4A15C9F0}"/>
+    <hyperlink ref="C382" r:id="rId1397" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{B50A4E43-07A5-4E29-B4BF-F97F8E4E47A8}"/>
+    <hyperlink ref="E382" r:id="rId1398" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{127D7BB4-FE65-4FCC-B738-BE022AC2ACA6}"/>
+    <hyperlink ref="I382" r:id="rId1399" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2760331C-9F5D-4EDC-8138-C87B55297A08}"/>
+    <hyperlink ref="M382" r:id="rId1400" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{A95B1718-37AE-4D1B-A6F8-074AAAEE15BD}"/>
+    <hyperlink ref="C383" r:id="rId1401" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{A170FFF2-ED21-477B-8C84-2CB57ED11C2B}"/>
+    <hyperlink ref="E383" r:id="rId1402" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{9696019C-08C7-4B9E-83A4-218E690D6F8C}"/>
+    <hyperlink ref="I383" r:id="rId1403" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{74E42DB7-72BA-4C4A-8474-3FA2952EA4A4}"/>
+    <hyperlink ref="M383" r:id="rId1404" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{2D337125-5ACF-4805-88DD-FFE2CA473FE1}"/>
+    <hyperlink ref="C384" r:id="rId1405" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{26F3D634-5F83-410D-93F1-A23A441FDB9C}"/>
+    <hyperlink ref="E384" r:id="rId1406" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0904FD0E-439B-4F5F-B112-8BED3F8728B9}"/>
+    <hyperlink ref="I384" r:id="rId1407" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A744FA7F-9A31-42AD-8458-9C65B4EC127A}"/>
+    <hyperlink ref="M384" r:id="rId1408" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{B58E9B98-4EF9-40A2-B3AD-136A608A3506}"/>
+    <hyperlink ref="C385" r:id="rId1409" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{12D5292B-A3BB-4F01-AE30-C80D7EA94232}"/>
+    <hyperlink ref="E385" r:id="rId1410" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8B9DEFB3-AA67-467A-BC4E-1CE3C74BDC90}"/>
+    <hyperlink ref="I385" r:id="rId1411" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{885C934F-A056-4E4C-95E6-E38A212B51A5}"/>
+    <hyperlink ref="M385" r:id="rId1412" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{1A0536B6-340E-4230-BF6C-4F330709CF4B}"/>
+    <hyperlink ref="C386" r:id="rId1413" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{1A46019D-47D4-4F2C-BCD1-CBFBC14917FF}"/>
+    <hyperlink ref="E386" r:id="rId1414" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{830C6DBE-013C-4BC7-A45F-061DF2D33EC6}"/>
+    <hyperlink ref="I386" r:id="rId1415" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{3770261A-D0AA-4C13-A7FF-05E6B7BE113D}"/>
+    <hyperlink ref="M386" r:id="rId1416" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{544C5A22-0405-4B08-9DF3-49D1C47E749E}"/>
+    <hyperlink ref="C388" r:id="rId1417" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{98C7720D-BC93-4B75-BE32-76449F5E2458}"/>
+    <hyperlink ref="E388" r:id="rId1418" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A32D0F1A-E567-4607-9542-179DA8F7EB58}"/>
+    <hyperlink ref="I388" r:id="rId1419" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{3D9A0EAF-AA7C-4832-A574-209371B17DFE}"/>
+    <hyperlink ref="M388" r:id="rId1420" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{943E6754-2B2A-4F0A-92FD-EC5FBE3E4AB5}"/>
+    <hyperlink ref="C389" r:id="rId1421" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{645F25D8-0666-4469-8C82-3ABF08EF6879}"/>
+    <hyperlink ref="E389" r:id="rId1422" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{AC16AD4B-2FA6-4DD4-BBC9-69A7A6BC2A0A}"/>
+    <hyperlink ref="I389" r:id="rId1423" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{2278518C-91EB-4EED-A80C-295D1B5C48AA}"/>
+    <hyperlink ref="M389" r:id="rId1424" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{9D0BCA80-73AE-4386-8821-6F42E81E51F0}"/>
+    <hyperlink ref="C390" r:id="rId1425" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{AAEFC21D-DAD2-4C43-869D-709C8738BC83}"/>
+    <hyperlink ref="E390" r:id="rId1426" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{3CA5F858-E5A0-43B2-8B10-FF705CF3F309}"/>
+    <hyperlink ref="I390" r:id="rId1427" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{E0EA5FBD-2FEE-42D2-87BB-4B953984904D}"/>
+    <hyperlink ref="M390" r:id="rId1428" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{1525C1F9-37A2-4C81-81B1-3CCDDB0259D3}"/>
+    <hyperlink ref="C391" r:id="rId1429" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{AEA5DFF9-7A83-4546-AA51-094CE955FB3B}"/>
+    <hyperlink ref="E391" r:id="rId1430" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{353D1355-1DA2-4FEC-A461-A3995786DC08}"/>
+    <hyperlink ref="I391" r:id="rId1431" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1C144F48-0659-49E6-AB96-0468B5C20978}"/>
+    <hyperlink ref="M391" r:id="rId1432" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{86370A17-66C8-49E2-AA94-FDE9EAD60570}"/>
+    <hyperlink ref="C392" r:id="rId1433" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{35615B02-3DAD-4729-AA42-020B9947E60C}"/>
+    <hyperlink ref="E392" r:id="rId1434" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CFA6F3A5-271D-488C-8197-0ECE5FA80804}"/>
+    <hyperlink ref="I392" r:id="rId1435" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{86F48F9A-9989-48DE-B706-38ED20B90E04}"/>
+    <hyperlink ref="M392" r:id="rId1436" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{DD4A6DD0-EF3F-4C6B-8370-5AE766B5533D}"/>
+    <hyperlink ref="C393" r:id="rId1437" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{9B086061-6806-4B07-92DA-FF706DC0D885}"/>
+    <hyperlink ref="E393" r:id="rId1438" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{DCE1117C-D9D4-4BDF-B4EB-58F3E9C944F9}"/>
+    <hyperlink ref="I393" r:id="rId1439" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{EFEBA5CB-3993-4CFA-9A1E-71431F77F9C9}"/>
+    <hyperlink ref="M393" r:id="rId1440" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{5CE89210-9402-41FD-B880-F33FFD5E90AC}"/>
+    <hyperlink ref="C394" r:id="rId1441" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{CF9AAD3B-1558-4EE8-B03D-9E909BD91E34}"/>
+    <hyperlink ref="E394" r:id="rId1442" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{73D09C0D-B84C-47BD-AF7B-C43CBFD8FDC6}"/>
+    <hyperlink ref="I394" r:id="rId1443" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B766254D-5F1D-41B5-BB38-2C1CBE5DD60A}"/>
+    <hyperlink ref="M394" r:id="rId1444" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{81C3E4C1-12B5-4EDA-88B4-8D8472381EAD}"/>
+    <hyperlink ref="C395" r:id="rId1445" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{3CFD8D53-4F75-4AB2-ACBE-540F3DD4EF0A}"/>
+    <hyperlink ref="E395" r:id="rId1446" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2AAB3172-C1F0-4BD4-9CC4-4DE3E9C8C4CE}"/>
+    <hyperlink ref="I395" r:id="rId1447" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{71A36F0B-D0EA-4F26-BC59-609011AC486C}"/>
+    <hyperlink ref="M395" r:id="rId1448" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{BFD9F569-9295-4B25-8BAB-D88271F04DC9}"/>
+    <hyperlink ref="C396" r:id="rId1449" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{EE2B1796-9960-4B3D-9E80-F7485C9A3C30}"/>
+    <hyperlink ref="E396" r:id="rId1450" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5988B184-2C17-4E85-97BD-7E8E9792BA80}"/>
+    <hyperlink ref="I396" r:id="rId1451" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B9E13071-FD28-4BBD-AACC-A62224C70263}"/>
+    <hyperlink ref="M396" r:id="rId1452" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{31B596F5-2DD7-40FA-9BE8-E27674566655}"/>
+    <hyperlink ref="C397" r:id="rId1453" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{BDF9F9A8-A196-4C02-9A12-898EE56780BD}"/>
+    <hyperlink ref="E397" r:id="rId1454" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{E3875DCC-2DC6-463D-8BCF-9A5940555E8B}"/>
+    <hyperlink ref="I397" r:id="rId1455" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{F9FBE6C1-5956-4A2B-A531-8C03698C8F98}"/>
+    <hyperlink ref="M397" r:id="rId1456" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{78332032-1B6B-488A-9F25-B77C41C2BA03}"/>
+    <hyperlink ref="C399" r:id="rId1457" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{F45B0605-2753-4BB7-ACB7-5E36D2D80CDB}"/>
+    <hyperlink ref="E399" r:id="rId1458" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{60189F7A-E503-4E4D-90FE-6E9CC9E0B415}"/>
+    <hyperlink ref="I399" r:id="rId1459" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{26378CBA-1D34-4733-9072-2124F9594C95}"/>
+    <hyperlink ref="M399" r:id="rId1460" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{F96480C6-DDDC-4494-A51B-53871C04036B}"/>
+    <hyperlink ref="C400" r:id="rId1461" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{DFEEB464-2F85-4BA2-B1B9-45570091BE1F}"/>
+    <hyperlink ref="E400" r:id="rId1462" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6DCEB7A8-F432-4596-8F0E-C3F3C80C46AF}"/>
+    <hyperlink ref="I400" r:id="rId1463" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7E59C5A7-5523-4432-AC00-706F5DFAEE40}"/>
+    <hyperlink ref="M400" r:id="rId1464" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{C92746C0-4D72-43E1-9872-0DAEE29AF3FC}"/>
+    <hyperlink ref="C401" r:id="rId1465" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{B6458241-FDE1-4467-A877-EF494ECA7758}"/>
+    <hyperlink ref="E401" r:id="rId1466" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{010ECA1E-3747-4F06-B71B-6C0D3361C95F}"/>
+    <hyperlink ref="I401" r:id="rId1467" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{E40BBD90-0EF2-4993-A60A-6E4C60F2E72F}"/>
+    <hyperlink ref="M401" r:id="rId1468" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{60D52C7D-F175-4884-BA6B-0451DBC3E87A}"/>
+    <hyperlink ref="C402" r:id="rId1469" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{7B76074B-0C1C-4C8D-B8DF-4AA6D6D92C7A}"/>
+    <hyperlink ref="E402" r:id="rId1470" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{5F052449-3DE5-4831-9811-0765CFF639A6}"/>
+    <hyperlink ref="I402" r:id="rId1471" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{97D06BD8-9AAB-402C-82F8-11FD8BE98EBE}"/>
+    <hyperlink ref="M402" r:id="rId1472" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{74439147-FB16-45B5-B1F8-FD5940E23CBA}"/>
+    <hyperlink ref="C403" r:id="rId1473" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{AE89DE1E-B630-438E-924B-7DEC26665E36}"/>
+    <hyperlink ref="E403" r:id="rId1474" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{542A0347-8C14-486C-AAD2-C762B38AE583}"/>
+    <hyperlink ref="I403" r:id="rId1475" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{CD54A702-F1CC-4DDA-B806-85B2942F9230}"/>
+    <hyperlink ref="M403" r:id="rId1476" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{F3970A4B-95B0-47A6-A97B-2974D6C1C238}"/>
+    <hyperlink ref="C404" r:id="rId1477" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{7A5E46BA-9067-46B0-83B2-20DB1A426356}"/>
+    <hyperlink ref="E404" r:id="rId1478" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{3A19F8AA-4EAD-4F41-997A-A7F27DA181CC}"/>
+    <hyperlink ref="I404" r:id="rId1479" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{529BE405-E781-4747-BE44-5FB40AF4C69B}"/>
+    <hyperlink ref="M404" r:id="rId1480" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{22A56890-793E-4B88-B190-636C0F6A2CC6}"/>
+    <hyperlink ref="C405" r:id="rId1481" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{04453125-9BE0-467E-9AD4-04755B4E8E18}"/>
+    <hyperlink ref="E405" r:id="rId1482" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{3B6A771C-CE79-4F8A-8752-C2990B9D81C6}"/>
+    <hyperlink ref="I405" r:id="rId1483" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5BF27FB8-1D62-4615-B1A2-0FBA8E466377}"/>
+    <hyperlink ref="M405" r:id="rId1484" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{E6E31C35-9BD6-4D8A-B00D-FADDAC7F3147}"/>
+    <hyperlink ref="C406" r:id="rId1485" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{FAC78355-E325-4F14-A08F-6232CC8F47D2}"/>
+    <hyperlink ref="E406" r:id="rId1486" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B55CC598-E0EB-457F-AA1F-45D56A670AD9}"/>
+    <hyperlink ref="I406" r:id="rId1487" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EDF9DBFE-691A-46C1-B583-783BDE5A0C6C}"/>
+    <hyperlink ref="M406" r:id="rId1488" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{F4CA47A1-4DEB-480D-86F2-68A199C49FBA}"/>
+    <hyperlink ref="C407" r:id="rId1489" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{A3715E22-64E6-4E63-8072-08A12404EA8E}"/>
+    <hyperlink ref="E407" r:id="rId1490" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{5AF58831-2C21-44A5-AACC-065D24E25ECA}"/>
+    <hyperlink ref="I407" r:id="rId1491" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{93E2EF9B-B79B-4D02-9DF0-9307AE586C28}"/>
+    <hyperlink ref="M407" r:id="rId1492" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{719C5851-E8FD-477D-8738-06337019A789}"/>
+    <hyperlink ref="C408" r:id="rId1493" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{A235E668-70DC-4D78-89C8-17A2BE190DAB}"/>
+    <hyperlink ref="E408" r:id="rId1494" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1A9F6270-80F0-4D2D-8EC5-2AB80BFCFEB5}"/>
+    <hyperlink ref="I408" r:id="rId1495" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F1215604-2A73-4C8E-8BC4-02D300B05F20}"/>
+    <hyperlink ref="M408" r:id="rId1496" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{511069AF-4123-465B-B9F0-64098104EF86}"/>
+    <hyperlink ref="C410" r:id="rId1497" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{200E574D-8116-4516-A0BF-60CB0B291A6A}"/>
+    <hyperlink ref="E410" r:id="rId1498" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A685AF31-47F5-4947-9395-ECEE5A9401EF}"/>
+    <hyperlink ref="I410" r:id="rId1499" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8CA5B932-C3AD-485D-8E1B-62D2BB3E4B1B}"/>
+    <hyperlink ref="M410" r:id="rId1500" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{0FD95241-5F59-4ECF-B8A7-4700ED92B659}"/>
+    <hyperlink ref="C411" r:id="rId1501" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{80BDD8CF-742E-42AC-93F1-41E412CF02CA}"/>
+    <hyperlink ref="E411" r:id="rId1502" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D37543AC-BFF9-40C3-A441-16EB010C7CED}"/>
+    <hyperlink ref="I411" r:id="rId1503" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{8BADF48B-B1C1-48EF-B282-A49450087EC1}"/>
+    <hyperlink ref="M411" r:id="rId1504" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{56590555-A7AC-4458-B9B2-D510D4703939}"/>
+    <hyperlink ref="C412" r:id="rId1505" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{D25A09F3-52EA-4576-AAA1-140F958C4CCC}"/>
+    <hyperlink ref="E412" r:id="rId1506" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B9A6D64E-842D-47FE-AFAD-949B3CEF8539}"/>
+    <hyperlink ref="I412" r:id="rId1507" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{2D17F9AD-79E3-4E04-9D81-84E6F13A397B}"/>
+    <hyperlink ref="M412" r:id="rId1508" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{8261300B-4BD1-4314-B95A-06B256FFBDC1}"/>
+    <hyperlink ref="C413" r:id="rId1509" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{52FD8D12-B29B-4D8D-8907-38947CFE08F1}"/>
+    <hyperlink ref="E413" r:id="rId1510" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5938CD71-E0F7-497A-981E-1DE77AB46153}"/>
+    <hyperlink ref="I413" r:id="rId1511" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{ED7DBEBF-0662-463F-9F78-FEDB54CEE538}"/>
+    <hyperlink ref="M413" r:id="rId1512" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{C9F9A14D-DCEB-4F5B-9EED-FCBAEE23E9E3}"/>
+    <hyperlink ref="C414" r:id="rId1513" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{7623703B-3655-4D8A-B1A9-D2B0E36D969C}"/>
+    <hyperlink ref="E414" r:id="rId1514" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{296EFD01-1B6E-4764-89F9-52BD870E2D6B}"/>
+    <hyperlink ref="I414" r:id="rId1515" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C83E53F1-5EC7-443C-875C-176E74F1F6B6}"/>
+    <hyperlink ref="M414" r:id="rId1516" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{FCBC5EA3-A2EF-4463-BBE2-9A77E9F6EE2C}"/>
+    <hyperlink ref="C415" r:id="rId1517" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{B07E952B-08D7-4BBC-BFF1-719D5732AB0B}"/>
+    <hyperlink ref="E415" r:id="rId1518" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{AF71E89C-A1AC-4DFA-A0D6-913907454751}"/>
+    <hyperlink ref="I415" r:id="rId1519" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{35FDBCC0-B456-4A14-93AA-779C7DA918D2}"/>
+    <hyperlink ref="M415" r:id="rId1520" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{BDA72BA5-089E-47A4-8897-86C572C8E977}"/>
+    <hyperlink ref="C416" r:id="rId1521" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{0D236E72-53E1-46AC-B87A-672946921696}"/>
+    <hyperlink ref="E416" r:id="rId1522" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{5D0BCAA3-35EB-47DB-AAB4-4EB082417753}"/>
+    <hyperlink ref="I416" r:id="rId1523" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{58C63B34-4A5A-490B-BACE-75367A4E7759}"/>
+    <hyperlink ref="M416" r:id="rId1524" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{274B6621-9039-44C5-9D6C-D9DB3F4386EC}"/>
+    <hyperlink ref="C417" r:id="rId1525" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{80138069-840C-4032-9E96-A09236F7D2C5}"/>
+    <hyperlink ref="E417" r:id="rId1526" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{0243754B-22A2-4FA8-8043-3103A2570CC4}"/>
+    <hyperlink ref="I417" r:id="rId1527" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{86C0C82E-140E-4567-8F53-037EC6A94E45}"/>
+    <hyperlink ref="M417" r:id="rId1528" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{0771686C-4F2A-4E93-97B7-7797A1F3A5C3}"/>
+    <hyperlink ref="C418" r:id="rId1529" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{070BD3B0-6D15-417D-80F7-A631BE2A3FA9}"/>
+    <hyperlink ref="E418" r:id="rId1530" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{188E3866-1960-43AF-AD4F-BB01F0B232B0}"/>
+    <hyperlink ref="I418" r:id="rId1531" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{3EAF4D97-7F1A-4A13-B865-61F8D841F3FB}"/>
+    <hyperlink ref="M418" r:id="rId1532" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{DBCDF91B-C166-42AD-A877-134955AAABFE}"/>
+    <hyperlink ref="C419" r:id="rId1533" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{AE6A4E3B-6C5D-4A0B-9D75-3C9BF64DDAA6}"/>
+    <hyperlink ref="E419" r:id="rId1534" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{61635B50-E9F9-42C0-AAF1-685595A9F700}"/>
+    <hyperlink ref="I419" r:id="rId1535" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{88A48D07-BF2D-46A6-B585-BC35FA05D33B}"/>
+    <hyperlink ref="M419" r:id="rId1536" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{A61DC81F-8F44-47AB-B0BD-D56954403929}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1531"/>
+  <pageSetup orientation="portrait" r:id="rId1537"/>
 </worksheet>
 </file>
--- a/Fixtures/Fixtures_2021_2022.xlsx
+++ b/Fixtures/Fixtures_2021_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabzu\Documents\All EPL Project Files\Fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFEFBC-CC7C-4AC5-A52A-396756C0C18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18058B8F-A8B0-4512-B056-6E6A05C7669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CC4F3B36-7531-43AE-9A50-CC7491D1709F}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="92">
   <si>
     <r>
       <t xml:space="preserve">Scores &amp; Fixtures </t>
@@ -322,6 +322,27 @@
   </si>
   <si>
     <t>Darren England</t>
+  </si>
+  <si>
+    <t>1–1</t>
+  </si>
+  <si>
+    <t>0–1</t>
+  </si>
+  <si>
+    <t>Stuart Attwell</t>
+  </si>
+  <si>
+    <t>0–2</t>
+  </si>
+  <si>
+    <t>4–1</t>
+  </si>
+  <si>
+    <t>Robert Jones</t>
+  </si>
+  <si>
+    <t>Peter Bankes</t>
   </si>
 </sst>
 </file>
@@ -762,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFE420-F7C2-4EF7-A9BA-117B3EE752CE}">
   <dimension ref="A1:N419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1478,7 +1499,9 @@
       <c r="I18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="8">
+        <v>36293</v>
+      </c>
       <c r="K18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1548,19 +1571,29 @@
       <c r="E20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="F20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.5</v>
+      </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="8">
+        <v>32000</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="M20" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N20" s="2"/>
     </row>
@@ -1580,19 +1613,29 @@
       <c r="E21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.5</v>
+      </c>
       <c r="I21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="8">
+        <v>30368</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="M21" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N21" s="2"/>
     </row>
@@ -1612,19 +1655,29 @@
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="F22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.9</v>
+      </c>
       <c r="I22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="8">
+        <v>58729</v>
+      </c>
       <c r="K22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="M22" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N22" s="2"/>
     </row>
@@ -1644,19 +1697,29 @@
       <c r="E23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="F23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.8</v>
+      </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="8">
+        <v>59901</v>
+      </c>
       <c r="K23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M23" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N23" s="2"/>
     </row>
@@ -1692,19 +1755,29 @@
       <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="F25" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="8">
+        <v>52276</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="M25" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N25" s="2"/>
     </row>
@@ -1724,19 +1797,29 @@
       <c r="E26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="F26" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.3</v>
+      </c>
       <c r="I26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="8">
+        <v>26765</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="M26" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N26" s="2"/>
     </row>
@@ -1756,9 +1839,15 @@
       <c r="E27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="F27" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.7</v>
+      </c>
       <c r="I27" s="5" t="s">
         <v>33</v>
       </c>
@@ -1766,9 +1855,11 @@
       <c r="K27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="M27" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N27" s="2"/>
     </row>
@@ -1788,9 +1879,15 @@
       <c r="E28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="F28" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3.6</v>
+      </c>
       <c r="I28" s="5" t="s">
         <v>36</v>
       </c>
@@ -1798,9 +1895,11 @@
       <c r="K28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="M28" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N28" s="2"/>
     </row>
@@ -1820,19 +1919,29 @@
       <c r="E29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="F29" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1.2</v>
+      </c>
       <c r="I29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="8">
+        <v>42045</v>
+      </c>
       <c r="K29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="M29" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N29" s="2"/>
     </row>
@@ -1852,9 +1961,15 @@
       <c r="E30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.6</v>
+      </c>
       <c r="I30" s="5" t="s">
         <v>35</v>
       </c>
@@ -1862,9 +1977,11 @@
       <c r="K30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="M30" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N30" s="2"/>
     </row>
@@ -1884,9 +2001,15 @@
       <c r="E31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="F31" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.8</v>
+      </c>
       <c r="I31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1894,9 +2017,11 @@
       <c r="K31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="M31" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N31" s="2"/>
     </row>
@@ -1916,19 +2041,29 @@
       <c r="E32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="F32" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.6</v>
+      </c>
       <c r="I32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="8">
+        <v>57672</v>
+      </c>
       <c r="K32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="M32" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N32" s="2"/>
     </row>
@@ -1948,9 +2083,15 @@
       <c r="E33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="F33" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.5</v>
+      </c>
       <c r="I33" s="5" t="s">
         <v>21</v>
       </c>
@@ -1958,9 +2099,11 @@
       <c r="K33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M33" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N33" s="2"/>
     </row>
@@ -1980,9 +2123,15 @@
       <c r="E34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="F34" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.6</v>
+      </c>
       <c r="I34" s="5" t="s">
         <v>20</v>
       </c>
@@ -1990,9 +2139,11 @@
       <c r="K34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="M34" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N34" s="2"/>
     </row>
@@ -2122,17 +2273,17 @@
         <v>0.625</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="5" t="s">
@@ -2154,17 +2305,17 @@
         <v>0.625</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="5" t="s">
@@ -2762,17 +2913,17 @@
         <v>0.625</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="5" t="s">
@@ -2794,17 +2945,17 @@
         <v>0.625</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="5" t="s">
@@ -3066,17 +3217,17 @@
         <v>0.625</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="5" t="s">
@@ -3098,17 +3249,17 @@
         <v>0.625</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="5" t="s">
@@ -3162,17 +3313,17 @@
         <v>0.625</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="5" t="s">
@@ -3194,17 +3345,17 @@
         <v>0.625</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="5" t="s">
@@ -3402,17 +3553,17 @@
         <v>0.625</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="5" t="s">
@@ -3434,17 +3585,17 @@
         <v>0.625</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="5" t="s">
@@ -3770,17 +3921,17 @@
         <v>0.625</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="5" t="s">
@@ -3802,17 +3953,17 @@
         <v>0.625</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="5" t="s">
@@ -4506,17 +4657,17 @@
         <v>0.625</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="5" t="s">
@@ -4538,17 +4689,17 @@
         <v>0.625</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="5" t="s">
@@ -4810,17 +4961,17 @@
         <v>0.625</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="5" t="s">
@@ -4842,17 +4993,17 @@
         <v>0.625</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="5" t="s">
@@ -5114,17 +5265,17 @@
         <v>0.625</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="5" t="s">
@@ -5146,17 +5297,17 @@
         <v>0.625</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="5" t="s">
@@ -5210,17 +5361,17 @@
         <v>0.625</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="5" t="s">
@@ -5242,17 +5393,17 @@
         <v>0.625</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="5" t="s">
@@ -5274,17 +5425,17 @@
         <v>0.625</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="5" t="s">
@@ -5306,17 +5457,17 @@
         <v>0.625</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="5" t="s">
@@ -5386,17 +5537,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="5" t="s">
@@ -5418,17 +5569,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="5" t="s">
@@ -5450,17 +5601,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="5" t="s">
@@ -5482,17 +5633,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="5" t="s">
@@ -5882,17 +6033,17 @@
         <v>0.625</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="5" t="s">
@@ -5914,17 +6065,17 @@
         <v>0.625</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="5" t="s">
@@ -5946,17 +6097,17 @@
         <v>0.625</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="5" t="s">
@@ -5978,17 +6129,17 @@
         <v>0.625</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="5" t="s">
@@ -6090,17 +6241,17 @@
         <v>0.625</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="5" t="s">
@@ -6122,17 +6273,17 @@
         <v>0.625</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="5" t="s">
@@ -6218,17 +6369,17 @@
         <v>0.625</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L173" s="2"/>
       <c r="M173" s="5" t="s">
@@ -6250,17 +6401,17 @@
         <v>0.625</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="5" t="s">
@@ -6282,17 +6433,17 @@
         <v>0.625</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L175" s="2"/>
       <c r="M175" s="5" t="s">
@@ -6314,17 +6465,17 @@
         <v>0.625</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="5" t="s">
@@ -6346,17 +6497,17 @@
         <v>0.625</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="5" t="s">
@@ -6394,17 +6545,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="L179" s="2"/>
       <c r="M179" s="5" t="s">
@@ -6426,17 +6577,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="5" t="s">
@@ -6522,17 +6673,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="5" t="s">
@@ -6554,17 +6705,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J184" s="2"/>
       <c r="K184" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L184" s="2"/>
       <c r="M184" s="5" t="s">
@@ -6618,17 +6769,17 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="5" t="s">
@@ -6650,17 +6801,17 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="5" t="s">
@@ -6922,17 +7073,17 @@
         <v>0.625</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J196" s="2"/>
       <c r="K196" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="5" t="s">
@@ -6954,17 +7105,17 @@
         <v>0.625</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J197" s="2"/>
       <c r="K197" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L197" s="2"/>
       <c r="M197" s="5" t="s">
@@ -7098,17 +7249,17 @@
         <v>0.625</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J202" s="2"/>
       <c r="K202" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L202" s="2"/>
       <c r="M202" s="5" t="s">
@@ -7130,17 +7281,17 @@
         <v>0.625</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J203" s="2"/>
       <c r="K203" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L203" s="2"/>
       <c r="M203" s="5" t="s">
@@ -7226,17 +7377,17 @@
         <v>0.625</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J206" s="2"/>
       <c r="K206" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L206" s="2"/>
       <c r="M206" s="5" t="s">
@@ -7258,17 +7409,17 @@
         <v>0.625</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L207" s="2"/>
       <c r="M207" s="5" t="s">
@@ -7290,17 +7441,17 @@
         <v>0.625</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J208" s="2"/>
       <c r="K208" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L208" s="2"/>
       <c r="M208" s="5" t="s">
@@ -7658,17 +7809,17 @@
         <v>0.625</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J220" s="2"/>
       <c r="K220" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L220" s="2"/>
       <c r="M220" s="5" t="s">
@@ -7690,17 +7841,17 @@
         <v>0.625</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J221" s="2"/>
       <c r="K221" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L221" s="2"/>
       <c r="M221" s="5" t="s">
@@ -8746,17 +8897,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="I256" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J256" s="2"/>
       <c r="K256" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L256" s="2"/>
       <c r="M256" s="5" t="s">
@@ -8778,17 +8929,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="I257" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J257" s="2"/>
       <c r="K257" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L257" s="2"/>
       <c r="M257" s="5" t="s">
@@ -8810,17 +8961,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J258" s="2"/>
       <c r="K258" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L258" s="2"/>
       <c r="M258" s="5" t="s">
@@ -8842,17 +8993,17 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J259" s="2"/>
       <c r="K259" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L259" s="2"/>
       <c r="M259" s="5" t="s">
@@ -9274,17 +9425,17 @@
         <v>0.625</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="I273" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J273" s="2"/>
       <c r="K273" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L273" s="2"/>
       <c r="M273" s="5" t="s">
@@ -9306,17 +9457,17 @@
         <v>0.625</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J274" s="2"/>
       <c r="K274" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L274" s="2"/>
       <c r="M274" s="5" t="s">
@@ -9338,17 +9489,17 @@
         <v>0.625</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J275" s="2"/>
       <c r="K275" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L275" s="2"/>
       <c r="M275" s="5" t="s">
@@ -9370,17 +9521,17 @@
         <v>0.625</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="I276" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J276" s="2"/>
       <c r="K276" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L276" s="2"/>
       <c r="M276" s="5" t="s">
@@ -9482,17 +9633,17 @@
         <v>0.625</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J280" s="2"/>
       <c r="K280" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L280" s="2"/>
       <c r="M280" s="5" t="s">
@@ -9514,17 +9665,17 @@
         <v>0.625</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L281" s="2"/>
       <c r="M281" s="5" t="s">
@@ -9642,17 +9793,17 @@
         <v>0.625</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="I285" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J285" s="2"/>
       <c r="K285" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L285" s="2"/>
       <c r="M285" s="5" t="s">
@@ -9674,17 +9825,17 @@
         <v>0.625</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J286" s="2"/>
       <c r="K286" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L286" s="2"/>
       <c r="M286" s="5" t="s">
@@ -9818,17 +9969,17 @@
         <v>0.625</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="I291" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L291" s="2"/>
       <c r="M291" s="5" t="s">
@@ -9850,17 +10001,17 @@
         <v>0.625</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="I292" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L292" s="2"/>
       <c r="M292" s="5" t="s">
@@ -9914,17 +10065,17 @@
         <v>0.625</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="I294" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="L294" s="2"/>
       <c r="M294" s="5" t="s">
@@ -9946,17 +10097,17 @@
         <v>0.625</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="I295" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L295" s="2"/>
       <c r="M295" s="5" t="s">
@@ -9978,17 +10129,17 @@
         <v>0.625</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L296" s="2"/>
       <c r="M296" s="5" t="s">
@@ -10154,17 +10305,17 @@
         <v>0.625</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" s="5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L302" s="2"/>
       <c r="M302" s="5" t="s">
@@ -10186,17 +10337,17 @@
         <v>0.625</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="I303" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L303" s="2"/>
       <c r="M303" s="5" t="s">
@@ -10250,17 +10401,17 @@
         <v>0.625</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="I305" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L305" s="2"/>
       <c r="M305" s="5" t="s">
@@ -10282,17 +10433,17 @@
         <v>0.625</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="I306" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L306" s="2"/>
       <c r="M306" s="5" t="s">
@@ -10314,17 +10465,17 @@
         <v>0.625</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="I307" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L307" s="2"/>
       <c r="M307" s="5" t="s">
@@ -10346,17 +10497,17 @@
         <v>0.625</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="I308" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L308" s="2"/>
       <c r="M308" s="5" t="s">
@@ -10378,17 +10529,17 @@
         <v>0.625</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="I309" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L309" s="2"/>
       <c r="M309" s="5" t="s">
@@ -10618,17 +10769,17 @@
         <v>0.625</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="I317" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L317" s="2"/>
       <c r="M317" s="5" t="s">
@@ -10650,17 +10801,17 @@
         <v>0.625</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L318" s="2"/>
       <c r="M318" s="5" t="s">
@@ -10682,17 +10833,17 @@
         <v>0.625</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="L319" s="2"/>
       <c r="M319" s="5" t="s">
@@ -10714,17 +10865,17 @@
         <v>0.625</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="I320" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L320" s="2"/>
       <c r="M320" s="5" t="s">
@@ -10954,17 +11105,17 @@
         <v>0.625</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="I328" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L328" s="2"/>
       <c r="M328" s="5" t="s">
@@ -10986,17 +11137,17 @@
         <v>0.625</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="I329" s="5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L329" s="2"/>
       <c r="M329" s="5" t="s">
@@ -11018,17 +11169,17 @@
         <v>0.625</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="I330" s="5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L330" s="2"/>
       <c r="M330" s="5" t="s">
@@ -11162,17 +11313,17 @@
         <v>0.625</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="I335" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L335" s="2"/>
       <c r="M335" s="5" t="s">
@@ -11194,17 +11345,17 @@
         <v>0.625</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="I336" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L336" s="2"/>
       <c r="M336" s="5" t="s">
@@ -11354,17 +11505,17 @@
         <v>0.625</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="I341" s="5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="L341" s="2"/>
       <c r="M341" s="5" t="s">
@@ -11386,17 +11537,17 @@
         <v>0.625</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="I342" s="5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="L342" s="2"/>
       <c r="M342" s="5" t="s">
@@ -11466,17 +11617,17 @@
         <v>0.625</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="I345" s="5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L345" s="2"/>
       <c r="M345" s="5" t="s">
@@ -11498,17 +11649,17 @@
         <v>0.625</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="I346" s="5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L346" s="2"/>
       <c r="M346" s="5" t="s">
@@ -11626,17 +11777,17 @@
         <v>0.625</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="I350" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L350" s="2"/>
       <c r="M350" s="5" t="s">
@@ -11658,17 +11809,17 @@
         <v>0.625</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="I351" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L351" s="2"/>
       <c r="M351" s="5" t="s">
@@ -11722,17 +11873,17 @@
         <v>0.625</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="I353" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L353" s="2"/>
       <c r="M353" s="5" t="s">
@@ -11930,17 +12081,17 @@
         <v>0.625</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="I360" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J360" s="2"/>
       <c r="K360" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L360" s="2"/>
       <c r="M360" s="5" t="s">
@@ -11962,17 +12113,17 @@
         <v>0.625</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="I361" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L361" s="2"/>
       <c r="M361" s="5" t="s">
@@ -12026,17 +12177,17 @@
         <v>0.625</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="I363" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L363" s="2"/>
       <c r="M363" s="5" t="s">
@@ -12058,17 +12209,17 @@
         <v>0.625</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="I364" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L364" s="2"/>
       <c r="M364" s="5" t="s">
@@ -12106,17 +12257,17 @@
         <v>0.625</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="I366" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L366" s="2"/>
       <c r="M366" s="5" t="s">
@@ -12138,17 +12289,17 @@
         <v>0.625</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="I367" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L367" s="2"/>
       <c r="M367" s="5" t="s">
@@ -12170,17 +12321,17 @@
         <v>0.625</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="L368" s="2"/>
       <c r="M368" s="5" t="s">
@@ -12202,17 +12353,17 @@
         <v>0.625</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="I369" s="5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L369" s="2"/>
       <c r="M369" s="5" t="s">
@@ -12266,17 +12417,17 @@
         <v>0.625</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="I371" s="5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L371" s="2"/>
       <c r="M371" s="5" t="s">
@@ -12298,17 +12449,17 @@
         <v>0.625</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="I372" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L372" s="2"/>
       <c r="M372" s="5" t="s">
@@ -12538,17 +12689,17 @@
         <v>0.625</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="I380" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L380" s="2"/>
       <c r="M380" s="5" t="s">
@@ -12570,17 +12721,17 @@
         <v>0.625</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="I381" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L381" s="2"/>
       <c r="M381" s="5" t="s">
@@ -12602,17 +12753,17 @@
         <v>0.625</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="I382" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L382" s="2"/>
       <c r="M382" s="5" t="s">
@@ -12634,17 +12785,17 @@
         <v>0.625</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="I383" s="5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L383" s="2"/>
       <c r="M383" s="5" t="s">
@@ -12842,17 +12993,17 @@
         <v>0.625</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="L390" s="2"/>
       <c r="M390" s="5" t="s">
@@ -12874,17 +13025,17 @@
         <v>0.625</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="I391" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="L391" s="2"/>
       <c r="M391" s="5" t="s">
@@ -12906,17 +13057,17 @@
         <v>0.625</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="I392" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L392" s="2"/>
       <c r="M392" s="5" t="s">
@@ -12938,17 +13089,17 @@
         <v>0.625</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="I393" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L393" s="2"/>
       <c r="M393" s="5" t="s">
@@ -12970,17 +13121,17 @@
         <v>0.625</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="I394" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L394" s="2"/>
       <c r="M394" s="5" t="s">
@@ -13002,17 +13153,17 @@
         <v>0.625</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="I395" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L395" s="2"/>
       <c r="M395" s="5" t="s">
@@ -13034,17 +13185,17 @@
         <v>0.625</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="I396" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L396" s="2"/>
       <c r="M396" s="5" t="s">
@@ -13066,17 +13217,17 @@
         <v>0.625</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="I397" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L397" s="2"/>
       <c r="M397" s="5" t="s">
@@ -13114,17 +13265,17 @@
         <v>0.625</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="I399" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L399" s="2"/>
       <c r="M399" s="5" t="s">
@@ -13146,17 +13297,17 @@
         <v>0.625</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="I400" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L400" s="2"/>
       <c r="M400" s="5" t="s">
@@ -13178,17 +13329,17 @@
         <v>0.625</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="I401" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L401" s="2"/>
       <c r="M401" s="5" t="s">
@@ -13210,17 +13361,17 @@
         <v>0.625</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="I402" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L402" s="2"/>
       <c r="M402" s="5" t="s">
@@ -13274,17 +13425,17 @@
         <v>0.625</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="I404" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L404" s="2"/>
       <c r="M404" s="5" t="s">
@@ -13306,17 +13457,17 @@
         <v>0.625</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="I405" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L405" s="2"/>
       <c r="M405" s="5" t="s">
@@ -13338,17 +13489,17 @@
         <v>0.625</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="I406" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L406" s="2"/>
       <c r="M406" s="5" t="s">
@@ -13370,17 +13521,17 @@
         <v>0.625</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="I407" s="5" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L407" s="2"/>
       <c r="M407" s="5" t="s">
@@ -13578,17 +13729,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="I414" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L414" s="2"/>
       <c r="M414" s="5" t="s">
@@ -13610,17 +13761,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="I415" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L415" s="2"/>
       <c r="M415" s="5" t="s">
@@ -13642,17 +13793,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L416" s="2"/>
       <c r="M416" s="5" t="s">
@@ -13706,17 +13857,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E418" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="I418" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L418" s="2"/>
       <c r="M418" s="5" t="s">
@@ -13761,1544 +13912,1558 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://fbref.com/en/matches/2021-08-13" xr:uid="{34AFB4F0-93E5-4EC8-91A7-FEC2A101FB77}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{6F947C2E-9B5E-4DC4-8612-6A030E75D556}"/>
-    <hyperlink ref="G3" r:id="rId3" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{F3FD3AD3-3691-4FDD-B4E4-3776BE591B6B}"/>
-    <hyperlink ref="I3" r:id="rId4" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{C5D27A27-0A81-4866-9728-3CB891F82507}"/>
-    <hyperlink ref="M3" r:id="rId5" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{4BA689AC-C23C-40E2-ACA9-DBFEB73B4EFB}"/>
-    <hyperlink ref="C4" r:id="rId6" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{AC817BBA-A940-4D32-A9B2-31A16219A45A}"/>
-    <hyperlink ref="E4" r:id="rId7" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{D827D893-45E0-4E6A-B365-BB589913F749}"/>
-    <hyperlink ref="G4" r:id="rId8" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{64E307E2-45B5-4B89-ABAC-9910A5EE4260}"/>
-    <hyperlink ref="I4" r:id="rId9" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2D14A5F3-E7BC-4487-B808-8D23DA0B9942}"/>
-    <hyperlink ref="M4" r:id="rId10" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{9FB11FAA-AE5F-4BF4-8B25-6D6EE88605A2}"/>
-    <hyperlink ref="C5" r:id="rId11" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{2452D36D-601C-4C20-89D9-56DBDC1CC993}"/>
-    <hyperlink ref="E5" r:id="rId12" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{CE8429CA-CAD6-46CA-916A-F1EC1A744BE9}"/>
-    <hyperlink ref="G5" r:id="rId13" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{9E66AF7D-5D4E-4C06-AD12-2BB74FD8D686}"/>
-    <hyperlink ref="I5" r:id="rId14" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{CEAC5513-BDEB-47D1-BBA8-6652FAB9883C}"/>
-    <hyperlink ref="M5" r:id="rId15" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{A0809518-A53C-4E0B-9E2E-CF0EC50CE2C9}"/>
-    <hyperlink ref="C6" r:id="rId16" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{F721CBE5-60A1-4525-955D-ACB802C7EF22}"/>
-    <hyperlink ref="E6" r:id="rId17" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{69D96BD9-E6F9-4B26-8614-4937546ED79A}"/>
-    <hyperlink ref="G6" r:id="rId18" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{1F686C90-5839-4F6D-A136-307C7343F690}"/>
-    <hyperlink ref="I6" r:id="rId19" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B0BE06A8-93E1-4406-86B5-5A348A95E3B7}"/>
-    <hyperlink ref="M6" r:id="rId20" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{57BE9C9D-73C2-448F-9866-03671060EA54}"/>
-    <hyperlink ref="C7" r:id="rId21" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{4B853627-8105-47A1-B9B2-3F076837E196}"/>
-    <hyperlink ref="E7" r:id="rId22" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0B9B1EEB-E1B5-4B81-92A1-29CD9DDBC1CF}"/>
-    <hyperlink ref="G7" r:id="rId23" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{B5D931A3-BD0B-4090-92C5-A203F68CD9DD}"/>
-    <hyperlink ref="I7" r:id="rId24" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{84A356D5-A1E4-4FBA-82C3-D968937025E0}"/>
-    <hyperlink ref="M7" r:id="rId25" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{99320025-F890-4E1C-B222-C3D1E531E323}"/>
-    <hyperlink ref="C8" r:id="rId26" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{1F346288-EB2C-40EA-8C33-2C1014B4A0DE}"/>
-    <hyperlink ref="E8" r:id="rId27" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{E804DAEC-9121-4A65-8F0B-4829C7043D16}"/>
-    <hyperlink ref="G8" r:id="rId28" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{6A578424-B6EC-415B-A496-FF9EEDF06102}"/>
-    <hyperlink ref="I8" r:id="rId29" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{938ACF83-CB60-4ADF-BA10-1EF494409089}"/>
-    <hyperlink ref="M8" r:id="rId30" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{74753CEC-5BF9-4F0E-8B88-C53A2CD23FF5}"/>
-    <hyperlink ref="C9" r:id="rId31" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{22FA70CF-1A1D-4064-BE02-7BC47F563383}"/>
-    <hyperlink ref="E9" r:id="rId32" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{CFC62AB8-DCC7-464A-9D23-5ACE603C9902}"/>
-    <hyperlink ref="G9" r:id="rId33" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{277984E5-EA78-4558-84F6-1CA083882272}"/>
-    <hyperlink ref="I9" r:id="rId34" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{79D2B2B4-09E3-4F95-877C-0D35C1CD8612}"/>
-    <hyperlink ref="M9" r:id="rId35" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{6E8EE033-997D-474A-9F26-1FC7051CFCF7}"/>
-    <hyperlink ref="C10" r:id="rId36" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{795ABF43-3B63-40F5-BD61-EFD9BC85C643}"/>
-    <hyperlink ref="E10" r:id="rId37" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{006AF90D-EC2F-42FD-A796-A59A13F01B27}"/>
-    <hyperlink ref="G10" r:id="rId38" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{D2731050-B15E-44E9-9D52-429F4459CF6B}"/>
-    <hyperlink ref="I10" r:id="rId39" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{448725E8-D54A-4266-9C01-AB6120A77DCA}"/>
-    <hyperlink ref="M10" r:id="rId40" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{487BB218-EC06-4B8E-B481-DEAFE11DD750}"/>
-    <hyperlink ref="C11" r:id="rId41" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{D4FEBAA6-4383-40C6-9CB5-A59DD9078CA0}"/>
-    <hyperlink ref="E11" r:id="rId42" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B28910F8-46D6-430E-AA49-0BF368B84CBC}"/>
-    <hyperlink ref="G11" r:id="rId43" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{9FB1A7E5-C362-4C87-B472-F3D05CCF24FE}"/>
-    <hyperlink ref="I11" r:id="rId44" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{D9A4C5CA-23DF-4A09-BFB9-4AC4614AC8B3}"/>
-    <hyperlink ref="M11" r:id="rId45" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{2FE6B957-1F1F-4C68-A9BF-9C3DED0B40BC}"/>
-    <hyperlink ref="C12" r:id="rId46" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{0BFFD935-461F-49EA-9330-C6C84DC91217}"/>
-    <hyperlink ref="E12" r:id="rId47" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{84637AD7-D5B0-4C27-864F-92829537228A}"/>
-    <hyperlink ref="G12" r:id="rId48" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{660B4D71-F0A7-44FD-A03E-093A65A3679F}"/>
-    <hyperlink ref="I12" r:id="rId49" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{57B157C5-0163-46FF-95E7-DFFBA8A7F0CB}"/>
-    <hyperlink ref="M12" r:id="rId50" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{4EB1886A-5D0F-4A6E-A010-541C8A98015E}"/>
-    <hyperlink ref="C14" r:id="rId51" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{871BC711-7FE5-4A64-AD4D-1424868EAC3A}"/>
-    <hyperlink ref="E14" r:id="rId52" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5C44D824-6AA9-4441-8BAE-A587BB7908C4}"/>
-    <hyperlink ref="G14" r:id="rId53" display="https://fbref.com/en/matches/94d9dac0/Liverpool-Burnley-August-21-2021-Premier-League" xr:uid="{CF258A93-073C-4D5D-B780-06805815939D}"/>
-    <hyperlink ref="I14" r:id="rId54" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B12323E7-7091-4692-B4DC-3487E01A1C6C}"/>
-    <hyperlink ref="M14" r:id="rId55" display="https://fbref.com/en/matches/94d9dac0/Liverpool-Burnley-August-21-2021-Premier-League" xr:uid="{E1D0A7D3-E360-4BA0-BB28-47F90ECFBA35}"/>
-    <hyperlink ref="C15" r:id="rId56" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{BBBEFEEA-694A-4912-9AB8-E22AF9AA3E9C}"/>
-    <hyperlink ref="E15" r:id="rId57" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{0A1144B0-62BC-4BA8-990E-8CAD65C4F263}"/>
-    <hyperlink ref="G15" r:id="rId58" display="https://fbref.com/en/matches/662d4074/Aston-Villa-Newcastle-United-August-21-2021-Premier-League" xr:uid="{FE072D68-D20E-4B46-B107-DDF5EE635512}"/>
-    <hyperlink ref="I15" r:id="rId59" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{9B0C9822-A639-4CDC-A8A9-6EBC643B1EA4}"/>
-    <hyperlink ref="M15" r:id="rId60" display="https://fbref.com/en/matches/662d4074/Aston-Villa-Newcastle-United-August-21-2021-Premier-League" xr:uid="{BD56BDD5-C03E-4638-AD91-4919FD6979EF}"/>
-    <hyperlink ref="C16" r:id="rId61" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{FB028C1F-5BFD-4706-841E-685FAC15ED6B}"/>
-    <hyperlink ref="E16" r:id="rId62" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{93ED3DA4-1CBD-4BFD-8E5E-4F935D8C5403}"/>
-    <hyperlink ref="G16" r:id="rId63" display="https://fbref.com/en/matches/ab6db0d6/Manchester-City-Norwich-City-August-21-2021-Premier-League" xr:uid="{8FADDA3C-3C09-48A0-A0D9-96906D362684}"/>
-    <hyperlink ref="I16" r:id="rId64" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{ABB09678-55EE-4BCB-90F3-196CFB3BA4BC}"/>
-    <hyperlink ref="M16" r:id="rId65" display="https://fbref.com/en/matches/ab6db0d6/Manchester-City-Norwich-City-August-21-2021-Premier-League" xr:uid="{7CF3407B-5782-4B71-A147-8A176D0AB29F}"/>
-    <hyperlink ref="C17" r:id="rId66" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{55F33109-5B4D-4BAF-867E-57A9107E58F1}"/>
-    <hyperlink ref="E17" r:id="rId67" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D336A150-97E3-4A5B-A6FC-CB600E5BBF9F}"/>
-    <hyperlink ref="G17" r:id="rId68" display="https://fbref.com/en/matches/c8945d11/Crystal-Palace-Brentford-August-21-2021-Premier-League" xr:uid="{38D075DE-586B-488D-82C9-263DDA1CEDCD}"/>
-    <hyperlink ref="I17" r:id="rId69" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{EB63BE0D-1170-4343-87DF-83333D51D03D}"/>
-    <hyperlink ref="M17" r:id="rId70" display="https://fbref.com/en/matches/c8945d11/Crystal-Palace-Brentford-August-21-2021-Premier-League" xr:uid="{DD9F79B2-DF78-4422-A30E-53987226795A}"/>
-    <hyperlink ref="C18" r:id="rId71" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{9031E94A-15CD-4A95-99EE-56D1C5D62823}"/>
-    <hyperlink ref="E18" r:id="rId72" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{91F052E1-6B01-4710-B95C-1C41F7A56574}"/>
-    <hyperlink ref="G18" r:id="rId73" display="https://fbref.com/en/matches/b9064680/Leeds-United-Everton-August-21-2021-Premier-League" xr:uid="{980F5769-4969-45A7-AB51-041019B73FEC}"/>
-    <hyperlink ref="I18" r:id="rId74" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{992E656C-D462-49D8-9E2D-3632481ED0DA}"/>
-    <hyperlink ref="M18" r:id="rId75" display="https://fbref.com/en/matches/b9064680/Leeds-United-Everton-August-21-2021-Premier-League" xr:uid="{C1C1F403-96E0-444A-BE93-64B2E7C32445}"/>
-    <hyperlink ref="C19" r:id="rId76" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{998A14CE-7708-4D92-AD8E-4081140BED92}"/>
-    <hyperlink ref="E19" r:id="rId77" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{24A1DFFC-0257-4B04-B1CE-0B8FC1896E88}"/>
-    <hyperlink ref="G19" r:id="rId78" display="https://fbref.com/en/matches/072af2f8/Brighton-and-Hove-Albion-Watford-August-21-2021-Premier-League" xr:uid="{A0F98AE2-7FF4-4DA1-BB88-87C281E1A262}"/>
-    <hyperlink ref="I19" r:id="rId79" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{2355FBFE-EA17-4501-AC50-5B56D396B19C}"/>
-    <hyperlink ref="M19" r:id="rId80" display="https://fbref.com/en/matches/072af2f8/Brighton-and-Hove-Albion-Watford-August-21-2021-Premier-League" xr:uid="{FFEDF20E-240C-465D-A138-93D0AB8FE3F3}"/>
-    <hyperlink ref="C20" r:id="rId81" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{2FEA3DC3-F522-4628-9093-72AF8BD85201}"/>
-    <hyperlink ref="E20" r:id="rId82" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{CCB1A115-0E29-49FB-8B75-0DA1C55DB915}"/>
-    <hyperlink ref="I20" r:id="rId83" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1A6CAC8C-8155-4319-8901-7CBBCAF4733C}"/>
-    <hyperlink ref="M20" r:id="rId84" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{D1AE3256-8A36-476D-8763-A8B1970AE70B}"/>
-    <hyperlink ref="C21" r:id="rId85" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{58C385DD-9064-4630-8F04-C56129C1B6AA}"/>
-    <hyperlink ref="E21" r:id="rId86" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A9B4AE98-27F1-4F34-BCBC-03E24970962B}"/>
-    <hyperlink ref="I21" r:id="rId87" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{6ECCF888-2623-4ADB-9F4F-70268F18F4AE}"/>
-    <hyperlink ref="M21" r:id="rId88" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{4C6A3F07-8914-4726-8379-EA163A11DBED}"/>
-    <hyperlink ref="C22" r:id="rId89" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{81D3743F-B18A-4A32-B8AE-5DC30525C976}"/>
-    <hyperlink ref="E22" r:id="rId90" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{A39B119D-BF57-4B0F-A635-A902BB51606F}"/>
-    <hyperlink ref="I22" r:id="rId91" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{4A968CAF-65AF-400C-8B4A-9F2F52DC620C}"/>
-    <hyperlink ref="M22" r:id="rId92" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{94CE72EF-CC9E-44ED-829C-E571D51F2FD8}"/>
-    <hyperlink ref="C23" r:id="rId93" display="https://fbref.com/en/matches/2021-08-23" xr:uid="{5A4C9249-7D43-44A1-9E59-27B0909C5553}"/>
-    <hyperlink ref="E23" r:id="rId94" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{5838648D-DB9F-4FF0-AD89-CD0F1947C2CE}"/>
-    <hyperlink ref="I23" r:id="rId95" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{BE026E2D-E6E2-4834-BE77-7D9D0D3DDE09}"/>
-    <hyperlink ref="M23" r:id="rId96" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{15E16364-8864-4CF6-A2AC-5D9A816F683B}"/>
-    <hyperlink ref="C25" r:id="rId97" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{914F5079-7808-44DA-8C21-E45451B13D28}"/>
-    <hyperlink ref="E25" r:id="rId98" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{579B1208-14FD-4BC8-B9D0-A9B33CF009D9}"/>
-    <hyperlink ref="I25" r:id="rId99" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9F29734A-2002-4E39-8EC6-DEDE3956F5E0}"/>
-    <hyperlink ref="M25" r:id="rId100" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{7F9EB6D9-AADB-4AEA-9413-7C399CB3E7E5}"/>
-    <hyperlink ref="C26" r:id="rId101" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{D749BA73-75E8-4CDA-8339-59029F835ABB}"/>
-    <hyperlink ref="E26" r:id="rId102" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{544CBEB0-BC02-4DB3-891C-FBBE24DD96F4}"/>
-    <hyperlink ref="I26" r:id="rId103" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{858FD23C-9AC8-4725-A3B8-F921A02EEB28}"/>
-    <hyperlink ref="M26" r:id="rId104" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{4C40FF23-55FD-4E26-A6DD-9B8E8F965BBA}"/>
-    <hyperlink ref="C27" r:id="rId105" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{FA297CA8-BCA7-476D-995C-2EC2B7FE873D}"/>
-    <hyperlink ref="E27" r:id="rId106" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{7EF216D1-5616-4244-96B8-B0E781F3E563}"/>
-    <hyperlink ref="I27" r:id="rId107" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{11D8F233-40A7-49D6-9BD5-305383E796C7}"/>
-    <hyperlink ref="M27" r:id="rId108" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{1A210F8D-6D5F-472B-8431-722CE14D9C2D}"/>
-    <hyperlink ref="C28" r:id="rId109" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{1A67FC83-383A-41F1-BEFD-DC2CE29B4803}"/>
-    <hyperlink ref="E28" r:id="rId110" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{497C15EE-3C80-4EF2-9BB1-1791AE582125}"/>
-    <hyperlink ref="I28" r:id="rId111" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{C4183A2F-58A4-4DD3-9BDC-6EAD332C6797}"/>
-    <hyperlink ref="M28" r:id="rId112" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{BFE5AFFD-39F2-4F72-A5AF-925AC51E371F}"/>
-    <hyperlink ref="C29" r:id="rId113" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{23D6C307-CD6D-4904-AB0B-8F733BD605C6}"/>
-    <hyperlink ref="E29" r:id="rId114" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{8CC16B2E-B9CE-4AE3-98BD-4BE8B4D2F82B}"/>
-    <hyperlink ref="I29" r:id="rId115" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{71B5B890-8D75-44C0-9F64-117E34DE0256}"/>
-    <hyperlink ref="M29" r:id="rId116" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{49B0F642-3FD7-411C-9E9B-2950929316A1}"/>
-    <hyperlink ref="C30" r:id="rId117" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{F98ACB3E-88B5-474F-976F-5AE89E1F229E}"/>
-    <hyperlink ref="E30" r:id="rId118" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1CD85639-EBD4-460C-85F9-35D1F9A67863}"/>
-    <hyperlink ref="I30" r:id="rId119" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{ACA800FC-1F45-4E12-9D59-4222F0A27BA8}"/>
-    <hyperlink ref="M30" r:id="rId120" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{FF5DA729-9722-438F-B7B4-96B7262B5D27}"/>
-    <hyperlink ref="C31" r:id="rId121" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{E6E6F2AF-DF0F-4462-8496-71C2A6AE7FC5}"/>
-    <hyperlink ref="E31" r:id="rId122" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5CCDEF02-72E8-4E3C-97E7-DF457226C27C}"/>
-    <hyperlink ref="I31" r:id="rId123" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A59C02C5-6B32-4EAF-BC5B-DD6D5FFC510A}"/>
-    <hyperlink ref="M31" r:id="rId124" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{F31C3855-558A-4374-9C87-9894E0B629CC}"/>
-    <hyperlink ref="C32" r:id="rId125" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{4D261579-740A-4E01-B600-51FDB91F7B0F}"/>
-    <hyperlink ref="E32" r:id="rId126" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C18B38BB-592B-4D77-BBA3-ADDC8E7183ED}"/>
-    <hyperlink ref="I32" r:id="rId127" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0A73CC45-0437-4754-B88B-BF5295862DD4}"/>
-    <hyperlink ref="M32" r:id="rId128" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{A7E348D4-434C-4317-9E4B-8C0D75A8FCC5}"/>
-    <hyperlink ref="C33" r:id="rId129" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{D5CC53D1-B1AD-4820-8452-46D3A27E3C62}"/>
-    <hyperlink ref="E33" r:id="rId130" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6696A151-A3FE-411B-B1D8-C18431724B30}"/>
-    <hyperlink ref="I33" r:id="rId131" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{FEDD7588-8A97-4D76-AA9A-ECB247D665E3}"/>
-    <hyperlink ref="M33" r:id="rId132" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{4B2C92E8-40C5-4320-9E65-786E3FB68C9C}"/>
-    <hyperlink ref="C34" r:id="rId133" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{5FD3E505-D2D3-4811-96BB-68AD79C27A43}"/>
-    <hyperlink ref="E34" r:id="rId134" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{9608AAE5-B07B-48E5-A615-8657CAC72F56}"/>
-    <hyperlink ref="I34" r:id="rId135" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CB323F73-6BBB-4503-9F1A-AE85557B46F4}"/>
-    <hyperlink ref="M34" r:id="rId136" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{652070CD-13AC-4A17-92ED-92BDDA8D9143}"/>
-    <hyperlink ref="C36" r:id="rId137" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{5A4B3FCA-7288-4548-852D-ABCF7ACA1B72}"/>
-    <hyperlink ref="E36" r:id="rId138" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{81156D59-C57F-47BA-9B11-53A4D350B067}"/>
-    <hyperlink ref="I36" r:id="rId139" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{BD5FE183-2A65-4963-B613-CD0DEC007F0C}"/>
-    <hyperlink ref="M36" r:id="rId140" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{197254FA-2A14-4897-A1BA-691DBFEAAA31}"/>
-    <hyperlink ref="C37" r:id="rId141" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{2989B234-E3AC-48F6-B190-60A78256C532}"/>
-    <hyperlink ref="E37" r:id="rId142" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{656A78A9-2537-4C6C-8153-9869014D726C}"/>
-    <hyperlink ref="I37" r:id="rId143" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BCFFC6E9-AD6D-4947-96D3-A1DE70D20471}"/>
-    <hyperlink ref="M37" r:id="rId144" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{7B7F5167-44C1-4CE8-84DC-E21183D1349F}"/>
-    <hyperlink ref="C38" r:id="rId145" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{6BDDBCC3-01F3-4749-B9D6-EDC17A029926}"/>
-    <hyperlink ref="E38" r:id="rId146" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{FD3B3BBA-B987-4621-8520-10F907D0313D}"/>
-    <hyperlink ref="I38" r:id="rId147" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{237F6A64-B4A5-42A2-A00C-94DC25BC487F}"/>
-    <hyperlink ref="M38" r:id="rId148" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{4774A625-9FC6-4877-AF0A-EA81A882CD99}"/>
-    <hyperlink ref="C39" r:id="rId149" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{F7380424-EC77-4FAE-8AB9-6CC4EF1A53F8}"/>
-    <hyperlink ref="E39" r:id="rId150" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{221B8FD1-A936-4797-BD9E-66F8DC2BCE0A}"/>
-    <hyperlink ref="I39" r:id="rId151" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B3CC6990-9531-4AFA-8104-60FAFFE0D51E}"/>
-    <hyperlink ref="M39" r:id="rId152" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{213D343D-8517-4A19-8C54-2CFB2DFE5EC3}"/>
-    <hyperlink ref="C40" r:id="rId153" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{598BA21D-897D-475E-9A1B-FF62B9E96E3E}"/>
-    <hyperlink ref="E40" r:id="rId154" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{73899717-0483-42E9-9C98-362E486D0A44}"/>
-    <hyperlink ref="I40" r:id="rId155" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C411478D-7DE7-4E42-AFF2-A06A33365A70}"/>
-    <hyperlink ref="M40" r:id="rId156" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{E10BB9ED-2040-4FA5-872C-59D2BC2C0F62}"/>
-    <hyperlink ref="C41" r:id="rId157" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{82DF2F81-FD84-4027-BFE0-BEB8BE7F3461}"/>
-    <hyperlink ref="E41" r:id="rId158" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{3DC5EA79-8461-46A3-BC7F-7497362608E7}"/>
-    <hyperlink ref="I41" r:id="rId159" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5DC72A95-5098-4AD8-AE7F-48058E35DF35}"/>
-    <hyperlink ref="M41" r:id="rId160" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{E2A934A3-953F-46E1-8DC0-59031283DC6A}"/>
-    <hyperlink ref="C42" r:id="rId161" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{5D1DE88A-A367-4109-A1D1-303314184863}"/>
-    <hyperlink ref="E42" r:id="rId162" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CDD69379-2106-48C3-8E8F-C70E2EE3C2E9}"/>
-    <hyperlink ref="I42" r:id="rId163" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B38710AC-8294-4AD4-B546-C178ACA759DB}"/>
-    <hyperlink ref="M42" r:id="rId164" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{110E216C-18B5-488B-979D-BE880382BCF8}"/>
-    <hyperlink ref="C43" r:id="rId165" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{EEFB9D4F-7F9B-4B1B-AEB9-E31588861598}"/>
-    <hyperlink ref="E43" r:id="rId166" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{FF7ABE5D-BD1D-47A8-BD19-5A47D1634C93}"/>
-    <hyperlink ref="I43" r:id="rId167" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AFCAD3B7-D15D-44D1-91AF-D88E28E5B3EF}"/>
-    <hyperlink ref="M43" r:id="rId168" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{CB82F4A6-C636-4152-A42A-04B65CA5B8C6}"/>
-    <hyperlink ref="C44" r:id="rId169" display="https://fbref.com/en/matches/2021-09-12" xr:uid="{41DE107B-199A-4E3C-9960-E4F058A7A548}"/>
-    <hyperlink ref="E44" r:id="rId170" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{9B5CFFB7-C7CA-45B5-92B2-05CB17ECA9F5}"/>
-    <hyperlink ref="I44" r:id="rId171" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{31FA2BB7-BE41-4516-BBFA-D131A4851A2A}"/>
-    <hyperlink ref="M44" r:id="rId172" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{C16B9D2F-A554-4740-8025-1E074710C94B}"/>
-    <hyperlink ref="C45" r:id="rId173" display="https://fbref.com/en/matches/2021-09-13" xr:uid="{EC1D2DCB-AC1B-4F91-B204-C791D6802572}"/>
-    <hyperlink ref="E45" r:id="rId174" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5804DC4D-58C6-4FF4-84CC-D70DD9947963}"/>
-    <hyperlink ref="I45" r:id="rId175" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3991DD7D-F656-4D44-975F-BBD32919FDB6}"/>
-    <hyperlink ref="M45" r:id="rId176" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{13E0F358-754D-4051-B241-7CB81D8CB84A}"/>
-    <hyperlink ref="C47" r:id="rId177" display="https://fbref.com/en/matches/2021-09-17" xr:uid="{2E81AA47-B951-4E6E-81D3-7A36787505D1}"/>
-    <hyperlink ref="E47" r:id="rId178" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{39C73061-217C-4695-B197-A490E42888A0}"/>
-    <hyperlink ref="I47" r:id="rId179" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{BDECE0B9-0E95-4370-9E3B-E320C0EB2D8C}"/>
-    <hyperlink ref="M47" r:id="rId180" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{6CBFECE0-B6CE-40C9-B528-100641E1FED9}"/>
-    <hyperlink ref="C48" r:id="rId181" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{AE947AD3-FC5A-4127-9F8D-35069B481977}"/>
-    <hyperlink ref="E48" r:id="rId182" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{FF9223BA-D06E-4F83-8D2A-9412506E7EF5}"/>
-    <hyperlink ref="I48" r:id="rId183" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7C7A6954-D863-4576-83F2-CEA57D6F51EB}"/>
-    <hyperlink ref="M48" r:id="rId184" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{4831B406-36AA-4975-B8F2-BC46D1E8859B}"/>
-    <hyperlink ref="C49" r:id="rId185" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{9038755B-9D79-4D27-909C-AFAC3890E5FD}"/>
-    <hyperlink ref="E49" r:id="rId186" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{D55AE079-1102-4BE7-B093-AB98937EBE34}"/>
-    <hyperlink ref="I49" r:id="rId187" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{5ADEEE5D-916D-4951-838D-CC4AA011F8EB}"/>
-    <hyperlink ref="M49" r:id="rId188" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{E913F5A0-220A-45BD-BE60-4524F72E2F27}"/>
-    <hyperlink ref="C50" r:id="rId189" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{8E9B4822-A805-4969-B0CF-8BB418CE84CE}"/>
-    <hyperlink ref="E50" r:id="rId190" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D499ABC8-CC7A-4302-8EF6-35673EE52839}"/>
-    <hyperlink ref="I50" r:id="rId191" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{0D6E8C27-8BCF-49A4-B892-C7AC0EDCF0F0}"/>
-    <hyperlink ref="M50" r:id="rId192" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{1ADE1126-168A-4AA2-99E4-EE3ECD581E89}"/>
-    <hyperlink ref="C51" r:id="rId193" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{70C0A866-409C-45F3-8006-24916E2D25B6}"/>
-    <hyperlink ref="E51" r:id="rId194" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{AA0850C6-645B-434A-A927-519D5E11EC06}"/>
-    <hyperlink ref="I51" r:id="rId195" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{709632D9-5AD4-4AEE-B956-413EC3E8E42E}"/>
-    <hyperlink ref="M51" r:id="rId196" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{3E74B6D4-8B72-48BC-99ED-93F327394B2C}"/>
-    <hyperlink ref="C52" r:id="rId197" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{62C86FE2-4BCB-4A13-9EED-1760300B5EC3}"/>
-    <hyperlink ref="E52" r:id="rId198" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3EC756EE-0EC7-4E67-ABD5-E5D96847FFE0}"/>
-    <hyperlink ref="I52" r:id="rId199" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{35A66DA4-18EB-4CA4-9D27-AFAC9632CE4E}"/>
-    <hyperlink ref="M52" r:id="rId200" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{714774B7-CF8B-4937-A0D3-6E93D47071A8}"/>
-    <hyperlink ref="C53" r:id="rId201" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{3D5A6A04-9A5B-44E2-A6F0-10AEEF4CE6D0}"/>
-    <hyperlink ref="E53" r:id="rId202" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4B45A485-9727-4802-919E-0E15335CAB03}"/>
-    <hyperlink ref="I53" r:id="rId203" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{2613A64D-FA6A-4944-89DC-36E614F2C496}"/>
-    <hyperlink ref="M53" r:id="rId204" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{6200AD9A-F723-4A78-9160-4A749E9885DA}"/>
-    <hyperlink ref="C54" r:id="rId205" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{1657CB6F-9101-4AF8-8576-7210C8E22C6A}"/>
-    <hyperlink ref="E54" r:id="rId206" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{08F2445E-1F5B-493A-A316-4F5B7E73F08C}"/>
-    <hyperlink ref="I54" r:id="rId207" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F6D98630-FBF0-48D9-A033-6D97AD0B318E}"/>
-    <hyperlink ref="M54" r:id="rId208" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{31537D83-8283-4A91-9B42-7F84E599BDFE}"/>
-    <hyperlink ref="C55" r:id="rId209" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{5B8CFCD2-A809-4457-B5AA-7AF7EDD1BEE3}"/>
-    <hyperlink ref="E55" r:id="rId210" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{309CA9EC-8511-4F64-A704-B26E89C306CB}"/>
-    <hyperlink ref="I55" r:id="rId211" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{0D1F32FE-5BE3-4047-BB66-E9273A0F5E58}"/>
-    <hyperlink ref="M55" r:id="rId212" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{EAFB9A2E-58DA-423B-B058-4106A8C33FDE}"/>
-    <hyperlink ref="C56" r:id="rId213" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{1D163445-5F38-471D-88E7-5DF046833233}"/>
-    <hyperlink ref="E56" r:id="rId214" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{683C7FB0-6DC8-4B11-B40A-114E5A6FD391}"/>
-    <hyperlink ref="I56" r:id="rId215" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{CC4087D3-28E1-4A7A-BCFE-9D3D3A04C873}"/>
-    <hyperlink ref="M56" r:id="rId216" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{7F111163-ABEC-46A7-9790-AFABE1FDB97E}"/>
-    <hyperlink ref="C58" r:id="rId217" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{7882B893-183A-4F8D-83B7-E68286F9370F}"/>
-    <hyperlink ref="E58" r:id="rId218" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{571A8374-45BA-434B-9EC6-FEF5C7C5367E}"/>
-    <hyperlink ref="I58" r:id="rId219" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D94ACA43-AB21-4B37-AA23-ED8F8B3133F9}"/>
-    <hyperlink ref="M58" r:id="rId220" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{3FE1C364-1592-46EE-8EA6-57C0E175D98B}"/>
-    <hyperlink ref="C59" r:id="rId221" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{3FE9C7CE-BF3D-4F81-BE93-4F81500826D1}"/>
-    <hyperlink ref="E59" r:id="rId222" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C8AB3B2C-393A-47A4-9A9F-94A431533B83}"/>
-    <hyperlink ref="I59" r:id="rId223" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{586B0103-7FB2-43CC-AD06-77DDE23B879F}"/>
-    <hyperlink ref="M59" r:id="rId224" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{98E9DF84-BB97-4C84-9D26-1FA5FFC254F2}"/>
-    <hyperlink ref="C60" r:id="rId225" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{0ABDC021-AE63-4D05-974C-7ACA1C89C128}"/>
-    <hyperlink ref="E60" r:id="rId226" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{0AF6337B-370F-4D9C-B0EB-F3288C67FDF3}"/>
-    <hyperlink ref="I60" r:id="rId227" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{447463CD-DA7C-4BE5-976A-A606AA885653}"/>
-    <hyperlink ref="M60" r:id="rId228" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{4A088C09-15D0-41F3-B08A-5403C91A0927}"/>
-    <hyperlink ref="C61" r:id="rId229" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{43517F65-8331-4672-8A1E-EFBAB7BD8918}"/>
-    <hyperlink ref="E61" r:id="rId230" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{5202B92C-AC9F-41E1-8E10-BF360225361A}"/>
-    <hyperlink ref="I61" r:id="rId231" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3E3253E8-EE8C-4447-A9D3-CBA7E169C9F3}"/>
-    <hyperlink ref="M61" r:id="rId232" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{C382B3D8-12D2-42BC-A20A-61B93263A7F9}"/>
-    <hyperlink ref="C62" r:id="rId233" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{1F0C6652-FE12-4077-927C-E480AB22F46A}"/>
-    <hyperlink ref="E62" r:id="rId234" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{78337F64-002D-44B6-AD57-F1F0FB735965}"/>
-    <hyperlink ref="I62" r:id="rId235" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FD39F2D4-0D82-448B-867F-B9E5EB4CFB5B}"/>
-    <hyperlink ref="M62" r:id="rId236" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{74E9DF99-8680-4ADE-82B5-3B37A63B17A9}"/>
-    <hyperlink ref="C63" r:id="rId237" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{E26FB80A-6104-4019-97C5-A3AAF9F383A7}"/>
-    <hyperlink ref="E63" r:id="rId238" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{2DE6161F-D94B-4244-9B28-E6597EB94D21}"/>
-    <hyperlink ref="I63" r:id="rId239" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A3D21C45-89E9-4470-A5B6-3D2482C734AA}"/>
-    <hyperlink ref="M63" r:id="rId240" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{4EB49823-97D1-4F49-8046-BFF599C8F472}"/>
-    <hyperlink ref="C64" r:id="rId241" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{CB879155-68F2-4AA2-B2F9-F6ECFBD99D98}"/>
-    <hyperlink ref="E64" r:id="rId242" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{1668E08B-E2EA-4509-9277-DAAE089DF805}"/>
-    <hyperlink ref="I64" r:id="rId243" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{42DA1266-BC43-4051-9E4A-496C82F5D8AC}"/>
-    <hyperlink ref="M64" r:id="rId244" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{51761E4C-FE03-4854-A6D4-6221CB9AF497}"/>
-    <hyperlink ref="C65" r:id="rId245" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{51E75AA9-3FAD-459E-B328-1445F39C99E4}"/>
-    <hyperlink ref="E65" r:id="rId246" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{DB74BD96-83DF-46ED-B386-7E605D10832C}"/>
-    <hyperlink ref="I65" r:id="rId247" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{0077DBF5-1DB1-4D74-8DE2-B76E6DA583A1}"/>
-    <hyperlink ref="M65" r:id="rId248" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{98856805-2A43-47BD-B69B-164D77AC2AD1}"/>
-    <hyperlink ref="C66" r:id="rId249" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{879AFC3D-289E-45C8-A892-D4888FE89132}"/>
-    <hyperlink ref="E66" r:id="rId250" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9A4EFD20-379A-4A74-9C0A-318E835553D5}"/>
-    <hyperlink ref="I66" r:id="rId251" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{73AB8A95-C514-400B-B534-4CC8906868F1}"/>
-    <hyperlink ref="M66" r:id="rId252" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{DF2D8C94-D23A-4CC5-B1FA-2172FAA0EB34}"/>
-    <hyperlink ref="C67" r:id="rId253" display="https://fbref.com/en/matches/2021-09-27" xr:uid="{B3FD64B5-F2C7-4A98-A396-1A3FCDED0977}"/>
-    <hyperlink ref="E67" r:id="rId254" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{10822599-2241-4776-B189-51068EA016C6}"/>
-    <hyperlink ref="I67" r:id="rId255" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{65D191B9-775E-478B-9CA7-D40B20A82E87}"/>
-    <hyperlink ref="M67" r:id="rId256" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{B5787BE1-2F92-419B-8714-786778874321}"/>
-    <hyperlink ref="C69" r:id="rId257" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{76D9F3D7-AD07-4437-89C7-39463478C579}"/>
-    <hyperlink ref="E69" r:id="rId258" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6DFD8F5A-3AC7-4182-9D13-74D176436737}"/>
-    <hyperlink ref="I69" r:id="rId259" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{3C04377F-9B5D-4D94-A7C0-77A6D214C100}"/>
-    <hyperlink ref="M69" r:id="rId260" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{48DC0E6B-2810-4581-BFB8-12DA49187EB9}"/>
-    <hyperlink ref="C70" r:id="rId261" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{216ECE24-CD6D-401A-BF03-8E92732D2650}"/>
-    <hyperlink ref="E70" r:id="rId262" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2E9092FB-1CEB-4999-8436-D616177A7CB4}"/>
-    <hyperlink ref="I70" r:id="rId263" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{AB73ADD1-C5FF-465D-962C-BB149F1D62A9}"/>
-    <hyperlink ref="M70" r:id="rId264" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{7A26D5EC-71CA-478A-B037-9B4AB3DF1C78}"/>
-    <hyperlink ref="C71" r:id="rId265" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{8AE82CA0-8538-431B-BE76-1BF260792A95}"/>
-    <hyperlink ref="E71" r:id="rId266" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{3E1F72ED-5773-48CA-B2CD-842268B5D2E4}"/>
-    <hyperlink ref="I71" r:id="rId267" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E49D9D2C-660C-4E43-9FC7-2DF086F06057}"/>
-    <hyperlink ref="M71" r:id="rId268" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{ABBCDCAC-0C75-4F46-8CF3-7ED82A642A83}"/>
-    <hyperlink ref="C72" r:id="rId269" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{E180E227-CB8B-4DCD-A784-774724DCBAF8}"/>
-    <hyperlink ref="E72" r:id="rId270" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F991AF54-1E02-469C-87B1-6AC70DD90D6B}"/>
-    <hyperlink ref="I72" r:id="rId271" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{5387D04C-68BE-4A24-A666-960C672135E8}"/>
-    <hyperlink ref="M72" r:id="rId272" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{DE589A62-8839-4C58-A967-9C5F01F42DFD}"/>
-    <hyperlink ref="C73" r:id="rId273" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{2EE4D438-88B3-454A-BB9A-615B5551D28D}"/>
-    <hyperlink ref="E73" r:id="rId274" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DF8727B4-DB11-4F4C-9C95-F9A5F7D8DA27}"/>
-    <hyperlink ref="I73" r:id="rId275" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{D21D568C-9643-4612-BA98-83F1BCA6581D}"/>
-    <hyperlink ref="M73" r:id="rId276" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{FA1884AF-176E-4D9C-9A04-35CEC4ECFFD6}"/>
-    <hyperlink ref="C74" r:id="rId277" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{A7257031-F92C-4D66-9F71-2254A6154718}"/>
-    <hyperlink ref="E74" r:id="rId278" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{E110F7C2-899D-474D-A0FE-A70AA58EC5DB}"/>
-    <hyperlink ref="I74" r:id="rId279" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AC2CEC50-0781-4439-930B-5A990111D47F}"/>
-    <hyperlink ref="M74" r:id="rId280" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{A6D08185-15BB-46F4-88EB-C5323459D6EC}"/>
-    <hyperlink ref="C75" r:id="rId281" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{5D4801CC-AFBB-4582-9B2A-5EB51597051A}"/>
-    <hyperlink ref="E75" r:id="rId282" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{062A3FD8-1BB5-4941-91A0-84B78FAD6858}"/>
-    <hyperlink ref="I75" r:id="rId283" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{F9051B47-00D3-4132-99C3-B0F8A617DD02}"/>
-    <hyperlink ref="M75" r:id="rId284" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{CFDF6FC0-A9DB-4726-97E5-22C0040F2079}"/>
-    <hyperlink ref="C76" r:id="rId285" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{0BBAAA51-CE0F-4D33-9C9A-0598D80ACCEC}"/>
-    <hyperlink ref="E76" r:id="rId286" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{72194A70-C087-4723-AC62-DF4E6298CFE7}"/>
-    <hyperlink ref="I76" r:id="rId287" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D6074372-5A62-44BF-B72F-39AA7E7AE6B6}"/>
-    <hyperlink ref="M76" r:id="rId288" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{2E1EAB9C-A96D-41EC-AC62-8D0B9F6DD505}"/>
-    <hyperlink ref="C77" r:id="rId289" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{062AC4F5-33E5-458F-92D4-6E4C9C6E4965}"/>
-    <hyperlink ref="E77" r:id="rId290" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{3918DA1A-8A32-4C0D-A012-2EA8EA477F75}"/>
-    <hyperlink ref="I77" r:id="rId291" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D4F99376-E603-46CE-9B1E-CBC2E0F7AFCA}"/>
-    <hyperlink ref="M77" r:id="rId292" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{CB46E7E1-540E-4FA3-A066-89EC9DFC27EE}"/>
-    <hyperlink ref="C78" r:id="rId293" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{B2ADFD32-DF05-4428-8705-8775BB2F7AAD}"/>
-    <hyperlink ref="E78" r:id="rId294" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9485B7A5-02E8-4245-B1D3-F3F8388D9160}"/>
-    <hyperlink ref="I78" r:id="rId295" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{86BBBA0A-75A2-42BF-833F-FD67AC4F1278}"/>
-    <hyperlink ref="M78" r:id="rId296" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{E94FF161-513F-4FBF-B290-139E09289923}"/>
-    <hyperlink ref="C80" r:id="rId297" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{4E5F040E-BBB8-4429-8AE5-D72561FF151F}"/>
-    <hyperlink ref="E80" r:id="rId298" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{458A1E60-042B-43AD-ACDB-1B1DE499247E}"/>
-    <hyperlink ref="I80" r:id="rId299" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{DC2665B6-555F-4D4B-AA12-2A83BF8ECE0D}"/>
-    <hyperlink ref="M80" r:id="rId300" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{DA64AF08-BFD6-44FB-B73C-D9579CC89847}"/>
-    <hyperlink ref="C81" r:id="rId301" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{9377351A-4D47-49F7-BB08-85F024FB6CEF}"/>
-    <hyperlink ref="E81" r:id="rId302" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{DFC71F2D-DB83-4D61-9FFC-F5EEDA6AAFA5}"/>
-    <hyperlink ref="I81" r:id="rId303" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D5A67A67-1D4B-47B6-A1EB-2AF151E228DC}"/>
-    <hyperlink ref="M81" r:id="rId304" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{72819AF9-6FF4-4D18-9ADE-6388B7EC9797}"/>
-    <hyperlink ref="C82" r:id="rId305" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{193F344A-D10A-4A05-955B-527A1FEE2185}"/>
-    <hyperlink ref="E82" r:id="rId306" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{DB5FC1DD-DC25-4F20-9C7A-1FFC48575F5B}"/>
-    <hyperlink ref="I82" r:id="rId307" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{EDE31C69-96CB-4953-9DBD-83966D606F4B}"/>
-    <hyperlink ref="M82" r:id="rId308" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{3286D58C-D985-4D0E-925A-FB7881951F1A}"/>
-    <hyperlink ref="C83" r:id="rId309" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{AE6FF374-8203-4ACD-BD7E-9DB392D011A8}"/>
-    <hyperlink ref="E83" r:id="rId310" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{431C422C-B039-45C9-BB18-887B83F62A4D}"/>
-    <hyperlink ref="I83" r:id="rId311" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A9132F0E-2E44-470D-A367-9BE6FD0A4073}"/>
-    <hyperlink ref="M83" r:id="rId312" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{7E823451-54B9-4358-AC18-DC49512DBC59}"/>
-    <hyperlink ref="C84" r:id="rId313" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{62D9CAB4-A4D7-49AB-835C-4EA02810D5C2}"/>
-    <hyperlink ref="E84" r:id="rId314" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1BD2A711-8ED8-4B51-850E-053F79857F2B}"/>
-    <hyperlink ref="I84" r:id="rId315" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{44354E12-A9CE-4985-A225-28C1EE676C35}"/>
-    <hyperlink ref="M84" r:id="rId316" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{4BDF12DB-4565-49AB-BF85-C88E8C3D7440}"/>
-    <hyperlink ref="C85" r:id="rId317" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{972DA7A4-14E8-4D94-8702-01519FCDE35F}"/>
-    <hyperlink ref="E85" r:id="rId318" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AB1A3813-D449-406C-93E8-4F9BBDAEB9F4}"/>
-    <hyperlink ref="I85" r:id="rId319" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6B3A8745-F622-492A-86A7-10101241D955}"/>
-    <hyperlink ref="M85" r:id="rId320" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{F0BA67F2-665E-424E-8BC0-D1FB95680088}"/>
-    <hyperlink ref="C86" r:id="rId321" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{A57797CF-79CF-440E-99CA-A4EBA94AA56C}"/>
-    <hyperlink ref="E86" r:id="rId322" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{15F95A8F-E4C4-47A4-8577-5D5C776E5665}"/>
-    <hyperlink ref="I86" r:id="rId323" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{532B5E45-C218-4C1E-AF74-4FC4F1E220D8}"/>
-    <hyperlink ref="M86" r:id="rId324" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{31EF7F7E-FDF1-4EA4-9E68-25F490258581}"/>
-    <hyperlink ref="C87" r:id="rId325" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{B76B2FEA-4F41-45A7-A9FE-8C38505F6205}"/>
-    <hyperlink ref="E87" r:id="rId326" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7716C210-2976-4490-899E-ECAE7670C3E7}"/>
-    <hyperlink ref="I87" r:id="rId327" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{C6CA848E-6780-474D-B2E5-3BB05360E3A8}"/>
-    <hyperlink ref="M87" r:id="rId328" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{3BC72E7B-7305-402B-ABFC-ABF8C07916DE}"/>
-    <hyperlink ref="C88" r:id="rId329" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{98E454B5-A181-404E-9990-9A4F13712994}"/>
-    <hyperlink ref="E88" r:id="rId330" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FB4FBC73-8476-40F3-B5C8-CC24D7A2E7B8}"/>
-    <hyperlink ref="I88" r:id="rId331" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{83E1237A-47DB-4461-88CC-55D026D76429}"/>
-    <hyperlink ref="M88" r:id="rId332" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{E7ECDA56-89D4-476E-80C3-62691DD1EA96}"/>
-    <hyperlink ref="C89" r:id="rId333" display="https://fbref.com/en/matches/2021-10-18" xr:uid="{DE2D9E74-E672-4C7A-988F-290B1B4470A4}"/>
-    <hyperlink ref="E89" r:id="rId334" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{3455857A-2DE4-4961-8D1F-7AE85A5DECF0}"/>
-    <hyperlink ref="I89" r:id="rId335" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{1839AA55-E636-4782-ABF2-EC04C9497DD2}"/>
-    <hyperlink ref="M89" r:id="rId336" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{E77F24E1-16DA-4CD8-AD91-FEF0A6943497}"/>
-    <hyperlink ref="C91" r:id="rId337" display="https://fbref.com/en/matches/2021-10-22" xr:uid="{A0C4BFBF-ED9C-47E6-AADD-8170D39E5959}"/>
-    <hyperlink ref="E91" r:id="rId338" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{644EECBC-62A7-4EB7-82D5-8ED70DA06188}"/>
-    <hyperlink ref="I91" r:id="rId339" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{88EE94CB-6174-4E7D-A249-2AADE2CE5144}"/>
-    <hyperlink ref="M91" r:id="rId340" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{DEED79CC-B16E-491D-AAE2-6E7287AA96B6}"/>
-    <hyperlink ref="C92" r:id="rId341" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{C28866F5-0A43-4697-9091-F3F8D1DCEB53}"/>
-    <hyperlink ref="E92" r:id="rId342" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{EE849C67-6CB1-42C4-961F-C8DC8919B06E}"/>
-    <hyperlink ref="I92" r:id="rId343" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7910797D-466C-4CD7-9CFF-B451F88EEF1C}"/>
-    <hyperlink ref="M92" r:id="rId344" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{F8CB4BFB-0548-4BC5-9904-488BE8B82CCF}"/>
-    <hyperlink ref="C93" r:id="rId345" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{E187AE67-6BA7-46BA-B66F-76112726E9BE}"/>
-    <hyperlink ref="E93" r:id="rId346" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{8574E50E-00AB-4BFC-A40B-FA9C63EAE9F7}"/>
-    <hyperlink ref="I93" r:id="rId347" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F10F1268-05E1-4E74-AAA3-6A3040F9C1CB}"/>
-    <hyperlink ref="M93" r:id="rId348" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{3DCD56E9-3EF7-4BDC-9A01-AC9E1729FAAF}"/>
-    <hyperlink ref="C94" r:id="rId349" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{5E3B42D7-505E-4E37-9D3C-CF58063E9589}"/>
-    <hyperlink ref="E94" r:id="rId350" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{CDE34561-E886-413D-B0E1-F53AD6ECB7C0}"/>
-    <hyperlink ref="I94" r:id="rId351" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{696657C1-CE24-4602-B5CA-97B7C0BD44BE}"/>
-    <hyperlink ref="M94" r:id="rId352" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{CB39F90B-EC26-4E3F-AE18-3E62FA123FAD}"/>
-    <hyperlink ref="C95" r:id="rId353" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{8462742E-2E55-4A85-B54C-F6D64D2D9C34}"/>
-    <hyperlink ref="E95" r:id="rId354" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{E18BB042-7127-4024-B43D-3471FEAFFCFF}"/>
-    <hyperlink ref="I95" r:id="rId355" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{7211A43B-3266-4CBB-99C4-CBBC1D9F88BD}"/>
-    <hyperlink ref="M95" r:id="rId356" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{0F107E29-6D13-47F8-A080-4593707FE48B}"/>
-    <hyperlink ref="C96" r:id="rId357" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{A9C6EB12-C206-4D23-AE11-A0A80C38E493}"/>
-    <hyperlink ref="E96" r:id="rId358" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D3DA2BD8-F84E-42AE-B172-16531AA8E674}"/>
-    <hyperlink ref="I96" r:id="rId359" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{344E55B6-EBCC-474A-A633-D16D0CD8784C}"/>
-    <hyperlink ref="M96" r:id="rId360" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{58782736-34DA-489B-9B45-ADED5D2CEC21}"/>
-    <hyperlink ref="C97" r:id="rId361" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{B75BDB50-60CC-4346-BE45-F9EE946AEB0E}"/>
-    <hyperlink ref="E97" r:id="rId362" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1CDC09B6-FA63-4835-96A9-575BD1460480}"/>
-    <hyperlink ref="I97" r:id="rId363" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3B398827-C5B5-46B4-95AD-87E2F8069F28}"/>
-    <hyperlink ref="M97" r:id="rId364" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{30A796C8-2FFD-4994-9810-7BF90977B308}"/>
-    <hyperlink ref="C98" r:id="rId365" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{F450EF07-236E-45D1-B3EA-E5D3DD63B46B}"/>
-    <hyperlink ref="E98" r:id="rId366" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{3864E7CB-6D76-4255-B7FF-6459EFEACF52}"/>
-    <hyperlink ref="I98" r:id="rId367" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C6AFBFEE-3515-41B6-967E-09EC9A80D6ED}"/>
-    <hyperlink ref="M98" r:id="rId368" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{CBA66B52-004A-43E6-A376-BD9C1840F5C4}"/>
-    <hyperlink ref="C99" r:id="rId369" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{EAE71444-E481-4869-AA29-974424C1264A}"/>
-    <hyperlink ref="E99" r:id="rId370" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{590BECBC-11D3-4EDB-A004-A1C7AAA66632}"/>
-    <hyperlink ref="I99" r:id="rId371" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{5C3AEA6F-5834-441D-A042-401F18AA435E}"/>
-    <hyperlink ref="M99" r:id="rId372" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{30AEDC39-8117-4722-B965-BDD2CC0C566F}"/>
-    <hyperlink ref="C100" r:id="rId373" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{C17460FC-4D56-488E-A7A3-A751A1EBD29D}"/>
-    <hyperlink ref="E100" r:id="rId374" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{100EC2DD-8142-433E-8A4E-CFF95808F74F}"/>
-    <hyperlink ref="I100" r:id="rId375" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1E9AE3AC-F276-405C-A1C2-F4841A2DC02B}"/>
-    <hyperlink ref="M100" r:id="rId376" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{E6098A37-9B7C-41C5-9DED-E35169FEC07D}"/>
-    <hyperlink ref="C102" r:id="rId377" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{2C34F355-5ED7-4489-B2F4-6B4B4465DBA4}"/>
-    <hyperlink ref="E102" r:id="rId378" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{6BBA31AD-1F2B-4684-A5A9-959A06675854}"/>
-    <hyperlink ref="I102" r:id="rId379" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{14EFA029-F17F-4E45-80EC-F5B653D06673}"/>
-    <hyperlink ref="M102" r:id="rId380" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{3DC7579D-5AB1-4309-807B-58FE6513BA56}"/>
-    <hyperlink ref="C103" r:id="rId381" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{3DA887EA-4070-42B2-B5DF-7468E15F364E}"/>
-    <hyperlink ref="E103" r:id="rId382" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{FDE429E5-4299-479A-BC23-BCB545AB05CA}"/>
-    <hyperlink ref="I103" r:id="rId383" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{7E009D7D-1E9B-4ADF-9054-DADA7DAD8083}"/>
-    <hyperlink ref="M103" r:id="rId384" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{AE7B6ACC-5327-4AAC-B01E-6F5BFDBCDFFC}"/>
-    <hyperlink ref="C104" r:id="rId385" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{6283B5FA-4E44-43EE-B398-54CBF1D8C0DB}"/>
-    <hyperlink ref="E104" r:id="rId386" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{34CF176B-00A7-4D31-9D89-8014D774991E}"/>
-    <hyperlink ref="I104" r:id="rId387" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{BB0146A5-04EE-4B8B-B7F7-84E8F0F70470}"/>
-    <hyperlink ref="M104" r:id="rId388" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{4CB084FD-ACBE-4CAE-9FDD-48A5663B83C4}"/>
-    <hyperlink ref="C105" r:id="rId389" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{D2DD5BF5-69F8-4EFE-A78B-3D1B3FD89F70}"/>
-    <hyperlink ref="E105" r:id="rId390" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{1727F43C-8D1C-4371-9B7D-8495CF7A8660}"/>
-    <hyperlink ref="I105" r:id="rId391" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{32D325AD-C395-4036-BBD2-737BA3DFAC16}"/>
-    <hyperlink ref="M105" r:id="rId392" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{B5EB4BCB-A078-4622-92B7-D193E9A328EB}"/>
-    <hyperlink ref="C106" r:id="rId393" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{DA7DFE49-3917-4519-B6E7-536A5992AFFE}"/>
-    <hyperlink ref="E106" r:id="rId394" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{D7DD094E-7638-49FD-9D4B-469C0CC7CD86}"/>
-    <hyperlink ref="I106" r:id="rId395" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{200BF018-2D29-4FE0-9D41-D5AA6B0BA572}"/>
-    <hyperlink ref="M106" r:id="rId396" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{A0510725-D1E3-4B29-B63E-8D768734C542}"/>
-    <hyperlink ref="C107" r:id="rId397" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{EB49FD47-1FE7-451A-8E8D-A47540417A2D}"/>
-    <hyperlink ref="E107" r:id="rId398" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{3BF612A2-2381-4520-B4C7-53BBFDDA1DFB}"/>
-    <hyperlink ref="I107" r:id="rId399" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{9475D5D2-C0CD-48EA-A3BD-A3622B907FE7}"/>
-    <hyperlink ref="M107" r:id="rId400" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{29EBF3EE-AC82-408C-A9D4-552EF5A72DA2}"/>
-    <hyperlink ref="C108" r:id="rId401" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{6B74C45D-CAB9-41BF-BC82-A22801A976F2}"/>
-    <hyperlink ref="E108" r:id="rId402" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{250B686C-32BE-479B-AF27-C0B320C99ACC}"/>
-    <hyperlink ref="I108" r:id="rId403" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{DFCCF0A1-2C73-47BE-B27A-00A9B42E8B8A}"/>
-    <hyperlink ref="M108" r:id="rId404" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{B7972051-521E-49F5-BB61-9A27734D1A0D}"/>
-    <hyperlink ref="C109" r:id="rId405" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{2E565A90-28C1-4A70-8162-FF1A4BF3B40A}"/>
-    <hyperlink ref="E109" r:id="rId406" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{DF9DDA4A-FD1F-49E2-99A1-5772AAF17CA7}"/>
-    <hyperlink ref="I109" r:id="rId407" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4E6AFF16-7009-4325-8087-DB3984D5D425}"/>
-    <hyperlink ref="M109" r:id="rId408" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{1BF3FA30-5014-410B-93DB-B4CEEA38BC36}"/>
-    <hyperlink ref="C110" r:id="rId409" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{D427558E-78DC-4DF2-8E10-39628E7DC9AB}"/>
-    <hyperlink ref="E110" r:id="rId410" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{8AC829C1-2A45-4010-82B1-2DF3EFC10CF8}"/>
-    <hyperlink ref="I110" r:id="rId411" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{E82770C3-786D-4173-A203-9E31825FFE4A}"/>
-    <hyperlink ref="M110" r:id="rId412" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{C0DE3C77-8334-4308-A99A-517114650374}"/>
-    <hyperlink ref="C111" r:id="rId413" display="https://fbref.com/en/matches/2021-11-01" xr:uid="{FF1F6FEF-85D8-4819-A7F1-6B7ACA132137}"/>
-    <hyperlink ref="E111" r:id="rId414" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{648E9DD0-8928-4581-9149-A469324678E5}"/>
-    <hyperlink ref="I111" r:id="rId415" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{D552F5A1-8E9E-4BA7-A189-3299185735D8}"/>
-    <hyperlink ref="M111" r:id="rId416" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{3E521FE9-3DDA-4347-9D32-F407EB673F38}"/>
-    <hyperlink ref="C113" r:id="rId417" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{0DC1B630-1F8F-4293-88BD-D083EEBE59DB}"/>
-    <hyperlink ref="E113" r:id="rId418" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7062C0BD-D06F-4B51-8CB9-D597878B2BFF}"/>
-    <hyperlink ref="I113" r:id="rId419" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D91FCE1F-648A-4EB0-93E5-3164BFCA4AA7}"/>
-    <hyperlink ref="M113" r:id="rId420" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{5EBCD4EB-3028-41A7-ADB2-4326E7BE5DC5}"/>
-    <hyperlink ref="C114" r:id="rId421" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{0B147F17-8639-42BA-B0CE-65E780C6C272}"/>
-    <hyperlink ref="E114" r:id="rId422" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D723E22A-B34A-4740-B3D8-C344871C9835}"/>
-    <hyperlink ref="I114" r:id="rId423" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{76A8C8C3-1E3A-4962-A959-C17534006A41}"/>
-    <hyperlink ref="M114" r:id="rId424" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{B9F89CA5-45E4-42E1-8369-82A5ED58ED0C}"/>
-    <hyperlink ref="C115" r:id="rId425" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{F18DF82C-6C07-4E71-8681-709B2725A48C}"/>
-    <hyperlink ref="E115" r:id="rId426" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A3335F47-B094-434A-B5EC-BC6F29C0FF83}"/>
-    <hyperlink ref="I115" r:id="rId427" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{4047B651-5CF4-4AD0-9866-8EA361D0F7AF}"/>
-    <hyperlink ref="M115" r:id="rId428" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{F5E5E722-AD2E-47C8-A3CD-E7FA8EF93A75}"/>
-    <hyperlink ref="C116" r:id="rId429" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{BC20180A-B4E7-4E7E-AF75-542E56B0C786}"/>
-    <hyperlink ref="E116" r:id="rId430" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{56295358-DCF4-4944-9701-CE0131670DC7}"/>
-    <hyperlink ref="I116" r:id="rId431" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{795455D5-BECC-4755-8881-76734888EF1D}"/>
-    <hyperlink ref="M116" r:id="rId432" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{5F3F9EC2-828D-4B98-80FB-7794AD09C453}"/>
-    <hyperlink ref="C117" r:id="rId433" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{1B04616A-3E69-438A-850C-41E62F4AFC4E}"/>
-    <hyperlink ref="E117" r:id="rId434" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{47A7B945-B86B-487E-9806-F6DDFA338A6F}"/>
-    <hyperlink ref="I117" r:id="rId435" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{27AF2C1E-2E9F-4200-B245-A5D82724CEBF}"/>
-    <hyperlink ref="M117" r:id="rId436" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{E4875F9F-1308-46D9-BD88-791129AE15BD}"/>
-    <hyperlink ref="C118" r:id="rId437" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{788F4913-6195-4962-BF79-E42998038F9A}"/>
-    <hyperlink ref="E118" r:id="rId438" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{3BBF3B18-92E5-48BB-924E-46529C71AB61}"/>
-    <hyperlink ref="I118" r:id="rId439" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{7B34FD0E-120F-44A9-9502-1D475568C55C}"/>
-    <hyperlink ref="M118" r:id="rId440" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{ED3CC806-F699-4A7D-8D85-E1E65585D7A5}"/>
-    <hyperlink ref="C119" r:id="rId441" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{EAB74439-6C7C-4D78-9C53-9BC8F5BAD7EB}"/>
-    <hyperlink ref="E119" r:id="rId442" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{DF14DE58-B4EF-4F1A-B7D9-C13B0F8D87D5}"/>
-    <hyperlink ref="I119" r:id="rId443" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{2607768E-93C8-45CB-AE7C-62F3753EF387}"/>
-    <hyperlink ref="M119" r:id="rId444" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{A2646195-FF29-4A00-8CB2-6C9AB0B8117A}"/>
-    <hyperlink ref="C120" r:id="rId445" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{ECD74E45-B636-468E-97C7-D708F42685C2}"/>
-    <hyperlink ref="E120" r:id="rId446" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{8BF8AFC2-70CA-4271-9327-95DA819F8DD9}"/>
-    <hyperlink ref="I120" r:id="rId447" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{21B6423D-8551-4414-A224-13CF6F2E64C5}"/>
-    <hyperlink ref="M120" r:id="rId448" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{95A70777-961A-4BFA-B32B-392AE33E8254}"/>
-    <hyperlink ref="C121" r:id="rId449" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{723DD0EF-0D86-4260-BEA2-5223B70B75A4}"/>
-    <hyperlink ref="E121" r:id="rId450" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{E92F2B76-A734-40E2-B1CF-BC8EA5E24F12}"/>
-    <hyperlink ref="I121" r:id="rId451" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{7FF7B215-7050-4947-A79B-8B437B057F0B}"/>
-    <hyperlink ref="M121" r:id="rId452" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{8B6C9051-F76D-4FDF-8F59-57EC22197844}"/>
-    <hyperlink ref="C122" r:id="rId453" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{33A64576-D4D1-47B6-A5AF-EC190F1DA15D}"/>
-    <hyperlink ref="E122" r:id="rId454" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{71E4980C-D22D-470D-8780-0F3E79B929A6}"/>
-    <hyperlink ref="I122" r:id="rId455" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{2625D3AE-79D8-46AB-A8F7-F0E25E6067FC}"/>
-    <hyperlink ref="M122" r:id="rId456" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{EE7BE86B-311A-4BE7-B478-F905FBDA9CAA}"/>
-    <hyperlink ref="C124" r:id="rId457" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{C857D00C-3289-4E6D-AD2B-A47ACC90D583}"/>
-    <hyperlink ref="E124" r:id="rId458" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D9E8A0B5-9C93-42B3-854B-CF3837951265}"/>
-    <hyperlink ref="I124" r:id="rId459" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{075D60E9-394A-45E9-896F-6D09B7898AA8}"/>
-    <hyperlink ref="M124" r:id="rId460" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{2A52F6D1-4C4E-4583-935D-55C0614FBD11}"/>
-    <hyperlink ref="C125" r:id="rId461" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{46DE4A30-EEC6-4106-B997-3F65B520F215}"/>
-    <hyperlink ref="E125" r:id="rId462" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D582EF2F-F3EC-40F1-BC8F-E3878EFAE102}"/>
-    <hyperlink ref="I125" r:id="rId463" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{DD118796-62FB-4D96-9F18-CBA93468FC2B}"/>
-    <hyperlink ref="M125" r:id="rId464" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{B8E6C706-743D-4F16-BB49-D8BEDD933390}"/>
-    <hyperlink ref="C126" r:id="rId465" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{B5E98C16-AE4F-4497-9077-C121FA8102D6}"/>
-    <hyperlink ref="E126" r:id="rId466" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{8DFDFEED-C83D-4EF0-9499-522DE4143B55}"/>
-    <hyperlink ref="I126" r:id="rId467" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{87AE08A7-69DF-49DA-9EEF-D7347D50706E}"/>
-    <hyperlink ref="M126" r:id="rId468" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{699315CF-FF04-416B-8E02-85CFEF6324A1}"/>
-    <hyperlink ref="C127" r:id="rId469" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{67AC695B-07E2-4FCA-9D45-38689D6693DC}"/>
-    <hyperlink ref="E127" r:id="rId470" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{9F35E5D0-7DA9-48CE-9811-D235FDDC21FC}"/>
-    <hyperlink ref="I127" r:id="rId471" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{991AF0F9-0E97-4729-8656-63FAEBADEFEF}"/>
-    <hyperlink ref="M127" r:id="rId472" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{444CFADE-2DA8-43A4-930B-C7109D11290E}"/>
-    <hyperlink ref="C128" r:id="rId473" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{4A1FFF92-9928-463B-800E-511B489320DA}"/>
-    <hyperlink ref="E128" r:id="rId474" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{392C10B6-E219-4838-A23E-785A4F222178}"/>
-    <hyperlink ref="I128" r:id="rId475" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{92EE7D65-0697-45C8-A821-D9B3A07DB85E}"/>
-    <hyperlink ref="M128" r:id="rId476" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{BDD6D134-27DF-43AF-8810-4023B750B915}"/>
-    <hyperlink ref="C129" r:id="rId477" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{0EFF7784-1B0F-4EA2-B198-D3879D877302}"/>
-    <hyperlink ref="E129" r:id="rId478" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{20CABDB6-7D30-4B6B-B498-D5F516D8B2EE}"/>
-    <hyperlink ref="I129" r:id="rId479" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{9CCF86F8-015C-4528-ACE8-35E6E782967C}"/>
-    <hyperlink ref="M129" r:id="rId480" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{98584963-28DD-428F-96C2-BB0A53C64BB3}"/>
-    <hyperlink ref="C130" r:id="rId481" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{F0BE25B6-CE1D-4064-BE9A-27AAA14B0FA5}"/>
-    <hyperlink ref="E130" r:id="rId482" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{FCD55325-43DE-498D-A5A6-00EF1C8A12CE}"/>
-    <hyperlink ref="I130" r:id="rId483" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{BE00FC32-14DE-4ED7-9C4E-13B01B983471}"/>
-    <hyperlink ref="M130" r:id="rId484" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{56331800-0DEA-477F-B314-863372D1849F}"/>
-    <hyperlink ref="C131" r:id="rId485" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{2627D783-EBB8-47C2-B1D5-32A6BE7E13CA}"/>
-    <hyperlink ref="E131" r:id="rId486" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{417B7049-4644-48F1-8AAF-7583EE31657E}"/>
-    <hyperlink ref="I131" r:id="rId487" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{82A6AB0D-2D7B-41AA-AFDE-6D9627CE8EEF}"/>
-    <hyperlink ref="M131" r:id="rId488" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{D0A94FF7-DE00-415F-80B0-32B966E6D71B}"/>
-    <hyperlink ref="C132" r:id="rId489" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{EF32D3CA-7B2B-4723-B02B-AA3D6A6E357C}"/>
-    <hyperlink ref="E132" r:id="rId490" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B393A4E3-5F7E-4F24-ABAE-056EA059EC79}"/>
-    <hyperlink ref="I132" r:id="rId491" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{97075A07-5BC1-4688-92F8-2B48AF3E7BBF}"/>
-    <hyperlink ref="M132" r:id="rId492" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{CBC7ABFB-A45B-46DD-920E-CC6A76455272}"/>
-    <hyperlink ref="C133" r:id="rId493" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{FA77D32C-D431-4CFE-8A40-DB07012205BA}"/>
-    <hyperlink ref="E133" r:id="rId494" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0538FF5F-B1BD-4A01-ADBE-78C27A821441}"/>
-    <hyperlink ref="I133" r:id="rId495" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5366235C-F7F9-414E-ABBC-F007FF5833AB}"/>
-    <hyperlink ref="M133" r:id="rId496" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{81692B81-1847-4385-ABD9-07481BE26F24}"/>
-    <hyperlink ref="C135" r:id="rId497" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{8AE6C9A5-C593-420D-9C20-57E297A98D27}"/>
-    <hyperlink ref="E135" r:id="rId498" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{DD1E57FB-6AFA-42AC-AC52-1904D0624156}"/>
-    <hyperlink ref="I135" r:id="rId499" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{02C7FAF6-2043-4DFE-8FD9-F27674BD5C55}"/>
-    <hyperlink ref="M135" r:id="rId500" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{203B72E8-00E2-4E19-90F8-773B61032232}"/>
-    <hyperlink ref="C136" r:id="rId501" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{3336BE43-3E7A-4F5F-9573-AAF20914DB3E}"/>
-    <hyperlink ref="E136" r:id="rId502" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{6CAC87FD-E1ED-40E4-85C6-FD7B00B78923}"/>
-    <hyperlink ref="I136" r:id="rId503" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{3C550BD1-D791-48F6-A4F5-21976FD7D237}"/>
-    <hyperlink ref="M136" r:id="rId504" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{89BCAC59-FBD6-402D-B6CB-4ECC8A7D2FFF}"/>
-    <hyperlink ref="C137" r:id="rId505" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{E1284924-EB8D-4987-A59B-E4556711E49E}"/>
-    <hyperlink ref="E137" r:id="rId506" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{211BE43F-F2E1-4B23-A8A0-F6006BCC6C44}"/>
-    <hyperlink ref="I137" r:id="rId507" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{794209E0-DA51-4610-B561-6E1ECB3B1562}"/>
-    <hyperlink ref="M137" r:id="rId508" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{FF6533EA-70C6-4712-AA00-387566102FD7}"/>
-    <hyperlink ref="C138" r:id="rId509" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{2A795E31-DE29-49AE-956B-291BD4019CD8}"/>
-    <hyperlink ref="E138" r:id="rId510" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{096AE209-0BFC-43B4-9C47-C791D9C9BB06}"/>
-    <hyperlink ref="I138" r:id="rId511" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C4413B50-FFE6-4072-A585-B3A6D0B80582}"/>
-    <hyperlink ref="M138" r:id="rId512" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{E7F8D3D8-F23C-4F51-AF2D-6E8A5372391B}"/>
-    <hyperlink ref="C139" r:id="rId513" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{C8C7D89E-DB9C-4820-81C7-6CC76392BA35}"/>
-    <hyperlink ref="E139" r:id="rId514" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{92A3A337-1BDC-4687-8060-413E73192642}"/>
-    <hyperlink ref="I139" r:id="rId515" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{463D99E0-B16C-422D-94DE-26B5DD0827AD}"/>
-    <hyperlink ref="M139" r:id="rId516" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{C9D9D432-4739-48F0-9921-A81906255B6A}"/>
-    <hyperlink ref="C140" r:id="rId517" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{CCD01F8B-C764-40A9-8975-2AA73F0EE0C9}"/>
-    <hyperlink ref="E140" r:id="rId518" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5C2D0B3C-16F9-44D9-B313-DC0279591E95}"/>
-    <hyperlink ref="I140" r:id="rId519" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5181368B-00C2-492B-8DDF-4966EC44BC59}"/>
-    <hyperlink ref="M140" r:id="rId520" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{2EA3E673-BB6B-43FD-AF3A-BF85D47E3EB2}"/>
-    <hyperlink ref="C141" r:id="rId521" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{BD901C63-AB49-49BA-81FB-85DF75CECC40}"/>
-    <hyperlink ref="E141" r:id="rId522" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6107CAE6-999C-4119-9D2E-09FE58F3CFA8}"/>
-    <hyperlink ref="I141" r:id="rId523" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{E98A2C21-71F9-4CC8-891C-A9D68170D2C6}"/>
-    <hyperlink ref="M141" r:id="rId524" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{6DECD879-6BC6-4356-94FE-8C90C474C699}"/>
-    <hyperlink ref="C142" r:id="rId525" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{370B9D47-D217-4F54-8803-B34B3578ED03}"/>
-    <hyperlink ref="E142" r:id="rId526" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{69ABD899-116D-42AE-B596-C03D5E24DB94}"/>
-    <hyperlink ref="I142" r:id="rId527" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{9D839B01-E4AA-4A40-85FF-042C141ADD90}"/>
-    <hyperlink ref="M142" r:id="rId528" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{FEBAFACD-E89B-47E3-924D-92D827147D5D}"/>
-    <hyperlink ref="C143" r:id="rId529" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{F422D70C-4C58-41D8-A3F7-796F9BE35A5E}"/>
-    <hyperlink ref="E143" r:id="rId530" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D8A716C2-E912-4F2D-A1E5-EB77E89EE2BA}"/>
-    <hyperlink ref="I143" r:id="rId531" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{636AD4DC-39C5-487C-B19D-78304E853C84}"/>
-    <hyperlink ref="M143" r:id="rId532" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{9B05B319-8EF3-4348-9224-FFF4923795AE}"/>
-    <hyperlink ref="C144" r:id="rId533" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{D0F90033-029C-4E99-B0B4-90B0CC76C64E}"/>
-    <hyperlink ref="E144" r:id="rId534" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{F02005A7-22DB-42F3-9DD9-80191E7B24C5}"/>
-    <hyperlink ref="I144" r:id="rId535" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B233517B-9C48-4D91-AD52-0678BAD328C9}"/>
-    <hyperlink ref="M144" r:id="rId536" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{8D97B8B9-3B9C-4F2B-826E-9E0694034597}"/>
-    <hyperlink ref="C146" r:id="rId537" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{116667A6-C201-450D-8316-BD7C439E202E}"/>
-    <hyperlink ref="E146" r:id="rId538" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{42E6E4A9-301D-4070-AC48-33B919A03565}"/>
-    <hyperlink ref="I146" r:id="rId539" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F5C84662-95E7-4374-A291-FAB3FBE0A5D9}"/>
-    <hyperlink ref="M146" r:id="rId540" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{C1C3D443-3EDA-4EB6-9ADC-13F13A17ABF2}"/>
-    <hyperlink ref="C147" r:id="rId541" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{66284AEA-93AB-43D5-9C46-74A14262FA6B}"/>
-    <hyperlink ref="E147" r:id="rId542" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{5B59DB47-971E-4804-A769-9561EC8D5136}"/>
-    <hyperlink ref="I147" r:id="rId543" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{11E51990-9043-4571-B94A-132E168543F5}"/>
-    <hyperlink ref="M147" r:id="rId544" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{ADB2030D-F51F-4FE4-B65E-48AA8A436E8B}"/>
-    <hyperlink ref="C148" r:id="rId545" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{2658E42D-A67C-48F4-9A4F-D62D9459A1A5}"/>
-    <hyperlink ref="E148" r:id="rId546" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{185A377A-58CB-4531-BCF2-C128953CD0F4}"/>
-    <hyperlink ref="I148" r:id="rId547" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D4667EB4-46DD-4160-8E2C-359DCEEED464}"/>
-    <hyperlink ref="M148" r:id="rId548" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{87580404-B5BF-48BC-9542-9EDB633048C3}"/>
-    <hyperlink ref="C149" r:id="rId549" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{46A8E3C3-B087-4F1C-BDEB-9DB156FA82A3}"/>
-    <hyperlink ref="E149" r:id="rId550" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{3294FBC0-E481-456D-B81C-6F3D5835D471}"/>
-    <hyperlink ref="I149" r:id="rId551" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F00CCBCD-15E3-4214-A414-00354B486EAD}"/>
-    <hyperlink ref="M149" r:id="rId552" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{5E26E2A8-A5A0-4BAD-8AAF-996D0F57FA82}"/>
-    <hyperlink ref="C150" r:id="rId553" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{F984BFF9-0E20-4AA1-90E6-3473206268C5}"/>
-    <hyperlink ref="E150" r:id="rId554" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{D29C2547-4204-4A8D-8DCB-17E0C3FF73F9}"/>
-    <hyperlink ref="I150" r:id="rId555" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{514294B3-2477-4A56-AD50-34E46E2916D9}"/>
-    <hyperlink ref="M150" r:id="rId556" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{78E421A7-D775-4F1B-8899-64D1A7AF089C}"/>
-    <hyperlink ref="C151" r:id="rId557" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{E782E054-B928-4474-9B96-F0D04D42EDC1}"/>
-    <hyperlink ref="E151" r:id="rId558" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{565E9AE0-124D-428B-BE8E-B6C7D599DB97}"/>
-    <hyperlink ref="I151" r:id="rId559" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{F2A39ADA-B9B5-4BD4-892C-0199874334D2}"/>
-    <hyperlink ref="M151" r:id="rId560" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{A858973F-D24B-4964-8753-76F53C959D09}"/>
-    <hyperlink ref="C152" r:id="rId561" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{5ED5AA9E-B2E3-4970-964C-C4E756C212FF}"/>
-    <hyperlink ref="E152" r:id="rId562" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8CEFDD09-B9DC-4F5D-ADE1-B99A3718EF5F}"/>
-    <hyperlink ref="I152" r:id="rId563" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{99F53289-1BAD-454C-9BE6-B2CFCCB83093}"/>
-    <hyperlink ref="M152" r:id="rId564" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{970C5B6B-AE1D-4E6C-B38A-55C1D135D956}"/>
-    <hyperlink ref="C153" r:id="rId565" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{C253DFC3-D402-4945-89ED-8A2DC48C368F}"/>
-    <hyperlink ref="E153" r:id="rId566" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{CCAAC91F-D521-4B2C-A54F-52C7E86D329E}"/>
-    <hyperlink ref="I153" r:id="rId567" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{0B2A4FDD-C9EB-4874-9DF8-CEADBF928007}"/>
-    <hyperlink ref="M153" r:id="rId568" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{07126B39-DB12-4E21-B3BB-31B16E8EF332}"/>
-    <hyperlink ref="C154" r:id="rId569" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{25489BFF-10B1-476C-92CC-A9554B35CFEA}"/>
-    <hyperlink ref="E154" r:id="rId570" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8B13874D-42CD-46FD-A850-B05A81652B33}"/>
-    <hyperlink ref="I154" r:id="rId571" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D917DDF8-57CA-4DC8-85EF-96125A3CF09D}"/>
-    <hyperlink ref="M154" r:id="rId572" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{A89A8A81-D76E-4E71-9F4D-535739DF48B7}"/>
-    <hyperlink ref="C155" r:id="rId573" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{F2200D19-9C43-4FE2-8115-2D0B9F3EB3C4}"/>
-    <hyperlink ref="E155" r:id="rId574" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D3C1F22A-0BF4-4651-8E15-FC6ACA656639}"/>
-    <hyperlink ref="I155" r:id="rId575" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{974834C1-7B22-4BF8-893B-8A76FEC90ABA}"/>
-    <hyperlink ref="M155" r:id="rId576" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{D25D15C9-B8D5-43C0-BF9E-28F014767879}"/>
-    <hyperlink ref="C157" r:id="rId577" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{9F94EF25-8E11-41ED-ADE8-363EB7B288E2}"/>
-    <hyperlink ref="E157" r:id="rId578" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{0EB30A7D-DE22-4DB0-8F12-FA36B6ADA784}"/>
-    <hyperlink ref="I157" r:id="rId579" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D237A71C-654C-430B-BA75-50CA2857559B}"/>
-    <hyperlink ref="M157" r:id="rId580" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{5F3A99CA-2456-487E-9D4E-60AC5013C19D}"/>
-    <hyperlink ref="C158" r:id="rId581" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{DADD6110-3965-4C96-8F38-F0158B663E02}"/>
-    <hyperlink ref="E158" r:id="rId582" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{027D0061-F5AD-461C-8C20-7FA787FA4715}"/>
-    <hyperlink ref="I158" r:id="rId583" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7160EF40-FBDA-4463-AF47-C89B3095B37E}"/>
-    <hyperlink ref="M158" r:id="rId584" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{4ADC5BC5-DBDF-483F-887A-F13E4B2F3126}"/>
-    <hyperlink ref="C159" r:id="rId585" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{95F7CBEE-EF22-4E58-872A-E18F598F5D49}"/>
-    <hyperlink ref="E159" r:id="rId586" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{01554990-9F38-440F-8BA8-38BCB38CB4EF}"/>
-    <hyperlink ref="I159" r:id="rId587" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{B5C4F591-F67F-4695-9E0F-FBCD60873444}"/>
-    <hyperlink ref="M159" r:id="rId588" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{C4C142AE-CB1D-43FF-8FDA-8C7929D7ACAD}"/>
-    <hyperlink ref="C160" r:id="rId589" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{4B00A0DD-06B4-47DF-8386-0DA33264ED30}"/>
-    <hyperlink ref="E160" r:id="rId590" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8BF1888E-CDB8-40D0-A190-32E42D6791C7}"/>
-    <hyperlink ref="I160" r:id="rId591" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{3909B549-905A-4075-B458-A7F734C087DA}"/>
-    <hyperlink ref="M160" r:id="rId592" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{54D303E3-C15D-4AB2-8551-D06314E630E9}"/>
-    <hyperlink ref="C161" r:id="rId593" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{D32E80B3-A9B6-48D3-9973-D511881A602F}"/>
-    <hyperlink ref="E161" r:id="rId594" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{51E34F80-FF8C-4C54-860A-886F91EBDF36}"/>
-    <hyperlink ref="I161" r:id="rId595" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A041BE1A-9447-4B77-B727-A906E1E3DB4E}"/>
-    <hyperlink ref="M161" r:id="rId596" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{BB1681C7-7937-4587-A08D-D94570511092}"/>
-    <hyperlink ref="C162" r:id="rId597" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{45588490-7F8F-4A95-8A08-94E8BE7798E8}"/>
-    <hyperlink ref="E162" r:id="rId598" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{EF69DBDA-93A8-4146-9D2F-F1AF46260398}"/>
-    <hyperlink ref="I162" r:id="rId599" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{4EED7701-1297-43CC-B520-12822F35526C}"/>
-    <hyperlink ref="M162" r:id="rId600" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{B0BD7BB3-59C4-4091-982E-1FC3B42C0549}"/>
-    <hyperlink ref="C163" r:id="rId601" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{26321BE2-7499-49BB-9498-D63C0BF8B85B}"/>
-    <hyperlink ref="E163" r:id="rId602" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{1ADEFD1F-4350-484C-8EE8-64EF4BBE7F48}"/>
-    <hyperlink ref="I163" r:id="rId603" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{BD6CCAC2-055F-4550-B336-87C785E88204}"/>
-    <hyperlink ref="M163" r:id="rId604" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{669A56C8-89AE-4BB1-8E7D-34AFB6642273}"/>
-    <hyperlink ref="C164" r:id="rId605" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{39A3BEED-F62D-4AE1-B42B-B7699B5C6E65}"/>
-    <hyperlink ref="E164" r:id="rId606" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{0A70DDF6-3D4F-44A2-AE88-67CF06B50A58}"/>
-    <hyperlink ref="I164" r:id="rId607" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A2CD1CAA-A683-41C4-AED9-4449FBBACF5E}"/>
-    <hyperlink ref="M164" r:id="rId608" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{E5C56249-7B9A-4AA9-A9E8-161603821FB6}"/>
-    <hyperlink ref="C165" r:id="rId609" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{897420CE-1615-4DFB-8E2A-A8322C5F969A}"/>
-    <hyperlink ref="E165" r:id="rId610" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{20AB6D56-9F4F-4BA0-BDEF-D1ACDA13AF1D}"/>
-    <hyperlink ref="I165" r:id="rId611" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D8081A93-7DC4-4F18-A911-FBC01AB9E5CF}"/>
-    <hyperlink ref="M165" r:id="rId612" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{ACDCDB6A-15CB-4314-AEB3-BE752F61F6A6}"/>
-    <hyperlink ref="C166" r:id="rId613" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{51B199D0-6936-4A69-8818-485A1F1CABB4}"/>
-    <hyperlink ref="E166" r:id="rId614" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{8D571214-B1B1-4C60-A903-203829D5E1F2}"/>
-    <hyperlink ref="I166" r:id="rId615" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{91655FFD-FE05-4E99-B820-56ABB2E55E0B}"/>
-    <hyperlink ref="M166" r:id="rId616" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{AC0A1F68-A345-4448-8099-D51278F520D6}"/>
-    <hyperlink ref="C168" r:id="rId617" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{1EFCE10A-BA8A-4D9E-A0C4-5A07349EF8F6}"/>
-    <hyperlink ref="E168" r:id="rId618" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{AED9CFB3-CD70-42F2-BB36-74CAE06565AA}"/>
-    <hyperlink ref="I168" r:id="rId619" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2E8B5ED3-593C-49FA-8076-AC59C879BDCF}"/>
-    <hyperlink ref="M168" r:id="rId620" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{CCE8183C-E5AE-405B-AB0A-C5A5CABC3FFF}"/>
-    <hyperlink ref="C169" r:id="rId621" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{8FB09999-E38F-46DA-937B-7AD99BA868AF}"/>
-    <hyperlink ref="E169" r:id="rId622" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7372F250-914C-4D38-AE49-EF7425D87E87}"/>
-    <hyperlink ref="I169" r:id="rId623" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AAC94B07-136A-44C1-AD13-F921251B6676}"/>
-    <hyperlink ref="M169" r:id="rId624" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{ED3DDDF0-52D3-4643-9A04-C0EDE6FFAEA5}"/>
-    <hyperlink ref="C170" r:id="rId625" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{C55DA3F5-7F41-4C21-AAB0-1F7DEE175A66}"/>
-    <hyperlink ref="E170" r:id="rId626" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{8D389CFF-C445-44D1-921F-D498499233FE}"/>
-    <hyperlink ref="I170" r:id="rId627" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{26204E8D-CDDE-453D-BEF5-402A4F91C392}"/>
-    <hyperlink ref="M170" r:id="rId628" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{93A8A6C4-4167-4A2D-8AD4-B0F04594AC2D}"/>
-    <hyperlink ref="C171" r:id="rId629" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{EECCBF83-FCA7-4FBE-A3C7-C182CC490370}"/>
-    <hyperlink ref="E171" r:id="rId630" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{1FFDF951-856B-47E3-A4DB-DF8265B6CE8E}"/>
-    <hyperlink ref="I171" r:id="rId631" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{B34A51AD-D5C7-4206-AB9F-009E116E34E4}"/>
-    <hyperlink ref="M171" r:id="rId632" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{703B1C3A-BB4C-47DA-A06C-3F8BE03AF60F}"/>
-    <hyperlink ref="C172" r:id="rId633" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{D2029734-0BF0-491D-BEE7-2D73607F09AE}"/>
-    <hyperlink ref="E172" r:id="rId634" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{71C530C1-6349-4DB7-89FC-989B317F17B6}"/>
-    <hyperlink ref="I172" r:id="rId635" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{3B45DA37-467A-40B1-A854-BC3457AC0850}"/>
-    <hyperlink ref="M172" r:id="rId636" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{8A2BE7C0-BCEB-4C00-A19E-A5191AD2F2A2}"/>
-    <hyperlink ref="C173" r:id="rId637" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{D3437746-40F6-460C-8D3E-D49F0EF913A5}"/>
-    <hyperlink ref="E173" r:id="rId638" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EBD7C8B3-4F32-4C61-AB28-35DA6B0922BB}"/>
-    <hyperlink ref="I173" r:id="rId639" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{ED032091-3C27-4B01-ADD7-B01ABBE4D4B1}"/>
-    <hyperlink ref="M173" r:id="rId640" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{0AA5B766-8DC7-4B33-8E4B-9306FB554A5B}"/>
-    <hyperlink ref="C174" r:id="rId641" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{12CD3B08-EFC4-4103-B8EC-2B20F3D5F0CD}"/>
-    <hyperlink ref="E174" r:id="rId642" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D4F760C3-BCE5-425A-8C67-71B885DDCC90}"/>
-    <hyperlink ref="I174" r:id="rId643" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BC26A55E-E5DA-4A62-A15A-D2BFA86899AE}"/>
-    <hyperlink ref="M174" r:id="rId644" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{D03DED41-8C64-4315-B7F9-437B7C5E25CA}"/>
-    <hyperlink ref="C175" r:id="rId645" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{D15D7574-1FFC-4D20-9AAA-9E032E127787}"/>
-    <hyperlink ref="E175" r:id="rId646" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{BA87AD68-FB46-47F1-B667-2A62337B2DEB}"/>
-    <hyperlink ref="I175" r:id="rId647" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{0891FB03-4A0C-46B8-A8FD-530EEDC11499}"/>
-    <hyperlink ref="M175" r:id="rId648" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{D1C2D312-2F36-4B7C-9130-18B5B85603B8}"/>
-    <hyperlink ref="C176" r:id="rId649" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{93F5F0C3-74CD-4EBD-8A83-4E707CB141D2}"/>
-    <hyperlink ref="E176" r:id="rId650" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{9E730F3A-87BD-4017-AAA0-A5656F9D0627}"/>
-    <hyperlink ref="I176" r:id="rId651" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{56AEDB4C-8F97-42FB-AF51-B5D416C7F352}"/>
-    <hyperlink ref="M176" r:id="rId652" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{9414D068-E206-442C-A818-CE2E319166EC}"/>
-    <hyperlink ref="C177" r:id="rId653" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{106B491F-38A3-4A16-8058-AE3C97C931D3}"/>
-    <hyperlink ref="E177" r:id="rId654" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{FC8D6D18-B07D-4A94-9D88-B250732C9358}"/>
-    <hyperlink ref="I177" r:id="rId655" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{AA130C7A-C90F-4B3F-AB23-7EE1C5B3F935}"/>
-    <hyperlink ref="M177" r:id="rId656" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{9D35926F-08B9-4467-9C6B-B84DDCD2F465}"/>
-    <hyperlink ref="C179" r:id="rId657" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{D4465B23-71CC-4182-9B74-2F55E9577FD2}"/>
-    <hyperlink ref="E179" r:id="rId658" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{89BD4030-1304-44B9-859B-7E33E2FBBBD0}"/>
-    <hyperlink ref="I179" r:id="rId659" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4BDE4624-E291-48E4-B37E-A3358912554E}"/>
-    <hyperlink ref="M179" r:id="rId660" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{FA0D5400-D257-41C5-933A-05A92FDA23E1}"/>
-    <hyperlink ref="C180" r:id="rId661" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{1DDFF465-2CD2-4A57-888B-DBF4941B0B81}"/>
-    <hyperlink ref="E180" r:id="rId662" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E3879F03-8BA0-44DE-BB14-D965FF98C9CA}"/>
-    <hyperlink ref="I180" r:id="rId663" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4E965FC0-6F3F-49CD-A199-B42A9CF47D7B}"/>
-    <hyperlink ref="M180" r:id="rId664" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{A6E4E9F3-729F-4E2C-B939-07F02AE967F9}"/>
-    <hyperlink ref="C181" r:id="rId665" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{4C468FD2-2A70-4C1E-99D5-668B5764780A}"/>
-    <hyperlink ref="E181" r:id="rId666" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{6ECB6A32-1E00-450B-A9FD-296E044ED095}"/>
-    <hyperlink ref="I181" r:id="rId667" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B99ECEAB-6F85-4E77-85DC-C6692BF4976E}"/>
-    <hyperlink ref="M181" r:id="rId668" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{CAAC6F84-EA26-4A69-AC08-54BD77692F22}"/>
-    <hyperlink ref="C182" r:id="rId669" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{D1057799-56C4-4939-943C-FEA5B1BC8A44}"/>
-    <hyperlink ref="E182" r:id="rId670" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9E57DED7-3921-428A-A898-6EE533C42E57}"/>
-    <hyperlink ref="I182" r:id="rId671" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{54D1B8DD-23CA-4886-9287-8DBF2F0F576A}"/>
-    <hyperlink ref="M182" r:id="rId672" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{BC91C2BD-5FAA-4F2B-A2E9-84633E5F7358}"/>
-    <hyperlink ref="C183" r:id="rId673" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{E015019D-0627-41EE-B4F4-1BA2A510EFC1}"/>
-    <hyperlink ref="E183" r:id="rId674" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{4A8554DD-4879-4D7C-9AFE-F24AFE9F4101}"/>
-    <hyperlink ref="I183" r:id="rId675" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{72E60DC9-4699-4598-A9FF-3CB065459E58}"/>
-    <hyperlink ref="M183" r:id="rId676" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{BB58A856-CF40-49AC-983E-C0F9579F1B3C}"/>
-    <hyperlink ref="C184" r:id="rId677" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{634D3AA8-A98E-4218-97FC-2168E3E0ACDE}"/>
-    <hyperlink ref="E184" r:id="rId678" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{A6B7AA25-D170-4E93-812D-6C4BCF9F15DA}"/>
-    <hyperlink ref="I184" r:id="rId679" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6B3CD564-BE96-4DFB-83A2-3E4E2AC68882}"/>
-    <hyperlink ref="M184" r:id="rId680" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{98BEF9C4-0AAD-446C-AAE2-C2BF68FFF5D7}"/>
-    <hyperlink ref="C185" r:id="rId681" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{5E1CD55F-A2C7-44C0-9C40-044780627718}"/>
-    <hyperlink ref="E185" r:id="rId682" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D59C0A93-CA44-46B0-BE83-0E2E3EDDEFBB}"/>
-    <hyperlink ref="I185" r:id="rId683" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7AA20321-9E09-4F85-A2B0-9F2D555F8C40}"/>
-    <hyperlink ref="M185" r:id="rId684" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{1009ADE3-194D-4240-B3D9-F126FDE585FF}"/>
-    <hyperlink ref="C186" r:id="rId685" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{0E43E74A-A098-4717-807E-188D2E233E2C}"/>
-    <hyperlink ref="E186" r:id="rId686" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{FC72620D-270D-4FB1-8E1D-57E3806E23F7}"/>
-    <hyperlink ref="I186" r:id="rId687" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{79A58831-C5BE-45C2-AFDE-1CC47A3B0831}"/>
-    <hyperlink ref="M186" r:id="rId688" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{85C24782-4450-4DC2-A606-6170C42334C5}"/>
-    <hyperlink ref="C187" r:id="rId689" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{195BA7FB-AC19-4C41-A0C4-6B6C33F18568}"/>
-    <hyperlink ref="E187" r:id="rId690" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{13D97B01-D2F7-4052-ADA1-E646BE340CC9}"/>
-    <hyperlink ref="I187" r:id="rId691" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6EE4DA76-1A31-420B-851F-1F2A2DA0388D}"/>
-    <hyperlink ref="M187" r:id="rId692" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{AE75C9FF-57FB-45CE-8140-E09EB57F2BCE}"/>
-    <hyperlink ref="C188" r:id="rId693" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{8747E1C8-023F-4C6B-A81A-1CF9FF4CDB80}"/>
-    <hyperlink ref="E188" r:id="rId694" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{BA51FD42-2762-4DCC-809E-E9FB6B0EA9EA}"/>
-    <hyperlink ref="I188" r:id="rId695" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6EDE286E-0658-45FC-A9BD-957DBAE0598C}"/>
-    <hyperlink ref="M188" r:id="rId696" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{2144E47A-BEEB-4A8B-A44A-D1DBE26DAC33}"/>
-    <hyperlink ref="C190" r:id="rId697" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{05F685ED-50BE-4297-934A-6EE12D8213B9}"/>
-    <hyperlink ref="E190" r:id="rId698" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{92C6128F-7FE9-4639-9F98-7960582F5216}"/>
-    <hyperlink ref="I190" r:id="rId699" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{697F66C8-1715-4747-BF63-F152B9CB0CC6}"/>
-    <hyperlink ref="M190" r:id="rId700" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{160547F3-BA5B-44E3-9144-B45BFCB354A4}"/>
-    <hyperlink ref="C191" r:id="rId701" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{61707AB6-3AC0-4796-B10A-199A1E14D45A}"/>
-    <hyperlink ref="E191" r:id="rId702" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1BB66CC7-957C-463B-B774-031C8C8BC299}"/>
-    <hyperlink ref="I191" r:id="rId703" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{31F9250D-588A-4E49-B33D-35A55D20C7FA}"/>
-    <hyperlink ref="M191" r:id="rId704" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{1E01BFCA-5E99-46A4-88B3-29B133C7EACC}"/>
-    <hyperlink ref="C192" r:id="rId705" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{C726F4C5-04C2-4B51-87F2-B86373483C1B}"/>
-    <hyperlink ref="E192" r:id="rId706" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1A0231B4-8CAA-4F75-B9C8-49E93359C499}"/>
-    <hyperlink ref="I192" r:id="rId707" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{00761D9A-BEDB-4CEA-AD36-E9A6B648DD31}"/>
-    <hyperlink ref="M192" r:id="rId708" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{A1FE2811-81C5-49EB-B3F4-46E0F66CF1CC}"/>
-    <hyperlink ref="C193" r:id="rId709" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{8FACD34E-1E66-40C2-A9EF-E23E00F728F6}"/>
-    <hyperlink ref="E193" r:id="rId710" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D1D66BD6-18F4-41B6-B30A-4CA42A62A0BB}"/>
-    <hyperlink ref="I193" r:id="rId711" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{3D9AF3D3-0B0F-4C69-8B31-35E03BC73C4A}"/>
-    <hyperlink ref="M193" r:id="rId712" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{AFD44EE1-98FA-467B-B593-2ECE04240BFA}"/>
-    <hyperlink ref="C194" r:id="rId713" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{7C87B3AA-C8E9-403B-A2D8-807BC2735B13}"/>
-    <hyperlink ref="E194" r:id="rId714" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{83A91F40-768E-4A7F-9872-3B553692562D}"/>
-    <hyperlink ref="I194" r:id="rId715" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{014AF368-F6D5-484E-BBD1-A70164ACA01B}"/>
-    <hyperlink ref="M194" r:id="rId716" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{0D4A5D37-9D46-4314-B908-F8D84BF19FF8}"/>
-    <hyperlink ref="C195" r:id="rId717" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{D32816B3-4891-4AAA-9496-722F2919FF29}"/>
-    <hyperlink ref="E195" r:id="rId718" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{89D54004-197F-463C-B336-B6120B1E0910}"/>
-    <hyperlink ref="I195" r:id="rId719" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{16009039-AE96-49B1-9799-C49230A641D3}"/>
-    <hyperlink ref="M195" r:id="rId720" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{3149DA6A-6659-4EBC-8A90-502B8597D9F6}"/>
-    <hyperlink ref="C196" r:id="rId721" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{7480EFB3-4CCA-4781-BC2F-AC5D910293D3}"/>
-    <hyperlink ref="E196" r:id="rId722" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{F6B0852D-809F-4FAF-8F59-296077ECADEF}"/>
-    <hyperlink ref="I196" r:id="rId723" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{92E00894-D3AA-4D1C-8F59-D04BB52BC6E9}"/>
-    <hyperlink ref="M196" r:id="rId724" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{BE30AE77-92EF-4A8B-A934-858D8D0B9D2B}"/>
-    <hyperlink ref="C197" r:id="rId725" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{71522545-955D-4C7B-872E-E9BEE2017410}"/>
-    <hyperlink ref="E197" r:id="rId726" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{CA73D2A9-1727-4986-A4B8-B18AFF19A12E}"/>
-    <hyperlink ref="I197" r:id="rId727" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1A8D170E-52A5-4509-A333-5D5B7A58819F}"/>
-    <hyperlink ref="M197" r:id="rId728" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{40C32DF5-3FF3-4FD7-B50E-70F88249B6CF}"/>
-    <hyperlink ref="C198" r:id="rId729" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{9189D304-FDDE-4568-A0BB-27D5D71F4A63}"/>
-    <hyperlink ref="E198" r:id="rId730" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{ED78751C-B804-48D8-868F-F51E986099F2}"/>
-    <hyperlink ref="I198" r:id="rId731" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{8C9FFF05-C9EF-4551-B435-DB5BB0B2322F}"/>
-    <hyperlink ref="M198" r:id="rId732" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{30A2F44C-052F-4D99-8B3E-34015B9E0AE3}"/>
-    <hyperlink ref="C199" r:id="rId733" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{35E46E34-18F2-4F3D-8EEB-104DD65BC873}"/>
-    <hyperlink ref="E199" r:id="rId734" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A1356556-7069-466E-8188-54AD92071A8E}"/>
-    <hyperlink ref="I199" r:id="rId735" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5A1B336E-83CE-47BF-A8BF-C5FEEE6DEC3F}"/>
-    <hyperlink ref="M199" r:id="rId736" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{3C73A1F8-C6C9-49DF-B16E-4274477041DD}"/>
-    <hyperlink ref="C201" r:id="rId737" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{4732D50E-3FAD-4DAF-A850-8CC824AD7091}"/>
-    <hyperlink ref="E201" r:id="rId738" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{7460136F-3F4E-41A8-A914-D3389C6D4EF8}"/>
-    <hyperlink ref="I201" r:id="rId739" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{4C65C4C9-B377-467F-A21C-3252A246289E}"/>
-    <hyperlink ref="M201" r:id="rId740" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{3E37338E-81FD-4FF9-9CBE-69BD2DE4FE0E}"/>
-    <hyperlink ref="C202" r:id="rId741" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{3AF9E07E-7872-4D41-957B-01DE95F7FFC2}"/>
-    <hyperlink ref="E202" r:id="rId742" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FC099B0B-5EEA-4679-AAEE-9163B3AF5A1C}"/>
-    <hyperlink ref="I202" r:id="rId743" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1BEDFD16-A709-4ECC-AA83-2B6BD1F18D04}"/>
-    <hyperlink ref="M202" r:id="rId744" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{7F689DD1-67F4-4E35-BB3C-B7823677C2A0}"/>
-    <hyperlink ref="C203" r:id="rId745" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{A9B52755-67F3-40C4-B54A-3D81CA6CAA1B}"/>
-    <hyperlink ref="E203" r:id="rId746" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2BACAD99-D0B1-469B-A150-B6B999EEE198}"/>
-    <hyperlink ref="I203" r:id="rId747" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{72B8B9A6-2F2D-4E8D-81C5-480DB126DECB}"/>
-    <hyperlink ref="M203" r:id="rId748" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{DA84EDD5-509B-4421-8B70-CB1AC41AF5C9}"/>
-    <hyperlink ref="C204" r:id="rId749" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{84495590-1697-4EC1-B867-76BB2BF4AF6F}"/>
-    <hyperlink ref="E204" r:id="rId750" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{09F484BC-0CC7-47E7-B1D9-C25B1D30B5FB}"/>
-    <hyperlink ref="I204" r:id="rId751" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{E2C67CE3-F215-4AF0-B7C6-26DD11DE9CFA}"/>
-    <hyperlink ref="M204" r:id="rId752" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{401502A8-9942-4F68-A1C0-79E757D3F774}"/>
-    <hyperlink ref="C205" r:id="rId753" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{6DDC5B3D-9C5E-400E-A420-337852DA5E4A}"/>
-    <hyperlink ref="E205" r:id="rId754" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5A2E65F3-83B4-40D2-8915-346664EC525A}"/>
-    <hyperlink ref="I205" r:id="rId755" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5EE025FB-823D-41E8-A86F-30EC7E8E2F56}"/>
-    <hyperlink ref="M205" r:id="rId756" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{20616EFE-84CB-4DAD-98D7-9B2FED95BDF7}"/>
-    <hyperlink ref="C206" r:id="rId757" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{97321DBA-5A1F-4E5E-A4BC-BF0C1B1A8647}"/>
-    <hyperlink ref="E206" r:id="rId758" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C339A3EE-380D-4C8C-BC73-0922BC2C66F3}"/>
-    <hyperlink ref="I206" r:id="rId759" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{0E5EA9C1-CE3F-460B-B2D4-615B23A8A808}"/>
-    <hyperlink ref="M206" r:id="rId760" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{7B6022FB-270B-4E67-9C22-CA93AADE0AE4}"/>
-    <hyperlink ref="C207" r:id="rId761" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B15CEBDB-0741-46AF-BE2B-EFD5379A08AC}"/>
-    <hyperlink ref="E207" r:id="rId762" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{C13D4244-2477-4600-A70F-C85EC4371FD3}"/>
-    <hyperlink ref="I207" r:id="rId763" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{01A4115B-C270-4EAD-B434-EE87D47349F3}"/>
-    <hyperlink ref="M207" r:id="rId764" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{F677F6F4-73F4-49E3-948D-5E346D3F5B59}"/>
-    <hyperlink ref="C208" r:id="rId765" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{6407B45C-2019-423A-8CED-98BAE919E638}"/>
-    <hyperlink ref="E208" r:id="rId766" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C7FD9B2F-BB0F-4C25-897C-2CEA31BBFFB2}"/>
-    <hyperlink ref="I208" r:id="rId767" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{FBD3EA95-D8FA-427C-B691-DE9E095BF045}"/>
-    <hyperlink ref="M208" r:id="rId768" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{3FBA39F3-1CFE-4981-A8BE-B7D4A4AFFE6D}"/>
-    <hyperlink ref="C209" r:id="rId769" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{1B665096-1014-4041-81D2-3E44D1933BB7}"/>
-    <hyperlink ref="E209" r:id="rId770" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C7DF1F18-49E1-42CB-A8BB-37F5F6F6CD56}"/>
-    <hyperlink ref="I209" r:id="rId771" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{B57886D1-AAE6-4D61-9B91-BB42619D98B2}"/>
-    <hyperlink ref="M209" r:id="rId772" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{9FB69297-FC94-4B8E-8740-5A594F3F378B}"/>
-    <hyperlink ref="C210" r:id="rId773" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{421FFF34-8543-403D-89E1-405E0D09FE4B}"/>
-    <hyperlink ref="E210" r:id="rId774" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{A9131CA4-B3B0-4C8D-A0C9-8947175B25AE}"/>
-    <hyperlink ref="I210" r:id="rId775" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{718C7C64-70AC-4608-8E5F-F700A6EB5FBF}"/>
-    <hyperlink ref="M210" r:id="rId776" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{2E5E6E7E-EA90-4BC8-9712-22A6A3502E3A}"/>
-    <hyperlink ref="C212" r:id="rId777" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{88955996-4C82-4AEE-87C2-CB983A3D4318}"/>
-    <hyperlink ref="E212" r:id="rId778" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7F23503F-D056-4789-A20F-EACC61133BE8}"/>
-    <hyperlink ref="I212" r:id="rId779" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{4734E933-C8EA-4C50-8BA5-8074B040BE60}"/>
-    <hyperlink ref="M212" r:id="rId780" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{14FAA268-0684-4988-B667-ACD0DC79229D}"/>
-    <hyperlink ref="C213" r:id="rId781" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{51AB4722-3653-460D-9D83-7D46EB29A397}"/>
-    <hyperlink ref="E213" r:id="rId782" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F54A7C54-428B-469B-A58A-5222BFFAADE3}"/>
-    <hyperlink ref="I213" r:id="rId783" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1FB30606-27DE-4D64-B8E9-8C670F012F88}"/>
-    <hyperlink ref="M213" r:id="rId784" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{C74FFB5E-1DC5-400C-9E34-424984C3E073}"/>
-    <hyperlink ref="C214" r:id="rId785" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{694E3688-C437-4161-AC1B-706022D40DCC}"/>
-    <hyperlink ref="E214" r:id="rId786" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{DAA7AE3B-5A3A-4702-AF4D-C27D08F50A5B}"/>
-    <hyperlink ref="I214" r:id="rId787" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{83C4A8D6-9F4B-44D8-8D14-67F1F704A951}"/>
-    <hyperlink ref="M214" r:id="rId788" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{E4222D1F-C4E9-4D80-8AC1-C7EE024C99E9}"/>
-    <hyperlink ref="C215" r:id="rId789" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{D18E177D-BCA8-4034-9726-917E442263BF}"/>
-    <hyperlink ref="E215" r:id="rId790" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{29E61AD9-E265-4FC8-B82F-DA61DCDABCFB}"/>
-    <hyperlink ref="I215" r:id="rId791" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{1D1E4F29-9C72-4338-99AC-FFAF4513D1F7}"/>
-    <hyperlink ref="M215" r:id="rId792" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{AF5A7514-843F-4097-8E81-834523814887}"/>
-    <hyperlink ref="C216" r:id="rId793" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{EDBF06DF-D6B3-4312-8296-04F719F12116}"/>
-    <hyperlink ref="E216" r:id="rId794" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{67DD0F92-38EF-4526-8A5B-EB0B771F09E2}"/>
-    <hyperlink ref="I216" r:id="rId795" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{0B60C26E-552E-48D7-8750-FA0648F6B2CE}"/>
-    <hyperlink ref="M216" r:id="rId796" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{BA48F634-A598-41B7-9A47-9A885C426643}"/>
-    <hyperlink ref="C217" r:id="rId797" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{B56905C7-DF7F-4FF6-9647-C85C911271C4}"/>
-    <hyperlink ref="E217" r:id="rId798" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{330B217A-B449-460D-96EE-C6074CDA112C}"/>
-    <hyperlink ref="I217" r:id="rId799" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{82DB0FD0-C41B-4849-82E9-6B5D21B0AA4F}"/>
-    <hyperlink ref="M217" r:id="rId800" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{4965F510-7EA4-485D-8311-2E3D34D3FD70}"/>
-    <hyperlink ref="C218" r:id="rId801" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{A5D1F198-27A1-4ED4-9633-8AA521FF7BF6}"/>
-    <hyperlink ref="E218" r:id="rId802" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{6CDC7DC9-30CA-46A0-8AB1-906651408797}"/>
-    <hyperlink ref="I218" r:id="rId803" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{BFA9042B-57AA-4B8E-8180-2FB25C0A8922}"/>
-    <hyperlink ref="M218" r:id="rId804" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{B94A704F-A630-46BF-89F0-FE3A414E035B}"/>
-    <hyperlink ref="C219" r:id="rId805" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{B39B1AF4-35B9-41A6-B9CE-842F54BF3F6B}"/>
-    <hyperlink ref="E219" r:id="rId806" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EDF4CD32-FE72-44E7-BBF3-D09C1A535060}"/>
-    <hyperlink ref="I219" r:id="rId807" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{BACBE896-0FB0-4B00-92B0-0F3F26FB8AA2}"/>
-    <hyperlink ref="M219" r:id="rId808" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{17C54C4A-ECB7-4B1F-831F-DE68A3371240}"/>
-    <hyperlink ref="C220" r:id="rId809" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{A08A3A39-B2E3-48B9-9887-EC9487C54A6C}"/>
-    <hyperlink ref="E220" r:id="rId810" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{2171BF3F-851D-401C-AFCF-ECF0B122EAA2}"/>
-    <hyperlink ref="I220" r:id="rId811" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3E9DE9E5-C3EF-451B-9B24-2675C4289EDA}"/>
-    <hyperlink ref="M220" r:id="rId812" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{2789CEF0-8E53-44EB-9A96-98B8D0F43A21}"/>
-    <hyperlink ref="C221" r:id="rId813" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{DD0ABC74-74FF-41D5-9EF0-55788C2D7FC8}"/>
-    <hyperlink ref="E221" r:id="rId814" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D79E5827-D213-488B-8F05-9746A44EB79B}"/>
-    <hyperlink ref="I221" r:id="rId815" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1EE17890-135D-4170-A1A5-6C82BC3A9AC8}"/>
-    <hyperlink ref="M221" r:id="rId816" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{D2785C85-8551-4992-B96D-E90BEA81D252}"/>
-    <hyperlink ref="C223" r:id="rId817" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{5E2B04A2-7E85-4C04-A80F-4131DF6EFBCC}"/>
-    <hyperlink ref="E223" r:id="rId818" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{4E2FC568-57B8-478E-9F66-908493CC4F96}"/>
-    <hyperlink ref="I223" r:id="rId819" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AB875C76-A410-43E4-B414-D59B98F1E8B1}"/>
-    <hyperlink ref="M223" r:id="rId820" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{94BB9255-4B86-4B60-BC24-C52E8CFB0595}"/>
-    <hyperlink ref="C224" r:id="rId821" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{F6EB1F01-3198-4CBE-BC94-E033A750B1DB}"/>
-    <hyperlink ref="E224" r:id="rId822" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{40CB2925-A02E-4CF2-AD11-5DE3C967CCE7}"/>
-    <hyperlink ref="I224" r:id="rId823" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{87DCD2C8-2274-437A-A791-BE9B6D8F761D}"/>
-    <hyperlink ref="M224" r:id="rId824" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{F6343BAF-1DB9-443F-8031-394B12FF31A7}"/>
-    <hyperlink ref="C225" r:id="rId825" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{07073C53-766A-4262-852C-5E6E964C3142}"/>
-    <hyperlink ref="E225" r:id="rId826" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{FBD23FC8-CB93-4B16-9E1A-627C6C122C4C}"/>
-    <hyperlink ref="I225" r:id="rId827" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{D807A451-812D-48FD-8725-C2B8AC6A337E}"/>
-    <hyperlink ref="M225" r:id="rId828" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{E6F04047-A4C8-47EE-B273-C880504CCCAF}"/>
-    <hyperlink ref="C226" r:id="rId829" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{4012926A-FC06-478C-A98A-A1F7FF1848F9}"/>
-    <hyperlink ref="E226" r:id="rId830" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{19F57D9E-A4C3-4AD8-B954-648C0182A10F}"/>
-    <hyperlink ref="I226" r:id="rId831" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{FF5B7D64-9779-4652-AF53-1558A191701D}"/>
-    <hyperlink ref="M226" r:id="rId832" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{2E35C02D-2C17-4BEB-9241-18EA749AAE15}"/>
-    <hyperlink ref="C227" r:id="rId833" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{BD5D1CBD-1DB8-4ECA-8666-2AB427421DE3}"/>
-    <hyperlink ref="E227" r:id="rId834" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{EAE6CDC8-73D4-43A0-91EE-9CEED5AB2C92}"/>
-    <hyperlink ref="I227" r:id="rId835" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{FDBABCEF-2661-4A45-914E-96B70087E77A}"/>
-    <hyperlink ref="M227" r:id="rId836" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{1FA83C11-EECD-4E75-A4D9-9C0EDDCC9EFD}"/>
-    <hyperlink ref="C228" r:id="rId837" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{A03D2A4D-0FFB-4C27-AC35-2947CA6A910A}"/>
-    <hyperlink ref="E228" r:id="rId838" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{B72EA8D4-CB4F-4650-BD07-A280284FE059}"/>
-    <hyperlink ref="I228" r:id="rId839" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{512ACFC8-1D75-45D1-B559-9EB2EBE6374B}"/>
-    <hyperlink ref="M228" r:id="rId840" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{ABB9B225-80A6-4B9F-9E7D-E147A6D349FF}"/>
-    <hyperlink ref="C229" r:id="rId841" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{9683C88E-6483-418C-BDE6-E15A929C1A5B}"/>
-    <hyperlink ref="E229" r:id="rId842" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9DF574FA-F99B-42FE-8E95-1AA4B9BD9BEA}"/>
-    <hyperlink ref="I229" r:id="rId843" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5515A544-30E0-4611-AB31-F7509C136CB9}"/>
-    <hyperlink ref="M229" r:id="rId844" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{C09CA7CB-D05E-47AE-B412-756BE4CCFFB7}"/>
-    <hyperlink ref="C230" r:id="rId845" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{1CF18B7E-B8BC-42A1-B39C-ABB32CFE3240}"/>
-    <hyperlink ref="E230" r:id="rId846" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{E947E47F-B618-4EEA-BE8A-026404E0A8AC}"/>
-    <hyperlink ref="I230" r:id="rId847" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FF9A4AAC-1FD9-4781-BD2A-981F1F172A61}"/>
-    <hyperlink ref="M230" r:id="rId848" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{4667F282-A2C8-4C05-BE12-5A273645F89E}"/>
-    <hyperlink ref="C231" r:id="rId849" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{FF50CF6B-183E-4DEA-82DA-27BAC5CA7492}"/>
-    <hyperlink ref="E231" r:id="rId850" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{57B0C998-ACA4-44ED-B830-415555C55B08}"/>
-    <hyperlink ref="I231" r:id="rId851" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{E2E4DB37-9CCD-40D7-8A0C-846E1CC85889}"/>
-    <hyperlink ref="M231" r:id="rId852" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{93172B97-9D22-4F48-B2EA-4AE802A0DBF7}"/>
-    <hyperlink ref="C232" r:id="rId853" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{01F58235-BB5A-43E1-8810-08180D61DDD9}"/>
-    <hyperlink ref="E232" r:id="rId854" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{75DDCF9C-411D-4340-9463-C96DA9AEEA4F}"/>
-    <hyperlink ref="I232" r:id="rId855" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{62600631-EF54-448B-94A2-0F6CFE9D908F}"/>
-    <hyperlink ref="M232" r:id="rId856" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{AF7829E1-BD64-4AA7-9C7A-7084B22F4036}"/>
-    <hyperlink ref="C234" r:id="rId857" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{18667BC9-67BB-421F-ACFF-F54F62E9A20A}"/>
-    <hyperlink ref="E234" r:id="rId858" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{67FA38D5-A833-467B-BD5D-394A83CE50BD}"/>
-    <hyperlink ref="I234" r:id="rId859" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{05940DA3-C3BB-4E2C-A9EA-21E3C277F396}"/>
-    <hyperlink ref="M234" r:id="rId860" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{311461BD-01E2-413E-956E-CC67B062CCF5}"/>
-    <hyperlink ref="C235" r:id="rId861" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{402F5E9E-3B18-4F77-99E1-23098C4170CF}"/>
-    <hyperlink ref="E235" r:id="rId862" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{623E3FD7-C39B-41E4-B9D4-E3B8C9F0CFE8}"/>
-    <hyperlink ref="I235" r:id="rId863" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{300EB4A9-7BDC-457C-A112-50FCE9B2047A}"/>
-    <hyperlink ref="M235" r:id="rId864" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{E8A54BA3-93B1-417F-BA72-54566958C191}"/>
-    <hyperlink ref="C236" r:id="rId865" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{79022DFE-DEAC-40C3-A6F1-3853BB71300D}"/>
-    <hyperlink ref="E236" r:id="rId866" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5947C5F0-B19C-46CF-86C7-805F243EC3FB}"/>
-    <hyperlink ref="I236" r:id="rId867" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D838B76A-9770-4624-BF58-90A31A0AAD0E}"/>
-    <hyperlink ref="M236" r:id="rId868" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{0595B7F5-DEC9-42A2-A8F8-BE8D98F371C6}"/>
-    <hyperlink ref="C237" r:id="rId869" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{BE2EC990-F4E5-4EA9-A480-A658D656AD51}"/>
-    <hyperlink ref="E237" r:id="rId870" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B265716A-299B-4B3B-8803-97F521E7582D}"/>
-    <hyperlink ref="I237" r:id="rId871" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{5222F516-F8F0-4CE8-8004-6D1F7A8B07FD}"/>
-    <hyperlink ref="M237" r:id="rId872" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{78F6EE41-EB07-428E-82DB-3DB430C9855B}"/>
-    <hyperlink ref="C238" r:id="rId873" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{9980C9F4-932B-4E1B-A6CF-CC8F461A1A12}"/>
-    <hyperlink ref="E238" r:id="rId874" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C2CE855D-B5F8-4383-952F-E271237EDB78}"/>
-    <hyperlink ref="I238" r:id="rId875" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{DEA3C581-99E0-4098-BAC6-277DAC133132}"/>
-    <hyperlink ref="M238" r:id="rId876" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{E7EB289E-459C-4890-A5FB-F03C047C1F92}"/>
-    <hyperlink ref="C239" r:id="rId877" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{B852C8C0-2245-4447-BE0D-12201A8660B7}"/>
-    <hyperlink ref="E239" r:id="rId878" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{0F8CB673-B7C2-4870-A5AA-3725C1F2C289}"/>
-    <hyperlink ref="I239" r:id="rId879" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7EB34831-87D1-4217-B0CB-D03ED4DFD43C}"/>
-    <hyperlink ref="M239" r:id="rId880" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{9B9A7DDB-A09A-4E6C-B7E6-F5E8324370AE}"/>
-    <hyperlink ref="C240" r:id="rId881" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{3A4C15C8-A6CA-492F-AC2B-9EA7F7333AC4}"/>
-    <hyperlink ref="E240" r:id="rId882" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EA5CBD6B-5B47-4FFE-8F6E-DCA37D26E9E2}"/>
-    <hyperlink ref="I240" r:id="rId883" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{73203E3A-58F9-4264-9A45-A08BAC5868EC}"/>
-    <hyperlink ref="M240" r:id="rId884" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{E240ACF5-DF4C-44B7-8CB5-593479BF9732}"/>
-    <hyperlink ref="C241" r:id="rId885" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{2E6A6DB7-9FC7-4F11-BF77-854890BED239}"/>
-    <hyperlink ref="E241" r:id="rId886" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{F368339A-4644-490D-9288-7D141B4E65AA}"/>
-    <hyperlink ref="I241" r:id="rId887" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{830E3C81-D46F-412E-9BC5-17DEC19C1058}"/>
-    <hyperlink ref="M241" r:id="rId888" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{2A564413-9C12-416E-8B4B-2001C3D5935F}"/>
-    <hyperlink ref="C242" r:id="rId889" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{ED243480-910D-4D9D-A962-CDD5C77842B5}"/>
-    <hyperlink ref="E242" r:id="rId890" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C93A4233-C620-4501-8432-998AE4707B94}"/>
-    <hyperlink ref="I242" r:id="rId891" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{30A4D87D-F6FA-4994-A079-BF2D667981C1}"/>
-    <hyperlink ref="M242" r:id="rId892" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{04F82AEC-5BAF-4020-AB4E-B4BC21B779BB}"/>
-    <hyperlink ref="C243" r:id="rId893" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{F95C4BAB-A7E8-48D5-AF26-10E82C6A1FFB}"/>
-    <hyperlink ref="E243" r:id="rId894" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{DF1509C6-D6E5-4E89-8D95-48EB5A9C588B}"/>
-    <hyperlink ref="I243" r:id="rId895" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{CCB07B23-8D74-4C65-952D-F3FF9868B725}"/>
-    <hyperlink ref="M243" r:id="rId896" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{C2A9D86F-8AA5-4FF3-A3DB-A345E5937B0A}"/>
-    <hyperlink ref="C245" r:id="rId897" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{1F545900-3562-459E-B135-EB9F8FE29A6F}"/>
-    <hyperlink ref="E245" r:id="rId898" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C935AA8F-4C4B-47B8-8A89-FC44C0E7D15F}"/>
-    <hyperlink ref="I245" r:id="rId899" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{F97F8F29-5CE2-4D99-B3C2-99BA78222652}"/>
-    <hyperlink ref="M245" r:id="rId900" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{F047BDA2-DD16-4FFC-8A30-B152CB3A04D9}"/>
-    <hyperlink ref="C246" r:id="rId901" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{11F85BDD-9FA3-4FFA-A6BB-ADD46186BD5C}"/>
-    <hyperlink ref="E246" r:id="rId902" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2C853058-D042-46AD-A6E2-FDD2B95196B0}"/>
-    <hyperlink ref="I246" r:id="rId903" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{992D99E8-3167-4B4E-BB9F-1E606B7316A8}"/>
-    <hyperlink ref="M246" r:id="rId904" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{FD53CDEC-5433-48DA-831D-85FD7481BDA4}"/>
-    <hyperlink ref="C247" r:id="rId905" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{7076470F-8CC6-4678-BACC-B85E0DF56D1E}"/>
-    <hyperlink ref="E247" r:id="rId906" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{693297DE-7346-4351-A9C4-8923B888B6C4}"/>
-    <hyperlink ref="I247" r:id="rId907" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{45ADEB30-98CC-4DEE-9C2E-80DD115BCB44}"/>
-    <hyperlink ref="M247" r:id="rId908" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{FD6E8128-4BCC-475D-BE8B-FD1D41895048}"/>
-    <hyperlink ref="C248" r:id="rId909" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{BBE88DB6-F50E-45A0-9C93-157D630807BC}"/>
-    <hyperlink ref="E248" r:id="rId910" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9E2F4A76-909E-46FA-B00D-EA4A32B19501}"/>
-    <hyperlink ref="I248" r:id="rId911" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{6B5B20E2-35CE-4A8D-A9DA-9CE375BD1BCA}"/>
-    <hyperlink ref="M248" r:id="rId912" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{DAA3A759-4BAC-4850-982B-55C3BA345CED}"/>
-    <hyperlink ref="C249" r:id="rId913" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{E0D30428-7EEB-4776-82C6-1B82CFA98F99}"/>
-    <hyperlink ref="E249" r:id="rId914" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{5A97BC16-8549-46B4-BCB0-3ECA22899249}"/>
-    <hyperlink ref="I249" r:id="rId915" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{EE4B686D-712F-4674-A5C8-0634C1CD3A7B}"/>
-    <hyperlink ref="M249" r:id="rId916" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{F8C7C210-05A3-4B1C-AC59-51085EDAAC06}"/>
-    <hyperlink ref="C250" r:id="rId917" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{DE838547-01CF-41ED-939A-6613AFFF5770}"/>
-    <hyperlink ref="E250" r:id="rId918" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{DCAEDF1D-881D-4A75-84A8-8A33C6B176F9}"/>
-    <hyperlink ref="I250" r:id="rId919" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{9E0B3E73-0CB2-40F8-A1AA-7B449803D3B3}"/>
-    <hyperlink ref="M250" r:id="rId920" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{2897CA1F-CD1C-4FCA-888E-C3A0F2EF40EB}"/>
-    <hyperlink ref="C251" r:id="rId921" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{658736EA-CF24-402E-863D-F95A32764466}"/>
-    <hyperlink ref="E251" r:id="rId922" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A7DB5B88-C725-4EC9-A3B4-052FE471F552}"/>
-    <hyperlink ref="I251" r:id="rId923" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{ABE39A31-273E-46B5-94A5-36FC264398F3}"/>
-    <hyperlink ref="M251" r:id="rId924" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{88FBA2CC-F87E-4650-AE40-605BB6012494}"/>
-    <hyperlink ref="C252" r:id="rId925" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{32A3A3D8-BFE9-4EFD-9523-B51A81637A95}"/>
-    <hyperlink ref="E252" r:id="rId926" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{B6A73FB9-E383-4826-9197-A7FFF8FF7C99}"/>
-    <hyperlink ref="I252" r:id="rId927" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{6C2A12C9-5E96-4221-9ABD-F0918E8FF8BE}"/>
-    <hyperlink ref="M252" r:id="rId928" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{9D57D3C7-9C8F-4539-A361-F4CF3D49BFFB}"/>
-    <hyperlink ref="C253" r:id="rId929" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{6A9A9E99-C016-4CD8-A771-9F5F60AD676D}"/>
-    <hyperlink ref="E253" r:id="rId930" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{742D551A-E374-4853-867D-07BB04BF3E17}"/>
-    <hyperlink ref="I253" r:id="rId931" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{C98A5981-B2F6-4699-886E-942289F77D69}"/>
-    <hyperlink ref="M253" r:id="rId932" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{C454E38D-C552-4769-ACFE-BA72EC4213BA}"/>
-    <hyperlink ref="C254" r:id="rId933" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{B3065186-BBE5-441A-9BBE-75C572D56138}"/>
-    <hyperlink ref="E254" r:id="rId934" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{35450D5D-2D95-4650-BDCF-11ED310B2E38}"/>
-    <hyperlink ref="I254" r:id="rId935" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{FEF28070-CBEB-4428-B093-FC3397001207}"/>
-    <hyperlink ref="M254" r:id="rId936" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{0771A770-E136-4281-8FAE-3A24BFE8A6B0}"/>
-    <hyperlink ref="C256" r:id="rId937" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{E732B0B4-8FCD-4249-9EFD-0B69FD258A1F}"/>
-    <hyperlink ref="E256" r:id="rId938" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{7FB1EA78-95A9-488B-8F26-95C973EDFA65}"/>
-    <hyperlink ref="I256" r:id="rId939" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{BD883667-B6FF-4544-8AD0-3116C6F3BCD8}"/>
-    <hyperlink ref="M256" r:id="rId940" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{869C553B-FB73-48EF-8DDB-BCB152506C4F}"/>
-    <hyperlink ref="C257" r:id="rId941" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{C899881C-5D9D-4337-8107-AAD60267B17D}"/>
-    <hyperlink ref="E257" r:id="rId942" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5F74E754-1CCF-4C40-8683-35F8DCA74F9C}"/>
-    <hyperlink ref="I257" r:id="rId943" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{DEADAFCA-DEA3-4EF2-88AB-C46BD1D73DB0}"/>
-    <hyperlink ref="M257" r:id="rId944" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{6774BD34-6EEA-4FA7-8F55-1B37847D1E88}"/>
-    <hyperlink ref="C258" r:id="rId945" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{72981B5E-0556-4228-A19B-C3494E458FA5}"/>
-    <hyperlink ref="E258" r:id="rId946" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{70CF6FE1-DC51-492B-AF1D-6B2CC2A841D0}"/>
-    <hyperlink ref="I258" r:id="rId947" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{39CF7739-B3BD-400F-8B36-7E8F11824A77}"/>
-    <hyperlink ref="M258" r:id="rId948" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{9FDD94B6-4C56-4630-870E-EFC7551A68B3}"/>
-    <hyperlink ref="C259" r:id="rId949" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{E7E4F55D-3F22-4ACA-ACDB-F8ED0EF8B553}"/>
-    <hyperlink ref="E259" r:id="rId950" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B0C159F0-030A-4CFC-9BF9-123C74042A74}"/>
-    <hyperlink ref="I259" r:id="rId951" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2AB2FF84-EAB2-41CC-AAD8-500058D443C1}"/>
-    <hyperlink ref="M259" r:id="rId952" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{F74229AC-183F-45EF-BC0C-13E035EDE9E2}"/>
-    <hyperlink ref="C260" r:id="rId953" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{D3D689C7-6D8B-4A68-B9CE-377382157346}"/>
-    <hyperlink ref="E260" r:id="rId954" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{1823F78D-C5BB-4A5F-A0F6-CC2CADA5DD2D}"/>
-    <hyperlink ref="I260" r:id="rId955" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C920546D-B758-4D6A-B6F0-31F552FD693A}"/>
-    <hyperlink ref="M260" r:id="rId956" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{373E2631-E56E-4D27-912B-27BAB678E1FF}"/>
-    <hyperlink ref="C261" r:id="rId957" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{46D35134-E66E-4C6E-B12D-A8E1E4002911}"/>
-    <hyperlink ref="E261" r:id="rId958" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{42162003-1AD3-4FD8-B40D-64DD5B001AEE}"/>
-    <hyperlink ref="I261" r:id="rId959" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{B7A1897C-4C89-490F-A215-F608613D1614}"/>
-    <hyperlink ref="M261" r:id="rId960" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{8B7DA094-EC60-4EC5-B7B4-5C6B310989E1}"/>
-    <hyperlink ref="C262" r:id="rId961" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{B0EE5B24-90C0-4BD5-A22C-D4367EEA5420}"/>
-    <hyperlink ref="E262" r:id="rId962" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8809F17C-C71E-4690-82D9-4A32C286C077}"/>
-    <hyperlink ref="I262" r:id="rId963" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{95D26A20-327A-4D84-965C-28A20AE69229}"/>
-    <hyperlink ref="M262" r:id="rId964" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{CDCDBFA6-5FE8-4B80-9141-2D5F67C3EE0E}"/>
-    <hyperlink ref="C263" r:id="rId965" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{1D7E51FD-BF6B-44A5-824F-C3B0947B8352}"/>
-    <hyperlink ref="E263" r:id="rId966" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{390AF48A-3EF4-4F8F-BB1D-4BDA1456C8FC}"/>
-    <hyperlink ref="I263" r:id="rId967" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{38EA9427-0DB8-4E0B-AA88-FCB37C4699F4}"/>
-    <hyperlink ref="M263" r:id="rId968" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{5EDF32A6-F15E-4A67-85C4-DBA6173F010D}"/>
-    <hyperlink ref="C264" r:id="rId969" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{62F8181D-5D5F-4D82-BA15-B68059E9A455}"/>
-    <hyperlink ref="E264" r:id="rId970" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D5FA70F5-526F-4CF7-82A7-0F7813B28054}"/>
-    <hyperlink ref="I264" r:id="rId971" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C9E7B4A6-7260-4BBC-A3EA-E609FF684488}"/>
-    <hyperlink ref="M264" r:id="rId972" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{FE1635D4-DC62-4F19-AA02-EEF76BDF0EF8}"/>
-    <hyperlink ref="C265" r:id="rId973" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{C76C18E3-9FCE-481D-9A95-62998807E8CC}"/>
-    <hyperlink ref="E265" r:id="rId974" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{08DC63AF-44CD-43D6-97D2-BA267E05E8AE}"/>
-    <hyperlink ref="I265" r:id="rId975" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{052E8CE1-3B1B-41D9-9695-E761FC7BDF49}"/>
-    <hyperlink ref="M265" r:id="rId976" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{D1FECDD1-D6E4-4950-A00A-019963185D76}"/>
-    <hyperlink ref="C267" r:id="rId977" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{432BF9C2-DE0A-44D5-987D-E601BB46B1BD}"/>
-    <hyperlink ref="E267" r:id="rId978" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{9CBB11D0-B250-41A6-9A5C-ED6749485A7E}"/>
-    <hyperlink ref="I267" r:id="rId979" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{893C5794-E479-44D9-B199-E56E81E39932}"/>
-    <hyperlink ref="M267" r:id="rId980" display="https://fbref.com/en/stathead/matchup/squads/943e8050/822bd0ba/Burnley-vs-Liverpool-History" xr:uid="{57ED1E0D-84DC-4DA6-8337-A889A260A84D}"/>
-    <hyperlink ref="C268" r:id="rId981" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{5E831983-7613-4FD5-A3B2-D183A220ECB9}"/>
-    <hyperlink ref="E268" r:id="rId982" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{F757953A-7747-4354-B978-123089AE9AEF}"/>
-    <hyperlink ref="I268" r:id="rId983" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9F508F3B-AC8D-4D7E-86A3-52A1B279A71C}"/>
-    <hyperlink ref="M268" r:id="rId984" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{1F26C03F-37F3-405F-8285-0B205E12EAF5}"/>
-    <hyperlink ref="C269" r:id="rId985" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{E8CAEE0D-0E3B-4799-8126-420683BE2C11}"/>
-    <hyperlink ref="E269" r:id="rId986" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{03465FEE-1944-47FE-8A54-1FE2BDB5EB5B}"/>
-    <hyperlink ref="I269" r:id="rId987" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{EA8BB9D6-2720-4E85-8284-29BA936794FE}"/>
-    <hyperlink ref="M269" r:id="rId988" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{3A5F125B-D62D-43B7-8F67-E456B6F5CEBE}"/>
-    <hyperlink ref="C270" r:id="rId989" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{CE5FF35C-A9D9-4512-985E-CA214E6C3243}"/>
-    <hyperlink ref="E270" r:id="rId990" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{09C8AB79-30FC-4B48-A1A2-9AFFDA0D3A71}"/>
-    <hyperlink ref="I270" r:id="rId991" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A6AA9750-7253-405C-8C6D-284D7B0C26E8}"/>
-    <hyperlink ref="M270" r:id="rId992" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{DC851C24-059D-486E-B09C-97A4F83FD5C7}"/>
-    <hyperlink ref="C271" r:id="rId993" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{2DBF9007-1D33-4F21-A021-B9FD12275D49}"/>
-    <hyperlink ref="E271" r:id="rId994" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{AAFC9DD0-2377-4DF2-8352-76A079995271}"/>
-    <hyperlink ref="I271" r:id="rId995" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{12A60082-6D73-488E-9F07-B2CA7FE13DC7}"/>
-    <hyperlink ref="M271" r:id="rId996" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8602292d/Newcastle-United-vs-Aston-Villa-History" xr:uid="{3C98BDF6-0F98-4627-85AF-5CE8FB95EAE4}"/>
-    <hyperlink ref="C272" r:id="rId997" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{8793C7C3-E42A-4B0A-91E2-005A66902C71}"/>
-    <hyperlink ref="E272" r:id="rId998" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{530632F4-0592-4A80-A0D8-2B9E099DF15D}"/>
-    <hyperlink ref="I272" r:id="rId999" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{B57016FB-1CF0-4493-A8DC-C63F91E43750}"/>
-    <hyperlink ref="M272" r:id="rId1000" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/5bfb9659/Everton-vs-Leeds-United-History" xr:uid="{5A26DF45-104C-40B0-A239-3D63F5046091}"/>
-    <hyperlink ref="C273" r:id="rId1001" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{F2A2CFFF-FDF3-469A-A330-AF7AD4D9FC3E}"/>
-    <hyperlink ref="E273" r:id="rId1002" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{06795DF0-8447-48C6-9F92-DB8CC1BC3D16}"/>
-    <hyperlink ref="I273" r:id="rId1003" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AE8ED119-EFF4-4158-8DC6-90B24BA9CB65}"/>
-    <hyperlink ref="M273" r:id="rId1004" display="https://fbref.com/en/stathead/matchup/squads/cd051869/47c64c55/Brentford-vs-Crystal-Palace-History" xr:uid="{B7E82DF3-C334-43F5-87EB-76E46F78183B}"/>
-    <hyperlink ref="C274" r:id="rId1005" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{2E8ADBB7-5F92-4E34-977A-B9EBF74C4AED}"/>
-    <hyperlink ref="E274" r:id="rId1006" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{494CD543-35D5-447B-A626-D9B6FFEAB8D9}"/>
-    <hyperlink ref="I274" r:id="rId1007" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{F51C30F7-1800-4BF6-9676-DD45D4AFB4C0}"/>
-    <hyperlink ref="M274" r:id="rId1008" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{649F3B34-84F5-4DCE-807C-F2D32066A72D}"/>
-    <hyperlink ref="C275" r:id="rId1009" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{3FE5BD25-D6C8-4B7F-B781-8A51A08075BB}"/>
-    <hyperlink ref="E275" r:id="rId1010" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E7238AA8-9AEB-48D1-9A83-B799AF3FBC48}"/>
-    <hyperlink ref="I275" r:id="rId1011" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E31EC1FA-7157-444A-AB4A-EECCFDEB052A}"/>
-    <hyperlink ref="M275" r:id="rId1012" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/1c781004/Manchester-City-vs-Norwich-City-History" xr:uid="{13BC9E01-6432-4A21-8A7D-72BF0FCF0677}"/>
-    <hyperlink ref="C276" r:id="rId1013" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{4DEAB0AC-2AE5-458D-B952-4CEE2384BC97}"/>
-    <hyperlink ref="E276" r:id="rId1014" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{F4A15E65-4236-4195-99FC-6993727D3D9D}"/>
-    <hyperlink ref="I276" r:id="rId1015" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4B7D66AF-A90C-4C0C-B372-BA49BE23994F}"/>
-    <hyperlink ref="M276" r:id="rId1016" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/2abfe087/Brighton-and-Hove-Albion-vs-Watford-History" xr:uid="{155DB737-73BD-47E9-BC07-E3481B671635}"/>
-    <hyperlink ref="C278" r:id="rId1017" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{BF60DC4E-C30A-4675-B99A-CDA0CBB9D7F5}"/>
-    <hyperlink ref="E278" r:id="rId1018" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{73BF553E-3504-4A12-B4CD-C4450349552E}"/>
-    <hyperlink ref="I278" r:id="rId1019" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{57FABC65-D990-46C7-B2B6-39235C87C33E}"/>
-    <hyperlink ref="M278" r:id="rId1020" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/19538871/Leeds-United-vs-Manchester-United-History" xr:uid="{7A00494B-4FEC-405B-92C3-5A85978A22CD}"/>
-    <hyperlink ref="C279" r:id="rId1021" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{26AAEB57-FEAA-442C-9409-43E50979ABD0}"/>
-    <hyperlink ref="E279" r:id="rId1022" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F4446077-D981-4A5A-A804-F96564E2D954}"/>
-    <hyperlink ref="I279" r:id="rId1023" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{8BC55211-E4FF-4633-B83B-7539745D03C6}"/>
-    <hyperlink ref="M279" r:id="rId1024" display="https://fbref.com/en/stathead/matchup/squads/8602292d/2abfe087/Aston-Villa-vs-Watford-History" xr:uid="{280CAC1B-6D73-4734-A9C5-70FDEF140878}"/>
-    <hyperlink ref="C280" r:id="rId1025" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{4C774EF2-2B9F-4709-8E91-4EAA85A729A1}"/>
-    <hyperlink ref="E280" r:id="rId1026" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{B76389F2-F270-4652-BEF3-283405D7F9BF}"/>
-    <hyperlink ref="I280" r:id="rId1027" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{3926AC72-6565-4FE7-AAE4-78C2F79C9136}"/>
-    <hyperlink ref="M280" r:id="rId1028" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/361ca564/Manchester-City-vs-Tottenham-Hotspur-History" xr:uid="{1FE5CE6E-CDBA-4076-9208-2B015F4A1187}"/>
-    <hyperlink ref="C281" r:id="rId1029" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{3DDEEF02-135C-4F8C-B249-E764411CDD2D}"/>
-    <hyperlink ref="E281" r:id="rId1030" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{07C67FD2-41C8-4B62-827A-893C8A96BC2E}"/>
-    <hyperlink ref="I281" r:id="rId1031" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{2041C096-9B9B-4BED-937E-9B68DF918E8C}"/>
-    <hyperlink ref="M281" r:id="rId1032" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/33c895d4/Everton-vs-Southampton-History" xr:uid="{E67AEB1C-5D10-4195-88BF-10DABCA0ABC7}"/>
-    <hyperlink ref="C282" r:id="rId1033" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{463F810D-587A-4E89-9E3D-D5E3E2D50637}"/>
-    <hyperlink ref="E282" r:id="rId1034" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{FAA24B41-7085-4CEB-96F6-4046AC9A7A6E}"/>
-    <hyperlink ref="I282" r:id="rId1035" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{2C4ED0E3-A508-44A9-89A5-5C376D61DF73}"/>
-    <hyperlink ref="M282" r:id="rId1036" display="https://fbref.com/en/stathead/matchup/squads/cd051869/18bb7c10/Brentford-vs-Arsenal-History" xr:uid="{313F5390-FC7C-4637-985A-4D498069637F}"/>
-    <hyperlink ref="C283" r:id="rId1037" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{2165395C-E53A-4BC4-BBD7-84B2B010DA30}"/>
-    <hyperlink ref="E283" r:id="rId1038" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{96C6E899-3E80-4D5A-A825-ACC479155813}"/>
-    <hyperlink ref="I283" r:id="rId1039" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A4FD82A9-5754-4FE9-B3A3-31A84E26AADC}"/>
-    <hyperlink ref="M283" r:id="rId1040" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/1c781004/Liverpool-vs-Norwich-City-History" xr:uid="{4242D4E2-A9EF-43CF-9DA0-96807265E582}"/>
-    <hyperlink ref="C284" r:id="rId1041" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{561A2BFA-7CFE-4148-AEA3-447C745A8A51}"/>
-    <hyperlink ref="E284" r:id="rId1042" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{8DE7B44B-93EC-46BA-80F2-329B3E9AFE5E}"/>
-    <hyperlink ref="I284" r:id="rId1043" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{FE07272F-6574-4CB1-B305-709E5A13B39E}"/>
-    <hyperlink ref="M284" r:id="rId1044" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/47c64c55/Chelsea-vs-Crystal-Palace-History" xr:uid="{1A6C5792-0D55-41D9-846D-A5D0DFA9B0DC}"/>
-    <hyperlink ref="C285" r:id="rId1045" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{1D6E76BF-14AA-4BED-A91A-0B090C4231EA}"/>
-    <hyperlink ref="E285" r:id="rId1046" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{6F71911F-F737-4043-9B39-3FED932AD37B}"/>
-    <hyperlink ref="I285" r:id="rId1047" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{D7A2A918-3ABC-4F5A-9986-32AA9716A613}"/>
-    <hyperlink ref="M285" r:id="rId1048" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/7c21e445/Newcastle-United-vs-West-Ham-United-History" xr:uid="{BEBD6C9A-CD0B-42C5-A548-833011D8A4E7}"/>
-    <hyperlink ref="C286" r:id="rId1049" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{271BDBD0-7657-44B8-AD79-79AA11682845}"/>
-    <hyperlink ref="E286" r:id="rId1050" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{2159A695-7383-4E99-881A-A481FDC93F75}"/>
-    <hyperlink ref="I286" r:id="rId1051" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A980BDF2-2014-4F49-A751-F2048FF9335B}"/>
-    <hyperlink ref="M286" r:id="rId1052" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8cec06e1/Leicester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{376534F4-07E4-43E4-B5D3-1E29B2DAB06C}"/>
-    <hyperlink ref="C287" r:id="rId1053" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{87B19A64-D529-4102-98B5-BEBC10FF3B95}"/>
-    <hyperlink ref="E287" r:id="rId1054" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{162EB43F-E7FC-45A0-910B-FCC36090A5AE}"/>
-    <hyperlink ref="I287" r:id="rId1055" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2905502A-8AD8-4051-918B-7D30F346FD77}"/>
-    <hyperlink ref="M287" r:id="rId1056" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/943e8050/Brighton-and-Hove-Albion-vs-Burnley-History" xr:uid="{0703DA04-B363-484A-AD6E-F8CF294CE4A1}"/>
-    <hyperlink ref="C289" r:id="rId1057" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{FB147FBD-BF48-4DA8-97F0-3BED9C20ECFA}"/>
-    <hyperlink ref="E289" r:id="rId1058" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{40E63EF2-AB54-41C9-8F21-77F2E9D2C681}"/>
-    <hyperlink ref="I289" r:id="rId1059" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{0F4F2024-0778-46EB-A948-79766B8E3463}"/>
-    <hyperlink ref="M289" r:id="rId1060" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{F8205EB1-B2EC-468F-9565-CFBAB10F469E}"/>
-    <hyperlink ref="C290" r:id="rId1061" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{C6C8704C-9748-4B33-9534-3AA8AC626930}"/>
-    <hyperlink ref="E290" r:id="rId1062" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0373489D-9704-4667-9557-94BED2EB33DA}"/>
-    <hyperlink ref="I290" r:id="rId1063" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{017427AA-A71C-48BB-9A06-F99ACD0B3FC3}"/>
-    <hyperlink ref="M290" r:id="rId1064" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{F154A67E-9346-46CA-824C-95D46142F902}"/>
-    <hyperlink ref="C291" r:id="rId1065" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{C5E47D47-82CE-4BDF-8109-C35D40638831}"/>
-    <hyperlink ref="E291" r:id="rId1066" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{A5262189-069C-4A1F-BC7A-C3A0F88E167E}"/>
-    <hyperlink ref="I291" r:id="rId1067" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{15DB27AD-94C4-42DD-8AF1-6B258AA5FCF6}"/>
-    <hyperlink ref="M291" r:id="rId1068" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{E79CE1C8-D9B0-4F49-BD28-F962D8A3ED09}"/>
-    <hyperlink ref="C292" r:id="rId1069" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{FAB3430D-6608-4359-805F-33BEB782A0E5}"/>
-    <hyperlink ref="E292" r:id="rId1070" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{E250ED27-B71F-429A-8D84-764F9FACB995}"/>
-    <hyperlink ref="I292" r:id="rId1071" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{42DEA258-85C0-440C-B52E-DC74031948AA}"/>
-    <hyperlink ref="M292" r:id="rId1072" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{03C8CF7F-0106-43C3-A9D3-09CB93953221}"/>
-    <hyperlink ref="C293" r:id="rId1073" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{488FB842-D975-4B77-84AD-2B9A606AE596}"/>
-    <hyperlink ref="E293" r:id="rId1074" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{1F240EA8-96EE-4B4C-9572-B0DA012EC14D}"/>
-    <hyperlink ref="I293" r:id="rId1075" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{92B8785E-9ED0-4490-AEDB-C1112C49F0EA}"/>
-    <hyperlink ref="M293" r:id="rId1076" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{27C6D85B-224C-4DD4-9C51-4F130D8153F8}"/>
-    <hyperlink ref="C294" r:id="rId1077" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{23D8FDD4-7A92-494E-89C8-723CF58D17D1}"/>
-    <hyperlink ref="E294" r:id="rId1078" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8777F8A5-F2DD-4AD5-BB50-CC6F56837BBE}"/>
-    <hyperlink ref="I294" r:id="rId1079" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{AAE1BA31-D8C4-4A81-8B24-91F912632217}"/>
-    <hyperlink ref="M294" r:id="rId1080" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{AD7DA330-33B7-4F40-ADE7-EFC16A3826BD}"/>
-    <hyperlink ref="C295" r:id="rId1081" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{CA7CF51B-4E87-40D7-9B26-6FF82CCDFDC3}"/>
-    <hyperlink ref="E295" r:id="rId1082" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7CC35C94-8846-4651-BC60-E8DE4A4CF736}"/>
-    <hyperlink ref="I295" r:id="rId1083" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{C41B0099-517E-4CA1-B913-F3A1A09D9197}"/>
-    <hyperlink ref="M295" r:id="rId1084" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{7C7898FB-01F7-4653-993E-D8FE9B119A94}"/>
-    <hyperlink ref="C296" r:id="rId1085" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{D84AF4B5-8D91-44E9-9DDB-216D89FB1A35}"/>
-    <hyperlink ref="E296" r:id="rId1086" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{258EF7FD-4441-45DD-9FE4-D32DE6C32CDE}"/>
-    <hyperlink ref="I296" r:id="rId1087" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{938C36E8-D338-443F-8C4C-FDBB0C3FF94A}"/>
-    <hyperlink ref="M296" r:id="rId1088" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{9B412088-98D0-498C-A649-3DB9602D21FA}"/>
-    <hyperlink ref="C297" r:id="rId1089" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{7D90A9E1-4F1E-43FF-A6BA-7010B020DC85}"/>
-    <hyperlink ref="E297" r:id="rId1090" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7C07F6DF-14E8-42EB-ABC7-FB172AE05BE1}"/>
-    <hyperlink ref="I297" r:id="rId1091" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{91695CF9-207C-42FE-8F85-B7A23C5DCEF1}"/>
-    <hyperlink ref="M297" r:id="rId1092" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{F2102D0B-D796-4364-B279-D7D20C19DE72}"/>
-    <hyperlink ref="C298" r:id="rId1093" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{F550A588-81DE-4DF4-BA0A-87600AC9F06B}"/>
-    <hyperlink ref="E298" r:id="rId1094" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{07D80A51-ACDB-4AA8-95B7-7EDA7B6B0644}"/>
-    <hyperlink ref="I298" r:id="rId1095" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{CE236F3E-F83D-4E51-883C-1FD0398FF4EF}"/>
-    <hyperlink ref="M298" r:id="rId1096" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{B75B0A94-90BE-4FBA-9FB2-DD3B21FE4BE4}"/>
-    <hyperlink ref="C300" r:id="rId1097" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{830A7E78-E5F2-44C0-B228-A1D0A6BE2133}"/>
-    <hyperlink ref="E300" r:id="rId1098" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{2F927A7A-D3EE-49DD-B2E1-5332DD1D779B}"/>
-    <hyperlink ref="I300" r:id="rId1099" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EE1DBEE9-162C-4D38-B17F-84687B66F20A}"/>
-    <hyperlink ref="M300" r:id="rId1100" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{0CE47DAE-D1F2-493E-B977-41C698E3AE3B}"/>
-    <hyperlink ref="C301" r:id="rId1101" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{A441F2A0-21D9-4BDB-A8E5-0B33D818E15D}"/>
-    <hyperlink ref="E301" r:id="rId1102" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{87FDA2EB-C9ED-4105-9827-0996193D13C7}"/>
-    <hyperlink ref="I301" r:id="rId1103" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{96C35D02-794F-4108-AAE1-B4AA1DD81A57}"/>
-    <hyperlink ref="M301" r:id="rId1104" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{D2C807E4-7BB7-4DDE-8AF6-920E9040B31D}"/>
-    <hyperlink ref="C302" r:id="rId1105" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{BF0599EB-CF01-4C99-A720-2ED2C7628EC6}"/>
-    <hyperlink ref="E302" r:id="rId1106" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{92AFF2B0-304C-44AD-AB21-A1E7243C872B}"/>
-    <hyperlink ref="I302" r:id="rId1107" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{28B04C51-11D0-45DE-A2EE-6C8C4CFE797F}"/>
-    <hyperlink ref="M302" r:id="rId1108" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{6EC47FE6-5A3B-4EB8-9AE3-7CD83D809058}"/>
-    <hyperlink ref="C303" r:id="rId1109" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{E453136F-BABA-4DD8-B007-BE9D32E2A0E2}"/>
-    <hyperlink ref="E303" r:id="rId1110" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{C4BAE5D7-E06F-4FF8-ADCA-00EBF35D1260}"/>
-    <hyperlink ref="I303" r:id="rId1111" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BC76FE7A-512E-4F8E-90B2-2285A8ED23C0}"/>
-    <hyperlink ref="M303" r:id="rId1112" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{C1C8C309-B72B-435B-9BC3-DDD3D4C8ECDC}"/>
-    <hyperlink ref="C304" r:id="rId1113" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{685F0FCD-3F22-4560-A6ED-6A77604D8995}"/>
-    <hyperlink ref="E304" r:id="rId1114" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{9D81E443-F028-4695-B21F-08D44A23687C}"/>
-    <hyperlink ref="I304" r:id="rId1115" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{0CE3194B-EBF1-42B0-8E68-1C17A43358DA}"/>
-    <hyperlink ref="M304" r:id="rId1116" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{479A0F42-5CA9-43F8-9FB3-217AA02E57B6}"/>
-    <hyperlink ref="C305" r:id="rId1117" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{28F534B5-1905-4AEB-9412-65974C7AD2B9}"/>
-    <hyperlink ref="E305" r:id="rId1118" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{224708B4-0F93-43CC-BB49-BD1C742AAE7A}"/>
-    <hyperlink ref="I305" r:id="rId1119" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{50317C81-BB11-44A8-B976-2E59D21BFEE4}"/>
-    <hyperlink ref="M305" r:id="rId1120" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{759A57E8-A935-4997-9F5D-C70C4B9233A0}"/>
-    <hyperlink ref="C306" r:id="rId1121" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{DC6C0678-4A80-4078-B670-9574C4F0F09E}"/>
-    <hyperlink ref="E306" r:id="rId1122" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{08510B83-7F50-4BD5-BB71-C1FACAC684C8}"/>
-    <hyperlink ref="I306" r:id="rId1123" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{0DB5E836-088E-4023-902D-4DCEECCEA9D6}"/>
-    <hyperlink ref="M306" r:id="rId1124" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{00DDF4A9-E07B-4051-88AA-0F524C7D5618}"/>
-    <hyperlink ref="C307" r:id="rId1125" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{87B66F89-58B2-40E0-9EE1-F102C601BEFF}"/>
-    <hyperlink ref="E307" r:id="rId1126" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{5C6668CE-8ECC-4D73-A762-D11069A1A2B0}"/>
-    <hyperlink ref="I307" r:id="rId1127" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{F27F80AE-7D9A-4F0E-8AE9-FD87B9B25964}"/>
-    <hyperlink ref="M307" r:id="rId1128" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{CA3E9C2F-657B-47E9-B73A-723E4F5BB9DC}"/>
-    <hyperlink ref="C308" r:id="rId1129" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9C6E4EAF-2F41-49C4-95D7-0FA2F9FA0386}"/>
-    <hyperlink ref="E308" r:id="rId1130" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EBEF3580-88A0-484C-808E-42B121D6A19B}"/>
-    <hyperlink ref="I308" r:id="rId1131" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{6703F501-771E-4D55-944F-0D911C3E1F83}"/>
-    <hyperlink ref="M308" r:id="rId1132" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{3DA83F81-F960-432D-B90A-4A826CDB77EC}"/>
-    <hyperlink ref="C309" r:id="rId1133" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{E7D17D33-0A04-4761-B194-6D972E82233A}"/>
-    <hyperlink ref="E309" r:id="rId1134" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{687C6474-EC59-432C-B69D-387D8D299825}"/>
-    <hyperlink ref="I309" r:id="rId1135" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{0469E9E2-EE6B-4B20-8249-5B3DC4F76457}"/>
-    <hyperlink ref="M309" r:id="rId1136" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{A21550B8-8100-484E-A65D-FC0ECA3EC81D}"/>
-    <hyperlink ref="C311" r:id="rId1137" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{0579B1ED-6088-4C50-931C-7F5B9E27AD9D}"/>
-    <hyperlink ref="E311" r:id="rId1138" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5AD34BF1-4D31-4D37-835B-A36D479160DF}"/>
-    <hyperlink ref="I311" r:id="rId1139" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{8B752DF5-16AE-4F6D-9C8E-B338AD430577}"/>
-    <hyperlink ref="M311" r:id="rId1140" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{BFE7233C-B375-4D0B-8859-CD740109FDBF}"/>
-    <hyperlink ref="C312" r:id="rId1141" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{20ACD2D8-461A-433F-B437-36760C034B3F}"/>
-    <hyperlink ref="E312" r:id="rId1142" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{660250D6-E6C1-41DA-9FA6-4F77BF856149}"/>
-    <hyperlink ref="I312" r:id="rId1143" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C079F340-3983-4365-BE11-A488BB924B92}"/>
-    <hyperlink ref="M312" r:id="rId1144" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{7A36A74B-E87D-4679-9090-1FA2E69AFA21}"/>
-    <hyperlink ref="C313" r:id="rId1145" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{BAF8B8A1-CD23-488E-A688-0946CAB7E17E}"/>
-    <hyperlink ref="E313" r:id="rId1146" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{3519B261-AD81-4422-A635-BFC6D4ECAEDE}"/>
-    <hyperlink ref="I313" r:id="rId1147" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{EB03A086-8D6F-40DD-9618-FA807A7A6950}"/>
-    <hyperlink ref="M313" r:id="rId1148" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{C436BF19-8693-4112-9398-8B4266004C79}"/>
-    <hyperlink ref="C314" r:id="rId1149" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{E4E173E2-D612-4974-9631-D2951D42F3BD}"/>
-    <hyperlink ref="E314" r:id="rId1150" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{6A09849A-4BE6-4DC3-9143-4E4F5566E092}"/>
-    <hyperlink ref="I314" r:id="rId1151" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5809977D-42A8-4807-945D-DC185EFD446F}"/>
-    <hyperlink ref="M314" r:id="rId1152" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{126673BB-3A6A-40D9-BFD6-5E8FB1BE1CA3}"/>
-    <hyperlink ref="C315" r:id="rId1153" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{60C10B3E-509C-4D91-B2E1-229600223A58}"/>
-    <hyperlink ref="E315" r:id="rId1154" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{F9DA27E5-C34F-46CA-93BE-29BC41874166}"/>
-    <hyperlink ref="I315" r:id="rId1155" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DBBD810C-9FC0-492D-AD0B-A2F11B7E1E5C}"/>
-    <hyperlink ref="M315" r:id="rId1156" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{54C0C34F-03A9-4993-AA53-86356FB95C34}"/>
-    <hyperlink ref="C316" r:id="rId1157" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{5AFF7D9A-A3F8-4356-AB3E-4FC98E78F51F}"/>
-    <hyperlink ref="E316" r:id="rId1158" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{D7D77843-F75C-4419-A8DF-F84F84E0C43E}"/>
-    <hyperlink ref="I316" r:id="rId1159" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{1720D190-2070-4F99-ACCE-DC6A3DED9241}"/>
-    <hyperlink ref="M316" r:id="rId1160" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{181B255E-C249-4EDB-A7E9-CAE9F2FD3631}"/>
-    <hyperlink ref="C317" r:id="rId1161" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{71368B9C-3470-4578-B68D-51BAAB6E416A}"/>
-    <hyperlink ref="E317" r:id="rId1162" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2267BF5E-FBEC-4BFB-88CF-8DECB9594996}"/>
-    <hyperlink ref="I317" r:id="rId1163" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5EB7EF25-0C5A-4C65-82A2-A85F558CCD16}"/>
-    <hyperlink ref="M317" r:id="rId1164" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{43D3FA65-210B-4862-8BA8-524D91F0D80A}"/>
-    <hyperlink ref="C318" r:id="rId1165" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{4FC6614A-9E6E-4F74-B166-0DE453D716F7}"/>
-    <hyperlink ref="E318" r:id="rId1166" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{82AAABD4-3C5A-40E0-90F3-EAF425EED427}"/>
-    <hyperlink ref="I318" r:id="rId1167" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F2A6AEDB-2CD6-4D95-8074-4F4F488817A2}"/>
-    <hyperlink ref="M318" r:id="rId1168" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{4FD09A58-9EE7-4103-8FCF-C1234F0ACDCB}"/>
-    <hyperlink ref="C319" r:id="rId1169" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{04A82316-BFC5-4F7E-8F2B-05024AB6B223}"/>
-    <hyperlink ref="E319" r:id="rId1170" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{B90A7479-2F2A-4F4B-83FA-A108373C8738}"/>
-    <hyperlink ref="I319" r:id="rId1171" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{532E3BB7-6EBE-4428-9C69-8C6494156B67}"/>
-    <hyperlink ref="M319" r:id="rId1172" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{939B1863-71B2-4201-8DC8-A5C7FFC97385}"/>
-    <hyperlink ref="C320" r:id="rId1173" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{0B1C5319-28BF-42C4-B66A-2491D5653DD7}"/>
-    <hyperlink ref="E320" r:id="rId1174" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{D4D911F9-5955-4458-B855-5519423D5C7E}"/>
-    <hyperlink ref="I320" r:id="rId1175" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{02E683C6-C7FB-4913-9F02-10A0C6F22059}"/>
-    <hyperlink ref="M320" r:id="rId1176" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{B9BEDDFE-B4CA-4DCF-9ED7-8E5EE6E35B70}"/>
-    <hyperlink ref="C322" r:id="rId1177" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{60BD3DD8-321F-4E06-89EF-FFFB641A2DD8}"/>
-    <hyperlink ref="E322" r:id="rId1178" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C65BB30E-DF5D-496F-90A6-6F47E3E47E3E}"/>
-    <hyperlink ref="I322" r:id="rId1179" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{5838A908-AB2F-4D86-BABB-EA689DE55DE8}"/>
-    <hyperlink ref="M322" r:id="rId1180" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{3C9232A6-DD4F-48F4-B17B-C4045C972E61}"/>
-    <hyperlink ref="C323" r:id="rId1181" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{A030627B-AF2B-42CB-BB1F-551E57C4A2C4}"/>
-    <hyperlink ref="E323" r:id="rId1182" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{089FE887-8284-47C7-97D9-A99558C0BC30}"/>
-    <hyperlink ref="I323" r:id="rId1183" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{DB908233-326B-4B7E-B70D-578431A236C0}"/>
-    <hyperlink ref="M323" r:id="rId1184" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{EC6B570C-B03E-4DE2-A3EF-02DB23A1942D}"/>
-    <hyperlink ref="C324" r:id="rId1185" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{3D608E6E-1C4D-4EB5-8681-E67F31DD2B99}"/>
-    <hyperlink ref="E324" r:id="rId1186" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E0D53284-0B1D-4D0F-867B-4E3C6A727A1D}"/>
-    <hyperlink ref="I324" r:id="rId1187" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{60C75E59-7932-4733-89A8-BC8F8EF86A2B}"/>
-    <hyperlink ref="M324" r:id="rId1188" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{D5D02AEB-21EF-4466-BF03-0E46B10EC6F9}"/>
-    <hyperlink ref="C325" r:id="rId1189" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{FC2490DC-BA7B-4972-B691-5EC38A664396}"/>
-    <hyperlink ref="E325" r:id="rId1190" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{7EC3CE97-D386-404E-B9CE-4C155A093C35}"/>
-    <hyperlink ref="I325" r:id="rId1191" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{462E2EE6-1741-4706-9B94-DDAE343AF23C}"/>
-    <hyperlink ref="M325" r:id="rId1192" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{4A52CCC7-3D38-408F-BAEC-FA392776D3BA}"/>
-    <hyperlink ref="C326" r:id="rId1193" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{D4DC1EEC-7983-47BB-97C5-111BA8DF6DBC}"/>
-    <hyperlink ref="E326" r:id="rId1194" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D7FD35D2-E3E6-401B-B7DC-5BC3DD5DCDD3}"/>
-    <hyperlink ref="I326" r:id="rId1195" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{59864117-5FDE-4D78-88BC-3D2228604E02}"/>
-    <hyperlink ref="M326" r:id="rId1196" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{F4DF4906-6899-4703-8470-012CAB7FCE62}"/>
-    <hyperlink ref="C327" r:id="rId1197" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{2865A2F8-8B6A-443E-BFBA-B59293F313F2}"/>
-    <hyperlink ref="E327" r:id="rId1198" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{45A7D5DD-0B5B-41CD-93DF-09987E96F89F}"/>
-    <hyperlink ref="I327" r:id="rId1199" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{64AED367-2087-4D62-8DF4-B10945843E42}"/>
-    <hyperlink ref="M327" r:id="rId1200" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{3A5E030F-EAA2-4EA3-AF37-093781B1C240}"/>
-    <hyperlink ref="C328" r:id="rId1201" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{289141CD-6ECA-48E7-BCF9-5976E4030B90}"/>
-    <hyperlink ref="E328" r:id="rId1202" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{8FAB580F-C069-4F06-83E9-67AA03FBC209}"/>
-    <hyperlink ref="I328" r:id="rId1203" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{6C4E606D-70E6-4ED2-89B1-DEC490A98BDF}"/>
-    <hyperlink ref="M328" r:id="rId1204" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{FBF64DEE-2F06-44C5-93D4-191B5D75DD40}"/>
-    <hyperlink ref="C329" r:id="rId1205" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{D56C102C-A8EC-4809-8D78-96CE73C36F4A}"/>
-    <hyperlink ref="E329" r:id="rId1206" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{2658410A-3921-4E63-A76E-3EE06BFC4AE9}"/>
-    <hyperlink ref="I329" r:id="rId1207" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{3E16AEE4-5486-42E1-A5A1-B62BDC5E7116}"/>
-    <hyperlink ref="M329" r:id="rId1208" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{901E4767-75B3-48B7-BB8A-04E301269A27}"/>
-    <hyperlink ref="C330" r:id="rId1209" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{92EAC188-48C3-417E-892E-2E1174F9E3DE}"/>
-    <hyperlink ref="E330" r:id="rId1210" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{173395DB-6078-47D9-800D-A75C22BE3086}"/>
-    <hyperlink ref="I330" r:id="rId1211" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{3CD81FC0-9A84-433E-93F3-8295AD0DA577}"/>
-    <hyperlink ref="M330" r:id="rId1212" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{5433A195-DA24-479C-9910-3FA36DBE6649}"/>
-    <hyperlink ref="C331" r:id="rId1213" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{0F84ACEE-9EA0-45FA-9F3E-E5ABBFD46AC5}"/>
-    <hyperlink ref="E331" r:id="rId1214" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{6D49B232-1FDA-4BBB-B732-84C762AA3E08}"/>
-    <hyperlink ref="I331" r:id="rId1215" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1EE2F86F-5EB6-4A3F-97AD-2EAB8C7E95DB}"/>
-    <hyperlink ref="M331" r:id="rId1216" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{D288B338-ADA4-46F9-8DAC-58EA8963D7A7}"/>
-    <hyperlink ref="C333" r:id="rId1217" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{856278FC-7389-468D-B085-CF8AD828C182}"/>
-    <hyperlink ref="E333" r:id="rId1218" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{84293A29-E9E0-4F15-B72E-8EC693392D5B}"/>
-    <hyperlink ref="I333" r:id="rId1219" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{28FBAA7D-55C4-4E1E-8588-B5B97C920201}"/>
-    <hyperlink ref="M333" r:id="rId1220" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{C97D86ED-030F-46BD-AD4C-5DB5F4EA1E53}"/>
-    <hyperlink ref="C334" r:id="rId1221" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{3791A0A2-CC37-4F44-B5DD-7BCBBE6426A0}"/>
-    <hyperlink ref="E334" r:id="rId1222" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1AA30AD8-406D-4868-879B-BFD108443144}"/>
-    <hyperlink ref="I334" r:id="rId1223" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6706B0D8-2D84-4000-AB42-3B4AE2589F60}"/>
-    <hyperlink ref="M334" r:id="rId1224" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{3E09EEA5-8CC8-470F-AE12-D103E61944F7}"/>
-    <hyperlink ref="C335" r:id="rId1225" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{BACAFF98-EDD2-4B7C-95B0-8D58DA7B0B92}"/>
-    <hyperlink ref="E335" r:id="rId1226" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A66E9CB5-7AD8-459F-A160-286AE9AED3AA}"/>
-    <hyperlink ref="I335" r:id="rId1227" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2654BD5B-B619-4BFB-A6E5-611DE9969A97}"/>
-    <hyperlink ref="M335" r:id="rId1228" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{3D9D7165-AA81-4418-AC3F-5CA7E1E333F2}"/>
-    <hyperlink ref="C336" r:id="rId1229" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{F2A1ABC7-5C45-4FB5-B8EE-3E211B471C3B}"/>
-    <hyperlink ref="E336" r:id="rId1230" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{FF75DD23-C1E0-4BC0-A1CD-4CE9142A0DF0}"/>
-    <hyperlink ref="I336" r:id="rId1231" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{68149C2C-FCBD-4460-85DC-8647A3B3AC03}"/>
-    <hyperlink ref="M336" r:id="rId1232" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{1D7E512D-ECB3-4B7A-91DF-EF8A3BF44127}"/>
-    <hyperlink ref="C337" r:id="rId1233" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{5F8291F0-6382-409E-B33D-935D446B07CC}"/>
-    <hyperlink ref="E337" r:id="rId1234" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4D4E19CB-9D1C-4C19-B545-D9A89DF6D353}"/>
-    <hyperlink ref="I337" r:id="rId1235" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B9B29533-357A-4A15-BDCE-FD8C68A71372}"/>
-    <hyperlink ref="M337" r:id="rId1236" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{5436246F-4E4E-4D5B-86A9-FAAA9286C873}"/>
-    <hyperlink ref="C338" r:id="rId1237" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{1CDA86DA-2B45-44F6-8DEE-742F54B6DFDB}"/>
-    <hyperlink ref="E338" r:id="rId1238" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D58D92EA-33CD-45EC-9708-273673199672}"/>
-    <hyperlink ref="I338" r:id="rId1239" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{AA7E20C1-7091-424C-8415-BFDCDC9FCABD}"/>
-    <hyperlink ref="M338" r:id="rId1240" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{0A24D6AC-F20B-471F-AE82-112E5C8B7BF8}"/>
-    <hyperlink ref="C339" r:id="rId1241" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{662941B4-098B-4F91-840C-1E806BBD4C63}"/>
-    <hyperlink ref="E339" r:id="rId1242" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{ADC06A0A-47F7-48DF-B310-DE79FB32214A}"/>
-    <hyperlink ref="I339" r:id="rId1243" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{858386ED-5D93-4E78-A435-E3C74E12EC73}"/>
-    <hyperlink ref="M339" r:id="rId1244" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{90CAF382-FC90-45FC-A0DF-897A4432C5C8}"/>
-    <hyperlink ref="C340" r:id="rId1245" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{16CB3203-5641-4DCB-8B03-E3CF1B015F3C}"/>
-    <hyperlink ref="E340" r:id="rId1246" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7F8CE340-44D6-4C13-8DAB-BC01CDB0310B}"/>
-    <hyperlink ref="I340" r:id="rId1247" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{125833EE-259A-413D-BD08-C9749C718198}"/>
-    <hyperlink ref="M340" r:id="rId1248" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{0C673E6D-0293-4EE0-98C4-9A360F399B8D}"/>
-    <hyperlink ref="C341" r:id="rId1249" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{4B2BB5EE-D7CF-4A3A-AE18-7859ECEC3797}"/>
-    <hyperlink ref="E341" r:id="rId1250" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{37C87F17-68BD-43EA-AB6E-95336D39C281}"/>
-    <hyperlink ref="I341" r:id="rId1251" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{C47BD070-A097-499E-AF73-17D20579929E}"/>
-    <hyperlink ref="M341" r:id="rId1252" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{E4BD4977-B5BF-4E05-B873-FCCF57617985}"/>
-    <hyperlink ref="C342" r:id="rId1253" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{D3630E87-80D0-4217-AA8E-6BE76BF90337}"/>
-    <hyperlink ref="E342" r:id="rId1254" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{29A1E82C-99A9-42A3-83CA-B7805BC87C8E}"/>
-    <hyperlink ref="I342" r:id="rId1255" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{28009B5F-2EBD-4527-B315-BBEA7490A85B}"/>
-    <hyperlink ref="M342" r:id="rId1256" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{40D6CDFE-25E3-494A-A69A-7974C5964876}"/>
-    <hyperlink ref="C344" r:id="rId1257" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{74C5E34A-CF05-4777-908D-568D42FB8EF3}"/>
-    <hyperlink ref="E344" r:id="rId1258" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{942AC167-9ED8-406A-827F-ACDD2E73AF6F}"/>
-    <hyperlink ref="I344" r:id="rId1259" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{CFA37838-A710-4DF3-A5BA-6BC80C24F8DC}"/>
-    <hyperlink ref="M344" r:id="rId1260" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{82E495A6-FA28-466E-96B0-E7EA5F561CFF}"/>
-    <hyperlink ref="C345" r:id="rId1261" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{9F72E9D9-7DDE-4BEA-9C50-BA93A97D2EBE}"/>
-    <hyperlink ref="E345" r:id="rId1262" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4AFE975B-9056-4049-B364-1F0FB1DA4349}"/>
-    <hyperlink ref="I345" r:id="rId1263" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B553E601-9459-4473-A192-3B10D64D688E}"/>
-    <hyperlink ref="M345" r:id="rId1264" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{74D28F43-B6E0-4D64-AEEF-8BD41BB53484}"/>
-    <hyperlink ref="C346" r:id="rId1265" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{81DFAEA8-A50E-40B0-BDD1-EEF85EC25FCC}"/>
-    <hyperlink ref="E346" r:id="rId1266" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{92421166-4AEE-4695-85AF-CEAED93E2E2F}"/>
-    <hyperlink ref="I346" r:id="rId1267" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{F177AF66-9B57-4AC2-9E06-34FA56D72B11}"/>
-    <hyperlink ref="M346" r:id="rId1268" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{3DC3CF58-B44B-48D1-8323-B422018EAC65}"/>
-    <hyperlink ref="C347" r:id="rId1269" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{F52FC0FC-39BB-4C3E-84DB-2DDED865D7CF}"/>
-    <hyperlink ref="E347" r:id="rId1270" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{0E15D96D-C064-48D5-9D12-E0D5345D6F62}"/>
-    <hyperlink ref="I347" r:id="rId1271" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{334D2AD9-2A88-4CB1-A3AD-8C1C1CE59671}"/>
-    <hyperlink ref="M347" r:id="rId1272" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{BC5231E7-4211-4DEF-85EC-511EE1B903C1}"/>
-    <hyperlink ref="C348" r:id="rId1273" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{5A13B234-6264-423A-95B8-E1349DAD2366}"/>
-    <hyperlink ref="E348" r:id="rId1274" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{BB5E5343-2BEC-435C-812E-0129EF00A67E}"/>
-    <hyperlink ref="I348" r:id="rId1275" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BFDED715-1A42-49CF-8CD1-06C9FAA494D5}"/>
-    <hyperlink ref="M348" r:id="rId1276" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{18C4F346-3C53-4A4F-9F26-B7A7C884F3CE}"/>
-    <hyperlink ref="C349" r:id="rId1277" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{FC6E048D-96DA-4038-9D1B-7604EFD99A31}"/>
-    <hyperlink ref="E349" r:id="rId1278" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{AF00FD51-8239-47AA-9695-96A2221169FC}"/>
-    <hyperlink ref="I349" r:id="rId1279" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{DD12FA3C-67AB-493E-BA3D-AD26569B57E3}"/>
-    <hyperlink ref="M349" r:id="rId1280" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{122050D1-F5D7-4EC1-9024-EED45C4BDC01}"/>
-    <hyperlink ref="C350" r:id="rId1281" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{645ABFD5-6B07-46F7-B9FF-F80C81C7F26C}"/>
-    <hyperlink ref="E350" r:id="rId1282" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6BA4351F-16D3-488A-89D0-794080E740BB}"/>
-    <hyperlink ref="I350" r:id="rId1283" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{1287E43E-C8A3-4A01-B65D-3266C9F5C81D}"/>
-    <hyperlink ref="M350" r:id="rId1284" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{1B02A6BE-E9CE-4977-95BA-A86C3F4124B5}"/>
-    <hyperlink ref="C351" r:id="rId1285" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{3F8BD52E-C449-46F4-A762-42B2E5CB95C5}"/>
-    <hyperlink ref="E351" r:id="rId1286" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{7F92BE30-D192-43E9-B9F3-7962C6D6FDC4}"/>
-    <hyperlink ref="I351" r:id="rId1287" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{4FA98B64-EA38-4E24-B751-F70EF1CFCF25}"/>
-    <hyperlink ref="M351" r:id="rId1288" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{068EF785-8F82-4715-9353-46EDC0AD4ADF}"/>
-    <hyperlink ref="C352" r:id="rId1289" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{6857E6A8-201D-4A72-88B7-69E0060C048B}"/>
-    <hyperlink ref="E352" r:id="rId1290" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{F2BDD325-990F-47E5-A6CC-3EA47F4485E7}"/>
-    <hyperlink ref="I352" r:id="rId1291" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EBD8AC6F-ECFF-4127-80C4-F268294149CB}"/>
-    <hyperlink ref="M352" r:id="rId1292" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{6EE4AB66-4E87-4EE6-8268-ACC804470F58}"/>
-    <hyperlink ref="C353" r:id="rId1293" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{2868F941-1E9A-42A9-8250-36235B548C35}"/>
-    <hyperlink ref="E353" r:id="rId1294" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A4FA18C6-3EB2-42FE-B56F-E2A7DF6ADD00}"/>
-    <hyperlink ref="I353" r:id="rId1295" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{236F53FF-2642-48F5-98E2-909916A73604}"/>
-    <hyperlink ref="M353" r:id="rId1296" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{ED640CFF-F091-4A6B-9765-A08C99841541}"/>
-    <hyperlink ref="C355" r:id="rId1297" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{F4BFF4D4-1814-486B-BB5C-57F3888E4144}"/>
-    <hyperlink ref="E355" r:id="rId1298" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{19DB0482-0E84-4A9C-B31D-11E36CB8BB31}"/>
-    <hyperlink ref="I355" r:id="rId1299" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{984B2F25-D766-4C75-9516-7DAC161B51A9}"/>
-    <hyperlink ref="M355" r:id="rId1300" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{65FAA4DF-F3E5-427B-B157-607628AACF6C}"/>
-    <hyperlink ref="C356" r:id="rId1301" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{2ADAB5A7-491F-4997-8389-D29B47B9D0E6}"/>
-    <hyperlink ref="E356" r:id="rId1302" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{4E95357C-02E5-44CC-B9F9-86C4781ADF29}"/>
-    <hyperlink ref="I356" r:id="rId1303" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{05B77C53-8A3F-4035-9608-64BE882AF969}"/>
-    <hyperlink ref="M356" r:id="rId1304" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{D31B1DDC-E47A-4BF2-9409-B41CB950EC19}"/>
-    <hyperlink ref="C357" r:id="rId1305" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{36C3E4C9-35EF-4DF7-A982-913471D183A5}"/>
-    <hyperlink ref="E357" r:id="rId1306" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{025A31C6-3CA6-4D52-B8BF-0DDC73151C67}"/>
-    <hyperlink ref="I357" r:id="rId1307" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{52F0B901-B1F8-4D97-9B53-A147E96A61AD}"/>
-    <hyperlink ref="M357" r:id="rId1308" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{406F9BEF-2166-4FB9-99C1-487C5635FE1B}"/>
-    <hyperlink ref="C358" r:id="rId1309" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{01D50CEA-CA54-4DEA-91F0-FDFBC425FA9D}"/>
-    <hyperlink ref="E358" r:id="rId1310" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{E3C1DAD7-2F99-4056-9818-1ADA34DB1A78}"/>
-    <hyperlink ref="I358" r:id="rId1311" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{3F20CC25-EEDA-4EF0-BB4C-FA32B267CE71}"/>
-    <hyperlink ref="M358" r:id="rId1312" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{91392271-4B44-4125-9E59-FFCB7AC19473}"/>
-    <hyperlink ref="C359" r:id="rId1313" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{1E5BAC33-5785-422F-B09A-ED60B1DF636A}"/>
-    <hyperlink ref="E359" r:id="rId1314" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{97A33DE6-A01D-43A1-B5D7-55D199E44D28}"/>
-    <hyperlink ref="I359" r:id="rId1315" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{8F99F6BC-A83E-417C-BF5A-8964EE9D2FEF}"/>
-    <hyperlink ref="M359" r:id="rId1316" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{C3C0B9EA-0B06-4D56-B499-25561FF11091}"/>
-    <hyperlink ref="C360" r:id="rId1317" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{7DC7A84A-81D6-471C-A95C-E7D9FCF58644}"/>
-    <hyperlink ref="E360" r:id="rId1318" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{A7439D5F-7797-4DB8-BE1B-EC0ED97CC952}"/>
-    <hyperlink ref="I360" r:id="rId1319" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{293172A1-C9FD-4737-8C17-AB57B3DF0966}"/>
-    <hyperlink ref="M360" r:id="rId1320" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{BF695E4A-E118-41FA-9448-08392EE036C2}"/>
-    <hyperlink ref="C361" r:id="rId1321" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{F194F024-DE28-408E-935B-41E36DAC4EF0}"/>
-    <hyperlink ref="E361" r:id="rId1322" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{2FF7EFBE-C74A-4E44-AA5B-6EB2D32E2392}"/>
-    <hyperlink ref="I361" r:id="rId1323" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{A94A8798-386D-4220-98BE-26F04F997F22}"/>
-    <hyperlink ref="M361" r:id="rId1324" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{E504BBD7-C3C4-479C-9C1A-C4BE5983FB2E}"/>
-    <hyperlink ref="C362" r:id="rId1325" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{CB6D96F8-C7C8-4833-9417-E3DBED951AA9}"/>
-    <hyperlink ref="E362" r:id="rId1326" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{6D837169-B7EC-4297-A79F-D2D4D7854EF2}"/>
-    <hyperlink ref="I362" r:id="rId1327" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{99D454EB-4C64-443B-BC95-85B8A6C3D348}"/>
-    <hyperlink ref="M362" r:id="rId1328" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{1AF32DE3-B472-4582-BDD9-52046CBFC742}"/>
-    <hyperlink ref="C363" r:id="rId1329" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{9731E61F-F286-471D-84D7-714C93B8F6A9}"/>
-    <hyperlink ref="E363" r:id="rId1330" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{7453C820-DF10-42AE-8316-379BFC1AD968}"/>
-    <hyperlink ref="I363" r:id="rId1331" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{598388CE-C4AA-4E25-8AC8-71BE2FF7A8A3}"/>
-    <hyperlink ref="M363" r:id="rId1332" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{BEBE1F76-EF8E-49BB-A4CD-CCFE66982D74}"/>
-    <hyperlink ref="C364" r:id="rId1333" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{BFBD3A46-A57F-48E8-A6C5-6018C605B4AF}"/>
-    <hyperlink ref="E364" r:id="rId1334" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{1FC5C4C8-FE5C-47CD-AD1D-61C624A0976D}"/>
-    <hyperlink ref="I364" r:id="rId1335" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7AE850DA-1523-45AD-A588-F05893767E6D}"/>
-    <hyperlink ref="M364" r:id="rId1336" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{111F4FA0-0849-46E9-87B9-DB2C415B9917}"/>
-    <hyperlink ref="C366" r:id="rId1337" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{1754A468-5165-4E46-B949-C4C23D7D1E03}"/>
-    <hyperlink ref="E366" r:id="rId1338" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{7275D972-AD9E-4042-9A5B-833A2CDE39DA}"/>
-    <hyperlink ref="I366" r:id="rId1339" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{BE3DEE30-3A0D-497E-AA92-C890E78865C5}"/>
-    <hyperlink ref="M366" r:id="rId1340" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{F9D7E4C8-990E-4DA2-B59D-326A3A534A26}"/>
-    <hyperlink ref="C367" r:id="rId1341" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{535F6FDA-F61C-4B48-8579-08838280D487}"/>
-    <hyperlink ref="E367" r:id="rId1342" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{36840079-9620-47D0-99F6-A40CA6ECF3E6}"/>
-    <hyperlink ref="I367" r:id="rId1343" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4ECFE800-E685-4AD5-B006-BC003BCDF5A3}"/>
-    <hyperlink ref="M367" r:id="rId1344" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{0D35C3FF-00BE-4479-89FF-5E65BC5E99F3}"/>
-    <hyperlink ref="C368" r:id="rId1345" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{A23BAC87-3146-40B7-85D9-473EF34BBF66}"/>
-    <hyperlink ref="E368" r:id="rId1346" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1B221215-8AF7-4678-B522-8A1A50E7F8A3}"/>
-    <hyperlink ref="I368" r:id="rId1347" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{50CBBB07-4513-4C4E-AC28-F39298D0E4C5}"/>
-    <hyperlink ref="M368" r:id="rId1348" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{4EA88DB6-0CBB-4381-98A8-11790B78E7A7}"/>
-    <hyperlink ref="C369" r:id="rId1349" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{57D92EE6-CC77-484B-A85D-F4829F9778C5}"/>
-    <hyperlink ref="E369" r:id="rId1350" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{8EB327B6-82E9-4C0B-B407-CBE0BC3610FA}"/>
-    <hyperlink ref="I369" r:id="rId1351" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{9EF0F722-9540-40E5-8FCD-341A39CB7338}"/>
-    <hyperlink ref="M369" r:id="rId1352" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{529178BA-2EDE-4A12-8526-57629363063F}"/>
-    <hyperlink ref="C370" r:id="rId1353" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{2CF888BD-6356-4831-B1B0-CE5294C0A238}"/>
-    <hyperlink ref="E370" r:id="rId1354" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D7578946-A877-49DF-8EE6-7FBB3585B30E}"/>
-    <hyperlink ref="I370" r:id="rId1355" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{4C968057-B2C7-44A7-B3B6-C8A6BFDC9641}"/>
-    <hyperlink ref="M370" r:id="rId1356" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{7D7E48E0-2976-433E-B98D-C76BD1F81C35}"/>
-    <hyperlink ref="C371" r:id="rId1357" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{936C869C-5B24-470D-B293-7CB242773EA2}"/>
-    <hyperlink ref="E371" r:id="rId1358" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{092A1D89-7A05-4023-B934-335E610127CD}"/>
-    <hyperlink ref="I371" r:id="rId1359" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{1402CCAF-18B9-4BE1-9AC3-70DB258178CF}"/>
-    <hyperlink ref="M371" r:id="rId1360" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{23D034C5-F972-4A08-B0A8-F4655DE56D20}"/>
-    <hyperlink ref="C372" r:id="rId1361" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{F958EC75-2624-4399-9BFD-6E0915EBC2E9}"/>
-    <hyperlink ref="E372" r:id="rId1362" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{15B96EA1-F050-450E-A978-3BC89EB02A61}"/>
-    <hyperlink ref="I372" r:id="rId1363" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{9C42B171-8273-4849-B4B0-E8D94068DC55}"/>
-    <hyperlink ref="M372" r:id="rId1364" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{CDACCEF2-F182-4468-B8C4-83388EEB248F}"/>
-    <hyperlink ref="C373" r:id="rId1365" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{C4709107-0D73-42A9-87AC-CD25FD4453FE}"/>
-    <hyperlink ref="E373" r:id="rId1366" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{053DE97D-04CE-48CC-B2C1-FF8B72F365AA}"/>
-    <hyperlink ref="I373" r:id="rId1367" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{06CC009E-BBC5-450C-B102-A5B6E331C6D8}"/>
-    <hyperlink ref="M373" r:id="rId1368" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{9502E562-A7D4-4A43-A333-24FB3A2DFB78}"/>
-    <hyperlink ref="C374" r:id="rId1369" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{A227FF9A-913E-4B91-9154-794E0D8B5957}"/>
-    <hyperlink ref="E374" r:id="rId1370" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{4D3416C5-E70A-49C2-AAB8-9FBFF5EC2808}"/>
-    <hyperlink ref="I374" r:id="rId1371" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{19F4C14B-DB34-4D28-BE0D-276F5D125581}"/>
-    <hyperlink ref="M374" r:id="rId1372" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{EF8FEC5F-CC18-4C45-9A5E-87C995008F7C}"/>
-    <hyperlink ref="C375" r:id="rId1373" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{EF277158-0F66-415C-9EA7-A7559A1C2FEC}"/>
-    <hyperlink ref="E375" r:id="rId1374" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{0FB7E065-F3AB-491B-84CB-A764411E755D}"/>
-    <hyperlink ref="I375" r:id="rId1375" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{DF561899-F0F0-49A7-8CED-058F17288750}"/>
-    <hyperlink ref="M375" r:id="rId1376" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{51E3DC41-31E9-439B-B7CD-C29047E31085}"/>
-    <hyperlink ref="C377" r:id="rId1377" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{823BE257-9166-4A68-9524-8D39DA2E8027}"/>
-    <hyperlink ref="E377" r:id="rId1378" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{D09729A9-B4A6-4792-86B6-0055B90CFA38}"/>
-    <hyperlink ref="I377" r:id="rId1379" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{6436F20E-9B95-449B-AFCC-04980D9864C6}"/>
-    <hyperlink ref="M377" r:id="rId1380" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{89AC588B-A2F6-46E2-8E78-BE9DA1DAADC4}"/>
-    <hyperlink ref="C378" r:id="rId1381" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{6C6DCE21-2E21-4499-B9AA-5FBD3793677F}"/>
-    <hyperlink ref="E378" r:id="rId1382" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{268C30E9-6D26-4641-8EF4-B2828A2BEEFA}"/>
-    <hyperlink ref="I378" r:id="rId1383" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{8DA78B99-8C97-42A7-9A57-98C9D977684C}"/>
-    <hyperlink ref="M378" r:id="rId1384" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{CCDE121C-4F47-4B8A-B680-DA9BEF4D2C5A}"/>
-    <hyperlink ref="C379" r:id="rId1385" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{86C08F23-65A2-4891-9D66-A9A0C7AB8407}"/>
-    <hyperlink ref="E379" r:id="rId1386" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{8A625E35-0669-4692-BFCB-D43A93EC39A0}"/>
-    <hyperlink ref="I379" r:id="rId1387" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7B89DC9D-DA4D-4E6B-AB9C-A4005CB848D3}"/>
-    <hyperlink ref="M379" r:id="rId1388" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{F3D60557-8B08-4A9C-9099-ED14FE51178C}"/>
-    <hyperlink ref="C380" r:id="rId1389" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{C77CA334-764A-4D2B-AE83-8A0DC4B50BEB}"/>
-    <hyperlink ref="E380" r:id="rId1390" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{122E3164-9E9F-4AC4-BC5D-B569AA520112}"/>
-    <hyperlink ref="I380" r:id="rId1391" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{EB463219-1D41-4F76-B1BC-17ACC4C9C665}"/>
-    <hyperlink ref="M380" r:id="rId1392" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{F9AAB88D-6150-4BB2-A51C-554F32AB22EA}"/>
-    <hyperlink ref="C381" r:id="rId1393" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{3F89CB81-BAF5-492C-95D2-F4DE7BBEBA71}"/>
-    <hyperlink ref="E381" r:id="rId1394" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{12EC2E81-B530-4ED9-8CDE-B29B448B17C6}"/>
-    <hyperlink ref="I381" r:id="rId1395" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{E2B0691F-F141-42CF-B83D-6C93193B9A09}"/>
-    <hyperlink ref="M381" r:id="rId1396" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{81B3A2F7-6A20-4BFF-AE51-A2FB4A15C9F0}"/>
-    <hyperlink ref="C382" r:id="rId1397" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{B50A4E43-07A5-4E29-B4BF-F97F8E4E47A8}"/>
-    <hyperlink ref="E382" r:id="rId1398" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{127D7BB4-FE65-4FCC-B738-BE022AC2ACA6}"/>
-    <hyperlink ref="I382" r:id="rId1399" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2760331C-9F5D-4EDC-8138-C87B55297A08}"/>
-    <hyperlink ref="M382" r:id="rId1400" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{A95B1718-37AE-4D1B-A6F8-074AAAEE15BD}"/>
-    <hyperlink ref="C383" r:id="rId1401" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{A170FFF2-ED21-477B-8C84-2CB57ED11C2B}"/>
-    <hyperlink ref="E383" r:id="rId1402" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{9696019C-08C7-4B9E-83A4-218E690D6F8C}"/>
-    <hyperlink ref="I383" r:id="rId1403" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{74E42DB7-72BA-4C4A-8474-3FA2952EA4A4}"/>
-    <hyperlink ref="M383" r:id="rId1404" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{2D337125-5ACF-4805-88DD-FFE2CA473FE1}"/>
-    <hyperlink ref="C384" r:id="rId1405" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{26F3D634-5F83-410D-93F1-A23A441FDB9C}"/>
-    <hyperlink ref="E384" r:id="rId1406" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0904FD0E-439B-4F5F-B112-8BED3F8728B9}"/>
-    <hyperlink ref="I384" r:id="rId1407" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A744FA7F-9A31-42AD-8458-9C65B4EC127A}"/>
-    <hyperlink ref="M384" r:id="rId1408" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{B58E9B98-4EF9-40A2-B3AD-136A608A3506}"/>
-    <hyperlink ref="C385" r:id="rId1409" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{12D5292B-A3BB-4F01-AE30-C80D7EA94232}"/>
-    <hyperlink ref="E385" r:id="rId1410" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8B9DEFB3-AA67-467A-BC4E-1CE3C74BDC90}"/>
-    <hyperlink ref="I385" r:id="rId1411" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{885C934F-A056-4E4C-95E6-E38A212B51A5}"/>
-    <hyperlink ref="M385" r:id="rId1412" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{1A0536B6-340E-4230-BF6C-4F330709CF4B}"/>
-    <hyperlink ref="C386" r:id="rId1413" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{1A46019D-47D4-4F2C-BCD1-CBFBC14917FF}"/>
-    <hyperlink ref="E386" r:id="rId1414" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{830C6DBE-013C-4BC7-A45F-061DF2D33EC6}"/>
-    <hyperlink ref="I386" r:id="rId1415" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{3770261A-D0AA-4C13-A7FF-05E6B7BE113D}"/>
-    <hyperlink ref="M386" r:id="rId1416" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{544C5A22-0405-4B08-9DF3-49D1C47E749E}"/>
-    <hyperlink ref="C388" r:id="rId1417" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{98C7720D-BC93-4B75-BE32-76449F5E2458}"/>
-    <hyperlink ref="E388" r:id="rId1418" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A32D0F1A-E567-4607-9542-179DA8F7EB58}"/>
-    <hyperlink ref="I388" r:id="rId1419" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{3D9A0EAF-AA7C-4832-A574-209371B17DFE}"/>
-    <hyperlink ref="M388" r:id="rId1420" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{943E6754-2B2A-4F0A-92FD-EC5FBE3E4AB5}"/>
-    <hyperlink ref="C389" r:id="rId1421" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{645F25D8-0666-4469-8C82-3ABF08EF6879}"/>
-    <hyperlink ref="E389" r:id="rId1422" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{AC16AD4B-2FA6-4DD4-BBC9-69A7A6BC2A0A}"/>
-    <hyperlink ref="I389" r:id="rId1423" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{2278518C-91EB-4EED-A80C-295D1B5C48AA}"/>
-    <hyperlink ref="M389" r:id="rId1424" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{9D0BCA80-73AE-4386-8821-6F42E81E51F0}"/>
-    <hyperlink ref="C390" r:id="rId1425" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{AAEFC21D-DAD2-4C43-869D-709C8738BC83}"/>
-    <hyperlink ref="E390" r:id="rId1426" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{3CA5F858-E5A0-43B2-8B10-FF705CF3F309}"/>
-    <hyperlink ref="I390" r:id="rId1427" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{E0EA5FBD-2FEE-42D2-87BB-4B953984904D}"/>
-    <hyperlink ref="M390" r:id="rId1428" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{1525C1F9-37A2-4C81-81B1-3CCDDB0259D3}"/>
-    <hyperlink ref="C391" r:id="rId1429" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{AEA5DFF9-7A83-4546-AA51-094CE955FB3B}"/>
-    <hyperlink ref="E391" r:id="rId1430" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{353D1355-1DA2-4FEC-A461-A3995786DC08}"/>
-    <hyperlink ref="I391" r:id="rId1431" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1C144F48-0659-49E6-AB96-0468B5C20978}"/>
-    <hyperlink ref="M391" r:id="rId1432" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{86370A17-66C8-49E2-AA94-FDE9EAD60570}"/>
-    <hyperlink ref="C392" r:id="rId1433" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{35615B02-3DAD-4729-AA42-020B9947E60C}"/>
-    <hyperlink ref="E392" r:id="rId1434" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CFA6F3A5-271D-488C-8197-0ECE5FA80804}"/>
-    <hyperlink ref="I392" r:id="rId1435" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{86F48F9A-9989-48DE-B706-38ED20B90E04}"/>
-    <hyperlink ref="M392" r:id="rId1436" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{DD4A6DD0-EF3F-4C6B-8370-5AE766B5533D}"/>
-    <hyperlink ref="C393" r:id="rId1437" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{9B086061-6806-4B07-92DA-FF706DC0D885}"/>
-    <hyperlink ref="E393" r:id="rId1438" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{DCE1117C-D9D4-4BDF-B4EB-58F3E9C944F9}"/>
-    <hyperlink ref="I393" r:id="rId1439" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{EFEBA5CB-3993-4CFA-9A1E-71431F77F9C9}"/>
-    <hyperlink ref="M393" r:id="rId1440" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{5CE89210-9402-41FD-B880-F33FFD5E90AC}"/>
-    <hyperlink ref="C394" r:id="rId1441" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{CF9AAD3B-1558-4EE8-B03D-9E909BD91E34}"/>
-    <hyperlink ref="E394" r:id="rId1442" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{73D09C0D-B84C-47BD-AF7B-C43CBFD8FDC6}"/>
-    <hyperlink ref="I394" r:id="rId1443" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B766254D-5F1D-41B5-BB38-2C1CBE5DD60A}"/>
-    <hyperlink ref="M394" r:id="rId1444" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{81C3E4C1-12B5-4EDA-88B4-8D8472381EAD}"/>
-    <hyperlink ref="C395" r:id="rId1445" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{3CFD8D53-4F75-4AB2-ACBE-540F3DD4EF0A}"/>
-    <hyperlink ref="E395" r:id="rId1446" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2AAB3172-C1F0-4BD4-9CC4-4DE3E9C8C4CE}"/>
-    <hyperlink ref="I395" r:id="rId1447" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{71A36F0B-D0EA-4F26-BC59-609011AC486C}"/>
-    <hyperlink ref="M395" r:id="rId1448" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{BFD9F569-9295-4B25-8BAB-D88271F04DC9}"/>
-    <hyperlink ref="C396" r:id="rId1449" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{EE2B1796-9960-4B3D-9E80-F7485C9A3C30}"/>
-    <hyperlink ref="E396" r:id="rId1450" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{5988B184-2C17-4E85-97BD-7E8E9792BA80}"/>
-    <hyperlink ref="I396" r:id="rId1451" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B9E13071-FD28-4BBD-AACC-A62224C70263}"/>
-    <hyperlink ref="M396" r:id="rId1452" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{31B596F5-2DD7-40FA-9BE8-E27674566655}"/>
-    <hyperlink ref="C397" r:id="rId1453" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{BDF9F9A8-A196-4C02-9A12-898EE56780BD}"/>
-    <hyperlink ref="E397" r:id="rId1454" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{E3875DCC-2DC6-463D-8BCF-9A5940555E8B}"/>
-    <hyperlink ref="I397" r:id="rId1455" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{F9FBE6C1-5956-4A2B-A531-8C03698C8F98}"/>
-    <hyperlink ref="M397" r:id="rId1456" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{78332032-1B6B-488A-9F25-B77C41C2BA03}"/>
-    <hyperlink ref="C399" r:id="rId1457" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{F45B0605-2753-4BB7-ACB7-5E36D2D80CDB}"/>
-    <hyperlink ref="E399" r:id="rId1458" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{60189F7A-E503-4E4D-90FE-6E9CC9E0B415}"/>
-    <hyperlink ref="I399" r:id="rId1459" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{26378CBA-1D34-4733-9072-2124F9594C95}"/>
-    <hyperlink ref="M399" r:id="rId1460" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{F96480C6-DDDC-4494-A51B-53871C04036B}"/>
-    <hyperlink ref="C400" r:id="rId1461" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{DFEEB464-2F85-4BA2-B1B9-45570091BE1F}"/>
-    <hyperlink ref="E400" r:id="rId1462" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6DCEB7A8-F432-4596-8F0E-C3F3C80C46AF}"/>
-    <hyperlink ref="I400" r:id="rId1463" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{7E59C5A7-5523-4432-AC00-706F5DFAEE40}"/>
-    <hyperlink ref="M400" r:id="rId1464" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{C92746C0-4D72-43E1-9872-0DAEE29AF3FC}"/>
-    <hyperlink ref="C401" r:id="rId1465" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{B6458241-FDE1-4467-A877-EF494ECA7758}"/>
-    <hyperlink ref="E401" r:id="rId1466" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{010ECA1E-3747-4F06-B71B-6C0D3361C95F}"/>
-    <hyperlink ref="I401" r:id="rId1467" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{E40BBD90-0EF2-4993-A60A-6E4C60F2E72F}"/>
-    <hyperlink ref="M401" r:id="rId1468" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{60D52C7D-F175-4884-BA6B-0451DBC3E87A}"/>
-    <hyperlink ref="C402" r:id="rId1469" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{7B76074B-0C1C-4C8D-B8DF-4AA6D6D92C7A}"/>
-    <hyperlink ref="E402" r:id="rId1470" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{5F052449-3DE5-4831-9811-0765CFF639A6}"/>
-    <hyperlink ref="I402" r:id="rId1471" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{97D06BD8-9AAB-402C-82F8-11FD8BE98EBE}"/>
-    <hyperlink ref="M402" r:id="rId1472" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{74439147-FB16-45B5-B1F8-FD5940E23CBA}"/>
-    <hyperlink ref="C403" r:id="rId1473" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{AE89DE1E-B630-438E-924B-7DEC26665E36}"/>
-    <hyperlink ref="E403" r:id="rId1474" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{542A0347-8C14-486C-AAD2-C762B38AE583}"/>
-    <hyperlink ref="I403" r:id="rId1475" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{CD54A702-F1CC-4DDA-B806-85B2942F9230}"/>
-    <hyperlink ref="M403" r:id="rId1476" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{F3970A4B-95B0-47A6-A97B-2974D6C1C238}"/>
-    <hyperlink ref="C404" r:id="rId1477" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{7A5E46BA-9067-46B0-83B2-20DB1A426356}"/>
-    <hyperlink ref="E404" r:id="rId1478" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{3A19F8AA-4EAD-4F41-997A-A7F27DA181CC}"/>
-    <hyperlink ref="I404" r:id="rId1479" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{529BE405-E781-4747-BE44-5FB40AF4C69B}"/>
-    <hyperlink ref="M404" r:id="rId1480" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{22A56890-793E-4B88-B190-636C0F6A2CC6}"/>
-    <hyperlink ref="C405" r:id="rId1481" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{04453125-9BE0-467E-9AD4-04755B4E8E18}"/>
-    <hyperlink ref="E405" r:id="rId1482" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{3B6A771C-CE79-4F8A-8752-C2990B9D81C6}"/>
-    <hyperlink ref="I405" r:id="rId1483" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5BF27FB8-1D62-4615-B1A2-0FBA8E466377}"/>
-    <hyperlink ref="M405" r:id="rId1484" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{E6E31C35-9BD6-4D8A-B00D-FADDAC7F3147}"/>
-    <hyperlink ref="C406" r:id="rId1485" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{FAC78355-E325-4F14-A08F-6232CC8F47D2}"/>
-    <hyperlink ref="E406" r:id="rId1486" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B55CC598-E0EB-457F-AA1F-45D56A670AD9}"/>
-    <hyperlink ref="I406" r:id="rId1487" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{EDF9DBFE-691A-46C1-B583-783BDE5A0C6C}"/>
-    <hyperlink ref="M406" r:id="rId1488" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{F4CA47A1-4DEB-480D-86F2-68A199C49FBA}"/>
-    <hyperlink ref="C407" r:id="rId1489" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{A3715E22-64E6-4E63-8072-08A12404EA8E}"/>
-    <hyperlink ref="E407" r:id="rId1490" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{5AF58831-2C21-44A5-AACC-065D24E25ECA}"/>
-    <hyperlink ref="I407" r:id="rId1491" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{93E2EF9B-B79B-4D02-9DF0-9307AE586C28}"/>
-    <hyperlink ref="M407" r:id="rId1492" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{719C5851-E8FD-477D-8738-06337019A789}"/>
-    <hyperlink ref="C408" r:id="rId1493" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{A235E668-70DC-4D78-89C8-17A2BE190DAB}"/>
-    <hyperlink ref="E408" r:id="rId1494" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{1A9F6270-80F0-4D2D-8EC5-2AB80BFCFEB5}"/>
-    <hyperlink ref="I408" r:id="rId1495" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F1215604-2A73-4C8E-8BC4-02D300B05F20}"/>
-    <hyperlink ref="M408" r:id="rId1496" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{511069AF-4123-465B-B9F0-64098104EF86}"/>
-    <hyperlink ref="C410" r:id="rId1497" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{200E574D-8116-4516-A0BF-60CB0B291A6A}"/>
-    <hyperlink ref="E410" r:id="rId1498" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A685AF31-47F5-4947-9395-ECEE5A9401EF}"/>
-    <hyperlink ref="I410" r:id="rId1499" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8CA5B932-C3AD-485D-8E1B-62D2BB3E4B1B}"/>
-    <hyperlink ref="M410" r:id="rId1500" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{0FD95241-5F59-4ECF-B8A7-4700ED92B659}"/>
-    <hyperlink ref="C411" r:id="rId1501" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{80BDD8CF-742E-42AC-93F1-41E412CF02CA}"/>
-    <hyperlink ref="E411" r:id="rId1502" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D37543AC-BFF9-40C3-A441-16EB010C7CED}"/>
-    <hyperlink ref="I411" r:id="rId1503" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{8BADF48B-B1C1-48EF-B282-A49450087EC1}"/>
-    <hyperlink ref="M411" r:id="rId1504" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{56590555-A7AC-4458-B9B2-D510D4703939}"/>
-    <hyperlink ref="C412" r:id="rId1505" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{D25A09F3-52EA-4576-AAA1-140F958C4CCC}"/>
-    <hyperlink ref="E412" r:id="rId1506" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B9A6D64E-842D-47FE-AFAD-949B3CEF8539}"/>
-    <hyperlink ref="I412" r:id="rId1507" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{2D17F9AD-79E3-4E04-9D81-84E6F13A397B}"/>
-    <hyperlink ref="M412" r:id="rId1508" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{8261300B-4BD1-4314-B95A-06B256FFBDC1}"/>
-    <hyperlink ref="C413" r:id="rId1509" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{52FD8D12-B29B-4D8D-8907-38947CFE08F1}"/>
-    <hyperlink ref="E413" r:id="rId1510" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5938CD71-E0F7-497A-981E-1DE77AB46153}"/>
-    <hyperlink ref="I413" r:id="rId1511" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{ED7DBEBF-0662-463F-9F78-FEDB54CEE538}"/>
-    <hyperlink ref="M413" r:id="rId1512" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{C9F9A14D-DCEB-4F5B-9EED-FCBAEE23E9E3}"/>
-    <hyperlink ref="C414" r:id="rId1513" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{7623703B-3655-4D8A-B1A9-D2B0E36D969C}"/>
-    <hyperlink ref="E414" r:id="rId1514" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{296EFD01-1B6E-4764-89F9-52BD870E2D6B}"/>
-    <hyperlink ref="I414" r:id="rId1515" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C83E53F1-5EC7-443C-875C-176E74F1F6B6}"/>
-    <hyperlink ref="M414" r:id="rId1516" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{FCBC5EA3-A2EF-4463-BBE2-9A77E9F6EE2C}"/>
-    <hyperlink ref="C415" r:id="rId1517" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{B07E952B-08D7-4BBC-BFF1-719D5732AB0B}"/>
-    <hyperlink ref="E415" r:id="rId1518" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{AF71E89C-A1AC-4DFA-A0D6-913907454751}"/>
-    <hyperlink ref="I415" r:id="rId1519" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{35FDBCC0-B456-4A14-93AA-779C7DA918D2}"/>
-    <hyperlink ref="M415" r:id="rId1520" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{BDA72BA5-089E-47A4-8897-86C572C8E977}"/>
-    <hyperlink ref="C416" r:id="rId1521" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{0D236E72-53E1-46AC-B87A-672946921696}"/>
-    <hyperlink ref="E416" r:id="rId1522" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{5D0BCAA3-35EB-47DB-AAB4-4EB082417753}"/>
-    <hyperlink ref="I416" r:id="rId1523" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{58C63B34-4A5A-490B-BACE-75367A4E7759}"/>
-    <hyperlink ref="M416" r:id="rId1524" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{274B6621-9039-44C5-9D6C-D9DB3F4386EC}"/>
-    <hyperlink ref="C417" r:id="rId1525" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{80138069-840C-4032-9E96-A09236F7D2C5}"/>
-    <hyperlink ref="E417" r:id="rId1526" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{0243754B-22A2-4FA8-8043-3103A2570CC4}"/>
-    <hyperlink ref="I417" r:id="rId1527" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{86C0C82E-140E-4567-8F53-037EC6A94E45}"/>
-    <hyperlink ref="M417" r:id="rId1528" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{0771686C-4F2A-4E93-97B7-7797A1F3A5C3}"/>
-    <hyperlink ref="C418" r:id="rId1529" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{070BD3B0-6D15-417D-80F7-A631BE2A3FA9}"/>
-    <hyperlink ref="E418" r:id="rId1530" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{188E3866-1960-43AF-AD4F-BB01F0B232B0}"/>
-    <hyperlink ref="I418" r:id="rId1531" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{3EAF4D97-7F1A-4A13-B865-61F8D841F3FB}"/>
-    <hyperlink ref="M418" r:id="rId1532" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{DBCDF91B-C166-42AD-A877-134955AAABFE}"/>
-    <hyperlink ref="C419" r:id="rId1533" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{AE6A4E3B-6C5D-4A0B-9D75-3C9BF64DDAA6}"/>
-    <hyperlink ref="E419" r:id="rId1534" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{61635B50-E9F9-42C0-AAF1-685595A9F700}"/>
-    <hyperlink ref="I419" r:id="rId1535" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{88A48D07-BF2D-46A6-B585-BC35FA05D33B}"/>
-    <hyperlink ref="M419" r:id="rId1536" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{A61DC81F-8F44-47AB-B0BD-D56954403929}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://fbref.com/en/matches/2021-08-13" xr:uid="{D22060C8-71FB-4B04-88B0-36C7C291BA6B}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{8F244224-BE4D-4D4A-B324-CF1F6434E469}"/>
+    <hyperlink ref="G3" r:id="rId3" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{AF004F0F-041E-490E-8682-4A4CD5E80F2B}"/>
+    <hyperlink ref="I3" r:id="rId4" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{BFDD7336-2A3A-40A5-8779-60A2866ECF6F}"/>
+    <hyperlink ref="M3" r:id="rId5" display="https://fbref.com/en/matches/3adf2aa7/Brentford-Arsenal-August-13-2021-Premier-League" xr:uid="{1E773C22-C1AD-47FC-884D-2D2EE5C6421A}"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{1207B554-0CE7-4E52-8D84-5B42B5A533B6}"/>
+    <hyperlink ref="E4" r:id="rId7" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{779FEB38-7B58-4510-8A13-FA7DB14F725D}"/>
+    <hyperlink ref="G4" r:id="rId8" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{DA52767C-60F3-4618-A54A-3B26A4215573}"/>
+    <hyperlink ref="I4" r:id="rId9" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{727B5680-7509-407F-B973-F8922A0AF74E}"/>
+    <hyperlink ref="M4" r:id="rId10" display="https://fbref.com/en/matches/e62685d4/Manchester-United-Leeds-United-August-14-2021-Premier-League" xr:uid="{C8666D89-5CE7-47BE-ABA0-0DCCE6A78222}"/>
+    <hyperlink ref="C5" r:id="rId11" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{9FFD6D93-FF4D-46CA-9BDC-76261B60C8CB}"/>
+    <hyperlink ref="E5" r:id="rId12" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D2CAC92B-EF5D-419E-BC9C-AD488A43BC9E}"/>
+    <hyperlink ref="G5" r:id="rId13" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{0F03F5D8-15C1-4F09-9D2C-60702AB0085E}"/>
+    <hyperlink ref="I5" r:id="rId14" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C2BD8E2E-B1F3-4E29-BEE0-97449F24FE39}"/>
+    <hyperlink ref="M5" r:id="rId15" display="https://fbref.com/en/matches/0b346a62/Leicester-City-Wolverhampton-Wanderers-August-14-2021-Premier-League" xr:uid="{DF154ED3-C64B-4725-90B4-3D4D7B2D5A78}"/>
+    <hyperlink ref="C6" r:id="rId16" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{F4D653B0-A787-42E9-BDF5-26455C40F0C7}"/>
+    <hyperlink ref="E6" r:id="rId17" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2433CF3D-4BF0-4F68-B68C-7A1B3EEAD763}"/>
+    <hyperlink ref="G6" r:id="rId18" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{E3CF0DC6-10DA-4738-AD78-16EC85122DCE}"/>
+    <hyperlink ref="I6" r:id="rId19" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{50595318-9AAF-463D-A5EC-5628FB8CC357}"/>
+    <hyperlink ref="M6" r:id="rId20" display="https://fbref.com/en/matches/4eb36e37/Burnley-Brighton-and-Hove-Albion-August-14-2021-Premier-League" xr:uid="{287F66FF-0E4E-48EB-9D1D-800D86861D0D}"/>
+    <hyperlink ref="C7" r:id="rId21" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{6D97D426-5A14-4167-B5F2-B16911C77FD4}"/>
+    <hyperlink ref="E7" r:id="rId22" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{F75BEE15-5C7B-4DB7-B56F-7D3325007DD8}"/>
+    <hyperlink ref="G7" r:id="rId23" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{8E3019BD-2CCE-45EB-A19F-622431FBAD14}"/>
+    <hyperlink ref="I7" r:id="rId24" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F21CE8DA-C755-4D01-8C00-050DE48882F2}"/>
+    <hyperlink ref="M7" r:id="rId25" display="https://fbref.com/en/matches/814b563c/Watford-Aston-Villa-August-14-2021-Premier-League" xr:uid="{D84B1123-9FDB-4586-A1E8-5B0BFA0ECA1A}"/>
+    <hyperlink ref="C8" r:id="rId26" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{BF223931-A419-4D20-B627-E7C912922CEE}"/>
+    <hyperlink ref="E8" r:id="rId27" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A4A3F7AA-0DC8-427C-AC64-C63A74F2A12D}"/>
+    <hyperlink ref="G8" r:id="rId28" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{C51CBE38-11C1-46F0-9AD6-6DCC2C39CDAF}"/>
+    <hyperlink ref="I8" r:id="rId29" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{C0817789-8F12-4381-B226-0FE90566F64D}"/>
+    <hyperlink ref="M8" r:id="rId30" display="https://fbref.com/en/matches/6f454493/Chelsea-Crystal-Palace-August-14-2021-Premier-League" xr:uid="{A7031EF5-17D6-4A0C-B685-C06C8E975B5A}"/>
+    <hyperlink ref="C9" r:id="rId31" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{201D4B9C-4F74-44DE-B6A3-8C527983F30B}"/>
+    <hyperlink ref="E9" r:id="rId32" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{30C74D3E-A01B-4D40-A7F5-8ED4E45EBB7E}"/>
+    <hyperlink ref="G9" r:id="rId33" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{96E1AC70-EB78-4304-885D-C82D4077752A}"/>
+    <hyperlink ref="I9" r:id="rId34" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{4236043E-8F0F-4753-9441-44D87B830250}"/>
+    <hyperlink ref="M9" r:id="rId35" display="https://fbref.com/en/matches/c99ebbf5/Everton-Southampton-August-14-2021-Premier-League" xr:uid="{20DD915C-F3E7-4F19-8584-209F7C5831D1}"/>
+    <hyperlink ref="C10" r:id="rId36" display="https://fbref.com/en/matches/2021-08-14" xr:uid="{9FA6AC0F-A8EF-4C52-96A3-5ADE1EC06F92}"/>
+    <hyperlink ref="E10" r:id="rId37" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{3F65959C-E76E-4904-BD15-9AFC7FF18A80}"/>
+    <hyperlink ref="G10" r:id="rId38" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{C6EDD3C3-6569-4814-9546-63C43A963CED}"/>
+    <hyperlink ref="I10" r:id="rId39" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{EDC67015-95A4-4DB3-BF8E-394FE5E28F09}"/>
+    <hyperlink ref="M10" r:id="rId40" display="https://fbref.com/en/matches/c52500ad/Norwich-City-Liverpool-August-14-2021-Premier-League" xr:uid="{D8ADE765-4C52-4558-9D9C-FFE8FA91CD17}"/>
+    <hyperlink ref="C11" r:id="rId41" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{5E1905F5-A7F5-4319-B7A0-B09806F256C9}"/>
+    <hyperlink ref="E11" r:id="rId42" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B655FC01-F4A9-4BBF-B3CD-A3DF981FD051}"/>
+    <hyperlink ref="G11" r:id="rId43" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{6EC51826-B680-4FF6-947C-10A830065CD5}"/>
+    <hyperlink ref="I11" r:id="rId44" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{548A419F-BC49-4A86-BDAD-670340FFDB22}"/>
+    <hyperlink ref="M11" r:id="rId45" display="https://fbref.com/en/matches/41091264/Newcastle-United-West-Ham-United-August-15-2021-Premier-League" xr:uid="{C5B24CA5-7B28-4AD8-A3A0-132562F4BA06}"/>
+    <hyperlink ref="C12" r:id="rId46" display="https://fbref.com/en/matches/2021-08-15" xr:uid="{F1796033-7FE9-448E-9828-2241EBC14C92}"/>
+    <hyperlink ref="E12" r:id="rId47" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{38E1B1C0-E416-4C14-AA4C-49E3B7BA47D9}"/>
+    <hyperlink ref="G12" r:id="rId48" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{2B069305-9EA6-4A90-BEB2-9141625C7D11}"/>
+    <hyperlink ref="I12" r:id="rId49" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{CB089111-2145-4C6B-AA38-BA5E943E3BA1}"/>
+    <hyperlink ref="M12" r:id="rId50" display="https://fbref.com/en/matches/ff51efc7/Tottenham-Hotspur-Manchester-City-August-15-2021-Premier-League" xr:uid="{2D997ADF-A5F2-44B4-BC37-F9CEAF48B8C2}"/>
+    <hyperlink ref="C14" r:id="rId51" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{9CE2369E-5C2E-43A2-AE85-E0104E4AF11F}"/>
+    <hyperlink ref="E14" r:id="rId52" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{29E47CF7-AEC6-453D-9780-F4B3A1DD6B0A}"/>
+    <hyperlink ref="G14" r:id="rId53" display="https://fbref.com/en/matches/94d9dac0/Liverpool-Burnley-August-21-2021-Premier-League" xr:uid="{DD635B1F-00BC-4635-9822-FD8BC18B582E}"/>
+    <hyperlink ref="I14" r:id="rId54" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{89643C3E-63E2-4D3F-83B1-6578319ACC26}"/>
+    <hyperlink ref="M14" r:id="rId55" display="https://fbref.com/en/matches/94d9dac0/Liverpool-Burnley-August-21-2021-Premier-League" xr:uid="{BE53CB72-B801-4CB4-AAEF-F66768AEF5BF}"/>
+    <hyperlink ref="C15" r:id="rId56" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{B70BC492-479D-4140-A491-AD4E6DAFE513}"/>
+    <hyperlink ref="E15" r:id="rId57" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B7C5B4C5-9260-4E20-86C8-EEE739A67DCF}"/>
+    <hyperlink ref="G15" r:id="rId58" display="https://fbref.com/en/matches/662d4074/Aston-Villa-Newcastle-United-August-21-2021-Premier-League" xr:uid="{BE26E695-DA1E-4958-8970-214403FC1444}"/>
+    <hyperlink ref="I15" r:id="rId59" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{4178D250-6474-407A-B86B-12EC462F6E50}"/>
+    <hyperlink ref="M15" r:id="rId60" display="https://fbref.com/en/matches/662d4074/Aston-Villa-Newcastle-United-August-21-2021-Premier-League" xr:uid="{1B5C8391-A2B6-4904-B6E7-7120E21CEABD}"/>
+    <hyperlink ref="C16" r:id="rId61" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{B5F27CC4-4A3B-4344-B721-8436D2E73DCC}"/>
+    <hyperlink ref="E16" r:id="rId62" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{A370E6FF-3C01-4656-89A0-731D436739D3}"/>
+    <hyperlink ref="G16" r:id="rId63" display="https://fbref.com/en/matches/ab6db0d6/Manchester-City-Norwich-City-August-21-2021-Premier-League" xr:uid="{74D32645-C638-4FC5-BD20-5D573BE6E9DC}"/>
+    <hyperlink ref="I16" r:id="rId64" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{F0784088-B7A2-4D68-BCC8-4A2B31AD450B}"/>
+    <hyperlink ref="M16" r:id="rId65" display="https://fbref.com/en/matches/ab6db0d6/Manchester-City-Norwich-City-August-21-2021-Premier-League" xr:uid="{FD905DB0-1F2B-482B-990E-0C516D00AA38}"/>
+    <hyperlink ref="C17" r:id="rId66" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{920B7669-EEBF-4008-B9ED-C424A0B30A65}"/>
+    <hyperlink ref="E17" r:id="rId67" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{846A0D19-623A-4C20-81A6-3E88CE4E6A23}"/>
+    <hyperlink ref="G17" r:id="rId68" display="https://fbref.com/en/matches/c8945d11/Crystal-Palace-Brentford-August-21-2021-Premier-League" xr:uid="{B104C177-3F73-42E4-9E4C-C77E9D91A98B}"/>
+    <hyperlink ref="I17" r:id="rId69" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{D9A73042-8C73-43DB-B03D-682438A54D15}"/>
+    <hyperlink ref="M17" r:id="rId70" display="https://fbref.com/en/matches/c8945d11/Crystal-Palace-Brentford-August-21-2021-Premier-League" xr:uid="{B982BCA0-5570-485C-A51D-E49AD40A2247}"/>
+    <hyperlink ref="C18" r:id="rId71" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{436BFBAD-1958-468B-86C0-90BB1EB973D7}"/>
+    <hyperlink ref="E18" r:id="rId72" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{ED4FCA53-1E53-4713-AE83-59326DB8E467}"/>
+    <hyperlink ref="G18" r:id="rId73" display="https://fbref.com/en/matches/b9064680/Leeds-United-Everton-August-21-2021-Premier-League" xr:uid="{93771E5D-7455-4F93-BC5A-05FAEA1D718F}"/>
+    <hyperlink ref="I18" r:id="rId74" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{555B50A7-9A0A-45C7-A7A6-A0D6789B93BF}"/>
+    <hyperlink ref="M18" r:id="rId75" display="https://fbref.com/en/matches/b9064680/Leeds-United-Everton-August-21-2021-Premier-League" xr:uid="{2B104109-049E-444A-84C2-81AA9B474F61}"/>
+    <hyperlink ref="C19" r:id="rId76" display="https://fbref.com/en/matches/2021-08-21" xr:uid="{CC5E6B1B-1C0A-496F-A16D-F1DECA8A812A}"/>
+    <hyperlink ref="E19" r:id="rId77" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4B6DA302-CFB4-4099-8A3E-8A45265B5FD2}"/>
+    <hyperlink ref="G19" r:id="rId78" display="https://fbref.com/en/matches/072af2f8/Brighton-and-Hove-Albion-Watford-August-21-2021-Premier-League" xr:uid="{081A6A77-4A67-45D1-9F9B-8F080DD78538}"/>
+    <hyperlink ref="I19" r:id="rId79" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C4F2EB4C-3EE6-4FCC-ADCC-1355F5E794EC}"/>
+    <hyperlink ref="M19" r:id="rId80" display="https://fbref.com/en/matches/072af2f8/Brighton-and-Hove-Albion-Watford-August-21-2021-Premier-League" xr:uid="{29D3BA57-359D-4039-9BDF-2F297A4AC3BC}"/>
+    <hyperlink ref="C20" r:id="rId81" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{8756A91B-0663-462C-8115-F2C4ACBE5005}"/>
+    <hyperlink ref="E20" r:id="rId82" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{66394D8C-5F45-4298-B422-6F53EB4CBB3D}"/>
+    <hyperlink ref="G20" r:id="rId83" display="https://fbref.com/en/matches/345b3989/Southampton-Manchester-United-August-22-2021-Premier-League" xr:uid="{E5141C81-2BA7-4844-BE3C-1C9F4A0E5307}"/>
+    <hyperlink ref="I20" r:id="rId84" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{7AB2F9CD-5947-41C2-B96F-D22A74512EEC}"/>
+    <hyperlink ref="M20" r:id="rId85" display="https://fbref.com/en/matches/345b3989/Southampton-Manchester-United-August-22-2021-Premier-League" xr:uid="{FC122405-7552-4476-BE44-1B7049E2AB31}"/>
+    <hyperlink ref="C21" r:id="rId86" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{71DEDCB6-BE5E-4500-8273-0A26FE8DD1CD}"/>
+    <hyperlink ref="E21" r:id="rId87" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{5AE95175-A8F7-4F04-B79D-24C122AAC54C}"/>
+    <hyperlink ref="G21" r:id="rId88" display="https://fbref.com/en/matches/26ceb3c9/Wolverhampton-Wanderers-Tottenham-Hotspur-August-22-2021-Premier-League" xr:uid="{916FFDF3-3179-45C0-BBD8-4BE09B17A68E}"/>
+    <hyperlink ref="I21" r:id="rId89" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{285F9635-DDE9-44C8-87A4-046A3C44DFC2}"/>
+    <hyperlink ref="M21" r:id="rId90" display="https://fbref.com/en/matches/26ceb3c9/Wolverhampton-Wanderers-Tottenham-Hotspur-August-22-2021-Premier-League" xr:uid="{6F969FA4-09D2-432B-AB02-2E222F01A30C}"/>
+    <hyperlink ref="C22" r:id="rId91" display="https://fbref.com/en/matches/2021-08-22" xr:uid="{A7E4BD2B-5C60-45E1-BF31-B402748026C4}"/>
+    <hyperlink ref="E22" r:id="rId92" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{A6EEA847-F31E-407D-B640-E99B494D2584}"/>
+    <hyperlink ref="G22" r:id="rId93" display="https://fbref.com/en/matches/93954213/North-West-London-Derby-Arsenal-Chelsea-August-22-2021-Premier-League" xr:uid="{814EE8DD-CAD8-49B5-A635-98E6E2C52D0B}"/>
+    <hyperlink ref="I22" r:id="rId94" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{FD359552-3834-4CBE-A7AC-B7235E7D2A4A}"/>
+    <hyperlink ref="M22" r:id="rId95" display="https://fbref.com/en/matches/93954213/North-West-London-Derby-Arsenal-Chelsea-August-22-2021-Premier-League" xr:uid="{D8D88E3D-0A96-445D-A38E-18082AF877E1}"/>
+    <hyperlink ref="C23" r:id="rId96" display="https://fbref.com/en/matches/2021-08-23" xr:uid="{79BA18F4-A8DC-4A66-A249-6A3C34B21ECB}"/>
+    <hyperlink ref="E23" r:id="rId97" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{BA0A07CA-4B90-4DF8-B878-13A2E35CF5A8}"/>
+    <hyperlink ref="G23" r:id="rId98" display="https://fbref.com/en/matches/1d07228e/West-Ham-United-Leicester-City-August-23-2021-Premier-League" xr:uid="{D2E8FF3F-B28D-4700-BB42-E18B1E1293F9}"/>
+    <hyperlink ref="I23" r:id="rId99" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D9A8FF0E-6081-45DF-ACE4-6C0B37CC55D1}"/>
+    <hyperlink ref="M23" r:id="rId100" display="https://fbref.com/en/matches/1d07228e/West-Ham-United-Leicester-City-August-23-2021-Premier-League" xr:uid="{210EF2E9-1DB6-40BE-B4FC-7A8FB3F96C03}"/>
+    <hyperlink ref="C25" r:id="rId101" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{3D28A3E7-4066-4AE8-A0A6-B7D863DC7E3B}"/>
+    <hyperlink ref="E25" r:id="rId102" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{A1FE2AD4-E7D4-4AE6-A4F0-0E7B707EA6BB}"/>
+    <hyperlink ref="G25" r:id="rId103" display="https://fbref.com/en/matches/d4650aa2/Manchester-City-Arsenal-August-28-2021-Premier-League" xr:uid="{53ABFCD6-3953-4CBD-8F13-356231401824}"/>
+    <hyperlink ref="I25" r:id="rId104" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7798216E-77CB-491C-8112-264D0EB615E2}"/>
+    <hyperlink ref="M25" r:id="rId105" display="https://fbref.com/en/matches/d4650aa2/Manchester-City-Arsenal-August-28-2021-Premier-League" xr:uid="{3DCEC9A6-E877-4C55-A67B-E9AA048CA919}"/>
+    <hyperlink ref="C26" r:id="rId106" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{13A49817-D111-4829-8E3A-9915B76FB751}"/>
+    <hyperlink ref="E26" r:id="rId107" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CC89A4F6-3195-4453-AB1F-4D1FA2D821DD}"/>
+    <hyperlink ref="G26" r:id="rId108" display="https://fbref.com/en/matches/78c685cc/Norwich-City-Leicester-City-August-28-2021-Premier-League" xr:uid="{45843938-DB7A-4545-8C2F-C3A3CB3D5336}"/>
+    <hyperlink ref="I26" r:id="rId109" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{D7C0B33B-6170-4DBC-BB07-208A2586BC71}"/>
+    <hyperlink ref="M26" r:id="rId110" display="https://fbref.com/en/matches/78c685cc/Norwich-City-Leicester-City-August-28-2021-Premier-League" xr:uid="{7030C746-9AAD-41BD-B72F-238D5316E0A8}"/>
+    <hyperlink ref="C27" r:id="rId111" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{845B273A-2667-4CCB-8156-00CDD0AF6F55}"/>
+    <hyperlink ref="E27" r:id="rId112" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{FC8BA3D1-90EA-48F4-8A4C-FA51C531F4E5}"/>
+    <hyperlink ref="G27" r:id="rId113" display="https://fbref.com/en/matches/8e017435/West-Ham-United-Crystal-Palace-August-28-2021-Premier-League" xr:uid="{8EFBDDA2-D152-43D9-9F72-80A0FE1C332C}"/>
+    <hyperlink ref="I27" r:id="rId114" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{8A436C60-1E5F-4689-88F2-987F2CFB083E}"/>
+    <hyperlink ref="M27" r:id="rId115" display="https://fbref.com/en/matches/8e017435/West-Ham-United-Crystal-Palace-August-28-2021-Premier-League" xr:uid="{4DDBBAA3-7699-4963-B7E2-CB45D0514606}"/>
+    <hyperlink ref="C28" r:id="rId116" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{AA83711F-0201-46DD-BDDC-BC55BAB53097}"/>
+    <hyperlink ref="E28" r:id="rId117" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{DA23FA53-9426-4A48-9C3A-A67E2A8CA5E8}"/>
+    <hyperlink ref="G28" r:id="rId118" display="https://fbref.com/en/matches/d81af076/Newcastle-United-Southampton-August-28-2021-Premier-League" xr:uid="{C6B32AB4-102B-419E-B263-477014FF5391}"/>
+    <hyperlink ref="I28" r:id="rId119" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{C4FE849A-2C12-40F4-94CA-DC205DE3413D}"/>
+    <hyperlink ref="M28" r:id="rId120" display="https://fbref.com/en/matches/d81af076/Newcastle-United-Southampton-August-28-2021-Premier-League" xr:uid="{5012BB22-4D84-4B14-9074-1CBDE4D8181B}"/>
+    <hyperlink ref="C29" r:id="rId121" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{A72F71D1-4577-44C5-94BA-1CA3E48FBF8B}"/>
+    <hyperlink ref="E29" r:id="rId122" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{8B0AD9F8-338E-4A20-B808-432C967888E3}"/>
+    <hyperlink ref="G29" r:id="rId123" display="https://fbref.com/en/matches/a08ef96c/Aston-Villa-Brentford-August-28-2021-Premier-League" xr:uid="{56C500A9-8013-40D3-8D17-2C76F6D9A6BC}"/>
+    <hyperlink ref="I29" r:id="rId124" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{BBD6FF65-EEE0-4A07-B150-2B97805944E0}"/>
+    <hyperlink ref="M29" r:id="rId125" display="https://fbref.com/en/matches/a08ef96c/Aston-Villa-Brentford-August-28-2021-Premier-League" xr:uid="{8EEA8D91-477E-45C8-9A2E-6DB98244719E}"/>
+    <hyperlink ref="C30" r:id="rId126" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{FA0EFFE8-DD51-41FF-8DD5-5CECBCF72A79}"/>
+    <hyperlink ref="E30" r:id="rId127" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{9A9BB86D-CECB-4901-AAD0-48C9835D46F2}"/>
+    <hyperlink ref="G30" r:id="rId128" display="https://fbref.com/en/matches/ec8b667a/Brighton-and-Hove-Albion-Everton-August-28-2021-Premier-League" xr:uid="{3BB6B2B8-763B-46E6-92C0-2791C46270CF}"/>
+    <hyperlink ref="I30" r:id="rId129" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0C96CF5F-DEA3-4AAF-8D0C-40FB1F3DC731}"/>
+    <hyperlink ref="M30" r:id="rId130" display="https://fbref.com/en/matches/ec8b667a/Brighton-and-Hove-Albion-Everton-August-28-2021-Premier-League" xr:uid="{9EDF1AF4-AF61-4F22-B465-B11996F4C76D}"/>
+    <hyperlink ref="C31" r:id="rId131" display="https://fbref.com/en/matches/2021-08-28" xr:uid="{985C76BD-B11A-45DD-AC4E-203CBA6FDF95}"/>
+    <hyperlink ref="E31" r:id="rId132" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{E2F28209-504D-4849-92BD-1B71CE565A6C}"/>
+    <hyperlink ref="G31" r:id="rId133" display="https://fbref.com/en/matches/78aa75e6/Liverpool-Chelsea-August-28-2021-Premier-League" xr:uid="{4DB98B8B-DD2E-4D5A-A47F-63B9CE3E9FFB}"/>
+    <hyperlink ref="I31" r:id="rId134" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{75151D34-671A-4218-912F-D7343DB637A3}"/>
+    <hyperlink ref="M31" r:id="rId135" display="https://fbref.com/en/matches/78aa75e6/Liverpool-Chelsea-August-28-2021-Premier-League" xr:uid="{FD7AD014-EEA9-4230-98AC-A342A3D2563B}"/>
+    <hyperlink ref="C32" r:id="rId136" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{66E58041-6BC6-407F-AA73-0AE0DB8B1B77}"/>
+    <hyperlink ref="E32" r:id="rId137" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C4295BAE-3B3C-4DF1-B01C-38B0229B6C8E}"/>
+    <hyperlink ref="G32" r:id="rId138" display="https://fbref.com/en/matches/3cd9a733/Tottenham-Hotspur-Watford-August-29-2021-Premier-League" xr:uid="{94AD610A-6603-4FDF-B913-3973825D0303}"/>
+    <hyperlink ref="I32" r:id="rId139" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{FED78D95-F2A2-4E65-8EB9-FA2A552940BC}"/>
+    <hyperlink ref="M32" r:id="rId140" display="https://fbref.com/en/matches/3cd9a733/Tottenham-Hotspur-Watford-August-29-2021-Premier-League" xr:uid="{60307E91-0C12-4E0E-B869-09B5E085EF5D}"/>
+    <hyperlink ref="C33" r:id="rId141" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{B3F7FF38-8853-4A23-94C4-F92BFB084EC0}"/>
+    <hyperlink ref="E33" r:id="rId142" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{7DA4B555-DBB2-4A8D-9E02-12930C672671}"/>
+    <hyperlink ref="G33" r:id="rId143" display="https://fbref.com/en/matches/2e5db698/Burnley-Leeds-United-August-29-2021-Premier-League" xr:uid="{66C3D6F8-8EFA-4274-90D6-7879484C3DEA}"/>
+    <hyperlink ref="I33" r:id="rId144" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C0B3827E-8C24-4ADA-817F-41A9C27989CB}"/>
+    <hyperlink ref="M33" r:id="rId145" display="https://fbref.com/en/matches/2e5db698/Burnley-Leeds-United-August-29-2021-Premier-League" xr:uid="{354082E2-DA84-40A5-8095-3F7772603E6E}"/>
+    <hyperlink ref="C34" r:id="rId146" display="https://fbref.com/en/matches/2021-08-29" xr:uid="{9FC7211E-1E17-489D-8BD9-2C4021F302BA}"/>
+    <hyperlink ref="E34" r:id="rId147" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{0BB9FEAB-0FE7-4A58-9C5B-F47C1FF05602}"/>
+    <hyperlink ref="G34" r:id="rId148" display="https://fbref.com/en/matches/871109e6/Wolverhampton-Wanderers-Manchester-United-August-29-2021-Premier-League" xr:uid="{0BEB7F50-9385-44B1-86AE-2AA62E980C64}"/>
+    <hyperlink ref="I34" r:id="rId149" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{C2AED636-59F8-4580-B28F-FFA5296DAEF1}"/>
+    <hyperlink ref="M34" r:id="rId150" display="https://fbref.com/en/matches/871109e6/Wolverhampton-Wanderers-Manchester-United-August-29-2021-Premier-League" xr:uid="{097E118E-F454-4367-99CE-D18BB40FD651}"/>
+    <hyperlink ref="C36" r:id="rId151" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{6BE08068-5F07-460E-8A96-11B2AC530D58}"/>
+    <hyperlink ref="E36" r:id="rId152" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{C8398C7F-E71F-4DCB-940F-664E1327F4E1}"/>
+    <hyperlink ref="I36" r:id="rId153" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C3426600-7110-45F0-95D3-346D1F57C5DF}"/>
+    <hyperlink ref="M36" r:id="rId154" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{9B430C2C-0C09-4994-A214-03FC4C93837C}"/>
+    <hyperlink ref="C37" r:id="rId155" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{ABCF8CDA-32EE-497A-B941-DBF4017222C3}"/>
+    <hyperlink ref="E37" r:id="rId156" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{61B7379F-D929-40AE-9308-1DDCFDDB87A9}"/>
+    <hyperlink ref="I37" r:id="rId157" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{41E2ED74-288E-48B4-A520-A2802B65D2C8}"/>
+    <hyperlink ref="M37" r:id="rId158" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{7BB465E0-98D3-40A6-B035-69C3EC748F9E}"/>
+    <hyperlink ref="C38" r:id="rId159" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{2D3550AF-FE18-48F2-A59F-CBBC4AD647A6}"/>
+    <hyperlink ref="E38" r:id="rId160" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{6B9AA25A-8B6C-4A5A-8F33-FF4EF9FCFE8B}"/>
+    <hyperlink ref="I38" r:id="rId161" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{BB9FA958-D0E6-4C4C-992F-C8A28D1887FD}"/>
+    <hyperlink ref="M38" r:id="rId162" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{1EEA3EA4-B9CF-4F05-81C3-B9605C4B2257}"/>
+    <hyperlink ref="C39" r:id="rId163" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{C902A760-2C51-4AC2-A0C4-9E31842AD45D}"/>
+    <hyperlink ref="E39" r:id="rId164" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{A54CB3B6-6427-4755-A3B0-AC25DE14917C}"/>
+    <hyperlink ref="I39" r:id="rId165" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{26E56DD0-EB7E-4021-B130-95CAA15DAD88}"/>
+    <hyperlink ref="M39" r:id="rId166" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{3319FE46-B1D5-4F4A-B354-48EEE5A6904F}"/>
+    <hyperlink ref="C40" r:id="rId167" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{A55A54EE-6E04-4059-AA6E-3959552F28F2}"/>
+    <hyperlink ref="E40" r:id="rId168" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{26CBDF6B-C2C2-4FC3-AE38-8617E6529BAB}"/>
+    <hyperlink ref="I40" r:id="rId169" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{9C7A53BC-EB6C-47EB-A87A-B164CF7F35C3}"/>
+    <hyperlink ref="M40" r:id="rId170" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{83CAC3C6-4269-4161-AA3F-110118B4C291}"/>
+    <hyperlink ref="C41" r:id="rId171" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{216CEFDA-F91F-42B8-9F91-E75E5703CF63}"/>
+    <hyperlink ref="E41" r:id="rId172" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{94B5BD8C-0CEC-4FD1-B6B0-08873E7AEBF1}"/>
+    <hyperlink ref="I41" r:id="rId173" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E4810BB2-3726-47DA-9CC2-D268C0BEC6AE}"/>
+    <hyperlink ref="M41" r:id="rId174" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{6FC3D322-B738-45BA-975C-321D9F05F210}"/>
+    <hyperlink ref="C42" r:id="rId175" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{2C63BA28-BB0E-4D8B-B255-D15732BBE2E3}"/>
+    <hyperlink ref="E42" r:id="rId176" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{3E1370F0-8C37-4068-AD41-0672EB51943C}"/>
+    <hyperlink ref="I42" r:id="rId177" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B39D42EF-F1D3-43B3-A9F3-4D21DB6B0076}"/>
+    <hyperlink ref="M42" r:id="rId178" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{13F371D9-474A-4260-8210-C2C3EC6314F1}"/>
+    <hyperlink ref="C43" r:id="rId179" display="https://fbref.com/en/matches/2021-09-11" xr:uid="{EC85ABB2-BD7D-447B-A86D-519542FC1CDA}"/>
+    <hyperlink ref="E43" r:id="rId180" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{279F68E5-C60E-4A9C-B355-82B07E0B626B}"/>
+    <hyperlink ref="I43" r:id="rId181" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{AB30FA82-7D3D-43AD-8745-952C6D4EF76C}"/>
+    <hyperlink ref="M43" r:id="rId182" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{18F518DC-2D42-4FBD-9F5E-63EE029D1374}"/>
+    <hyperlink ref="C44" r:id="rId183" display="https://fbref.com/en/matches/2021-09-12" xr:uid="{AC35A3FF-1D8E-4EC1-9C5F-B63BE172BDCC}"/>
+    <hyperlink ref="E44" r:id="rId184" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{136813DC-641B-4F14-ACD7-36CB24C0D8E5}"/>
+    <hyperlink ref="I44" r:id="rId185" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{04B6067E-635C-4F77-8A2C-97EF25EA1829}"/>
+    <hyperlink ref="M44" r:id="rId186" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{F291574B-EF03-4FA7-A1AF-FED3101640CB}"/>
+    <hyperlink ref="C45" r:id="rId187" display="https://fbref.com/en/matches/2021-09-13" xr:uid="{D8EB0EB5-BA3F-4F3E-8A63-75E9F7D6ACD3}"/>
+    <hyperlink ref="E45" r:id="rId188" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5056E976-56CF-4805-9556-70E0DA71F7FE}"/>
+    <hyperlink ref="I45" r:id="rId189" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2DA64FC2-703F-437E-A49F-95923A0BBF84}"/>
+    <hyperlink ref="M45" r:id="rId190" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{01C20788-485F-43B9-AC22-16D726F81604}"/>
+    <hyperlink ref="C47" r:id="rId191" display="https://fbref.com/en/matches/2021-09-17" xr:uid="{EDC92328-DA4D-41BE-9DFA-9EE34A9CE560}"/>
+    <hyperlink ref="E47" r:id="rId192" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B54C360B-AFE0-47B0-BB61-319CEB2D5B76}"/>
+    <hyperlink ref="I47" r:id="rId193" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{6DBC6F98-2E5F-421E-815A-6A7B2B626CBB}"/>
+    <hyperlink ref="M47" r:id="rId194" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{54E30C8E-076D-4B6D-9295-B156BD31F0C1}"/>
+    <hyperlink ref="C48" r:id="rId195" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{DFC16770-E6C1-44E6-A2E5-0EADFBB6E9DE}"/>
+    <hyperlink ref="E48" r:id="rId196" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{0BB7CA02-B73F-4E1F-B465-FC4817014E4D}"/>
+    <hyperlink ref="I48" r:id="rId197" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{52C481B0-0C67-4FB0-86CF-0EA561B8ED74}"/>
+    <hyperlink ref="M48" r:id="rId198" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{14B99512-203B-4C4C-B8E8-F65839D92BC0}"/>
+    <hyperlink ref="C49" r:id="rId199" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{3502E10D-DACE-487D-AEF9-A2793BADFCDD}"/>
+    <hyperlink ref="E49" r:id="rId200" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9A49A8A8-CD14-4A73-B288-BED32565409F}"/>
+    <hyperlink ref="I49" r:id="rId201" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{1D7F0C4B-BDFE-404A-9086-4AF45580EC13}"/>
+    <hyperlink ref="M49" r:id="rId202" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{96FCFAF1-315E-4719-9FA5-F7F0ACA80D40}"/>
+    <hyperlink ref="C50" r:id="rId203" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{1CB057F0-EDB8-48A5-872F-62F63ACF090A}"/>
+    <hyperlink ref="E50" r:id="rId204" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{7803B5AD-199B-4018-97B6-62CF165BAAEF}"/>
+    <hyperlink ref="I50" r:id="rId205" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B5430753-4FD5-4C5D-8379-D21DF4C5C133}"/>
+    <hyperlink ref="M50" r:id="rId206" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{68FA2D27-9877-41E4-A9A9-96B0AE3A127E}"/>
+    <hyperlink ref="C51" r:id="rId207" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{84449F8A-86D5-44C9-9433-07A4A660198D}"/>
+    <hyperlink ref="E51" r:id="rId208" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CC879279-2102-48F8-84A9-840E0063117C}"/>
+    <hyperlink ref="I51" r:id="rId209" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{152922E0-C97B-4E23-8901-DA29B6C413D9}"/>
+    <hyperlink ref="M51" r:id="rId210" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{D2D70166-C1C1-4D55-AAEA-A977159BC8CC}"/>
+    <hyperlink ref="C52" r:id="rId211" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{2577CC72-0E9D-4E14-8145-32A39F4C71EE}"/>
+    <hyperlink ref="E52" r:id="rId212" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{56F50178-9B4E-4ABE-B3F8-412818F7B4D4}"/>
+    <hyperlink ref="I52" r:id="rId213" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9DC2BEEF-908C-43E4-9BD3-C9123F36EDB3}"/>
+    <hyperlink ref="M52" r:id="rId214" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{D1ECFD1F-8357-487A-9013-D123DE47C4CF}"/>
+    <hyperlink ref="C53" r:id="rId215" display="https://fbref.com/en/matches/2021-09-18" xr:uid="{60EAA334-E152-46D5-8897-310F1D1AEBFE}"/>
+    <hyperlink ref="E53" r:id="rId216" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2CEEE7F7-616A-437E-9DE2-5FFEBF3E2E99}"/>
+    <hyperlink ref="I53" r:id="rId217" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{BBA26E13-BA71-4C95-B9E4-C63103EC2975}"/>
+    <hyperlink ref="M53" r:id="rId218" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{914569BC-23A4-422F-981D-E756DE65169B}"/>
+    <hyperlink ref="C54" r:id="rId219" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{E77E0DFD-9A42-4D86-B0AC-7CBBB6B549CE}"/>
+    <hyperlink ref="E54" r:id="rId220" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B9A7BA85-704E-4053-83F9-E45896C24BF3}"/>
+    <hyperlink ref="I54" r:id="rId221" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{C935E607-15F7-40D1-8AA8-A06F08D03E62}"/>
+    <hyperlink ref="M54" r:id="rId222" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{A543B176-22C7-401C-A35F-E9244474EEE4}"/>
+    <hyperlink ref="C55" r:id="rId223" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{F73DD7F8-9075-4694-A7A6-24760AE1FDCA}"/>
+    <hyperlink ref="E55" r:id="rId224" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{523C8833-4616-40E4-B2C6-0F9639B72F45}"/>
+    <hyperlink ref="I55" r:id="rId225" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{7DC08BDF-954E-48CC-926B-215874D5D6CE}"/>
+    <hyperlink ref="M55" r:id="rId226" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{E8065B62-DAC4-45EE-886B-690CD3A2492E}"/>
+    <hyperlink ref="C56" r:id="rId227" display="https://fbref.com/en/matches/2021-09-19" xr:uid="{2F94C3D0-261C-4BC5-BB83-E3C8D8EBBB48}"/>
+    <hyperlink ref="E56" r:id="rId228" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C37D5D17-25D4-498B-9AF0-6BF1EF7EE20C}"/>
+    <hyperlink ref="I56" r:id="rId229" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5F5D64ED-5DA5-4027-8CF6-72756FDD5E92}"/>
+    <hyperlink ref="M56" r:id="rId230" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{65F6D311-CCCB-4F6D-AF38-26C9811D81C3}"/>
+    <hyperlink ref="C58" r:id="rId231" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{01001E1D-DA66-414F-8CE5-3815920946FB}"/>
+    <hyperlink ref="E58" r:id="rId232" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{7C3A10D1-DCB9-4771-A421-1FD9E613267C}"/>
+    <hyperlink ref="I58" r:id="rId233" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{115B86F7-C367-4BFD-913F-8A04BA19A3F2}"/>
+    <hyperlink ref="M58" r:id="rId234" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{8A773BF0-6BA2-4B52-BEC0-281B1AB1DB65}"/>
+    <hyperlink ref="C59" r:id="rId235" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{8F32B4C3-4A46-403A-8EFB-3874D218500F}"/>
+    <hyperlink ref="E59" r:id="rId236" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{AC7AF132-CD6C-4D8B-86DC-C60583ADDAAD}"/>
+    <hyperlink ref="I59" r:id="rId237" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{E3A1C90A-66EC-49D4-A768-A69F7A760D54}"/>
+    <hyperlink ref="M59" r:id="rId238" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{AD880AF0-7EFD-4A2B-959F-BD4BF8DAB2B4}"/>
+    <hyperlink ref="C60" r:id="rId239" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{5E8EF7CC-783D-4CF4-90C9-4DA8682FC4C2}"/>
+    <hyperlink ref="E60" r:id="rId240" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{C9BC38F6-6564-4887-B64E-34BB53A7B095}"/>
+    <hyperlink ref="I60" r:id="rId241" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{25357960-86A3-47F7-BB02-838086762DA6}"/>
+    <hyperlink ref="M60" r:id="rId242" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{081BE607-7EA0-4084-9DB9-1C515B4CFE85}"/>
+    <hyperlink ref="C61" r:id="rId243" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{64FAA901-FCE8-42B2-9E44-36FCBC36E66B}"/>
+    <hyperlink ref="E61" r:id="rId244" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{2571FA39-D569-43DA-B315-CE4B98D2494C}"/>
+    <hyperlink ref="I61" r:id="rId245" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{F1187147-3BD9-42A3-BD53-B03FB1B1E4D4}"/>
+    <hyperlink ref="M61" r:id="rId246" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{2BBBD3A7-70F3-4C53-9537-F7A43F44D1E3}"/>
+    <hyperlink ref="C62" r:id="rId247" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{7EC75931-66E8-415A-8D4E-E5E62902B0F2}"/>
+    <hyperlink ref="E62" r:id="rId248" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{B53FD22A-051C-450C-B823-040A750C5882}"/>
+    <hyperlink ref="I62" r:id="rId249" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{A6CCC4B3-096D-427C-BC55-30591939EF22}"/>
+    <hyperlink ref="M62" r:id="rId250" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{29FD25FE-22A3-4E5F-951E-4D7CB2CE73C5}"/>
+    <hyperlink ref="C63" r:id="rId251" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{3A728EFD-E9D0-4311-9BB6-B0FEC33136B9}"/>
+    <hyperlink ref="E63" r:id="rId252" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{105C39D7-F753-4D41-9285-A175E486AAD2}"/>
+    <hyperlink ref="I63" r:id="rId253" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CAFD87FE-D2F7-444F-A5F0-0CC6C62BC8BE}"/>
+    <hyperlink ref="M63" r:id="rId254" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{CA5D3A2E-A5E9-44AE-BF30-7BEBBFD7D196}"/>
+    <hyperlink ref="C64" r:id="rId255" display="https://fbref.com/en/matches/2021-09-25" xr:uid="{D769B876-27EE-4B35-B8C6-C224AF28FCC4}"/>
+    <hyperlink ref="E64" r:id="rId256" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{13BA917C-5BC6-43D4-81A0-E54EB5732767}"/>
+    <hyperlink ref="I64" r:id="rId257" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{79F251E0-B40B-4925-9DCD-B3C8180E559C}"/>
+    <hyperlink ref="M64" r:id="rId258" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{7FF65686-9A46-4A7E-A487-D4DA063D21CA}"/>
+    <hyperlink ref="C65" r:id="rId259" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{E7879B3C-2E7D-4C59-9952-CAAB88A8A901}"/>
+    <hyperlink ref="E65" r:id="rId260" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{CC862095-C522-465E-962C-66AB7FFF923D}"/>
+    <hyperlink ref="I65" r:id="rId261" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{9578AE28-0F71-4E1D-85F2-06D1818C841A}"/>
+    <hyperlink ref="M65" r:id="rId262" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{83C4CD7C-970F-4084-9029-FE9A537BD127}"/>
+    <hyperlink ref="C66" r:id="rId263" display="https://fbref.com/en/matches/2021-09-26" xr:uid="{2AE46D67-BE3A-4698-B54D-4581FCBFEC34}"/>
+    <hyperlink ref="E66" r:id="rId264" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{5548078F-8904-4290-B5D1-A831F2748D47}"/>
+    <hyperlink ref="I66" r:id="rId265" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{A1542D42-862A-46D1-A9D6-80FCB609BAD6}"/>
+    <hyperlink ref="M66" r:id="rId266" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{21131B02-DEE5-4521-BC1B-62CB457980DB}"/>
+    <hyperlink ref="C67" r:id="rId267" display="https://fbref.com/en/matches/2021-09-27" xr:uid="{96CAF6CB-D405-4517-B50A-FA7749619744}"/>
+    <hyperlink ref="E67" r:id="rId268" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{78014F95-DC2E-434B-9165-3FFEB9EEA20E}"/>
+    <hyperlink ref="I67" r:id="rId269" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1E8E152F-1544-438C-B9C5-4A3B0D7A20A7}"/>
+    <hyperlink ref="M67" r:id="rId270" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{11FE7F86-D3FA-4412-B973-23ACFF568110}"/>
+    <hyperlink ref="C69" r:id="rId271" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{0464AFB2-D28F-4C43-96D5-732852AED057}"/>
+    <hyperlink ref="E69" r:id="rId272" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{51334F30-DF46-45D0-8F70-F009C06D65ED}"/>
+    <hyperlink ref="I69" r:id="rId273" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{1B716B5A-2E09-4789-8E16-1B8D634A08CD}"/>
+    <hyperlink ref="M69" r:id="rId274" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{D7CFEB2F-BA58-44C8-B213-19C8E9C9879E}"/>
+    <hyperlink ref="C70" r:id="rId275" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{ECE64F46-062F-4E0E-9A30-DCA69FD77203}"/>
+    <hyperlink ref="E70" r:id="rId276" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{D3FB0673-F9A9-4A42-972A-2B03E85F6070}"/>
+    <hyperlink ref="I70" r:id="rId277" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{EDA95C72-A330-4B16-A447-F783E14EC95D}"/>
+    <hyperlink ref="M70" r:id="rId278" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{55462680-2ED9-4381-A18E-61294EBBE1B8}"/>
+    <hyperlink ref="C71" r:id="rId279" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{CC288435-D5E2-4A8E-B2C5-E4FB263FB56B}"/>
+    <hyperlink ref="E71" r:id="rId280" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{308687F0-65B8-4F47-B37B-B2AE477EA321}"/>
+    <hyperlink ref="I71" r:id="rId281" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{B3E7BF38-9559-417F-A40E-ECD38E66A26E}"/>
+    <hyperlink ref="M71" r:id="rId282" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{5A02BD8F-8A7A-4A57-A167-D78D11EA9220}"/>
+    <hyperlink ref="C72" r:id="rId283" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{6523805D-DDED-4A81-A66F-E45A3FB85395}"/>
+    <hyperlink ref="E72" r:id="rId284" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A6EFBE56-FFC8-442B-9413-8C5EC8E50CCD}"/>
+    <hyperlink ref="I72" r:id="rId285" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{7C84BE7A-F0BE-4343-B3F1-8015FCF7CAB0}"/>
+    <hyperlink ref="M72" r:id="rId286" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{8FD85E04-2F1A-444A-80D1-C5825B865737}"/>
+    <hyperlink ref="C73" r:id="rId287" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{815B6D81-981C-4AF5-9E67-0213C2FC3EF3}"/>
+    <hyperlink ref="E73" r:id="rId288" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{C60DA2EF-7DB3-4A50-89CA-69CDEA9C1C3C}"/>
+    <hyperlink ref="I73" r:id="rId289" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{66B9CA10-EB3A-4A0E-A7A0-0A0CA518BEA2}"/>
+    <hyperlink ref="M73" r:id="rId290" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{65FFF45D-4AF7-4615-9B35-5AE75A4D3603}"/>
+    <hyperlink ref="C74" r:id="rId291" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{61A69B25-1E88-4836-B948-5A62A2CEA0AE}"/>
+    <hyperlink ref="E74" r:id="rId292" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{BF8BFF1B-8901-46AB-84D6-EA9A1B497CC7}"/>
+    <hyperlink ref="I74" r:id="rId293" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{0EC47E2C-08BE-4904-BC21-91479029B5FC}"/>
+    <hyperlink ref="M74" r:id="rId294" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{F722AC0D-19D5-4523-A594-17CBB3F41C0C}"/>
+    <hyperlink ref="C75" r:id="rId295" display="https://fbref.com/en/matches/2021-10-02" xr:uid="{98BDB4CB-04B4-4958-83A4-22D9D1817E7A}"/>
+    <hyperlink ref="E75" r:id="rId296" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{3A15DDF6-A7C4-4A00-9403-6019402C2C19}"/>
+    <hyperlink ref="I75" r:id="rId297" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{F696E2CD-E13E-45F3-BAD0-382B41155C5B}"/>
+    <hyperlink ref="M75" r:id="rId298" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{90AC4F42-E695-4676-AF6B-AEEEEFE2C493}"/>
+    <hyperlink ref="C76" r:id="rId299" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{723F406F-D730-4C5D-8DB6-6AA352AC7802}"/>
+    <hyperlink ref="E76" r:id="rId300" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{63A097D8-E6F9-41DA-9FA7-49FF0B1D8B25}"/>
+    <hyperlink ref="I76" r:id="rId301" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{295F83D9-1868-4A59-AE3F-3064E161FEB3}"/>
+    <hyperlink ref="M76" r:id="rId302" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{71EAD0CA-9E1F-495B-84D1-7C3C60A14711}"/>
+    <hyperlink ref="C77" r:id="rId303" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{D1FDE240-C3C8-4EF8-A5B2-C63AD50F523A}"/>
+    <hyperlink ref="E77" r:id="rId304" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{88D5E779-2283-4924-829F-5CEF8715ABE1}"/>
+    <hyperlink ref="I77" r:id="rId305" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{6EB3C3BA-25A7-475B-8949-986B65AD6CBD}"/>
+    <hyperlink ref="M77" r:id="rId306" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{112416A6-01A8-40C7-B7F5-C3151D9F8DA5}"/>
+    <hyperlink ref="C78" r:id="rId307" display="https://fbref.com/en/matches/2021-10-03" xr:uid="{B6E08F85-C36A-4270-9CD6-0E652D49D6E3}"/>
+    <hyperlink ref="E78" r:id="rId308" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{080EDEFD-348E-4B77-95C6-D43A02309C6B}"/>
+    <hyperlink ref="I78" r:id="rId309" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{625FA2C3-7AB3-4EB6-AD77-CAF5D1CC781C}"/>
+    <hyperlink ref="M78" r:id="rId310" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{3302B8F0-50CF-43D7-80F2-7A14C20FE88F}"/>
+    <hyperlink ref="C80" r:id="rId311" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{F0C38579-F017-4F86-A227-B7021BFA8432}"/>
+    <hyperlink ref="E80" r:id="rId312" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{84282BA0-ADE1-4A57-9F18-5A335B0641DF}"/>
+    <hyperlink ref="I80" r:id="rId313" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{ED67538A-DEE0-4A26-BC0E-36D3D11B20D0}"/>
+    <hyperlink ref="M80" r:id="rId314" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{BEB1CF10-E063-4712-A2AD-58B64C6643D2}"/>
+    <hyperlink ref="C81" r:id="rId315" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{9F7326EA-FBE5-487B-B26F-FB3A28DE1223}"/>
+    <hyperlink ref="E81" r:id="rId316" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{737BD954-CE2E-444D-94AF-C8B6E2F5198F}"/>
+    <hyperlink ref="I81" r:id="rId317" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{0A2F1ECE-6135-47A4-B40B-9A5D555C634E}"/>
+    <hyperlink ref="M81" r:id="rId318" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{FEE056EE-3772-4170-AAD8-C98CE360D6EC}"/>
+    <hyperlink ref="C82" r:id="rId319" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{1B48A450-DAB8-4F7F-9DCB-A6572228C039}"/>
+    <hyperlink ref="E82" r:id="rId320" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2D3FE0DF-79C1-411B-80DA-85D84CBB96BF}"/>
+    <hyperlink ref="I82" r:id="rId321" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{7D8F9E2C-C1FB-4C0E-9D0A-2EED9AA02E93}"/>
+    <hyperlink ref="M82" r:id="rId322" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{79280BD6-ECD5-40AB-9448-17A0BEDDDD35}"/>
+    <hyperlink ref="C83" r:id="rId323" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{DB71B65E-189B-4E7B-99C1-F07DFA09DDAF}"/>
+    <hyperlink ref="E83" r:id="rId324" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{F40F47C9-ACF3-40FF-932D-9EB09E6E3F3A}"/>
+    <hyperlink ref="I83" r:id="rId325" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{D443EE9D-B802-4B70-A96C-FDE39B3597B7}"/>
+    <hyperlink ref="M83" r:id="rId326" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{49726A52-8D2C-4716-94DF-3BBEA36CA70C}"/>
+    <hyperlink ref="C84" r:id="rId327" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{FF537F45-9064-4727-A212-69BEB914313C}"/>
+    <hyperlink ref="E84" r:id="rId328" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{F2C7C9E4-FBD0-45E8-A777-0FA0A76F8D36}"/>
+    <hyperlink ref="I84" r:id="rId329" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2FC113FB-8776-496B-907F-59C77AC48CA1}"/>
+    <hyperlink ref="M84" r:id="rId330" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{62D627C3-17CF-43D1-BE5C-B5BA2EB75144}"/>
+    <hyperlink ref="C85" r:id="rId331" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{93773301-1D51-4492-B5C2-159AEA2E99D2}"/>
+    <hyperlink ref="E85" r:id="rId332" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A5574300-9775-4FD5-B398-CF5A6E363C5C}"/>
+    <hyperlink ref="I85" r:id="rId333" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{23183819-344B-4372-B58D-5342CE198737}"/>
+    <hyperlink ref="M85" r:id="rId334" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{5D79ADB8-C238-471D-B8E9-07C68452F71B}"/>
+    <hyperlink ref="C86" r:id="rId335" display="https://fbref.com/en/matches/2021-10-16" xr:uid="{DDFAAD31-9F83-424B-AA90-580F6472B6BE}"/>
+    <hyperlink ref="E86" r:id="rId336" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{F4AC3F84-B6D8-4FD4-9DFA-0CE7D362BCDE}"/>
+    <hyperlink ref="I86" r:id="rId337" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{93322805-3FF9-4BC0-92AD-06CCC40EA16B}"/>
+    <hyperlink ref="M86" r:id="rId338" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{4D0542A4-09B2-483E-9B4B-B32D1025AAA7}"/>
+    <hyperlink ref="C87" r:id="rId339" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{C903289B-9B58-433D-B1A5-D317D5EF2617}"/>
+    <hyperlink ref="E87" r:id="rId340" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5B0127C4-2C4A-4885-9BE9-825BF3AF2A49}"/>
+    <hyperlink ref="I87" r:id="rId341" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{0A04204A-379F-4CFB-AB58-E297EF8F888F}"/>
+    <hyperlink ref="M87" r:id="rId342" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{51726C58-E3BD-4567-8376-53E100CFBA45}"/>
+    <hyperlink ref="C88" r:id="rId343" display="https://fbref.com/en/matches/2021-10-17" xr:uid="{3B04FB79-F92D-44F2-82CB-440483CD8315}"/>
+    <hyperlink ref="E88" r:id="rId344" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FDDC6DD7-0816-4C41-8940-D63D7BE76C32}"/>
+    <hyperlink ref="I88" r:id="rId345" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{F5BDAFB5-9DB7-4639-BD8B-ACD0F7596F5F}"/>
+    <hyperlink ref="M88" r:id="rId346" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{9246937D-E868-413A-A541-872825B541FC}"/>
+    <hyperlink ref="C89" r:id="rId347" display="https://fbref.com/en/matches/2021-10-18" xr:uid="{8BCE4F9E-F4D3-4C7A-B766-7D48A026F6E6}"/>
+    <hyperlink ref="E89" r:id="rId348" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{32456E3B-BE2A-453B-9C14-D4035B692DFA}"/>
+    <hyperlink ref="I89" r:id="rId349" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{415532C3-1FC6-47FA-A308-D6ACD63B8A1D}"/>
+    <hyperlink ref="M89" r:id="rId350" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{53A3CBB5-7D9A-4A42-A3FD-DCCDF850BAE5}"/>
+    <hyperlink ref="C91" r:id="rId351" display="https://fbref.com/en/matches/2021-10-22" xr:uid="{284DF0B6-E5AA-41A8-8F03-9ED8D0E03979}"/>
+    <hyperlink ref="E91" r:id="rId352" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{8710541E-8AA9-41AE-BFDE-83815E3D6F56}"/>
+    <hyperlink ref="I91" r:id="rId353" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{092D21CA-BDEF-400C-86E3-6C921DF34B3C}"/>
+    <hyperlink ref="M91" r:id="rId354" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{1A8CF46D-FF7E-4E84-978C-0F709EA71A9A}"/>
+    <hyperlink ref="C92" r:id="rId355" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{9F1323B3-BAC5-4FB7-8052-EBE699DD3A02}"/>
+    <hyperlink ref="E92" r:id="rId356" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{DAD044F6-43F6-41A8-A2A8-B6EF9EA672AB}"/>
+    <hyperlink ref="I92" r:id="rId357" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{67BFBE6F-A65A-48AE-921A-0185895A38B8}"/>
+    <hyperlink ref="M92" r:id="rId358" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{F184F29D-AC45-4968-B2E3-25122D7474D7}"/>
+    <hyperlink ref="C93" r:id="rId359" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{00072A94-6837-468E-A853-F9C613B55129}"/>
+    <hyperlink ref="E93" r:id="rId360" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{DD1987B9-05E2-4EDE-AF0A-D542915876FF}"/>
+    <hyperlink ref="I93" r:id="rId361" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{BA0AC07C-EBE0-48AA-94FF-831ED447C1DE}"/>
+    <hyperlink ref="M93" r:id="rId362" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{941626BC-23A7-471B-B548-0914EE0E5683}"/>
+    <hyperlink ref="C94" r:id="rId363" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{CE62D7C9-51E2-4240-B399-A6E328E5F5C7}"/>
+    <hyperlink ref="E94" r:id="rId364" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{ACDD8029-4EDB-4246-8EA9-1FFE3E0B4DA8}"/>
+    <hyperlink ref="I94" r:id="rId365" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{910E7011-0D0B-4FF7-95D7-3F7681F56989}"/>
+    <hyperlink ref="M94" r:id="rId366" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{3691B152-C660-4848-B6DE-D27C2E07C50C}"/>
+    <hyperlink ref="C95" r:id="rId367" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{E513752A-80CD-4981-9793-8FE28D6EB1BA}"/>
+    <hyperlink ref="E95" r:id="rId368" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{91814CE6-691D-4899-A612-7DAFF1DD8A66}"/>
+    <hyperlink ref="I95" r:id="rId369" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DC9468DF-F28D-40A0-8A6A-6840EFB9F285}"/>
+    <hyperlink ref="M95" r:id="rId370" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{21C332E1-D07D-4FE6-80F5-237626CFFC3F}"/>
+    <hyperlink ref="C96" r:id="rId371" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{5E4A73F5-B5B2-4594-9FC6-F14EB4930905}"/>
+    <hyperlink ref="E96" r:id="rId372" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AD2A494E-B1C6-48B4-AF82-FFBE15078F5F}"/>
+    <hyperlink ref="I96" r:id="rId373" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{0C8775FD-785F-4F05-A68C-7FD378035619}"/>
+    <hyperlink ref="M96" r:id="rId374" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{6A1C5C9C-83A5-435A-A9F2-75A87EBFDE59}"/>
+    <hyperlink ref="C97" r:id="rId375" display="https://fbref.com/en/matches/2021-10-23" xr:uid="{DBA8648B-922C-4B5D-9DB9-A2A379A42EBA}"/>
+    <hyperlink ref="E97" r:id="rId376" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{874A9CBB-9E17-4102-BBFC-DE219941F346}"/>
+    <hyperlink ref="I97" r:id="rId377" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{BCDC00A1-D803-46BC-BCDD-7F9370C33E37}"/>
+    <hyperlink ref="M97" r:id="rId378" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{BEC8B454-025E-4FEA-84F5-43409A6EC1D3}"/>
+    <hyperlink ref="C98" r:id="rId379" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{6460F818-41F5-4201-9587-52AA4F373389}"/>
+    <hyperlink ref="E98" r:id="rId380" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{DD1DC671-2C44-4054-9502-E541132023E4}"/>
+    <hyperlink ref="I98" r:id="rId381" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{D46B59C1-018F-4439-9ADC-359C393342BB}"/>
+    <hyperlink ref="M98" r:id="rId382" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{59BD174A-C258-4045-BF4D-330AE8B7D410}"/>
+    <hyperlink ref="C99" r:id="rId383" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{3FC3220C-C1FB-4FDB-BDE8-40906A1AE403}"/>
+    <hyperlink ref="E99" r:id="rId384" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{91CB1F29-30B5-4DB0-952C-1D432C1971C8}"/>
+    <hyperlink ref="I99" r:id="rId385" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{CE6BE45D-F150-49F0-9FDD-B862F217B13C}"/>
+    <hyperlink ref="M99" r:id="rId386" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{9C4B5D9B-0AAB-43BF-95D1-90644EA0E153}"/>
+    <hyperlink ref="C100" r:id="rId387" display="https://fbref.com/en/matches/2021-10-24" xr:uid="{1E142C33-DF29-4444-A1FE-A9AA8492B60F}"/>
+    <hyperlink ref="E100" r:id="rId388" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{30C6A062-F706-4FAA-8A98-5E1012617782}"/>
+    <hyperlink ref="I100" r:id="rId389" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{A781B05B-4A50-4CFA-9376-B8DB2818D214}"/>
+    <hyperlink ref="M100" r:id="rId390" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{D8500A8B-B620-4173-AAFE-3AD858ECCDF7}"/>
+    <hyperlink ref="C102" r:id="rId391" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{662F952C-19FB-4086-B6E7-25D63B268B0F}"/>
+    <hyperlink ref="E102" r:id="rId392" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{DFAE856B-F642-4C73-B790-A0F3D89A54D5}"/>
+    <hyperlink ref="I102" r:id="rId393" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{A9C23187-BDD7-44F5-9585-D6CBDA67676D}"/>
+    <hyperlink ref="M102" r:id="rId394" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{8D3EDEB9-8871-4A55-B43A-98676EC5A747}"/>
+    <hyperlink ref="C103" r:id="rId395" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{AE1814B0-2F94-4B6B-A586-26285B315649}"/>
+    <hyperlink ref="E103" r:id="rId396" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{53D47B6C-C038-4C19-8F5C-6B68736B33BF}"/>
+    <hyperlink ref="I103" r:id="rId397" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D22924D1-4B36-4472-B480-89BADABFC9D6}"/>
+    <hyperlink ref="M103" r:id="rId398" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{839F3A66-8E40-4DB4-96F3-9F3641DDCE3E}"/>
+    <hyperlink ref="C104" r:id="rId399" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{863507EA-093E-4719-A7D1-D75FB48B3610}"/>
+    <hyperlink ref="E104" r:id="rId400" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{877B7383-31F0-4C79-9909-03A6F0273C3E}"/>
+    <hyperlink ref="I104" r:id="rId401" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{3D28410B-2C86-4B1A-80B6-141B97CC13E8}"/>
+    <hyperlink ref="M104" r:id="rId402" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{1F074404-2EF1-47F7-887C-5752B4FC48BB}"/>
+    <hyperlink ref="C105" r:id="rId403" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{3FF8B1EC-43B0-4681-ACD7-FB3C26F2C68A}"/>
+    <hyperlink ref="E105" r:id="rId404" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{355D67D0-BDA0-45BC-A3FB-EF3E5EB45237}"/>
+    <hyperlink ref="I105" r:id="rId405" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{247A1A0B-DB51-438B-ABAD-555BE89686E3}"/>
+    <hyperlink ref="M105" r:id="rId406" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{B85A9D7E-A5DD-4E06-BB26-CB15770718CC}"/>
+    <hyperlink ref="C106" r:id="rId407" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{A9CA4091-708D-4D50-8EAD-69C6A466C66B}"/>
+    <hyperlink ref="E106" r:id="rId408" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{772EA2D9-4095-4DBE-A4C2-1811971D2292}"/>
+    <hyperlink ref="I106" r:id="rId409" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{EFD5826D-91E5-4E0A-89FB-06BADC62CD88}"/>
+    <hyperlink ref="M106" r:id="rId410" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{E09C0FBB-5568-48A1-A41D-308F9E582283}"/>
+    <hyperlink ref="C107" r:id="rId411" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{8E269B1F-33F3-47AE-ACE4-A4B7347AD4C2}"/>
+    <hyperlink ref="E107" r:id="rId412" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{F38EF989-C761-4576-BBA6-E7EF35C6B86D}"/>
+    <hyperlink ref="I107" r:id="rId413" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E492CB98-B8FA-44B9-9A02-95F37713F871}"/>
+    <hyperlink ref="M107" r:id="rId414" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{FF6216CD-EAB8-428A-B27A-42AAD5F8FFBF}"/>
+    <hyperlink ref="C108" r:id="rId415" display="https://fbref.com/en/matches/2021-10-30" xr:uid="{2E223DBD-47A5-4582-9B65-8F9645DEA902}"/>
+    <hyperlink ref="E108" r:id="rId416" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{6E665754-F064-46C8-A43D-DF9AF242AEB3}"/>
+    <hyperlink ref="I108" r:id="rId417" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{62EA5D42-D718-4A87-86DA-16827051D921}"/>
+    <hyperlink ref="M108" r:id="rId418" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{4E86F132-A1E2-4567-8AF0-ED44523FDE55}"/>
+    <hyperlink ref="C109" r:id="rId419" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{A2B66754-C9A2-4C23-928B-8CDDBAEC8259}"/>
+    <hyperlink ref="E109" r:id="rId420" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CFD5276F-2EA9-427A-AD96-45508626AA65}"/>
+    <hyperlink ref="I109" r:id="rId421" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{DBE4528F-6683-4ABA-8A06-DD48A4D22817}"/>
+    <hyperlink ref="M109" r:id="rId422" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{2BF7E422-C37D-486A-952C-CACE080065B9}"/>
+    <hyperlink ref="C110" r:id="rId423" display="https://fbref.com/en/matches/2021-10-31" xr:uid="{A9B13CCC-8441-4D7A-BBE5-57C480A3173C}"/>
+    <hyperlink ref="E110" r:id="rId424" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B3A6AE47-B5AD-4E39-94CD-8CECD199F2FE}"/>
+    <hyperlink ref="I110" r:id="rId425" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{871B307D-4CB2-462A-9C55-6ADA669E2238}"/>
+    <hyperlink ref="M110" r:id="rId426" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{397F9344-E30B-4191-ACA2-0BEC72B8C953}"/>
+    <hyperlink ref="C111" r:id="rId427" display="https://fbref.com/en/matches/2021-11-01" xr:uid="{72AF0937-3AB4-4808-9EF5-D9861B8AF031}"/>
+    <hyperlink ref="E111" r:id="rId428" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C94CFDCE-D356-44D2-93C4-2F3A845EB77C}"/>
+    <hyperlink ref="I111" r:id="rId429" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{006A9E8D-EB2D-4718-BE3F-5FF8D9E40180}"/>
+    <hyperlink ref="M111" r:id="rId430" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{6C0068B1-B0CF-4AE8-96A5-EC99F733FEB8}"/>
+    <hyperlink ref="C113" r:id="rId431" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{DB0552A3-EC5D-486A-ADAF-DE904E575916}"/>
+    <hyperlink ref="E113" r:id="rId432" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{042A13DD-49B2-472F-AF99-DAD06F7EC504}"/>
+    <hyperlink ref="I113" r:id="rId433" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D02F65F9-4CF9-442F-9767-FF690230A775}"/>
+    <hyperlink ref="M113" r:id="rId434" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{F8723277-141B-4ED5-96FA-673E0A5F4710}"/>
+    <hyperlink ref="C114" r:id="rId435" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{B75808A3-2592-4785-B9AC-E2F45F4BE87C}"/>
+    <hyperlink ref="E114" r:id="rId436" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{666135F5-08CF-44E8-BA53-7041A0E45A26}"/>
+    <hyperlink ref="I114" r:id="rId437" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{9E64D356-E7A1-4905-9D94-F3637A830CCE}"/>
+    <hyperlink ref="M114" r:id="rId438" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{1B9AFBC2-EBCB-4959-A478-1F25BE03DA9C}"/>
+    <hyperlink ref="C115" r:id="rId439" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{7900633C-6DC0-49F4-B842-3E6933AFDAE6}"/>
+    <hyperlink ref="E115" r:id="rId440" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6A928E5B-7A10-4CE7-87A0-C1E28B181885}"/>
+    <hyperlink ref="I115" r:id="rId441" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{DCEC92B7-D944-48D3-B86E-D66247A11460}"/>
+    <hyperlink ref="M115" r:id="rId442" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{564E2C69-1E36-4545-B88B-3335C6ECE780}"/>
+    <hyperlink ref="C116" r:id="rId443" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{B6AD7890-C7F2-47E6-9AE8-860EAE9FE7D7}"/>
+    <hyperlink ref="E116" r:id="rId444" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2F122BF9-0886-49DB-87B5-91BAEBCF6941}"/>
+    <hyperlink ref="I116" r:id="rId445" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{739C4432-F4C0-4731-8A04-4952F2A8A3D3}"/>
+    <hyperlink ref="M116" r:id="rId446" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{1C39D303-F3A6-4BFE-AA15-A50AFE41EB68}"/>
+    <hyperlink ref="C117" r:id="rId447" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{729C0069-81BF-4362-9914-18CD91461662}"/>
+    <hyperlink ref="E117" r:id="rId448" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C49671EE-0FE4-4410-A1E2-A00C56910B18}"/>
+    <hyperlink ref="I117" r:id="rId449" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{AE2BF282-622E-4F41-9AFC-E9C3DEA7EDD5}"/>
+    <hyperlink ref="M117" r:id="rId450" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{CA04D4B4-0D80-4BF0-8036-2EB9027E217F}"/>
+    <hyperlink ref="C118" r:id="rId451" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{0A1EB1C6-A78D-49B2-ABBD-561983519267}"/>
+    <hyperlink ref="E118" r:id="rId452" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{7BD3020D-B732-4BA3-8BFD-CF09452F7AF6}"/>
+    <hyperlink ref="I118" r:id="rId453" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7B6380BD-23A2-4F42-A3E0-719D17626023}"/>
+    <hyperlink ref="M118" r:id="rId454" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{C2DBB30D-DA03-4271-9054-240CF0078D80}"/>
+    <hyperlink ref="C119" r:id="rId455" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{AB2EB647-8BE7-4EBC-9328-566FE7852167}"/>
+    <hyperlink ref="E119" r:id="rId456" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9B805D4F-CA0C-4683-98DC-F9612E4A28EA}"/>
+    <hyperlink ref="I119" r:id="rId457" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0E281AD1-60AB-44B5-9289-5FA75EFD290C}"/>
+    <hyperlink ref="M119" r:id="rId458" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{AB590BB8-8E3C-4E47-BC5A-32C526EBFAEC}"/>
+    <hyperlink ref="C120" r:id="rId459" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{4ABD39D7-45DD-45ED-BE3D-1A300420A7DB}"/>
+    <hyperlink ref="E120" r:id="rId460" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{8CDA137A-8AA4-4191-BF0A-0A00269A00E4}"/>
+    <hyperlink ref="I120" r:id="rId461" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{674B8FEC-CAA4-4F94-97B8-1C9CE32D183C}"/>
+    <hyperlink ref="M120" r:id="rId462" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{ADBFD75F-0D90-4EED-8025-025B08358C96}"/>
+    <hyperlink ref="C121" r:id="rId463" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{F159E0D9-9CF9-470D-ACEE-6AC783DE1DD4}"/>
+    <hyperlink ref="E121" r:id="rId464" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{C10337D6-365B-414F-BC4A-859636AE04BA}"/>
+    <hyperlink ref="I121" r:id="rId465" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{1E2AB770-E81F-49E2-BF9C-DFC36F15874E}"/>
+    <hyperlink ref="M121" r:id="rId466" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{55ACE1D0-AD09-4BF8-AED3-DF47CFDC2085}"/>
+    <hyperlink ref="C122" r:id="rId467" display="https://fbref.com/en/matches/2021-11-06" xr:uid="{F59542F4-755B-4B6B-8E9C-5FF86A9231EE}"/>
+    <hyperlink ref="E122" r:id="rId468" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6BE62FCF-B1B6-40D1-BCE9-7EB24DCBC357}"/>
+    <hyperlink ref="I122" r:id="rId469" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{A5354DED-DFB2-42BD-8832-239CE14E911B}"/>
+    <hyperlink ref="M122" r:id="rId470" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{1114E5A5-0A90-4F01-A6AE-3FB36286F8D5}"/>
+    <hyperlink ref="C124" r:id="rId471" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{6745E941-3117-4320-A22E-2F80DE72BA1A}"/>
+    <hyperlink ref="E124" r:id="rId472" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{F081E772-B0C3-4EBC-A0C3-029F0A1A6BB1}"/>
+    <hyperlink ref="I124" r:id="rId473" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{0BD6EFD0-00BD-46A2-A115-47FEEC4DBF2B}"/>
+    <hyperlink ref="M124" r:id="rId474" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{431DF59F-5994-4092-B2C5-364D1126CCAA}"/>
+    <hyperlink ref="C125" r:id="rId475" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{51AD23BB-62EB-4EF4-AEA2-84DC626C97FC}"/>
+    <hyperlink ref="E125" r:id="rId476" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{C71847A6-1F63-4BA4-AC56-51AEDBD6842E}"/>
+    <hyperlink ref="I125" r:id="rId477" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{689D2E41-A038-49D6-A1E7-0A79294FBF17}"/>
+    <hyperlink ref="M125" r:id="rId478" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{31C771D2-67DE-4754-AAEB-E457415304C6}"/>
+    <hyperlink ref="C126" r:id="rId479" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{FF0EBA34-43B1-45EF-B0F2-5FCA0B1CDDE8}"/>
+    <hyperlink ref="E126" r:id="rId480" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{726ADFDA-54A8-49F8-9510-76ED83847700}"/>
+    <hyperlink ref="I126" r:id="rId481" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{99975BA5-656A-426B-B94A-DF24F55EBDF8}"/>
+    <hyperlink ref="M126" r:id="rId482" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{DBF40F17-129F-4B20-86E0-F4425CE97934}"/>
+    <hyperlink ref="C127" r:id="rId483" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{67BB2595-4ACE-4112-B7C4-911D7B495961}"/>
+    <hyperlink ref="E127" r:id="rId484" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{6BC2886A-FB8C-4CA3-90FF-4CE4826E5D2E}"/>
+    <hyperlink ref="I127" r:id="rId485" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{B2F4CAB2-9AB9-4C6E-A4AC-792A6F116ABE}"/>
+    <hyperlink ref="M127" r:id="rId486" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{EB7DE0E1-C25B-4FAE-9CA5-F421CBD62C2D}"/>
+    <hyperlink ref="C128" r:id="rId487" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{A8E34E00-C597-4D4E-BD4B-B8386E154830}"/>
+    <hyperlink ref="E128" r:id="rId488" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{01A725ED-F4A1-4593-9AF4-ED8F35B9F0DB}"/>
+    <hyperlink ref="I128" r:id="rId489" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{A5F9F7AC-9280-498E-867C-4B0E02B9CE43}"/>
+    <hyperlink ref="M128" r:id="rId490" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{3C3E01B1-5AC0-40DA-8267-89B62BCFB69B}"/>
+    <hyperlink ref="C129" r:id="rId491" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{5B4C12A3-3C1E-422B-8C19-640530D23227}"/>
+    <hyperlink ref="E129" r:id="rId492" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{3900B4E3-1A57-4CE5-A642-D15129B1E899}"/>
+    <hyperlink ref="I129" r:id="rId493" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{9C8EA24A-1636-4CA8-858E-D777C532B859}"/>
+    <hyperlink ref="M129" r:id="rId494" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{03906A21-7D1E-4ED7-944E-B730094ADFDE}"/>
+    <hyperlink ref="C130" r:id="rId495" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{47768313-B46E-4CD3-8403-D9257B1CE8AA}"/>
+    <hyperlink ref="E130" r:id="rId496" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{06B915A7-BBEC-43A5-8567-C5F3BF389D93}"/>
+    <hyperlink ref="I130" r:id="rId497" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{AEEF3B11-8ABF-419B-8723-74C975E0B1B6}"/>
+    <hyperlink ref="M130" r:id="rId498" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{FFFF84A1-42E3-4931-BCF6-43FD40E87387}"/>
+    <hyperlink ref="C131" r:id="rId499" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{045EB1D5-86DF-4949-BD30-3150ECDE9BCD}"/>
+    <hyperlink ref="E131" r:id="rId500" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{BBE27FE8-C178-4AC4-97A8-3A6F0A0839E8}"/>
+    <hyperlink ref="I131" r:id="rId501" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{7752535F-2415-4D0D-BE64-A6F094BA40B9}"/>
+    <hyperlink ref="M131" r:id="rId502" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{9F70A7D6-F8EC-40D1-8792-EE6577455DC5}"/>
+    <hyperlink ref="C132" r:id="rId503" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{33B8EB95-FCF8-456A-8E1C-55596C06973C}"/>
+    <hyperlink ref="E132" r:id="rId504" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{EB39194F-88B9-4065-9C7E-1346725B01E3}"/>
+    <hyperlink ref="I132" r:id="rId505" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{74A8A9DC-C1A2-4F22-8328-29808AEC1255}"/>
+    <hyperlink ref="M132" r:id="rId506" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{3546355A-32B7-4D4B-B5F3-23E8AC3184CF}"/>
+    <hyperlink ref="C133" r:id="rId507" display="https://fbref.com/en/matches/2021-11-20" xr:uid="{5D127622-38C5-4DA3-90DF-7B5AE30A7DE6}"/>
+    <hyperlink ref="E133" r:id="rId508" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{2A849499-A7F8-478B-9B45-6D37A3BEBEF9}"/>
+    <hyperlink ref="I133" r:id="rId509" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{58044BC7-8251-4CEB-81B5-D0390D07BF07}"/>
+    <hyperlink ref="M133" r:id="rId510" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{039271FD-E83B-4141-B49F-CC5DEB94AAAB}"/>
+    <hyperlink ref="C135" r:id="rId511" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{807C05D7-E8F8-47CE-AA24-D19E7FFBD359}"/>
+    <hyperlink ref="E135" r:id="rId512" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{04128FFB-3253-4946-A40E-C27FFC774B96}"/>
+    <hyperlink ref="I135" r:id="rId513" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8AA7D691-8BB1-4728-B680-5A34C666FC76}"/>
+    <hyperlink ref="M135" r:id="rId514" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{FCB08417-CF58-45A6-8648-662B608D9AFC}"/>
+    <hyperlink ref="C136" r:id="rId515" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{A964B765-D618-4400-80C0-2CDAC222F43F}"/>
+    <hyperlink ref="E136" r:id="rId516" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{BA5895D3-458C-4FAF-A770-B2EB12D41569}"/>
+    <hyperlink ref="I136" r:id="rId517" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{7A644F62-83E0-4872-8CC4-561AF56974CE}"/>
+    <hyperlink ref="M136" r:id="rId518" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{E8575133-670B-455F-9D3D-9F7636B76AA7}"/>
+    <hyperlink ref="C137" r:id="rId519" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{D6586B51-F162-4462-85BE-305FBDFB68F1}"/>
+    <hyperlink ref="E137" r:id="rId520" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{F9761F69-999B-4E3B-919F-56CBE1AFD9AF}"/>
+    <hyperlink ref="I137" r:id="rId521" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{BB913372-778B-4048-BF94-408DDC7E1ABC}"/>
+    <hyperlink ref="M137" r:id="rId522" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{64367E68-7BF1-45A7-BB3C-3AEE3B37232B}"/>
+    <hyperlink ref="C138" r:id="rId523" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{3156BA28-7C10-4C56-A078-537CAF2F3848}"/>
+    <hyperlink ref="E138" r:id="rId524" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{89281181-00D0-4521-B181-1EF76222450E}"/>
+    <hyperlink ref="I138" r:id="rId525" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{5A661163-9A32-46D9-924A-EDC9A373D6FF}"/>
+    <hyperlink ref="M138" r:id="rId526" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{FD0D5B74-2488-406A-9E3D-95A42E588862}"/>
+    <hyperlink ref="C139" r:id="rId527" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{8659B51F-C796-44C6-9DEF-DAD5B2BEA0B3}"/>
+    <hyperlink ref="E139" r:id="rId528" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C935AAE7-30E4-472D-9261-46DCF4358754}"/>
+    <hyperlink ref="I139" r:id="rId529" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{58D2E868-99EF-4913-8020-600B17D538E4}"/>
+    <hyperlink ref="M139" r:id="rId530" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{D40AB2FD-3D2C-448C-9C71-D7735E23A148}"/>
+    <hyperlink ref="C140" r:id="rId531" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{269F1D4E-7F6F-458A-9C1B-7818CD044680}"/>
+    <hyperlink ref="E140" r:id="rId532" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{0772EB96-41E9-4170-849E-B4F0C3E05B9C}"/>
+    <hyperlink ref="I140" r:id="rId533" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{DFF5E7B6-1056-4086-95F9-42749BAC7336}"/>
+    <hyperlink ref="M140" r:id="rId534" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{DB388420-BD8B-4B02-AC53-0A1C223DC7C8}"/>
+    <hyperlink ref="C141" r:id="rId535" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{7F1B2B66-6AB5-4BAA-98AC-C38B953340CA}"/>
+    <hyperlink ref="E141" r:id="rId536" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{30175250-CF14-4CE3-9F26-3EE8937FD717}"/>
+    <hyperlink ref="I141" r:id="rId537" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{B662A344-E5E8-42D7-A65D-6176563AD48D}"/>
+    <hyperlink ref="M141" r:id="rId538" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{061F06BD-30B7-444A-A2CD-DB879F9188E1}"/>
+    <hyperlink ref="C142" r:id="rId539" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{A8BB7FA0-7AE9-49A3-B09B-428ADC14F1A4}"/>
+    <hyperlink ref="E142" r:id="rId540" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{93908152-44F4-477B-AEBE-333553D5AD94}"/>
+    <hyperlink ref="I142" r:id="rId541" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{8E6F32FF-DDD1-4DA4-8586-30BB375ECE5E}"/>
+    <hyperlink ref="M142" r:id="rId542" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{3020C866-377C-4F0C-994A-0C136FCCF6F9}"/>
+    <hyperlink ref="C143" r:id="rId543" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{E6AE5659-6439-4D47-BD5F-8F0FFACD07DF}"/>
+    <hyperlink ref="E143" r:id="rId544" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5F9DB6E1-EA8D-4766-A1DD-2FE12D01E145}"/>
+    <hyperlink ref="I143" r:id="rId545" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{3B6B8E97-26A6-4FB2-B1D9-68BC271746B8}"/>
+    <hyperlink ref="M143" r:id="rId546" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{70A21E75-42C1-4A3F-B153-E8AFD1F6CB90}"/>
+    <hyperlink ref="C144" r:id="rId547" display="https://fbref.com/en/matches/2021-11-27" xr:uid="{FB9404EF-F845-4D44-B1FB-7750F4E65D73}"/>
+    <hyperlink ref="E144" r:id="rId548" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{DD09CBAE-C42C-4E2E-9FA2-9FE6C63A0358}"/>
+    <hyperlink ref="I144" r:id="rId549" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{00380CEC-039F-4C77-8A33-2E6FAC330883}"/>
+    <hyperlink ref="M144" r:id="rId550" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{9E6258B8-898E-428C-81FD-1618DCABD060}"/>
+    <hyperlink ref="C146" r:id="rId551" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{8F2BE733-2A82-422A-AA93-E70D21D84C7C}"/>
+    <hyperlink ref="E146" r:id="rId552" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{2EF7E5D3-C53B-49F8-8F21-DA3A684E6434}"/>
+    <hyperlink ref="I146" r:id="rId553" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2FB39C4C-F0D6-44F9-A5DE-3A50B8C170E3}"/>
+    <hyperlink ref="M146" r:id="rId554" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{294D0DF9-6B2E-4E66-A594-4AC828885FEF}"/>
+    <hyperlink ref="C147" r:id="rId555" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{38A15CF9-B75F-4EAF-BA01-13BCD544EB09}"/>
+    <hyperlink ref="E147" r:id="rId556" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F12A4A8A-1637-4D81-8CE0-941B2C1C3814}"/>
+    <hyperlink ref="I147" r:id="rId557" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{FDFF84C9-ED01-422E-9CCC-C41044702E39}"/>
+    <hyperlink ref="M147" r:id="rId558" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{0890A328-5E86-4459-AC6A-112C4F88271F}"/>
+    <hyperlink ref="C148" r:id="rId559" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{75E4BF97-258B-4A26-9806-680574EB3C31}"/>
+    <hyperlink ref="E148" r:id="rId560" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{18E812BF-2C8E-47E7-BE6C-E5473B645ED6}"/>
+    <hyperlink ref="I148" r:id="rId561" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{B8FDD0B8-7605-47BC-BDC6-33A44A36055B}"/>
+    <hyperlink ref="M148" r:id="rId562" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{556E329A-95B3-4606-8F70-851F60B1D50D}"/>
+    <hyperlink ref="C149" r:id="rId563" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{87BC1B58-DEB5-4E0F-8EFA-4E9EDAED230A}"/>
+    <hyperlink ref="E149" r:id="rId564" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B22ADD47-B834-4584-850E-ECEDEDA4CADF}"/>
+    <hyperlink ref="I149" r:id="rId565" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E464088E-4522-47E1-96EC-947BBBEBA35F}"/>
+    <hyperlink ref="M149" r:id="rId566" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{6D81AD9E-FE2D-451C-9607-5AD5C27A6D0D}"/>
+    <hyperlink ref="C150" r:id="rId567" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{7048907C-0835-4101-BB0E-2507941DE0F8}"/>
+    <hyperlink ref="E150" r:id="rId568" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{D8856C75-D4DF-4779-A7F7-116625AF9ABD}"/>
+    <hyperlink ref="I150" r:id="rId569" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{3125AA91-AA97-4C02-9850-A9039819C191}"/>
+    <hyperlink ref="M150" r:id="rId570" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{CF5313EB-3B60-4024-8758-84F4D1A3D8D1}"/>
+    <hyperlink ref="C151" r:id="rId571" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{1C8D5708-E9A4-4F5A-BD49-74A5E9AC7BCF}"/>
+    <hyperlink ref="E151" r:id="rId572" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5B85EA55-3678-4435-A1BF-1C505F4A1B12}"/>
+    <hyperlink ref="I151" r:id="rId573" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{416532E5-BC70-473E-953C-689A32D39FC6}"/>
+    <hyperlink ref="M151" r:id="rId574" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{9C2BF99F-6048-4649-AFF1-9C84B9AF0168}"/>
+    <hyperlink ref="C152" r:id="rId575" display="https://fbref.com/en/matches/2021-11-30" xr:uid="{924650FE-384C-4FB1-9DBF-B342208782FE}"/>
+    <hyperlink ref="E152" r:id="rId576" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{96F28599-2D34-49E2-A19F-B0A16589FCD1}"/>
+    <hyperlink ref="I152" r:id="rId577" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{F3A4E146-2769-4CCF-99E6-DD5F0AE2BEAE}"/>
+    <hyperlink ref="M152" r:id="rId578" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{8F635A73-2BC1-4129-A64F-21E5937E303D}"/>
+    <hyperlink ref="C153" r:id="rId579" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{6DB96499-F157-4922-B824-84BD3A2B991B}"/>
+    <hyperlink ref="E153" r:id="rId580" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{1832956D-5C1C-49A3-A0F7-4E3409683AA9}"/>
+    <hyperlink ref="I153" r:id="rId581" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{DC9DAF98-A371-4EE6-A791-704A80A7F282}"/>
+    <hyperlink ref="M153" r:id="rId582" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{73C8CE13-109A-4F48-B220-AE2D3F87E7EA}"/>
+    <hyperlink ref="C154" r:id="rId583" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{5D8E4753-8228-477F-A329-DB682119B9B3}"/>
+    <hyperlink ref="E154" r:id="rId584" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{0F4430CB-857A-4D3E-9BC6-7E97CA30F1E7}"/>
+    <hyperlink ref="I154" r:id="rId585" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{53D067FC-4208-4836-B5CF-D9179EBEDD63}"/>
+    <hyperlink ref="M154" r:id="rId586" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{6135D7CD-7437-4C85-9D82-6C32A6242A0C}"/>
+    <hyperlink ref="C155" r:id="rId587" display="https://fbref.com/en/matches/2021-12-01" xr:uid="{D469CBB1-ED71-4730-BB16-BFC8A0BF5FC2}"/>
+    <hyperlink ref="E155" r:id="rId588" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{F9A180BF-50B6-4870-AC62-AD3784DAF770}"/>
+    <hyperlink ref="I155" r:id="rId589" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{8378D81C-828E-472B-98CD-2DC64A9EFC32}"/>
+    <hyperlink ref="M155" r:id="rId590" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{B858738A-8981-43E2-97D6-7C13BAF8998E}"/>
+    <hyperlink ref="C157" r:id="rId591" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{A68C2104-4FDF-4097-ACE3-C201A6D883F2}"/>
+    <hyperlink ref="E157" r:id="rId592" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{0F082820-3C16-452B-9F7D-F441C1FF329C}"/>
+    <hyperlink ref="I157" r:id="rId593" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{16AF3094-8A0F-4F88-9A23-A4F1FA2EC05C}"/>
+    <hyperlink ref="M157" r:id="rId594" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{CBE4B49F-CFE1-4D19-B08A-9864D97FB4BD}"/>
+    <hyperlink ref="C158" r:id="rId595" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{DB4DAE4C-79E4-4A88-A17F-01FA5934DDDE}"/>
+    <hyperlink ref="E158" r:id="rId596" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{ACC48713-6DB6-470F-979C-9462780952FA}"/>
+    <hyperlink ref="I158" r:id="rId597" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{AA58620C-284B-4F83-B575-ACBE141B5965}"/>
+    <hyperlink ref="M158" r:id="rId598" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{41A0BC3B-4915-4FA0-8822-8476F43C9C8E}"/>
+    <hyperlink ref="C159" r:id="rId599" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{46157139-964B-4153-B9FF-0E3E85FDFD32}"/>
+    <hyperlink ref="E159" r:id="rId600" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{DA5D1142-60B7-4C34-A3C9-4A1232520CC2}"/>
+    <hyperlink ref="I159" r:id="rId601" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{649C681C-A6B8-4AC8-B186-0AE8D15A353F}"/>
+    <hyperlink ref="M159" r:id="rId602" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{4913E5E7-FA3B-4B22-9BCF-998B454B1B69}"/>
+    <hyperlink ref="C160" r:id="rId603" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{97BF3449-EFD5-401D-B5B2-41901C65A089}"/>
+    <hyperlink ref="E160" r:id="rId604" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{71FD14BF-8C63-4A24-BDAE-94091237990B}"/>
+    <hyperlink ref="I160" r:id="rId605" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{EC4A4566-48E3-4714-8145-337802F9ACCA}"/>
+    <hyperlink ref="M160" r:id="rId606" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{F8B4FD17-ABD3-4AE5-8987-E3912B2EFDF9}"/>
+    <hyperlink ref="C161" r:id="rId607" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{4FE2506F-0BDA-4436-A131-D398B86E9D70}"/>
+    <hyperlink ref="E161" r:id="rId608" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{0A378A8C-EDD4-441F-BD14-CF6CBC013AC3}"/>
+    <hyperlink ref="I161" r:id="rId609" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{4DA803A0-4951-4E76-818A-B3719A605A7A}"/>
+    <hyperlink ref="M161" r:id="rId610" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{06B2C4DE-FF8F-4BFC-BE10-D492CE8AC08A}"/>
+    <hyperlink ref="C162" r:id="rId611" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{5374324A-6C8B-493A-BC64-5BFAD99F58AA}"/>
+    <hyperlink ref="E162" r:id="rId612" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{187A2DC6-9F40-4E9C-A6A1-DE1E0544A7AC}"/>
+    <hyperlink ref="I162" r:id="rId613" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E72447B3-86F7-4715-96EB-36CFC53BC6A7}"/>
+    <hyperlink ref="M162" r:id="rId614" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{E41E2E0A-2A5C-45BB-9483-67C92DCEFB56}"/>
+    <hyperlink ref="C163" r:id="rId615" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{68BE1A14-1ABA-4CFC-8E2A-77CFD9F7F550}"/>
+    <hyperlink ref="E163" r:id="rId616" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{374BC79E-320E-4D7B-8B70-034E3677F89D}"/>
+    <hyperlink ref="I163" r:id="rId617" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{3F604510-7E41-40E1-8FB8-A889F49AB671}"/>
+    <hyperlink ref="M163" r:id="rId618" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{4F8B9F9B-46B3-452B-9391-ABA7FECADF7C}"/>
+    <hyperlink ref="C164" r:id="rId619" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{9CEF5A04-BAA5-4EE7-B31A-6FEAA45D0EA0}"/>
+    <hyperlink ref="E164" r:id="rId620" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{CDA78011-925E-4452-965D-BD5FB53C268B}"/>
+    <hyperlink ref="I164" r:id="rId621" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D3FA1287-3E61-4A39-8A59-CF72230197FC}"/>
+    <hyperlink ref="M164" r:id="rId622" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{F365165F-5F0B-4ED5-B12B-C6771C801C07}"/>
+    <hyperlink ref="C165" r:id="rId623" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{A7D549AD-286D-43A7-B03E-961AC66D3F73}"/>
+    <hyperlink ref="E165" r:id="rId624" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B17D6AE5-C728-42A8-AE2B-2FC9FE2F7B37}"/>
+    <hyperlink ref="I165" r:id="rId625" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{71128B1E-6835-40AF-914C-A0D7CF236FBE}"/>
+    <hyperlink ref="M165" r:id="rId626" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{130E6586-9687-4B5F-9206-E3880F4EB53A}"/>
+    <hyperlink ref="C166" r:id="rId627" display="https://fbref.com/en/matches/2021-12-04" xr:uid="{5199D634-CB1C-4DF2-8406-12988CF1743B}"/>
+    <hyperlink ref="E166" r:id="rId628" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C2704930-21AD-4813-AC81-1602FAFD8801}"/>
+    <hyperlink ref="I166" r:id="rId629" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{1CD4D5BC-FC79-41DE-823C-C7FFC16883B1}"/>
+    <hyperlink ref="M166" r:id="rId630" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{5F5D4FB6-4319-40F7-89E5-5C01676D7D0A}"/>
+    <hyperlink ref="C168" r:id="rId631" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{53D1CA6B-4CC1-400F-A216-D8C89D6E51CC}"/>
+    <hyperlink ref="E168" r:id="rId632" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5159EDCE-BB43-4D1D-A57A-EB9074F11F39}"/>
+    <hyperlink ref="I168" r:id="rId633" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{E5B5005D-7078-4113-94A8-DEBC5857B05B}"/>
+    <hyperlink ref="M168" r:id="rId634" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{60AC23EC-1870-4F33-A221-AD8FF4DC31F0}"/>
+    <hyperlink ref="C169" r:id="rId635" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{89001AE0-C34E-44C5-8CEC-3849C1D28172}"/>
+    <hyperlink ref="E169" r:id="rId636" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{1DAA62B3-A252-4CD0-AA26-A5AC84214132}"/>
+    <hyperlink ref="I169" r:id="rId637" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{FFD59842-D026-45CF-8D94-A25CC2E7EF1A}"/>
+    <hyperlink ref="M169" r:id="rId638" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{48CDF868-4827-4C3E-8A8E-2C5027E0737D}"/>
+    <hyperlink ref="C170" r:id="rId639" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{D121DFC0-888E-4C9C-9552-2BC7B902D4BE}"/>
+    <hyperlink ref="E170" r:id="rId640" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{7B63A73D-51F6-489A-86DE-75AA7C1BEC0D}"/>
+    <hyperlink ref="I170" r:id="rId641" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{60289143-0ACE-4B99-9179-82F63319E074}"/>
+    <hyperlink ref="M170" r:id="rId642" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{AB9D8477-776A-4E6C-B460-796B2548A54D}"/>
+    <hyperlink ref="C171" r:id="rId643" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{DD3EEFE2-946D-47DC-94A2-69CD78CAAC7B}"/>
+    <hyperlink ref="E171" r:id="rId644" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{D88EEC96-6BE4-4396-9F95-769CBD8ED063}"/>
+    <hyperlink ref="I171" r:id="rId645" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8469AC31-3860-4C32-B3E5-6F76984C1579}"/>
+    <hyperlink ref="M171" r:id="rId646" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{9E9D13BD-B2C0-480C-806C-75A49B697BD7}"/>
+    <hyperlink ref="C172" r:id="rId647" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{684DFF5E-8C94-4C8F-A8B7-BFC6DE747A4A}"/>
+    <hyperlink ref="E172" r:id="rId648" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{1E5C3124-8AB4-43A5-8D97-9D28B6C70109}"/>
+    <hyperlink ref="I172" r:id="rId649" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{7F4E653F-80B8-4A18-AB2D-79E2226CD2DE}"/>
+    <hyperlink ref="M172" r:id="rId650" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{34EA76DC-D698-44D3-8F7D-414076253002}"/>
+    <hyperlink ref="C173" r:id="rId651" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{75B5B307-F45A-4002-ACA4-30392F3C6E42}"/>
+    <hyperlink ref="E173" r:id="rId652" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{79EA6362-E8E0-4AE0-B2CB-837CAF227A12}"/>
+    <hyperlink ref="I173" r:id="rId653" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{C67AC7B4-D5D5-47C7-9941-880BB05AE6E0}"/>
+    <hyperlink ref="M173" r:id="rId654" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{821DA215-686F-42F9-9BBB-CD44589C5A66}"/>
+    <hyperlink ref="C174" r:id="rId655" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{E994785C-12F0-4B65-A8EF-192902960E91}"/>
+    <hyperlink ref="E174" r:id="rId656" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{0FF50CE0-0FF9-4E2C-9146-570F91367A71}"/>
+    <hyperlink ref="I174" r:id="rId657" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{4256760E-EADC-471D-AE17-60399133FE5F}"/>
+    <hyperlink ref="M174" r:id="rId658" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{FAF222A9-8CC4-42E2-BF04-0D5DDB515F67}"/>
+    <hyperlink ref="C175" r:id="rId659" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{89AC445E-492B-4FE7-9CEA-EF2952147C35}"/>
+    <hyperlink ref="E175" r:id="rId660" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C7390C0B-0F42-40C7-8960-E3EF7D901F93}"/>
+    <hyperlink ref="I175" r:id="rId661" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{93D56F1A-C500-4464-BFA4-93AB4C4C14A2}"/>
+    <hyperlink ref="M175" r:id="rId662" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{F8B41307-5FE6-4AFD-A517-0144CF9D1828}"/>
+    <hyperlink ref="C176" r:id="rId663" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{32540ECB-6516-42B4-B4C6-D26952DF24CB}"/>
+    <hyperlink ref="E176" r:id="rId664" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{538E5AC9-0E2E-4929-887B-91398E6D1B86}"/>
+    <hyperlink ref="I176" r:id="rId665" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{E0F28416-C5B1-4F3D-9676-264041CA8F63}"/>
+    <hyperlink ref="M176" r:id="rId666" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{61266CAB-F6F8-4914-AE64-CBE4E624A4EF}"/>
+    <hyperlink ref="C177" r:id="rId667" display="https://fbref.com/en/matches/2021-12-11" xr:uid="{2CFA8EA3-ABD4-4434-A550-0267400C6E59}"/>
+    <hyperlink ref="E177" r:id="rId668" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{FF01415A-13FA-4C2B-A9AB-BD8F481D31CE}"/>
+    <hyperlink ref="I177" r:id="rId669" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{69EED6ED-9E3A-4B51-9AD3-15EA56BA5A15}"/>
+    <hyperlink ref="M177" r:id="rId670" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{64F54928-AFD3-4398-9541-E7F565BB8CE2}"/>
+    <hyperlink ref="C179" r:id="rId671" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{9B57DE2B-AAFE-4A43-8B5D-36588D333376}"/>
+    <hyperlink ref="E179" r:id="rId672" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{8E31EBAF-0507-45F8-93DD-9B7E1E8078B6}"/>
+    <hyperlink ref="I179" r:id="rId673" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{0DC75488-B682-46A1-95AC-22EB396E21A5}"/>
+    <hyperlink ref="M179" r:id="rId674" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{EC4E7AD0-9BC0-4C40-83D5-363CCA6292CD}"/>
+    <hyperlink ref="C180" r:id="rId675" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{0BC7E72D-C2A8-4ABF-8248-56CF2ED11416}"/>
+    <hyperlink ref="E180" r:id="rId676" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{73382E2F-336D-4BEE-8A16-FF139A0BBFB6}"/>
+    <hyperlink ref="I180" r:id="rId677" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F3B97D4C-4A3F-4466-8AEF-A95103D8B03F}"/>
+    <hyperlink ref="M180" r:id="rId678" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{649093D9-0A3A-4C7C-A7E2-1223DA927C0C}"/>
+    <hyperlink ref="C181" r:id="rId679" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{55CAC1CB-519F-47FD-9443-9726C25396F3}"/>
+    <hyperlink ref="E181" r:id="rId680" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{EEAA89FA-579F-4F7F-BF90-EEFAB67F3489}"/>
+    <hyperlink ref="I181" r:id="rId681" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{939384FC-0ED7-4880-9D3F-4292565D4F71}"/>
+    <hyperlink ref="M181" r:id="rId682" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{0739DC4C-5B49-40C5-9893-7A43416E9A6C}"/>
+    <hyperlink ref="C182" r:id="rId683" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{6697CE6F-933D-44BB-A3D5-B13F8736A3D3}"/>
+    <hyperlink ref="E182" r:id="rId684" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{92198562-4E51-4A13-B88B-132AF855C860}"/>
+    <hyperlink ref="I182" r:id="rId685" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8435E8EC-10F4-403A-BC98-06D3534684F1}"/>
+    <hyperlink ref="M182" r:id="rId686" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{87ACE261-2874-4B20-8BB5-6CB30BA7B694}"/>
+    <hyperlink ref="C183" r:id="rId687" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{02AE6F2A-AB99-4E10-98C0-AE9158A62C8E}"/>
+    <hyperlink ref="E183" r:id="rId688" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{C390E0A9-9FCC-4F3F-8E2E-E32EA2F2D7FD}"/>
+    <hyperlink ref="I183" r:id="rId689" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{DC13D530-6D20-49AE-88B2-CB6C0FB1B2AA}"/>
+    <hyperlink ref="M183" r:id="rId690" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{87E4B3DC-11FA-4E6B-B302-29F4C6353AEF}"/>
+    <hyperlink ref="C184" r:id="rId691" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{55436C77-6936-4FD7-B865-F2B62D95A992}"/>
+    <hyperlink ref="E184" r:id="rId692" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F8FF8C7F-170C-402E-9D89-FF5D7F5F64A5}"/>
+    <hyperlink ref="I184" r:id="rId693" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{23E93850-A79C-4E13-BFE9-78BDBFDBB754}"/>
+    <hyperlink ref="M184" r:id="rId694" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{414F294A-C2FB-4D4F-932D-432EF544416A}"/>
+    <hyperlink ref="C185" r:id="rId695" display="https://fbref.com/en/matches/2021-12-14" xr:uid="{F4CC0D84-FD97-450B-99B6-01CAE5E8D253}"/>
+    <hyperlink ref="E185" r:id="rId696" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{524911F5-8B67-4E40-B456-1AA0A4E46498}"/>
+    <hyperlink ref="I185" r:id="rId697" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{C3869D7F-CD54-444B-A662-B3B33312AB0F}"/>
+    <hyperlink ref="M185" r:id="rId698" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{DCE24AD0-957E-457B-B2EA-62213AC57D86}"/>
+    <hyperlink ref="C186" r:id="rId699" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{8E46A0D5-EC09-4E4F-B26D-6B3A87EB567F}"/>
+    <hyperlink ref="E186" r:id="rId700" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{ADB2FE2E-A92B-4083-A0F8-BB67A95ADA19}"/>
+    <hyperlink ref="I186" r:id="rId701" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{AC245F1A-B0CE-4442-AAB3-2A1D7D4F3B5C}"/>
+    <hyperlink ref="M186" r:id="rId702" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{2947962D-3410-444B-BE74-165145CA7E1B}"/>
+    <hyperlink ref="C187" r:id="rId703" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{2058043A-B9A6-449A-A7C5-3B72E81F2159}"/>
+    <hyperlink ref="E187" r:id="rId704" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{145DFB12-EA7B-4235-B170-425C3FBB60D2}"/>
+    <hyperlink ref="I187" r:id="rId705" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{71039B16-FF9F-418C-B3C0-3237119DE2E1}"/>
+    <hyperlink ref="M187" r:id="rId706" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{32337157-3F02-4056-8A20-9DCFB869C930}"/>
+    <hyperlink ref="C188" r:id="rId707" display="https://fbref.com/en/matches/2021-12-15" xr:uid="{E6AD086C-C127-465A-B35C-D56A047B5D42}"/>
+    <hyperlink ref="E188" r:id="rId708" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{5D1701B8-35BD-481B-98D7-F2F86C8D85C8}"/>
+    <hyperlink ref="I188" r:id="rId709" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8566AB90-7AF0-4FEE-956A-B78AB8738B31}"/>
+    <hyperlink ref="M188" r:id="rId710" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{D59BBBE5-E3BE-4947-8299-AF1917FCE83A}"/>
+    <hyperlink ref="C190" r:id="rId711" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{69476F0B-58D5-4967-B3EB-5EAA70F996FA}"/>
+    <hyperlink ref="E190" r:id="rId712" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{A36F8BC6-1F2E-49DB-B4A1-FE29FFD2D107}"/>
+    <hyperlink ref="I190" r:id="rId713" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{13ECFE00-9E4F-492F-9DE4-FC9BF87417A3}"/>
+    <hyperlink ref="M190" r:id="rId714" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{DC0955BB-EB08-40AF-BCED-7E6661AD0D13}"/>
+    <hyperlink ref="C191" r:id="rId715" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{E8D444BE-B13D-49BB-B46A-994BE98516E6}"/>
+    <hyperlink ref="E191" r:id="rId716" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{DBE4193A-056A-461D-885B-7B750E4DE1D7}"/>
+    <hyperlink ref="I191" r:id="rId717" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9B22FF68-915F-4097-9109-6790B9613B6F}"/>
+    <hyperlink ref="M191" r:id="rId718" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{AACC5EC0-1530-43FE-9E20-F572397751CD}"/>
+    <hyperlink ref="C192" r:id="rId719" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{1CEABDE8-CF81-4EBF-A852-6DB02BB1440C}"/>
+    <hyperlink ref="E192" r:id="rId720" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{43145590-B5E8-407E-A7A3-5B07C913D6F3}"/>
+    <hyperlink ref="I192" r:id="rId721" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{89AE5F18-A4CA-4F81-BA05-E432ED01E748}"/>
+    <hyperlink ref="M192" r:id="rId722" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{3AE2DB66-3E4B-4295-856C-1D137DFD7399}"/>
+    <hyperlink ref="C193" r:id="rId723" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{10CD63E7-8717-49E7-92B8-A73B63FFB2D1}"/>
+    <hyperlink ref="E193" r:id="rId724" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{173D8E42-AAAF-4B2B-B6A5-4B826A60BC19}"/>
+    <hyperlink ref="I193" r:id="rId725" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{EEA7FD90-8651-4EF4-910F-09B56527E957}"/>
+    <hyperlink ref="M193" r:id="rId726" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{3B4F7AD7-216F-47DA-82E8-BBDD940C28C1}"/>
+    <hyperlink ref="C194" r:id="rId727" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{CA0D8617-9C32-4CA2-8BB5-C9EF459E2E7D}"/>
+    <hyperlink ref="E194" r:id="rId728" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{4D57DE0D-0636-48F7-AAC1-0F37B3FD2BCD}"/>
+    <hyperlink ref="I194" r:id="rId729" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{F9B29309-31DD-4DBA-A47B-0F8C4A06395F}"/>
+    <hyperlink ref="M194" r:id="rId730" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{CA495694-67A6-4167-B186-14F96DA08196}"/>
+    <hyperlink ref="C195" r:id="rId731" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{F559F8DA-1F5D-4C66-B608-AC1A89343A9B}"/>
+    <hyperlink ref="E195" r:id="rId732" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{4F807EE0-65A0-4175-B388-DC55D4005C25}"/>
+    <hyperlink ref="I195" r:id="rId733" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{9D063290-3721-4CC9-B4CC-3D6B382016A6}"/>
+    <hyperlink ref="M195" r:id="rId734" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{E90FE95E-BF3E-471C-BC93-11FF09A41859}"/>
+    <hyperlink ref="C196" r:id="rId735" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{6968EC9C-5F1E-40C6-98DA-49A711536C60}"/>
+    <hyperlink ref="E196" r:id="rId736" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{5BD9F8EA-449F-4EAA-BB05-23D89878A06E}"/>
+    <hyperlink ref="I196" r:id="rId737" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{FA2D8EC3-1FAF-46ED-A864-A93D0A5AE5FA}"/>
+    <hyperlink ref="M196" r:id="rId738" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{070E2104-30C9-4F05-A862-4AF2F03B8447}"/>
+    <hyperlink ref="C197" r:id="rId739" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{11798C25-8C08-44A2-9AFF-74EE2A1350AD}"/>
+    <hyperlink ref="E197" r:id="rId740" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C600F176-C3D8-4E75-B9C4-C3B06E1DEE0E}"/>
+    <hyperlink ref="I197" r:id="rId741" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{688DCC5C-04B7-4472-A2B7-5B99100A80E6}"/>
+    <hyperlink ref="M197" r:id="rId742" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{80D6011C-ED91-448B-96A2-1E47B8B7DDED}"/>
+    <hyperlink ref="C198" r:id="rId743" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{D4B000EF-D851-4BD6-83B0-FC8A2FA6AFCD}"/>
+    <hyperlink ref="E198" r:id="rId744" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{8AE1DAED-168C-458F-8377-BF73BB80E626}"/>
+    <hyperlink ref="I198" r:id="rId745" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{EC02CED1-EF92-4313-9588-7B0FF85E88FE}"/>
+    <hyperlink ref="M198" r:id="rId746" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{129116E2-D345-483F-8F17-F1EB00CBF51C}"/>
+    <hyperlink ref="C199" r:id="rId747" display="https://fbref.com/en/matches/2021-12-18" xr:uid="{6E29C1B8-3A2E-4441-A509-DA72E160BEE3}"/>
+    <hyperlink ref="E199" r:id="rId748" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{7088EE5B-7020-405A-BB33-F4AF46E858F4}"/>
+    <hyperlink ref="I199" r:id="rId749" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{A9570156-938F-407C-BA61-79E7005A9E53}"/>
+    <hyperlink ref="M199" r:id="rId750" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{7BEA3085-D929-4BBB-B104-1A0F6E0862C6}"/>
+    <hyperlink ref="C201" r:id="rId751" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{D479F903-B018-4887-87B7-E131061E172E}"/>
+    <hyperlink ref="E201" r:id="rId752" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D5F77CA2-FA74-400F-BDC3-78ED5FDB6FF5}"/>
+    <hyperlink ref="I201" r:id="rId753" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{3FEB497A-0F2F-4A1E-A455-15EC02D71583}"/>
+    <hyperlink ref="M201" r:id="rId754" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/a2d435b3/Manchester-City-vs-Leicester-City-History" xr:uid="{F27F851E-8D63-4607-B938-0D8C10C09B69}"/>
+    <hyperlink ref="C202" r:id="rId755" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{DED1D984-4FD9-4B19-81CC-C9CECBEE6BF8}"/>
+    <hyperlink ref="E202" r:id="rId756" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{3F4A2D9F-E5F5-4041-90DE-27B746EB997E}"/>
+    <hyperlink ref="I202" r:id="rId757" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{858F442B-D74D-434A-96F7-3F2A63B7F437}"/>
+    <hyperlink ref="M202" r:id="rId758" display="https://fbref.com/en/stathead/matchup/squads/1c781004/18bb7c10/Norwich-City-vs-Arsenal-History" xr:uid="{3C18A2F3-D3F3-4E95-A51C-F661B147E6D2}"/>
+    <hyperlink ref="C203" r:id="rId759" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{48111C14-4CCF-4393-A14A-2729C70F6FE9}"/>
+    <hyperlink ref="E203" r:id="rId760" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{77725FCB-CE07-411D-91F8-0E81FFAC2DC1}"/>
+    <hyperlink ref="I203" r:id="rId761" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{369E06A5-D233-45EF-8DB2-2819BA008311}"/>
+    <hyperlink ref="M203" r:id="rId762" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/19538871/Newcastle-United-vs-Manchester-United-History" xr:uid="{53239403-6845-4F22-87D8-9649ACA158BF}"/>
+    <hyperlink ref="C204" r:id="rId763" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{58B73689-CBA9-4422-B873-46A7A3E7305A}"/>
+    <hyperlink ref="E204" r:id="rId764" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{69ED678D-5ADF-4617-B785-816F59DA4E30}"/>
+    <hyperlink ref="I204" r:id="rId765" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{1C10559F-13B7-4E69-912F-CF81D4E386F0}"/>
+    <hyperlink ref="M204" r:id="rId766" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/33c895d4/West-Ham-United-vs-Southampton-History" xr:uid="{A52FC885-A50D-4BAE-A23A-5E066BD97F28}"/>
+    <hyperlink ref="C205" r:id="rId767" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B9757756-1C92-48E4-BD06-936842B70D9F}"/>
+    <hyperlink ref="E205" r:id="rId768" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5F002A38-3BE1-4B87-B78C-F423EC9D1B53}"/>
+    <hyperlink ref="I205" r:id="rId769" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{2E86DB71-D900-4067-BC9A-6D02DE1F8F6F}"/>
+    <hyperlink ref="M205" r:id="rId770" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/943e8050/Everton-vs-Burnley-History" xr:uid="{279F77EF-7822-46DD-A5F0-18E0E454B728}"/>
+    <hyperlink ref="C206" r:id="rId771" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{4311AD1E-3579-4CA4-9BF9-39C30A1B9BB1}"/>
+    <hyperlink ref="E206" r:id="rId772" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{7078F6CB-074F-485C-AB36-A8243C96705F}"/>
+    <hyperlink ref="I206" r:id="rId773" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{E51E2B5D-7E6F-44CC-90B0-AE6BF3E5BFE3}"/>
+    <hyperlink ref="M206" r:id="rId774" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8602292d/Chelsea-vs-Aston-Villa-History" xr:uid="{02A36383-8910-4454-ACC8-6610C38E49EA}"/>
+    <hyperlink ref="C207" r:id="rId775" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{2FFF68EF-4A5B-4EAB-878A-7604E7F83C5E}"/>
+    <hyperlink ref="E207" r:id="rId776" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D9A04FDD-5E2E-4CF3-B8DC-DB55B4E766E8}"/>
+    <hyperlink ref="I207" r:id="rId777" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E83FEDBC-3F9C-460A-885C-E9314B4C1EC6}"/>
+    <hyperlink ref="M207" r:id="rId778" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/2abfe087/Wolverhampton-Wanderers-vs-Watford-History" xr:uid="{BF3FE340-4F47-4F0C-945E-80F75B2F4F15}"/>
+    <hyperlink ref="C208" r:id="rId779" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{22962F0D-8F2B-4F15-A76B-80105CA0AC8E}"/>
+    <hyperlink ref="E208" r:id="rId780" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4B0F7EEE-0F7F-4661-B38B-0C7FFDF38850}"/>
+    <hyperlink ref="I208" r:id="rId781" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{9ACD1795-D054-45DB-BC3F-2976081D9DD2}"/>
+    <hyperlink ref="M208" r:id="rId782" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cd051869/Brighton-and-Hove-Albion-vs-Brentford-History" xr:uid="{67DF796D-2FCD-4286-B313-0D30DDBFF647}"/>
+    <hyperlink ref="C209" r:id="rId783" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{6A7AAE75-EC7C-4C88-B311-E10B6BFE1EEE}"/>
+    <hyperlink ref="E209" r:id="rId784" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{556729E1-E882-412B-A20D-6E334FC94CF2}"/>
+    <hyperlink ref="I209" r:id="rId785" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2DC602FD-8ADA-4AB5-8940-60717937B570}"/>
+    <hyperlink ref="M209" r:id="rId786" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/361ca564/Crystal-Palace-vs-Tottenham-Hotspur-History" xr:uid="{46ECA89E-02C6-4D9D-A8C0-8C01EC6117A6}"/>
+    <hyperlink ref="C210" r:id="rId787" display="https://fbref.com/en/matches/2021-12-26" xr:uid="{B0E970EE-C9F7-4B9A-9CD2-280880EE6F7A}"/>
+    <hyperlink ref="E210" r:id="rId788" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{A54AD16A-D488-49B5-9783-32203CC1B365}"/>
+    <hyperlink ref="I210" r:id="rId789" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{56540F07-4919-4CC0-91DD-33869B3E449E}"/>
+    <hyperlink ref="M210" r:id="rId790" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/5bfb9659/Liverpool-vs-Leeds-United-History" xr:uid="{3DD5DEB9-71F9-449E-AFFD-4DC5189CE987}"/>
+    <hyperlink ref="C212" r:id="rId791" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{38968E0F-4C78-4EBC-893B-8586FAFA2BAC}"/>
+    <hyperlink ref="E212" r:id="rId792" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{153BE1BF-202E-4BA9-AAA9-3641FB8DD687}"/>
+    <hyperlink ref="I212" r:id="rId793" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{9574A8CC-509A-43F0-962E-6A9ACB9D8A2B}"/>
+    <hyperlink ref="M212" r:id="rId794" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{D288E982-282E-45AA-9AB5-5C4826168FAC}"/>
+    <hyperlink ref="C213" r:id="rId795" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{70DA5301-0B55-46E4-A818-A8CF27453F41}"/>
+    <hyperlink ref="E213" r:id="rId796" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F55BBB1C-E883-4DCF-9AFE-01DE7251BEB2}"/>
+    <hyperlink ref="I213" r:id="rId797" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{D1903401-74F9-4F9D-A001-18275D12E77D}"/>
+    <hyperlink ref="M213" r:id="rId798" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{943C46DE-1C8F-4AA5-AA2E-34BF6E015332}"/>
+    <hyperlink ref="C214" r:id="rId799" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{DAF7FBB9-6B81-4656-B824-EEDC022EE0B6}"/>
+    <hyperlink ref="E214" r:id="rId800" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{C340F8E7-FB20-4C97-B3E3-972E0ACE09AB}"/>
+    <hyperlink ref="I214" r:id="rId801" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{F1404A5D-124A-4983-8786-D5D862EB0764}"/>
+    <hyperlink ref="M214" r:id="rId802" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{1139233F-3AE8-48E8-8734-55603CFFA9BC}"/>
+    <hyperlink ref="C215" r:id="rId803" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{DCE42D05-0B80-4841-8A19-1B6CB64788F2}"/>
+    <hyperlink ref="E215" r:id="rId804" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{DD0CB265-7250-4E94-B476-D4701F8B168C}"/>
+    <hyperlink ref="I215" r:id="rId805" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{83A5CA57-02CC-408A-BCFC-D5398614DE2E}"/>
+    <hyperlink ref="M215" r:id="rId806" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{827DA52E-A1DC-4BD2-B163-2D10EBEAE31F}"/>
+    <hyperlink ref="C216" r:id="rId807" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{A2F50FB1-52AE-48E4-9DB0-B3E0EE6CC795}"/>
+    <hyperlink ref="E216" r:id="rId808" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{0D8BAF33-98E4-4ADA-9AB8-962BE90FC29F}"/>
+    <hyperlink ref="I216" r:id="rId809" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{A1CC8346-B706-4CB9-9B89-54E84C1E8DA7}"/>
+    <hyperlink ref="M216" r:id="rId810" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{84D5614C-32DF-4663-BD5F-A21BFA71BE0A}"/>
+    <hyperlink ref="C217" r:id="rId811" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{A8DD7A8E-7E6B-4A5C-98C5-8C58329C57F6}"/>
+    <hyperlink ref="E217" r:id="rId812" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{863069EF-E7E4-43AA-A004-E0C2824AE55E}"/>
+    <hyperlink ref="I217" r:id="rId813" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{D9856DEA-589B-4A66-B597-860891070FF1}"/>
+    <hyperlink ref="M217" r:id="rId814" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{F2469402-9512-4764-9A7F-132EFC8FD66B}"/>
+    <hyperlink ref="C218" r:id="rId815" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{327AE250-D02E-4038-ADBA-7683210B152A}"/>
+    <hyperlink ref="E218" r:id="rId816" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{4280B091-C55D-4126-8A82-354375F781A6}"/>
+    <hyperlink ref="I218" r:id="rId817" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{8A2A74EA-46CD-4187-8D73-A7CECA673ACE}"/>
+    <hyperlink ref="M218" r:id="rId818" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{AD594A11-6DB6-4411-B324-C166F65B349A}"/>
+    <hyperlink ref="C219" r:id="rId819" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{49BD8647-B62B-45F8-ACCB-A7903186C8B4}"/>
+    <hyperlink ref="E219" r:id="rId820" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{3BE5139A-2FA9-4BF2-B23E-4B68C71B5FEF}"/>
+    <hyperlink ref="I219" r:id="rId821" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{886588AF-6839-47AC-8D90-A74CB9BB4EDF}"/>
+    <hyperlink ref="M219" r:id="rId822" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{D4A4DF7C-8261-42F0-8155-3124ECEAF92E}"/>
+    <hyperlink ref="C220" r:id="rId823" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{1627EB52-D78C-412E-8CFC-399A6969FD5D}"/>
+    <hyperlink ref="E220" r:id="rId824" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{12BD7FEA-E2CD-4776-B3C8-91E9467C458C}"/>
+    <hyperlink ref="I220" r:id="rId825" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{881A2594-FBF9-406F-BD1D-92D77E9B3B45}"/>
+    <hyperlink ref="M220" r:id="rId826" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{C04C6DA6-A88D-430D-9B9A-01EC040463B8}"/>
+    <hyperlink ref="C221" r:id="rId827" display="https://fbref.com/en/matches/2021-12-28" xr:uid="{21A6B28E-9E35-49AD-961A-60FDF56F9A7B}"/>
+    <hyperlink ref="E221" r:id="rId828" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{23145EB7-E9E3-42C5-B485-32A51C5F3026}"/>
+    <hyperlink ref="I221" r:id="rId829" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{C0309F32-E150-4779-A163-F239292EDEEC}"/>
+    <hyperlink ref="M221" r:id="rId830" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{35074E69-4107-4CF9-A8E0-3DE13696E8F4}"/>
+    <hyperlink ref="C223" r:id="rId831" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{44F31AD0-D6D5-4DC4-B7EB-B44F1B26F332}"/>
+    <hyperlink ref="E223" r:id="rId832" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{40151C1C-8EEB-49AD-987C-F1496B1DD856}"/>
+    <hyperlink ref="I223" r:id="rId833" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{187FEAFA-6258-4B8F-A907-B60CCD1DBA4F}"/>
+    <hyperlink ref="M223" r:id="rId834" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8602292d/Brentford-vs-Aston-Villa-History" xr:uid="{457C41F7-BF8A-462F-B260-1EE8762A81A4}"/>
+    <hyperlink ref="C224" r:id="rId835" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{B15BB87A-D5AD-40A0-8D70-1D6DDC059602}"/>
+    <hyperlink ref="E224" r:id="rId836" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{48DD5C5B-321E-4426-A4C6-A9FABD1A4D5D}"/>
+    <hyperlink ref="I224" r:id="rId837" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{3FC0A412-7C14-42AF-809C-7EB756718492}"/>
+    <hyperlink ref="M224" r:id="rId838" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/1c781004/Leicester-City-vs-Norwich-City-History" xr:uid="{F810781E-8203-4AD7-82C1-7FA6F301D5B9}"/>
+    <hyperlink ref="C225" r:id="rId839" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{ECFE65E9-4921-4905-8A3E-E5624B21F5D0}"/>
+    <hyperlink ref="E225" r:id="rId840" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{C511C1EF-6A75-45D1-8D71-A578026E384C}"/>
+    <hyperlink ref="I225" r:id="rId841" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{25CB8440-D1E9-41BF-A14B-D214BDB511F4}"/>
+    <hyperlink ref="M225" r:id="rId842" display="https://fbref.com/en/stathead/matchup/squads/943e8050/5bfb9659/Burnley-vs-Leeds-United-History" xr:uid="{21AB62AB-D6AB-4A4D-B65F-84FD7C318C71}"/>
+    <hyperlink ref="C226" r:id="rId843" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{71A05799-0D24-492E-9239-1471CFA22FAB}"/>
+    <hyperlink ref="E226" r:id="rId844" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{51E87AD8-CB60-46DA-A6BF-98E80F9303F8}"/>
+    <hyperlink ref="I226" r:id="rId845" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{8DCA2209-A665-421A-8495-0CED350EF2FE}"/>
+    <hyperlink ref="M226" r:id="rId846" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/d07537b9/Everton-vs-Brighton-and-Hove-Albion-History" xr:uid="{F30F67BA-A882-40F3-85FA-8D044314FD43}"/>
+    <hyperlink ref="C227" r:id="rId847" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{C281BB6D-202B-4378-9F6E-F056BE567A47}"/>
+    <hyperlink ref="E227" r:id="rId848" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A2260F99-7B26-4575-80F0-83D501250644}"/>
+    <hyperlink ref="I227" r:id="rId849" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{538BF1C8-4713-4875-B19D-904093B63457}"/>
+    <hyperlink ref="M227" r:id="rId850" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/822bd0ba/Chelsea-vs-Liverpool-History" xr:uid="{AF3B2699-A275-4DCB-882B-9A069D144874}"/>
+    <hyperlink ref="C228" r:id="rId851" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{80C2C4E5-FA2D-4572-B4B8-DD9A2AAFE630}"/>
+    <hyperlink ref="E228" r:id="rId852" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{E1EA5A5D-982B-4B17-B6C6-FE5948B92456}"/>
+    <hyperlink ref="I228" r:id="rId853" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{1AEB9BF9-3EF4-4CC6-9DDC-33CDDEC567BE}"/>
+    <hyperlink ref="M228" r:id="rId854" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/47c64c55/West-Ham-United-vs-Crystal-Palace-History" xr:uid="{9E332286-0219-47B9-8876-4C17DA9274ED}"/>
+    <hyperlink ref="C229" r:id="rId855" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{87090D53-C4EF-4207-A381-71AFAA2D3A4C}"/>
+    <hyperlink ref="E229" r:id="rId856" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{83A87BCA-3976-4C45-BF5D-966EE35181F9}"/>
+    <hyperlink ref="I229" r:id="rId857" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{B103F69A-EBF9-4658-9CCC-96DA13535F6F}"/>
+    <hyperlink ref="M229" r:id="rId858" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/18bb7c10/Manchester-City-vs-Arsenal-History" xr:uid="{AC73DCBF-4893-4585-B559-9BF4C76383E6}"/>
+    <hyperlink ref="C230" r:id="rId859" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{E965EAB9-8AF7-4785-A137-EA7F07266E84}"/>
+    <hyperlink ref="E230" r:id="rId860" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{DD3BD9E8-1468-4141-8D7A-33880D48E3E8}"/>
+    <hyperlink ref="I230" r:id="rId861" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{A95B95DF-0C26-40B4-A859-C66FCCBABBD3}"/>
+    <hyperlink ref="M230" r:id="rId862" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/33c895d4/Newcastle-United-vs-Southampton-History" xr:uid="{3A8A49C2-105F-4AC1-B576-0B6D052C82F6}"/>
+    <hyperlink ref="C231" r:id="rId863" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{92CA47FB-8AAC-4794-9E85-09F6E68F7A6E}"/>
+    <hyperlink ref="E231" r:id="rId864" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{AD59CA8D-5318-4F62-8DA2-7853B3D48B2B}"/>
+    <hyperlink ref="I231" r:id="rId865" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{EF29A661-8B20-4A82-B465-9D2DD2FAE05B}"/>
+    <hyperlink ref="M231" r:id="rId866" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/19538871/Wolverhampton-Wanderers-vs-Manchester-United-History" xr:uid="{F5F3E924-4405-43AF-835A-AECAD7289474}"/>
+    <hyperlink ref="C232" r:id="rId867" display="https://fbref.com/en/matches/2022-01-01" xr:uid="{3662AC86-7DAB-4C27-A36F-FA6E03033911}"/>
+    <hyperlink ref="E232" r:id="rId868" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{65430862-F9A0-4CEB-9C00-3B54F96E6C3D}"/>
+    <hyperlink ref="I232" r:id="rId869" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{F538FD68-3CF2-438F-BED1-1E6BCB8B381B}"/>
+    <hyperlink ref="M232" r:id="rId870" display="https://fbref.com/en/stathead/matchup/squads/361ca564/2abfe087/Tottenham-Hotspur-vs-Watford-History" xr:uid="{5F9ED20B-0603-40A1-9CFD-A57156549744}"/>
+    <hyperlink ref="C234" r:id="rId871" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{7D5C750C-C5FF-4F2E-A9E0-99B52AB13108}"/>
+    <hyperlink ref="E234" r:id="rId872" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{BF5F7331-0875-48CE-9F42-94F2BD4FF93D}"/>
+    <hyperlink ref="I234" r:id="rId873" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CD6BF370-F368-4A50-B59D-7500B91E7922}"/>
+    <hyperlink ref="M234" r:id="rId874" display="https://fbref.com/en/stathead/matchup/squads/8602292d/19538871/Aston-Villa-vs-Manchester-United-History" xr:uid="{711AB233-B4DA-44D6-8067-CD7B8FDA8589}"/>
+    <hyperlink ref="C235" r:id="rId875" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{E0363325-82DF-4FE4-9E09-4AD326B8E717}"/>
+    <hyperlink ref="E235" r:id="rId876" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{A37E1D76-8537-4034-BC01-0F10E6AB6DEC}"/>
+    <hyperlink ref="I235" r:id="rId877" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{6F893418-3637-482C-B7F7-36258D3F7123}"/>
+    <hyperlink ref="M235" r:id="rId878" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/5bfb9659/West-Ham-United-vs-Leeds-United-History" xr:uid="{76197041-511E-400F-BCC6-6E2BFE41B6C7}"/>
+    <hyperlink ref="C236" r:id="rId879" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{1F718297-99EC-4501-BB42-C585F1A64632}"/>
+    <hyperlink ref="E236" r:id="rId880" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{18EA0845-5353-4B5F-A806-A64AA6192336}"/>
+    <hyperlink ref="I236" r:id="rId881" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{9ACEAB1B-396D-4C83-9A3C-A9092AEB41DA}"/>
+    <hyperlink ref="M236" r:id="rId882" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/47c64c55/Brighton-and-Hove-Albion-vs-Crystal-Palace-History" xr:uid="{B49E828E-008D-4A80-8D6E-A2572268A60D}"/>
+    <hyperlink ref="C237" r:id="rId883" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{3B3988BE-7F1C-432E-809A-AC3EFA6C6F00}"/>
+    <hyperlink ref="E237" r:id="rId884" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{9DC7B0E7-060B-4CF2-BFC7-2BC4186A7309}"/>
+    <hyperlink ref="I237" r:id="rId885" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{67242435-7193-4CD6-B2DD-0DC74B2A23D2}"/>
+    <hyperlink ref="M237" r:id="rId886" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/2abfe087/Newcastle-United-vs-Watford-History" xr:uid="{3ED3B23D-AD8F-4B59-A2F6-9BE22A027D6F}"/>
+    <hyperlink ref="C238" r:id="rId887" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{E80C3F0A-9E64-4B41-B23F-BD3C5B309F8B}"/>
+    <hyperlink ref="E238" r:id="rId888" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{29DB461B-F886-46A9-9C9F-092516F60D8B}"/>
+    <hyperlink ref="I238" r:id="rId889" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{2D2D8AFD-38BB-41C6-9840-5339C8ABDCA3}"/>
+    <hyperlink ref="M238" r:id="rId890" display="https://fbref.com/en/stathead/matchup/squads/cd051869/822bd0ba/Brentford-vs-Liverpool-History" xr:uid="{2620D3FE-E01D-4D1A-836B-13B3374469BE}"/>
+    <hyperlink ref="C239" r:id="rId891" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{63498638-65CA-4A58-9E16-4D96F4E7EF96}"/>
+    <hyperlink ref="E239" r:id="rId892" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{2264AD92-7702-46EE-A1EF-A8A224CCF629}"/>
+    <hyperlink ref="I239" r:id="rId893" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{21B731C2-1392-440D-A0F2-D5FAEAB14DAB}"/>
+    <hyperlink ref="M239" r:id="rId894" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/33c895d4/Wolverhampton-Wanderers-vs-Southampton-History" xr:uid="{E5D17856-6B55-4CDD-97D4-FFE26956AB08}"/>
+    <hyperlink ref="C240" r:id="rId895" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{0169AB71-FAB7-4159-902F-FE3EC4B4C287}"/>
+    <hyperlink ref="E240" r:id="rId896" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{A696D434-3969-4C3E-9619-B559107A447E}"/>
+    <hyperlink ref="I240" r:id="rId897" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{603735ED-07C0-4805-8631-741E1BB24B4E}"/>
+    <hyperlink ref="M240" r:id="rId898" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/1c781004/Everton-vs-Norwich-City-History" xr:uid="{D258C267-0807-42D3-8843-948C922628FC}"/>
+    <hyperlink ref="C241" r:id="rId899" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{5B3A3B7B-1FE7-42E7-A9A3-5C65C4B5DFCF}"/>
+    <hyperlink ref="E241" r:id="rId900" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D91828DE-04C3-4B58-A166-BC11715C1FB9}"/>
+    <hyperlink ref="I241" r:id="rId901" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F060D8B9-C376-494C-8400-CAD504B7CE04}"/>
+    <hyperlink ref="M241" r:id="rId902" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b8fd03ef/Chelsea-vs-Manchester-City-History" xr:uid="{F613841A-E8B7-4F93-989C-0FF3CA79E17D}"/>
+    <hyperlink ref="C242" r:id="rId903" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{5D94B2FA-5E82-4A43-A694-C0AB9F519068}"/>
+    <hyperlink ref="E242" r:id="rId904" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{70EFBF43-0DD6-428A-AE33-CE833B10A29C}"/>
+    <hyperlink ref="I242" r:id="rId905" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9A57E4DC-DCC1-48A6-A46E-0076E5C4F134}"/>
+    <hyperlink ref="M242" r:id="rId906" display="https://fbref.com/en/stathead/matchup/squads/361ca564/18bb7c10/North-London-Derby-Tottenham-Hotspur-vs-Arsenal-History" xr:uid="{DA5C88B2-5D08-46B3-8733-E58B25E99BD6}"/>
+    <hyperlink ref="C243" r:id="rId907" display="https://fbref.com/en/matches/2022-01-15" xr:uid="{F5D8A01C-B197-4499-BF48-C3C2DC6D3001}"/>
+    <hyperlink ref="E243" r:id="rId908" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{948A70EC-B686-4D32-8560-1E10634A565A}"/>
+    <hyperlink ref="I243" r:id="rId909" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{0D86E7B2-8C26-4492-8EFF-416C448E7B1D}"/>
+    <hyperlink ref="M243" r:id="rId910" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/943e8050/Leicester-City-vs-Burnley-History" xr:uid="{FB6599B7-7DA3-425B-94E5-4C365B727DAE}"/>
+    <hyperlink ref="C245" r:id="rId911" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{6F0EF2A0-2076-4A3E-8C5F-E39F1440ACAB}"/>
+    <hyperlink ref="E245" r:id="rId912" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{AB41131F-6A03-4C47-9333-1A6FED49E9E7}"/>
+    <hyperlink ref="I245" r:id="rId913" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{9D490931-EB76-40D3-89E9-3813D9C13E93}"/>
+    <hyperlink ref="M245" r:id="rId914" display="https://fbref.com/en/stathead/matchup/squads/cd051869/8cec06e1/Brentford-vs-Wolverhampton-Wanderers-History" xr:uid="{B5F2B677-EAED-44B1-9CAD-665573B94BA6}"/>
+    <hyperlink ref="C246" r:id="rId915" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{F2DAA2F8-8E5F-46EB-A139-C01AD5639088}"/>
+    <hyperlink ref="E246" r:id="rId916" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{1451C800-5F3E-4810-A1DC-285635B0EE6D}"/>
+    <hyperlink ref="I246" r:id="rId917" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{6E2BDBC9-F87C-4187-92C4-3E093FA386A9}"/>
+    <hyperlink ref="M246" r:id="rId918" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/47c64c55/Liverpool-vs-Crystal-Palace-History" xr:uid="{BACBEFB3-C461-4DCE-B71A-3182CBD1FFA9}"/>
+    <hyperlink ref="C247" r:id="rId919" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{BFBE65B1-41EF-4091-9549-4B15659282F5}"/>
+    <hyperlink ref="E247" r:id="rId920" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{64FC0B33-644F-4762-9A16-64BD00D03AF0}"/>
+    <hyperlink ref="I247" r:id="rId921" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{C07EACA3-65A5-4A45-8321-879EEDBF6536}"/>
+    <hyperlink ref="M247" r:id="rId922" display="https://fbref.com/en/stathead/matchup/squads/943e8050/18bb7c10/Burnley-vs-Arsenal-History" xr:uid="{A25E562D-9B7D-4D47-862C-71467CA0B46C}"/>
+    <hyperlink ref="C248" r:id="rId923" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{6CBBE9F0-05B9-4C5E-8E02-A6EB5285B99F}"/>
+    <hyperlink ref="E248" r:id="rId924" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{FB91E098-FABE-408D-B4CD-AAD961C53CD2}"/>
+    <hyperlink ref="I248" r:id="rId925" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E7D8B4D9-EB3C-4E55-95DC-0E1D06DE1942}"/>
+    <hyperlink ref="M248" r:id="rId926" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/33c895d4/Manchester-City-vs-Southampton-History" xr:uid="{13159C29-EE30-4DDD-9438-CFC5062D1930}"/>
+    <hyperlink ref="C249" r:id="rId927" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{F97247FB-6E96-4AB1-B20B-E80E4CCDB3F6}"/>
+    <hyperlink ref="E249" r:id="rId928" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{2DC4BD10-18F0-4985-8520-922FBD61B9E4}"/>
+    <hyperlink ref="I249" r:id="rId929" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{6B4A607C-B02E-480B-B2A8-3EA9A23A6C16}"/>
+    <hyperlink ref="M249" r:id="rId930" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/19538871/West-Ham-United-vs-Manchester-United-History" xr:uid="{5B10EBA9-5DED-4F0B-9DCC-5F9023BDBB82}"/>
+    <hyperlink ref="C250" r:id="rId931" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{97501A51-6A51-4217-BB32-C31AD186ADCD}"/>
+    <hyperlink ref="E250" r:id="rId932" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{C97D4C5C-E36A-4FA7-8FDD-D61D9EA35FBC}"/>
+    <hyperlink ref="I250" r:id="rId933" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{285104D9-2497-43C4-8147-EC832751AC57}"/>
+    <hyperlink ref="M250" r:id="rId934" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/a2d435b3/Brighton-and-Hove-Albion-vs-Leicester-City-History" xr:uid="{05E6C0C4-5DD8-4604-B2D7-3AC022FC1015}"/>
+    <hyperlink ref="C251" r:id="rId935" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{F3D3D712-8F79-4C11-9F2C-D7314DC062C0}"/>
+    <hyperlink ref="E251" r:id="rId936" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{5F15FF61-2DC7-4F9D-BD0E-1BEE0C1F55AB}"/>
+    <hyperlink ref="I251" r:id="rId937" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FF9E16DF-3BE3-4CEA-B7DF-845071B483E7}"/>
+    <hyperlink ref="M251" r:id="rId938" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/5bfb9659/Newcastle-United-vs-Leeds-United-History" xr:uid="{1ED9436B-AEB1-4264-A716-2DA2017028C6}"/>
+    <hyperlink ref="C252" r:id="rId939" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{C85E338E-7677-4512-A9BC-2B5FB4166C12}"/>
+    <hyperlink ref="E252" r:id="rId940" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{F1C48498-8696-480B-80FB-584F851FB7D6}"/>
+    <hyperlink ref="I252" r:id="rId941" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{901C213A-288C-4E18-A41F-D67EDD2B27D8}"/>
+    <hyperlink ref="M252" r:id="rId942" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/361ca564/Chelsea-vs-Tottenham-Hotspur-History" xr:uid="{F052156F-6FB0-4CA0-99A7-488666B05713}"/>
+    <hyperlink ref="C253" r:id="rId943" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{6AB4CB2C-2743-475E-BAEE-0C01274DCDE5}"/>
+    <hyperlink ref="E253" r:id="rId944" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{980149B7-D5CE-4B33-A4A5-347751029694}"/>
+    <hyperlink ref="I253" r:id="rId945" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4A2FC975-C9FA-4468-8FDB-E613F357A972}"/>
+    <hyperlink ref="M253" r:id="rId946" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8602292d/Everton-vs-Aston-Villa-History" xr:uid="{AD780F42-5196-4F86-B7ED-0C146370B1C6}"/>
+    <hyperlink ref="C254" r:id="rId947" display="https://fbref.com/en/matches/2022-01-22" xr:uid="{A2C22E8F-ADF3-44BD-B726-31F985C33CC6}"/>
+    <hyperlink ref="E254" r:id="rId948" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{64ED5FF3-9982-4D38-8724-4E361F9EBB6B}"/>
+    <hyperlink ref="I254" r:id="rId949" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{E52E5A08-93BD-48FF-8941-D154C1914D98}"/>
+    <hyperlink ref="M254" r:id="rId950" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/1c781004/Watford-vs-Norwich-City-History" xr:uid="{C8DFE3BA-1C9A-42DF-897B-B0A7A97289BB}"/>
+    <hyperlink ref="C256" r:id="rId951" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{00EC0F65-1D22-4174-BA93-9046D7C35BE2}"/>
+    <hyperlink ref="E256" r:id="rId952" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{3CB79E71-A07C-488C-98CA-673502C949D0}"/>
+    <hyperlink ref="I256" r:id="rId953" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{A0C73D6F-D417-4D4A-9CEB-9FA526CB677B}"/>
+    <hyperlink ref="M256" r:id="rId954" display="https://fbref.com/en/stathead/matchup/squads/943e8050/19538871/Burnley-vs-Manchester-United-History" xr:uid="{8818A490-3758-4D24-AE91-F84BFB6B972B}"/>
+    <hyperlink ref="C257" r:id="rId955" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{AC83E2F9-4BCA-472E-8227-01B3FF59181A}"/>
+    <hyperlink ref="E257" r:id="rId956" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{3E1C3430-AF66-4BDF-B42E-C4414F0284ED}"/>
+    <hyperlink ref="I257" r:id="rId957" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{4721492C-F33C-4EC6-960B-18247924343B}"/>
+    <hyperlink ref="M257" r:id="rId958" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/cff3d9bb/Brighton-and-Hove-Albion-vs-Chelsea-History" xr:uid="{3075E646-7976-462E-8FD7-5E0683805D8A}"/>
+    <hyperlink ref="C258" r:id="rId959" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{5460D5C2-4483-4915-9407-72042AA5A975}"/>
+    <hyperlink ref="E258" r:id="rId960" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{DB6AEC13-F5BD-409C-A9E8-AE0644696963}"/>
+    <hyperlink ref="I258" r:id="rId961" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{7F02D34A-6373-46B9-8B62-C3FD3002E676}"/>
+    <hyperlink ref="M258" r:id="rId962" display="https://fbref.com/en/stathead/matchup/squads/8602292d/5bfb9659/Aston-Villa-vs-Leeds-United-History" xr:uid="{EA45B90B-BEF2-4A7F-9200-5E6563865C1E}"/>
+    <hyperlink ref="C259" r:id="rId963" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{D2DFC9E1-84F1-47B7-8DA3-D4BB8D8ED4A2}"/>
+    <hyperlink ref="E259" r:id="rId964" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{5023BF85-C1F6-481D-BA74-66EF2910FD8F}"/>
+    <hyperlink ref="I259" r:id="rId965" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{89CDC300-E2E8-4680-9AA9-0F0CEA6887A8}"/>
+    <hyperlink ref="M259" r:id="rId966" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/1c781004/Crystal-Palace-vs-Norwich-City-History" xr:uid="{656D9A01-CEAD-45BB-808D-951545366439}"/>
+    <hyperlink ref="C260" r:id="rId967" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{024DC353-4506-4ACE-8864-16A0E40B0A18}"/>
+    <hyperlink ref="E260" r:id="rId968" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{42A5E2E5-9FBA-442F-8A0E-9B40D0FFC1A5}"/>
+    <hyperlink ref="I260" r:id="rId969" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{0F123387-561F-4970-A52A-D4EEB60E171C}"/>
+    <hyperlink ref="M260" r:id="rId970" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/2abfe087/West-Ham-United-vs-Watford-History" xr:uid="{92A246B4-460D-4F88-A40B-6B8020C3EAA0}"/>
+    <hyperlink ref="C261" r:id="rId971" display="https://fbref.com/en/matches/2022-02-08" xr:uid="{48314312-FF88-49F7-B985-54A934C5EE6E}"/>
+    <hyperlink ref="E261" r:id="rId972" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{848DAAD9-9921-44A3-AE00-4FDEC3FA3780}"/>
+    <hyperlink ref="I261" r:id="rId973" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{ADC82DB3-1B58-4EB4-96E3-3CFB511DB90F}"/>
+    <hyperlink ref="M261" r:id="rId974" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/18bb7c10/Wolverhampton-Wanderers-vs-Arsenal-History" xr:uid="{16AC0A24-DDD5-4914-9AA8-82319FF5EC97}"/>
+    <hyperlink ref="C262" r:id="rId975" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{CEBE9EFE-BCB8-4E62-A1A8-F92AE888F1F7}"/>
+    <hyperlink ref="E262" r:id="rId976" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{5DD72FF5-DA26-4065-83EA-DDFD2AD61261}"/>
+    <hyperlink ref="I262" r:id="rId977" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{5A4FD9FE-EE2F-45FD-B15B-2B0101F646EB}"/>
+    <hyperlink ref="M262" r:id="rId978" display="https://fbref.com/en/stathead/matchup/squads/361ca564/33c895d4/Tottenham-Hotspur-vs-Southampton-History" xr:uid="{AD197677-5C9E-403E-8C37-2FB96A19138F}"/>
+    <hyperlink ref="C263" r:id="rId979" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{41E20210-A998-434C-A3D0-6BD7BC9BA32A}"/>
+    <hyperlink ref="E263" r:id="rId980" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{7EAF6F77-C206-4323-BD11-4C71146F11A3}"/>
+    <hyperlink ref="I263" r:id="rId981" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6FE44A98-8FBB-4051-AFA7-8A7199F2DC79}"/>
+    <hyperlink ref="M263" r:id="rId982" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b2b47a98/Everton-vs-Newcastle-United-History" xr:uid="{74373129-CCA6-4CCF-83DC-1CF5A4578800}"/>
+    <hyperlink ref="C264" r:id="rId983" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{4189A5B5-CF6E-4EBF-9551-779369C45423}"/>
+    <hyperlink ref="E264" r:id="rId984" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D43DA7E7-D7F1-4FF7-A773-85EDAACF3023}"/>
+    <hyperlink ref="I264" r:id="rId985" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{ADBFCB75-8DA5-4F1E-8DE5-B5D49D7B6EB6}"/>
+    <hyperlink ref="M264" r:id="rId986" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b8fd03ef/Brentford-vs-Manchester-City-History" xr:uid="{FF9F2905-A8FB-4AC3-8CBA-9B9DDC31E76B}"/>
+    <hyperlink ref="C265" r:id="rId987" display="https://fbref.com/en/matches/2022-02-09" xr:uid="{61937B67-DC38-44D3-8FE0-8A75B85EBEE8}"/>
+    <hyperlink ref="E265" r:id="rId988" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{ADE0BA6B-1E30-4709-985B-A34B0CEF25F8}"/>
+    <hyperlink ref="I265" r:id="rId989" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{3AF4BB79-3474-460A-BF4B-BB74E72EA3DE}"/>
+    <hyperlink ref="M265" r:id="rId990" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/822bd0ba/Leicester-City-vs-Liverpool-History" xr:uid="{D3B2CA92-4AA3-40DD-8935-1D0FB7377400}"/>
+    <hyperlink ref="C267" r:id="rId991" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{8AF64F97-5BC5-4505-A16B-AA3C37780131}"/>
+    <hyperlink ref="E267" r:id="rId992" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{5E69EF60-DF5A-4551-B555-618D175C4C52}"/>
+    <hyperlink ref="I267" r:id="rId993" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{F98C924E-4671-4529-893A-E1EE278076B9}"/>
+    <hyperlink ref="M267" r:id="rId994" display="https://fbref.com/en/stathead/matchup/squads/943e8050/822bd0ba/Burnley-vs-Liverpool-History" xr:uid="{97B2F3BD-7C3B-4BDE-928B-C924AF240EE6}"/>
+    <hyperlink ref="C268" r:id="rId995" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{6B3F67AE-6A70-4851-B9B4-97BD84B6B7A3}"/>
+    <hyperlink ref="E268" r:id="rId996" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{65E96A56-AAFD-4CC7-936D-7FDF6B07CDB6}"/>
+    <hyperlink ref="I268" r:id="rId997" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{822B1835-9EF8-4C8C-9AEB-B9680979D7A8}"/>
+    <hyperlink ref="M268" r:id="rId998" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/19538871/Southampton-vs-Manchester-United-History" xr:uid="{269C62A7-3583-4B09-9E30-E2CB9E409D04}"/>
+    <hyperlink ref="C269" r:id="rId999" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{ABB24ADD-636B-48CD-9C98-4FB78672C6A9}"/>
+    <hyperlink ref="E269" r:id="rId1000" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{16639EF9-A1B1-4B57-981A-B3419F3B4845}"/>
+    <hyperlink ref="I269" r:id="rId1001" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B2602F83-D945-457D-B925-2984F4F21CBF}"/>
+    <hyperlink ref="M269" r:id="rId1002" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/7c21e445/Leicester-City-vs-West-Ham-United-History" xr:uid="{499F6B26-6BBB-4063-881D-066E8B4A1353}"/>
+    <hyperlink ref="C270" r:id="rId1003" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{3058EBE1-C41A-4B26-9EEF-4D903AFD590C}"/>
+    <hyperlink ref="E270" r:id="rId1004" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{86A53DC8-3312-4851-977B-179C7C535139}"/>
+    <hyperlink ref="I270" r:id="rId1005" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{838D67D1-9D47-4EED-9B62-677E949DB494}"/>
+    <hyperlink ref="M270" r:id="rId1006" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/361ca564/Wolverhampton-Wanderers-vs-Tottenham-Hotspur-History" xr:uid="{CA4821D9-19BD-4194-ABFC-030753EA37DE}"/>
+    <hyperlink ref="C271" r:id="rId1007" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{1E284C23-3381-477F-A359-3793AEF6C1AA}"/>
+    <hyperlink ref="E271" r:id="rId1008" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{39D03B27-C2A0-4AE1-A9E5-0BD33DAB90A7}"/>
+    <hyperlink ref="I271" r:id="rId1009" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{2723F58E-CF73-4E31-8BE8-47515659BD34}"/>
+    <hyperlink ref="M271" r:id="rId1010" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8602292d/Newcastle-United-vs-Aston-Villa-History" xr:uid="{0D398125-7584-49DA-A8E9-84668BBA2F00}"/>
+    <hyperlink ref="C272" r:id="rId1011" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{3D53FA0F-02C8-45C7-8666-AA9C5EFF9834}"/>
+    <hyperlink ref="E272" r:id="rId1012" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{11E52D67-4868-40AD-AEC3-735797DB2763}"/>
+    <hyperlink ref="I272" r:id="rId1013" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{954559D3-F769-44AC-ABC2-18CD08E38D09}"/>
+    <hyperlink ref="M272" r:id="rId1014" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/5bfb9659/Everton-vs-Leeds-United-History" xr:uid="{3700BBD5-AAA4-4E50-947E-8E7111AE7C8D}"/>
+    <hyperlink ref="C273" r:id="rId1015" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{1E3109D7-C853-435C-874F-09F0BF8A41E7}"/>
+    <hyperlink ref="E273" r:id="rId1016" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2469F169-C8DC-4589-B71B-91BDD94A03C0}"/>
+    <hyperlink ref="I273" r:id="rId1017" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{1095C4C2-2628-49DD-9505-696CC9476851}"/>
+    <hyperlink ref="M273" r:id="rId1018" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/18bb7c10/North-West-London-Derby-Chelsea-vs-Arsenal-History" xr:uid="{36D9A1B4-CEA8-40A3-B823-2FA1A519B383}"/>
+    <hyperlink ref="C274" r:id="rId1019" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{A0F1D062-82B3-4E90-A645-183A37BABAC4}"/>
+    <hyperlink ref="E274" r:id="rId1020" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{302BAEE5-BA76-4604-A2CF-F6CB5E9768B1}"/>
+    <hyperlink ref="I274" r:id="rId1021" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{C85B8295-73C1-4917-A63D-22B7B6890C3D}"/>
+    <hyperlink ref="M274" r:id="rId1022" display="https://fbref.com/en/stathead/matchup/squads/cd051869/47c64c55/Brentford-vs-Crystal-Palace-History" xr:uid="{7D3AC124-D068-4D9E-8D93-14D6392DFA0C}"/>
+    <hyperlink ref="C275" r:id="rId1023" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{C6E27409-2E95-43D9-933D-B40B71DA4792}"/>
+    <hyperlink ref="E275" r:id="rId1024" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{757A77EE-EFB7-4FFA-8D0E-A313D057F436}"/>
+    <hyperlink ref="I275" r:id="rId1025" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{DC08C0CB-FE14-4EEE-8BF2-6A68AAC0DE5D}"/>
+    <hyperlink ref="M275" r:id="rId1026" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/2abfe087/Brighton-and-Hove-Albion-vs-Watford-History" xr:uid="{D1A7C640-5C1C-4ED3-A9F3-B71DA44CD2B2}"/>
+    <hyperlink ref="C276" r:id="rId1027" display="https://fbref.com/en/matches/2022-02-12" xr:uid="{208D7E2D-2723-4140-8E3B-2B10F7A5440D}"/>
+    <hyperlink ref="E276" r:id="rId1028" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{F7DB6371-6919-42A9-BEEE-932EEE1DECF3}"/>
+    <hyperlink ref="I276" r:id="rId1029" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{47101382-10EE-4A2E-83CF-4194D1057F74}"/>
+    <hyperlink ref="M276" r:id="rId1030" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/1c781004/Manchester-City-vs-Norwich-City-History" xr:uid="{B9F44C9B-84ED-470E-9817-1FF4F1B1F7BE}"/>
+    <hyperlink ref="C278" r:id="rId1031" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{B053D379-BCF2-48F9-ABF6-E641D1868988}"/>
+    <hyperlink ref="E278" r:id="rId1032" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{BB598992-9A07-4EDD-9108-24D5F72E2AE6}"/>
+    <hyperlink ref="I278" r:id="rId1033" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{6ED2A47F-53EF-455A-B31E-13E0988EC9E9}"/>
+    <hyperlink ref="M278" r:id="rId1034" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/19538871/Leeds-United-vs-Manchester-United-History" xr:uid="{481CC795-E66E-4902-B43E-FDA49181439B}"/>
+    <hyperlink ref="C279" r:id="rId1035" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{33213E75-2EE1-4C52-85BA-46A95F11B052}"/>
+    <hyperlink ref="E279" r:id="rId1036" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{22931437-54F4-4896-BA42-297AF4002C96}"/>
+    <hyperlink ref="I279" r:id="rId1037" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{A683B131-7E37-41DD-B121-E784162A4BB6}"/>
+    <hyperlink ref="M279" r:id="rId1038" display="https://fbref.com/en/stathead/matchup/squads/8602292d/2abfe087/Aston-Villa-vs-Watford-History" xr:uid="{5392835B-372B-4EED-ACE5-8BC313E0D581}"/>
+    <hyperlink ref="C280" r:id="rId1039" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{08DAE214-6F09-438E-8602-A6882A829660}"/>
+    <hyperlink ref="E280" r:id="rId1040" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{2233D241-F425-4458-991B-3BFC26BB8E0A}"/>
+    <hyperlink ref="I280" r:id="rId1041" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{23151A21-B199-4BA7-B416-2D44C5A2894D}"/>
+    <hyperlink ref="M280" r:id="rId1042" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/33c895d4/Everton-vs-Southampton-History" xr:uid="{A2A2D4F3-8CEF-49DC-9D25-04F947E8C04E}"/>
+    <hyperlink ref="C281" r:id="rId1043" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{E0C5D84D-E976-4640-8110-4509691DB65C}"/>
+    <hyperlink ref="E281" r:id="rId1044" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5D7F4715-8C7B-4DB3-AFC8-21F26AE10092}"/>
+    <hyperlink ref="I281" r:id="rId1045" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{7DC1479F-2C30-45A2-BFC0-DBA48D26D0F2}"/>
+    <hyperlink ref="M281" r:id="rId1046" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/361ca564/Manchester-City-vs-Tottenham-Hotspur-History" xr:uid="{D808560F-C0C1-43F4-8E95-F34BB1D2F7E2}"/>
+    <hyperlink ref="C282" r:id="rId1047" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{5A02602B-08DB-4F6E-A552-21BE5036BF66}"/>
+    <hyperlink ref="E282" r:id="rId1048" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{7DE24BEE-F708-49C6-BCC9-E2FF376705C3}"/>
+    <hyperlink ref="I282" r:id="rId1049" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{CD07EB7A-0CFB-4511-B9EC-BE40245191B0}"/>
+    <hyperlink ref="M282" r:id="rId1050" display="https://fbref.com/en/stathead/matchup/squads/cd051869/18bb7c10/Brentford-vs-Arsenal-History" xr:uid="{21F1650E-B7E5-4D80-8FD4-068FECEC1197}"/>
+    <hyperlink ref="C283" r:id="rId1051" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{49565AD6-73AE-49B0-9CC5-7DEBC37DC901}"/>
+    <hyperlink ref="E283" r:id="rId1052" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{45202302-B2F1-40E4-BB56-4AA24DDBB492}"/>
+    <hyperlink ref="I283" r:id="rId1053" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{074AAA41-C475-4E9A-AA65-845BCCA25107}"/>
+    <hyperlink ref="M283" r:id="rId1054" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/1c781004/Liverpool-vs-Norwich-City-History" xr:uid="{C75FE090-6F19-4D98-BE13-EB484FC14349}"/>
+    <hyperlink ref="C284" r:id="rId1055" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{EC6F803A-8D26-4C6D-AEA8-09B98948654B}"/>
+    <hyperlink ref="E284" r:id="rId1056" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{237C10E5-4F11-47A1-A4C7-F7442219BCE0}"/>
+    <hyperlink ref="I284" r:id="rId1057" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{40F3E9BB-1F0D-4EB3-AA22-F61B1FDA04B2}"/>
+    <hyperlink ref="M284" r:id="rId1058" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/47c64c55/Chelsea-vs-Crystal-Palace-History" xr:uid="{66432174-9851-4E73-99C9-523864E26E26}"/>
+    <hyperlink ref="C285" r:id="rId1059" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{536DADEF-3C5A-42F8-A223-8BD99C17E24D}"/>
+    <hyperlink ref="E285" r:id="rId1060" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{BEF893C9-881C-45B0-BFEF-757F042CB8E7}"/>
+    <hyperlink ref="I285" r:id="rId1061" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{5D729013-0E4D-4F97-BDA6-A164B7B99BC1}"/>
+    <hyperlink ref="M285" r:id="rId1062" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8cec06e1/Leicester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{70A6B6F2-EE51-49FF-A2D6-680DA081CA28}"/>
+    <hyperlink ref="C286" r:id="rId1063" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{6895525E-DF45-463D-83BD-8A21D8291E7B}"/>
+    <hyperlink ref="E286" r:id="rId1064" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{E6F2D0C5-ED97-44DA-B1C8-68A3F135AA06}"/>
+    <hyperlink ref="I286" r:id="rId1065" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{666D5094-300E-427C-9405-89FD5304E647}"/>
+    <hyperlink ref="M286" r:id="rId1066" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/7c21e445/Newcastle-United-vs-West-Ham-United-History" xr:uid="{497AE36A-853A-4701-8AC3-2E811E144C32}"/>
+    <hyperlink ref="C287" r:id="rId1067" display="https://fbref.com/en/matches/2022-02-19" xr:uid="{170E5454-1559-4E9E-AB25-383E49FBD2BC}"/>
+    <hyperlink ref="E287" r:id="rId1068" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{93D7417B-EF71-43EB-A9D7-FB8461E2D08C}"/>
+    <hyperlink ref="I287" r:id="rId1069" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{E23BD138-43BE-4892-A98A-8B277432660E}"/>
+    <hyperlink ref="M287" r:id="rId1070" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/943e8050/Brighton-and-Hove-Albion-vs-Burnley-History" xr:uid="{5DA44B53-FF2D-47F0-9979-41E165E88469}"/>
+    <hyperlink ref="C289" r:id="rId1071" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{DC7D17E8-B246-4D39-983D-418E1C41383F}"/>
+    <hyperlink ref="E289" r:id="rId1072" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{77120F6F-E6E0-4C90-8311-67B813D4E754}"/>
+    <hyperlink ref="I289" r:id="rId1073" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{EE97BE98-CC5B-4D43-B9D5-FEDACA41D9B6}"/>
+    <hyperlink ref="M289" r:id="rId1074" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8602292d/Brighton-and-Hove-Albion-vs-Aston-Villa-History" xr:uid="{5C244147-64B8-4817-B23F-6C3DE3AE880C}"/>
+    <hyperlink ref="C290" r:id="rId1075" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{17605181-F938-4A09-A8B6-CA2375DB7FD2}"/>
+    <hyperlink ref="E290" r:id="rId1076" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{BFCA7242-26C5-41F5-813E-BEAA789A9E1B}"/>
+    <hyperlink ref="I290" r:id="rId1077" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{3BE76F1A-B60A-47B1-9C2E-9A483EF0A13B}"/>
+    <hyperlink ref="M290" r:id="rId1078" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/b8fd03ef/Everton-vs-Manchester-City-History" xr:uid="{03B14662-18E1-424F-A307-E5FE51AF12C4}"/>
+    <hyperlink ref="C291" r:id="rId1079" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{AC83B73C-ED6E-4379-9FEC-26FF10FA2DB7}"/>
+    <hyperlink ref="E291" r:id="rId1080" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{CE59AB43-2969-4340-9FBA-A8C4B0028615}"/>
+    <hyperlink ref="I291" r:id="rId1081" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{98C87A55-B936-41BB-A192-9B55BFD60787}"/>
+    <hyperlink ref="M291" r:id="rId1082" display="https://fbref.com/en/stathead/matchup/squads/cd051869/b2b47a98/Brentford-vs-Newcastle-United-History" xr:uid="{06C970F2-62D1-43E0-9798-5129071BAB00}"/>
+    <hyperlink ref="C292" r:id="rId1083" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{9FA86C4E-4478-48AE-9B4A-55030FF1F0C0}"/>
+    <hyperlink ref="E292" r:id="rId1084" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{73B15D76-EAAC-473B-9257-5B2D54E5E479}"/>
+    <hyperlink ref="I292" r:id="rId1085" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6CDFBCF3-4369-4F0F-B1FC-D3A2BC1F40A6}"/>
+    <hyperlink ref="M292" r:id="rId1086" display="https://fbref.com/en/stathead/matchup/squads/943e8050/47c64c55/Burnley-vs-Crystal-Palace-History" xr:uid="{63C9D224-EE2A-4C3C-963D-A6BFE12D124F}"/>
+    <hyperlink ref="C293" r:id="rId1087" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{1102835B-5CFD-42CF-9681-7C5971F4A18C}"/>
+    <hyperlink ref="E293" r:id="rId1088" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{6AEF69B8-D14D-4BB0-B113-C2E063210A22}"/>
+    <hyperlink ref="I293" r:id="rId1089" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{81085865-C6A0-4FF8-8ED3-13721D3AA51C}"/>
+    <hyperlink ref="M293" r:id="rId1090" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/7c21e445/Wolverhampton-Wanderers-vs-West-Ham-United-History" xr:uid="{B2876EAA-7320-4816-AD50-5C65AC41A98F}"/>
+    <hyperlink ref="C294" r:id="rId1091" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{FF794048-E27C-46F2-B2A3-C6D81BAC617A}"/>
+    <hyperlink ref="E294" r:id="rId1092" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{21B03B0C-46E2-4839-B0BA-15FD472D7024}"/>
+    <hyperlink ref="I294" r:id="rId1093" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{7C2DCD2A-D91C-402A-895E-B2BC2F57E173}"/>
+    <hyperlink ref="M294" r:id="rId1094" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/19538871/Watford-vs-Manchester-United-History" xr:uid="{779C609B-71CF-4E68-AB19-D566A69F9717}"/>
+    <hyperlink ref="C295" r:id="rId1095" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{2A433AC8-F4D8-4B2F-8DE3-06793E51E908}"/>
+    <hyperlink ref="E295" r:id="rId1096" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{2F7B4F6E-BDE0-46AF-84B9-7A740612F585}"/>
+    <hyperlink ref="I295" r:id="rId1097" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{8DBC5F34-216A-4E40-8B20-D73D334E2BB6}"/>
+    <hyperlink ref="M295" r:id="rId1098" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/18bb7c10/Liverpool-vs-Arsenal-History" xr:uid="{4B40C0F3-1F48-4D10-AC75-377B786AF098}"/>
+    <hyperlink ref="C296" r:id="rId1099" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{3C4C26EA-D347-4139-8706-82A997FAF7AD}"/>
+    <hyperlink ref="E296" r:id="rId1100" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{BCC11D1B-3AB1-439D-B356-8BE3D8FFDCFD}"/>
+    <hyperlink ref="I296" r:id="rId1101" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{06CD5DE7-212F-47CC-9B90-AC3B6DB74097}"/>
+    <hyperlink ref="M296" r:id="rId1102" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/1c781004/Southampton-vs-Norwich-City-History" xr:uid="{75455CB1-843D-41EA-96A6-191352F6BC67}"/>
+    <hyperlink ref="C297" r:id="rId1103" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{576C4709-ABE3-4168-98B4-7FF51F4C221C}"/>
+    <hyperlink ref="E297" r:id="rId1104" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{9F473B8C-BFD7-433C-B173-527EBF627493}"/>
+    <hyperlink ref="I297" r:id="rId1105" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{59529ED3-337C-445A-888E-54E34533F1A0}"/>
+    <hyperlink ref="M297" r:id="rId1106" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/a2d435b3/Chelsea-vs-Leicester-City-History" xr:uid="{6235664C-B2AE-4737-ACA1-A1E347979E99}"/>
+    <hyperlink ref="C298" r:id="rId1107" display="https://fbref.com/en/matches/2022-02-26" xr:uid="{9EB702AC-232C-4D35-8952-51CF59087D8E}"/>
+    <hyperlink ref="E298" r:id="rId1108" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{24D20636-7A95-4693-971B-578174E2D592}"/>
+    <hyperlink ref="I298" r:id="rId1109" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{D209FBC0-7FD5-4101-B141-AEABBD0BBA2C}"/>
+    <hyperlink ref="M298" r:id="rId1110" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/361ca564/Leeds-United-vs-Tottenham-Hotspur-History" xr:uid="{35686E08-82BA-455A-BF48-9E4BAEC92872}"/>
+    <hyperlink ref="C300" r:id="rId1111" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{994867E5-38AF-4D34-8193-F29DE0281C57}"/>
+    <hyperlink ref="E300" r:id="rId1112" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{9BCDC4C0-B3A0-4063-AAC8-9E226EF16DD0}"/>
+    <hyperlink ref="I300" r:id="rId1113" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{C45DB062-D80C-446B-9CD8-F3EE2B2CF024}"/>
+    <hyperlink ref="M300" r:id="rId1114" display="https://fbref.com/en/stathead/matchup/squads/2abfe087/18bb7c10/Watford-vs-Arsenal-History" xr:uid="{D50AD285-F812-4673-9700-C90F63FCA0C9}"/>
+    <hyperlink ref="C301" r:id="rId1115" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{C2D6F8EF-B731-461C-93E3-BD6A6372A93E}"/>
+    <hyperlink ref="E301" r:id="rId1116" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{642230B3-9C49-40BF-A76B-D91F4C19E562}"/>
+    <hyperlink ref="I301" r:id="rId1117" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{06761022-2BC5-4C04-ABE4-637366AC679C}"/>
+    <hyperlink ref="M301" r:id="rId1118" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/5bfb9659/Leicester-City-vs-Leeds-United-History" xr:uid="{0513C838-0269-4709-90FD-9FAC593F3C62}"/>
+    <hyperlink ref="C302" r:id="rId1119" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9BDEC0FE-C61A-40E6-84CB-99594B44081F}"/>
+    <hyperlink ref="E302" r:id="rId1120" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{00AF9A9E-D334-46A1-BB12-02B0B3C3CB84}"/>
+    <hyperlink ref="I302" r:id="rId1121" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{AD01D02E-69AF-49C0-B968-81E8E15DB32C}"/>
+    <hyperlink ref="M302" r:id="rId1122" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/7c21e445/Liverpool-vs-West-Ham-United-History" xr:uid="{F3EA5EB4-A269-49A4-A94D-CCF1EDE1DE4B}"/>
+    <hyperlink ref="C303" r:id="rId1123" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{0C572F10-149B-4A15-B921-F45EE493F5EE}"/>
+    <hyperlink ref="E303" r:id="rId1124" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{DA899043-92EC-47C8-A433-172C0E5B2700}"/>
+    <hyperlink ref="I303" r:id="rId1125" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CFE352DC-52D2-4A7F-A1A1-D936FD651AC9}"/>
+    <hyperlink ref="M303" r:id="rId1126" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/19538871/Manchester-Derby-Manchester-City-vs-Manchester-United-History" xr:uid="{53A240DC-2756-4C55-B2AD-AA4F4F182E43}"/>
+    <hyperlink ref="C304" r:id="rId1127" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{297A7A57-E695-4AA9-93ED-C8D22770BF74}"/>
+    <hyperlink ref="E304" r:id="rId1128" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{752BA62A-47B1-4597-9A38-FDD0B2A04FAA}"/>
+    <hyperlink ref="I304" r:id="rId1129" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{27ED4230-F18D-405B-8B3B-3F8F878B17D7}"/>
+    <hyperlink ref="M304" r:id="rId1130" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/943e8050/Chelsea-vs-Burnley-History" xr:uid="{69ECA0C6-14EB-4873-AA44-305E186A75C5}"/>
+    <hyperlink ref="C305" r:id="rId1131" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9AD488C0-44D4-4719-AEE9-38FCEDB0B2DC}"/>
+    <hyperlink ref="E305" r:id="rId1132" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{BFCA796F-FC04-4AD0-9CDC-EC17C90B67E7}"/>
+    <hyperlink ref="I305" r:id="rId1133" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{1DBA82B1-5413-4845-AE17-B2738CDF3C9D}"/>
+    <hyperlink ref="M305" r:id="rId1134" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/47c64c55/Wolverhampton-Wanderers-vs-Crystal-Palace-History" xr:uid="{56C3AEE5-BE86-4199-88BD-09F4418CEF25}"/>
+    <hyperlink ref="C306" r:id="rId1135" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{72B6391B-65F2-4881-9652-F50C118814AA}"/>
+    <hyperlink ref="E306" r:id="rId1136" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{F5210FE3-7070-4965-AB1D-88A89196E20C}"/>
+    <hyperlink ref="I306" r:id="rId1137" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{DBA27830-9CCB-4A32-8CBC-E87D73B25978}"/>
+    <hyperlink ref="M306" r:id="rId1138" display="https://fbref.com/en/stathead/matchup/squads/cd051869/1c781004/Brentford-vs-Norwich-City-History" xr:uid="{8BE3FEC8-09D3-493F-BBEA-0FE8D496C472}"/>
+    <hyperlink ref="C307" r:id="rId1139" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{C75B397D-5F03-4AC0-9282-1E33CEF56D74}"/>
+    <hyperlink ref="E307" r:id="rId1140" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{A8E7878C-7A27-48B2-B608-0FD4CD0FA80B}"/>
+    <hyperlink ref="I307" r:id="rId1141" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{512E3937-BDF4-4745-BBBA-29076212A4A2}"/>
+    <hyperlink ref="M307" r:id="rId1142" display="https://fbref.com/en/stathead/matchup/squads/8602292d/33c895d4/Aston-Villa-vs-Southampton-History" xr:uid="{9E99E46D-7314-42D3-892B-B262FF3982F1}"/>
+    <hyperlink ref="C308" r:id="rId1143" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{9DBE228D-43BE-45AB-82BA-FB574F5A8E7A}"/>
+    <hyperlink ref="E308" r:id="rId1144" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{E6DA6DE9-DCFA-4B20-9C54-011B47CA7F39}"/>
+    <hyperlink ref="I308" r:id="rId1145" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4B0B5B68-BE30-4017-8D90-681B62829BCC}"/>
+    <hyperlink ref="M308" r:id="rId1146" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b2b47a98/Brighton-and-Hove-Albion-vs-Newcastle-United-History" xr:uid="{250A9EFE-1AAE-4CE0-A217-C3C7172F5DCE}"/>
+    <hyperlink ref="C309" r:id="rId1147" display="https://fbref.com/en/matches/2022-03-05" xr:uid="{44E32C5C-E7D2-4743-9AEC-DD683806E42D}"/>
+    <hyperlink ref="E309" r:id="rId1148" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{F58FE047-24FB-4CAE-BE84-718ABB7E9144}"/>
+    <hyperlink ref="I309" r:id="rId1149" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{F937A8D5-BCCF-4AC3-B88C-490ACBBBF3F6}"/>
+    <hyperlink ref="M309" r:id="rId1150" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/361ca564/Everton-vs-Tottenham-Hotspur-History" xr:uid="{2C6C0154-3505-4896-B2CA-3DC917662767}"/>
+    <hyperlink ref="C311" r:id="rId1151" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{FCFB22BB-86D6-481F-B5FC-06E6873DDB2E}"/>
+    <hyperlink ref="E311" r:id="rId1152" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{8450313E-9E40-426F-A357-B70AB8650DB5}"/>
+    <hyperlink ref="I311" r:id="rId1153" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{2A6113F3-D543-46A2-BDD5-6CB629D02E28}"/>
+    <hyperlink ref="M311" r:id="rId1154" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/822bd0ba/Brighton-and-Hove-Albion-vs-Liverpool-History" xr:uid="{3BEF7DAD-D9D8-4667-A4FA-D12C541694C8}"/>
+    <hyperlink ref="C312" r:id="rId1155" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{384C208F-7072-4A62-B313-86606B34C02A}"/>
+    <hyperlink ref="E312" r:id="rId1156" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{26A36372-0EA4-4371-BC19-1DD528BBF94D}"/>
+    <hyperlink ref="I312" r:id="rId1157" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8638BFF8-85E3-41F3-AB7D-CA961D6E508A}"/>
+    <hyperlink ref="M312" r:id="rId1158" display="https://fbref.com/en/stathead/matchup/squads/361ca564/19538871/Tottenham-Hotspur-vs-Manchester-United-History" xr:uid="{D8A22CA0-3E32-48F6-80BC-7134E0B88A23}"/>
+    <hyperlink ref="C313" r:id="rId1159" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{1539E37D-4E23-4681-BA9A-7C7D58B50A95}"/>
+    <hyperlink ref="E313" r:id="rId1160" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{22BD6C84-69DE-443B-95FD-7076548A612E}"/>
+    <hyperlink ref="I313" r:id="rId1161" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{F2BC021B-EFB0-4229-9ADD-E45D8138855A}"/>
+    <hyperlink ref="M313" r:id="rId1162" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/18bb7c10/Leicester-City-vs-Arsenal-History" xr:uid="{185A9C70-527A-496C-A54E-656C393C2E2F}"/>
+    <hyperlink ref="C314" r:id="rId1163" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{F7B05E7C-E2A5-4004-A7BA-65DAEFA060DF}"/>
+    <hyperlink ref="E314" r:id="rId1164" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{C8362D20-3068-40CC-BA8B-53EA22E57FB4}"/>
+    <hyperlink ref="I314" r:id="rId1165" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{2899FFEA-DBFC-43FA-AD94-B17B9D3ACA37}"/>
+    <hyperlink ref="M314" r:id="rId1166" display="https://fbref.com/en/stathead/matchup/squads/cd051869/943e8050/Brentford-vs-Burnley-History" xr:uid="{C4DD589C-F9DA-4156-8466-EE6AB036264F}"/>
+    <hyperlink ref="C315" r:id="rId1167" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{70BDCAC2-6EDF-4BD7-98A2-947EDEDD7728}"/>
+    <hyperlink ref="E315" r:id="rId1168" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{5B0A7299-2409-439B-82C2-7BD0E056D4D0}"/>
+    <hyperlink ref="I315" r:id="rId1169" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{C30F7097-0AF5-4C23-A779-A9AF6008E13E}"/>
+    <hyperlink ref="M315" r:id="rId1170" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/8cec06e1/Everton-vs-Wolverhampton-Wanderers-History" xr:uid="{1971586C-245F-43C0-83F2-A245592996AE}"/>
+    <hyperlink ref="C316" r:id="rId1171" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{9A1D330D-EA4A-4FFA-859C-72079570C962}"/>
+    <hyperlink ref="E316" r:id="rId1172" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{5FC304E4-2AC5-48CC-BD47-903F90D61C25}"/>
+    <hyperlink ref="I316" r:id="rId1173" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{30D9B29B-7270-4AA1-A40B-EBCE9E10F378}"/>
+    <hyperlink ref="M316" r:id="rId1174" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/2abfe087/Southampton-vs-Watford-History" xr:uid="{2819A51B-8A84-41FE-BA7E-344B7BAE61E9}"/>
+    <hyperlink ref="C317" r:id="rId1175" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{06C04A1C-6CEC-4600-98DC-95DEF6648F23}"/>
+    <hyperlink ref="E317" r:id="rId1176" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F9D7A205-F90C-47A9-A2DE-16B99AD42930}"/>
+    <hyperlink ref="I317" r:id="rId1177" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{731AE2B1-451C-4211-8AA8-BC3BA12772DA}"/>
+    <hyperlink ref="M317" r:id="rId1178" display="https://fbref.com/en/stathead/matchup/squads/8602292d/7c21e445/Aston-Villa-vs-West-Ham-United-History" xr:uid="{E1DDD290-4F6F-4103-9547-09C69841E682}"/>
+    <hyperlink ref="C318" r:id="rId1179" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{344986C1-6463-4CEB-B99F-FF44DE0FCC6A}"/>
+    <hyperlink ref="E318" r:id="rId1180" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{2327B5CF-24DF-43FC-8596-5A0A05C411FC}"/>
+    <hyperlink ref="I318" r:id="rId1181" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{C0C064E1-1EB3-4DAE-B3C7-00CB7CF8E882}"/>
+    <hyperlink ref="M318" r:id="rId1182" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/47c64c55/Manchester-City-vs-Crystal-Palace-History" xr:uid="{7C276CCF-5E4C-40B9-86A0-42DC354CBD8C}"/>
+    <hyperlink ref="C319" r:id="rId1183" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{9630FCF8-6B70-4F37-896E-60CFEB48D400}"/>
+    <hyperlink ref="E319" r:id="rId1184" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{C012FFB2-A007-4758-AD3F-3D91AD7942DA}"/>
+    <hyperlink ref="I319" r:id="rId1185" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{EA0905FF-94E5-49C9-9078-4903142CD0FC}"/>
+    <hyperlink ref="M319" r:id="rId1186" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/b2b47a98/Chelsea-vs-Newcastle-United-History" xr:uid="{001792D3-DDB0-46C8-A8B9-EB58255E79B6}"/>
+    <hyperlink ref="C320" r:id="rId1187" display="https://fbref.com/en/matches/2022-03-12" xr:uid="{87EBB972-254F-43EE-BA22-F607B1A87AD7}"/>
+    <hyperlink ref="E320" r:id="rId1188" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{ADA0CBA2-D30B-404F-9E84-7821902CAD26}"/>
+    <hyperlink ref="I320" r:id="rId1189" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{2B1920A7-8AD6-4C4C-88F2-99E71EF97FB1}"/>
+    <hyperlink ref="M320" r:id="rId1190" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History" xr:uid="{BB4DD044-DE71-4F6D-BE54-90C82F7A67B4}"/>
+    <hyperlink ref="C322" r:id="rId1191" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{77E1690C-02E9-42B9-BDDD-AC121346B6DF}"/>
+    <hyperlink ref="E322" r:id="rId1192" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{95F64871-3188-4301-8944-7D246A4A4606}"/>
+    <hyperlink ref="I322" r:id="rId1193" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{F9D7F660-A446-46D2-B6F2-0D69E9CC5952}"/>
+    <hyperlink ref="M322" r:id="rId1194" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/47c64c55/Newcastle-United-vs-Crystal-Palace-History" xr:uid="{693C5775-AA3E-4BBD-BC76-BF07F6DC9D6C}"/>
+    <hyperlink ref="C323" r:id="rId1195" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{9D5D3275-C49D-40B0-AF87-581626B5BBD4}"/>
+    <hyperlink ref="E323" r:id="rId1196" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{981E3648-B840-4400-89E1-ED7A36B5A1D7}"/>
+    <hyperlink ref="I323" r:id="rId1197" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{3EE3F769-6D48-4E2D-8749-BBFF37BD3473}"/>
+    <hyperlink ref="M323" r:id="rId1198" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/1c781004/Chelsea-vs-Norwich-City-History" xr:uid="{F48AC299-35F2-4E42-A26A-3F58F5B10507}"/>
+    <hyperlink ref="C324" r:id="rId1199" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{723AC564-4248-4162-8E27-2B41FBDEEC8E}"/>
+    <hyperlink ref="E324" r:id="rId1200" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{CD59DEEE-F218-4C8E-8659-6BD4C68537DD}"/>
+    <hyperlink ref="I324" r:id="rId1201" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{FCF7CBCC-097E-40BD-BE53-890B5426280F}"/>
+    <hyperlink ref="M324" r:id="rId1202" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/2abfe087/Everton-vs-Watford-History" xr:uid="{12BB8626-3FDE-4068-B38F-8A0B6F94BD74}"/>
+    <hyperlink ref="C325" r:id="rId1203" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{FFFBCAF2-6E8F-4B80-AD9A-277F37443656}"/>
+    <hyperlink ref="E325" r:id="rId1204" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{4716EC2A-1E0C-4DFA-BF38-C06CC8A39CD0}"/>
+    <hyperlink ref="I325" r:id="rId1205" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{C04D5C1B-4922-4BB3-9B0F-E9B6D00DB2A4}"/>
+    <hyperlink ref="M325" r:id="rId1206" display="https://fbref.com/en/stathead/matchup/squads/8602292d/18bb7c10/Aston-Villa-vs-Arsenal-History" xr:uid="{8D3404A7-5917-4B8D-B80C-154F79A864EA}"/>
+    <hyperlink ref="C326" r:id="rId1207" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{49D99EC0-7E9B-4284-8471-4D47BC1BB262}"/>
+    <hyperlink ref="E326" r:id="rId1208" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{F0C469B2-9BB9-4814-869E-A8DCB613123D}"/>
+    <hyperlink ref="I326" r:id="rId1209" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{457602AB-02AF-4356-ABF6-E1E2CA1261ED}"/>
+    <hyperlink ref="M326" r:id="rId1210" display="https://fbref.com/en/stathead/matchup/squads/cd051869/a2d435b3/Brentford-vs-Leicester-City-History" xr:uid="{54263D3E-30B7-4ECA-9342-6ED96F41BEE3}"/>
+    <hyperlink ref="C327" r:id="rId1211" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{AEF9AA87-5532-4F87-8CC2-C701296C4C5D}"/>
+    <hyperlink ref="E327" r:id="rId1212" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{41A811F3-7D7C-485D-88B1-1D26695FC663}"/>
+    <hyperlink ref="I327" r:id="rId1213" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{E2C31A11-33F1-4038-A12D-7991229CD4DE}"/>
+    <hyperlink ref="M327" r:id="rId1214" display="https://fbref.com/en/stathead/matchup/squads/943e8050/33c895d4/Burnley-vs-Southampton-History" xr:uid="{B9179152-9D91-4125-9624-BB8FFDC0C8B3}"/>
+    <hyperlink ref="C328" r:id="rId1215" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{FC76E964-5E20-4DF5-82DC-58DA88840317}"/>
+    <hyperlink ref="E328" r:id="rId1216" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D7F221F1-F798-4A36-A586-C35D2183FDBA}"/>
+    <hyperlink ref="I328" r:id="rId1217" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{E4C5E2AF-95B6-4678-80BE-56312044A514}"/>
+    <hyperlink ref="M328" r:id="rId1218" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/b8fd03ef/Brighton-and-Hove-Albion-vs-Manchester-City-History" xr:uid="{CEE5D69B-849B-4505-B575-35085D9F34E3}"/>
+    <hyperlink ref="C329" r:id="rId1219" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{941D0117-39A1-4AA3-A27A-7F0B586B2472}"/>
+    <hyperlink ref="E329" r:id="rId1220" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{0EF5F0E6-EE71-450A-8749-46E031410282}"/>
+    <hyperlink ref="I329" r:id="rId1221" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{2942D308-591B-4881-A45D-1FC8493B8ED1}"/>
+    <hyperlink ref="M329" r:id="rId1222" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/361ca564/West-Ham-United-vs-Tottenham-Hotspur-History" xr:uid="{C0D8C8D3-C7CF-40D0-B8E0-0889499C23EA}"/>
+    <hyperlink ref="C330" r:id="rId1223" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{CF6DC8EF-2755-467C-A22A-DEB1E1580A39}"/>
+    <hyperlink ref="E330" r:id="rId1224" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{D6E6442C-0CEB-494A-BEF9-44BCFA6C871F}"/>
+    <hyperlink ref="I330" r:id="rId1225" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{B64EF729-8ABF-49B0-80B9-E7F928EE0645}"/>
+    <hyperlink ref="M330" r:id="rId1226" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/5bfb9659/Wolverhampton-Wanderers-vs-Leeds-United-History" xr:uid="{2A4A1703-B71F-4F28-B500-7E7C127DA012}"/>
+    <hyperlink ref="C331" r:id="rId1227" display="https://fbref.com/en/matches/2022-03-19" xr:uid="{432B1452-8589-454D-A62A-495200523E82}"/>
+    <hyperlink ref="E331" r:id="rId1228" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{BF68EFFF-2D66-4BF6-9CE1-A74C20819F6D}"/>
+    <hyperlink ref="I331" r:id="rId1229" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{32841FBC-AF1B-4D1D-9EF0-3B455DB52049}"/>
+    <hyperlink ref="M331" r:id="rId1230" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/19538871/North-West-Derby-Liverpool-vs-Manchester-United-History" xr:uid="{E7BFE384-9C30-42BE-9610-7BE2A9A7BFD6}"/>
+    <hyperlink ref="C333" r:id="rId1231" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{17741424-A2FA-4DC3-B55C-2C0475F10DAE}"/>
+    <hyperlink ref="E333" r:id="rId1232" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{DEA1AFD9-D31A-463F-B523-BD1DEDA39D19}"/>
+    <hyperlink ref="I333" r:id="rId1233" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{4E620ACA-7F4C-41AD-BA75-CDAEE65041A7}"/>
+    <hyperlink ref="M333" r:id="rId1234" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/cd051869/Chelsea-vs-Brentford-History" xr:uid="{F1E7F80A-D3EB-4B72-8E76-0487DDF4B50F}"/>
+    <hyperlink ref="C334" r:id="rId1235" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{BA96518C-B004-443A-B2CF-85565E0B8672}"/>
+    <hyperlink ref="E334" r:id="rId1236" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{88F32A9F-FE38-4233-BB95-EF07AD9E3631}"/>
+    <hyperlink ref="I334" r:id="rId1237" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6BC77D31-9A3F-49C9-91C1-B4E9278030D5}"/>
+    <hyperlink ref="M334" r:id="rId1238" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/361ca564/Newcastle-United-vs-Tottenham-Hotspur-History" xr:uid="{72064D6E-FE3F-4B26-A6B3-FB8BFD2AC1B5}"/>
+    <hyperlink ref="C335" r:id="rId1239" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{6956E5B7-7D14-415B-892F-F4ABB70E9F46}"/>
+    <hyperlink ref="E335" r:id="rId1240" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{73F0E78C-9937-4465-BDF7-7A1EE0696B38}"/>
+    <hyperlink ref="I335" r:id="rId1241" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{1F4B0896-4161-45A8-BA7F-4480F21C5EE2}"/>
+    <hyperlink ref="M335" r:id="rId1242" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/7c21e445/Everton-vs-West-Ham-United-History" xr:uid="{B01F5B63-2DB6-4AF5-BB2F-AFFD9271E21C}"/>
+    <hyperlink ref="C336" r:id="rId1243" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{483CC909-E97F-4996-BE3B-01A078334744}"/>
+    <hyperlink ref="E336" r:id="rId1244" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{90D91765-806F-423B-8635-A874B0AA3C12}"/>
+    <hyperlink ref="I336" r:id="rId1245" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{32F9DF7E-8214-4FDA-8490-63483F57800F}"/>
+    <hyperlink ref="M336" r:id="rId1246" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/8602292d/Wolverhampton-Wanderers-vs-Aston-Villa-History" xr:uid="{5580A731-E08C-480A-AF15-FF7D5CF1FD46}"/>
+    <hyperlink ref="C337" r:id="rId1247" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{3B7E38E3-1928-4D20-B200-7BB93CE10327}"/>
+    <hyperlink ref="E337" r:id="rId1248" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{729A4640-97E7-4E3D-86AE-7B8D9B82486C}"/>
+    <hyperlink ref="I337" r:id="rId1249" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{EA073543-F79B-4A00-A5AF-A1912AAADE7F}"/>
+    <hyperlink ref="M337" r:id="rId1250" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/33c895d4/Leeds-United-vs-Southampton-History" xr:uid="{7913337F-F283-4B8E-8268-E7E3512D932F}"/>
+    <hyperlink ref="C338" r:id="rId1251" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{F1D1A0DF-DABB-480F-854B-A62C6B73FF35}"/>
+    <hyperlink ref="E338" r:id="rId1252" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{297636FE-9304-445C-9EA7-D6C9957EF81E}"/>
+    <hyperlink ref="I338" r:id="rId1253" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{117256B0-6446-4B9A-A603-6F69337325F9}"/>
+    <hyperlink ref="M338" r:id="rId1254" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/1c781004/Brighton-and-Hove-Albion-vs-Norwich-City-History" xr:uid="{F310A4FC-134A-4336-B847-6484F0F11AB1}"/>
+    <hyperlink ref="C339" r:id="rId1255" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{84292A59-DD65-4D2D-9715-9972E9B3D1E9}"/>
+    <hyperlink ref="E339" r:id="rId1256" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{8229D5B7-719E-4ABA-AF6C-0A9AEE8B5DD6}"/>
+    <hyperlink ref="I339" r:id="rId1257" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{4B183F05-71CD-4421-B153-3DC417CE760F}"/>
+    <hyperlink ref="M339" r:id="rId1258" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/19538871/Leicester-City-vs-Manchester-United-History" xr:uid="{8066B0BE-AA35-4276-A220-E7D2AC01779D}"/>
+    <hyperlink ref="C340" r:id="rId1259" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{D40BFE2F-8140-4BF6-81D0-C86F9FB314DD}"/>
+    <hyperlink ref="E340" r:id="rId1260" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9B2AA57D-D883-4DEE-9070-801B1AE939D5}"/>
+    <hyperlink ref="I340" r:id="rId1261" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C8D7A998-585F-42AD-BCCF-0342A58F3B14}"/>
+    <hyperlink ref="M340" r:id="rId1262" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/2abfe087/Liverpool-vs-Watford-History" xr:uid="{B4AE2D44-3904-4ED3-83FA-B2114164AEEE}"/>
+    <hyperlink ref="C341" r:id="rId1263" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{3952E169-B79E-443C-ABB2-ECA7585345F9}"/>
+    <hyperlink ref="E341" r:id="rId1264" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{71FCB414-231A-4345-BE77-9CAADE3B4BDD}"/>
+    <hyperlink ref="I341" r:id="rId1265" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{5E776D8A-48AB-492F-9DA0-303DA05971C9}"/>
+    <hyperlink ref="M341" r:id="rId1266" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/943e8050/Manchester-City-vs-Burnley-History" xr:uid="{068453BA-5B1D-4F7D-A5F6-D33DEF5034D7}"/>
+    <hyperlink ref="C342" r:id="rId1267" display="https://fbref.com/en/matches/2022-04-02" xr:uid="{0607712A-DC1F-411C-83A0-B5AAF6C52279}"/>
+    <hyperlink ref="E342" r:id="rId1268" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{3B9755E1-BAFB-4E25-9F06-C52F8E560D69}"/>
+    <hyperlink ref="I342" r:id="rId1269" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{BF61E246-5E67-4759-97C6-E6DBC6C1A401}"/>
+    <hyperlink ref="M342" r:id="rId1270" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/18bb7c10/Crystal-Palace-vs-Arsenal-History" xr:uid="{99D5B0C7-0A90-45EB-8A39-3B91C364C79A}"/>
+    <hyperlink ref="C344" r:id="rId1271" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{09E8B018-B797-4B0F-B074-7530D0A7C3E2}"/>
+    <hyperlink ref="E344" r:id="rId1272" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{9E39A992-4739-4B9B-9C37-79915F5924BD}"/>
+    <hyperlink ref="I344" r:id="rId1273" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{A9510D7B-A366-4248-863E-670823E760D9}"/>
+    <hyperlink ref="M344" r:id="rId1274" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/33c895d4/Chelsea-vs-Southampton-History" xr:uid="{C43C78D3-AB5F-4A41-BCE0-EE0F594B01FE}"/>
+    <hyperlink ref="C345" r:id="rId1275" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{263EEA54-3131-42FC-B6BD-F032C8A2A459}"/>
+    <hyperlink ref="E345" r:id="rId1276" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{FBD24816-80D8-44D4-982D-56F968A5D11B}"/>
+    <hyperlink ref="I345" r:id="rId1277" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{67273707-E36D-479C-B514-FB62997679A4}"/>
+    <hyperlink ref="M345" r:id="rId1278" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/2abfe087/Leeds-United-vs-Watford-History" xr:uid="{3CBA7D07-0FD5-4D47-92F0-F41BE38B75ED}"/>
+    <hyperlink ref="C346" r:id="rId1279" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{488AC3FB-D4BE-409A-BC78-35A800883829}"/>
+    <hyperlink ref="E346" r:id="rId1280" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{FF71DA66-C2F0-45EE-9064-E09D73319546}"/>
+    <hyperlink ref="I346" r:id="rId1281" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{4F383280-EE00-4383-AFA9-A0D99F74479F}"/>
+    <hyperlink ref="M346" r:id="rId1282" display="https://fbref.com/en/stathead/matchup/squads/8602292d/361ca564/Aston-Villa-vs-Tottenham-Hotspur-History" xr:uid="{23112361-E54F-4B30-A743-1D6916096E87}"/>
+    <hyperlink ref="C347" r:id="rId1283" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{C2FA1006-1ED7-4C7E-A63B-814BDCC01AAC}"/>
+    <hyperlink ref="E347" r:id="rId1284" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{9BA11596-9FA3-47FA-94C8-5E45CF966C3D}"/>
+    <hyperlink ref="I347" r:id="rId1285" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{B5A6D900-3006-4899-AD67-921EDF1A1D3C}"/>
+    <hyperlink ref="M347" r:id="rId1286" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/18bb7c10/Brighton-and-Hove-Albion-vs-Arsenal-History" xr:uid="{05A61268-3612-4868-9106-06894FA0641A}"/>
+    <hyperlink ref="C348" r:id="rId1287" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{2800FB9E-F5E1-41ED-8FD3-1F7F291B6FD6}"/>
+    <hyperlink ref="E348" r:id="rId1288" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{69C4E7A9-A73A-4A04-A250-1A14FC61BFE2}"/>
+    <hyperlink ref="I348" r:id="rId1289" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{0578859F-AEBF-43AD-8AF5-DF30B01AD9D3}"/>
+    <hyperlink ref="M348" r:id="rId1290" display="https://fbref.com/en/stathead/matchup/squads/cd051869/7c21e445/Brentford-vs-West-Ham-United-History" xr:uid="{B358A842-B544-417F-8C5D-7D0D25692644}"/>
+    <hyperlink ref="C349" r:id="rId1291" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{C265EE5A-CB34-4138-A8DC-30335F3E15CD}"/>
+    <hyperlink ref="E349" r:id="rId1292" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{0E0CE0E7-2AAF-4F44-A82E-20669C23526C}"/>
+    <hyperlink ref="I349" r:id="rId1293" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{9035E64E-F668-4AEE-81F8-925B0766BB89}"/>
+    <hyperlink ref="M349" r:id="rId1294" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/822bd0ba/Manchester-City-vs-Liverpool-History" xr:uid="{95697E79-9C02-4511-801C-D3B76582E531}"/>
+    <hyperlink ref="C350" r:id="rId1295" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{C8A4F848-58E2-4A67-87BE-BA645058871B}"/>
+    <hyperlink ref="E350" r:id="rId1296" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{0E48366B-3692-4CC3-A132-9C7451506CB7}"/>
+    <hyperlink ref="I350" r:id="rId1297" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{CDF1B6C5-2341-4BFC-81C5-7D7A6EDC0AF9}"/>
+    <hyperlink ref="M350" r:id="rId1298" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/47c64c55/Leicester-City-vs-Crystal-Palace-History" xr:uid="{CE1BAC14-B232-4D8E-A5E0-F61D2E171713}"/>
+    <hyperlink ref="C351" r:id="rId1299" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{0B2DE6E5-E037-48C4-AE49-CE15F6CCE0F5}"/>
+    <hyperlink ref="E351" r:id="rId1300" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{5D8EC370-3878-4685-92C2-83A8B2C2E2D6}"/>
+    <hyperlink ref="I351" r:id="rId1301" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{71F31372-FE29-4917-A2D1-FDF3594553B3}"/>
+    <hyperlink ref="M351" r:id="rId1302" display="https://fbref.com/en/stathead/matchup/squads/943e8050/1c781004/Burnley-vs-Norwich-City-History" xr:uid="{4A039DAE-5316-4DE0-9BC1-54C0ADD6492A}"/>
+    <hyperlink ref="C352" r:id="rId1303" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{0F798EDB-8DA0-4FEE-A545-3C780DA24C0D}"/>
+    <hyperlink ref="E352" r:id="rId1304" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6C9A50A1-F735-485E-BB79-B02912BA78C2}"/>
+    <hyperlink ref="I352" r:id="rId1305" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{F14CDD3D-0D07-43E4-A3B9-17DDF7930853}"/>
+    <hyperlink ref="M352" r:id="rId1306" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/8cec06e1/Newcastle-United-vs-Wolverhampton-Wanderers-History" xr:uid="{34B7F376-E950-4D0A-8106-679B7C37C670}"/>
+    <hyperlink ref="C353" r:id="rId1307" display="https://fbref.com/en/matches/2022-04-09" xr:uid="{80A39D99-7F87-40B1-8546-476F443ED12C}"/>
+    <hyperlink ref="E353" r:id="rId1308" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{6382E6DF-9DD3-4740-B8A9-E69560AB6BAF}"/>
+    <hyperlink ref="I353" r:id="rId1309" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{9B8EF5AE-96C6-4E5F-AFAC-FDEB5084C4C3}"/>
+    <hyperlink ref="M353" r:id="rId1310" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/19538871/Everton-vs-Manchester-United-History" xr:uid="{18185334-BB12-42C4-BC51-95A36A5531D0}"/>
+    <hyperlink ref="C355" r:id="rId1311" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{228E2833-5D55-4BD1-98C0-A5C900573690}"/>
+    <hyperlink ref="E355" r:id="rId1312" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{824FAB14-6E9B-4EA7-BEF1-714BF8286CA1}"/>
+    <hyperlink ref="I355" r:id="rId1313" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{111DCF88-DFB9-4A63-9E70-869760D257E6}"/>
+    <hyperlink ref="M355" r:id="rId1314" display="https://fbref.com/en/stathead/matchup/squads/33c895d4/18bb7c10/Southampton-vs-Arsenal-History" xr:uid="{5B6F766E-01F4-4E3E-A176-B50DBB53649C}"/>
+    <hyperlink ref="C356" r:id="rId1315" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{55F7A055-D0E7-4721-94A7-FFD73EDDA087}"/>
+    <hyperlink ref="E356" r:id="rId1316" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{3B11BF35-2ECE-431C-9212-0F2AF07A278C}"/>
+    <hyperlink ref="I356" r:id="rId1317" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{30213766-02B4-4DD2-B423-4877396FBEB2}"/>
+    <hyperlink ref="M356" r:id="rId1318" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/47c64c55/Everton-vs-Crystal-Palace-History" xr:uid="{E216BA9E-1F78-4B5A-A6B6-9CE01585E11F}"/>
+    <hyperlink ref="C357" r:id="rId1319" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{7027ED26-A0EF-4576-AACA-10245D84F043}"/>
+    <hyperlink ref="E357" r:id="rId1320" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{7A535ECD-8D47-4989-A642-33F025895076}"/>
+    <hyperlink ref="I357" r:id="rId1321" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{D3B58978-25E6-451D-8E61-10CAE7E3C565}"/>
+    <hyperlink ref="M357" r:id="rId1322" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8cec06e1/Manchester-City-vs-Wolverhampton-Wanderers-History" xr:uid="{72185805-3C82-444A-A920-BBEEE25A67AB}"/>
+    <hyperlink ref="C358" r:id="rId1323" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{031A3C3B-C540-466C-AE04-7EEC99E53406}"/>
+    <hyperlink ref="E358" r:id="rId1324" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{60645E7C-A7C6-46DB-83F6-BC5A03021271}"/>
+    <hyperlink ref="I358" r:id="rId1325" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{783DAC18-3039-4C00-A499-66F945B78E83}"/>
+    <hyperlink ref="M358" r:id="rId1326" display="https://fbref.com/en/stathead/matchup/squads/1c781004/19538871/Norwich-City-vs-Manchester-United-History" xr:uid="{1690E92B-EFDE-4629-800C-ECED0CF14BF8}"/>
+    <hyperlink ref="C359" r:id="rId1327" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{3EB78BF1-23ED-40A3-BE80-B98C7ED23D82}"/>
+    <hyperlink ref="E359" r:id="rId1328" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{0F22F1A5-F80D-44A7-AC05-B6372F57ACC9}"/>
+    <hyperlink ref="I359" r:id="rId1329" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2FFE4A71-CDA9-41DE-B182-AD7CDD15D561}"/>
+    <hyperlink ref="M359" r:id="rId1330" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/5bfb9659/Chelsea-vs-Leeds-United-History" xr:uid="{F3C685C2-F7D5-4738-A1F1-D11C5E49048D}"/>
+    <hyperlink ref="C360" r:id="rId1331" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{919EB0DB-B97A-448E-9E03-220D7F3501A3}"/>
+    <hyperlink ref="E360" r:id="rId1332" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{B8A4828E-6D96-4EB7-B877-B88E5E46BE1C}"/>
+    <hyperlink ref="I360" r:id="rId1333" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{87BB4159-B29B-4BA9-8ED4-A575E0FB7065}"/>
+    <hyperlink ref="M360" r:id="rId1334" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/a2d435b3/Newcastle-United-vs-Leicester-City-History" xr:uid="{0DE70C33-CF1D-46C2-A586-EC23E41F822E}"/>
+    <hyperlink ref="C361" r:id="rId1335" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{5FB5B19F-86F1-4FAA-ADEA-05D5EAC7BE04}"/>
+    <hyperlink ref="E361" r:id="rId1336" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{C46D528B-4AE9-4B75-BC30-D2C083FEFBB9}"/>
+    <hyperlink ref="I361" r:id="rId1337" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{20C488AB-C633-42EB-8BE9-71EA98ADE79F}"/>
+    <hyperlink ref="M361" r:id="rId1338" display="https://fbref.com/en/stathead/matchup/squads/cd051869/2abfe087/Brentford-vs-Watford-History" xr:uid="{6DDAF8CF-8F7F-48F5-96CA-BECFAA1821D8}"/>
+    <hyperlink ref="C362" r:id="rId1339" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{144ADE44-2EBC-4CC4-B1AC-37DFB223BFA9}"/>
+    <hyperlink ref="E362" r:id="rId1340" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{3BD74575-46C1-466B-940D-D9CC48511660}"/>
+    <hyperlink ref="I362" r:id="rId1341" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{386487F3-C27B-421A-B81D-CE3A6C290D37}"/>
+    <hyperlink ref="M362" r:id="rId1342" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/361ca564/Brighton-and-Hove-Albion-vs-Tottenham-Hotspur-History" xr:uid="{A9C046F8-7BB3-48AF-8D6F-695E1E0301F4}"/>
+    <hyperlink ref="C363" r:id="rId1343" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{B22D4D98-3999-43DB-B19E-F7A3E0280716}"/>
+    <hyperlink ref="E363" r:id="rId1344" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B71AE94B-7597-4FA4-A7C8-2B2764DA144C}"/>
+    <hyperlink ref="I363" r:id="rId1345" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{30342532-65A5-47D4-B3AD-723718592570}"/>
+    <hyperlink ref="M363" r:id="rId1346" display="https://fbref.com/en/stathead/matchup/squads/8602292d/822bd0ba/Aston-Villa-vs-Liverpool-History" xr:uid="{05B19C5A-BFB8-4DE1-BFA8-9AFC55EA07BF}"/>
+    <hyperlink ref="C364" r:id="rId1347" display="https://fbref.com/en/matches/2022-04-16" xr:uid="{1877CCA1-A8EC-4FAB-93C2-E0DB569CF477}"/>
+    <hyperlink ref="E364" r:id="rId1348" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F1AEE34D-91FC-4AEF-9A54-DA380135C1A0}"/>
+    <hyperlink ref="I364" r:id="rId1349" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{4028EE8E-EF49-46CB-8001-ABCAB383D718}"/>
+    <hyperlink ref="M364" r:id="rId1350" display="https://fbref.com/en/stathead/matchup/squads/943e8050/7c21e445/Burnley-vs-West-Ham-United-History" xr:uid="{3F96428D-8C27-486F-8C4D-5B6213192D4F}"/>
+    <hyperlink ref="C366" r:id="rId1351" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{244ECB62-59F5-4328-8167-3C285DAABDE8}"/>
+    <hyperlink ref="E366" r:id="rId1352" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{192C7B8E-CD7C-4291-8D1C-EAF02333447F}"/>
+    <hyperlink ref="I366" r:id="rId1353" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{1A5D57C9-AC34-410C-9A1A-ADAD416421D1}"/>
+    <hyperlink ref="M366" r:id="rId1354" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/822bd0ba/Merseyside-Derby-Everton-vs-Liverpool-History" xr:uid="{0507D5CB-8B03-4FC7-BDAC-607E633EEA55}"/>
+    <hyperlink ref="C367" r:id="rId1355" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{12CF5AA1-B9AB-4668-A6B5-0F0D025A33DF}"/>
+    <hyperlink ref="E367" r:id="rId1356" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{FEEE6FEA-A84A-4E03-9C1B-94DFA25EC8DD}"/>
+    <hyperlink ref="I367" r:id="rId1357" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{017C1B9E-F5F9-46D2-99DD-068D3F934CAC}"/>
+    <hyperlink ref="M367" r:id="rId1358" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/1c781004/Newcastle-United-vs-Norwich-City-History" xr:uid="{522EDED1-7418-4C30-92A6-B6F558925A8E}"/>
+    <hyperlink ref="C368" r:id="rId1359" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{508C303C-8530-4F3E-9648-8C5AE112B419}"/>
+    <hyperlink ref="E368" r:id="rId1360" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{BBEAD26F-9A98-4E9B-848D-EFCC327653C7}"/>
+    <hyperlink ref="I368" r:id="rId1361" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{B53FF5C4-4B74-4C4A-BB50-8731BDD7EBDF}"/>
+    <hyperlink ref="M368" r:id="rId1362" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/8602292d/Leicester-City-vs-Aston-Villa-History" xr:uid="{7DD9B25C-EA73-4C76-977D-AAFC1BA63541}"/>
+    <hyperlink ref="C369" r:id="rId1363" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{53E5D9A1-CF47-4374-BA96-45C3B1AD7F05}"/>
+    <hyperlink ref="E369" r:id="rId1364" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{5B0CEC7A-8C83-4132-A731-676C6749DEF9}"/>
+    <hyperlink ref="I369" r:id="rId1365" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{0290B77A-AB84-453D-A5B3-12159136BF18}"/>
+    <hyperlink ref="M369" r:id="rId1366" display="https://fbref.com/en/stathead/matchup/squads/19538871/18bb7c10/Manchester-United-vs-Arsenal-History" xr:uid="{6D326D8F-C864-4979-9887-D63B4B19AEC5}"/>
+    <hyperlink ref="C370" r:id="rId1367" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{B544B726-B786-4DD3-AD8A-40031E87344B}"/>
+    <hyperlink ref="E370" r:id="rId1368" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{056658F6-D701-4F90-9584-00E9943EB261}"/>
+    <hyperlink ref="I370" r:id="rId1369" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{1C1191E9-F6A7-4BA5-8500-6855AF611FE8}"/>
+    <hyperlink ref="M370" r:id="rId1370" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/2abfe087/Manchester-City-vs-Watford-History" xr:uid="{22E7C38E-8814-450F-8644-427B6445ADB9}"/>
+    <hyperlink ref="C371" r:id="rId1371" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{9EDB24A6-67E5-4D1D-9A3C-AEE60C629553}"/>
+    <hyperlink ref="E371" r:id="rId1372" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{BE1DF858-F9F8-4D8D-9BE4-9CDF417F88B0}"/>
+    <hyperlink ref="I371" r:id="rId1373" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{8FFD803F-65FE-47E3-B7DA-2317D3E90862}"/>
+    <hyperlink ref="M371" r:id="rId1374" display="https://fbref.com/en/stathead/matchup/squads/cd051869/361ca564/Brentford-vs-Tottenham-Hotspur-History" xr:uid="{B950BEF3-A587-4578-BDB1-278FD00EF675}"/>
+    <hyperlink ref="C372" r:id="rId1375" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{C5731CD5-33AA-4C43-A692-13941AFBBBCD}"/>
+    <hyperlink ref="E372" r:id="rId1376" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{515B93EC-155E-4DE6-9758-D9F72B772BFD}"/>
+    <hyperlink ref="I372" r:id="rId1377" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{39C58411-A256-45FF-B9EE-A77765C8E66D}"/>
+    <hyperlink ref="M372" r:id="rId1378" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/47c64c55/Leeds-United-vs-Crystal-Palace-History" xr:uid="{DE8A7298-0E4E-439E-9440-F80EFFADAC49}"/>
+    <hyperlink ref="C373" r:id="rId1379" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{B61F776D-6AFA-4DD1-A88A-90DE78221C33}"/>
+    <hyperlink ref="E373" r:id="rId1380" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{1091AA42-1F08-4A86-B940-49347105CBD1}"/>
+    <hyperlink ref="I373" r:id="rId1381" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{39784964-9F1B-4C68-B13D-056910D38CA0}"/>
+    <hyperlink ref="M373" r:id="rId1382" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/33c895d4/Brighton-and-Hove-Albion-vs-Southampton-History" xr:uid="{DB06E9B6-12E0-425E-AAB0-46691E049A2A}"/>
+    <hyperlink ref="C374" r:id="rId1383" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{A062FC78-85EE-450A-B3D6-36315AB521AE}"/>
+    <hyperlink ref="E374" r:id="rId1384" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{C78D21DD-8E0C-4821-9E25-CF438DC3D64D}"/>
+    <hyperlink ref="I374" r:id="rId1385" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{A9351D48-D08D-4615-B3C8-FA3C15A957D6}"/>
+    <hyperlink ref="M374" r:id="rId1386" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8cec06e1/Burnley-vs-Wolverhampton-Wanderers-History" xr:uid="{3659E127-E836-48E0-B750-807F00BB59C0}"/>
+    <hyperlink ref="C375" r:id="rId1387" display="https://fbref.com/en/matches/2022-04-23" xr:uid="{F60C8C34-5D21-4E06-8069-D280F3B72D4D}"/>
+    <hyperlink ref="E375" r:id="rId1388" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{D9EAF0E6-2D79-4141-8D74-274393E5B92B}"/>
+    <hyperlink ref="I375" r:id="rId1389" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{AEA3FAC2-C870-4B24-AC13-963AE2652BE3}"/>
+    <hyperlink ref="M375" r:id="rId1390" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/7c21e445/Chelsea-vs-West-Ham-United-History" xr:uid="{839A2FE7-4311-42A5-9895-40C765245EF0}"/>
+    <hyperlink ref="C377" r:id="rId1391" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{472AEAE2-4643-44B4-9F70-7FCBCC8C073F}"/>
+    <hyperlink ref="E377" r:id="rId1392" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{00D32347-2EFF-4B3A-9FFB-F0C676DEB9D0}"/>
+    <hyperlink ref="I377" r:id="rId1393" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{03D58F9B-073E-48FF-B0B6-D1EB4EE2A448}"/>
+    <hyperlink ref="M377" r:id="rId1394" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/822bd0ba/Newcastle-United-vs-Liverpool-History" xr:uid="{FC6DCC90-B680-49BE-BE35-23DAE186E53C}"/>
+    <hyperlink ref="C378" r:id="rId1395" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{5A9DA725-2E65-4784-9911-C59521838180}"/>
+    <hyperlink ref="E378" r:id="rId1396" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{668E49F8-730D-45E2-816D-D9DA34337DEA}"/>
+    <hyperlink ref="I378" r:id="rId1397" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{7AE62663-A588-42A2-A70A-18783A868C94}"/>
+    <hyperlink ref="M378" r:id="rId1398" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/8cec06e1/Brighton-and-Hove-Albion-vs-Wolverhampton-Wanderers-History" xr:uid="{C4ACABEF-3FBB-416E-A28C-3D642CEFB06B}"/>
+    <hyperlink ref="C379" r:id="rId1399" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{1932C396-8CAC-46CE-B3C7-54193599953C}"/>
+    <hyperlink ref="E379" r:id="rId1400" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{B6364F98-D8D7-4F5D-BAAB-092BE4516555}"/>
+    <hyperlink ref="I379" r:id="rId1401" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{D5C7416D-AF6E-4003-BAC4-232DB5DE5970}"/>
+    <hyperlink ref="M379" r:id="rId1402" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/18bb7c10/West-Ham-United-vs-Arsenal-History" xr:uid="{D988D395-318F-48D1-96D0-DF05986B04EF}"/>
+    <hyperlink ref="C380" r:id="rId1403" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{A6F6F016-F973-417F-B625-93AE4AB23F0E}"/>
+    <hyperlink ref="E380" r:id="rId1404" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{A13BB857-4787-465F-8936-43DDD23129FD}"/>
+    <hyperlink ref="I380" r:id="rId1405" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{A6E0A0C9-FFDA-4BC9-94CA-DB22A03AD0F6}"/>
+    <hyperlink ref="M380" r:id="rId1406" display="https://fbref.com/en/stathead/matchup/squads/943e8050/2abfe087/Burnley-vs-Watford-History" xr:uid="{FC1C3FA9-3113-4765-B420-548DF104CB77}"/>
+    <hyperlink ref="C381" r:id="rId1407" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{DD360783-05EF-446F-AAE7-9CFE771E9D27}"/>
+    <hyperlink ref="E381" r:id="rId1408" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{33F537E1-63F0-483C-84B7-B65EE3144642}"/>
+    <hyperlink ref="I381" r:id="rId1409" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{BE8C2D16-0707-4131-97EC-56842322EC5D}"/>
+    <hyperlink ref="M381" r:id="rId1410" display="https://fbref.com/en/stathead/matchup/squads/8602292d/1c781004/Aston-Villa-vs-Norwich-City-History" xr:uid="{880F2F17-2D3E-4169-910F-4134C7AF2BE5}"/>
+    <hyperlink ref="C382" r:id="rId1411" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{E1E860AE-C5E9-4D19-BB68-D5E9AAD7A1EF}"/>
+    <hyperlink ref="E382" r:id="rId1412" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{9DC0BF4E-8F05-4BFC-8E32-83DAEC2939A0}"/>
+    <hyperlink ref="I382" r:id="rId1413" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{1F61EDB6-1C5A-4536-B44B-9319DBC2C3FB}"/>
+    <hyperlink ref="M382" r:id="rId1414" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/5bfb9659/Manchester-City-vs-Leeds-United-History" xr:uid="{157EC14B-47EF-4F82-96C1-44BDBA51C1D3}"/>
+    <hyperlink ref="C383" r:id="rId1415" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{12ADFBB1-3949-4AE4-9135-490F157D9A04}"/>
+    <hyperlink ref="E383" r:id="rId1416" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{107E0C62-E9E0-42FD-B29F-60C1B267206E}"/>
+    <hyperlink ref="I383" r:id="rId1417" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{1D84B149-CE8D-4C1D-9377-6F3A33DA348E}"/>
+    <hyperlink ref="M383" r:id="rId1418" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/361ca564/Leicester-City-vs-Tottenham-Hotspur-History" xr:uid="{3E314870-A22A-4911-90BD-D1A88D5759C4}"/>
+    <hyperlink ref="C384" r:id="rId1419" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{A48F8155-3560-4F4D-9D0A-35F5F884149E}"/>
+    <hyperlink ref="E384" r:id="rId1420" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{593BD5D6-2ED5-431B-AE9E-1DAA859162AA}"/>
+    <hyperlink ref="I384" r:id="rId1421" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{21C80BE1-BED3-4245-9DD7-B121AAC6D2ED}"/>
+    <hyperlink ref="M384" r:id="rId1422" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cff3d9bb/Everton-vs-Chelsea-History" xr:uid="{3C38E24E-B116-46E0-AD8C-D44D6B6CD3ED}"/>
+    <hyperlink ref="C385" r:id="rId1423" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{7DE49A13-D630-4AFF-AE9B-F1780BF0243A}"/>
+    <hyperlink ref="E385" r:id="rId1424" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{E3A2DD3E-0374-4F81-B2C0-E261BDB32E92}"/>
+    <hyperlink ref="I385" r:id="rId1425" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{00B35DAF-426C-4DEC-AD80-EF2EDA3C1FFA}"/>
+    <hyperlink ref="M385" r:id="rId1426" display="https://fbref.com/en/stathead/matchup/squads/cd051869/19538871/Brentford-vs-Manchester-United-History" xr:uid="{647E3647-9D60-4B32-A163-776B95B9C407}"/>
+    <hyperlink ref="C386" r:id="rId1427" display="https://fbref.com/en/matches/2022-04-30" xr:uid="{779C422B-0CFB-4FF5-A5BC-1854944B54B3}"/>
+    <hyperlink ref="E386" r:id="rId1428" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{564F730E-819C-47FB-BE7D-B2428CDF32C6}"/>
+    <hyperlink ref="I386" r:id="rId1429" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{B1D14B96-D878-4E0D-9903-E206E56BA604}"/>
+    <hyperlink ref="M386" r:id="rId1430" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/33c895d4/Crystal-Palace-vs-Southampton-History" xr:uid="{B9552BC9-E272-4AC0-8F4B-B0FA26436BA7}"/>
+    <hyperlink ref="C388" r:id="rId1431" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{61B1D8DE-4CAD-4D9E-BBDA-B9F4434DE48A}"/>
+    <hyperlink ref="E388" r:id="rId1432" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{2227B133-3041-4E40-AA42-DBFD39D99D6B}"/>
+    <hyperlink ref="I388" r:id="rId1433" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{6663BE06-C418-4FD0-8B39-92BF56B7D637}"/>
+    <hyperlink ref="M388" r:id="rId1434" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/8cec06e1/Chelsea-vs-Wolverhampton-Wanderers-History" xr:uid="{B63CE061-4D48-4F88-A8B9-2C977868FB80}"/>
+    <hyperlink ref="C389" r:id="rId1435" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{A6F2AACB-5614-4487-ACA2-42BBBF27FFBC}"/>
+    <hyperlink ref="E389" r:id="rId1436" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{5A282DDB-BF72-4A7F-B918-360910A2A92D}"/>
+    <hyperlink ref="I389" r:id="rId1437" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{68DA95B6-9012-4174-BAD3-4D8790BDF589}"/>
+    <hyperlink ref="M389" r:id="rId1438" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/361ca564/Liverpool-vs-Tottenham-Hotspur-History" xr:uid="{37902027-468A-4F2C-A3AF-FC265CCBAE75}"/>
+    <hyperlink ref="C390" r:id="rId1439" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{74AA774B-E8BE-475E-A0B3-F74D53703EE2}"/>
+    <hyperlink ref="E390" r:id="rId1440" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{F8E6FDEB-29C2-4FDA-A9E1-DF0A6F427600}"/>
+    <hyperlink ref="I390" r:id="rId1441" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{C77DE331-BCC3-4E01-8676-1C8734B40A73}"/>
+    <hyperlink ref="M390" r:id="rId1442" display="https://fbref.com/en/stathead/matchup/squads/943e8050/8602292d/Burnley-vs-Aston-Villa-History" xr:uid="{A75A1C46-541A-424E-8565-DC564A06AB7E}"/>
+    <hyperlink ref="C391" r:id="rId1443" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{5E9CAD68-3918-45A3-A8EF-34B4F74BE872}"/>
+    <hyperlink ref="E391" r:id="rId1444" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{C2DE9B94-2D2A-49E1-9CE9-39D2FE328335}"/>
+    <hyperlink ref="I391" r:id="rId1445" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{6A25A6FA-42E3-4D0C-9C2C-E2720532C180}"/>
+    <hyperlink ref="M391" r:id="rId1446" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/b2b47a98/Manchester-City-vs-Newcastle-United-History" xr:uid="{5831F07D-4171-40C2-9FEA-8BAA7A6E89DD}"/>
+    <hyperlink ref="C392" r:id="rId1447" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{818D3C36-8C9A-4873-AF37-5AE26B1D5904}"/>
+    <hyperlink ref="E392" r:id="rId1448" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{0D5C1852-5984-4BB3-9FFC-A891F7BCF7CC}"/>
+    <hyperlink ref="I392" r:id="rId1449" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{564B372F-7FAA-492A-A7F2-7A98915D051F}"/>
+    <hyperlink ref="M392" r:id="rId1450" display="https://fbref.com/en/stathead/matchup/squads/cd051869/33c895d4/Brentford-vs-Southampton-History" xr:uid="{18FB32E9-DE73-421B-8683-7334209D8B2D}"/>
+    <hyperlink ref="C393" r:id="rId1451" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{A68C14D0-146C-47E7-9660-A7FD69A22EBC}"/>
+    <hyperlink ref="E393" r:id="rId1452" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{F62DD658-6FCE-44A9-A05B-C224BB022231}"/>
+    <hyperlink ref="I393" r:id="rId1453" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{56D2DFED-FB74-45DA-8569-FC4EB876D43A}"/>
+    <hyperlink ref="M393" r:id="rId1454" display="https://fbref.com/en/stathead/matchup/squads/5bfb9659/18bb7c10/Leeds-United-vs-Arsenal-History" xr:uid="{CE141F69-9D60-4148-84BC-97887306BF9F}"/>
+    <hyperlink ref="C394" r:id="rId1455" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{DD4757A8-498F-496F-846A-945A35D8ADD0}"/>
+    <hyperlink ref="E394" r:id="rId1456" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{CC6A74AD-13CE-43EE-9A59-FCC21DCC359E}"/>
+    <hyperlink ref="I394" r:id="rId1457" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{63BC5B72-7A7D-47CA-BE98-C312B53367F8}"/>
+    <hyperlink ref="M394" r:id="rId1458" display="https://fbref.com/en/stathead/matchup/squads/7c21e445/1c781004/West-Ham-United-vs-Norwich-City-History" xr:uid="{E6AA1362-EC7F-44DC-B776-C45EFD8566C9}"/>
+    <hyperlink ref="C395" r:id="rId1459" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{5EACD474-C551-4D1D-87C3-F7D105B60EC8}"/>
+    <hyperlink ref="E395" r:id="rId1460" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{AB62ABA7-E2D4-4037-BD88-5AC63F4771CB}"/>
+    <hyperlink ref="I395" r:id="rId1461" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{E44A7035-C76F-45DA-A550-3A37D1C369EB}"/>
+    <hyperlink ref="M395" r:id="rId1462" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/2abfe087/Crystal-Palace-vs-Watford-History" xr:uid="{EB6D847D-B72F-4533-AAE7-3EFF8D6160C7}"/>
+    <hyperlink ref="C396" r:id="rId1463" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{87DB1A14-5715-4768-9A06-065F00F8D4EB}"/>
+    <hyperlink ref="E396" r:id="rId1464" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{AC6A9EDA-326E-49AE-A0A7-AEC7885C0F23}"/>
+    <hyperlink ref="I396" r:id="rId1465" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{0C0BE374-A877-4593-A9FE-ACD4BD40129A}"/>
+    <hyperlink ref="M396" r:id="rId1466" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/a2d435b3/Everton-vs-Leicester-City-History" xr:uid="{5872375B-F1BF-4117-B5E7-AD74A13A56A9}"/>
+    <hyperlink ref="C397" r:id="rId1467" display="https://fbref.com/en/matches/2022-05-07" xr:uid="{68DFB706-5482-43A7-97D7-7719D5CD88AC}"/>
+    <hyperlink ref="E397" r:id="rId1468" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{AD5C2C52-C441-4A7A-96D2-438C0091FD19}"/>
+    <hyperlink ref="I397" r:id="rId1469" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{CC341557-3532-4EA8-98E8-A312EEB1D670}"/>
+    <hyperlink ref="M397" r:id="rId1470" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/19538871/Brighton-and-Hove-Albion-vs-Manchester-United-History" xr:uid="{3809A9CF-9D5B-43AF-8202-DB994C85DD33}"/>
+    <hyperlink ref="C399" r:id="rId1471" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{86DC3A6C-2585-4567-ACCE-DEEEF8BBF043}"/>
+    <hyperlink ref="E399" r:id="rId1472" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{71A244E1-54EC-4F27-A252-16A568C87E67}"/>
+    <hyperlink ref="I399" r:id="rId1473" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{87C914CA-FA7D-4578-BD56-DF3952B6F07F}"/>
+    <hyperlink ref="M399" r:id="rId1474" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/cd051869/Everton-vs-Brentford-History" xr:uid="{39A983B0-18DA-49D1-8943-2ECC42BD4D3E}"/>
+    <hyperlink ref="C400" r:id="rId1475" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{C0A620CB-356F-4675-AE07-43B28D11DD96}"/>
+    <hyperlink ref="E400" r:id="rId1476" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{4CA5F8AE-1186-47CD-8555-3B126ADA112B}"/>
+    <hyperlink ref="I400" r:id="rId1477" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{36C46234-2A26-4079-A758-8CED82B621AF}"/>
+    <hyperlink ref="M400" r:id="rId1478" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/19538871/Chelsea-vs-Manchester-United-History" xr:uid="{DBD8A876-0E58-4CFE-813B-8CA22AAB5A2D}"/>
+    <hyperlink ref="C401" r:id="rId1479" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{D26E2E62-0F15-4505-9CB6-FA5F3BDC6671}"/>
+    <hyperlink ref="E401" r:id="rId1480" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{6390EF45-F118-40E1-B8C3-81161E29EEDB}"/>
+    <hyperlink ref="I401" r:id="rId1481" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{4BC0475A-EB90-43DA-BE67-5125AB1A6695}"/>
+    <hyperlink ref="M401" r:id="rId1482" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/5bfb9659/Brighton-and-Hove-Albion-vs-Leeds-United-History" xr:uid="{CA709814-DBC9-422B-B5BF-4F414746EEB0}"/>
+    <hyperlink ref="C402" r:id="rId1483" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{273AEA6F-F501-447C-BD65-52B76256AE3C}"/>
+    <hyperlink ref="E402" r:id="rId1484" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{EECC1355-419F-4724-BAA6-07E0AE7A6DCA}"/>
+    <hyperlink ref="I402" r:id="rId1485" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{744C46B1-23C3-47F4-8BDB-36B84C3DC3A9}"/>
+    <hyperlink ref="M402" r:id="rId1486" display="https://fbref.com/en/stathead/matchup/squads/8602292d/47c64c55/Aston-Villa-vs-Crystal-Palace-History" xr:uid="{204FC6AF-5144-46ED-A575-9BA76BC4D661}"/>
+    <hyperlink ref="C403" r:id="rId1487" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{AC7D0B53-A675-49BB-8C41-709FF9D6FD17}"/>
+    <hyperlink ref="E403" r:id="rId1488" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{5AB3DC40-37E7-4511-B946-6E03E08E9228}"/>
+    <hyperlink ref="I403" r:id="rId1489" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{2D7409DA-7A3E-47A0-904C-07CA1B3A72DD}"/>
+    <hyperlink ref="M403" r:id="rId1490" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/2abfe087/Leicester-City-vs-Watford-History" xr:uid="{150FD31C-1AE6-4F41-B9AD-68B1C36D00C7}"/>
+    <hyperlink ref="C404" r:id="rId1491" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{22C0093E-178E-4B9D-8AB8-8AEFD5CA5CA6}"/>
+    <hyperlink ref="E404" r:id="rId1492" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{863A841D-8D9A-4E6A-AEB5-9A7F6CB02B98}"/>
+    <hyperlink ref="I404" r:id="rId1493" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{91FDD8D4-48CF-4EEC-B72C-26C3E7B2C353}"/>
+    <hyperlink ref="M404" r:id="rId1494" display="https://fbref.com/en/stathead/matchup/squads/822bd0ba/33c895d4/Liverpool-vs-Southampton-History" xr:uid="{7A9F4EC3-E5E5-47CB-951A-A482C6FFC5DA}"/>
+    <hyperlink ref="C405" r:id="rId1495" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{19462A19-4056-4516-B866-DC79A04A7741}"/>
+    <hyperlink ref="E405" r:id="rId1496" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F4E85CCC-4421-4776-929D-346510FE2C94}"/>
+    <hyperlink ref="I405" r:id="rId1497" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{E856F04B-6D6B-4F0B-9BAA-C1FFE6BC52B5}"/>
+    <hyperlink ref="M405" r:id="rId1498" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/7c21e445/Manchester-City-vs-West-Ham-United-History" xr:uid="{C608FB3E-147E-48E6-949C-8312E2A4FFE1}"/>
+    <hyperlink ref="C406" r:id="rId1499" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{669D3DB1-00CA-481D-801F-7D1FFF2C442F}"/>
+    <hyperlink ref="E406" r:id="rId1500" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{5BF366D4-F0AB-4C9D-B59C-299266EE5D3D}"/>
+    <hyperlink ref="I406" r:id="rId1501" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{1215FE0E-E550-4500-8CE4-4D8D1CF5F9DF}"/>
+    <hyperlink ref="M406" r:id="rId1502" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/1c781004/Wolverhampton-Wanderers-vs-Norwich-City-History" xr:uid="{EBA8023D-4F34-49CF-9EBE-137B761A4019}"/>
+    <hyperlink ref="C407" r:id="rId1503" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{DAD7D558-F48B-4E17-A324-962DFCBE8F26}"/>
+    <hyperlink ref="E407" r:id="rId1504" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{FA1DF921-593C-47FD-A162-811B111DDEC3}"/>
+    <hyperlink ref="I407" r:id="rId1505" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{451E110F-2FAC-4A5A-B916-F8F77F548E1E}"/>
+    <hyperlink ref="M407" r:id="rId1506" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/18bb7c10/Newcastle-United-vs-Arsenal-History" xr:uid="{D19B1032-47FC-48B6-962D-99541E77EDBB}"/>
+    <hyperlink ref="C408" r:id="rId1507" display="https://fbref.com/en/matches/2022-05-15" xr:uid="{F14F9885-9113-4132-9B64-D1EC633729A8}"/>
+    <hyperlink ref="E408" r:id="rId1508" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{6ECD0CC1-B4CC-4F3A-9792-5B9B797D03BE}"/>
+    <hyperlink ref="I408" r:id="rId1509" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{673B9ED8-585E-4DE4-891B-DF990D1FC5AE}"/>
+    <hyperlink ref="M408" r:id="rId1510" display="https://fbref.com/en/stathead/matchup/squads/943e8050/361ca564/Burnley-vs-Tottenham-Hotspur-History" xr:uid="{0089BA0F-3D62-4CAE-A65A-C51A8703AA37}"/>
+    <hyperlink ref="C410" r:id="rId1511" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{DBAACB11-7DCA-42C2-AB92-6B7B16E1DB07}"/>
+    <hyperlink ref="E410" r:id="rId1512" display="https://fbref.com/en/squads/1c781004/Norwich-City-Stats" xr:uid="{464BDBCE-FD99-42B9-9BB5-237641A7903B}"/>
+    <hyperlink ref="I410" r:id="rId1513" display="https://fbref.com/en/squads/361ca564/Tottenham-Hotspur-Stats" xr:uid="{B9414020-F252-48ED-BF35-186AC2CAB072}"/>
+    <hyperlink ref="M410" r:id="rId1514" display="https://fbref.com/en/stathead/matchup/squads/361ca564/1c781004/Tottenham-Hotspur-vs-Norwich-City-History" xr:uid="{2AFB7E0D-91CA-4D54-8D46-7E4212586373}"/>
+    <hyperlink ref="C411" r:id="rId1515" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{FDCD215B-04D1-49F0-97B9-9778930BD870}"/>
+    <hyperlink ref="E411" r:id="rId1516" display="https://fbref.com/en/squads/cd051869/Brentford-Stats" xr:uid="{37E484E8-1B34-48BD-AAF0-A251D91E2E64}"/>
+    <hyperlink ref="I411" r:id="rId1517" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{68E975AC-AC23-46AA-B475-13D017D4488B}"/>
+    <hyperlink ref="M411" r:id="rId1518" display="https://fbref.com/en/stathead/matchup/squads/cd051869/5bfb9659/Brentford-vs-Leeds-United-History" xr:uid="{4D27EC7A-A658-4019-8ACC-0D5843787F95}"/>
+    <hyperlink ref="C412" r:id="rId1519" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{B6120F82-0553-4394-AA37-DB812496C4F8}"/>
+    <hyperlink ref="E412" r:id="rId1520" display="https://fbref.com/en/squads/d07537b9/Brighton-and-Hove-Albion-Stats" xr:uid="{963973B0-5E81-4A92-BA01-F99D0996FB0C}"/>
+    <hyperlink ref="I412" r:id="rId1521" display="https://fbref.com/en/squads/7c21e445/West-Ham-United-Stats" xr:uid="{F63E009E-B90B-4CCC-B7A0-5D91E4C18A95}"/>
+    <hyperlink ref="M412" r:id="rId1522" display="https://fbref.com/en/stathead/matchup/squads/d07537b9/7c21e445/Brighton-and-Hove-Albion-vs-West-Ham-United-History" xr:uid="{675FBE45-1D6E-40F2-B8A1-485904E2DD1C}"/>
+    <hyperlink ref="C413" r:id="rId1523" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{618135F2-A794-4749-85A6-8EA08514823F}"/>
+    <hyperlink ref="E413" r:id="rId1524" display="https://fbref.com/en/squads/822bd0ba/Liverpool-Stats" xr:uid="{FB665646-A805-4EE1-8331-C21BBEC7EC75}"/>
+    <hyperlink ref="I413" r:id="rId1525" display="https://fbref.com/en/squads/8cec06e1/Wolverhampton-Wanderers-Stats" xr:uid="{BFB60B9F-55AF-4F5A-8586-DDA91DFA9887}"/>
+    <hyperlink ref="M413" r:id="rId1526" display="https://fbref.com/en/stathead/matchup/squads/8cec06e1/822bd0ba/Wolverhampton-Wanderers-vs-Liverpool-History" xr:uid="{A4E3699A-4EE3-4EAD-B02F-8DF7C7877929}"/>
+    <hyperlink ref="C414" r:id="rId1527" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{7BA62883-288D-40DE-B417-FDA0A62208AB}"/>
+    <hyperlink ref="E414" r:id="rId1528" display="https://fbref.com/en/squads/b8fd03ef/Manchester-City-Stats" xr:uid="{96E91EAD-F2CF-41A2-9E8D-77ABE6A4DE25}"/>
+    <hyperlink ref="I414" r:id="rId1529" display="https://fbref.com/en/squads/8602292d/Aston-Villa-Stats" xr:uid="{E42BD102-50A4-4275-8CCE-8FD792572507}"/>
+    <hyperlink ref="M414" r:id="rId1530" display="https://fbref.com/en/stathead/matchup/squads/b8fd03ef/8602292d/Manchester-City-vs-Aston-Villa-History" xr:uid="{A0A24B8A-6A13-46F8-A0CB-CF9D081FEC18}"/>
+    <hyperlink ref="C415" r:id="rId1531" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{AA9E0944-9435-42D8-A718-C31AB3C8C946}"/>
+    <hyperlink ref="E415" r:id="rId1532" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{6A885B8E-397C-4FD1-9355-8F730F32125F}"/>
+    <hyperlink ref="I415" r:id="rId1533" display="https://fbref.com/en/squads/b2b47a98/Newcastle-United-Stats" xr:uid="{1C220D42-BF28-4DD8-B4DC-43F5EFE25F9C}"/>
+    <hyperlink ref="M415" r:id="rId1534" display="https://fbref.com/en/stathead/matchup/squads/b2b47a98/943e8050/Newcastle-United-vs-Burnley-History" xr:uid="{8EC5BF93-D550-4EE1-8D20-335C5281344E}"/>
+    <hyperlink ref="C416" r:id="rId1535" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{C7C8563E-6AF4-4405-93EB-1D2100FDC43A}"/>
+    <hyperlink ref="E416" r:id="rId1536" display="https://fbref.com/en/squads/47c64c55/Crystal-Palace-Stats" xr:uid="{BD5EC143-ACC1-4506-AF6F-B344BA2A65FE}"/>
+    <hyperlink ref="I416" r:id="rId1537" display="https://fbref.com/en/squads/19538871/Manchester-United-Stats" xr:uid="{61BC1798-DB2E-41D1-ADF6-B6CEA4C95F28}"/>
+    <hyperlink ref="M416" r:id="rId1538" display="https://fbref.com/en/stathead/matchup/squads/47c64c55/19538871/Crystal-Palace-vs-Manchester-United-History" xr:uid="{2E9E5856-ACA7-4905-9A0B-1EE766CAF166}"/>
+    <hyperlink ref="C417" r:id="rId1539" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{14ACC787-6F6D-47EA-887F-A9AE42EAD276}"/>
+    <hyperlink ref="E417" r:id="rId1540" display="https://fbref.com/en/squads/cff3d9bb/Chelsea-Stats" xr:uid="{DF0BB4FA-BFAE-4DBE-ABEE-21202E493882}"/>
+    <hyperlink ref="I417" r:id="rId1541" display="https://fbref.com/en/squads/2abfe087/Watford-Stats" xr:uid="{945357D2-00CD-412C-AD32-92CC42D65ADC}"/>
+    <hyperlink ref="M417" r:id="rId1542" display="https://fbref.com/en/stathead/matchup/squads/cff3d9bb/2abfe087/Chelsea-vs-Watford-History" xr:uid="{441D0A37-B0DA-49A0-AC36-66AB1A7E09BE}"/>
+    <hyperlink ref="C418" r:id="rId1543" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{696BF0F8-5D19-4071-8856-320BCE71D80E}"/>
+    <hyperlink ref="E418" r:id="rId1544" display="https://fbref.com/en/squads/18bb7c10/Arsenal-Stats" xr:uid="{E0A58B36-1DDA-4237-B361-FEAB7E185F4C}"/>
+    <hyperlink ref="I418" r:id="rId1545" display="https://fbref.com/en/squads/d3fd31cc/Everton-Stats" xr:uid="{FF254004-20FF-4A0E-B00E-3C1B2130C129}"/>
+    <hyperlink ref="M418" r:id="rId1546" display="https://fbref.com/en/stathead/matchup/squads/d3fd31cc/18bb7c10/Everton-vs-Arsenal-History" xr:uid="{3D05B9D4-12D0-4702-8307-D9D100ED7946}"/>
+    <hyperlink ref="C419" r:id="rId1547" display="https://fbref.com/en/matches/2022-05-22" xr:uid="{D67BB0DB-4CBA-40F8-92A3-771DE7A21799}"/>
+    <hyperlink ref="E419" r:id="rId1548" display="https://fbref.com/en/squads/a2d435b3/Leicester-City-Stats" xr:uid="{E7119F93-55D8-4EE8-99A9-2B612A5A68DF}"/>
+    <hyperlink ref="I419" r:id="rId1549" display="https://fbref.com/en/squads/33c895d4/Southampton-Stats" xr:uid="{699733F6-7369-49E6-BEDC-E5429FA58FD3}"/>
+    <hyperlink ref="M419" r:id="rId1550" display="https://fbref.com/en/stathead/matchup/squads/a2d435b3/33c895d4/Leicester-City-vs-Southampton-History" xr:uid="{4512C666-F2B3-4E5F-BBE3-1C6EA07572F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1537"/>
+  <pageSetup orientation="portrait" r:id="rId1551"/>
 </worksheet>
 </file>